--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -12,20 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="14790" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="00101现金流1" sheetId="1" r:id="rId1"/>
-    <sheet name="00102现金流2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Dict" sheetId="4" r:id="rId1"/>
+    <sheet name="00101现金流1" sheetId="1" r:id="rId2"/>
+    <sheet name="00102现金流2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'00101现金流1'!$A$1:$J$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00102现金流2'!$A$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'00102现金流2'!$A$1:$J$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="135">
   <si>
     <t>Account</t>
   </si>
@@ -325,6 +325,111 @@
   </si>
   <si>
     <t>06/20</t>
+  </si>
+  <si>
+    <t>07/10</t>
+  </si>
+  <si>
+    <t>08/17</t>
+  </si>
+  <si>
+    <t>08/03</t>
+  </si>
+  <si>
+    <t>09/01</t>
+  </si>
+  <si>
+    <t>09/14</t>
+  </si>
+  <si>
+    <t>10/17</t>
+  </si>
+  <si>
+    <t>A000338</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
+  <si>
+    <t>07/07</t>
+  </si>
+  <si>
+    <t>A002007</t>
+  </si>
+  <si>
+    <t>07/20</t>
+  </si>
+  <si>
+    <t>A000001</t>
+  </si>
+  <si>
+    <t>07/21</t>
+  </si>
+  <si>
+    <t>A000848</t>
+  </si>
+  <si>
+    <t>08/24</t>
+  </si>
+  <si>
+    <t>08/29</t>
+  </si>
+  <si>
+    <t>09/07</t>
+  </si>
+  <si>
+    <t>A000625</t>
+  </si>
+  <si>
+    <t>10/18</t>
+  </si>
+  <si>
+    <t>A600015</t>
+  </si>
+  <si>
+    <t>09/18</t>
+  </si>
+  <si>
+    <t>11/22</t>
+  </si>
+  <si>
+    <t>12/05</t>
+  </si>
+  <si>
+    <t>A603898</t>
+  </si>
+  <si>
+    <t>12/18</t>
+  </si>
+  <si>
+    <t>A512800</t>
+  </si>
+  <si>
+    <t>01/02</t>
+  </si>
+  <si>
+    <t>01/09</t>
+  </si>
+  <si>
+    <t>02/08</t>
+  </si>
+  <si>
+    <t>02/09</t>
+  </si>
+  <si>
+    <t>A300033</t>
+  </si>
+  <si>
+    <t>A603369</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>正泰电器</t>
   </si>
 </sst>
 </file>
@@ -638,11 +743,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -682,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -742,7 +903,7 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -802,7 +963,7 @@
         <v>-1742.0000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -892,7 +1053,7 @@
         <v>-3634.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -979,7 +1140,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1200,7 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1260,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1320,7 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1380,7 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1306,7 +1467,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1527,7 @@
         <v>-3734.0000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +1587,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1617,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1573,7 +1734,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1824,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1854,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1749,11 +1910,11 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37:J57" si="3">G37*H37</f>
+        <f t="shared" ref="J37:J71" si="3">G37*H37</f>
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1813,7 +1974,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +2004,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +2034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1903,7 +2064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +2121,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +2151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2208,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2355,7 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2385,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2281,7 +2442,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2472,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2341,12 +2502,480 @@
         <v>30</v>
       </c>
     </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>2017</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>180</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>2017</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>55</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>2017</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>2017</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61">
+        <v>17.8</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>2017</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63">
+        <v>50</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64">
+        <v>6.93</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>2017</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65">
+        <v>2.71</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>2017</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66">
+        <v>7.67</v>
+      </c>
+      <c r="H66">
+        <v>-400</v>
+      </c>
+      <c r="I66">
+        <v>-5</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>-3068</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>2017</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>8000</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>2017</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68">
+        <v>57.5</v>
+      </c>
+      <c r="H68">
+        <v>-100</v>
+      </c>
+      <c r="I68">
+        <v>-5</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>-5750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>2017</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69">
+        <v>60</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>2017</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71">
+        <v>9000</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1">
+      <c r="B72">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1">
+      <c r="B73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1">
+      <c r="B74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1">
+      <c r="B75">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1">
+      <c r="B76">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1">
+      <c r="B77">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1">
+      <c r="B78">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1">
+      <c r="B79">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1">
+      <c r="B80">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" hidden="1">
+      <c r="B81">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" hidden="1">
+      <c r="B82">
+        <v>2018</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J57">
+  <autoFilter ref="A1:J82">
     <filterColumn colId="4">
       <filters>
-        <filter val="CHEZI"/>
-        <filter val="RONGZI"/>
+        <filter val="FENHONG"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2355,17 +2984,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2429,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J43" si="0">G2*H2</f>
+        <f>G2*H2+I2</f>
         <v>7000</v>
       </c>
     </row>
@@ -2462,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J63" si="0">G3*H3+I3</f>
         <v>3010</v>
       </c>
     </row>
@@ -2496,7 +3126,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>-4671</v>
+        <v>-4676.09</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2529,7 +3159,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>-4942</v>
+        <v>-4947.1000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2625,7 +3255,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>-2196</v>
+        <v>-2201.04</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2721,7 +3351,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>-1967.0000000000002</v>
+        <v>-1972.0400000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2754,7 +3384,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>-1821</v>
+        <v>-1826</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2817,7 +3447,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>-3792</v>
+        <v>-3797</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2850,7 +3480,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>-3694</v>
+        <v>-3699</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2916,7 +3546,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>-2547</v>
+        <v>-2552.0500000000002</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2949,7 +3579,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>-3306</v>
+        <v>-3311.07</v>
       </c>
       <c r="O18" t="s">
         <v>91</v>
@@ -3048,7 +3678,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>-6447.0000000000009</v>
+        <v>-6452.0000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3114,7 +3744,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>-9306</v>
+        <v>-9311.19</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3239,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f>G27*H27</f>
+        <f t="shared" si="0"/>
         <v>-4836</v>
       </c>
     </row>
@@ -3259,6 +3889,9 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
       <c r="G28">
         <v>671</v>
       </c>
@@ -3289,6 +3922,9 @@
       <c r="E29" t="s">
         <v>45</v>
       </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
       <c r="G29">
         <v>60</v>
       </c>
@@ -3337,12 +3973,27 @@
       <c r="B31">
         <v>2017</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>7000</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3352,12 +4003,30 @@
       <c r="B32">
         <v>2017</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32">
+        <v>30.9</v>
+      </c>
+      <c r="H32">
+        <v>-100</v>
+      </c>
       <c r="I32">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3095</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3367,12 +4036,30 @@
       <c r="B33">
         <v>2017</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33">
+        <v>173</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3382,12 +4069,30 @@
       <c r="B34">
         <v>2017</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>9.48</v>
+      </c>
+      <c r="H34">
+        <v>-300</v>
+      </c>
       <c r="I34">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2849</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3397,12 +4102,30 @@
       <c r="B35">
         <v>2017</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35">
+        <v>303</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3412,112 +4135,619 @@
       <c r="B36">
         <v>2017</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>3000</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>70</v>
       </c>
+      <c r="B37">
+        <v>2017</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>70</v>
       </c>
+      <c r="B38">
+        <v>2017</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38">
+        <v>3.18</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>70</v>
       </c>
+      <c r="B39">
+        <v>2017</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39">
+        <v>14.08</v>
+      </c>
+      <c r="H39">
+        <v>-300</v>
+      </c>
       <c r="I39">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4229</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>70</v>
       </c>
+      <c r="B40">
+        <v>2017</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>4000</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>70</v>
       </c>
+      <c r="B41">
+        <v>2017</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <v>9.33</v>
+      </c>
+      <c r="H41">
+        <v>-300</v>
+      </c>
       <c r="I41">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2804</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>70</v>
       </c>
+      <c r="B42">
+        <v>2017</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>4000</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>70</v>
       </c>
+      <c r="B43">
+        <v>2017</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43">
+        <v>27.78</v>
+      </c>
+      <c r="H43">
+        <v>-100</v>
+      </c>
       <c r="I43">
+        <v>-5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>-2783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>2017</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44">
+        <v>9.1</v>
+      </c>
+      <c r="H44">
+        <v>-400</v>
+      </c>
+      <c r="I44">
+        <v>-5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>-3645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>2017</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>8000</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>2017</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <v>2.67</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>2017</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="H47">
+        <v>-3000</v>
+      </c>
+      <c r="I47">
+        <v>-5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>-3061.9999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>2018</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48">
+        <v>12.58</v>
+      </c>
+      <c r="H48">
+        <v>-400</v>
+      </c>
+      <c r="I48">
+        <v>-5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>-5037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49">
+        <v>2018</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>4000</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50">
+        <v>2018</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>9500</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>2018</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51">
+        <v>48.73</v>
+      </c>
+      <c r="H51">
+        <v>-100</v>
+      </c>
+      <c r="I51">
+        <v>-5</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>-4878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>2018</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52">
+        <v>14.86</v>
+      </c>
+      <c r="H52">
+        <v>-200</v>
+      </c>
+      <c r="I52">
+        <v>-5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>-2977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53">
+        <v>2018</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H53">
+        <v>-600</v>
+      </c>
+      <c r="I53">
+        <v>-5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>-5531.0000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54">
+        <v>2018</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43">
+    </row>
+    <row r="55" spans="1:10">
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:10">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J43"/>
+  <autoFilter ref="A1:J63"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="14790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="14790"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="4" r:id="rId1"/>
     <sheet name="00101现金流1" sheetId="1" r:id="rId2"/>
     <sheet name="00102现金流2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="163">
   <si>
     <t>Account</t>
   </si>
@@ -430,18 +431,116 @@
   </si>
   <si>
     <t>正泰电器</t>
+  </si>
+  <si>
+    <t>长安汽车</t>
+  </si>
+  <si>
+    <t>市值</t>
+  </si>
+  <si>
+    <t>营收</t>
+  </si>
+  <si>
+    <t>净资产</t>
+  </si>
+  <si>
+    <t>总资产</t>
+  </si>
+  <si>
+    <t>营业利润</t>
+  </si>
+  <si>
+    <t>有息负债</t>
+  </si>
+  <si>
+    <t>长安汽车16年有息负债减少巨大从20亿到2亿，主要是债券减少19亿。ROE基本稳定，大于20%，权益乘数不断降低，营业成本不断增加；货币资金不断增加，16年为250亿；</t>
+  </si>
+  <si>
+    <t>净利润1</t>
+  </si>
+  <si>
+    <t>净利润2</t>
+  </si>
+  <si>
+    <t>净利润3</t>
+  </si>
+  <si>
+    <t>平均净利润</t>
+  </si>
+  <si>
+    <t>平均市盈率</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>债券用途</t>
+  </si>
+  <si>
+    <t>华兰生物</t>
+  </si>
+  <si>
+    <t>有息负债为零；</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>财务费用</t>
+  </si>
+  <si>
+    <t>财务费用4亿，小于销售或管理费用；</t>
+  </si>
+  <si>
+    <t>国投电力</t>
+  </si>
+  <si>
+    <t>财务费用48亿，远大于销售费用和管理费用；有息负债主要是长期借款1千亿；</t>
+  </si>
+  <si>
+    <t>顺络电子</t>
+  </si>
+  <si>
+    <t>有息负债4百万，财务费用3千万？</t>
+  </si>
+  <si>
+    <t>财务费用构成？</t>
+  </si>
+  <si>
+    <t>康得新</t>
+  </si>
+  <si>
+    <t>财务费用与销售费用相当，小于管理费用；</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -465,9 +564,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,57 +848,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="68.140625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18">
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L3" si="0">(I2+J2+K2)/3</f>
+        <v>7.2366666666666672</v>
+      </c>
+      <c r="M2" s="2">
+        <v>280</v>
+      </c>
+      <c r="N2" s="2">
+        <f>M2/L2</f>
+        <v>38.691847075080602</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2">
+        <v>264</v>
+      </c>
+      <c r="D3" s="2">
+        <v>156</v>
+      </c>
+      <c r="E3" s="2">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="M3" s="2">
+        <v>700</v>
+      </c>
+      <c r="N3" s="2">
+        <f>M3/L3</f>
+        <v>48.837209302325583</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="45">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>460</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>785</v>
+      </c>
+      <c r="H4" s="2">
+        <v>94</v>
+      </c>
+      <c r="I4" s="2">
+        <v>102</v>
+      </c>
+      <c r="J4" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" s="2">
+        <v>75</v>
+      </c>
+      <c r="L4" s="2">
+        <f>(I4+J4+K4)/3</f>
+        <v>92</v>
+      </c>
+      <c r="M4" s="2">
+        <v>530</v>
+      </c>
+      <c r="N4" s="2">
+        <f>M4/L4</f>
+        <v>5.7608695652173916</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1105</v>
+      </c>
+      <c r="D5" s="2">
+        <v>492</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H5" s="2">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" s="2">
+        <v>80</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L20" si="1">(I5+J5+K5)/3</f>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1050</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:N19" si="2">M5/L5</f>
+        <v>13.404255319148938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C6" s="2">
+        <v>64069</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4139</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>1570</v>
+      </c>
+      <c r="H6" s="2">
+        <v>633</v>
+      </c>
+      <c r="I6" s="2">
+        <v>543</v>
+      </c>
+      <c r="J6" s="2">
+        <v>506</v>
+      </c>
+      <c r="K6" s="2">
+        <v>475</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="2"/>
+        <v>6.8897637795275593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C7" s="2">
+        <v>353</v>
+      </c>
+      <c r="D7" s="2">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>201</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M7" s="2">
+        <v>550</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="2"/>
+        <v>26.19047619047619</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32484</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2220</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1057</v>
+      </c>
+      <c r="H8" s="2">
+        <v>302</v>
+      </c>
+      <c r="I8" s="2">
+        <v>231</v>
+      </c>
+      <c r="J8" s="2">
+        <v>225</v>
+      </c>
+      <c r="K8" s="2">
+        <v>191</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>215.66666666666666</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1868</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6615146831530136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30">
+      <c r="A9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2082</v>
+      </c>
+      <c r="D9" s="2">
+        <v>607</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1144</v>
+      </c>
+      <c r="F9" s="2">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2">
+        <v>316</v>
+      </c>
+      <c r="H9" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2">
+        <v>78</v>
+      </c>
+      <c r="K9" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="M9" s="2">
+        <v>470</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>5.778688524590164</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="2">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2033333333333331</v>
+      </c>
+      <c r="M10" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>41.207075962539022</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2988,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -4750,4 +5800,16 @@
   <autoFilter ref="A1:J63"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="185">
   <si>
     <t>Account</t>
   </si>
@@ -436,111 +436,241 @@
     <t>长安汽车</t>
   </si>
   <si>
+    <t>长安汽车16年有息负债减少巨大从20亿到2亿，主要是债券减少19亿。ROE基本稳定，大于20%，权益乘数不断降低，营业成本不断增加；货币资金不断增加，16年为250亿；</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>债券用途</t>
+  </si>
+  <si>
+    <t>华兰生物</t>
+  </si>
+  <si>
+    <t>有息负债为零；</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>财务费用4亿，小于销售或管理费用；</t>
+  </si>
+  <si>
+    <t>国投电力</t>
+  </si>
+  <si>
+    <t>财务费用48亿，远大于销售费用和管理费用；有息负债主要是长期借款1千亿；</t>
+  </si>
+  <si>
+    <t>顺络电子</t>
+  </si>
+  <si>
+    <t>有息负债4百万，财务费用3千万？</t>
+  </si>
+  <si>
+    <t>财务费用构成？</t>
+  </si>
+  <si>
+    <t>康得新</t>
+  </si>
+  <si>
+    <t>财务费用与销售费用相当，小于管理费用；</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
+  </si>
+  <si>
+    <t>A002594</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有息负债巨大,为国投电力的一半,财务费用类似;但财务费用小于销售费用或管理费用;主要是短期借款357亿;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>今世缘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18y03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18y03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A603898</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17q4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16q4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17q4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好莱客</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有息负债为零;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有息负债比重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有息负债率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A603369</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有息负债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务费用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均净利润</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>市值</t>
-  </si>
-  <si>
-    <t>营收</t>
-  </si>
-  <si>
-    <t>净资产</t>
-  </si>
-  <si>
-    <t>总资产</t>
-  </si>
-  <si>
-    <t>营业利润</t>
-  </si>
-  <si>
-    <t>有息负债</t>
-  </si>
-  <si>
-    <t>长安汽车16年有息负债减少巨大从20亿到2亿，主要是债券减少19亿。ROE基本稳定，大于20%，权益乘数不断降低，营业成本不断增加；货币资金不断增加，16年为250亿；</t>
-  </si>
-  <si>
-    <t>净利润1</t>
-  </si>
-  <si>
-    <t>净利润2</t>
-  </si>
-  <si>
-    <t>净利润3</t>
-  </si>
-  <si>
-    <t>平均净利润</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>债券用途</t>
-  </si>
-  <si>
-    <t>华兰生物</t>
-  </si>
-  <si>
-    <t>有息负债为零；</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>财务费用</t>
-  </si>
-  <si>
-    <t>财务费用4亿，小于销售或管理费用；</t>
-  </si>
-  <si>
-    <t>国投电力</t>
-  </si>
-  <si>
-    <t>财务费用48亿，远大于销售费用和管理费用；有息负债主要是长期借款1千亿；</t>
-  </si>
-  <si>
-    <t>顺络电子</t>
-  </si>
-  <si>
-    <t>有息负债4百万，财务费用3千万？</t>
-  </si>
-  <si>
-    <t>财务费用构成？</t>
-  </si>
-  <si>
-    <t>康得新</t>
-  </si>
-  <si>
-    <t>财务费用与销售费用相当，小于管理费用；</t>
-  </si>
-  <si>
-    <t>长城汽车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A000848</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>承德露露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17q4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物饮料业务研究?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -564,15 +694,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,576 +987,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="68.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.25" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="5.75" customWidth="1"/>
+    <col min="19" max="19" width="5.625" customWidth="1"/>
+    <col min="20" max="20" width="5.375" customWidth="1"/>
+    <col min="21" max="21" width="54.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="C1" t="s">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2">
+        <v>32484</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2220</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>1057</v>
+      </c>
+      <c r="I2" s="2">
+        <v>302</v>
+      </c>
+      <c r="J2" s="2">
+        <v>231</v>
+      </c>
+      <c r="K2" s="2">
+        <v>225</v>
+      </c>
+      <c r="L2" s="2">
+        <v>191</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(J2+K2+L2)/3</f>
+        <v>215.66666666666666</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>1868</v>
+      </c>
+      <c r="P2" s="2">
+        <f>O2/M2</f>
+        <v>8.6615146831530136</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>(D2-E2)/D2</f>
+        <v>0.93165866272626519</v>
+      </c>
+      <c r="R2" s="2">
+        <f>F2/D2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <f>F2/(D2-E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="2">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-0.19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="M3" s="2">
+        <f>(J3+K3+L3)/3</f>
+        <v>4.4766666666666666</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <v>85</v>
+      </c>
+      <c r="P3" s="2">
+        <f>O3/M3</f>
+        <v>18.9873417721519</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>(D3-E3)/D3</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R3" s="2">
+        <f>F3/D3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f>F3/(D3-E3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" s="2">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="M4" s="2">
+        <f>(J4+K4+L4)/3</f>
+        <v>7.2366666666666672</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>280</v>
+      </c>
+      <c r="P4" s="2">
+        <f>O4/M4</f>
+        <v>38.691847075080602</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>(D4-E4)/D4</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <f>F4/D4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f>F4/(D4-E4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="M5" s="2">
+        <f>(J5+K5+L5)/3</f>
+        <v>3.2033333333333331</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>132</v>
+      </c>
+      <c r="P5" s="2">
+        <f>O5/M5</f>
+        <v>41.207075962539022</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>(D5-E5)/D5</f>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="R5" s="2">
+        <f>F5/D5</f>
+        <v>8.5106382978723403E-4</v>
+      </c>
+      <c r="S5" s="2">
+        <f>F5/(D5-E5)</f>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2">
+        <v>264</v>
+      </c>
+      <c r="E6" s="2">
+        <v>156</v>
+      </c>
+      <c r="F6" s="2">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" s="2">
+        <v>92</v>
+      </c>
+      <c r="I6" s="2">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2">
+        <f>(J6+K6+L6)/3</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>700</v>
+      </c>
+      <c r="P6" s="2">
+        <f>O6/M6</f>
+        <v>48.837209302325583</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>(D6-E6)/D6</f>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="R6" s="2">
+        <f>F6/D6</f>
+        <v>0.21590909090909091</v>
+      </c>
+      <c r="S6" s="2">
+        <f>F6/(D6-E6)</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1780</v>
+      </c>
+      <c r="E7" s="2">
+        <v>599</v>
+      </c>
+      <c r="F7" s="2">
+        <v>565</v>
+      </c>
+      <c r="G7" s="2">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1059</v>
+      </c>
+      <c r="I7" s="2">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <f>(J7+K7+L7)/3</f>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P7" s="2">
+        <f>O7/M7</f>
+        <v>33.582089552238806</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>(D7-E7)/D7</f>
+        <v>0.66348314606741576</v>
+      </c>
+      <c r="R7" s="2">
+        <f>F7/D7</f>
+        <v>0.31741573033707865</v>
+      </c>
+      <c r="S7" s="2">
+        <f>F7/(D7-E7)</f>
+        <v>0.47840812870448773</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>460</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>785</v>
+      </c>
+      <c r="I8" s="2">
+        <v>94</v>
+      </c>
+      <c r="J8" s="2">
+        <v>102</v>
+      </c>
+      <c r="K8" s="2">
+        <v>99</v>
+      </c>
+      <c r="L8" s="2">
+        <v>75</v>
+      </c>
+      <c r="M8" s="2">
+        <f>(J8+K8+L8)/3</f>
+        <v>92</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>530</v>
+      </c>
+      <c r="P8" s="2">
+        <f>O8/M8</f>
+        <v>5.7608695652173916</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>(D8-E8)/D8</f>
+        <v>0.54</v>
+      </c>
+      <c r="R8" s="2">
+        <f>F8/D8</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="S8" s="2">
+        <f>F8/(D8-E8)</f>
+        <v>3.5185185185185185E-3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="V8" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1105</v>
+      </c>
+      <c r="E9" s="2">
+        <v>492</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I9" s="2">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2">
+        <v>105</v>
+      </c>
+      <c r="L9" s="2">
+        <v>80</v>
+      </c>
+      <c r="M9" s="2">
+        <f>(J9+K9+L9)/3</f>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>1050</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ref="P9:P21" si="0">O9/M9</f>
+        <v>13.404255319148938</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>(D9-E9)/D9</f>
+        <v>0.55475113122171948</v>
+      </c>
+      <c r="R9" s="2">
+        <f>F9/D9</f>
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="S9" s="2">
+        <f>F9/(D9-E9)</f>
+        <v>2.4469820554649267E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="2">
+        <v>64069</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4139</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>1570</v>
+      </c>
+      <c r="I10" s="2">
+        <v>633</v>
+      </c>
+      <c r="J10" s="2">
+        <v>543</v>
+      </c>
+      <c r="K10" s="2">
+        <v>506</v>
+      </c>
+      <c r="L10" s="2">
+        <v>475</v>
+      </c>
+      <c r="M10" s="2">
+        <f>(J10+K10+L10)/3</f>
+        <v>508</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>3500</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8897637795275593</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>(D10-E10)/D10</f>
+        <v>0.93539777427461024</v>
+      </c>
+      <c r="R10" s="2">
+        <f>F10/D10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <f>F10/(D10-E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="2">
+        <v>353</v>
+      </c>
+      <c r="E11" s="2">
         <v>140</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F11" s="2">
+        <v>108</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>201</v>
+      </c>
+      <c r="I11" s="2">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2">
+        <v>19</v>
+      </c>
+      <c r="M11" s="2">
+        <f>(J11+K11+L11)/3</f>
+        <v>21</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>550</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>26.19047619047619</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>(D11-E11)/D11</f>
+        <v>0.60339943342776203</v>
+      </c>
+      <c r="R11" s="2">
+        <f>F11/D11</f>
+        <v>0.30594900849858359</v>
+      </c>
+      <c r="S11" s="2">
+        <f>F11/(D11-E11)</f>
+        <v>0.50704225352112675</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2">
+        <v>2082</v>
+      </c>
+      <c r="E12" s="2">
+        <v>607</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1144</v>
+      </c>
+      <c r="G12" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2">
+        <v>316</v>
+      </c>
+      <c r="I12" s="2">
+        <v>75</v>
+      </c>
+      <c r="J12" s="2">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2">
+        <v>78</v>
+      </c>
+      <c r="L12" s="2">
+        <v>101</v>
+      </c>
+      <c r="M12" s="2">
+        <f>(J12+K12+L12)/3</f>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>470</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>5.778688524590164</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>(D12-E12)/D12</f>
+        <v>0.70845341018251684</v>
+      </c>
+      <c r="R12" s="2">
+        <f>F12/D12</f>
+        <v>0.54947166186359275</v>
+      </c>
+      <c r="S12" s="2">
+        <f>F12/(D12-E12)</f>
+        <v>0.77559322033898304</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="2">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2">
-        <v>48</v>
-      </c>
-      <c r="E2" s="3">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-0.18</v>
+      </c>
+      <c r="H13" s="2">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J13" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="M13" s="2">
+        <f>(J13+K13+L13)/3</f>
+        <v>6.9000000000000012</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O13" s="2">
+        <v>187</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>27.101449275362313</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>(D13-E13)/D13</f>
+        <v>0.24590163934426229</v>
+      </c>
+      <c r="R13" s="2">
+        <f>F13/D13</f>
+        <v>2.4590163934426229E-2</v>
+      </c>
+      <c r="S13" s="2">
+        <f>F13/(D13-E13)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9.16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L3" si="0">(I2+J2+K2)/3</f>
-        <v>7.2366666666666672</v>
-      </c>
-      <c r="M2" s="2">
-        <v>280</v>
-      </c>
-      <c r="N2" s="2">
-        <f>M2/L2</f>
-        <v>38.691847075080602</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="2">
-        <v>264</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="G14" s="2">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="M14" s="2">
+        <f>(J14+K14+L14)/3</f>
+        <v>2.54</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="2">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G3" s="2">
-        <v>92</v>
-      </c>
-      <c r="H3" s="2">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="M3" s="2">
-        <v>700</v>
-      </c>
-      <c r="N3" s="2">
-        <f>M3/L3</f>
-        <v>48.837209302325583</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>460</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>785</v>
-      </c>
-      <c r="H4" s="2">
-        <v>94</v>
-      </c>
-      <c r="I4" s="2">
-        <v>102</v>
-      </c>
-      <c r="J4" s="2">
-        <v>99</v>
-      </c>
-      <c r="K4" s="2">
-        <v>75</v>
-      </c>
-      <c r="L4" s="2">
-        <f>(I4+J4+K4)/3</f>
-        <v>92</v>
-      </c>
-      <c r="M4" s="2">
-        <v>530</v>
-      </c>
-      <c r="N4" s="2">
-        <f>M4/L4</f>
-        <v>5.7608695652173916</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="O14" s="2">
+        <v>88</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="0"/>
+        <v>34.645669291338585</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>(D14-E14)/D14</f>
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="2">
+        <f>F14/D14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <f>F14/(D14-E14)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="2">
-        <v>1105</v>
-      </c>
-      <c r="D5" s="2">
-        <v>492</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.39</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="H5" s="2">
-        <v>58</v>
-      </c>
-      <c r="I5" s="2">
-        <v>50</v>
-      </c>
-      <c r="J5" s="2">
-        <v>105</v>
-      </c>
-      <c r="K5" s="2">
-        <v>80</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5:L20" si="1">(I5+J5+K5)/3</f>
-        <v>78.333333333333329</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1050</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5:N19" si="2">M5/L5</f>
-        <v>13.404255319148938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="2">
-        <v>64069</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4139</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1570</v>
-      </c>
-      <c r="H6" s="2">
-        <v>633</v>
-      </c>
-      <c r="I6" s="2">
-        <v>543</v>
-      </c>
-      <c r="J6" s="2">
-        <v>506</v>
-      </c>
-      <c r="K6" s="2">
-        <v>475</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>508</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3500</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="2"/>
-        <v>6.8897637795275593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="2">
-        <v>353</v>
-      </c>
-      <c r="D7" s="2">
-        <v>140</v>
-      </c>
-      <c r="E7" s="2">
-        <v>108</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>201</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="M7" s="2">
-        <v>550</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="2"/>
-        <v>26.19047619047619</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="2">
-        <v>32484</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2220</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1057</v>
-      </c>
-      <c r="H8" s="2">
-        <v>302</v>
-      </c>
-      <c r="I8" s="2">
-        <v>231</v>
-      </c>
-      <c r="J8" s="2">
-        <v>225</v>
-      </c>
-      <c r="K8" s="2">
-        <v>191</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>215.66666666666666</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1868</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="2"/>
-        <v>8.6615146831530136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2082</v>
-      </c>
-      <c r="D9" s="2">
-        <v>607</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1144</v>
-      </c>
-      <c r="F9" s="2">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2">
-        <v>316</v>
-      </c>
-      <c r="H9" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" s="2">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2">
-        <v>78</v>
-      </c>
-      <c r="K9" s="2">
-        <v>101</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="1"/>
-        <v>81.333333333333329</v>
-      </c>
-      <c r="M9" s="2">
-        <v>470</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="2"/>
-        <v>5.778688524590164</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="2">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.85</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3.41</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2.62</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2033333333333331</v>
-      </c>
-      <c r="M10" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="2"/>
-        <v>41.207075962539022</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="C15" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1426,18 +1898,31 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <f>(J15+K15+L15)/3</f>
         <v>0</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="e">
-        <f t="shared" si="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="C16" s="2"/>
+      <c r="Q15" s="2" t="e">
+        <f>(D15-E15)/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="2" t="e">
+        <f>F15/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="2" t="e">
+        <f>F15/(D15-E15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1446,18 +1931,31 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <f>(J16+K16+L16)/3</f>
         <v>0</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="e">
-        <f t="shared" si="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="C17" s="2"/>
+      <c r="Q16" s="2" t="e">
+        <f>(D16-E16)/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="2" t="e">
+        <f>F16/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" s="2" t="e">
+        <f>F16/(D16-E16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1466,18 +1964,31 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <f>(J17+K17+L17)/3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2" t="e">
-        <f t="shared" si="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="2"/>
+      <c r="Q17" s="2" t="e">
+        <f>(D17-E17)/D17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="2" t="e">
+        <f>F17/D17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="2" t="e">
+        <f>F17/(D17-E17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1486,18 +1997,31 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <f t="shared" si="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <f>(J18+K18+L18)/3</f>
         <v>0</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="e">
-        <f t="shared" si="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="2"/>
+      <c r="Q18" s="2" t="e">
+        <f>(D18-E18)/D18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="2" t="e">
+        <f>F18/D18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" s="2" t="e">
+        <f>F18/(D18-E18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1506,18 +2030,31 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <f t="shared" si="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <f>(J19+K19+L19)/3</f>
         <v>0</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="e">
-        <f t="shared" si="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="2"/>
+      <c r="Q19" s="2" t="e">
+        <f>(D19-E19)/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="2" t="e">
+        <f>F19/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" s="2" t="e">
+        <f>F19/(D19-E19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1526,15 +2063,31 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2">
-        <f t="shared" si="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <f>(J20+K20+L20)/3</f>
         <v>0</v>
       </c>
-      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="2" t="e">
+        <f>(D20-E20)/D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="2" t="e">
+        <f>F20/D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="2" t="e">
+        <f>F20/(D20-E20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1544,11 +2097,21 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2">
+        <f>(J21+K21+L21)/3</f>
+        <v>0</v>
+      </c>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1558,11 +2121,18 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2">
+        <f>(J22+K22+L22)/3</f>
+        <v>0</v>
+      </c>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="C23" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1572,11 +2142,18 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2">
+        <f>(J23+K23+L23)/3</f>
+        <v>0</v>
+      </c>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="3:14">
-      <c r="C24" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1588,9 +2165,13 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="C25" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1602,9 +2183,13 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1616,9 +2201,13 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="3:14">
-      <c r="C27" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1630,9 +2219,13 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="3:14">
-      <c r="C28" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1644,9 +2237,13 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="3:14">
-      <c r="C29" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1658,9 +2255,13 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="3:14">
-      <c r="C30" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1672,9 +2273,13 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="3:14">
-      <c r="C31" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1686,9 +2291,13 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="3:14">
-      <c r="C32" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1700,9 +2309,13 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="C33" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1714,9 +2327,13 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="C34" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1728,9 +2345,13 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="3:14">
-      <c r="C35" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1742,9 +2363,13 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="3:14">
-      <c r="C36" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1756,9 +2381,13 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="3:14">
-      <c r="C37" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1770,9 +2399,13 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="3:14">
-      <c r="C38" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1784,9 +2417,13 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="3:14">
-      <c r="C39" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1798,9 +2435,13 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="3:14">
-      <c r="C40" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1812,9 +2453,13 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="3:14">
-      <c r="C41" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1826,9 +2471,13 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="3:14">
-      <c r="C42" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1840,8 +2489,50 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1856,12 +2547,12 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +2584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +2614,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1953,7 +2644,7 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +2674,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2013,7 +2704,7 @@
         <v>-1742.0000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2734,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2764,7 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2794,7 @@
         <v>-3634.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2133,7 +2824,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2854,7 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2190,7 +2881,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2911,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2941,7 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2280,7 +2971,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2310,7 +3001,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +3031,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2370,7 +3061,7 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2400,7 +3091,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +3121,7 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2460,7 +3151,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2490,7 +3181,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2517,7 +3208,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +3238,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +3268,7 @@
         <v>-3734.0000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2607,7 +3298,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +3328,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2667,7 +3358,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2697,7 +3388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +3418,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2754,7 +3445,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2784,7 +3475,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2814,7 +3505,7 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2844,7 +3535,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2874,7 +3565,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2904,7 +3595,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2934,7 +3625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2964,7 +3655,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +3685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3715,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3054,7 +3745,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3084,7 +3775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3114,7 +3805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3144,7 +3835,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3171,7 +3862,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3201,7 +3892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3919,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3258,7 +3949,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3288,7 +3979,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3315,7 +4006,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3342,7 +4033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +4063,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -3405,7 +4096,7 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -3435,7 +4126,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -3465,7 +4156,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3492,7 +4183,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3522,7 +4213,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3552,7 +4243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3582,7 +4273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3612,7 +4303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +4333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3672,7 +4363,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +4393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3732,7 +4423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3762,7 +4453,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3789,7 +4480,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3822,7 +4513,7 @@
         <v>-3068</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3849,7 +4540,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3882,7 +4573,7 @@
         <v>-5750</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3912,7 +4603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3939,7 +4630,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3966,57 +4657,57 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="2:2" hidden="1">
+    <row r="81" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="2:2" hidden="1">
+    <row r="82" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -4029,6 +4720,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4042,13 +4734,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -4113,7 +4805,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4146,7 +4838,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4179,7 +4871,7 @@
         <v>-4676.09</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -4212,7 +4904,7 @@
         <v>-4947.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -4245,7 +4937,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -4275,7 +4967,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -4308,7 +5000,7 @@
         <v>-2201.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -4338,7 +5030,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -4371,7 +5063,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -4404,7 +5096,7 @@
         <v>-1972.0400000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -4437,7 +5129,7 @@
         <v>-1826</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4467,7 +5159,7 @@
         <v>-5576</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -4500,7 +5192,7 @@
         <v>-3797</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4533,7 +5225,7 @@
         <v>-3699</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4566,7 +5258,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4599,7 +5291,7 @@
         <v>-2552.0500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -4635,7 +5327,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4665,7 +5357,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -4698,7 +5390,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -4731,7 +5423,7 @@
         <v>-6452.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -4764,7 +5456,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -4797,7 +5489,7 @@
         <v>-9311.19</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -4830,7 +5522,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -4860,7 +5552,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -4890,7 +5582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -4923,7 +5615,7 @@
         <v>-4836</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -4956,7 +5648,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -4986,7 +5678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5016,7 +5708,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -5046,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -5079,7 +5771,7 @@
         <v>-3095</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -5112,7 +5804,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -5145,7 +5837,7 @@
         <v>-2849</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -5178,7 +5870,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -5208,7 +5900,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -5241,7 +5933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -5271,7 +5963,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -5304,7 +5996,7 @@
         <v>-4229</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -5334,7 +6026,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -5367,7 +6059,7 @@
         <v>-2804</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -5397,7 +6089,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -5430,7 +6122,7 @@
         <v>-2783</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -5463,7 +6155,7 @@
         <v>-3645</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -5490,7 +6182,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -5517,7 +6209,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -5550,7 +6242,7 @@
         <v>-3061.9999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +6275,7 @@
         <v>-5037</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -5610,7 +6302,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -5637,7 +6329,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -5670,7 +6362,7 @@
         <v>-4878</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -5703,7 +6395,7 @@
         <v>-2977</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>2018</v>
       </c>
@@ -5733,7 +6425,7 @@
         <v>-5531.0000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>2018</v>
       </c>
@@ -5742,55 +6434,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5798,6 +6490,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5808,8 +6501,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="191">
   <si>
     <t>Account</t>
   </si>
@@ -482,151 +482,194 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有息负债巨大,为国投电力的一半,财务费用类似;但财务费用小于销售费用或管理费用;主要是短期借款357亿;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A600674</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>川投能源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16q4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>营收1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0亿,投资收益36亿;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资收益来源研究?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,22 +737,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1052,7 @@
     <col min="16" max="16" width="7.25" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
     <col min="18" max="18" width="5.75" customWidth="1"/>
-    <col min="19" max="19" width="5.625" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="11" customWidth="1"/>
     <col min="20" max="20" width="5.375" customWidth="1"/>
     <col min="21" max="21" width="54.5" style="3" customWidth="1"/>
   </cols>
@@ -1104,7 +1151,7 @@
         <v>191</v>
       </c>
       <c r="M2" s="2">
-        <f>(J2+K2+L2)/3</f>
+        <f t="shared" ref="M2:M24" si="0">(J2+K2+L2)/3</f>
         <v>215.66666666666666</v>
       </c>
       <c r="N2" s="2"/>
@@ -1112,19 +1159,19 @@
         <v>1868</v>
       </c>
       <c r="P2" s="2">
-        <f>O2/M2</f>
+        <f t="shared" ref="P2:P9" si="1">O2/M2</f>
         <v>8.6615146831530136</v>
       </c>
-      <c r="Q2" s="2">
-        <f>(D2-E2)/D2</f>
+      <c r="Q2" s="11">
+        <f t="shared" ref="Q2:Q21" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
-      <c r="R2" s="2">
-        <f>F2/D2</f>
+      <c r="R2" s="11">
+        <f t="shared" ref="R2:R21" si="3">F2/D2</f>
         <v>0</v>
       </c>
-      <c r="S2" s="2">
-        <f>F2/(D2-E2)</f>
+      <c r="S2" s="11">
+        <f t="shared" ref="S2:S21" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1166,7 +1213,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="M3" s="2">
-        <f>(J3+K3+L3)/3</f>
+        <f t="shared" si="0"/>
         <v>4.4766666666666666</v>
       </c>
       <c r="N3" s="2"/>
@@ -1174,19 +1221,19 @@
         <v>85</v>
       </c>
       <c r="P3" s="2">
-        <f>O3/M3</f>
+        <f t="shared" si="1"/>
         <v>18.9873417721519</v>
       </c>
-      <c r="Q3" s="2">
-        <f>(D3-E3)/D3</f>
+      <c r="Q3" s="11">
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="R3" s="2">
-        <f>F3/D3</f>
+      <c r="R3" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S3" s="2">
-        <f>F3/(D3-E3)</f>
+      <c r="S3" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U3" s="3" t="s">
@@ -1231,7 +1278,7 @@
         <v>5.8</v>
       </c>
       <c r="M4" s="2">
-        <f>(J4+K4+L4)/3</f>
+        <f t="shared" si="0"/>
         <v>7.2366666666666672</v>
       </c>
       <c r="N4" s="2"/>
@@ -1239,19 +1286,19 @@
         <v>280</v>
       </c>
       <c r="P4" s="2">
-        <f>O4/M4</f>
+        <f t="shared" si="1"/>
         <v>38.691847075080602</v>
       </c>
-      <c r="Q4" s="2">
-        <f>(D4-E4)/D4</f>
+      <c r="Q4" s="11">
+        <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="R4" s="2">
-        <f>F4/D4</f>
+      <c r="R4" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4" s="2">
-        <f>F4/(D4-E4)</f>
+      <c r="S4" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
@@ -1294,7 +1341,7 @@
         <v>2.62</v>
       </c>
       <c r="M5" s="2">
-        <f>(J5+K5+L5)/3</f>
+        <f t="shared" si="0"/>
         <v>3.2033333333333331</v>
       </c>
       <c r="N5" s="2"/>
@@ -1302,19 +1349,19 @@
         <v>132</v>
       </c>
       <c r="P5" s="2">
-        <f>O5/M5</f>
+        <f t="shared" si="1"/>
         <v>41.207075962539022</v>
       </c>
-      <c r="Q5" s="2">
-        <f>(D5-E5)/D5</f>
+      <c r="Q5" s="11">
+        <f t="shared" si="2"/>
         <v>0.14893617021276595</v>
       </c>
-      <c r="R5" s="2">
-        <f>F5/D5</f>
+      <c r="R5" s="11">
+        <f t="shared" si="3"/>
         <v>8.5106382978723403E-4</v>
       </c>
-      <c r="S5" s="2">
-        <f>F5/(D5-E5)</f>
+      <c r="S5" s="11">
+        <f t="shared" si="4"/>
         <v>5.7142857142857143E-3</v>
       </c>
       <c r="U5" s="3" t="s">
@@ -1360,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="2">
-        <f>(J6+K6+L6)/3</f>
+        <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
       <c r="N6" s="2"/>
@@ -1368,19 +1415,19 @@
         <v>700</v>
       </c>
       <c r="P6" s="2">
-        <f>O6/M6</f>
+        <f t="shared" si="1"/>
         <v>48.837209302325583</v>
       </c>
-      <c r="Q6" s="2">
-        <f>(D6-E6)/D6</f>
+      <c r="Q6" s="11">
+        <f t="shared" si="2"/>
         <v>0.40909090909090912</v>
       </c>
-      <c r="R6" s="2">
-        <f>F6/D6</f>
+      <c r="R6" s="11">
+        <f t="shared" si="3"/>
         <v>0.21590909090909091</v>
       </c>
-      <c r="S6" s="2">
-        <f>F6/(D6-E6)</f>
+      <c r="S6" s="11">
+        <f t="shared" si="4"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="U6" s="3" t="s">
@@ -1425,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="M7" s="2">
-        <f>(J7+K7+L7)/3</f>
+        <f t="shared" si="0"/>
         <v>44.666666666666664</v>
       </c>
       <c r="N7" s="2"/>
@@ -1433,19 +1480,19 @@
         <v>1500</v>
       </c>
       <c r="P7" s="2">
-        <f>O7/M7</f>
+        <f t="shared" si="1"/>
         <v>33.582089552238806</v>
       </c>
-      <c r="Q7" s="2">
-        <f>(D7-E7)/D7</f>
+      <c r="Q7" s="11">
+        <f t="shared" si="2"/>
         <v>0.66348314606741576</v>
       </c>
-      <c r="R7" s="2">
-        <f>F7/D7</f>
+      <c r="R7" s="11">
+        <f t="shared" si="3"/>
         <v>0.31741573033707865</v>
       </c>
-      <c r="S7" s="2">
-        <f>F7/(D7-E7)</f>
+      <c r="S7" s="11">
+        <f t="shared" si="4"/>
         <v>0.47840812870448773</v>
       </c>
       <c r="U7" s="7" t="s">
@@ -1487,7 +1534,7 @@
         <v>75</v>
       </c>
       <c r="M8" s="2">
-        <f>(J8+K8+L8)/3</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="N8" s="2"/>
@@ -1495,19 +1542,19 @@
         <v>530</v>
       </c>
       <c r="P8" s="2">
-        <f>O8/M8</f>
+        <f t="shared" si="1"/>
         <v>5.7608695652173916</v>
       </c>
-      <c r="Q8" s="2">
-        <f>(D8-E8)/D8</f>
+      <c r="Q8" s="11">
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="R8" s="2">
-        <f>F8/D8</f>
+      <c r="R8" s="11">
+        <f t="shared" si="3"/>
         <v>1.9E-3</v>
       </c>
-      <c r="S8" s="2">
-        <f>F8/(D8-E8)</f>
+      <c r="S8" s="11">
+        <f t="shared" si="4"/>
         <v>3.5185185185185185E-3</v>
       </c>
       <c r="U8" s="3" t="s">
@@ -1519,407 +1566,445 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>150</v>
+        <v>186</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D9" s="2">
-        <v>1105</v>
+        <v>268</v>
       </c>
       <c r="E9" s="2">
-        <v>492</v>
+        <v>209</v>
       </c>
       <c r="F9" s="2">
-        <v>15</v>
+        <v>47.9</v>
       </c>
       <c r="G9" s="2">
-        <v>1.39</v>
+        <v>2.75</v>
       </c>
       <c r="H9" s="2">
-        <v>1004</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2">
-        <v>58</v>
+        <v>35.69</v>
       </c>
       <c r="J9" s="2">
-        <v>50</v>
+        <v>35.5</v>
       </c>
       <c r="K9" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2">
-        <f>(J9+K9+L9)/3</f>
-        <v>78.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>36.5</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2">
-        <v>1050</v>
+        <v>390</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" ref="P9:P21" si="0">O9/M9</f>
-        <v>13.404255319148938</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>(D9-E9)/D9</f>
-        <v>0.55475113122171948</v>
-      </c>
-      <c r="R9" s="2">
-        <f>F9/D9</f>
-        <v>1.3574660633484163E-2</v>
-      </c>
-      <c r="S9" s="2">
-        <f>F9/(D9-E9)</f>
-        <v>2.4469820554649267E-2</v>
+        <f t="shared" si="1"/>
+        <v>10.684931506849315</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.22014925373134328</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="3"/>
+        <v>0.17873134328358209</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.81186440677966099</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2">
-        <v>64069</v>
+        <v>1105</v>
       </c>
       <c r="E10" s="2">
-        <v>4139</v>
+        <v>492</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.39</v>
+      </c>
       <c r="H10" s="2">
-        <v>1570</v>
+        <v>1004</v>
       </c>
       <c r="I10" s="2">
-        <v>633</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2">
-        <v>543</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
-        <v>506</v>
+        <v>105</v>
       </c>
       <c r="L10" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="M10" s="2">
-        <f>(J10+K10+L10)/3</f>
-        <v>508</v>
+        <f t="shared" si="0"/>
+        <v>78.333333333333329</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2">
-        <v>3500</v>
+        <v>1050</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="0"/>
-        <v>6.8897637795275593</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>(D10-E10)/D10</f>
-        <v>0.93539777427461024</v>
-      </c>
-      <c r="R10" s="2">
-        <f>F10/D10</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <f>F10/(D10-E10)</f>
-        <v>0</v>
+        <f t="shared" ref="P10:P22" si="5">O10/M10</f>
+        <v>13.404255319148938</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.55475113122171948</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="4"/>
+        <v>2.4469820554649267E-2</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2">
-        <v>353</v>
+        <v>64069</v>
       </c>
       <c r="E11" s="2">
-        <v>140</v>
+        <v>4139</v>
       </c>
       <c r="F11" s="2">
-        <v>108</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <v>201</v>
+        <v>1570</v>
       </c>
       <c r="I11" s="2">
-        <v>28</v>
+        <v>633</v>
       </c>
       <c r="J11" s="2">
-        <v>26</v>
+        <v>543</v>
       </c>
       <c r="K11" s="2">
-        <v>18</v>
+        <v>506</v>
       </c>
       <c r="L11" s="2">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="M11" s="2">
-        <f>(J11+K11+L11)/3</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>508</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2">
-        <v>550</v>
+        <v>3500</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="0"/>
-        <v>26.19047619047619</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>(D11-E11)/D11</f>
-        <v>0.60339943342776203</v>
-      </c>
-      <c r="R11" s="2">
-        <f>F11/D11</f>
-        <v>0.30594900849858359</v>
-      </c>
-      <c r="S11" s="2">
-        <f>F11/(D11-E11)</f>
-        <v>0.50704225352112675</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>142</v>
+        <f t="shared" si="5"/>
+        <v>6.8897637795275593</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.93539777427461024</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>134</v>
+      </c>
       <c r="D12" s="2">
-        <v>2082</v>
+        <v>353</v>
       </c>
       <c r="E12" s="2">
-        <v>607</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2">
-        <v>1144</v>
+        <v>108</v>
       </c>
       <c r="G12" s="2">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="I12" s="2">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M12" s="2">
-        <f>(J12+K12+L12)/3</f>
-        <v>81.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2">
+        <v>550</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="5"/>
+        <v>26.19047619047619</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.60339943342776203</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.30594900849858359</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="4"/>
+        <v>0.50704225352112675</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2">
+        <v>2082</v>
+      </c>
+      <c r="E13" s="2">
+        <v>607</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1144</v>
+      </c>
+      <c r="G13" s="2">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2">
+        <v>316</v>
+      </c>
+      <c r="I13" s="2">
+        <v>75</v>
+      </c>
+      <c r="J13" s="2">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2">
+        <v>78</v>
+      </c>
+      <c r="L13" s="2">
+        <v>101</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
         <v>470</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" si="0"/>
+      <c r="P13" s="2">
+        <f t="shared" si="5"/>
         <v>5.778688524590164</v>
       </c>
-      <c r="Q12" s="2">
-        <f>(D12-E12)/D12</f>
+      <c r="Q13" s="11">
+        <f t="shared" si="2"/>
         <v>0.70845341018251684</v>
       </c>
-      <c r="R12" s="2">
-        <f>F12/D12</f>
+      <c r="R13" s="11">
+        <f t="shared" si="3"/>
         <v>0.54947166186359275</v>
       </c>
-      <c r="S12" s="2">
-        <f>F12/(D12-E12)</f>
+      <c r="S13" s="11">
+        <f t="shared" si="4"/>
         <v>0.77559322033898304</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="2">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-0.18</v>
-      </c>
-      <c r="H13" s="2">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="J13" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="L13" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="M13" s="2">
-        <f>(J13+K13+L13)/3</f>
-        <v>6.9000000000000012</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="O13" s="2">
-        <v>187</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="0"/>
-        <v>27.101449275362313</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>(D13-E13)/D13</f>
-        <v>0.24590163934426229</v>
-      </c>
-      <c r="R13" s="2">
-        <f>F13/D13</f>
-        <v>2.4590163934426229E-2</v>
-      </c>
-      <c r="S13" s="2">
-        <f>F13/(D13-E13)</f>
-        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="2">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-0.18</v>
+      </c>
+      <c r="H14" s="2">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J14" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="L14" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000012</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" s="2">
+        <v>187</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="5"/>
+        <v>27.101449275362313</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.24590163934426229</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="3"/>
+        <v>2.4590163934426229E-2</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>25</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>20</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>18</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I15" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J15" s="2">
         <v>3.48</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="2">
         <v>2.52</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L15" s="2">
         <v>1.62</v>
       </c>
-      <c r="M14" s="2">
-        <f>(J14+K14+L14)/3</f>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O15" s="2">
         <v>88</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="0"/>
+      <c r="P15" s="2">
+        <f t="shared" si="5"/>
         <v>34.645669291338585</v>
       </c>
-      <c r="Q14" s="2">
-        <f>(D14-E14)/D14</f>
+      <c r="Q15" s="11">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="R14" s="2">
-        <f>F14/D14</f>
+      <c r="R15" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="2">
-        <f>F14/(D14-E14)</f>
+      <c r="S15" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="U15" s="7" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <f>(J15+K15+L15)/3</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="2" t="e">
-        <f>(D15-E15)/D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="2" t="e">
-        <f>F15/D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="2" t="e">
-        <f>F15/(D15-E15)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -1933,25 +2018,25 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2">
-        <f>(J16+K16+L16)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="2" t="e">
-        <f>(D16-E16)/D16</f>
+      <c r="Q16" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R16" s="2" t="e">
-        <f>F16/D16</f>
+      <c r="R16" s="11" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="2" t="e">
-        <f>F16/(D16-E16)</f>
+      <c r="S16" s="11" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1966,25 +2051,25 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2">
-        <f>(J17+K17+L17)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="2" t="e">
-        <f>(D17-E17)/D17</f>
+      <c r="Q17" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="2" t="e">
-        <f>F17/D17</f>
+      <c r="R17" s="11" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="2" t="e">
-        <f>F17/(D17-E17)</f>
+      <c r="S17" s="11" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1999,25 +2084,25 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2">
-        <f>(J18+K18+L18)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q18" s="2" t="e">
-        <f>(D18-E18)/D18</f>
+      <c r="Q18" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R18" s="2" t="e">
-        <f>F18/D18</f>
+      <c r="R18" s="11" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="2" t="e">
-        <f>F18/(D18-E18)</f>
+      <c r="S18" s="11" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2032,25 +2117,25 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2">
-        <f>(J19+K19+L19)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q19" s="2" t="e">
-        <f>(D19-E19)/D19</f>
+      <c r="Q19" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R19" s="2" t="e">
-        <f>F19/D19</f>
+      <c r="R19" s="11" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="2" t="e">
-        <f>F19/(D19-E19)</f>
+      <c r="S19" s="11" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2065,25 +2150,25 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2">
-        <f>(J20+K20+L20)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q20" s="2" t="e">
-        <f>(D20-E20)/D20</f>
+      <c r="Q20" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="2" t="e">
-        <f>F20/D20</f>
+      <c r="R20" s="11" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="2" t="e">
-        <f>F20/(D20-E20)</f>
+      <c r="S20" s="11" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2098,18 +2183,27 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2">
-        <f>(J21+K21+L21)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="Q21" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D22" s="2"/>
@@ -2122,15 +2216,17 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2">
-        <f>(J22+K22+L22)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="P22" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D23" s="2"/>
@@ -2143,15 +2239,14 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2">
-        <f>(J23+K23+L23)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D24" s="2"/>
@@ -2163,13 +2258,15 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D25" s="2"/>
@@ -2185,9 +2282,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D26" s="2"/>
@@ -2203,9 +2299,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D27" s="2"/>
@@ -2221,9 +2316,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D28" s="2"/>
@@ -2241,7 +2335,6 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D29" s="2"/>
@@ -2259,7 +2352,6 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D30" s="2"/>
@@ -2277,7 +2369,6 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D31" s="2"/>
@@ -2295,7 +2386,6 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D32" s="2"/>
@@ -2313,9 +2403,8 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2331,9 +2420,8 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2349,9 +2437,8 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2367,9 +2454,8 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2385,9 +2471,8 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2403,9 +2488,8 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2421,9 +2505,8 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2439,9 +2522,8 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2457,9 +2539,8 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2475,9 +2556,8 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2493,9 +2573,8 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2511,9 +2590,8 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="4:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2529,10 +2607,26 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4720,7 +4814,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6490,7 +6584,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6503,7 +6597,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="213">
   <si>
     <t>Account</t>
   </si>
@@ -436,9 +436,6 @@
     <t>长安汽车</t>
   </si>
   <si>
-    <t>长安汽车16年有息负债减少巨大从20亿到2亿，主要是债券减少19亿。ROE基本稳定，大于20%，权益乘数不断降低，营业成本不断增加；货币资金不断增加，16年为250亿；</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -482,151 +479,151 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>有息负债巨大,为国投电力的一半,财务费用类似;但财务费用小于销售费用或管理费用;主要是短期借款357亿;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -636,73 +633,170 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双汇发展</t>
+  </si>
+  <si>
+    <t>17q4</t>
+  </si>
+  <si>
+    <t>18y04</t>
+  </si>
+  <si>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>平均净利润率</t>
+  </si>
+  <si>
+    <t>资产周转率</t>
+  </si>
+  <si>
+    <t>权益乘数</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>毛利率8%；</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+  </si>
+  <si>
+    <t>A300498</t>
+  </si>
+  <si>
+    <t>温氏股份</t>
+  </si>
+  <si>
+    <t>16q4</t>
+  </si>
+  <si>
+    <t>债券19亿一年内到期。ROE基本稳定，大于20%，权益乘数不断降低，营业成本不断增加；货币资金不断增加，16年为250亿；</t>
+  </si>
+  <si>
+    <t>18y03</t>
+  </si>
+  <si>
+    <t>A300285</t>
+  </si>
+  <si>
+    <t>国瓷材料</t>
+  </si>
+  <si>
+    <t>年报阅读</t>
+  </si>
+  <si>
+    <t>优先股260亿；16年优先股股息；</t>
+  </si>
+  <si>
+    <t>多兵种联合作战是兴业的重要优势；是国内目前唯一一家对外输出核心系统技术的银行；</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>招商银行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -711,7 +805,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -737,28 +831,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,95 +1141,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="5.75" customWidth="1"/>
-    <col min="19" max="19" width="5.625" style="11" customWidth="1"/>
-    <col min="20" max="20" width="5.375" customWidth="1"/>
-    <col min="21" max="21" width="54.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="11" customWidth="1"/>
+    <col min="20" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" customWidth="1"/>
+    <col min="24" max="24" width="54.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="9" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="T1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2">
@@ -1151,7 +1273,7 @@
         <v>191</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M24" si="0">(J2+K2+L2)/3</f>
+        <f t="shared" ref="M2:M33" si="0">(J2+K2+L2)/3</f>
         <v>215.66666666666666</v>
       </c>
       <c r="N2" s="2"/>
@@ -1159,139 +1281,170 @@
         <v>1868</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P9" si="1">O2/M2</f>
+        <f t="shared" ref="P2:P16" si="1">O2/M2</f>
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="11">
-        <f t="shared" ref="Q2:Q21" si="2">(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q30" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="11">
-        <f t="shared" ref="R2:R21" si="3">F2/D2</f>
+        <f t="shared" ref="R2:R30" si="3">F2/D2</f>
         <v>0</v>
       </c>
       <c r="S2" s="11">
-        <f t="shared" ref="S2:S21" si="4">F2/(D2-E2)</f>
+        <f t="shared" ref="S2:S30" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="T2" s="11">
+        <f>I2/H2</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U2" s="11">
+        <f>M2/H2</f>
+        <v>0.20403658152002521</v>
+      </c>
+      <c r="V2" s="11">
+        <f>H2/D2</f>
+        <v>3.253909617042236E-2</v>
+      </c>
+      <c r="W2" s="2">
+        <f>D2/E2</f>
+        <v>14.632432432432433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1896</v>
+      </c>
+      <c r="E3" s="2">
+        <v>563</v>
+      </c>
+      <c r="F3" s="2">
+        <v>347</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1515</v>
+      </c>
+      <c r="I3" s="2">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2">
+        <v>91</v>
+      </c>
+      <c r="K3" s="2">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="2">
+        <v>673</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3" si="5">O3/M3</f>
+        <v>13.73469387755102</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" ref="Q3" si="6">(D3-E3)/D3</f>
+        <v>0.70305907172995785</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" ref="R3" si="7">F3/D3</f>
+        <v>0.18301687763713081</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" ref="S3" si="8">F3/(D3-E3)</f>
+        <v>0.2603150787696924</v>
+      </c>
+      <c r="T3" s="11">
+        <f>I3/H3</f>
+        <v>6.7986798679867982E-2</v>
+      </c>
+      <c r="U3" s="11">
+        <f>M3/H3</f>
+        <v>3.2343234323432342E-2</v>
+      </c>
+      <c r="V3" s="11">
+        <f>H3/D3</f>
+        <v>0.79905063291139244</v>
+      </c>
+      <c r="W3" s="2">
+        <f>D3/E3</f>
+        <v>3.3676731793960926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>28</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>-0.19</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>21</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="2">
         <v>5.6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="2">
         <v>4.18</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K4" s="2">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L4" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>4.4766666666666666</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
         <v>85</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <f t="shared" si="1"/>
         <v>18.9873417721519</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q4" s="11">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
-      </c>
-      <c r="R3" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="2">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2">
-        <v>9.16</v>
-      </c>
-      <c r="J4" s="2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="K4" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2366666666666672</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
-        <v>280</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="1"/>
-        <v>38.691847075080602</v>
-      </c>
-      <c r="Q4" s="11">
-        <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
       </c>
       <c r="R4" s="11">
         <f t="shared" si="3"/>
@@ -1301,446 +1454,563 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="T4" s="11">
+        <f t="shared" ref="T4:T30" si="9">I4/H4</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" ref="U4:U24" si="10">M4/H4</f>
+        <v>0.21317460317460318</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" ref="V4:V29" si="11">H4/D4</f>
+        <v>0.75</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" ref="W4:W29" si="12">D4/E4</f>
+        <v>1.4</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="D5" s="2">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="E5" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F5" s="2">
-        <v>0.04</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H5" s="2">
-        <v>19</v>
+        <v>504</v>
       </c>
       <c r="I5" s="2">
-        <v>3.85</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2">
-        <v>3.41</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2">
-        <v>3.58</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2">
-        <v>2.62</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>3.2033333333333331</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="O5" s="2">
-        <v>132</v>
+        <v>820</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="1"/>
-        <v>41.207075962539022</v>
+        <v>18.35820895522388</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="2"/>
-        <v>0.14893617021276595</v>
+        <v>0.33043478260869563</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" si="3"/>
-        <v>8.5106382978723403E-4</v>
+        <v>8.4347826086956512E-2</v>
       </c>
       <c r="S5" s="11">
         <f t="shared" si="4"/>
-        <v>5.7142857142857143E-3</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+        <v>0.2552631578947368</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="9"/>
+        <v>0.10912698412698413</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="10"/>
+        <v>8.8624338624338619E-2</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="11"/>
+        <v>2.1913043478260867</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4935064935064934</v>
+      </c>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>138</v>
+      </c>
       <c r="D6" s="2">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>2.2999999999999998</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2">
-        <v>22</v>
+        <v>9.16</v>
       </c>
       <c r="J6" s="2">
-        <v>19</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="K6" s="2">
-        <v>14</v>
+        <v>7.7</v>
       </c>
       <c r="L6" s="2">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
+        <v>7.2366666666666672</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="1"/>
-        <v>48.837209302325583</v>
+        <v>38.691847075080602</v>
       </c>
       <c r="Q6" s="11">
         <f t="shared" si="2"/>
-        <v>0.40909090909090912</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" si="3"/>
-        <v>0.21590909090909091</v>
+        <v>0</v>
       </c>
       <c r="S6" s="11">
         <f t="shared" si="4"/>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="9"/>
+        <v>0.39826086956521739</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="10"/>
+        <v>0.31463768115942031</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="11"/>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="6" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="2">
-        <v>1780</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
-        <v>599</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
-        <v>565</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="2">
-        <v>23</v>
+        <v>0.3</v>
       </c>
       <c r="H7" s="2">
-        <v>1059</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2">
-        <v>54</v>
+        <v>3.85</v>
       </c>
       <c r="J7" s="2">
-        <v>49</v>
+        <v>3.41</v>
       </c>
       <c r="K7" s="2">
-        <v>54</v>
+        <v>3.58</v>
       </c>
       <c r="L7" s="2">
-        <v>31</v>
+        <v>2.62</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>44.666666666666664</v>
+        <v>3.2033333333333331</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2">
-        <v>1500</v>
+        <v>132</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="1"/>
-        <v>33.582089552238806</v>
+        <v>41.207075962539022</v>
       </c>
       <c r="Q7" s="11">
         <f t="shared" si="2"/>
-        <v>0.66348314606741576</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="R7" s="11">
         <f t="shared" si="3"/>
-        <v>0.31741573033707865</v>
+        <v>8.5106382978723403E-4</v>
       </c>
       <c r="S7" s="11">
         <f t="shared" si="4"/>
-        <v>0.47840812870448773</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="9"/>
+        <v>0.20263157894736841</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="10"/>
+        <v>0.16859649122807016</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="11"/>
+        <v>0.40425531914893614</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="12"/>
+        <v>1.175</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="6" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="2">
-        <v>1000</v>
+        <v>264</v>
       </c>
       <c r="E8" s="2">
-        <v>460</v>
+        <v>156</v>
       </c>
       <c r="F8" s="2">
-        <v>1.9</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2">
-        <v>-3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H8" s="2">
-        <v>785</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L8" s="2">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>14.333333333333334</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="1"/>
-        <v>5.7608695652173916</v>
+        <v>48.837209302325583</v>
       </c>
       <c r="Q8" s="11">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="R8" s="11">
         <f t="shared" si="3"/>
-        <v>1.9E-3</v>
+        <v>0.21590909090909091</v>
       </c>
       <c r="S8" s="11">
         <f t="shared" si="4"/>
-        <v>3.5185185185185185E-3</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="V8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="9"/>
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="10"/>
+        <v>0.15579710144927536</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="11"/>
+        <v>0.34848484848484851</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="30">
       <c r="A9" s="6" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="2">
-        <v>268</v>
+        <v>1780</v>
       </c>
       <c r="E9" s="2">
-        <v>209</v>
+        <v>599</v>
       </c>
       <c r="F9" s="2">
-        <v>47.9</v>
+        <v>565</v>
       </c>
       <c r="G9" s="2">
-        <v>2.75</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
-        <v>10</v>
+        <v>1059</v>
       </c>
       <c r="I9" s="2">
-        <v>35.69</v>
+        <v>54</v>
       </c>
       <c r="J9" s="2">
-        <v>35.5</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L9" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2">
-        <v>390</v>
+        <v>1500</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="1"/>
-        <v>10.684931506849315</v>
+        <v>33.582089552238806</v>
       </c>
       <c r="Q9" s="11">
         <f t="shared" si="2"/>
-        <v>0.22014925373134328</v>
+        <v>0.66348314606741576</v>
       </c>
       <c r="R9" s="11">
         <f t="shared" si="3"/>
-        <v>0.17873134328358209</v>
+        <v>0.31741573033707865</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" si="4"/>
-        <v>0.81186440677966099</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>0.47840812870448773</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="9"/>
+        <v>5.0991501416430593E-2</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="10"/>
+        <v>4.2178155492603085E-2</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="11"/>
+        <v>0.59494382022471914</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="12"/>
+        <v>2.971619365609349</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="6" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>150</v>
+        <v>207</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="D10" s="2">
-        <v>1105</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
-        <v>492</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
-        <v>15</v>
+        <v>2.08</v>
       </c>
       <c r="G10" s="2">
-        <v>1.39</v>
+        <v>-0.12</v>
       </c>
       <c r="H10" s="2">
-        <v>1004</v>
+        <v>6.83</v>
       </c>
       <c r="I10" s="2">
-        <v>58</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="2">
-        <v>50</v>
+        <v>1.4</v>
       </c>
       <c r="K10" s="2">
-        <v>105</v>
+        <v>0.98</v>
       </c>
       <c r="L10" s="2">
-        <v>80</v>
+        <v>0.72</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
-        <v>78.333333333333329</v>
+        <v>1.0333333333333332</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2">
-        <v>1050</v>
+        <v>123</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" ref="P10:P22" si="5">O10/M10</f>
-        <v>13.404255319148938</v>
+        <f t="shared" si="1"/>
+        <v>119.03225806451614</v>
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="2"/>
-        <v>0.55475113122171948</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="R10" s="11">
         <f t="shared" si="3"/>
-        <v>1.3574660633484163E-2</v>
+        <v>9.4545454545454544E-2</v>
       </c>
       <c r="S10" s="11">
         <f t="shared" si="4"/>
-        <v>2.4469820554649267E-2</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="9"/>
+        <v>0.21961932650073207</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="10"/>
+        <v>0.1512933138116154</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="11"/>
+        <v>0.31045454545454548</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2941176470588236</v>
+      </c>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>133</v>
+        <v>202</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="D11" s="2">
-        <v>64069</v>
+        <v>414</v>
       </c>
       <c r="E11" s="2">
-        <v>4139</v>
+        <v>313</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>-1.36</v>
+      </c>
       <c r="H11" s="2">
-        <v>1570</v>
+        <v>593</v>
       </c>
       <c r="I11" s="2">
-        <v>633</v>
+        <v>125</v>
       </c>
       <c r="J11" s="2">
-        <v>543</v>
+        <v>122</v>
       </c>
       <c r="K11" s="2">
-        <v>506</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2">
-        <v>475</v>
+        <v>28</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="O11" s="2">
-        <v>3500</v>
+        <v>1127</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="5"/>
-        <v>6.8897637795275593</v>
+        <f t="shared" si="1"/>
+        <v>15.652777777777779</v>
       </c>
       <c r="Q11" s="11">
         <f t="shared" si="2"/>
-        <v>0.93539777427461024</v>
+        <v>0.24396135265700483</v>
       </c>
       <c r="R11" s="11">
         <f t="shared" si="3"/>
@@ -1750,525 +2020,978 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="T11" s="11">
+        <f t="shared" si="9"/>
+        <v>0.21079258010118043</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="10"/>
+        <v>0.12141652613827993</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="11"/>
+        <v>1.432367149758454</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3226837060702876</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="2">
+        <v>23600</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1529</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>640</v>
+      </c>
+      <c r="I12" s="2">
+        <v>261</v>
+      </c>
+      <c r="J12" s="2">
+        <v>197</v>
+      </c>
+      <c r="K12" s="2">
+        <v>189</v>
+      </c>
+      <c r="L12" s="2">
+        <v>180</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>188.66666666666666</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1130</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ref="P12:P13" si="13">O12/M12</f>
+        <v>5.989399293286219</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" ref="Q12:Q13" si="14">(D12-E12)/D12</f>
+        <v>0.93521186440677961</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" ref="R12:R13" si="15">F12/D12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" ref="S12:S13" si="16">F12/(D12-E12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" ref="T12:T13" si="17">I12/H12</f>
+        <v>0.40781250000000002</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" ref="U12:U13" si="18">M12/H12</f>
+        <v>0.29479166666666667</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" ref="V12:V13" si="19">H12/D12</f>
+        <v>2.7118644067796609E-2</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" ref="W12:W13" si="20">D12/E12</f>
+        <v>15.434924787442773</v>
+      </c>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="2">
+        <v>63000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4833</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>2208</v>
+      </c>
+      <c r="I13" s="2">
+        <v>905</v>
+      </c>
+      <c r="J13" s="2">
+        <v>706</v>
+      </c>
+      <c r="K13" s="2">
+        <v>623</v>
+      </c>
+      <c r="L13" s="2">
+        <v>580</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>636.33333333333337</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="2">
+        <v>7250</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="13"/>
+        <v>11.393399685699318</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="14"/>
+        <v>0.92328571428571427</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="17"/>
+        <v>0.40987318840579712</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="18"/>
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="19"/>
+        <v>3.504761904761905E-2</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="20"/>
+        <v>13.035381750465548</v>
+      </c>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="2">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H14" s="2">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="L14" s="2">
+        <v>22</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.35</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="2">
+        <v>266</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="1"/>
+        <v>28.449197860962567</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="3"/>
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="4"/>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="10"/>
+        <v>0.14609374999999999</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="12"/>
+        <v>1.8113207547169812</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="45">
+      <c r="A15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>460</v>
+      </c>
+      <c r="F15" s="2">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>785</v>
+      </c>
+      <c r="I15" s="2">
+        <v>94</v>
+      </c>
+      <c r="J15" s="2">
+        <v>102</v>
+      </c>
+      <c r="K15" s="2">
+        <v>99</v>
+      </c>
+      <c r="L15" s="2">
+        <v>75</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O15" s="2">
+        <v>530</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7608695652173916</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="4"/>
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="9"/>
+        <v>0.11974522292993631</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="10"/>
+        <v>0.11719745222929936</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="11"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="12"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="2">
+        <v>268</v>
+      </c>
+      <c r="E16" s="2">
+        <v>209</v>
+      </c>
+      <c r="F16" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="J16" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>39</v>
+      </c>
+      <c r="L16" s="2">
+        <v>35</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
+        <v>390</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="1"/>
+        <v>10.684931506849315</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.22014925373134328</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="3"/>
+        <v>0.17873134328358209</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" si="4"/>
+        <v>0.81186440677966099</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="9"/>
+        <v>3.569</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="10"/>
+        <v>3.65</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="11"/>
+        <v>3.7313432835820892E-2</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2822966507177034</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2">
+        <v>2082</v>
+      </c>
+      <c r="E17" s="2">
+        <v>607</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1144</v>
+      </c>
+      <c r="G17" s="2">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2">
+        <v>316</v>
+      </c>
+      <c r="I17" s="2">
+        <v>75</v>
+      </c>
+      <c r="J17" s="2">
+        <v>65</v>
+      </c>
+      <c r="K17" s="2">
         <v>78</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="L17" s="2">
+        <v>101</v>
+      </c>
+      <c r="M17" s="2">
+        <f>(J17+K17+L17)/3</f>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
+        <v>470</v>
+      </c>
+      <c r="P17" s="2">
+        <f>O17/M17</f>
+        <v>5.778688524590164</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>(D17-E17)/D17</f>
+        <v>0.70845341018251684</v>
+      </c>
+      <c r="R17" s="11">
+        <f>F17/D17</f>
+        <v>0.54947166186359275</v>
+      </c>
+      <c r="S17" s="11">
+        <f>F17/(D17-E17)</f>
+        <v>0.77559322033898304</v>
+      </c>
+      <c r="T17" s="11">
+        <f>I17/H17</f>
+        <v>0.23734177215189872</v>
+      </c>
+      <c r="U17" s="11">
+        <f>M17/H17</f>
+        <v>0.2573839662447257</v>
+      </c>
+      <c r="V17" s="11">
+        <f>H17/D17</f>
+        <v>0.15177713736791545</v>
+      </c>
+      <c r="W17" s="2">
+        <f>D17/E17</f>
+        <v>3.4299835255354201</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="2">
+        <v>64930</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5879</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>8908</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J18" s="2">
+        <v>999</v>
+      </c>
+      <c r="K18" s="2">
+        <v>723</v>
+      </c>
+      <c r="L18" s="2">
+        <v>651</v>
+      </c>
+      <c r="M18" s="2">
+        <f>(J18+K18+L18)/3</f>
+        <v>791</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2">
+        <v>11800</v>
+      </c>
+      <c r="P18" s="2">
+        <f>O18/M18</f>
+        <v>14.917825537294563</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>(D18-E18)/D18</f>
+        <v>0.90945633759433231</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="T18" s="11">
+        <f>I18/H18</f>
+        <v>0.15121239335428829</v>
+      </c>
+      <c r="U18" s="11">
+        <f>M18/H18</f>
+        <v>8.8796587337224966E-2</v>
+      </c>
+      <c r="V18" s="11">
+        <f>H18/D18</f>
+        <v>0.1371939011242877</v>
+      </c>
+      <c r="W18" s="2">
+        <f>D18/E18</f>
+        <v>11.044395305324034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1105</v>
+      </c>
+      <c r="E19" s="2">
+        <v>492</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I19" s="2">
+        <v>58</v>
+      </c>
+      <c r="J19" s="2">
+        <v>50</v>
+      </c>
+      <c r="K19" s="2">
+        <v>105</v>
+      </c>
+      <c r="L19" s="2">
+        <v>80</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
+        <v>1050</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" ref="P19:P31" si="21">O19/M19</f>
+        <v>13.404255319148938</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.55475113122171948</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" si="4"/>
+        <v>2.4469820554649267E-2</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="9"/>
+        <v>5.7768924302788842E-2</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="10"/>
+        <v>7.802124833997344E-2</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="11"/>
+        <v>0.90859728506787329</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2459349593495936</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="2">
+        <v>64069</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4139</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>1570</v>
+      </c>
+      <c r="I20" s="2">
+        <v>633</v>
+      </c>
+      <c r="J20" s="2">
+        <v>543</v>
+      </c>
+      <c r="K20" s="2">
+        <v>506</v>
+      </c>
+      <c r="L20" s="2">
+        <v>475</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2">
+        <v>3500</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="21"/>
+        <v>6.8897637795275593</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="2"/>
+        <v>0.93539777427461024</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="9"/>
+        <v>0.4031847133757962</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="10"/>
+        <v>0.3235668789808917</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" si="11"/>
+        <v>2.45048307293699E-2</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="12"/>
+        <v>15.479342836433922</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D21" s="2">
         <v>353</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E21" s="2">
         <v>140</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F21" s="2">
         <v>108</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G21" s="2">
         <v>4</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H21" s="2">
         <v>201</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I21" s="2">
         <v>28</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J21" s="2">
         <v>26</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K21" s="2">
         <v>18</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L21" s="2">
         <v>19</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M21" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2">
         <v>550</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" si="5"/>
+      <c r="P21" s="2">
+        <f t="shared" si="21"/>
         <v>26.19047619047619</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q21" s="11">
         <f t="shared" si="2"/>
         <v>0.60339943342776203</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R21" s="11">
         <f t="shared" si="3"/>
         <v>0.30594900849858359</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S21" s="11">
         <f t="shared" si="4"/>
         <v>0.50704225352112675</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2">
-        <v>2082</v>
-      </c>
-      <c r="E13" s="2">
-        <v>607</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1144</v>
-      </c>
-      <c r="G13" s="2">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2">
-        <v>316</v>
-      </c>
-      <c r="I13" s="2">
-        <v>75</v>
-      </c>
-      <c r="J13" s="2">
-        <v>65</v>
-      </c>
-      <c r="K13" s="2">
-        <v>78</v>
-      </c>
-      <c r="L13" s="2">
-        <v>101</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>81.333333333333329</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2">
-        <v>470</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="5"/>
-        <v>5.778688524590164</v>
-      </c>
-      <c r="Q13" s="11">
-        <f t="shared" si="2"/>
-        <v>0.70845341018251684</v>
-      </c>
-      <c r="R13" s="11">
-        <f t="shared" si="3"/>
-        <v>0.54947166186359275</v>
-      </c>
-      <c r="S13" s="11">
-        <f t="shared" si="4"/>
-        <v>0.77559322033898304</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="T21" s="11">
+        <f t="shared" si="9"/>
+        <v>0.13930348258706468</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="10"/>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="11"/>
+        <v>0.56940509915014159</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="12"/>
+        <v>2.5214285714285714</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="2">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-0.18</v>
+      </c>
+      <c r="H23" s="2">
+        <v>25</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="L23" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000012</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="2">
-        <v>61</v>
-      </c>
-      <c r="E14" s="2">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-0.18</v>
-      </c>
-      <c r="H14" s="2">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="J14" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="K14" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="L14" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9000000000000012</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="O23" s="2">
         <v>187</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="5"/>
+      <c r="P23" s="2">
+        <f t="shared" si="21"/>
         <v>27.101449275362313</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q23" s="11">
         <f t="shared" si="2"/>
         <v>0.24590163934426229</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R23" s="11">
         <f t="shared" si="3"/>
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S23" s="11">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="T23" s="11">
+        <f t="shared" si="9"/>
+        <v>0.39799999999999996</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="10"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="11"/>
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="12"/>
+        <v>1.326086956521739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="D24" s="2">
         <v>25</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E24" s="2">
         <v>20</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G24" s="2">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H24" s="2">
         <v>18</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I24" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J24" s="2">
         <v>3.48</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K24" s="2">
         <v>2.52</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L24" s="2">
         <v>1.62</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
-      <c r="N15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="N24" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" s="2">
         <v>88</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="5"/>
+      <c r="P24" s="2">
+        <f t="shared" si="21"/>
         <v>34.645669291338585</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q24" s="11">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R24" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S24" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="T24" s="11">
+        <f t="shared" si="9"/>
+        <v>0.22777777777777775</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="10"/>
+        <v>0.1411111111111111</v>
+      </c>
+      <c r="V24" s="11">
+        <f t="shared" si="11"/>
+        <v>0.72</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="12"/>
+        <v>1.25</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2278,14 +3001,43 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="P25" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2295,14 +3047,43 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="P26" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2312,14 +3093,43 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="P27" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2329,14 +3139,43 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="P28" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2346,14 +3185,43 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="P29" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2363,14 +3231,37 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="P30" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2380,14 +3271,20 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="P31" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2397,14 +3294,17 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="4:18">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2414,14 +3314,17 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="M33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="4:18">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2435,10 +3338,10 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="4:18">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2452,10 +3355,10 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="4:18">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2469,10 +3372,10 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="4:18">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2489,7 +3392,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:18">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2506,7 +3409,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:18">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2523,7 +3426,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:18">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2540,7 +3443,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:18">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2557,7 +3460,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:18">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2574,7 +3477,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:18">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2591,7 +3494,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:18">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2608,7 +3511,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:18">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2625,8 +3528,161 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
+    <row r="46" spans="4:18">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="4:18">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="4:18">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="4:18">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="4:18">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="4:18">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="4:18">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="4:18">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="4:18">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2641,12 +3697,12 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +3734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2708,7 +3764,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +3794,7 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +3824,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2798,7 +3854,7 @@
         <v>-1742.0000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2828,7 +3884,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2858,7 +3914,7 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2888,7 +3944,7 @@
         <v>-3634.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +3974,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2948,7 +4004,7 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2975,7 +4031,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3005,7 +4061,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3035,7 +4091,7 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3065,7 +4121,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3095,7 +4151,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +4181,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3155,7 +4211,7 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3185,7 +4241,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3215,7 +4271,7 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3245,7 +4301,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3275,7 +4331,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +4358,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3332,7 +4388,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3362,7 +4418,7 @@
         <v>-3734.0000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -3392,7 +4448,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -3422,7 +4478,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -3452,7 +4508,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3482,7 +4538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -3512,7 +4568,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3539,7 +4595,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +4625,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -3599,7 +4655,7 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -3629,7 +4685,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -3659,7 +4715,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -3689,7 +4745,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3719,7 +4775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3749,7 +4805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3779,7 +4835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3809,7 +4865,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3839,7 +4895,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3869,7 +4925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3899,7 +4955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +4985,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3956,7 +5012,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3986,7 +5042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +5069,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +5099,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -4073,7 +5129,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -4100,7 +5156,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -4127,7 +5183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -4157,7 +5213,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -4190,7 +5246,7 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -4220,7 +5276,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -4250,7 +5306,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -4277,7 +5333,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -4307,7 +5363,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -4337,7 +5393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -4367,7 +5423,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -4397,7 +5453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -4427,7 +5483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -4457,7 +5513,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -4487,7 +5543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -4517,7 +5573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4547,7 +5603,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +5630,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -4607,7 +5663,7 @@
         <v>-3068</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -4634,7 +5690,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -4667,7 +5723,7 @@
         <v>-5750</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +5753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -4724,7 +5780,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -4751,57 +5807,57 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1">
       <c r="B72">
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" hidden="1">
       <c r="B73">
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" hidden="1">
       <c r="B74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" hidden="1">
       <c r="B75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" hidden="1">
       <c r="B76">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" hidden="1">
       <c r="B77">
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" hidden="1">
       <c r="B78">
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1">
       <c r="B79">
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" hidden="1">
       <c r="B80">
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" hidden="1">
       <c r="B81">
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" hidden="1">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -4814,9 +5870,9 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4828,13 +5884,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4866,7 +5922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -4899,7 +5955,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4932,7 +5988,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4965,7 +6021,7 @@
         <v>-4676.09</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -4998,7 +6054,7 @@
         <v>-4947.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -5031,7 +6087,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -5061,7 +6117,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -5094,7 +6150,7 @@
         <v>-2201.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -5124,7 +6180,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -5157,7 +6213,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -5190,7 +6246,7 @@
         <v>-1972.0400000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -5223,7 +6279,7 @@
         <v>-1826</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -5253,7 +6309,7 @@
         <v>-5576</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -5286,7 +6342,7 @@
         <v>-3797</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -5319,7 +6375,7 @@
         <v>-3699</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -5352,7 +6408,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -5385,7 +6441,7 @@
         <v>-2552.0500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5421,7 +6477,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -5451,7 +6507,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -5484,7 +6540,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -5517,7 +6573,7 @@
         <v>-6452.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -5550,7 +6606,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +6639,7 @@
         <v>-9311.19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -5616,7 +6672,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -5646,7 +6702,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -5676,7 +6732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -5709,7 +6765,7 @@
         <v>-4836</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -5742,7 +6798,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -5772,7 +6828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5802,7 +6858,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -5832,7 +6888,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -5865,7 +6921,7 @@
         <v>-3095</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -5898,7 +6954,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -5931,7 +6987,7 @@
         <v>-2849</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -5964,7 +7020,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -5994,7 +7050,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -6027,7 +7083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -6057,7 +7113,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -6090,7 +7146,7 @@
         <v>-4229</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -6120,7 +7176,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -6153,7 +7209,7 @@
         <v>-2804</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -6183,7 +7239,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -6216,7 +7272,7 @@
         <v>-2783</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +7305,7 @@
         <v>-3645</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -6276,7 +7332,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -6303,7 +7359,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -6336,7 +7392,7 @@
         <v>-3061.9999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -6369,7 +7425,7 @@
         <v>-5037</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -6396,7 +7452,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -6423,7 +7479,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -6456,7 +7512,7 @@
         <v>-4878</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -6489,7 +7545,7 @@
         <v>-2977</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="B53">
         <v>2018</v>
       </c>
@@ -6519,7 +7575,7 @@
         <v>-5531.0000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="B54">
         <v>2018</v>
       </c>
@@ -6528,55 +7584,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="J56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="J57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="J58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="J59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="J60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="J61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="J62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="J63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6584,7 +7640,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6595,9 +7651,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Dict" sheetId="4" r:id="rId1"/>
     <sheet name="00101现金流1" sheetId="1" r:id="rId2"/>
     <sheet name="00102现金流2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="EV估值" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="217">
   <si>
     <t>Account</t>
   </si>
@@ -479,151 +479,151 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有息负债巨大,为国投电力的一半,财务费用类似;但财务费用小于销售费用或管理费用;主要是短期借款357亿;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -639,15 +639,15 @@
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>双汇发展</t>
@@ -717,18 +717,37 @@
   </si>
   <si>
     <t>招商银行</t>
+  </si>
+  <si>
+    <t>现金</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>净金融负债</t>
+  </si>
+  <si>
+    <t>现金等价物</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,41 +850,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,20 +1174,21 @@
     <col min="1" max="2" width="9" style="6"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" style="11" customWidth="1"/>
-    <col min="20" max="22" width="5.42578125" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" customWidth="1"/>
-    <col min="24" max="24" width="54.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="5" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="11" customWidth="1"/>
+    <col min="24" max="26" width="5.42578125" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" customWidth="1"/>
+    <col min="28" max="28" width="54.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:30" s="9" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -1180,66 +1203,78 @@
       <c r="F1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1257,63 +1292,73 @@
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <f>F2-G2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <v>1057</v>
       </c>
-      <c r="I2" s="2">
+      <c r="L2" s="2">
         <v>302</v>
       </c>
-      <c r="J2" s="2">
+      <c r="M2" s="2">
         <v>231</v>
       </c>
-      <c r="K2" s="2">
+      <c r="N2" s="2">
         <v>225</v>
       </c>
-      <c r="L2" s="2">
+      <c r="O2" s="2">
         <v>191</v>
       </c>
-      <c r="M2" s="2">
-        <f t="shared" ref="M2:M33" si="0">(J2+K2+L2)/3</f>
+      <c r="P2" s="2">
+        <f t="shared" ref="P2:P33" si="0">(M2+N2+O2)/3</f>
         <v>215.66666666666666</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
         <v>1868</v>
       </c>
-      <c r="P2" s="2">
-        <f t="shared" ref="P2:P16" si="1">O2/M2</f>
+      <c r="S2" s="2">
+        <f>R2+I2</f>
+        <v>1868</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" ref="T2:T16" si="1">R2/P2</f>
         <v>8.6615146831530136</v>
       </c>
-      <c r="Q2" s="11">
-        <f t="shared" ref="Q2:Q30" si="2">(D2-E2)/D2</f>
+      <c r="U2" s="11">
+        <f t="shared" ref="U2:U30" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
-      <c r="R2" s="11">
-        <f t="shared" ref="R2:R30" si="3">F2/D2</f>
+      <c r="V2" s="11">
+        <f t="shared" ref="V2:V30" si="3">F2/D2</f>
         <v>0</v>
       </c>
-      <c r="S2" s="11">
-        <f t="shared" ref="S2:S30" si="4">F2/(D2-E2)</f>
+      <c r="W2" s="11">
+        <f t="shared" ref="W2:W30" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="11">
-        <f>I2/H2</f>
+      <c r="X2" s="11">
+        <f>L2/K2</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U2" s="11">
-        <f>M2/H2</f>
+      <c r="Y2" s="11">
+        <f>P2/K2</f>
         <v>0.20403658152002521</v>
       </c>
-      <c r="V2" s="11">
-        <f>H2/D2</f>
+      <c r="Z2" s="11">
+        <f>K2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AA2" s="2">
         <f>D2/E2</f>
         <v>14.632432432432433</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:30">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1332,68 +1377,72 @@
       <c r="F3" s="2">
         <v>347</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>5.9</v>
       </c>
-      <c r="H3" s="2">
+      <c r="K3" s="2">
         <v>1515</v>
       </c>
-      <c r="I3" s="2">
+      <c r="L3" s="2">
         <v>103</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="2">
         <v>91</v>
       </c>
-      <c r="K3" s="2">
+      <c r="N3" s="2">
         <v>35</v>
       </c>
-      <c r="L3" s="2">
+      <c r="O3" s="2">
         <v>21</v>
       </c>
-      <c r="M3" s="2">
+      <c r="P3" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="2">
+      <c r="R3" s="2">
         <v>673</v>
       </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3" si="5">O3/M3</f>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3" si="5">R3/P3</f>
         <v>13.73469387755102</v>
       </c>
-      <c r="Q3" s="11">
-        <f t="shared" ref="Q3" si="6">(D3-E3)/D3</f>
+      <c r="U3" s="11">
+        <f t="shared" ref="U3" si="6">(D3-E3)/D3</f>
         <v>0.70305907172995785</v>
       </c>
-      <c r="R3" s="11">
-        <f t="shared" ref="R3" si="7">F3/D3</f>
+      <c r="V3" s="11">
+        <f t="shared" ref="V3" si="7">F3/D3</f>
         <v>0.18301687763713081</v>
       </c>
-      <c r="S3" s="11">
-        <f t="shared" ref="S3" si="8">F3/(D3-E3)</f>
+      <c r="W3" s="11">
+        <f t="shared" ref="W3" si="8">F3/(D3-E3)</f>
         <v>0.2603150787696924</v>
       </c>
-      <c r="T3" s="11">
-        <f>I3/H3</f>
+      <c r="X3" s="11">
+        <f>L3/K3</f>
         <v>6.7986798679867982E-2</v>
       </c>
-      <c r="U3" s="11">
-        <f>M3/H3</f>
+      <c r="Y3" s="11">
+        <f>P3/K3</f>
         <v>3.2343234323432342E-2</v>
       </c>
-      <c r="V3" s="11">
-        <f>H3/D3</f>
+      <c r="Z3" s="11">
+        <f>K3/D3</f>
         <v>0.79905063291139244</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AA3" s="2">
         <f>D3/E3</f>
         <v>3.3676731793960926</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:30">
       <c r="A4" s="6" t="s">
         <v>180</v>
       </c>
@@ -1412,72 +1461,76 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
         <v>-0.19</v>
       </c>
-      <c r="H4" s="2">
+      <c r="K4" s="2">
         <v>21</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>5.6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M4" s="2">
         <v>4.18</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N4" s="2">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L4" s="2">
+      <c r="O4" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="M4" s="2">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>4.4766666666666666</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
         <v>85</v>
       </c>
-      <c r="P4" s="2">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
         <f t="shared" si="1"/>
         <v>18.9873417721519</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="U4" s="11">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="R4" s="11">
+      <c r="V4" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4" s="11">
+      <c r="W4" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T4" s="11">
-        <f t="shared" ref="T4:T30" si="9">I4/H4</f>
+      <c r="X4" s="11">
+        <f t="shared" ref="X4:X30" si="9">L4/K4</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="U4" s="11">
-        <f t="shared" ref="U4:U24" si="10">M4/H4</f>
+      <c r="Y4" s="11">
+        <f t="shared" ref="Y4:Y24" si="10">P4/K4</f>
         <v>0.21317460317460318</v>
       </c>
-      <c r="V4" s="11">
-        <f t="shared" ref="V4:V29" si="11">H4/D4</f>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z29" si="11">K4/D4</f>
         <v>0.75</v>
       </c>
-      <c r="W4" s="2">
-        <f t="shared" ref="W4:W29" si="12">D4/E4</f>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4:AA29" si="12">D4/E4</f>
         <v>1.4</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:30">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1496,69 +1549,73 @@
       <c r="F5" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H5" s="2">
+      <c r="K5" s="2">
         <v>504</v>
       </c>
-      <c r="I5" s="2">
+      <c r="L5" s="2">
         <v>55</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M5" s="2">
         <v>45</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="2">
         <v>45</v>
       </c>
-      <c r="L5" s="2">
+      <c r="O5" s="2">
         <v>44</v>
       </c>
-      <c r="M5" s="2">
+      <c r="P5" s="2">
         <f t="shared" si="0"/>
         <v>44.666666666666664</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O5" s="2">
+      <c r="R5" s="2">
         <v>820</v>
       </c>
-      <c r="P5" s="2">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2">
         <f t="shared" si="1"/>
         <v>18.35820895522388</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="U5" s="11">
         <f t="shared" si="2"/>
         <v>0.33043478260869563</v>
       </c>
-      <c r="R5" s="11">
+      <c r="V5" s="11">
         <f t="shared" si="3"/>
         <v>8.4347826086956512E-2</v>
       </c>
-      <c r="S5" s="11">
+      <c r="W5" s="11">
         <f t="shared" si="4"/>
         <v>0.2552631578947368</v>
       </c>
-      <c r="T5" s="11">
+      <c r="X5" s="11">
         <f t="shared" si="9"/>
         <v>0.10912698412698413</v>
       </c>
-      <c r="U5" s="11">
+      <c r="Y5" s="11">
         <f t="shared" si="10"/>
         <v>8.8624338624338619E-2</v>
       </c>
-      <c r="V5" s="11">
+      <c r="Z5" s="11">
         <f t="shared" si="11"/>
         <v>2.1913043478260867</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AA5" s="2">
         <f t="shared" si="12"/>
         <v>1.4935064935064934</v>
       </c>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="6" t="s">
         <v>110</v>
       </c>
@@ -1574,69 +1631,73 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="K6" s="2">
         <v>23</v>
       </c>
-      <c r="I6" s="2">
+      <c r="L6" s="2">
         <v>9.16</v>
       </c>
-      <c r="J6" s="2">
+      <c r="M6" s="2">
         <v>8.2100000000000009</v>
       </c>
-      <c r="K6" s="2">
+      <c r="N6" s="2">
         <v>7.7</v>
       </c>
-      <c r="L6" s="2">
+      <c r="O6" s="2">
         <v>5.8</v>
       </c>
-      <c r="M6" s="2">
+      <c r="P6" s="2">
         <f t="shared" si="0"/>
         <v>7.2366666666666672</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
         <v>280</v>
       </c>
-      <c r="P6" s="2">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
         <f t="shared" si="1"/>
         <v>38.691847075080602</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="U6" s="11">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="R6" s="11">
+      <c r="V6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="11">
+      <c r="W6" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T6" s="11">
+      <c r="X6" s="11">
         <f t="shared" si="9"/>
         <v>0.39826086956521739</v>
       </c>
-      <c r="U6" s="11">
+      <c r="Y6" s="11">
         <f t="shared" si="10"/>
         <v>0.31463768115942031</v>
       </c>
-      <c r="V6" s="11">
+      <c r="Z6" s="11">
         <f t="shared" si="11"/>
         <v>0.44230769230769229</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AA6" s="2">
         <f t="shared" si="12"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:30">
       <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
@@ -1653,72 +1714,76 @@
       <c r="F7" s="2">
         <v>0.04</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
         <v>0.3</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>19</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>3.85</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>3.41</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>3.58</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>2.62</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <f t="shared" si="0"/>
         <v>3.2033333333333331</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
         <v>132</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
         <f t="shared" si="1"/>
         <v>41.207075962539022</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="U7" s="11">
         <f t="shared" si="2"/>
         <v>0.14893617021276595</v>
       </c>
-      <c r="R7" s="11">
+      <c r="V7" s="11">
         <f t="shared" si="3"/>
         <v>8.5106382978723403E-4</v>
       </c>
-      <c r="S7" s="11">
+      <c r="W7" s="11">
         <f t="shared" si="4"/>
         <v>5.7142857142857143E-3</v>
       </c>
-      <c r="T7" s="11">
+      <c r="X7" s="11">
         <f t="shared" si="9"/>
         <v>0.20263157894736841</v>
       </c>
-      <c r="U7" s="11">
+      <c r="Y7" s="11">
         <f t="shared" si="10"/>
         <v>0.16859649122807016</v>
       </c>
-      <c r="V7" s="11">
+      <c r="Z7" s="11">
         <f t="shared" si="11"/>
         <v>0.40425531914893614</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <f t="shared" si="12"/>
         <v>1.175</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:30">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -1735,69 +1800,73 @@
       <c r="F8" s="2">
         <v>57</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H8" s="2">
+      <c r="K8" s="2">
         <v>92</v>
       </c>
-      <c r="I8" s="2">
+      <c r="L8" s="2">
         <v>22</v>
       </c>
-      <c r="J8" s="2">
+      <c r="M8" s="2">
         <v>19</v>
       </c>
-      <c r="K8" s="2">
+      <c r="N8" s="2">
         <v>14</v>
       </c>
-      <c r="L8" s="2">
+      <c r="O8" s="2">
         <v>10</v>
       </c>
-      <c r="M8" s="2">
+      <c r="P8" s="2">
         <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
         <v>700</v>
       </c>
-      <c r="P8" s="2">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
         <f t="shared" si="1"/>
         <v>48.837209302325583</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="U8" s="11">
         <f t="shared" si="2"/>
         <v>0.40909090909090912</v>
       </c>
-      <c r="R8" s="11">
+      <c r="V8" s="11">
         <f t="shared" si="3"/>
         <v>0.21590909090909091</v>
       </c>
-      <c r="S8" s="11">
+      <c r="W8" s="11">
         <f t="shared" si="4"/>
         <v>0.52777777777777779</v>
       </c>
-      <c r="T8" s="11">
+      <c r="X8" s="11">
         <f t="shared" si="9"/>
         <v>0.2391304347826087</v>
       </c>
-      <c r="U8" s="11">
+      <c r="Y8" s="11">
         <f t="shared" si="10"/>
         <v>0.15579710144927536</v>
       </c>
-      <c r="V8" s="11">
+      <c r="Z8" s="11">
         <f t="shared" si="11"/>
         <v>0.34848484848484851</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AA8" s="2">
         <f t="shared" si="12"/>
         <v>1.6923076923076923</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30">
+    <row r="9" spans="1:30" ht="30">
       <c r="A9" s="6" t="s">
         <v>150</v>
       </c>
@@ -1816,69 +1885,73 @@
       <c r="F9" s="2">
         <v>565</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
         <v>23</v>
       </c>
-      <c r="H9" s="2">
+      <c r="K9" s="2">
         <v>1059</v>
       </c>
-      <c r="I9" s="2">
+      <c r="L9" s="2">
         <v>54</v>
       </c>
-      <c r="J9" s="2">
+      <c r="M9" s="2">
         <v>49</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N9" s="2">
         <v>54</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O9" s="2">
         <v>31</v>
       </c>
-      <c r="M9" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="0"/>
         <v>44.666666666666664</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
         <v>1500</v>
       </c>
-      <c r="P9" s="2">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
         <f t="shared" si="1"/>
         <v>33.582089552238806</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="U9" s="11">
         <f t="shared" si="2"/>
         <v>0.66348314606741576</v>
       </c>
-      <c r="R9" s="11">
+      <c r="V9" s="11">
         <f t="shared" si="3"/>
         <v>0.31741573033707865</v>
       </c>
-      <c r="S9" s="11">
+      <c r="W9" s="11">
         <f t="shared" si="4"/>
         <v>0.47840812870448773</v>
       </c>
-      <c r="T9" s="11">
+      <c r="X9" s="11">
         <f t="shared" si="9"/>
         <v>5.0991501416430593E-2</v>
       </c>
-      <c r="U9" s="11">
+      <c r="Y9" s="11">
         <f t="shared" si="10"/>
         <v>4.2178155492603085E-2</v>
       </c>
-      <c r="V9" s="11">
+      <c r="Z9" s="11">
         <f t="shared" si="11"/>
         <v>0.59494382022471914</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AA9" s="2">
         <f t="shared" si="12"/>
         <v>2.971619365609349</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="AB9" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:30">
       <c r="A10" s="6" t="s">
         <v>206</v>
       </c>
@@ -1897,67 +1970,71 @@
       <c r="F10" s="2">
         <v>2.08</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>-0.12</v>
       </c>
-      <c r="H10" s="2">
+      <c r="K10" s="2">
         <v>6.83</v>
       </c>
-      <c r="I10" s="2">
+      <c r="L10" s="2">
         <v>1.5</v>
       </c>
-      <c r="J10" s="2">
+      <c r="M10" s="2">
         <v>1.4</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>0.98</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="2">
         <v>0.72</v>
       </c>
-      <c r="M10" s="2">
+      <c r="P10" s="2">
         <f t="shared" si="0"/>
         <v>1.0333333333333332</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
         <v>123</v>
       </c>
-      <c r="P10" s="2">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
         <f t="shared" si="1"/>
         <v>119.03225806451614</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="U10" s="11">
         <f t="shared" si="2"/>
         <v>0.22727272727272727</v>
       </c>
-      <c r="R10" s="11">
+      <c r="V10" s="11">
         <f t="shared" si="3"/>
         <v>9.4545454545454544E-2</v>
       </c>
-      <c r="S10" s="11">
+      <c r="W10" s="11">
         <f t="shared" si="4"/>
         <v>0.41600000000000004</v>
       </c>
-      <c r="T10" s="11">
+      <c r="X10" s="11">
         <f t="shared" si="9"/>
         <v>0.21961932650073207</v>
       </c>
-      <c r="U10" s="11">
+      <c r="Y10" s="11">
         <f t="shared" si="10"/>
         <v>0.1512933138116154</v>
       </c>
-      <c r="V10" s="11">
+      <c r="Z10" s="11">
         <f t="shared" si="11"/>
         <v>0.31045454545454548</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AA10" s="2">
         <f t="shared" si="12"/>
         <v>1.2941176470588236</v>
       </c>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="6" t="s">
         <v>201</v>
       </c>
@@ -1976,71 +2053,75 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
         <v>-1.36</v>
       </c>
-      <c r="H11" s="2">
+      <c r="K11" s="2">
         <v>593</v>
       </c>
-      <c r="I11" s="2">
+      <c r="L11" s="2">
         <v>125</v>
       </c>
-      <c r="J11" s="2">
+      <c r="M11" s="2">
         <v>122</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N11" s="2">
         <v>66</v>
       </c>
-      <c r="L11" s="2">
+      <c r="O11" s="2">
         <v>28</v>
       </c>
-      <c r="M11" s="2">
+      <c r="P11" s="2">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O11" s="2">
+      <c r="R11" s="2">
         <v>1127</v>
       </c>
-      <c r="P11" s="2">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
         <f t="shared" si="1"/>
         <v>15.652777777777779</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="U11" s="11">
         <f t="shared" si="2"/>
         <v>0.24396135265700483</v>
       </c>
-      <c r="R11" s="11">
+      <c r="V11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="11">
+      <c r="W11" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="11">
+      <c r="X11" s="11">
         <f t="shared" si="9"/>
         <v>0.21079258010118043</v>
       </c>
-      <c r="U11" s="11">
+      <c r="Y11" s="11">
         <f t="shared" si="10"/>
         <v>0.12141652613827993</v>
       </c>
-      <c r="V11" s="11">
+      <c r="Z11" s="11">
         <f t="shared" si="11"/>
         <v>1.432367149758454</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AA11" s="2">
         <f t="shared" si="12"/>
         <v>1.3226837060702876</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="AB11" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:30">
       <c r="A12" s="6" t="s">
         <v>120</v>
       </c>
@@ -2058,66 +2139,70 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
         <v>640</v>
       </c>
-      <c r="I12" s="2">
+      <c r="L12" s="2">
         <v>261</v>
       </c>
-      <c r="J12" s="2">
+      <c r="M12" s="2">
         <v>197</v>
       </c>
-      <c r="K12" s="2">
+      <c r="N12" s="2">
         <v>189</v>
       </c>
-      <c r="L12" s="2">
+      <c r="O12" s="2">
         <v>180</v>
       </c>
-      <c r="M12" s="2">
+      <c r="P12" s="2">
         <f t="shared" si="0"/>
         <v>188.66666666666666</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O12" s="2">
+      <c r="R12" s="2">
         <v>1130</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" ref="P12:P13" si="13">O12/M12</f>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
+        <f t="shared" ref="T12:T13" si="13">R12/P12</f>
         <v>5.989399293286219</v>
       </c>
-      <c r="Q12" s="11">
-        <f t="shared" ref="Q12:Q13" si="14">(D12-E12)/D12</f>
+      <c r="U12" s="11">
+        <f t="shared" ref="U12:U13" si="14">(D12-E12)/D12</f>
         <v>0.93521186440677961</v>
       </c>
-      <c r="R12" s="11">
-        <f t="shared" ref="R12:R13" si="15">F12/D12</f>
+      <c r="V12" s="11">
+        <f t="shared" ref="V12:V13" si="15">F12/D12</f>
         <v>0</v>
       </c>
-      <c r="S12" s="11">
-        <f t="shared" ref="S12:S13" si="16">F12/(D12-E12)</f>
+      <c r="W12" s="11">
+        <f t="shared" ref="W12:W13" si="16">F12/(D12-E12)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="11">
-        <f t="shared" ref="T12:T13" si="17">I12/H12</f>
+      <c r="X12" s="11">
+        <f t="shared" ref="X12:X13" si="17">L12/K12</f>
         <v>0.40781250000000002</v>
       </c>
-      <c r="U12" s="11">
-        <f t="shared" ref="U12:U13" si="18">M12/H12</f>
+      <c r="Y12" s="11">
+        <f t="shared" ref="Y12:Y13" si="18">P12/K12</f>
         <v>0.29479166666666667</v>
       </c>
-      <c r="V12" s="11">
-        <f t="shared" ref="V12:V13" si="19">H12/D12</f>
+      <c r="Z12" s="11">
+        <f t="shared" ref="Z12:Z13" si="19">K12/D12</f>
         <v>2.7118644067796609E-2</v>
       </c>
-      <c r="W12" s="2">
-        <f t="shared" ref="W12:W13" si="20">D12/E12</f>
+      <c r="AA12" s="2">
+        <f t="shared" ref="AA12:AA13" si="20">D12/E12</f>
         <v>15.434924787442773</v>
       </c>
-      <c r="X12" s="17"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2135,66 +2220,70 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
         <v>2208</v>
       </c>
-      <c r="I13" s="2">
+      <c r="L13" s="2">
         <v>905</v>
       </c>
-      <c r="J13" s="2">
+      <c r="M13" s="2">
         <v>706</v>
       </c>
-      <c r="K13" s="2">
+      <c r="N13" s="2">
         <v>623</v>
       </c>
-      <c r="L13" s="2">
+      <c r="O13" s="2">
         <v>580</v>
       </c>
-      <c r="M13" s="2">
+      <c r="P13" s="2">
         <f t="shared" si="0"/>
         <v>636.33333333333337</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O13" s="2">
+      <c r="R13" s="2">
         <v>7250</v>
       </c>
-      <c r="P13" s="2">
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
         <f t="shared" si="13"/>
         <v>11.393399685699318</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="U13" s="11">
         <f t="shared" si="14"/>
         <v>0.92328571428571427</v>
       </c>
-      <c r="R13" s="11">
+      <c r="V13" s="11">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S13" s="11">
+      <c r="W13" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T13" s="11">
+      <c r="X13" s="11">
         <f t="shared" si="17"/>
         <v>0.40987318840579712</v>
       </c>
-      <c r="U13" s="11">
+      <c r="Y13" s="11">
         <f t="shared" si="18"/>
         <v>0.28819444444444448</v>
       </c>
-      <c r="V13" s="11">
+      <c r="Z13" s="11">
         <f t="shared" si="19"/>
         <v>3.504761904761905E-2</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AA13" s="2">
         <f t="shared" si="20"/>
         <v>13.035381750465548</v>
       </c>
-      <c r="X13" s="17"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AB13" s="17"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -2213,71 +2302,75 @@
       <c r="F14" s="2">
         <v>11</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H14" s="2">
+      <c r="K14" s="2">
         <v>64</v>
       </c>
-      <c r="I14" s="2">
+      <c r="L14" s="2">
         <v>4.8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="M14" s="2">
         <v>3.89</v>
       </c>
-      <c r="K14" s="2">
+      <c r="N14" s="2">
         <v>2.16</v>
       </c>
-      <c r="L14" s="2">
+      <c r="O14" s="2">
         <v>22</v>
       </c>
-      <c r="M14" s="2">
+      <c r="P14" s="2">
         <f t="shared" si="0"/>
         <v>9.35</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="Q14" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="O14" s="2">
+      <c r="R14" s="2">
         <v>266</v>
       </c>
-      <c r="P14" s="2">
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
         <f t="shared" si="1"/>
         <v>28.449197860962567</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="U14" s="11">
         <f t="shared" si="2"/>
         <v>0.44791666666666669</v>
       </c>
-      <c r="R14" s="11">
+      <c r="V14" s="11">
         <f t="shared" si="3"/>
         <v>0.11458333333333333</v>
       </c>
-      <c r="S14" s="11">
+      <c r="W14" s="11">
         <f t="shared" si="4"/>
         <v>0.2558139534883721</v>
       </c>
-      <c r="T14" s="11">
+      <c r="X14" s="11">
         <f t="shared" si="9"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U14" s="11">
+      <c r="Y14" s="11">
         <f t="shared" si="10"/>
         <v>0.14609374999999999</v>
       </c>
-      <c r="V14" s="11">
+      <c r="Z14" s="11">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="W14" s="2">
+      <c r="AA14" s="2">
         <f t="shared" si="12"/>
         <v>1.8113207547169812</v>
       </c>
-      <c r="X14" s="14" t="s">
+      <c r="AB14" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="45">
+    <row r="15" spans="1:30" ht="45">
       <c r="A15" s="6" t="s">
         <v>118</v>
       </c>
@@ -2296,74 +2389,78 @@
       <c r="F15" s="2">
         <v>21</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
         <v>-3</v>
       </c>
-      <c r="H15" s="2">
+      <c r="K15" s="2">
         <v>785</v>
       </c>
-      <c r="I15" s="2">
+      <c r="L15" s="2">
         <v>94</v>
       </c>
-      <c r="J15" s="2">
+      <c r="M15" s="2">
         <v>102</v>
       </c>
-      <c r="K15" s="2">
+      <c r="N15" s="2">
         <v>99</v>
       </c>
-      <c r="L15" s="2">
+      <c r="O15" s="2">
         <v>75</v>
       </c>
-      <c r="M15" s="2">
+      <c r="P15" s="2">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="O15" s="2">
+      <c r="R15" s="2">
         <v>530</v>
       </c>
-      <c r="P15" s="2">
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
         <f t="shared" si="1"/>
         <v>5.7608695652173916</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="U15" s="11">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="R15" s="11">
+      <c r="V15" s="11">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="S15" s="11">
+      <c r="W15" s="11">
         <f t="shared" si="4"/>
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="T15" s="11">
+      <c r="X15" s="11">
         <f t="shared" si="9"/>
         <v>0.11974522292993631</v>
       </c>
-      <c r="U15" s="11">
+      <c r="Y15" s="11">
         <f t="shared" si="10"/>
         <v>0.11719745222929936</v>
       </c>
-      <c r="V15" s="11">
+      <c r="Z15" s="11">
         <f t="shared" si="11"/>
         <v>0.78500000000000003</v>
       </c>
-      <c r="W15" s="2">
+      <c r="AA15" s="2">
         <f t="shared" si="12"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="X15" s="17" t="s">
+      <c r="AB15" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AC15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:30">
       <c r="A16" s="6" t="s">
         <v>184</v>
       </c>
@@ -2382,72 +2479,76 @@
       <c r="F16" s="2">
         <v>47.9</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
         <v>2.75</v>
       </c>
-      <c r="H16" s="2">
+      <c r="K16" s="2">
         <v>10</v>
       </c>
-      <c r="I16" s="2">
+      <c r="L16" s="2">
         <v>35.69</v>
       </c>
-      <c r="J16" s="2">
+      <c r="M16" s="2">
         <v>35.5</v>
       </c>
-      <c r="K16" s="2">
+      <c r="N16" s="2">
         <v>39</v>
       </c>
-      <c r="L16" s="2">
+      <c r="O16" s="2">
         <v>35</v>
       </c>
-      <c r="M16" s="2">
+      <c r="P16" s="2">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
         <v>390</v>
       </c>
-      <c r="P16" s="2">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
         <f t="shared" si="1"/>
         <v>10.684931506849315</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="U16" s="11">
         <f t="shared" si="2"/>
         <v>0.22014925373134328</v>
       </c>
-      <c r="R16" s="11">
+      <c r="V16" s="11">
         <f t="shared" si="3"/>
         <v>0.17873134328358209</v>
       </c>
-      <c r="S16" s="11">
+      <c r="W16" s="11">
         <f t="shared" si="4"/>
         <v>0.81186440677966099</v>
       </c>
-      <c r="T16" s="11">
+      <c r="X16" s="11">
         <f t="shared" si="9"/>
         <v>3.569</v>
       </c>
-      <c r="U16" s="11">
+      <c r="Y16" s="11">
         <f t="shared" si="10"/>
         <v>3.65</v>
       </c>
-      <c r="V16" s="11">
+      <c r="Z16" s="11">
         <f t="shared" si="11"/>
         <v>3.7313432835820892E-2</v>
       </c>
-      <c r="W16" s="2">
+      <c r="AA16" s="2">
         <f t="shared" si="12"/>
         <v>1.2822966507177034</v>
       </c>
-      <c r="X16" s="12" t="s">
+      <c r="AB16" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="Y16" s="6" t="s">
+      <c r="AC16" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="30">
+    <row r="17" spans="1:30" ht="30">
       <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
@@ -2464,69 +2565,73 @@
       <c r="F17" s="2">
         <v>1144</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
         <v>48</v>
       </c>
-      <c r="H17" s="2">
+      <c r="K17" s="2">
         <v>316</v>
       </c>
-      <c r="I17" s="2">
+      <c r="L17" s="2">
         <v>75</v>
       </c>
-      <c r="J17" s="2">
+      <c r="M17" s="2">
         <v>65</v>
       </c>
-      <c r="K17" s="2">
+      <c r="N17" s="2">
         <v>78</v>
       </c>
-      <c r="L17" s="2">
+      <c r="O17" s="2">
         <v>101</v>
       </c>
-      <c r="M17" s="2">
-        <f>(J17+K17+L17)/3</f>
+      <c r="P17" s="2">
+        <f>(M17+N17+O17)/3</f>
         <v>81.333333333333329</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
         <v>470</v>
       </c>
-      <c r="P17" s="2">
-        <f>O17/M17</f>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2">
+        <f>R17/P17</f>
         <v>5.778688524590164</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="U17" s="11">
         <f>(D17-E17)/D17</f>
         <v>0.70845341018251684</v>
       </c>
-      <c r="R17" s="11">
+      <c r="V17" s="11">
         <f>F17/D17</f>
         <v>0.54947166186359275</v>
       </c>
-      <c r="S17" s="11">
+      <c r="W17" s="11">
         <f>F17/(D17-E17)</f>
         <v>0.77559322033898304</v>
       </c>
-      <c r="T17" s="11">
-        <f>I17/H17</f>
+      <c r="X17" s="11">
+        <f>L17/K17</f>
         <v>0.23734177215189872</v>
       </c>
-      <c r="U17" s="11">
-        <f>M17/H17</f>
+      <c r="Y17" s="11">
+        <f>P17/K17</f>
         <v>0.2573839662447257</v>
       </c>
-      <c r="V17" s="11">
-        <f>H17/D17</f>
+      <c r="Z17" s="11">
+        <f>K17/D17</f>
         <v>0.15177713736791545</v>
       </c>
-      <c r="W17" s="2">
+      <c r="AA17" s="2">
         <f>D17/E17</f>
         <v>3.4299835255354201</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:30">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -2544,56 +2649,60 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
         <v>8908</v>
       </c>
-      <c r="I18" s="2">
+      <c r="L18" s="2">
         <v>1347</v>
       </c>
-      <c r="J18" s="2">
+      <c r="M18" s="2">
         <v>999</v>
       </c>
-      <c r="K18" s="2">
+      <c r="N18" s="2">
         <v>723</v>
       </c>
-      <c r="L18" s="2">
+      <c r="O18" s="2">
         <v>651</v>
       </c>
-      <c r="M18" s="2">
-        <f>(J18+K18+L18)/3</f>
+      <c r="P18" s="2">
+        <f>(M18+N18+O18)/3</f>
         <v>791</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2">
         <v>11800</v>
       </c>
-      <c r="P18" s="2">
-        <f>O18/M18</f>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
+        <f>R18/P18</f>
         <v>14.917825537294563</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="U18" s="11">
         <f>(D18-E18)/D18</f>
         <v>0.90945633759433231</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="T18" s="11">
-        <f>I18/H18</f>
+      <c r="V18" s="11"/>
+      <c r="X18" s="11">
+        <f>L18/K18</f>
         <v>0.15121239335428829</v>
       </c>
-      <c r="U18" s="11">
-        <f>M18/H18</f>
+      <c r="Y18" s="11">
+        <f>P18/K18</f>
         <v>8.8796587337224966E-2</v>
       </c>
-      <c r="V18" s="11">
-        <f>H18/D18</f>
+      <c r="Z18" s="11">
+        <f>K18/D18</f>
         <v>0.1371939011242877</v>
       </c>
-      <c r="W18" s="2">
+      <c r="AA18" s="2">
         <f>D18/E18</f>
         <v>11.044395305324034</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:30">
       <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
@@ -2609,69 +2718,73 @@
       <c r="F19" s="2">
         <v>15</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
         <v>1.39</v>
       </c>
-      <c r="H19" s="2">
+      <c r="K19" s="2">
         <v>1004</v>
       </c>
-      <c r="I19" s="2">
+      <c r="L19" s="2">
         <v>58</v>
       </c>
-      <c r="J19" s="2">
+      <c r="M19" s="2">
         <v>50</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N19" s="2">
         <v>105</v>
       </c>
-      <c r="L19" s="2">
+      <c r="O19" s="2">
         <v>80</v>
       </c>
-      <c r="M19" s="2">
+      <c r="P19" s="2">
         <f t="shared" si="0"/>
         <v>78.333333333333329</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2">
         <v>1050</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" ref="P19:P31" si="21">O19/M19</f>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2">
+        <f t="shared" ref="T19:T31" si="21">R19/P19</f>
         <v>13.404255319148938</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="U19" s="11">
         <f t="shared" si="2"/>
         <v>0.55475113122171948</v>
       </c>
-      <c r="R19" s="11">
+      <c r="V19" s="11">
         <f t="shared" si="3"/>
         <v>1.3574660633484163E-2</v>
       </c>
-      <c r="S19" s="11">
+      <c r="W19" s="11">
         <f t="shared" si="4"/>
         <v>2.4469820554649267E-2</v>
       </c>
-      <c r="T19" s="11">
+      <c r="X19" s="11">
         <f t="shared" si="9"/>
         <v>5.7768924302788842E-2</v>
       </c>
-      <c r="U19" s="11">
+      <c r="Y19" s="11">
         <f t="shared" si="10"/>
         <v>7.802124833997344E-2</v>
       </c>
-      <c r="V19" s="11">
+      <c r="Z19" s="11">
         <f t="shared" si="11"/>
         <v>0.90859728506787329</v>
       </c>
-      <c r="W19" s="2">
+      <c r="AA19" s="2">
         <f t="shared" si="12"/>
         <v>2.2459349593495936</v>
       </c>
-      <c r="X19" s="12" t="s">
+      <c r="AB19" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:30">
       <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
@@ -2688,69 +2801,73 @@
         <v>0</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
         <v>1570</v>
       </c>
-      <c r="I20" s="2">
+      <c r="L20" s="2">
         <v>633</v>
       </c>
-      <c r="J20" s="2">
+      <c r="M20" s="2">
         <v>543</v>
       </c>
-      <c r="K20" s="2">
+      <c r="N20" s="2">
         <v>506</v>
       </c>
-      <c r="L20" s="2">
+      <c r="O20" s="2">
         <v>475</v>
       </c>
-      <c r="M20" s="2">
+      <c r="P20" s="2">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2">
         <v>3500</v>
       </c>
-      <c r="P20" s="2">
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
         <f t="shared" si="21"/>
         <v>6.8897637795275593</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="U20" s="11">
         <f t="shared" si="2"/>
         <v>0.93539777427461024</v>
       </c>
-      <c r="R20" s="11">
+      <c r="V20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S20" s="11">
+      <c r="W20" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="11">
+      <c r="X20" s="11">
         <f t="shared" si="9"/>
         <v>0.4031847133757962</v>
       </c>
-      <c r="U20" s="11">
+      <c r="Y20" s="11">
         <f t="shared" si="10"/>
         <v>0.3235668789808917</v>
       </c>
-      <c r="V20" s="11">
+      <c r="Z20" s="11">
         <f t="shared" si="11"/>
         <v>2.45048307293699E-2</v>
       </c>
-      <c r="W20" s="2">
+      <c r="AA20" s="2">
         <f t="shared" si="12"/>
         <v>15.479342836433922</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="AB20" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AD20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:30">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -2766,69 +2883,73 @@
       <c r="F21" s="2">
         <v>108</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="H21" s="2">
+      <c r="K21" s="2">
         <v>201</v>
       </c>
-      <c r="I21" s="2">
+      <c r="L21" s="2">
         <v>28</v>
       </c>
-      <c r="J21" s="2">
+      <c r="M21" s="2">
         <v>26</v>
       </c>
-      <c r="K21" s="2">
+      <c r="N21" s="2">
         <v>18</v>
       </c>
-      <c r="L21" s="2">
+      <c r="O21" s="2">
         <v>19</v>
       </c>
-      <c r="M21" s="2">
+      <c r="P21" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2">
         <v>550</v>
       </c>
-      <c r="P21" s="2">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
         <f t="shared" si="21"/>
         <v>26.19047619047619</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="U21" s="11">
         <f t="shared" si="2"/>
         <v>0.60339943342776203</v>
       </c>
-      <c r="R21" s="11">
+      <c r="V21" s="11">
         <f t="shared" si="3"/>
         <v>0.30594900849858359</v>
       </c>
-      <c r="S21" s="11">
+      <c r="W21" s="11">
         <f t="shared" si="4"/>
         <v>0.50704225352112675</v>
       </c>
-      <c r="T21" s="11">
+      <c r="X21" s="11">
         <f t="shared" si="9"/>
         <v>0.13930348258706468</v>
       </c>
-      <c r="U21" s="11">
+      <c r="Y21" s="11">
         <f t="shared" si="10"/>
         <v>0.1044776119402985</v>
       </c>
-      <c r="V21" s="11">
+      <c r="Z21" s="11">
         <f t="shared" si="11"/>
         <v>0.56940509915014159</v>
       </c>
-      <c r="W21" s="2">
+      <c r="AA21" s="2">
         <f t="shared" si="12"/>
         <v>2.5214285714285714</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:30">
       <c r="A23" s="6" t="s">
         <v>167</v>
       </c>
@@ -2847,68 +2968,72 @@
       <c r="F23" s="2">
         <v>1.5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
         <v>-0.18</v>
       </c>
-      <c r="H23" s="2">
+      <c r="K23" s="2">
         <v>25</v>
       </c>
-      <c r="I23" s="2">
+      <c r="L23" s="2">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J23" s="2">
+      <c r="M23" s="2">
         <v>7.5</v>
       </c>
-      <c r="K23" s="2">
+      <c r="N23" s="2">
         <v>6.8</v>
       </c>
-      <c r="L23" s="2">
+      <c r="O23" s="2">
         <v>6.4</v>
       </c>
-      <c r="M23" s="2">
+      <c r="P23" s="2">
         <f t="shared" si="0"/>
         <v>6.9000000000000012</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="Q23" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="O23" s="2">
+      <c r="R23" s="2">
         <v>187</v>
       </c>
-      <c r="P23" s="2">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
         <f t="shared" si="21"/>
         <v>27.101449275362313</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="U23" s="11">
         <f t="shared" si="2"/>
         <v>0.24590163934426229</v>
       </c>
-      <c r="R23" s="11">
+      <c r="V23" s="11">
         <f t="shared" si="3"/>
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="S23" s="11">
+      <c r="W23" s="11">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="T23" s="11">
+      <c r="X23" s="11">
         <f t="shared" si="9"/>
         <v>0.39799999999999996</v>
       </c>
-      <c r="U23" s="11">
+      <c r="Y23" s="11">
         <f t="shared" si="10"/>
         <v>0.27600000000000002</v>
       </c>
-      <c r="V23" s="11">
+      <c r="Z23" s="11">
         <f t="shared" si="11"/>
         <v>0.4098360655737705</v>
       </c>
-      <c r="W23" s="2">
+      <c r="AA23" s="2">
         <f t="shared" si="12"/>
         <v>1.326086956521739</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:30">
       <c r="A24" s="6" t="s">
         <v>156</v>
       </c>
@@ -2927,71 +3052,75 @@
       <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="H24" s="2">
+      <c r="K24" s="2">
         <v>18</v>
       </c>
-      <c r="I24" s="2">
+      <c r="L24" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J24" s="2">
+      <c r="M24" s="2">
         <v>3.48</v>
       </c>
-      <c r="K24" s="2">
+      <c r="N24" s="2">
         <v>2.52</v>
       </c>
-      <c r="L24" s="2">
+      <c r="O24" s="2">
         <v>1.62</v>
       </c>
-      <c r="M24" s="2">
+      <c r="P24" s="2">
         <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="Q24" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="O24" s="2">
+      <c r="R24" s="2">
         <v>88</v>
       </c>
-      <c r="P24" s="2">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
         <f t="shared" si="21"/>
         <v>34.645669291338585</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="U24" s="11">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="R24" s="11">
+      <c r="V24" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S24" s="11">
+      <c r="W24" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T24" s="11">
+      <c r="X24" s="11">
         <f t="shared" si="9"/>
         <v>0.22777777777777775</v>
       </c>
-      <c r="U24" s="11">
+      <c r="Y24" s="11">
         <f t="shared" si="10"/>
         <v>0.1411111111111111</v>
       </c>
-      <c r="V24" s="11">
+      <c r="Z24" s="11">
         <f t="shared" si="11"/>
         <v>0.72</v>
       </c>
-      <c r="W24" s="2">
+      <c r="AA24" s="2">
         <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
-      <c r="X24" s="7" t="s">
+      <c r="AB24" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:30">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3001,43 +3130,47 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2" t="e">
+      <c r="P25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="11" t="e">
+      <c r="U25" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="11" t="e">
+      <c r="V25" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="11" t="e">
+      <c r="W25" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="11" t="e">
+      <c r="X25" s="11" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11" t="e">
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W25" s="2" t="e">
+      <c r="AA25" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:30">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3047,43 +3180,47 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2" t="e">
+      <c r="P26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="11" t="e">
+      <c r="U26" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="11" t="e">
+      <c r="V26" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="11" t="e">
+      <c r="W26" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="11" t="e">
+      <c r="X26" s="11" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11" t="e">
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W26" s="2" t="e">
+      <c r="AA26" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:30">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3093,43 +3230,47 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2" t="e">
+      <c r="P27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="11" t="e">
+      <c r="U27" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="11" t="e">
+      <c r="V27" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="11" t="e">
+      <c r="W27" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="11" t="e">
+      <c r="X27" s="11" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11" t="e">
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W27" s="2" t="e">
+      <c r="AA27" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:30">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3139,43 +3280,47 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2" t="e">
+      <c r="P28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="11" t="e">
+      <c r="U28" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="11" t="e">
+      <c r="V28" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="11" t="e">
+      <c r="W28" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T28" s="11" t="e">
+      <c r="X28" s="11" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11" t="e">
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W28" s="2" t="e">
+      <c r="AA28" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:30">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3185,43 +3330,47 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2" t="e">
+      <c r="P29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="11" t="e">
+      <c r="U29" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="11" t="e">
+      <c r="V29" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="11" t="e">
+      <c r="W29" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="11" t="e">
+      <c r="X29" s="11" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11" t="e">
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W29" s="2" t="e">
+      <c r="AA29" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:30">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3231,37 +3380,41 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2" t="e">
+      <c r="P30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="11" t="e">
+      <c r="U30" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="11" t="e">
+      <c r="V30" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="11" t="e">
+      <c r="W30" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="11" t="e">
+      <c r="X30" s="11" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3271,20 +3424,24 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2" t="e">
+      <c r="P31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3294,17 +3451,21 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="4:18">
+      <c r="P32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+    </row>
+    <row r="33" spans="4:22">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3314,17 +3475,21 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="4:18">
+      <c r="P33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+    </row>
+    <row r="34" spans="4:22">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3338,10 +3503,14 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="4:18">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" spans="4:22">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3355,10 +3524,14 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="4:18">
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+    </row>
+    <row r="36" spans="4:22">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3372,10 +3545,14 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-    </row>
-    <row r="37" spans="4:18">
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+    </row>
+    <row r="37" spans="4:22">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3391,8 +3568,12 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="4:18">
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="4:22">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3408,8 +3589,12 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="4:18">
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="4:22">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3425,8 +3610,12 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="4:18">
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="4:22">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3442,8 +3631,12 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="4:18">
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="4:22">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3459,8 +3652,12 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="4:18">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="4:22">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3476,8 +3673,12 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="4:18">
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="4:22">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3493,8 +3694,12 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="4:18">
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="4:22">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3510,8 +3715,12 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="4:18">
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="4:22">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3527,8 +3736,12 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="4:18">
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="4:22">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3544,8 +3757,12 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="4:18">
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="4:22">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3561,8 +3778,12 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="4:18">
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="4:22">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3578,8 +3799,12 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="4:18">
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="4:22">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3595,8 +3820,12 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="4:18">
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="4:22">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3612,8 +3841,12 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="4:18">
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="4:22">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3629,8 +3862,12 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="4:18">
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="4:22">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3646,8 +3883,12 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="4:18">
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="4:22">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -3663,8 +3904,12 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="4:18">
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" spans="4:22">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -3680,9 +3925,13 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5870,7 +6119,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7640,7 +7889,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7653,7 +7902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Dict" sheetId="4" r:id="rId1"/>
     <sheet name="00101现金流1" sheetId="1" r:id="rId2"/>
     <sheet name="00102现金流2" sheetId="2" r:id="rId3"/>
-    <sheet name="EV估值" sheetId="5" r:id="rId4"/>
+    <sheet name="收益率" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="240">
   <si>
     <t>Account</t>
   </si>
@@ -439,15 +439,9 @@
     <t>TODO</t>
   </si>
   <si>
-    <t>债券用途</t>
-  </si>
-  <si>
     <t>华兰生物</t>
   </si>
   <si>
-    <t>有息负债为零；</t>
-  </si>
-  <si>
     <t>平安银行</t>
   </si>
   <si>
@@ -457,13 +451,7 @@
     <t>国投电力</t>
   </si>
   <si>
-    <t>财务费用48亿，远大于销售费用和管理费用；有息负债主要是长期借款1千亿；</t>
-  </si>
-  <si>
     <t>顺络电子</t>
-  </si>
-  <si>
-    <t>有息负债4百万，财务费用3千万？</t>
   </si>
   <si>
     <t>财务费用构成？</t>
@@ -483,10 +471,6 @@
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>有息负债巨大,为国投电力的一半,财务费用类似;但财务费用小于销售费用或管理费用;主要是短期借款357亿;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -633,7 +617,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -692,9 +676,6 @@
     <t>16q4</t>
   </si>
   <si>
-    <t>债券19亿一年内到期。ROE基本稳定，大于20%，权益乘数不断降低，营业成本不断增加；货币资金不断增加，16年为250亿；</t>
-  </si>
-  <si>
     <t>18y03</t>
   </si>
   <si>
@@ -719,103 +700,356 @@
     <t>招商银行</t>
   </si>
   <si>
-    <t>现金</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>净金融负债</t>
-  </si>
-  <si>
-    <t>现金等价物</t>
+    <t>平均ROE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用资本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均已用资本收益率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>毛利率7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%;ROE9%;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有息负债为零；已用资产收益率1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40%;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>17q4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产营收占比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货-营收比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收-营收比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付-应收比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用资本-营收比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有息负债为零；已用资本-营收比125%;毛利率:40%;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有息负债4百万，财务费用3千万？已用资本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-营收比168%;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16q4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有息负债巨大,为国投电力的一半,财务费用类似;但财务费用小于销售费用或管理费用;主要是短期借款357亿;投入资本收益率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有息负债为零；已用资本收益率3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与双汇相当;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>债券19亿一年内到期。ROE基本稳定，大于20%，权益乘数不断降低，营业成本不断增加；货币资金不断增加，16年为250亿；已用资本收益率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>209%;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已用资本收益率5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%,是否能够覆盖资金成本?</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已用资本收益率6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%;资金成本?</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>财务费用48亿，远大于销售费用和管理费用；有息负债主要是长期借款1千亿；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTOCE6%,与川投能源差距很大;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券用途;为何已用资本收益率如此之高209%;已用资本营收比如此之低6%?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A000651</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8y04</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入1元带来营收873元,带来收益113元,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A000333</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>17q4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -824,7 +1058,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -850,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -888,6 +1122,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,2014 +1400,3129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" customWidth="1"/>
-    <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="11" customWidth="1"/>
-    <col min="24" max="26" width="5.42578125" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" customWidth="1"/>
-    <col min="28" max="28" width="54.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.25" style="6" customWidth="1"/>
+    <col min="17" max="17" width="5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="5.75" style="6" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="23" customWidth="1"/>
+    <col min="20" max="22" width="5.375" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="6.625" customWidth="1"/>
+    <col min="34" max="34" width="9.125" customWidth="1"/>
+    <col min="35" max="35" width="6.625" customWidth="1"/>
+    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="54.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="9" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:39" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="L1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="9" t="s">
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AM1" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="2">
-        <v>32484</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2220</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <f>F2-G2-H2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>1057</v>
-      </c>
-      <c r="L2" s="2">
-        <v>302</v>
-      </c>
-      <c r="M2" s="2">
-        <v>231</v>
-      </c>
-      <c r="N2" s="2">
-        <v>225</v>
-      </c>
-      <c r="O2" s="2">
-        <v>191</v>
-      </c>
-      <c r="P2" s="2">
-        <f t="shared" ref="P2:P33" si="0">(M2+N2+O2)/3</f>
-        <v>215.66666666666666</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2">
-        <v>1868</v>
-      </c>
-      <c r="S2" s="2">
-        <f>R2+I2</f>
-        <v>1868</v>
-      </c>
-      <c r="T2" s="2">
-        <f t="shared" ref="T2:T16" si="1">R2/P2</f>
+      <c r="D2" s="21">
+        <v>3248400</v>
+      </c>
+      <c r="E2" s="21">
+        <v>222000</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21">
+        <v>105700</v>
+      </c>
+      <c r="I2" s="21">
+        <v>30200</v>
+      </c>
+      <c r="J2" s="21">
+        <v>23100</v>
+      </c>
+      <c r="K2" s="21">
+        <v>22500</v>
+      </c>
+      <c r="L2" s="21">
+        <v>19100</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M34" si="0">(J2+K2+L2)/3</f>
+        <v>21566.666666666668</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="21">
+        <v>186800</v>
+      </c>
+      <c r="P2" s="8">
+        <f t="shared" ref="P2:P18" si="1">O2/M2</f>
         <v>8.6615146831530136</v>
       </c>
-      <c r="U2" s="11">
-        <f t="shared" ref="U2:U30" si="2">(D2-E2)/D2</f>
+      <c r="Q2" s="23">
+        <f>(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
-      <c r="V2" s="11">
-        <f t="shared" ref="V2:V30" si="3">F2/D2</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="11">
-        <f t="shared" ref="W2:W30" si="4">F2/(D2-E2)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="11">
-        <f>L2/K2</f>
+      <c r="R2" s="23">
+        <f>F2/D2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="23">
+        <f>F2/(D2-E2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="23">
+        <f>I2/H2</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="Y2" s="11">
-        <f>P2/K2</f>
-        <v>0.20403658152002521</v>
-      </c>
-      <c r="Z2" s="11">
-        <f>K2/D2</f>
+      <c r="U2" s="23">
+        <f>M2/H2</f>
+        <v>0.20403658152002524</v>
+      </c>
+      <c r="V2" s="23">
+        <f>H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="W2" s="8">
         <f>D2/E2</f>
         <v>14.632432432432433</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="X2" s="23">
+        <f>M2/E2</f>
+        <v>9.7147147147147159E-2</v>
+      </c>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11">
+        <f>Z2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="11">
+        <f>AB2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="11">
+        <f>AD2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="11">
+        <f>AF2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="21">
+        <f>Z2+AB2+AD2-AF2</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11">
+        <f>AH2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="11" t="e">
+        <f>M2/AH2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="21">
+        <v>248106</v>
+      </c>
+      <c r="E3" s="21">
+        <v>82925</v>
+      </c>
+      <c r="F3" s="21">
+        <v>40259</v>
+      </c>
+      <c r="G3" s="21">
+        <v>815</v>
+      </c>
+      <c r="H3" s="21">
+        <v>240712</v>
+      </c>
+      <c r="I3" s="21">
+        <v>21627</v>
+      </c>
+      <c r="J3" s="21">
+        <v>18611</v>
+      </c>
+      <c r="K3" s="21">
+        <v>15861</v>
+      </c>
+      <c r="L3" s="21">
+        <v>13624</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>16032</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="21">
+        <v>349000</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3" si="2">O3/M3</f>
+        <v>21.768962075848304</v>
+      </c>
+      <c r="Q3" s="23">
+        <f>(D3-E3)/D3</f>
+        <v>0.66576785728680488</v>
+      </c>
+      <c r="R3" s="23">
+        <f>F3/D3</f>
+        <v>0.16226532208007868</v>
+      </c>
+      <c r="S3" s="23">
+        <f>F3/(D3-E3)</f>
+        <v>0.24372657872273445</v>
+      </c>
+      <c r="T3" s="23">
+        <f>I3/H3</f>
+        <v>8.9845956994250395E-2</v>
+      </c>
+      <c r="U3" s="23">
+        <f>M3/H3</f>
+        <v>6.6602412841902353E-2</v>
+      </c>
+      <c r="V3" s="23">
+        <f>H3/D3</f>
+        <v>0.9701982217278099</v>
+      </c>
+      <c r="W3" s="8">
+        <f>D3/E3</f>
+        <v>2.9919324690985829</v>
+      </c>
+      <c r="X3" s="23">
+        <f>M3/E3</f>
+        <v>0.19333132348507687</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="21">
+        <v>22600</v>
+      </c>
+      <c r="AA3" s="11">
+        <f>Z3/H3</f>
+        <v>9.3888131875436209E-2</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>29444</v>
+      </c>
+      <c r="AC3" s="11">
+        <f>AB3/H3</f>
+        <v>0.12232044933364353</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>17528</v>
+      </c>
+      <c r="AE3" s="11">
+        <f>AD3/H3</f>
+        <v>7.2817308651002027E-2</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>35144</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>AF3/H3</f>
+        <v>0.14600019940842168</v>
+      </c>
+      <c r="AH3" s="21">
+        <f>Z3+AB3+AD3-AF3</f>
+        <v>34428</v>
+      </c>
+      <c r="AI3" s="11">
+        <f>AH3/H3</f>
+        <v>0.14302569045166008</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f>M3/AH3</f>
+        <v>0.46566747995817359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1896</v>
-      </c>
-      <c r="E3" s="2">
-        <v>563</v>
-      </c>
-      <c r="F3" s="2">
-        <v>347</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1515</v>
-      </c>
-      <c r="L3" s="2">
-        <v>103</v>
-      </c>
-      <c r="M3" s="2">
-        <v>91</v>
-      </c>
-      <c r="N3" s="2">
-        <v>35</v>
-      </c>
-      <c r="O3" s="2">
-        <v>21</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="R3" s="2">
-        <v>673</v>
-      </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2">
-        <f t="shared" ref="T3" si="5">R3/P3</f>
+      <c r="B4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="21">
+        <v>189600</v>
+      </c>
+      <c r="E4" s="21">
+        <v>56300</v>
+      </c>
+      <c r="F4" s="21">
+        <v>34700</v>
+      </c>
+      <c r="G4" s="21">
+        <v>590</v>
+      </c>
+      <c r="H4" s="21">
+        <v>151500</v>
+      </c>
+      <c r="I4" s="21">
+        <v>10300</v>
+      </c>
+      <c r="J4" s="21">
+        <v>9100</v>
+      </c>
+      <c r="K4" s="21">
+        <v>3500</v>
+      </c>
+      <c r="L4" s="21">
+        <v>2100</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="21">
+        <v>67300</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4" si="3">O4/M4</f>
         <v>13.73469387755102</v>
       </c>
-      <c r="U3" s="11">
-        <f t="shared" ref="U3" si="6">(D3-E3)/D3</f>
+      <c r="Q4" s="23">
+        <f>(D4-E4)/D4</f>
         <v>0.70305907172995785</v>
       </c>
-      <c r="V3" s="11">
-        <f t="shared" ref="V3" si="7">F3/D3</f>
+      <c r="R4" s="23">
+        <f>F4/D4</f>
         <v>0.18301687763713081</v>
       </c>
-      <c r="W3" s="11">
-        <f t="shared" ref="W3" si="8">F3/(D3-E3)</f>
+      <c r="S4" s="23">
+        <f>F4/(D4-E4)</f>
         <v>0.2603150787696924</v>
       </c>
-      <c r="X3" s="11">
-        <f>L3/K3</f>
+      <c r="T4" s="23">
+        <f>I4/H4</f>
         <v>6.7986798679867982E-2</v>
       </c>
-      <c r="Y3" s="11">
-        <f>P3/K3</f>
+      <c r="U4" s="23">
+        <f>M4/H4</f>
         <v>3.2343234323432342E-2</v>
       </c>
-      <c r="Z3" s="11">
-        <f>K3/D3</f>
+      <c r="V4" s="23">
+        <f>H4/D4</f>
         <v>0.79905063291139244</v>
       </c>
-      <c r="AA3" s="2">
-        <f>D3/E3</f>
+      <c r="W4" s="8">
+        <f>D4/E4</f>
         <v>3.3676731793960926</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="2">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>-0.19</v>
-      </c>
-      <c r="K4" s="2">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4.18</v>
-      </c>
-      <c r="N4" s="2">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="O4" s="2">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4766666666666666</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
-        <v>85</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
+      <c r="X4" s="23">
+        <f t="shared" ref="X4:X31" si="4">M4/E4</f>
+        <v>8.7033747779751328E-2</v>
+      </c>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="21">
+        <v>27000</v>
+      </c>
+      <c r="AA4" s="11">
+        <f>Z4/H4</f>
+        <v>0.17821782178217821</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>19800</v>
+      </c>
+      <c r="AC4" s="11">
+        <f>AB4/H4</f>
+        <v>0.1306930693069307</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>13700</v>
+      </c>
+      <c r="AE4" s="11">
+        <f>AD4/H4</f>
+        <v>9.0429042904290435E-2</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>30600</v>
+      </c>
+      <c r="AG4" s="11">
+        <f>AF4/H4</f>
+        <v>0.20198019801980199</v>
+      </c>
+      <c r="AH4" s="21">
+        <f>Z4+AB4+AD4-AF4</f>
+        <v>29900</v>
+      </c>
+      <c r="AI4" s="11">
+        <f t="shared" ref="AI4:AI30" si="5">AH4/H4</f>
+        <v>0.19735973597359735</v>
+      </c>
+      <c r="AJ4" s="11">
+        <f>M4/AH4</f>
+        <v>0.16387959866220736</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="21">
+        <v>182369</v>
+      </c>
+      <c r="E5" s="21">
+        <v>54923</v>
+      </c>
+      <c r="F5" s="21">
+        <v>10701</v>
+      </c>
+      <c r="G5" s="21">
+        <v>-4845</v>
+      </c>
+      <c r="H5" s="21">
+        <v>108302</v>
+      </c>
+      <c r="I5" s="21">
+        <v>17455</v>
+      </c>
+      <c r="J5" s="21">
+        <v>15524</v>
+      </c>
+      <c r="K5" s="21">
+        <v>12623</v>
+      </c>
+      <c r="L5" s="21">
+        <v>14252</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>14133</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="O5" s="21">
+        <v>281500</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5" si="6">O5/M5</f>
+        <v>19.917922592513975</v>
+      </c>
+      <c r="Q5" s="23">
+        <f>(D5-E5)/D5</f>
+        <v>0.69883587671150249</v>
+      </c>
+      <c r="R5" s="23">
+        <f>F5/D5</f>
+        <v>5.8677735799395732E-2</v>
+      </c>
+      <c r="S5" s="23">
+        <f>F5/(D5-E5)</f>
+        <v>8.3964973400499035E-2</v>
+      </c>
+      <c r="T5" s="23">
+        <f>I5/H5</f>
+        <v>0.16116969215711621</v>
+      </c>
+      <c r="U5" s="23">
+        <f>M5/H5</f>
+        <v>0.13049620505623166</v>
+      </c>
+      <c r="V5" s="23">
+        <f>H5/D5</f>
+        <v>0.59386189538792233</v>
+      </c>
+      <c r="W5" s="8">
+        <f>D5/E5</f>
+        <v>3.3204486280793111</v>
+      </c>
+      <c r="X5" s="23">
+        <f t="shared" ref="X5" si="7">M5/E5</f>
+        <v>0.25732388980936949</v>
+      </c>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="21">
+        <v>17681</v>
+      </c>
+      <c r="AA5" s="11">
+        <f>Z5/H5</f>
+        <v>0.16325644955771823</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>9024</v>
+      </c>
+      <c r="AC5" s="11">
+        <f>AB5/H5</f>
+        <v>8.3322560986870048E-2</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>2960</v>
+      </c>
+      <c r="AE5" s="11">
+        <f>AD5/H5</f>
+        <v>2.7330981883991062E-2</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>29541</v>
+      </c>
+      <c r="AG5" s="11">
+        <f>AF5/H5</f>
+        <v>0.27276504589019596</v>
+      </c>
+      <c r="AH5" s="21">
+        <f>Z5+AB5+AD5-AF5</f>
+        <v>124</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="5"/>
+        <v>1.1449465383834095E-3</v>
+      </c>
+      <c r="AJ5" s="11">
+        <f>M5/AH5</f>
+        <v>113.9758064516129</v>
+      </c>
+      <c r="AK5" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2800</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>-19</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2100</v>
+      </c>
+      <c r="I6" s="21">
+        <v>560</v>
+      </c>
+      <c r="J6" s="21">
+        <v>418</v>
+      </c>
+      <c r="K6" s="21">
+        <v>456</v>
+      </c>
+      <c r="L6" s="21">
+        <v>469</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>447.66666666666669</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="21">
+        <v>8500</v>
+      </c>
+      <c r="P6" s="8">
         <f t="shared" si="1"/>
-        <v>18.9873417721519</v>
-      </c>
-      <c r="U4" s="11">
-        <f t="shared" si="2"/>
+        <v>18.987341772151897</v>
+      </c>
+      <c r="Q6" s="23">
+        <f>(D6-E6)/D6</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V4" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="11">
+      <c r="R6" s="23">
+        <f>F6/D6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
+        <f>F6/(D6-E6)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <f t="shared" ref="T6:T31" si="8">I6/H6</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U6" s="23">
+        <f t="shared" ref="U6:U25" si="9">M6/H6</f>
+        <v>0.21317460317460318</v>
+      </c>
+      <c r="V6" s="23">
+        <f>H6/D6</f>
+        <v>0.75</v>
+      </c>
+      <c r="W6" s="8">
+        <f>D6/E6</f>
+        <v>1.4</v>
+      </c>
+      <c r="X6" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="11">
-        <f t="shared" ref="X4:X30" si="9">L4/K4</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="Y4" s="11">
-        <f t="shared" ref="Y4:Y24" si="10">P4/K4</f>
-        <v>0.21317460317460318</v>
-      </c>
-      <c r="Z4" s="11">
-        <f t="shared" ref="Z4:Z29" si="11">K4/D4</f>
-        <v>0.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <f t="shared" ref="AA4:AA29" si="12">D4/E4</f>
-        <v>1.4</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="6" t="s">
+        <v>0.22383333333333336</v>
+      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="21">
+        <v>259</v>
+      </c>
+      <c r="AA6" s="11">
+        <f>Z6/H6</f>
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>258</v>
+      </c>
+      <c r="AC6" s="11">
+        <f>AB6/H6</f>
+        <v>0.12285714285714286</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <f>AD6/H6</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>197</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>AF6/H6</f>
+        <v>9.3809523809523815E-2</v>
+      </c>
+      <c r="AH6" s="21">
+        <f>Z6+AB6+AD6-AF6</f>
+        <v>320</v>
+      </c>
+      <c r="AI6" s="11">
+        <f t="shared" si="5"/>
+        <v>0.15238095238095239</v>
+      </c>
+      <c r="AJ6" s="11">
+        <f>M6/AH6</f>
+        <v>1.3989583333333333</v>
+      </c>
+      <c r="AK6" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="2">
-        <v>230</v>
-      </c>
-      <c r="E5" s="2">
-        <v>154</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K5" s="2">
-        <v>504</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="B7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="21">
+        <v>23000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>15400</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1940</v>
+      </c>
+      <c r="G7" s="21">
         <v>55</v>
       </c>
-      <c r="M5" s="2">
-        <v>45</v>
-      </c>
-      <c r="N5" s="2">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2">
-        <v>44</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="0"/>
-        <v>44.666666666666664</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="R5" s="2">
-        <v>820</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2">
+      <c r="H7" s="21">
+        <v>50400</v>
+      </c>
+      <c r="I7" s="21">
+        <v>5500</v>
+      </c>
+      <c r="J7" s="21">
+        <v>4500</v>
+      </c>
+      <c r="K7" s="21">
+        <v>4500</v>
+      </c>
+      <c r="L7" s="21">
+        <v>4400</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>4466.666666666667</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O7" s="21">
+        <v>82000</v>
+      </c>
+      <c r="P7" s="8">
         <f t="shared" si="1"/>
         <v>18.35820895522388</v>
       </c>
-      <c r="U5" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q7" s="23">
+        <f>(D7-E7)/D7</f>
         <v>0.33043478260869563</v>
       </c>
-      <c r="V5" s="11">
-        <f t="shared" si="3"/>
-        <v>8.4347826086956512E-2</v>
-      </c>
-      <c r="W5" s="11">
+      <c r="R7" s="23">
+        <f>F7/D7</f>
+        <v>8.4347826086956526E-2</v>
+      </c>
+      <c r="S7" s="23">
+        <f>F7/(D7-E7)</f>
+        <v>0.25526315789473686</v>
+      </c>
+      <c r="T7" s="23">
+        <f t="shared" si="8"/>
+        <v>0.10912698412698413</v>
+      </c>
+      <c r="U7" s="23">
+        <f t="shared" si="9"/>
+        <v>8.8624338624338633E-2</v>
+      </c>
+      <c r="V7" s="23">
+        <f>H7/D7</f>
+        <v>2.1913043478260867</v>
+      </c>
+      <c r="W7" s="8">
+        <f>D7/E7</f>
+        <v>1.4935064935064934</v>
+      </c>
+      <c r="X7" s="23">
         <f t="shared" si="4"/>
-        <v>0.2552631578947368</v>
-      </c>
-      <c r="X5" s="11">
+        <v>0.29004329004329005</v>
+      </c>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="21">
+        <v>11400</v>
+      </c>
+      <c r="AA7" s="11">
+        <f>Z7/H7</f>
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>2900</v>
+      </c>
+      <c r="AC7" s="11">
+        <f>AB7/H7</f>
+        <v>5.7539682539682536E-2</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>135</v>
+      </c>
+      <c r="AE7" s="11">
+        <f>AD7/H7</f>
+        <v>2.6785714285714286E-3</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>1800</v>
+      </c>
+      <c r="AG7" s="11">
+        <f>AF7/H7</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AH7" s="21">
+        <f>Z7+AB7+AD7-AF7</f>
+        <v>12635</v>
+      </c>
+      <c r="AI7" s="11">
+        <f t="shared" si="5"/>
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f>M7/AH7</f>
+        <v>0.35351536736578293</v>
+      </c>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="21">
+        <v>4800</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>-7</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="21">
+        <v>916</v>
+      </c>
+      <c r="J8" s="21">
+        <v>821</v>
+      </c>
+      <c r="K8" s="21">
+        <v>770</v>
+      </c>
+      <c r="L8" s="21">
+        <v>580</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>723.66666666666663</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="21">
+        <v>28000</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="1"/>
+        <v>38.691847075080609</v>
+      </c>
+      <c r="Q8" s="23">
+        <f>(D8-E8)/D8</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R8" s="23">
+        <f>F8/D8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <f>F8/(D8-E8)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="23">
+        <f t="shared" si="8"/>
+        <v>0.39826086956521739</v>
+      </c>
+      <c r="U8" s="23">
         <f t="shared" si="9"/>
-        <v>0.10912698412698413</v>
-      </c>
-      <c r="Y5" s="11">
-        <f t="shared" si="10"/>
-        <v>8.8624338624338619E-2</v>
-      </c>
-      <c r="Z5" s="11">
-        <f t="shared" si="11"/>
-        <v>2.1913043478260867</v>
-      </c>
-      <c r="AA5" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4935064935064934</v>
-      </c>
-      <c r="AC5" s="6"/>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2">
-        <v>9.16</v>
-      </c>
-      <c r="M6" s="2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="N6" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2366666666666672</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
-        <v>280</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
-        <f t="shared" si="1"/>
-        <v>38.691847075080602</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="V6" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
+        <v>0.31463768115942026</v>
+      </c>
+      <c r="V8" s="23">
+        <f>H8/D8</f>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="W8" s="8">
+        <f>D8/E8</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="X8" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="11">
-        <f t="shared" si="9"/>
-        <v>0.39826086956521739</v>
-      </c>
-      <c r="Y6" s="11">
-        <f t="shared" si="10"/>
-        <v>0.31463768115942031</v>
-      </c>
-      <c r="Z6" s="11">
-        <f t="shared" si="11"/>
-        <v>0.44230769230769229</v>
-      </c>
-      <c r="AA6" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="6" t="s">
+        <v>0.15076388888888889</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="21">
+        <v>959</v>
+      </c>
+      <c r="AA8" s="11">
+        <f>Z8/H8</f>
+        <v>0.41695652173913045</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>1200</v>
+      </c>
+      <c r="AC8" s="11">
+        <f>AB8/H8</f>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>778</v>
+      </c>
+      <c r="AE8" s="11">
+        <f>AD8/H8</f>
+        <v>0.33826086956521739</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="11">
+        <f>AF8/H8</f>
+        <v>2.9565217391304348E-2</v>
+      </c>
+      <c r="AH8" s="21">
+        <f>Z8+AB8+AD8-AF8</f>
+        <v>2869</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2473913043478262</v>
+      </c>
+      <c r="AJ8" s="11">
+        <f>M8/AH8</f>
+        <v>0.25223655164401065</v>
+      </c>
+      <c r="AK8" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3.85</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3.41</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2.62</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2033333333333331</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>132</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
+      <c r="B9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="21">
+        <v>4700</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4</v>
+      </c>
+      <c r="G9" s="21">
+        <v>30</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1900</v>
+      </c>
+      <c r="I9" s="21">
+        <v>385</v>
+      </c>
+      <c r="J9" s="21">
+        <v>341</v>
+      </c>
+      <c r="K9" s="21">
+        <v>358</v>
+      </c>
+      <c r="L9" s="21">
+        <v>262</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>320.33333333333331</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="21">
+        <v>13200</v>
+      </c>
+      <c r="P9" s="8">
         <f t="shared" si="1"/>
         <v>41.207075962539022</v>
       </c>
-      <c r="U7" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="23">
+        <f>(D9-E9)/D9</f>
         <v>0.14893617021276595</v>
       </c>
-      <c r="V7" s="11">
-        <f t="shared" si="3"/>
+      <c r="R9" s="23">
+        <f>F9/D9</f>
         <v>8.5106382978723403E-4</v>
       </c>
-      <c r="W7" s="11">
+      <c r="S9" s="23">
+        <f>F9/(D9-E9)</f>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="T9" s="23">
+        <f t="shared" si="8"/>
+        <v>0.20263157894736841</v>
+      </c>
+      <c r="U9" s="23">
+        <f t="shared" si="9"/>
+        <v>0.16859649122807016</v>
+      </c>
+      <c r="V9" s="23">
+        <f>H9/D9</f>
+        <v>0.40425531914893614</v>
+      </c>
+      <c r="W9" s="8">
+        <f>D9/E9</f>
+        <v>1.175</v>
+      </c>
+      <c r="X9" s="23">
         <f t="shared" si="4"/>
-        <v>5.7142857142857143E-3</v>
-      </c>
-      <c r="X7" s="11">
-        <f t="shared" si="9"/>
-        <v>0.20263157894736841</v>
-      </c>
-      <c r="Y7" s="11">
-        <f t="shared" si="10"/>
-        <v>0.16859649122807016</v>
-      </c>
-      <c r="Z7" s="11">
-        <f t="shared" si="11"/>
-        <v>0.40425531914893614</v>
-      </c>
-      <c r="AA7" s="2">
-        <f t="shared" si="12"/>
-        <v>1.175</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="6" t="s">
+        <v>8.0083333333333326E-2</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="21">
+        <v>2244</v>
+      </c>
+      <c r="AA9" s="11">
+        <f>Z9/H9</f>
+        <v>1.1810526315789474</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>382</v>
+      </c>
+      <c r="AC9" s="11">
+        <f>AB9/H9</f>
+        <v>0.20105263157894737</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>736</v>
+      </c>
+      <c r="AE9" s="11">
+        <f>AD9/H9</f>
+        <v>0.38736842105263158</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>172</v>
+      </c>
+      <c r="AG9" s="11">
+        <f>AF9/H9</f>
+        <v>9.0526315789473691E-2</v>
+      </c>
+      <c r="AH9" s="21">
+        <f>Z9+AB9+AD9-AF9</f>
+        <v>3190</v>
+      </c>
+      <c r="AI9" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6789473684210525</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f>M9/AH9</f>
+        <v>0.10041797283176593</v>
+      </c>
+      <c r="AK9" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2">
-        <v>264</v>
-      </c>
-      <c r="E8" s="2">
-        <v>156</v>
-      </c>
-      <c r="F8" s="2">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K8" s="2">
-        <v>92</v>
-      </c>
-      <c r="L8" s="2">
-        <v>22</v>
-      </c>
-      <c r="M8" s="2">
-        <v>19</v>
-      </c>
-      <c r="N8" s="2">
-        <v>14</v>
-      </c>
-      <c r="O8" s="2">
-        <v>10</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
-        <v>700</v>
-      </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
+      <c r="B10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="21">
+        <v>26400</v>
+      </c>
+      <c r="E10" s="21">
+        <v>15600</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5700</v>
+      </c>
+      <c r="G10" s="21">
+        <v>230</v>
+      </c>
+      <c r="H10" s="21">
+        <v>9200</v>
+      </c>
+      <c r="I10" s="21">
+        <v>2200</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1900</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1400</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>1433.3333333333333</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="21">
+        <v>70000</v>
+      </c>
+      <c r="P10" s="8">
         <f t="shared" si="1"/>
         <v>48.837209302325583</v>
       </c>
-      <c r="U8" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="23">
+        <f>(D10-E10)/D10</f>
         <v>0.40909090909090912</v>
       </c>
-      <c r="V8" s="11">
-        <f t="shared" si="3"/>
+      <c r="R10" s="23">
+        <f>F10/D10</f>
         <v>0.21590909090909091</v>
       </c>
-      <c r="W8" s="11">
+      <c r="S10" s="23">
+        <f>F10/(D10-E10)</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="T10" s="23">
+        <f t="shared" si="8"/>
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="U10" s="23">
+        <f t="shared" si="9"/>
+        <v>0.15579710144927536</v>
+      </c>
+      <c r="V10" s="23">
+        <f>H10/D10</f>
+        <v>0.34848484848484851</v>
+      </c>
+      <c r="W10" s="8">
+        <f>D10/E10</f>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="X10" s="23">
         <f t="shared" si="4"/>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="X8" s="11">
-        <f t="shared" si="9"/>
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="Y8" s="11">
-        <f t="shared" si="10"/>
-        <v>0.15579710144927536</v>
-      </c>
-      <c r="Z8" s="11">
-        <f t="shared" si="11"/>
-        <v>0.34848484848484851</v>
-      </c>
-      <c r="AA8" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6923076923076923</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="30">
-      <c r="A9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1780</v>
-      </c>
-      <c r="E9" s="2">
-        <v>599</v>
-      </c>
-      <c r="F9" s="2">
-        <v>565</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1059</v>
-      </c>
-      <c r="L9" s="2">
-        <v>54</v>
-      </c>
-      <c r="M9" s="2">
-        <v>49</v>
-      </c>
-      <c r="N9" s="2">
-        <v>54</v>
-      </c>
-      <c r="O9" s="2">
-        <v>31</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="0"/>
-        <v>44.666666666666664</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2">
-        <v>1500</v>
-      </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
+        <v>9.1880341880341873E-2</v>
+      </c>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="21">
+        <v>3085</v>
+      </c>
+      <c r="AA10" s="11">
+        <f>Z10/H10</f>
+        <v>0.33532608695652172</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>601</v>
+      </c>
+      <c r="AC10" s="11">
+        <f>AB10/H10</f>
+        <v>6.5326086956521742E-2</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>4799</v>
+      </c>
+      <c r="AE10" s="11">
+        <f>AD10/H10</f>
+        <v>0.52163043478260873</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>625</v>
+      </c>
+      <c r="AG10" s="11">
+        <f>AF10/H10</f>
+        <v>6.7934782608695649E-2</v>
+      </c>
+      <c r="AH10" s="21">
+        <f>Z10+AB10+AD10-AF10</f>
+        <v>7860</v>
+      </c>
+      <c r="AI10" s="11">
+        <f t="shared" si="5"/>
+        <v>0.85434782608695647</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f>M10/AH10</f>
+        <v>0.1823579304495335</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="21">
+        <v>178099</v>
+      </c>
+      <c r="E11" s="21">
+        <v>59900</v>
+      </c>
+      <c r="F11" s="21">
+        <v>56500</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2300</v>
+      </c>
+      <c r="H11" s="21">
+        <v>105900</v>
+      </c>
+      <c r="I11" s="21">
+        <v>5400</v>
+      </c>
+      <c r="J11" s="21">
+        <v>4900</v>
+      </c>
+      <c r="K11" s="21">
+        <v>5400</v>
+      </c>
+      <c r="L11" s="21">
+        <v>3100</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>4466.666666666667</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="21">
+        <v>150000</v>
+      </c>
+      <c r="P11" s="8">
         <f t="shared" si="1"/>
         <v>33.582089552238806</v>
       </c>
-      <c r="U9" s="11">
-        <f t="shared" si="2"/>
-        <v>0.66348314606741576</v>
-      </c>
-      <c r="V9" s="11">
-        <f t="shared" si="3"/>
-        <v>0.31741573033707865</v>
-      </c>
-      <c r="W9" s="11">
+      <c r="Q11" s="23">
+        <f>(D11-E11)/D11</f>
+        <v>0.66367020589672032</v>
+      </c>
+      <c r="R11" s="23">
+        <f>F11/D11</f>
+        <v>0.31723928826102338</v>
+      </c>
+      <c r="S11" s="23">
+        <f>F11/(D11-E11)</f>
+        <v>0.47800742815083036</v>
+      </c>
+      <c r="T11" s="23">
+        <f t="shared" si="8"/>
+        <v>5.0991501416430593E-2</v>
+      </c>
+      <c r="U11" s="23">
+        <f t="shared" si="9"/>
+        <v>4.2178155492603085E-2</v>
+      </c>
+      <c r="V11" s="23">
+        <f>H11/D11</f>
+        <v>0.59461310843968807</v>
+      </c>
+      <c r="W11" s="8">
+        <f>D11/E11</f>
+        <v>2.9732721202003338</v>
+      </c>
+      <c r="X11" s="23">
         <f t="shared" si="4"/>
-        <v>0.47840812870448773</v>
-      </c>
-      <c r="X9" s="11">
+        <v>7.456872565386756E-2</v>
+      </c>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="21">
+        <v>43244</v>
+      </c>
+      <c r="AA11" s="11">
+        <f>Z11/H11</f>
+        <v>0.40834749763928235</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>19872</v>
+      </c>
+      <c r="AC11" s="11">
+        <f>AB11/H11</f>
+        <v>0.18764872521246459</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>51880</v>
+      </c>
+      <c r="AE11" s="11">
+        <f>AD11/H11</f>
+        <v>0.48989612842304059</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>23319</v>
+      </c>
+      <c r="AG11" s="11">
+        <f>AF11/H11</f>
+        <v>0.22019830028328613</v>
+      </c>
+      <c r="AH11" s="21">
+        <f>Z11+AB11+AD11-AF11</f>
+        <v>91677</v>
+      </c>
+      <c r="AI11" s="11">
+        <f t="shared" si="5"/>
+        <v>0.86569405099150143</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f>M11/AH11</f>
+        <v>4.872178045383975E-2</v>
+      </c>
+      <c r="AK11" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1700</v>
+      </c>
+      <c r="F12" s="21">
+        <v>208</v>
+      </c>
+      <c r="G12" s="21">
+        <v>-12</v>
+      </c>
+      <c r="H12" s="21">
+        <v>683</v>
+      </c>
+      <c r="I12" s="21">
+        <v>150</v>
+      </c>
+      <c r="J12" s="21">
+        <v>140</v>
+      </c>
+      <c r="K12" s="21">
+        <v>98</v>
+      </c>
+      <c r="L12" s="21">
+        <v>72</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>103.33333333333333</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="21">
+        <v>12300</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="1"/>
+        <v>119.03225806451613</v>
+      </c>
+      <c r="Q12" s="23">
+        <f>(D12-E12)/D12</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="R12" s="23">
+        <f>F12/D12</f>
+        <v>9.4545454545454544E-2</v>
+      </c>
+      <c r="S12" s="23">
+        <f>F12/(D12-E12)</f>
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="T12" s="23">
+        <f t="shared" si="8"/>
+        <v>0.21961932650073207</v>
+      </c>
+      <c r="U12" s="23">
         <f t="shared" si="9"/>
-        <v>5.0991501416430593E-2</v>
-      </c>
-      <c r="Y9" s="11">
-        <f t="shared" si="10"/>
-        <v>4.2178155492603085E-2</v>
-      </c>
-      <c r="Z9" s="11">
-        <f t="shared" si="11"/>
-        <v>0.59494382022471914</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="shared" si="12"/>
-        <v>2.971619365609349</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="2">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
-        <v>-0.12</v>
-      </c>
-      <c r="K10" s="2">
-        <v>6.83</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0333333333333332</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2">
-        <v>123</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
-        <f t="shared" si="1"/>
-        <v>119.03225806451614</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="2"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="V10" s="11">
-        <f t="shared" si="3"/>
-        <v>9.4545454545454544E-2</v>
-      </c>
-      <c r="W10" s="11">
+        <v>0.15129331381161543</v>
+      </c>
+      <c r="V12" s="23">
+        <f>H12/D12</f>
+        <v>0.31045454545454543</v>
+      </c>
+      <c r="W12" s="8">
+        <f>D12/E12</f>
+        <v>1.2941176470588236</v>
+      </c>
+      <c r="X12" s="23">
         <f t="shared" si="4"/>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="X10" s="11">
-        <f t="shared" si="9"/>
-        <v>0.21961932650073207</v>
-      </c>
-      <c r="Y10" s="11">
-        <f t="shared" si="10"/>
-        <v>0.1512933138116154</v>
-      </c>
-      <c r="Z10" s="11">
-        <f t="shared" si="11"/>
-        <v>0.31045454545454548</v>
-      </c>
-      <c r="AA10" s="2">
-        <f t="shared" si="12"/>
-        <v>1.2941176470588236</v>
-      </c>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="2">
-        <v>414</v>
-      </c>
-      <c r="E11" s="2">
-        <v>313</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>-1.36</v>
-      </c>
-      <c r="K11" s="2">
-        <v>593</v>
-      </c>
-      <c r="L11" s="2">
-        <v>125</v>
-      </c>
-      <c r="M11" s="2">
-        <v>122</v>
-      </c>
-      <c r="N11" s="2">
-        <v>66</v>
-      </c>
-      <c r="O11" s="2">
-        <v>28</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1127</v>
-      </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2">
+        <v>6.0784313725490195E-2</v>
+      </c>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="21">
+        <v>491</v>
+      </c>
+      <c r="AA12" s="11">
+        <f>Z12/H12</f>
+        <v>0.71888726207906295</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>168</v>
+      </c>
+      <c r="AC12" s="11">
+        <f>AB12/H12</f>
+        <v>0.24597364568081992</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>363</v>
+      </c>
+      <c r="AE12" s="11">
+        <f>AD12/H12</f>
+        <v>0.53147877013177158</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="11">
+        <f>AF12/H12</f>
+        <v>0.14641288433382138</v>
+      </c>
+      <c r="AH12" s="21">
+        <f>Z12+AB12+AD12-AF12</f>
+        <v>922</v>
+      </c>
+      <c r="AI12" s="11">
+        <f t="shared" si="5"/>
+        <v>1.3499267935578332</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f>M12/AH12</f>
+        <v>0.11207519884309472</v>
+      </c>
+      <c r="AK12" s="7"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="21">
+        <v>41400</v>
+      </c>
+      <c r="E13" s="21">
+        <v>31300</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>-136</v>
+      </c>
+      <c r="H13" s="21">
+        <v>59300</v>
+      </c>
+      <c r="I13" s="21">
+        <v>12500</v>
+      </c>
+      <c r="J13" s="21">
+        <v>12200</v>
+      </c>
+      <c r="K13" s="21">
+        <v>6600</v>
+      </c>
+      <c r="L13" s="21">
+        <v>2800</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O13" s="21">
+        <v>112700</v>
+      </c>
+      <c r="P13" s="8">
         <f t="shared" si="1"/>
         <v>15.652777777777779</v>
       </c>
-      <c r="U11" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q13" s="23">
+        <f>(D13-E13)/D13</f>
         <v>0.24396135265700483</v>
       </c>
-      <c r="V11" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
+      <c r="R13" s="23">
+        <f>F13/D13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="23">
+        <f>F13/(D13-E13)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="23">
+        <f t="shared" si="8"/>
+        <v>0.21079258010118043</v>
+      </c>
+      <c r="U13" s="23">
+        <f t="shared" si="9"/>
+        <v>0.12141652613827993</v>
+      </c>
+      <c r="V13" s="23">
+        <f>H13/D13</f>
+        <v>1.432367149758454</v>
+      </c>
+      <c r="W13" s="8">
+        <f>D13/E13</f>
+        <v>1.3226837060702876</v>
+      </c>
+      <c r="X13" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <f t="shared" si="9"/>
-        <v>0.21079258010118043</v>
-      </c>
-      <c r="Y11" s="11">
+        <v>0.23003194888178913</v>
+      </c>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="21">
+        <v>11370</v>
+      </c>
+      <c r="AA13" s="11">
+        <f>Z13/H13</f>
+        <v>0.19173693086003374</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>10547</v>
+      </c>
+      <c r="AC13" s="11">
+        <f>AB13/H13</f>
+        <v>0.17785834738617201</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>143</v>
+      </c>
+      <c r="AE13" s="11">
+        <f>AD13/H13</f>
+        <v>2.4114671163575044E-3</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>2648</v>
+      </c>
+      <c r="AG13" s="11">
+        <f>AF13/H13</f>
+        <v>4.4654300168634066E-2</v>
+      </c>
+      <c r="AH13" s="21">
+        <f>Z13+AB13+AD13-AF13</f>
+        <v>19412</v>
+      </c>
+      <c r="AI13" s="11">
+        <f t="shared" si="5"/>
+        <v>0.3273524451939292</v>
+      </c>
+      <c r="AJ13" s="11">
+        <f>M13/AH13</f>
+        <v>0.37090459509581702</v>
+      </c>
+      <c r="AK13" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2360000</v>
+      </c>
+      <c r="E14" s="21">
+        <v>152900</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
+        <v>64000</v>
+      </c>
+      <c r="I14" s="21">
+        <v>26100</v>
+      </c>
+      <c r="J14" s="21">
+        <v>19700</v>
+      </c>
+      <c r="K14" s="21">
+        <v>18900</v>
+      </c>
+      <c r="L14" s="21">
+        <v>18000</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>18866.666666666668</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O14" s="21">
+        <v>113000</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" ref="P14:P15" si="10">O14/M14</f>
+        <v>5.989399293286219</v>
+      </c>
+      <c r="Q14" s="23">
+        <f>(D14-E14)/D14</f>
+        <v>0.93521186440677961</v>
+      </c>
+      <c r="R14" s="23">
+        <f>F14/D14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
+        <f>F14/(D14-E14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="23">
+        <f t="shared" ref="T14:T15" si="11">I14/H14</f>
+        <v>0.40781250000000002</v>
+      </c>
+      <c r="U14" s="23">
+        <f t="shared" ref="U14:U15" si="12">M14/H14</f>
+        <v>0.29479166666666667</v>
+      </c>
+      <c r="V14" s="23">
+        <f>H14/D14</f>
+        <v>2.7118644067796609E-2</v>
+      </c>
+      <c r="W14" s="8">
+        <f>D14/E14</f>
+        <v>15.434924787442773</v>
+      </c>
+      <c r="X14" s="23">
+        <f t="shared" si="4"/>
+        <v>0.12339219533464138</v>
+      </c>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="11">
+        <f>Z14/H14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="11">
+        <f>AB14/H14</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="11">
+        <f>AD14/H14</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="11">
+        <f>AF14/H14</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="21">
+        <f>Z14+AB14+AD14-AF14</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="11" t="e">
+        <f>M14/AH14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="17"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6300000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>483300</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
+        <v>220800</v>
+      </c>
+      <c r="I15" s="21">
+        <v>90500</v>
+      </c>
+      <c r="J15" s="21">
+        <v>70600</v>
+      </c>
+      <c r="K15" s="21">
+        <v>62300</v>
+      </c>
+      <c r="L15" s="21">
+        <v>58000</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>63633.333333333336</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="21">
+        <v>725000</v>
+      </c>
+      <c r="P15" s="8">
         <f t="shared" si="10"/>
-        <v>0.12141652613827993</v>
-      </c>
-      <c r="Z11" s="11">
+        <v>11.393399685699318</v>
+      </c>
+      <c r="Q15" s="23">
+        <f>(D15-E15)/D15</f>
+        <v>0.92328571428571427</v>
+      </c>
+      <c r="R15" s="23">
+        <f>F15/D15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="23">
+        <f>F15/(D15-E15)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="23">
         <f t="shared" si="11"/>
-        <v>1.432367149758454</v>
-      </c>
-      <c r="AA11" s="2">
+        <v>0.40987318840579712</v>
+      </c>
+      <c r="U15" s="23">
         <f t="shared" si="12"/>
-        <v>1.3226837060702876</v>
-      </c>
-      <c r="AB11" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="2">
-        <v>23600</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1529</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>640</v>
-      </c>
-      <c r="L12" s="2">
-        <v>261</v>
-      </c>
-      <c r="M12" s="2">
-        <v>197</v>
-      </c>
-      <c r="N12" s="2">
-        <v>189</v>
-      </c>
-      <c r="O12" s="2">
-        <v>180</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="0"/>
-        <v>188.66666666666666</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="V15" s="23">
+        <f>H15/D15</f>
+        <v>3.504761904761905E-2</v>
+      </c>
+      <c r="W15" s="8">
+        <f>D15/E15</f>
+        <v>13.035381750465548</v>
+      </c>
+      <c r="X15" s="23">
+        <f t="shared" si="4"/>
+        <v>0.13166425270708326</v>
+      </c>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="11">
+        <f>Z15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="11">
+        <f>AB15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="11">
+        <f>AD15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="11">
+        <f>AF15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="21">
+        <f>Z15+AB15+AD15-AF15</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="11" t="e">
+        <f>M15/AH15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="17"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="R12" s="2">
-        <v>1130</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
-        <f t="shared" ref="T12:T13" si="13">R12/P12</f>
-        <v>5.989399293286219</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" ref="U12:U13" si="14">(D12-E12)/D12</f>
-        <v>0.93521186440677961</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" ref="V12:V13" si="15">F12/D12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" ref="W12:W13" si="16">F12/(D12-E12)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="11">
-        <f t="shared" ref="X12:X13" si="17">L12/K12</f>
-        <v>0.40781250000000002</v>
-      </c>
-      <c r="Y12" s="11">
-        <f t="shared" ref="Y12:Y13" si="18">P12/K12</f>
-        <v>0.29479166666666667</v>
-      </c>
-      <c r="Z12" s="11">
-        <f t="shared" ref="Z12:Z13" si="19">K12/D12</f>
-        <v>2.7118644067796609E-2</v>
-      </c>
-      <c r="AA12" s="2">
-        <f t="shared" ref="AA12:AA13" si="20">D12/E12</f>
-        <v>15.434924787442773</v>
-      </c>
-      <c r="AB12" s="17"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="2">
-        <v>63000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4833</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
-        <v>2208</v>
-      </c>
-      <c r="L13" s="2">
-        <v>905</v>
-      </c>
-      <c r="M13" s="2">
-        <v>706</v>
-      </c>
-      <c r="N13" s="2">
-        <v>623</v>
-      </c>
-      <c r="O13" s="2">
-        <v>580</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="0"/>
-        <v>636.33333333333337</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="R13" s="2">
-        <v>7250</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
-        <f t="shared" si="13"/>
-        <v>11.393399685699318</v>
-      </c>
-      <c r="U13" s="11">
-        <f t="shared" si="14"/>
-        <v>0.92328571428571427</v>
-      </c>
-      <c r="V13" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" si="17"/>
-        <v>0.40987318840579712</v>
-      </c>
-      <c r="Y13" s="11">
-        <f t="shared" si="18"/>
-        <v>0.28819444444444448</v>
-      </c>
-      <c r="Z13" s="11">
-        <f t="shared" si="19"/>
-        <v>3.504761904761905E-2</v>
-      </c>
-      <c r="AA13" s="2">
-        <f t="shared" si="20"/>
-        <v>13.035381750465548</v>
-      </c>
-      <c r="AB13" s="17"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="2">
-        <v>96</v>
-      </c>
-      <c r="E14" s="2">
-        <v>53</v>
-      </c>
-      <c r="F14" s="2">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K14" s="2">
-        <v>64</v>
-      </c>
-      <c r="L14" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="M14" s="2">
-        <v>3.89</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="O14" s="2">
-        <v>22</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="0"/>
-        <v>9.35</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="R14" s="2">
-        <v>266</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
+      <c r="C16" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="21">
+        <v>9600</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5300</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1100</v>
+      </c>
+      <c r="G16" s="21">
+        <v>29</v>
+      </c>
+      <c r="H16" s="21">
+        <v>6400</v>
+      </c>
+      <c r="I16" s="21">
+        <v>480</v>
+      </c>
+      <c r="J16" s="21">
+        <v>389</v>
+      </c>
+      <c r="K16" s="21">
+        <v>216</v>
+      </c>
+      <c r="L16" s="21">
+        <v>2200</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" s="21">
+        <v>26600</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" si="1"/>
         <v>28.449197860962567</v>
       </c>
-      <c r="U14" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="23">
+        <f>(D16-E16)/D16</f>
         <v>0.44791666666666669</v>
       </c>
-      <c r="V14" s="11">
-        <f t="shared" si="3"/>
+      <c r="R16" s="23">
+        <f>F16/D16</f>
         <v>0.11458333333333333</v>
       </c>
-      <c r="W14" s="11">
+      <c r="S16" s="23">
+        <f>F16/(D16-E16)</f>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="T16" s="23">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U16" s="23">
+        <f t="shared" si="9"/>
+        <v>0.14609374999999999</v>
+      </c>
+      <c r="V16" s="23">
+        <f>H16/D16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W16" s="8">
+        <f>D16/E16</f>
+        <v>1.8113207547169812</v>
+      </c>
+      <c r="X16" s="23">
         <f t="shared" si="4"/>
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="9"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Y14" s="11">
-        <f t="shared" si="10"/>
-        <v>0.14609374999999999</v>
-      </c>
-      <c r="Z14" s="11">
-        <f t="shared" si="11"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8113207547169812</v>
-      </c>
-      <c r="AB14" s="14" t="s">
+        <v>0.17641509433962263</v>
+      </c>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="21">
+        <v>297</v>
+      </c>
+      <c r="AA16" s="11">
+        <f>Z16/H16</f>
+        <v>4.6406250000000003E-2</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>750</v>
+      </c>
+      <c r="AC16" s="11">
+        <f>AB16/H16</f>
+        <v>0.1171875</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>926</v>
+      </c>
+      <c r="AE16" s="11">
+        <f>AD16/H16</f>
+        <v>0.1446875</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>683</v>
+      </c>
+      <c r="AG16" s="11">
+        <f>AF16/H16</f>
+        <v>0.10671875</v>
+      </c>
+      <c r="AH16" s="21">
+        <f>Z16+AB16+AD16-AF16</f>
+        <v>1290</v>
+      </c>
+      <c r="AI16" s="11">
+        <f t="shared" si="5"/>
+        <v>0.20156250000000001</v>
+      </c>
+      <c r="AJ16" s="11">
+        <f>M16/AH16</f>
+        <v>0.72480620155038755</v>
+      </c>
+      <c r="AK16" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" ht="45">
-      <c r="A15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="2">
-        <v>460</v>
-      </c>
-      <c r="F15" s="2">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>-3</v>
-      </c>
-      <c r="K15" s="2">
-        <v>785</v>
-      </c>
-      <c r="L15" s="2">
-        <v>94</v>
-      </c>
-      <c r="M15" s="2">
-        <v>102</v>
-      </c>
-      <c r="N15" s="2">
-        <v>99</v>
-      </c>
-      <c r="O15" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="R15" s="2">
-        <v>530</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2">
+      <c r="D17" s="21">
+        <v>100000</v>
+      </c>
+      <c r="E17" s="21">
+        <v>46000</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2100</v>
+      </c>
+      <c r="G17" s="21">
+        <v>-300</v>
+      </c>
+      <c r="H17" s="21">
+        <v>78500</v>
+      </c>
+      <c r="I17" s="21">
+        <v>9400</v>
+      </c>
+      <c r="J17" s="21">
+        <v>10200</v>
+      </c>
+      <c r="K17" s="21">
+        <v>9900</v>
+      </c>
+      <c r="L17" s="21">
+        <v>7500</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O17" s="21">
+        <v>53000</v>
+      </c>
+      <c r="P17" s="8">
         <f t="shared" si="1"/>
         <v>5.7608695652173916</v>
       </c>
-      <c r="U15" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q17" s="23">
+        <f>(D17-E17)/D17</f>
         <v>0.54</v>
       </c>
-      <c r="V15" s="11">
-        <f t="shared" si="3"/>
+      <c r="R17" s="23">
+        <f>F17/D17</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="W15" s="11">
+      <c r="S17" s="23">
+        <f>F17/(D17-E17)</f>
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="T17" s="23">
+        <f t="shared" si="8"/>
+        <v>0.11974522292993631</v>
+      </c>
+      <c r="U17" s="23">
+        <f t="shared" si="9"/>
+        <v>0.11719745222929936</v>
+      </c>
+      <c r="V17" s="23">
+        <f>H17/D17</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="W17" s="8">
+        <f>D17/E17</f>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="X17" s="23">
         <f t="shared" si="4"/>
-        <v>3.888888888888889E-2</v>
-      </c>
-      <c r="X15" s="11">
-        <f t="shared" si="9"/>
-        <v>0.11974522292993631</v>
-      </c>
-      <c r="Y15" s="11">
-        <f t="shared" si="10"/>
-        <v>0.11719745222929936</v>
-      </c>
-      <c r="Z15" s="11">
-        <f t="shared" si="11"/>
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="AA15" s="2">
-        <f t="shared" si="12"/>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="AB15" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="2">
-        <v>268</v>
-      </c>
-      <c r="E16" s="2">
-        <v>209</v>
-      </c>
-      <c r="F16" s="2">
-        <v>47.9</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="K16" s="2">
-        <v>10</v>
-      </c>
-      <c r="L16" s="2">
-        <v>35.69</v>
-      </c>
-      <c r="M16" s="2">
-        <v>35.5</v>
-      </c>
-      <c r="N16" s="2">
-        <v>39</v>
-      </c>
-      <c r="O16" s="2">
-        <v>35</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="0"/>
-        <v>36.5</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2">
-        <v>390</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="21">
+        <v>15480</v>
+      </c>
+      <c r="AA17" s="11">
+        <f>Z17/H17</f>
+        <v>0.19719745222929935</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>7304</v>
+      </c>
+      <c r="AC17" s="11">
+        <f>AB17/H17</f>
+        <v>9.3044585987261147E-2</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>1498</v>
+      </c>
+      <c r="AE17" s="11">
+        <f>AD17/H17</f>
+        <v>1.90828025477707E-2</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>19880</v>
+      </c>
+      <c r="AG17" s="11">
+        <f>AF17/H17</f>
+        <v>0.25324840764331208</v>
+      </c>
+      <c r="AH17" s="21">
+        <f>Z17+AB17+AD17-AF17</f>
+        <v>4402</v>
+      </c>
+      <c r="AI17" s="11">
+        <f t="shared" si="5"/>
+        <v>5.6076433121019106E-2</v>
+      </c>
+      <c r="AJ17" s="11">
+        <f>M17/AH17</f>
+        <v>2.089959109495684</v>
+      </c>
+      <c r="AK17" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="21">
+        <v>26800</v>
+      </c>
+      <c r="E18" s="21">
+        <v>20900</v>
+      </c>
+      <c r="F18" s="21">
+        <v>4790</v>
+      </c>
+      <c r="G18" s="21">
+        <v>275</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="21">
+        <v>3569</v>
+      </c>
+      <c r="J18" s="21">
+        <v>3550</v>
+      </c>
+      <c r="K18" s="21">
+        <v>3900</v>
+      </c>
+      <c r="L18" s="21">
+        <v>3500</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="0"/>
+        <v>3650</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="21">
+        <v>39000</v>
+      </c>
+      <c r="P18" s="8">
         <f t="shared" si="1"/>
         <v>10.684931506849315</v>
       </c>
-      <c r="U16" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q18" s="23">
+        <f>(D18-E18)/D18</f>
         <v>0.22014925373134328</v>
       </c>
-      <c r="V16" s="11">
-        <f t="shared" si="3"/>
+      <c r="R18" s="23">
+        <f>F18/D18</f>
         <v>0.17873134328358209</v>
       </c>
-      <c r="W16" s="11">
+      <c r="S18" s="23">
+        <f>F18/(D18-E18)</f>
+        <v>0.81186440677966099</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="8"/>
+        <v>3.569</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" si="9"/>
+        <v>3.65</v>
+      </c>
+      <c r="V18" s="23">
+        <f>H18/D18</f>
+        <v>3.7313432835820892E-2</v>
+      </c>
+      <c r="W18" s="8">
+        <f>D18/E18</f>
+        <v>1.2822966507177034</v>
+      </c>
+      <c r="X18" s="23">
         <f t="shared" si="4"/>
-        <v>0.81186440677966099</v>
-      </c>
-      <c r="X16" s="11">
+        <v>0.17464114832535885</v>
+      </c>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="21">
+        <v>3482</v>
+      </c>
+      <c r="AA18" s="11">
+        <f>Z18/H18</f>
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>59</v>
+      </c>
+      <c r="AC18" s="11">
+        <f>AB18/H18</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>364</v>
+      </c>
+      <c r="AE18" s="11">
+        <f>AD18/H18</f>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>173</v>
+      </c>
+      <c r="AG18" s="11">
+        <f>AF18/H18</f>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AH18" s="21">
+        <f>Z18+AB18+AD18-AF18</f>
+        <v>3732</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" si="5"/>
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="AJ18" s="11">
+        <f>M18/AH18</f>
+        <v>0.97802786709539125</v>
+      </c>
+      <c r="AK18" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="21">
+        <v>208200</v>
+      </c>
+      <c r="E19" s="21">
+        <v>60700</v>
+      </c>
+      <c r="F19" s="21">
+        <v>114400</v>
+      </c>
+      <c r="G19" s="21">
+        <v>4800</v>
+      </c>
+      <c r="H19" s="21">
+        <v>31600</v>
+      </c>
+      <c r="I19" s="21">
+        <v>7500</v>
+      </c>
+      <c r="J19" s="21">
+        <v>6500</v>
+      </c>
+      <c r="K19" s="21">
+        <v>7800</v>
+      </c>
+      <c r="L19" s="21">
+        <v>10100</v>
+      </c>
+      <c r="M19" s="8">
+        <f>(J19+K19+L19)/3</f>
+        <v>8133.333333333333</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="21">
+        <v>47000</v>
+      </c>
+      <c r="P19" s="8">
+        <f>O19/M19</f>
+        <v>5.778688524590164</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>(D19-E19)/D19</f>
+        <v>0.70845341018251684</v>
+      </c>
+      <c r="R19" s="23">
+        <f>F19/D19</f>
+        <v>0.54947166186359275</v>
+      </c>
+      <c r="S19" s="23">
+        <f>F19/(D19-E19)</f>
+        <v>0.77559322033898304</v>
+      </c>
+      <c r="T19" s="23">
+        <f>I19/H19</f>
+        <v>0.23734177215189872</v>
+      </c>
+      <c r="U19" s="23">
+        <f>M19/H19</f>
+        <v>0.2573839662447257</v>
+      </c>
+      <c r="V19" s="23">
+        <f>H19/D19</f>
+        <v>0.15177713736791545</v>
+      </c>
+      <c r="W19" s="8">
+        <f>D19/E19</f>
+        <v>3.4299835255354201</v>
+      </c>
+      <c r="X19" s="23">
+        <f t="shared" si="4"/>
+        <v>0.13399231191652938</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="21">
+        <v>134490</v>
+      </c>
+      <c r="AA19" s="11">
+        <f>Z19/H19</f>
+        <v>4.2560126582278484</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>1183</v>
+      </c>
+      <c r="AC19" s="11">
+        <f>AB19/H19</f>
+        <v>3.7436708860759491E-2</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>3551</v>
+      </c>
+      <c r="AE19" s="11">
+        <f>AD19/H19</f>
+        <v>0.11237341772151899</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>4834</v>
+      </c>
+      <c r="AG19" s="11">
+        <f>AF19/H19</f>
+        <v>0.1529746835443038</v>
+      </c>
+      <c r="AH19" s="21">
+        <f>Z19+AB19+AD19-AF19</f>
+        <v>134390</v>
+      </c>
+      <c r="AI19" s="11">
+        <f t="shared" si="5"/>
+        <v>4.2528481012658226</v>
+      </c>
+      <c r="AJ19" s="11">
+        <f>M19/AH19</f>
+        <v>6.0520376020041171E-2</v>
+      </c>
+      <c r="AK19" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="21">
+        <v>6493000</v>
+      </c>
+      <c r="E20" s="21">
+        <v>587900</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21">
+        <v>890800</v>
+      </c>
+      <c r="I20" s="21">
+        <v>134700</v>
+      </c>
+      <c r="J20" s="21">
+        <v>99900</v>
+      </c>
+      <c r="K20" s="21">
+        <v>72300</v>
+      </c>
+      <c r="L20" s="21">
+        <v>65100</v>
+      </c>
+      <c r="M20" s="8">
+        <f>(J20+K20+L20)/3</f>
+        <v>79100</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="21">
+        <v>1180000</v>
+      </c>
+      <c r="P20" s="8">
+        <f>O20/M20</f>
+        <v>14.917825537294563</v>
+      </c>
+      <c r="Q20" s="23">
+        <f>(D20-E20)/D20</f>
+        <v>0.90945633759433231</v>
+      </c>
+      <c r="R20" s="23"/>
+      <c r="T20" s="23">
+        <f>I20/H20</f>
+        <v>0.15121239335428829</v>
+      </c>
+      <c r="U20" s="23">
+        <f>M20/H20</f>
+        <v>8.8796587337224966E-2</v>
+      </c>
+      <c r="V20" s="23">
+        <f>H20/D20</f>
+        <v>0.1371939011242877</v>
+      </c>
+      <c r="W20" s="8">
+        <f>D20/E20</f>
+        <v>11.044395305324034</v>
+      </c>
+      <c r="X20" s="23">
+        <f t="shared" si="4"/>
+        <v>0.13454669161422012</v>
+      </c>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="11">
+        <f>Z20/H20</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="11">
+        <f>AB20/H20</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="11">
+        <f>AD20/H20</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="11">
+        <f>AF20/H20</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="21">
+        <f>Z20+AB20+AD20-AF20</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="11" t="e">
+        <f>M20/AH20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="21">
+        <v>110500</v>
+      </c>
+      <c r="E21" s="21">
+        <v>49200</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="21">
+        <v>139</v>
+      </c>
+      <c r="H21" s="21">
+        <v>100400</v>
+      </c>
+      <c r="I21" s="21">
+        <v>5800</v>
+      </c>
+      <c r="J21" s="21">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="21">
+        <v>10500</v>
+      </c>
+      <c r="L21" s="21">
+        <v>8000</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="0"/>
+        <v>7833.333333333333</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="21">
+        <v>105000</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" ref="P21:P32" si="13">O21/M21</f>
+        <v>13.404255319148938</v>
+      </c>
+      <c r="Q21" s="23">
+        <f>(D21-E21)/D21</f>
+        <v>0.55475113122171948</v>
+      </c>
+      <c r="R21" s="23">
+        <f>F21/D21</f>
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="S21" s="23">
+        <f>F21/(D21-E21)</f>
+        <v>2.4469820554649267E-2</v>
+      </c>
+      <c r="T21" s="23">
+        <f t="shared" si="8"/>
+        <v>5.7768924302788842E-2</v>
+      </c>
+      <c r="U21" s="23">
         <f t="shared" si="9"/>
-        <v>3.569</v>
-      </c>
-      <c r="Y16" s="11">
-        <f t="shared" si="10"/>
-        <v>3.65</v>
-      </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="11"/>
-        <v>3.7313432835820892E-2</v>
-      </c>
-      <c r="AA16" s="2">
-        <f t="shared" si="12"/>
-        <v>1.2822966507177034</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="30">
-      <c r="A17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2">
-        <v>2082</v>
-      </c>
-      <c r="E17" s="2">
-        <v>607</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1144</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
-        <v>48</v>
-      </c>
-      <c r="K17" s="2">
-        <v>316</v>
-      </c>
-      <c r="L17" s="2">
-        <v>75</v>
-      </c>
-      <c r="M17" s="2">
-        <v>65</v>
-      </c>
-      <c r="N17" s="2">
+        <v>7.802124833997344E-2</v>
+      </c>
+      <c r="V21" s="23">
+        <f>H21/D21</f>
+        <v>0.90859728506787329</v>
+      </c>
+      <c r="W21" s="8">
+        <f>D21/E21</f>
+        <v>2.2459349593495936</v>
+      </c>
+      <c r="X21" s="23">
+        <f t="shared" si="4"/>
+        <v>0.15921409214092141</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="21">
+        <v>27718</v>
+      </c>
+      <c r="AA21" s="11">
+        <f>Z21/H21</f>
+        <v>0.27607569721115538</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>5574</v>
+      </c>
+      <c r="AC21" s="11">
+        <f>AB21/H21</f>
+        <v>5.5517928286852591E-2</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>873</v>
+      </c>
+      <c r="AE21" s="11">
+        <f>AD21/H21</f>
+        <v>8.6952191235059768E-3</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>27961</v>
+      </c>
+      <c r="AG21" s="11">
+        <f>AF21/H21</f>
+        <v>0.278496015936255</v>
+      </c>
+      <c r="AH21" s="21">
+        <f>Z21+AB21+AD21-AF21</f>
+        <v>6204</v>
+      </c>
+      <c r="AI21" s="11">
+        <f t="shared" si="5"/>
+        <v>6.1792828685258962E-2</v>
+      </c>
+      <c r="AJ21" s="11">
+        <f>M21/AH21</f>
+        <v>1.2626262626262625</v>
+      </c>
+      <c r="AK21" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="21">
+        <v>6406900</v>
+      </c>
+      <c r="E22" s="21">
+        <v>413900</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21">
+        <v>157000</v>
+      </c>
+      <c r="I22" s="21">
+        <v>63300</v>
+      </c>
+      <c r="J22" s="21">
+        <v>54300</v>
+      </c>
+      <c r="K22" s="21">
+        <v>50600</v>
+      </c>
+      <c r="L22" s="21">
+        <v>47500</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>50800</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="21">
+        <v>350000</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="13"/>
+        <v>6.8897637795275593</v>
+      </c>
+      <c r="Q22" s="23">
+        <f>(D22-E22)/D22</f>
+        <v>0.93539777427461024</v>
+      </c>
+      <c r="R22" s="23">
+        <f>F22/D22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="23">
+        <f>F22/(D22-E22)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="23">
+        <f t="shared" si="8"/>
+        <v>0.4031847133757962</v>
+      </c>
+      <c r="U22" s="23">
+        <f t="shared" si="9"/>
+        <v>0.3235668789808917</v>
+      </c>
+      <c r="V22" s="23">
+        <f>H22/D22</f>
+        <v>2.45048307293699E-2</v>
+      </c>
+      <c r="W22" s="8">
+        <f>D22/E22</f>
+        <v>15.479342836433922</v>
+      </c>
+      <c r="X22" s="23">
+        <f t="shared" si="4"/>
+        <v>0.12273496013529839</v>
+      </c>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="11">
+        <f>Z22/H22</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="11">
+        <f>AB22/H22</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="11">
+        <f>AD22/H22</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="11">
+        <f>AF22/H22</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="21">
+        <f>Z22+AB22+AD22-AF22</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="11" t="e">
+        <f>M22/AH22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK22" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="2">
-        <v>101</v>
-      </c>
-      <c r="P17" s="2">
-        <f>(M17+N17+O17)/3</f>
-        <v>81.333333333333329</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2">
-        <v>470</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2">
-        <f>R17/P17</f>
-        <v>5.778688524590164</v>
-      </c>
-      <c r="U17" s="11">
-        <f>(D17-E17)/D17</f>
-        <v>0.70845341018251684</v>
-      </c>
-      <c r="V17" s="11">
-        <f>F17/D17</f>
-        <v>0.54947166186359275</v>
-      </c>
-      <c r="W17" s="11">
-        <f>F17/(D17-E17)</f>
-        <v>0.77559322033898304</v>
-      </c>
-      <c r="X17" s="11">
-        <f>L17/K17</f>
-        <v>0.23734177215189872</v>
-      </c>
-      <c r="Y17" s="11">
-        <f>P17/K17</f>
-        <v>0.2573839662447257</v>
-      </c>
-      <c r="Z17" s="11">
-        <f>K17/D17</f>
-        <v>0.15177713736791545</v>
-      </c>
-      <c r="AA17" s="2">
-        <f>D17/E17</f>
-        <v>3.4299835255354201</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="2">
-        <v>64930</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5879</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>8908</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1347</v>
-      </c>
-      <c r="M18" s="2">
-        <v>999</v>
-      </c>
-      <c r="N18" s="2">
-        <v>723</v>
-      </c>
-      <c r="O18" s="2">
-        <v>651</v>
-      </c>
-      <c r="P18" s="2">
-        <f>(M18+N18+O18)/3</f>
-        <v>791</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2">
-        <v>11800</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <f>R18/P18</f>
-        <v>14.917825537294563</v>
-      </c>
-      <c r="U18" s="11">
-        <f>(D18-E18)/D18</f>
-        <v>0.90945633759433231</v>
-      </c>
-      <c r="V18" s="11"/>
-      <c r="X18" s="11">
-        <f>L18/K18</f>
-        <v>0.15121239335428829</v>
-      </c>
-      <c r="Y18" s="11">
-        <f>P18/K18</f>
-        <v>8.8796587337224966E-2</v>
-      </c>
-      <c r="Z18" s="11">
-        <f>K18/D18</f>
-        <v>0.1371939011242877</v>
-      </c>
-      <c r="AA18" s="2">
-        <f>D18/E18</f>
-        <v>11.044395305324034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="21">
+        <v>35300</v>
+      </c>
+      <c r="E23" s="21">
+        <v>14000</v>
+      </c>
+      <c r="F23" s="21">
+        <v>10800</v>
+      </c>
+      <c r="G23" s="21">
+        <v>400</v>
+      </c>
+      <c r="H23" s="21">
+        <v>20100</v>
+      </c>
+      <c r="I23" s="21">
+        <v>2800</v>
+      </c>
+      <c r="J23" s="21">
+        <v>2600</v>
+      </c>
+      <c r="K23" s="21">
+        <v>1800</v>
+      </c>
+      <c r="L23" s="21">
+        <v>1900</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="21">
+        <v>55000</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="13"/>
+        <v>26.19047619047619</v>
+      </c>
+      <c r="Q23" s="23">
+        <f>(D23-E23)/D23</f>
+        <v>0.60339943342776203</v>
+      </c>
+      <c r="R23" s="23">
+        <f>F23/D23</f>
+        <v>0.30594900849858359</v>
+      </c>
+      <c r="S23" s="23">
+        <f>F23/(D23-E23)</f>
+        <v>0.50704225352112675</v>
+      </c>
+      <c r="T23" s="23">
+        <f t="shared" si="8"/>
+        <v>0.13930348258706468</v>
+      </c>
+      <c r="U23" s="23">
+        <f t="shared" si="9"/>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="V23" s="23">
+        <f>H23/D23</f>
+        <v>0.56940509915014159</v>
+      </c>
+      <c r="W23" s="8">
+        <f>D23/E23</f>
+        <v>2.5214285714285714</v>
+      </c>
+      <c r="X23" s="23">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="21">
+        <v>13458</v>
+      </c>
+      <c r="AA23" s="11">
+        <f>Z23/H23</f>
+        <v>0.66955223880597015</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>2044</v>
+      </c>
+      <c r="AC23" s="11">
+        <f>AB23/H23</f>
+        <v>0.10169154228855722</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>5555</v>
+      </c>
+      <c r="AE23" s="11">
+        <f>AD23/H23</f>
+        <v>0.27636815920398011</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>4168</v>
+      </c>
+      <c r="AG23" s="11">
+        <f>AF23/H23</f>
+        <v>0.207363184079602</v>
+      </c>
+      <c r="AH23" s="21">
+        <f>Z23+AB23+AD23-AF23</f>
+        <v>16889</v>
+      </c>
+      <c r="AI23" s="11">
+        <f t="shared" si="5"/>
+        <v>0.84024875621890549</v>
+      </c>
+      <c r="AJ23" s="11">
+        <f>M23/AH23</f>
+        <v>0.1243412872283735</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="21">
+        <v>6100</v>
+      </c>
+      <c r="E24" s="21">
+        <v>4600</v>
+      </c>
+      <c r="F24" s="21">
+        <v>150</v>
+      </c>
+      <c r="G24" s="21">
+        <v>-18</v>
+      </c>
+      <c r="H24" s="21">
+        <v>2500</v>
+      </c>
+      <c r="I24" s="21">
+        <v>995</v>
+      </c>
+      <c r="J24" s="21">
+        <v>750</v>
+      </c>
+      <c r="K24" s="21">
+        <v>680</v>
+      </c>
+      <c r="L24" s="21">
+        <v>640</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="2">
-        <v>1105</v>
-      </c>
-      <c r="E19" s="2">
-        <v>492</v>
-      </c>
-      <c r="F19" s="2">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>1.39</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1004</v>
-      </c>
-      <c r="L19" s="2">
-        <v>58</v>
-      </c>
-      <c r="M19" s="2">
-        <v>50</v>
-      </c>
-      <c r="N19" s="2">
-        <v>105</v>
-      </c>
-      <c r="O19" s="2">
-        <v>80</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="0"/>
-        <v>78.333333333333329</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2">
-        <v>1050</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2">
-        <f t="shared" ref="T19:T31" si="21">R19/P19</f>
-        <v>13.404255319148938</v>
-      </c>
-      <c r="U19" s="11">
-        <f t="shared" si="2"/>
-        <v>0.55475113122171948</v>
-      </c>
-      <c r="V19" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3574660633484163E-2</v>
-      </c>
-      <c r="W19" s="11">
+      <c r="O24" s="21">
+        <v>18700</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="13"/>
+        <v>27.10144927536232</v>
+      </c>
+      <c r="Q24" s="23">
+        <f>(D24-E24)/D24</f>
+        <v>0.24590163934426229</v>
+      </c>
+      <c r="R24" s="23">
+        <f>F24/D24</f>
+        <v>2.4590163934426229E-2</v>
+      </c>
+      <c r="S24" s="23">
+        <f>F24/(D24-E24)</f>
+        <v>0.1</v>
+      </c>
+      <c r="T24" s="23">
+        <f t="shared" si="8"/>
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="U24" s="23">
+        <f t="shared" si="9"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="V24" s="23">
+        <f>H24/D24</f>
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="W24" s="8">
+        <f>D24/E24</f>
+        <v>1.326086956521739</v>
+      </c>
+      <c r="X24" s="23">
         <f t="shared" si="4"/>
-        <v>2.4469820554649267E-2</v>
-      </c>
-      <c r="X19" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="21">
+        <v>741</v>
+      </c>
+      <c r="AA24" s="11">
+        <f>Z24/H24</f>
+        <v>0.2964</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>1514</v>
+      </c>
+      <c r="AC24" s="11">
+        <f>AB24/H24</f>
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="11">
+        <f>AD24/H24</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>84</v>
+      </c>
+      <c r="AG24" s="11">
+        <f>AF24/H24</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="AH24" s="21">
+        <f>Z24+AB24+AD24-AF24</f>
+        <v>2193</v>
+      </c>
+      <c r="AI24" s="11">
+        <f t="shared" si="5"/>
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="AJ24" s="11">
+        <f>M24/AH24</f>
+        <v>0.31463748290013682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="21">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="21">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>-3</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1800</v>
+      </c>
+      <c r="I25" s="21">
+        <v>410</v>
+      </c>
+      <c r="J25" s="21">
+        <v>348</v>
+      </c>
+      <c r="K25" s="21">
+        <v>252</v>
+      </c>
+      <c r="L25" s="21">
+        <v>162</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25" s="21">
+        <v>8800</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="13"/>
+        <v>34.645669291338585</v>
+      </c>
+      <c r="Q25" s="23">
+        <f>(D25-E25)/D25</f>
+        <v>0.2</v>
+      </c>
+      <c r="R25" s="23">
+        <f>F25/D25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="23">
+        <f>F25/(D25-E25)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="23">
+        <f t="shared" si="8"/>
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="U25" s="23">
         <f t="shared" si="9"/>
-        <v>5.7768924302788842E-2</v>
-      </c>
-      <c r="Y19" s="11">
-        <f t="shared" si="10"/>
-        <v>7.802124833997344E-2</v>
-      </c>
-      <c r="Z19" s="11">
-        <f t="shared" si="11"/>
-        <v>0.90859728506787329</v>
-      </c>
-      <c r="AA19" s="2">
-        <f t="shared" si="12"/>
-        <v>2.2459349593495936</v>
-      </c>
-      <c r="AB19" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="2">
-        <v>64069</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4139</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>1570</v>
-      </c>
-      <c r="L20" s="2">
-        <v>633</v>
-      </c>
-      <c r="M20" s="2">
-        <v>543</v>
-      </c>
-      <c r="N20" s="2">
-        <v>506</v>
-      </c>
-      <c r="O20" s="2">
-        <v>475</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2">
-        <v>3500</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2">
-        <f t="shared" si="21"/>
-        <v>6.8897637795275593</v>
-      </c>
-      <c r="U20" s="11">
-        <f t="shared" si="2"/>
-        <v>0.93539777427461024</v>
-      </c>
-      <c r="V20" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="11">
+        <v>0.1411111111111111</v>
+      </c>
+      <c r="V25" s="23">
+        <f>H25/D25</f>
+        <v>0.72</v>
+      </c>
+      <c r="W25" s="8">
+        <f>D25/E25</f>
+        <v>1.25</v>
+      </c>
+      <c r="X25" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="11">
-        <f t="shared" si="9"/>
-        <v>0.4031847133757962</v>
-      </c>
-      <c r="Y20" s="11">
-        <f t="shared" si="10"/>
-        <v>0.3235668789808917</v>
-      </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="11"/>
-        <v>2.45048307293699E-2</v>
-      </c>
-      <c r="AA20" s="2">
-        <f t="shared" si="12"/>
-        <v>15.479342836433922</v>
-      </c>
-      <c r="AB20" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="2">
-        <v>353</v>
-      </c>
-      <c r="E21" s="2">
-        <v>140</v>
-      </c>
-      <c r="F21" s="2">
-        <v>108</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>4</v>
-      </c>
-      <c r="K21" s="2">
-        <v>201</v>
-      </c>
-      <c r="L21" s="2">
-        <v>28</v>
-      </c>
-      <c r="M21" s="2">
-        <v>26</v>
-      </c>
-      <c r="N21" s="2">
-        <v>18</v>
-      </c>
-      <c r="O21" s="2">
-        <v>19</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2">
-        <v>550</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2">
-        <f t="shared" si="21"/>
-        <v>26.19047619047619</v>
-      </c>
-      <c r="U21" s="11">
-        <f t="shared" si="2"/>
-        <v>0.60339943342776203</v>
-      </c>
-      <c r="V21" s="11">
-        <f t="shared" si="3"/>
-        <v>0.30594900849858359</v>
-      </c>
-      <c r="W21" s="11">
-        <f t="shared" si="4"/>
-        <v>0.50704225352112675</v>
-      </c>
-      <c r="X21" s="11">
-        <f t="shared" si="9"/>
-        <v>0.13930348258706468</v>
-      </c>
-      <c r="Y21" s="11">
-        <f t="shared" si="10"/>
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="Z21" s="11">
-        <f t="shared" si="11"/>
-        <v>0.56940509915014159</v>
-      </c>
-      <c r="AA21" s="2">
-        <f t="shared" si="12"/>
-        <v>2.5214285714285714</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="2">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>-0.18</v>
-      </c>
-      <c r="K23" s="2">
-        <v>25</v>
-      </c>
-      <c r="L23" s="2">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="M23" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="N23" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="O23" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9000000000000012</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="R23" s="2">
-        <v>187</v>
-      </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2">
-        <f t="shared" si="21"/>
-        <v>27.101449275362313</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="2"/>
-        <v>0.24590163934426229</v>
-      </c>
-      <c r="V23" s="11">
-        <f t="shared" si="3"/>
-        <v>2.4590163934426229E-2</v>
-      </c>
-      <c r="W23" s="11">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="X23" s="11">
-        <f t="shared" si="9"/>
-        <v>0.39799999999999996</v>
-      </c>
-      <c r="Y23" s="11">
-        <f t="shared" si="10"/>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="Z23" s="11">
-        <f t="shared" si="11"/>
-        <v>0.4098360655737705</v>
-      </c>
-      <c r="AA23" s="2">
-        <f t="shared" si="12"/>
-        <v>1.326086956521739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="6" t="s">
+        <v>0.127</v>
+      </c>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="21">
+        <v>480</v>
+      </c>
+      <c r="AA25" s="11">
+        <f>Z25/H25</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>51</v>
+      </c>
+      <c r="AC25" s="11">
+        <f>AB25/H25</f>
+        <v>2.8333333333333332E-2</v>
+      </c>
+      <c r="AD25" s="21">
+        <v>7</v>
+      </c>
+      <c r="AE25" s="11">
+        <f>AD25/H25</f>
+        <v>3.8888888888888888E-3</v>
+      </c>
+      <c r="AF25" s="21">
+        <v>169</v>
+      </c>
+      <c r="AG25" s="11">
+        <f>AF25/H25</f>
+        <v>9.3888888888888883E-2</v>
+      </c>
+      <c r="AH25" s="21">
+        <f>Z25+AB25+AD25-AF25</f>
+        <v>369</v>
+      </c>
+      <c r="AI25" s="11">
+        <f t="shared" si="5"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AJ25" s="11">
+        <f>M25/AH25</f>
+        <v>0.68834688346883466</v>
+      </c>
+      <c r="AK25" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="2">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="K24" s="2">
-        <v>18</v>
-      </c>
-      <c r="L24" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M24" s="2">
-        <v>3.48</v>
-      </c>
-      <c r="N24" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1.62</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="0"/>
-        <v>2.54</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="R24" s="2">
-        <v>88</v>
-      </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2">
-        <f t="shared" si="21"/>
-        <v>34.645669291338585</v>
-      </c>
-      <c r="U24" s="11">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="V24" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="11">
-        <f t="shared" si="9"/>
-        <v>0.22777777777777775</v>
-      </c>
-      <c r="Y24" s="11">
-        <f t="shared" si="10"/>
-        <v>0.1411111111111111</v>
-      </c>
-      <c r="Z24" s="11">
-        <f t="shared" si="11"/>
-        <v>0.72</v>
-      </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="12"/>
-        <v>1.25</v>
-      </c>
-      <c r="AB24" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="2" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3180,47 +4532,80 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="8" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="11" t="e">
-        <f t="shared" si="2"/>
+      <c r="Q26" s="23" t="e">
+        <f>(D26-E26)/D26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V26" s="11" t="e">
-        <f t="shared" si="3"/>
+      <c r="R26" s="23" t="e">
+        <f>F26/D26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W26" s="11" t="e">
+      <c r="S26" s="23" t="e">
+        <f>F26/(D26-E26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23" t="e">
+        <f>H26/D26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="8" t="e">
+        <f>D26/E26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X26" s="11" t="e">
-        <f t="shared" si="9"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="11" t="e">
+        <f>Z26/H26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11" t="e">
-        <f t="shared" si="11"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="11" t="e">
+        <f>AB26/H26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA26" s="2" t="e">
-        <f t="shared" si="12"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="11" t="e">
+        <f>AD26/H26</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="11" t="e">
+        <f>AF26/H26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH26" s="21">
+        <f>Z26+AB26+AD26-AF26</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ26" s="11" t="e">
+        <f>M26/AH26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3230,47 +4615,77 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="8" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="11" t="e">
-        <f t="shared" si="2"/>
+      <c r="Q27" s="23" t="e">
+        <f>(D27-E27)/D27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V27" s="11" t="e">
-        <f t="shared" si="3"/>
+      <c r="R27" s="23" t="e">
+        <f>F27/D27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W27" s="11" t="e">
+      <c r="S27" s="23" t="e">
+        <f>F27/(D27-E27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23" t="e">
+        <f>H27/D27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="8" t="e">
+        <f>D27/E27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X27" s="11" t="e">
-        <f t="shared" si="9"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="11" t="e">
+        <f>Z27/H27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11" t="e">
-        <f t="shared" si="11"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="11" t="e">
+        <f>AB27/H27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="2" t="e">
-        <f t="shared" si="12"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="11" t="e">
+        <f>AD27/H27</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="11" t="e">
+        <f>AF27/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH27" s="21">
+        <f>Z27+AB27+AD27-AF27</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ27" s="11"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3280,47 +4695,77 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="P28" s="8" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="11" t="e">
-        <f t="shared" si="2"/>
+      <c r="Q28" s="23" t="e">
+        <f>(D28-E28)/D28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V28" s="11" t="e">
-        <f t="shared" si="3"/>
+      <c r="R28" s="23" t="e">
+        <f>F28/D28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W28" s="11" t="e">
+      <c r="S28" s="23" t="e">
+        <f>F28/(D28-E28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23" t="e">
+        <f>H28/D28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="8" t="e">
+        <f>D28/E28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X28" s="11" t="e">
-        <f t="shared" si="9"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="11" t="e">
+        <f>Z28/H28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11" t="e">
-        <f t="shared" si="11"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="11" t="e">
+        <f>AB28/H28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA28" s="2" t="e">
-        <f t="shared" si="12"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="11" t="e">
+        <f>AD28/H28</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="11" t="e">
+        <f>AF28/H28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH28" s="21">
+        <f>Z28+AB28+AD28-AF28</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ28" s="11"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3330,47 +4775,74 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="P29" s="8" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="11" t="e">
-        <f t="shared" si="2"/>
+      <c r="Q29" s="23" t="e">
+        <f>(D29-E29)/D29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V29" s="11" t="e">
-        <f t="shared" si="3"/>
+      <c r="R29" s="23" t="e">
+        <f>F29/D29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W29" s="11" t="e">
+      <c r="S29" s="23" t="e">
+        <f>F29/(D29-E29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23" t="e">
+        <f>H29/D29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="8" t="e">
+        <f>D29/E29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X29" s="11" t="e">
-        <f t="shared" si="9"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="11" t="e">
+        <f>Z29/H29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11" t="e">
-        <f t="shared" si="11"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="11" t="e">
+        <f>AB29/H29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="2" t="e">
-        <f t="shared" si="12"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="11" t="e">
+        <f>AD29/H29</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="11" t="e">
+        <f>AF29/H29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ29" s="11"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3380,41 +4852,74 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="P30" s="8" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="11" t="e">
-        <f t="shared" si="2"/>
+      <c r="Q30" s="23" t="e">
+        <f>(D30-E30)/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="11" t="e">
-        <f t="shared" si="3"/>
+      <c r="R30" s="23" t="e">
+        <f>F30/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W30" s="11" t="e">
+      <c r="S30" s="23" t="e">
+        <f>F30/(D30-E30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23" t="e">
+        <f>H30/D30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="8" t="e">
+        <f>D30/E30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="11" t="e">
-        <f t="shared" si="9"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="11" t="e">
+        <f>Z30/H30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="11" t="e">
+        <f>AB30/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="11" t="e">
+        <f>AD30/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="11" t="e">
+        <f>AF30/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="11"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3424,24 +4929,53 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="P31" s="8" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="Q31" s="23" t="e">
+        <f>(D31-E31)/D31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="23" t="e">
+        <f>F31/D31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="23" t="e">
+        <f>F31/(D31-E31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="11"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3451,21 +4985,30 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-    </row>
-    <row r="33" spans="4:22">
+      <c r="P32" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+    </row>
+    <row r="33" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3475,21 +5018,27 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="M33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-    </row>
-    <row r="34" spans="4:22">
+      <c r="P33" s="8"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
+    </row>
+    <row r="34" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3499,18 +5048,27 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="M34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-    </row>
-    <row r="35" spans="4:22">
+      <c r="P34" s="8"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+    </row>
+    <row r="35" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3520,18 +5078,15 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-    </row>
-    <row r="36" spans="4:22">
+      <c r="P35" s="8"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="AH35" s="21"/>
+    </row>
+    <row r="36" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3541,18 +5096,15 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-    </row>
-    <row r="37" spans="4:22">
+      <c r="P36" s="8"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="AH36" s="21"/>
+    </row>
+    <row r="37" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3562,18 +5114,15 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="4:22">
+      <c r="P37" s="8"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="AH37" s="21"/>
+    </row>
+    <row r="38" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3583,18 +5132,14 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="4:22">
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3604,18 +5149,14 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="4:22">
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3625,18 +5166,14 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="4:22">
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3646,18 +5183,14 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="4:22">
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3667,18 +5200,14 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="4:22">
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3688,18 +5217,14 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="4:22">
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3709,18 +5234,14 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="4:22">
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3730,18 +5251,14 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="4:22">
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3751,18 +5268,14 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="4:22">
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3772,18 +5285,14 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="4:22">
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3793,18 +5302,14 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="4:22">
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3814,18 +5319,14 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="4:22">
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3835,18 +5336,14 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="4:22">
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3856,18 +5353,14 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="4:22">
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3877,18 +5370,14 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="4:22">
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -3898,18 +5387,14 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="4:22">
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -3919,16 +5404,29 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3946,12 +5444,12 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +5481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +5511,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +5541,7 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4073,7 +5571,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4103,7 +5601,7 @@
         <v>-1742.0000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4133,7 +5631,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4163,7 +5661,7 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4193,7 +5691,7 @@
         <v>-3634.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4223,7 +5721,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4253,7 +5751,7 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4280,7 +5778,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4310,7 +5808,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4340,7 +5838,7 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +5868,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4400,7 +5898,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4430,7 +5928,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4460,7 +5958,7 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4490,7 +5988,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4520,7 +6018,7 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +6048,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -4580,7 +6078,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -4607,7 +6105,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -4637,7 +6135,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -4667,7 +6165,7 @@
         <v>-3734.0000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +6195,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -4727,7 +6225,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -4757,7 +6255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -4787,7 +6285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4817,7 +6315,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -4844,7 +6342,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -4874,7 +6372,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -4904,7 +6402,7 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -4934,7 +6432,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -4964,7 +6462,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -4994,7 +6492,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -5024,7 +6522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -5054,7 +6552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -5084,7 +6582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -5114,7 +6612,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -5144,7 +6642,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5174,7 +6672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -5204,7 +6702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -5234,7 +6732,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -5261,7 +6759,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -5291,7 +6789,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -5318,7 +6816,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5348,7 +6846,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -5378,7 +6876,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -5405,7 +6903,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -5432,7 +6930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -5462,7 +6960,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -5495,7 +6993,7 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -5525,7 +7023,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -5555,7 +7053,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -5582,7 +7080,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -5612,7 +7110,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -5642,7 +7140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -5672,7 +7170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -5702,7 +7200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -5732,7 +7230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -5762,7 +7260,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -5792,7 +7290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -5822,7 +7320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -5852,7 +7350,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -5879,7 +7377,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -5912,7 +7410,7 @@
         <v>-3068</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5939,7 +7437,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -5972,7 +7470,7 @@
         <v>-5750</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -6002,7 +7500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -6029,7 +7527,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -6056,57 +7554,57 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="2:2" hidden="1">
+    <row r="81" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="2:2" hidden="1">
+    <row r="82" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -6133,13 +7631,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6171,7 +7669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6204,7 +7702,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -6237,7 +7735,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -6270,7 +7768,7 @@
         <v>-4676.09</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -6303,7 +7801,7 @@
         <v>-4947.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -6336,7 +7834,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -6366,7 +7864,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -6399,7 +7897,7 @@
         <v>-2201.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -6429,7 +7927,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -6462,7 +7960,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -6495,7 +7993,7 @@
         <v>-1972.0400000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -6528,7 +8026,7 @@
         <v>-1826</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -6558,7 +8056,7 @@
         <v>-5576</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -6591,7 +8089,7 @@
         <v>-3797</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -6624,7 +8122,7 @@
         <v>-3699</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -6657,7 +8155,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -6690,7 +8188,7 @@
         <v>-2552.0500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -6726,7 +8224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -6756,7 +8254,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -6789,7 +8287,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -6822,7 +8320,7 @@
         <v>-6452.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -6855,7 +8353,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -6888,7 +8386,7 @@
         <v>-9311.19</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -6921,7 +8419,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -6951,7 +8449,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -6981,7 +8479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -7014,7 +8512,7 @@
         <v>-4836</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -7047,7 +8545,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -7077,7 +8575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -7107,7 +8605,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -7137,7 +8635,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -7170,7 +8668,7 @@
         <v>-3095</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -7203,7 +8701,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -7236,7 +8734,7 @@
         <v>-2849</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -7269,7 +8767,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -7299,7 +8797,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -7332,7 +8830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -7362,7 +8860,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -7395,7 +8893,7 @@
         <v>-4229</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -7425,7 +8923,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -7458,7 +8956,7 @@
         <v>-2804</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -7488,7 +8986,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -7521,7 +9019,7 @@
         <v>-2783</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -7554,7 +9052,7 @@
         <v>-3645</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -7581,7 +9079,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -7608,7 +9106,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -7641,7 +9139,7 @@
         <v>-3061.9999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -7674,7 +9172,7 @@
         <v>-5037</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -7701,7 +9199,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -7728,7 +9226,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -7761,7 +9259,7 @@
         <v>-4878</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -7794,7 +9292,7 @@
         <v>-2977</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>2018</v>
       </c>
@@ -7824,7 +9322,7 @@
         <v>-5531.0000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>2018</v>
       </c>
@@ -7833,55 +9331,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7898,9 +9396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="241">
   <si>
     <t>Account</t>
   </si>
@@ -467,147 +467,147 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -623,15 +623,15 @@
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>双汇发展</t>
@@ -701,31 +701,27 @@
   </si>
   <si>
     <t>平均ROE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>固定资产</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>存货</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>应付账款</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已用资本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>平均已用资本收益率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -741,7 +737,7 @@
       </rPr>
       <t>%;ROE9%;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -757,39 +753,19 @@
       </rPr>
       <t>40%;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定资产营收占比</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货-营收比</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>应收账款</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收-营收比</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付-应收比</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>已用资本-营收比</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零；已用资本-营收比125%;毛利率:40%;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -805,11 +781,11 @@
       </rPr>
       <t>-营收比168%;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -825,7 +801,7 @@
       </rPr>
       <t>5%;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -851,7 +827,7 @@
       </rPr>
       <t>与双汇相当;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -867,7 +843,7 @@
       </rPr>
       <t>209%;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -884,7 +860,7 @@
       </rPr>
       <t>%,是否能够覆盖资金成本?</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -901,7 +877,7 @@
       </rPr>
       <t>%;资金成本?</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -917,19 +893,19 @@
       </rPr>
       <t>RTOCE6%,与川投能源差距很大;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>债券用途;为何已用资本收益率如此之高209%;已用资本营收比如此之低6%?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A000651</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>格力电器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -946,35 +922,70 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投入1元带来营收873元,带来收益113元,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A000333</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>美的集团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产/营收</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货/营收</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收/营收</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付/应收</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用资本/营收</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1063,13 +1074,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1084,47 +1133,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,13 +1460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK3" sqref="AK3"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1424,16 +1484,17 @@
     <col min="19" max="19" width="5.625" style="23" customWidth="1"/>
     <col min="20" max="22" width="5.375" style="6" customWidth="1"/>
     <col min="23" max="24" width="6.625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.625" style="25" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="6.625" customWidth="1"/>
-    <col min="34" max="34" width="9.125" customWidth="1"/>
-    <col min="35" max="35" width="6.625" customWidth="1"/>
+    <col min="27" max="29" width="6.625" customWidth="1"/>
+    <col min="30" max="30" width="9.125" customWidth="1"/>
+    <col min="31" max="35" width="6.625" customWidth="1"/>
     <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="54.375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="2.625" style="25" customWidth="1"/>
+    <col min="38" max="38" width="54.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -1466,7 +1527,7 @@
       <c r="L1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="28" t="s">
         <v>172</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -1475,78 +1536,79 @@
       <c r="O1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="AA1" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="AB1" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AD1" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AE1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="AI1" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="9" t="s">
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1592,15 +1654,15 @@
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="23">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q31" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="23">
-        <f>F2/D2</f>
+        <f t="shared" ref="R2:R19" si="3">F2/D2</f>
         <v>0</v>
       </c>
       <c r="S2" s="23">
-        <f>F2/(D2-E2)</f>
+        <f t="shared" ref="S2:S19" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
       <c r="T2" s="23">
@@ -1612,62 +1674,65 @@
         <v>0.20403658152002524</v>
       </c>
       <c r="V2" s="23">
-        <f>H2/D2</f>
+        <f t="shared" ref="V2:V30" si="5">H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
       <c r="W2" s="8">
-        <f>D2/E2</f>
+        <f t="shared" ref="W2:W30" si="6">D2/E2</f>
         <v>14.632432432432433</v>
       </c>
       <c r="X2" s="23">
         <f>M2/E2</f>
         <v>9.7147147147147159E-2</v>
       </c>
-      <c r="Y2" s="11"/>
+      <c r="Y2" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z2" s="21">
         <v>0</v>
       </c>
-      <c r="AA2" s="11">
-        <f>Z2/H2</f>
-        <v>0</v>
-      </c>
+      <c r="AA2" s="21"/>
       <c r="AB2" s="21"/>
-      <c r="AC2" s="11">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21">
+        <f>Z2+AA2+AB2-AC2</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="11">
+        <f t="shared" ref="AE2:AE30" si="7">Z2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>AA2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
         <f>AB2/H2</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="11">
+      <c r="AH2" s="11">
+        <f>AC2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11">
         <f>AD2/H2</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="11">
-        <f>AF2/H2</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="21">
-        <f>Z2+AB2+AD2-AF2</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="11">
-        <f>AH2/H2</f>
-        <v>0</v>
-      </c>
       <c r="AJ2" s="11" t="e">
-        <f>M2/AH2</f>
+        <f>M2/AD2</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK2" s="27"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D3" s="21">
         <v>248106</v>
@@ -1707,19 +1772,19 @@
         <v>349000</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3" si="2">O3/M3</f>
+        <f t="shared" ref="P3" si="8">O3/M3</f>
         <v>21.768962075848304</v>
       </c>
       <c r="Q3" s="23">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="2"/>
         <v>0.66576785728680488</v>
       </c>
       <c r="R3" s="23">
-        <f>F3/D3</f>
+        <f t="shared" si="3"/>
         <v>0.16226532208007868</v>
       </c>
       <c r="S3" s="23">
-        <f>F3/(D3-E3)</f>
+        <f t="shared" si="4"/>
         <v>0.24372657872273445</v>
       </c>
       <c r="T3" s="23">
@@ -1731,60 +1796,63 @@
         <v>6.6602412841902353E-2</v>
       </c>
       <c r="V3" s="23">
-        <f>H3/D3</f>
+        <f t="shared" si="5"/>
         <v>0.9701982217278099</v>
       </c>
       <c r="W3" s="8">
-        <f>D3/E3</f>
+        <f t="shared" si="6"/>
         <v>2.9919324690985829</v>
       </c>
       <c r="X3" s="23">
         <f>M3/E3</f>
         <v>0.19333132348507687</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z3" s="21">
         <v>22600</v>
       </c>
-      <c r="AA3" s="11">
-        <f>Z3/H3</f>
+      <c r="AA3" s="21">
+        <v>29444</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>17528</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>35144</v>
+      </c>
+      <c r="AD3" s="21">
+        <f>Z3+AA3+AB3-AC3</f>
+        <v>34428</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" si="7"/>
         <v>9.3888131875436209E-2</v>
       </c>
-      <c r="AB3" s="21">
-        <v>29444</v>
-      </c>
-      <c r="AC3" s="11">
+      <c r="AF3" s="11">
+        <f>AA3/H3</f>
+        <v>0.12232044933364353</v>
+      </c>
+      <c r="AG3" s="11">
         <f>AB3/H3</f>
-        <v>0.12232044933364353</v>
-      </c>
-      <c r="AD3" s="21">
-        <v>17528</v>
-      </c>
-      <c r="AE3" s="11">
+        <v>7.2817308651002027E-2</v>
+      </c>
+      <c r="AH3" s="11">
+        <f>AC3/H3</f>
+        <v>0.14600019940842168</v>
+      </c>
+      <c r="AI3" s="11">
         <f>AD3/H3</f>
-        <v>7.2817308651002027E-2</v>
-      </c>
-      <c r="AF3" s="21">
-        <v>35144</v>
-      </c>
-      <c r="AG3" s="11">
-        <f>AF3/H3</f>
-        <v>0.14600019940842168</v>
-      </c>
-      <c r="AH3" s="21">
-        <f>Z3+AB3+AD3-AF3</f>
-        <v>34428</v>
-      </c>
-      <c r="AI3" s="11">
-        <f>AH3/H3</f>
         <v>0.14302569045166008</v>
       </c>
       <c r="AJ3" s="11">
-        <f>M3/AH3</f>
+        <f>M3/AD3</f>
         <v>0.46566747995817359</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK3" s="27"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
@@ -1832,19 +1900,19 @@
         <v>67300</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" ref="P4" si="3">O4/M4</f>
+        <f t="shared" ref="P4" si="9">O4/M4</f>
         <v>13.73469387755102</v>
       </c>
       <c r="Q4" s="23">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="2"/>
         <v>0.70305907172995785</v>
       </c>
       <c r="R4" s="23">
-        <f>F4/D4</f>
+        <f t="shared" si="3"/>
         <v>0.18301687763713081</v>
       </c>
       <c r="S4" s="23">
-        <f>F4/(D4-E4)</f>
+        <f t="shared" si="4"/>
         <v>0.2603150787696924</v>
       </c>
       <c r="T4" s="23">
@@ -1856,68 +1924,71 @@
         <v>3.2343234323432342E-2</v>
       </c>
       <c r="V4" s="23">
-        <f>H4/D4</f>
+        <f t="shared" si="5"/>
         <v>0.79905063291139244</v>
       </c>
       <c r="W4" s="8">
-        <f>D4/E4</f>
+        <f t="shared" si="6"/>
         <v>3.3676731793960926</v>
       </c>
       <c r="X4" s="23">
-        <f t="shared" ref="X4:X31" si="4">M4/E4</f>
+        <f t="shared" ref="X4:X31" si="10">M4/E4</f>
         <v>8.7033747779751328E-2</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z4" s="21">
         <v>27000</v>
       </c>
-      <c r="AA4" s="11">
-        <f>Z4/H4</f>
+      <c r="AA4" s="21">
+        <v>19800</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>13700</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>30600</v>
+      </c>
+      <c r="AD4" s="21">
+        <f>Z4+AA4+AB4-AC4</f>
+        <v>29900</v>
+      </c>
+      <c r="AE4" s="11">
+        <f t="shared" si="7"/>
         <v>0.17821782178217821</v>
       </c>
-      <c r="AB4" s="21">
-        <v>19800</v>
-      </c>
-      <c r="AC4" s="11">
+      <c r="AF4" s="11">
+        <f>AA4/H4</f>
+        <v>0.1306930693069307</v>
+      </c>
+      <c r="AG4" s="11">
         <f>AB4/H4</f>
-        <v>0.1306930693069307</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>13700</v>
-      </c>
-      <c r="AE4" s="11">
+        <v>9.0429042904290435E-2</v>
+      </c>
+      <c r="AH4" s="11">
+        <f>AC4/H4</f>
+        <v>0.20198019801980199</v>
+      </c>
+      <c r="AI4" s="11">
         <f>AD4/H4</f>
-        <v>9.0429042904290435E-2</v>
-      </c>
-      <c r="AF4" s="21">
-        <v>30600</v>
-      </c>
-      <c r="AG4" s="11">
-        <f>AF4/H4</f>
-        <v>0.20198019801980199</v>
-      </c>
-      <c r="AH4" s="21">
-        <f>Z4+AB4+AD4-AF4</f>
-        <v>29900</v>
-      </c>
-      <c r="AI4" s="11">
-        <f t="shared" ref="AI4:AI30" si="5">AH4/H4</f>
         <v>0.19735973597359735</v>
       </c>
       <c r="AJ4" s="11">
-        <f>M4/AH4</f>
+        <f>M4/AD4</f>
         <v>0.16387959866220736</v>
       </c>
-      <c r="AK4" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>153</v>
@@ -1954,25 +2025,25 @@
         <v>14133</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O5" s="21">
         <v>281500</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" ref="P5" si="6">O5/M5</f>
+        <f t="shared" ref="P5" si="11">O5/M5</f>
         <v>19.917922592513975</v>
       </c>
       <c r="Q5" s="23">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="2"/>
         <v>0.69883587671150249</v>
       </c>
       <c r="R5" s="23">
-        <f>F5/D5</f>
+        <f t="shared" si="3"/>
         <v>5.8677735799395732E-2</v>
       </c>
       <c r="S5" s="23">
-        <f>F5/(D5-E5)</f>
+        <f t="shared" si="4"/>
         <v>8.3964973400499035E-2</v>
       </c>
       <c r="T5" s="23">
@@ -1984,63 +2055,66 @@
         <v>0.13049620505623166</v>
       </c>
       <c r="V5" s="23">
-        <f>H5/D5</f>
+        <f t="shared" si="5"/>
         <v>0.59386189538792233</v>
       </c>
       <c r="W5" s="8">
-        <f>D5/E5</f>
+        <f t="shared" si="6"/>
         <v>3.3204486280793111</v>
       </c>
       <c r="X5" s="23">
-        <f t="shared" ref="X5" si="7">M5/E5</f>
+        <f t="shared" ref="X5" si="12">M5/E5</f>
         <v>0.25732388980936949</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z5" s="21">
         <v>17681</v>
       </c>
-      <c r="AA5" s="11">
-        <f>Z5/H5</f>
+      <c r="AA5" s="21">
+        <v>9024</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>2960</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>29541</v>
+      </c>
+      <c r="AD5" s="21">
+        <f>Z5+AA5+AB5-AC5</f>
+        <v>124</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="7"/>
         <v>0.16325644955771823</v>
       </c>
-      <c r="AB5" s="21">
-        <v>9024</v>
-      </c>
-      <c r="AC5" s="11">
+      <c r="AF5" s="11">
+        <f>AA5/H5</f>
+        <v>8.3322560986870048E-2</v>
+      </c>
+      <c r="AG5" s="11">
         <f>AB5/H5</f>
-        <v>8.3322560986870048E-2</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>2960</v>
-      </c>
-      <c r="AE5" s="11">
+        <v>2.7330981883991062E-2</v>
+      </c>
+      <c r="AH5" s="11">
+        <f>AC5/H5</f>
+        <v>0.27276504589019596</v>
+      </c>
+      <c r="AI5" s="11">
         <f>AD5/H5</f>
-        <v>2.7330981883991062E-2</v>
-      </c>
-      <c r="AF5" s="21">
-        <v>29541</v>
-      </c>
-      <c r="AG5" s="11">
-        <f>AF5/H5</f>
-        <v>0.27276504589019596</v>
-      </c>
-      <c r="AH5" s="21">
-        <f>Z5+AB5+AD5-AF5</f>
-        <v>124</v>
-      </c>
-      <c r="AI5" s="11">
-        <f t="shared" si="5"/>
         <v>1.1449465383834095E-3</v>
       </c>
       <c r="AJ5" s="11">
-        <f>M5/AH5</f>
+        <f>M5/AD5</f>
         <v>113.9758064516129</v>
       </c>
-      <c r="AK5" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>175</v>
       </c>
@@ -2090,86 +2164,89 @@
         <v>18.987341772151897</v>
       </c>
       <c r="Q6" s="23">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="R6" s="23">
-        <f>F6/D6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S6" s="23">
-        <f>F6/(D6-E6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T6" s="23">
-        <f t="shared" ref="T6:T31" si="8">I6/H6</f>
+        <f t="shared" ref="T6:T31" si="13">I6/H6</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="U6" s="23">
-        <f t="shared" ref="U6:U25" si="9">M6/H6</f>
+        <f t="shared" ref="U6:U25" si="14">M6/H6</f>
         <v>0.21317460317460318</v>
       </c>
       <c r="V6" s="23">
-        <f>H6/D6</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="W6" s="8">
-        <f>D6/E6</f>
+        <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
       <c r="X6" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.22383333333333336</v>
       </c>
-      <c r="Y6" s="11"/>
+      <c r="Y6" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z6" s="21">
         <v>259</v>
       </c>
-      <c r="AA6" s="11">
-        <f>Z6/H6</f>
+      <c r="AA6" s="21">
+        <v>258</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>197</v>
+      </c>
+      <c r="AD6" s="21">
+        <f>Z6+AA6+AB6-AC6</f>
+        <v>320</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" si="7"/>
         <v>0.12333333333333334</v>
       </c>
-      <c r="AB6" s="21">
-        <v>258</v>
-      </c>
-      <c r="AC6" s="11">
+      <c r="AF6" s="11">
+        <f>AA6/H6</f>
+        <v>0.12285714285714286</v>
+      </c>
+      <c r="AG6" s="11">
         <f>AB6/H6</f>
-        <v>0.12285714285714286</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <f>AC6/H6</f>
+        <v>9.3809523809523815E-2</v>
+      </c>
+      <c r="AI6" s="11">
         <f>AD6/H6</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="21">
-        <v>197</v>
-      </c>
-      <c r="AG6" s="11">
-        <f>AF6/H6</f>
-        <v>9.3809523809523815E-2</v>
-      </c>
-      <c r="AH6" s="21">
-        <f>Z6+AB6+AD6-AF6</f>
-        <v>320</v>
-      </c>
-      <c r="AI6" s="11">
-        <f t="shared" si="5"/>
         <v>0.15238095238095239</v>
       </c>
       <c r="AJ6" s="11">
-        <f>M6/AH6</f>
+        <f>M6/AD6</f>
         <v>1.3989583333333333</v>
       </c>
-      <c r="AK6" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM6" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2221,81 +2298,84 @@
         <v>18.35820895522388</v>
       </c>
       <c r="Q7" s="23">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="2"/>
         <v>0.33043478260869563</v>
       </c>
       <c r="R7" s="23">
-        <f>F7/D7</f>
+        <f t="shared" si="3"/>
         <v>8.4347826086956526E-2</v>
       </c>
       <c r="S7" s="23">
-        <f>F7/(D7-E7)</f>
+        <f t="shared" si="4"/>
         <v>0.25526315789473686</v>
       </c>
       <c r="T7" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.10912698412698413</v>
       </c>
       <c r="U7" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.8624338624338633E-2</v>
       </c>
       <c r="V7" s="23">
-        <f>H7/D7</f>
+        <f t="shared" si="5"/>
         <v>2.1913043478260867</v>
       </c>
       <c r="W7" s="8">
-        <f>D7/E7</f>
+        <f t="shared" si="6"/>
         <v>1.4935064935064934</v>
       </c>
       <c r="X7" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.29004329004329005</v>
       </c>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z7" s="21">
         <v>11400</v>
       </c>
-      <c r="AA7" s="11">
-        <f>Z7/H7</f>
+      <c r="AA7" s="21">
+        <v>2900</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>135</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>1800</v>
+      </c>
+      <c r="AD7" s="21">
+        <f>Z7+AA7+AB7-AC7</f>
+        <v>12635</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="7"/>
         <v>0.22619047619047619</v>
       </c>
-      <c r="AB7" s="21">
-        <v>2900</v>
-      </c>
-      <c r="AC7" s="11">
+      <c r="AF7" s="11">
+        <f>AA7/H7</f>
+        <v>5.7539682539682536E-2</v>
+      </c>
+      <c r="AG7" s="11">
         <f>AB7/H7</f>
-        <v>5.7539682539682536E-2</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>135</v>
-      </c>
-      <c r="AE7" s="11">
+        <v>2.6785714285714286E-3</v>
+      </c>
+      <c r="AH7" s="11">
+        <f>AC7/H7</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AI7" s="11">
         <f>AD7/H7</f>
-        <v>2.6785714285714286E-3</v>
-      </c>
-      <c r="AF7" s="21">
-        <v>1800</v>
-      </c>
-      <c r="AG7" s="11">
-        <f>AF7/H7</f>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="AH7" s="21">
-        <f>Z7+AB7+AD7-AF7</f>
-        <v>12635</v>
-      </c>
-      <c r="AI7" s="11">
-        <f t="shared" si="5"/>
         <v>0.25069444444444444</v>
       </c>
       <c r="AJ7" s="11">
-        <f>M7/AH7</f>
+        <f>M7/AD7</f>
         <v>0.35351536736578293</v>
       </c>
-      <c r="AL7" s="6"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK7" s="27"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -2345,83 +2425,86 @@
         <v>38.691847075080609</v>
       </c>
       <c r="Q8" s="23">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="R8" s="23">
-        <f>F8/D8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S8" s="23">
-        <f>F8/(D8-E8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T8" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.39826086956521739</v>
       </c>
       <c r="U8" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.31463768115942026</v>
       </c>
       <c r="V8" s="23">
-        <f>H8/D8</f>
+        <f t="shared" si="5"/>
         <v>0.44230769230769229</v>
       </c>
       <c r="W8" s="8">
-        <f>D8/E8</f>
+        <f t="shared" si="6"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="X8" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15076388888888889</v>
       </c>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z8" s="21">
         <v>959</v>
       </c>
-      <c r="AA8" s="11">
-        <f>Z8/H8</f>
+      <c r="AA8" s="21">
+        <v>1200</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>778</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>68</v>
+      </c>
+      <c r="AD8" s="21">
+        <f>Z8+AA8+AB8-AC8</f>
+        <v>2869</v>
+      </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="7"/>
         <v>0.41695652173913045</v>
       </c>
-      <c r="AB8" s="21">
-        <v>1200</v>
-      </c>
-      <c r="AC8" s="11">
+      <c r="AF8" s="11">
+        <f>AA8/H8</f>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="AG8" s="11">
         <f>AB8/H8</f>
-        <v>0.52173913043478259</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>778</v>
-      </c>
-      <c r="AE8" s="11">
+        <v>0.33826086956521739</v>
+      </c>
+      <c r="AH8" s="11">
+        <f>AC8/H8</f>
+        <v>2.9565217391304348E-2</v>
+      </c>
+      <c r="AI8" s="11">
         <f>AD8/H8</f>
-        <v>0.33826086956521739</v>
-      </c>
-      <c r="AF8" s="21">
-        <v>68</v>
-      </c>
-      <c r="AG8" s="11">
-        <f>AF8/H8</f>
-        <v>2.9565217391304348E-2</v>
-      </c>
-      <c r="AH8" s="21">
-        <f>Z8+AB8+AD8-AF8</f>
-        <v>2869</v>
-      </c>
-      <c r="AI8" s="11">
-        <f t="shared" si="5"/>
         <v>1.2473913043478262</v>
       </c>
       <c r="AJ8" s="11">
-        <f>M8/AH8</f>
+        <f>M8/AD8</f>
         <v>0.25223655164401065</v>
       </c>
-      <c r="AK8" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -2429,7 +2512,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="21">
         <v>4700</v>
@@ -2471,86 +2554,89 @@
         <v>41.207075962539022</v>
       </c>
       <c r="Q9" s="23">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="2"/>
         <v>0.14893617021276595</v>
       </c>
       <c r="R9" s="23">
-        <f>F9/D9</f>
+        <f t="shared" si="3"/>
         <v>8.5106382978723403E-4</v>
       </c>
       <c r="S9" s="23">
-        <f>F9/(D9-E9)</f>
+        <f t="shared" si="4"/>
         <v>5.7142857142857143E-3</v>
       </c>
       <c r="T9" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.20263157894736841</v>
       </c>
       <c r="U9" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.16859649122807016</v>
       </c>
       <c r="V9" s="23">
-        <f>H9/D9</f>
+        <f t="shared" si="5"/>
         <v>0.40425531914893614</v>
       </c>
       <c r="W9" s="8">
-        <f>D9/E9</f>
+        <f t="shared" si="6"/>
         <v>1.175</v>
       </c>
       <c r="X9" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.0083333333333326E-2</v>
       </c>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z9" s="21">
         <v>2244</v>
       </c>
-      <c r="AA9" s="11">
-        <f>Z9/H9</f>
+      <c r="AA9" s="21">
+        <v>382</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>736</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>172</v>
+      </c>
+      <c r="AD9" s="21">
+        <f>Z9+AA9+AB9-AC9</f>
+        <v>3190</v>
+      </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="7"/>
         <v>1.1810526315789474</v>
       </c>
-      <c r="AB9" s="21">
-        <v>382</v>
-      </c>
-      <c r="AC9" s="11">
+      <c r="AF9" s="11">
+        <f>AA9/H9</f>
+        <v>0.20105263157894737</v>
+      </c>
+      <c r="AG9" s="11">
         <f>AB9/H9</f>
-        <v>0.20105263157894737</v>
-      </c>
-      <c r="AD9" s="21">
-        <v>736</v>
-      </c>
-      <c r="AE9" s="11">
+        <v>0.38736842105263158</v>
+      </c>
+      <c r="AH9" s="11">
+        <f>AC9/H9</f>
+        <v>9.0526315789473691E-2</v>
+      </c>
+      <c r="AI9" s="11">
         <f>AD9/H9</f>
-        <v>0.38736842105263158</v>
-      </c>
-      <c r="AF9" s="21">
-        <v>172</v>
-      </c>
-      <c r="AG9" s="11">
-        <f>AF9/H9</f>
-        <v>9.0526315789473691E-2</v>
-      </c>
-      <c r="AH9" s="21">
-        <f>Z9+AB9+AD9-AF9</f>
-        <v>3190</v>
-      </c>
-      <c r="AI9" s="11">
-        <f t="shared" si="5"/>
         <v>1.6789473684210525</v>
       </c>
       <c r="AJ9" s="11">
-        <f>M9/AH9</f>
+        <f>M9/AD9</f>
         <v>0.10041797283176593</v>
       </c>
-      <c r="AK9" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM9" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
@@ -2558,7 +2644,7 @@
         <v>143</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D10" s="21">
         <v>26400</v>
@@ -2600,83 +2686,86 @@
         <v>48.837209302325583</v>
       </c>
       <c r="Q10" s="23">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="2"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="R10" s="23">
-        <f>F10/D10</f>
+        <f t="shared" si="3"/>
         <v>0.21590909090909091</v>
       </c>
       <c r="S10" s="23">
-        <f>F10/(D10-E10)</f>
+        <f t="shared" si="4"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="T10" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.2391304347826087</v>
       </c>
       <c r="U10" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.15579710144927536</v>
       </c>
       <c r="V10" s="23">
-        <f>H10/D10</f>
+        <f t="shared" si="5"/>
         <v>0.34848484848484851</v>
       </c>
       <c r="W10" s="8">
-        <f>D10/E10</f>
+        <f t="shared" si="6"/>
         <v>1.6923076923076923</v>
       </c>
       <c r="X10" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9.1880341880341873E-2</v>
       </c>
-      <c r="Y10" s="11"/>
+      <c r="Y10" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z10" s="21">
         <v>3085</v>
       </c>
-      <c r="AA10" s="11">
-        <f>Z10/H10</f>
+      <c r="AA10" s="21">
+        <v>601</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>4799</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>625</v>
+      </c>
+      <c r="AD10" s="21">
+        <f>Z10+AA10+AB10-AC10</f>
+        <v>7860</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="7"/>
         <v>0.33532608695652172</v>
       </c>
-      <c r="AB10" s="21">
-        <v>601</v>
-      </c>
-      <c r="AC10" s="11">
+      <c r="AF10" s="11">
+        <f>AA10/H10</f>
+        <v>6.5326086956521742E-2</v>
+      </c>
+      <c r="AG10" s="11">
         <f>AB10/H10</f>
-        <v>6.5326086956521742E-2</v>
-      </c>
-      <c r="AD10" s="21">
-        <v>4799</v>
-      </c>
-      <c r="AE10" s="11">
+        <v>0.52163043478260873</v>
+      </c>
+      <c r="AH10" s="11">
+        <f>AC10/H10</f>
+        <v>6.7934782608695649E-2</v>
+      </c>
+      <c r="AI10" s="11">
         <f>AD10/H10</f>
-        <v>0.52163043478260873</v>
-      </c>
-      <c r="AF10" s="21">
-        <v>625</v>
-      </c>
-      <c r="AG10" s="11">
-        <f>AF10/H10</f>
-        <v>6.7934782608695649E-2</v>
-      </c>
-      <c r="AH10" s="21">
-        <f>Z10+AB10+AD10-AF10</f>
-        <v>7860</v>
-      </c>
-      <c r="AI10" s="11">
-        <f t="shared" si="5"/>
         <v>0.85434782608695647</v>
       </c>
       <c r="AJ10" s="11">
-        <f>M10/AH10</f>
+        <f>M10/AD10</f>
         <v>0.1823579304495335</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>146</v>
       </c>
@@ -2726,86 +2815,89 @@
         <v>33.582089552238806</v>
       </c>
       <c r="Q11" s="23">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="2"/>
         <v>0.66367020589672032</v>
       </c>
       <c r="R11" s="23">
-        <f>F11/D11</f>
+        <f t="shared" si="3"/>
         <v>0.31723928826102338</v>
       </c>
       <c r="S11" s="23">
-        <f>F11/(D11-E11)</f>
+        <f t="shared" si="4"/>
         <v>0.47800742815083036</v>
       </c>
       <c r="T11" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5.0991501416430593E-2</v>
       </c>
       <c r="U11" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.2178155492603085E-2</v>
       </c>
       <c r="V11" s="23">
-        <f>H11/D11</f>
+        <f t="shared" si="5"/>
         <v>0.59461310843968807</v>
       </c>
       <c r="W11" s="8">
-        <f>D11/E11</f>
+        <f t="shared" si="6"/>
         <v>2.9732721202003338</v>
       </c>
       <c r="X11" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.456872565386756E-2</v>
       </c>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z11" s="21">
         <v>43244</v>
       </c>
-      <c r="AA11" s="11">
-        <f>Z11/H11</f>
+      <c r="AA11" s="21">
+        <v>19872</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>51880</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>23319</v>
+      </c>
+      <c r="AD11" s="21">
+        <f>Z11+AA11+AB11-AC11</f>
+        <v>91677</v>
+      </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="7"/>
         <v>0.40834749763928235</v>
       </c>
-      <c r="AB11" s="21">
-        <v>19872</v>
-      </c>
-      <c r="AC11" s="11">
+      <c r="AF11" s="11">
+        <f>AA11/H11</f>
+        <v>0.18764872521246459</v>
+      </c>
+      <c r="AG11" s="11">
         <f>AB11/H11</f>
-        <v>0.18764872521246459</v>
-      </c>
-      <c r="AD11" s="21">
-        <v>51880</v>
-      </c>
-      <c r="AE11" s="11">
+        <v>0.48989612842304059</v>
+      </c>
+      <c r="AH11" s="11">
+        <f>AC11/H11</f>
+        <v>0.22019830028328613</v>
+      </c>
+      <c r="AI11" s="11">
         <f>AD11/H11</f>
-        <v>0.48989612842304059</v>
-      </c>
-      <c r="AF11" s="21">
-        <v>23319</v>
-      </c>
-      <c r="AG11" s="11">
-        <f>AF11/H11</f>
-        <v>0.22019830028328613</v>
-      </c>
-      <c r="AH11" s="21">
-        <f>Z11+AB11+AD11-AF11</f>
-        <v>91677</v>
-      </c>
-      <c r="AI11" s="11">
-        <f t="shared" si="5"/>
         <v>0.86569405099150143</v>
       </c>
       <c r="AJ11" s="11">
-        <f>M11/AH11</f>
+        <f>M11/AD11</f>
         <v>4.872178045383975E-2</v>
       </c>
-      <c r="AK11" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>200</v>
       </c>
@@ -2855,81 +2947,84 @@
         <v>119.03225806451613</v>
       </c>
       <c r="Q12" s="23">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="2"/>
         <v>0.22727272727272727</v>
       </c>
       <c r="R12" s="23">
-        <f>F12/D12</f>
+        <f t="shared" si="3"/>
         <v>9.4545454545454544E-2</v>
       </c>
       <c r="S12" s="23">
-        <f>F12/(D12-E12)</f>
+        <f t="shared" si="4"/>
         <v>0.41599999999999998</v>
       </c>
       <c r="T12" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.21961932650073207</v>
       </c>
       <c r="U12" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.15129331381161543</v>
       </c>
       <c r="V12" s="23">
-        <f>H12/D12</f>
+        <f t="shared" si="5"/>
         <v>0.31045454545454543</v>
       </c>
       <c r="W12" s="8">
-        <f>D12/E12</f>
+        <f t="shared" si="6"/>
         <v>1.2941176470588236</v>
       </c>
       <c r="X12" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.0784313725490195E-2</v>
       </c>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z12" s="21">
         <v>491</v>
       </c>
-      <c r="AA12" s="11">
-        <f>Z12/H12</f>
+      <c r="AA12" s="21">
+        <v>168</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>363</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="21">
+        <f>Z12+AA12+AB12-AC12</f>
+        <v>922</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="7"/>
         <v>0.71888726207906295</v>
       </c>
-      <c r="AB12" s="21">
-        <v>168</v>
-      </c>
-      <c r="AC12" s="11">
+      <c r="AF12" s="11">
+        <f>AA12/H12</f>
+        <v>0.24597364568081992</v>
+      </c>
+      <c r="AG12" s="11">
         <f>AB12/H12</f>
-        <v>0.24597364568081992</v>
-      </c>
-      <c r="AD12" s="21">
-        <v>363</v>
-      </c>
-      <c r="AE12" s="11">
+        <v>0.53147877013177158</v>
+      </c>
+      <c r="AH12" s="11">
+        <f>AC12/H12</f>
+        <v>0.14641288433382138</v>
+      </c>
+      <c r="AI12" s="11">
         <f>AD12/H12</f>
-        <v>0.53147877013177158</v>
-      </c>
-      <c r="AF12" s="21">
-        <v>100</v>
-      </c>
-      <c r="AG12" s="11">
-        <f>AF12/H12</f>
-        <v>0.14641288433382138</v>
-      </c>
-      <c r="AH12" s="21">
-        <f>Z12+AB12+AD12-AF12</f>
-        <v>922</v>
-      </c>
-      <c r="AI12" s="11">
-        <f t="shared" si="5"/>
         <v>1.3499267935578332</v>
       </c>
       <c r="AJ12" s="11">
-        <f>M12/AH12</f>
+        <f>M12/AD12</f>
         <v>0.11207519884309472</v>
       </c>
-      <c r="AK12" s="7"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>196</v>
       </c>
@@ -2981,83 +3076,86 @@
         <v>15.652777777777779</v>
       </c>
       <c r="Q13" s="23">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="2"/>
         <v>0.24396135265700483</v>
       </c>
       <c r="R13" s="23">
-        <f>F13/D13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13" s="23">
-        <f>F13/(D13-E13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.21079258010118043</v>
       </c>
       <c r="U13" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.12141652613827993</v>
       </c>
       <c r="V13" s="23">
-        <f>H13/D13</f>
+        <f t="shared" si="5"/>
         <v>1.432367149758454</v>
       </c>
       <c r="W13" s="8">
-        <f>D13/E13</f>
+        <f t="shared" si="6"/>
         <v>1.3226837060702876</v>
       </c>
       <c r="X13" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.23003194888178913</v>
       </c>
-      <c r="Y13" s="11"/>
+      <c r="Y13" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z13" s="21">
         <v>11370</v>
       </c>
-      <c r="AA13" s="11">
-        <f>Z13/H13</f>
+      <c r="AA13" s="21">
+        <v>10547</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>143</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>2648</v>
+      </c>
+      <c r="AD13" s="21">
+        <f>Z13+AA13+AB13-AC13</f>
+        <v>19412</v>
+      </c>
+      <c r="AE13" s="11">
+        <f t="shared" si="7"/>
         <v>0.19173693086003374</v>
       </c>
-      <c r="AB13" s="21">
-        <v>10547</v>
-      </c>
-      <c r="AC13" s="11">
+      <c r="AF13" s="11">
+        <f>AA13/H13</f>
+        <v>0.17785834738617201</v>
+      </c>
+      <c r="AG13" s="11">
         <f>AB13/H13</f>
-        <v>0.17785834738617201</v>
-      </c>
-      <c r="AD13" s="21">
-        <v>143</v>
-      </c>
-      <c r="AE13" s="11">
+        <v>2.4114671163575044E-3</v>
+      </c>
+      <c r="AH13" s="11">
+        <f>AC13/H13</f>
+        <v>4.4654300168634066E-2</v>
+      </c>
+      <c r="AI13" s="11">
         <f>AD13/H13</f>
-        <v>2.4114671163575044E-3</v>
-      </c>
-      <c r="AF13" s="21">
-        <v>2648</v>
-      </c>
-      <c r="AG13" s="11">
-        <f>AF13/H13</f>
-        <v>4.4654300168634066E-2</v>
-      </c>
-      <c r="AH13" s="21">
-        <f>Z13+AB13+AD13-AF13</f>
-        <v>19412</v>
-      </c>
-      <c r="AI13" s="11">
-        <f t="shared" si="5"/>
         <v>0.3273524451939292</v>
       </c>
       <c r="AJ13" s="11">
-        <f>M13/AH13</f>
+        <f>M13/AD13</f>
         <v>0.37090459509581702</v>
       </c>
-      <c r="AK13" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -3101,77 +3199,80 @@
         <v>113000</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P15" si="10">O14/M14</f>
+        <f t="shared" ref="P14:P15" si="15">O14/M14</f>
         <v>5.989399293286219</v>
       </c>
       <c r="Q14" s="23">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="2"/>
         <v>0.93521186440677961</v>
       </c>
       <c r="R14" s="23">
-        <f>F14/D14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14" s="23">
-        <f>F14/(D14-E14)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" ref="T14:T15" si="11">I14/H14</f>
+        <f t="shared" ref="T14:T15" si="16">I14/H14</f>
         <v>0.40781250000000002</v>
       </c>
       <c r="U14" s="23">
-        <f t="shared" ref="U14:U15" si="12">M14/H14</f>
+        <f t="shared" ref="U14:U15" si="17">M14/H14</f>
         <v>0.29479166666666667</v>
       </c>
       <c r="V14" s="23">
-        <f>H14/D14</f>
+        <f t="shared" si="5"/>
         <v>2.7118644067796609E-2</v>
       </c>
       <c r="W14" s="8">
-        <f>D14/E14</f>
+        <f t="shared" si="6"/>
         <v>15.434924787442773</v>
       </c>
       <c r="X14" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.12339219533464138</v>
       </c>
-      <c r="Y14" s="11"/>
+      <c r="Y14" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z14" s="21"/>
-      <c r="AA14" s="11">
-        <f>Z14/H14</f>
-        <v>0</v>
-      </c>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="11">
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21">
+        <f>Z14+AA14+AB14-AC14</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <f>AA14/H14</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
         <f>AB14/H14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="11">
+      <c r="AH14" s="11">
+        <f>AC14/H14</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="11">
         <f>AD14/H14</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="11">
-        <f>AF14/H14</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="21">
-        <f>Z14+AB14+AD14-AF14</f>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AJ14" s="11" t="e">
-        <f>M14/AH14</f>
+        <f>M14/AD14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="17"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="17"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -3215,77 +3316,80 @@
         <v>725000</v>
       </c>
       <c r="P15" s="8">
+        <f t="shared" si="15"/>
+        <v>11.393399685699318</v>
+      </c>
+      <c r="Q15" s="23">
+        <f t="shared" si="2"/>
+        <v>0.92328571428571427</v>
+      </c>
+      <c r="R15" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="23">
+        <f t="shared" si="16"/>
+        <v>0.40987318840579712</v>
+      </c>
+      <c r="U15" s="23">
+        <f t="shared" si="17"/>
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="V15" s="23">
+        <f t="shared" si="5"/>
+        <v>3.504761904761905E-2</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="6"/>
+        <v>13.035381750465548</v>
+      </c>
+      <c r="X15" s="23">
         <f t="shared" si="10"/>
-        <v>11.393399685699318</v>
-      </c>
-      <c r="Q15" s="23">
-        <f>(D15-E15)/D15</f>
-        <v>0.92328571428571427</v>
-      </c>
-      <c r="R15" s="23">
-        <f>F15/D15</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="23">
-        <f>F15/(D15-E15)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="23">
-        <f t="shared" si="11"/>
-        <v>0.40987318840579712</v>
-      </c>
-      <c r="U15" s="23">
-        <f t="shared" si="12"/>
-        <v>0.28819444444444448</v>
-      </c>
-      <c r="V15" s="23">
-        <f>H15/D15</f>
-        <v>3.504761904761905E-2</v>
-      </c>
-      <c r="W15" s="8">
-        <f>D15/E15</f>
-        <v>13.035381750465548</v>
-      </c>
-      <c r="X15" s="23">
-        <f t="shared" si="4"/>
         <v>0.13166425270708326</v>
       </c>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z15" s="21"/>
-      <c r="AA15" s="11">
-        <f>Z15/H15</f>
-        <v>0</v>
-      </c>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
-      <c r="AC15" s="11">
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21">
+        <f>Z15+AA15+AB15-AC15</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <f>AA15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
         <f>AB15/H15</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="11">
+      <c r="AH15" s="11">
+        <f>AC15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11">
         <f>AD15/H15</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="11">
-        <f>AF15/H15</f>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="21">
-        <f>Z15+AB15+AD15-AF15</f>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AJ15" s="11" t="e">
-        <f>M15/AH15</f>
+        <f>M15/AD15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK15" s="17"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="17"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -3337,83 +3441,86 @@
         <v>28.449197860962567</v>
       </c>
       <c r="Q16" s="23">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="2"/>
         <v>0.44791666666666669</v>
       </c>
       <c r="R16" s="23">
-        <f>F16/D16</f>
+        <f t="shared" si="3"/>
         <v>0.11458333333333333</v>
       </c>
       <c r="S16" s="23">
-        <f>F16/(D16-E16)</f>
+        <f t="shared" si="4"/>
         <v>0.2558139534883721</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.14609374999999999</v>
       </c>
       <c r="V16" s="23">
-        <f>H16/D16</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="W16" s="8">
-        <f>D16/E16</f>
+        <f t="shared" si="6"/>
         <v>1.8113207547169812</v>
       </c>
       <c r="X16" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17641509433962263</v>
       </c>
-      <c r="Y16" s="11"/>
+      <c r="Y16" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z16" s="21">
         <v>297</v>
       </c>
-      <c r="AA16" s="11">
-        <f>Z16/H16</f>
+      <c r="AA16" s="21">
+        <v>750</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>926</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>683</v>
+      </c>
+      <c r="AD16" s="21">
+        <f>Z16+AA16+AB16-AC16</f>
+        <v>1290</v>
+      </c>
+      <c r="AE16" s="11">
+        <f t="shared" si="7"/>
         <v>4.6406250000000003E-2</v>
       </c>
-      <c r="AB16" s="21">
-        <v>750</v>
-      </c>
-      <c r="AC16" s="11">
+      <c r="AF16" s="11">
+        <f>AA16/H16</f>
+        <v>0.1171875</v>
+      </c>
+      <c r="AG16" s="11">
         <f>AB16/H16</f>
-        <v>0.1171875</v>
-      </c>
-      <c r="AD16" s="21">
-        <v>926</v>
-      </c>
-      <c r="AE16" s="11">
+        <v>0.1446875</v>
+      </c>
+      <c r="AH16" s="11">
+        <f>AC16/H16</f>
+        <v>0.10671875</v>
+      </c>
+      <c r="AI16" s="11">
         <f>AD16/H16</f>
-        <v>0.1446875</v>
-      </c>
-      <c r="AF16" s="21">
-        <v>683</v>
-      </c>
-      <c r="AG16" s="11">
-        <f>AF16/H16</f>
-        <v>0.10671875</v>
-      </c>
-      <c r="AH16" s="21">
-        <f>Z16+AB16+AD16-AF16</f>
-        <v>1290</v>
-      </c>
-      <c r="AI16" s="11">
-        <f t="shared" si="5"/>
         <v>0.20156250000000001</v>
       </c>
       <c r="AJ16" s="11">
-        <f>M16/AH16</f>
+        <f>M16/AD16</f>
         <v>0.72480620155038755</v>
       </c>
-      <c r="AK16" s="14" t="s">
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>118</v>
       </c>
@@ -3465,86 +3572,89 @@
         <v>5.7608695652173916</v>
       </c>
       <c r="Q17" s="23">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="R17" s="23">
-        <f>F17/D17</f>
+        <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="S17" s="23">
-        <f>F17/(D17-E17)</f>
+        <f t="shared" si="4"/>
         <v>3.888888888888889E-2</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.11974522292993631</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.11719745222929936</v>
       </c>
       <c r="V17" s="23">
-        <f>H17/D17</f>
+        <f t="shared" si="5"/>
         <v>0.78500000000000003</v>
       </c>
       <c r="W17" s="8">
-        <f>D17/E17</f>
+        <f t="shared" si="6"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="X17" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="Y17" s="11"/>
+      <c r="Y17" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z17" s="21">
         <v>15480</v>
       </c>
-      <c r="AA17" s="11">
-        <f>Z17/H17</f>
+      <c r="AA17" s="21">
+        <v>7304</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>1498</v>
+      </c>
+      <c r="AC17" s="21">
+        <v>19880</v>
+      </c>
+      <c r="AD17" s="21">
+        <f>Z17+AA17+AB17-AC17</f>
+        <v>4402</v>
+      </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="7"/>
         <v>0.19719745222929935</v>
       </c>
-      <c r="AB17" s="21">
-        <v>7304</v>
-      </c>
-      <c r="AC17" s="11">
+      <c r="AF17" s="11">
+        <f>AA17/H17</f>
+        <v>9.3044585987261147E-2</v>
+      </c>
+      <c r="AG17" s="11">
         <f>AB17/H17</f>
-        <v>9.3044585987261147E-2</v>
-      </c>
-      <c r="AD17" s="21">
-        <v>1498</v>
-      </c>
-      <c r="AE17" s="11">
+        <v>1.90828025477707E-2</v>
+      </c>
+      <c r="AH17" s="11">
+        <f>AC17/H17</f>
+        <v>0.25324840764331208</v>
+      </c>
+      <c r="AI17" s="11">
         <f>AD17/H17</f>
-        <v>1.90828025477707E-2</v>
-      </c>
-      <c r="AF17" s="21">
-        <v>19880</v>
-      </c>
-      <c r="AG17" s="11">
-        <f>AF17/H17</f>
-        <v>0.25324840764331208</v>
-      </c>
-      <c r="AH17" s="21">
-        <f>Z17+AB17+AD17-AF17</f>
-        <v>4402</v>
-      </c>
-      <c r="AI17" s="11">
-        <f t="shared" si="5"/>
         <v>5.6076433121019106E-2</v>
       </c>
       <c r="AJ17" s="11">
-        <f>M17/AH17</f>
+        <f>M17/AD17</f>
         <v>2.089959109495684</v>
       </c>
-      <c r="AK17" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL17" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>179</v>
       </c>
@@ -3594,86 +3704,89 @@
         <v>10.684931506849315</v>
       </c>
       <c r="Q18" s="23">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="2"/>
         <v>0.22014925373134328</v>
       </c>
       <c r="R18" s="23">
-        <f>F18/D18</f>
+        <f t="shared" si="3"/>
         <v>0.17873134328358209</v>
       </c>
       <c r="S18" s="23">
-        <f>F18/(D18-E18)</f>
+        <f t="shared" si="4"/>
         <v>0.81186440677966099</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3.569</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.65</v>
       </c>
       <c r="V18" s="23">
-        <f>H18/D18</f>
+        <f t="shared" si="5"/>
         <v>3.7313432835820892E-2</v>
       </c>
       <c r="W18" s="8">
-        <f>D18/E18</f>
+        <f t="shared" si="6"/>
         <v>1.2822966507177034</v>
       </c>
       <c r="X18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17464114832535885</v>
       </c>
-      <c r="Y18" s="11"/>
+      <c r="Y18" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z18" s="21">
         <v>3482</v>
       </c>
-      <c r="AA18" s="11">
-        <f>Z18/H18</f>
+      <c r="AA18" s="21">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>364</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>173</v>
+      </c>
+      <c r="AD18" s="21">
+        <f>Z18+AA18+AB18-AC18</f>
+        <v>3732</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" si="7"/>
         <v>3.4820000000000002</v>
       </c>
-      <c r="AB18" s="21">
-        <v>59</v>
-      </c>
-      <c r="AC18" s="11">
+      <c r="AF18" s="11">
+        <f>AA18/H18</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AG18" s="11">
         <f>AB18/H18</f>
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AD18" s="21">
-        <v>364</v>
-      </c>
-      <c r="AE18" s="11">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AH18" s="11">
+        <f>AC18/H18</f>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AI18" s="11">
         <f>AD18/H18</f>
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="AF18" s="21">
-        <v>173</v>
-      </c>
-      <c r="AG18" s="11">
-        <f>AF18/H18</f>
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="AH18" s="21">
-        <f>Z18+AB18+AD18-AF18</f>
-        <v>3732</v>
-      </c>
-      <c r="AI18" s="11">
-        <f t="shared" si="5"/>
         <v>3.7320000000000002</v>
       </c>
       <c r="AJ18" s="11">
-        <f>M18/AH18</f>
+        <f>M18/AD18</f>
         <v>0.97802786709539125</v>
       </c>
-      <c r="AK18" s="12" t="s">
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="AL18" s="6" t="s">
+      <c r="AM18" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
@@ -3721,15 +3834,15 @@
         <v>5.778688524590164</v>
       </c>
       <c r="Q19" s="23">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="2"/>
         <v>0.70845341018251684</v>
       </c>
       <c r="R19" s="23">
-        <f>F19/D19</f>
+        <f t="shared" si="3"/>
         <v>0.54947166186359275</v>
       </c>
       <c r="S19" s="23">
-        <f>F19/(D19-E19)</f>
+        <f t="shared" si="4"/>
         <v>0.77559322033898304</v>
       </c>
       <c r="T19" s="23">
@@ -3741,66 +3854,69 @@
         <v>0.2573839662447257</v>
       </c>
       <c r="V19" s="23">
-        <f>H19/D19</f>
+        <f t="shared" si="5"/>
         <v>0.15177713736791545</v>
       </c>
       <c r="W19" s="8">
-        <f>D19/E19</f>
+        <f t="shared" si="6"/>
         <v>3.4299835255354201</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13399231191652938</v>
       </c>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z19" s="21">
         <v>134490</v>
       </c>
-      <c r="AA19" s="11">
-        <f>Z19/H19</f>
+      <c r="AA19" s="21">
+        <v>1183</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>3551</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>4834</v>
+      </c>
+      <c r="AD19" s="21">
+        <f>Z19+AA19+AB19-AC19</f>
+        <v>134390</v>
+      </c>
+      <c r="AE19" s="11">
+        <f t="shared" si="7"/>
         <v>4.2560126582278484</v>
       </c>
-      <c r="AB19" s="21">
-        <v>1183</v>
-      </c>
-      <c r="AC19" s="11">
+      <c r="AF19" s="11">
+        <f>AA19/H19</f>
+        <v>3.7436708860759491E-2</v>
+      </c>
+      <c r="AG19" s="11">
         <f>AB19/H19</f>
-        <v>3.7436708860759491E-2</v>
-      </c>
-      <c r="AD19" s="21">
-        <v>3551</v>
-      </c>
-      <c r="AE19" s="11">
+        <v>0.11237341772151899</v>
+      </c>
+      <c r="AH19" s="11">
+        <f>AC19/H19</f>
+        <v>0.1529746835443038</v>
+      </c>
+      <c r="AI19" s="11">
         <f>AD19/H19</f>
-        <v>0.11237341772151899</v>
-      </c>
-      <c r="AF19" s="21">
-        <v>4834</v>
-      </c>
-      <c r="AG19" s="11">
-        <f>AF19/H19</f>
-        <v>0.1529746835443038</v>
-      </c>
-      <c r="AH19" s="21">
-        <f>Z19+AB19+AD19-AF19</f>
-        <v>134390</v>
-      </c>
-      <c r="AI19" s="11">
-        <f t="shared" si="5"/>
         <v>4.2528481012658226</v>
       </c>
       <c r="AJ19" s="11">
-        <f>M19/AH19</f>
+        <f>M19/AD19</f>
         <v>6.0520376020041171E-2</v>
       </c>
-      <c r="AK19" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL19" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -3846,7 +3962,7 @@
         <v>14.917825537294563</v>
       </c>
       <c r="Q20" s="23">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="2"/>
         <v>0.90945633759433231</v>
       </c>
       <c r="R20" s="23"/>
@@ -3859,52 +3975,55 @@
         <v>8.8796587337224966E-2</v>
       </c>
       <c r="V20" s="23">
-        <f>H20/D20</f>
+        <f t="shared" si="5"/>
         <v>0.1371939011242877</v>
       </c>
       <c r="W20" s="8">
-        <f>D20/E20</f>
+        <f t="shared" si="6"/>
         <v>11.044395305324034</v>
       </c>
       <c r="X20" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13454669161422012</v>
       </c>
-      <c r="Y20" s="11"/>
+      <c r="Y20" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z20" s="21"/>
-      <c r="AA20" s="11">
-        <f>Z20/H20</f>
-        <v>0</v>
-      </c>
+      <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="11">
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21">
+        <f>Z20+AA20+AB20-AC20</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="11">
+        <f>AA20/H20</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="11">
         <f>AB20/H20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="11">
+      <c r="AH20" s="11">
+        <f>AC20/H20</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="11">
         <f>AD20/H20</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="11">
-        <f>AF20/H20</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="21">
-        <f>Z20+AB20+AD20-AF20</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AJ20" s="11" t="e">
-        <f>M20/AH20</f>
+        <f>M20/AD20</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK20" s="27"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
@@ -3950,87 +4069,90 @@
         <v>105000</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" ref="P21:P32" si="13">O21/M21</f>
+        <f t="shared" ref="P21:P32" si="18">O21/M21</f>
         <v>13.404255319148938</v>
       </c>
       <c r="Q21" s="23">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="2"/>
         <v>0.55475113122171948</v>
       </c>
       <c r="R21" s="23">
-        <f>F21/D21</f>
+        <f t="shared" ref="R21:R31" si="19">F21/D21</f>
         <v>1.3574660633484163E-2</v>
       </c>
       <c r="S21" s="23">
-        <f>F21/(D21-E21)</f>
+        <f t="shared" ref="S21:S31" si="20">F21/(D21-E21)</f>
         <v>2.4469820554649267E-2</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5.7768924302788842E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7.802124833997344E-2</v>
       </c>
       <c r="V21" s="23">
-        <f>H21/D21</f>
+        <f t="shared" si="5"/>
         <v>0.90859728506787329</v>
       </c>
       <c r="W21" s="8">
-        <f>D21/E21</f>
+        <f t="shared" si="6"/>
         <v>2.2459349593495936</v>
       </c>
       <c r="X21" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15921409214092141</v>
       </c>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z21" s="21">
         <v>27718</v>
       </c>
-      <c r="AA21" s="11">
-        <f>Z21/H21</f>
+      <c r="AA21" s="21">
+        <v>5574</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>873</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>27961</v>
+      </c>
+      <c r="AD21" s="21">
+        <f>Z21+AA21+AB21-AC21</f>
+        <v>6204</v>
+      </c>
+      <c r="AE21" s="11">
+        <f t="shared" si="7"/>
         <v>0.27607569721115538</v>
       </c>
-      <c r="AB21" s="21">
-        <v>5574</v>
-      </c>
-      <c r="AC21" s="11">
+      <c r="AF21" s="11">
+        <f>AA21/H21</f>
+        <v>5.5517928286852591E-2</v>
+      </c>
+      <c r="AG21" s="11">
         <f>AB21/H21</f>
-        <v>5.5517928286852591E-2</v>
-      </c>
-      <c r="AD21" s="21">
-        <v>873</v>
-      </c>
-      <c r="AE21" s="11">
+        <v>8.6952191235059768E-3</v>
+      </c>
+      <c r="AH21" s="11">
+        <f>AC21/H21</f>
+        <v>0.278496015936255</v>
+      </c>
+      <c r="AI21" s="11">
         <f>AD21/H21</f>
-        <v>8.6952191235059768E-3</v>
-      </c>
-      <c r="AF21" s="21">
-        <v>27961</v>
-      </c>
-      <c r="AG21" s="11">
-        <f>AF21/H21</f>
-        <v>0.278496015936255</v>
-      </c>
-      <c r="AH21" s="21">
-        <f>Z21+AB21+AD21-AF21</f>
-        <v>6204</v>
-      </c>
-      <c r="AI21" s="11">
-        <f t="shared" si="5"/>
         <v>6.1792828685258962E-2</v>
       </c>
       <c r="AJ21" s="11">
-        <f>M21/AH21</f>
+        <f>M21/AD21</f>
         <v>1.2626262626262625</v>
       </c>
-      <c r="AK21" s="12" t="s">
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>72</v>
       </c>
@@ -4071,82 +4193,85 @@
         <v>350000</v>
       </c>
       <c r="P22" s="8">
+        <f t="shared" si="18"/>
+        <v>6.8897637795275593</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" si="2"/>
+        <v>0.93539777427461024</v>
+      </c>
+      <c r="R22" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="23">
         <f t="shared" si="13"/>
-        <v>6.8897637795275593</v>
-      </c>
-      <c r="Q22" s="23">
-        <f>(D22-E22)/D22</f>
-        <v>0.93539777427461024</v>
-      </c>
-      <c r="R22" s="23">
-        <f>F22/D22</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="23">
-        <f>F22/(D22-E22)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="23">
-        <f t="shared" si="8"/>
         <v>0.4031847133757962</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.3235668789808917</v>
       </c>
       <c r="V22" s="23">
-        <f>H22/D22</f>
+        <f t="shared" si="5"/>
         <v>2.45048307293699E-2</v>
       </c>
       <c r="W22" s="8">
-        <f>D22/E22</f>
+        <f t="shared" si="6"/>
         <v>15.479342836433922</v>
       </c>
       <c r="X22" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.12273496013529839</v>
       </c>
-      <c r="Y22" s="11"/>
+      <c r="Y22" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z22" s="21"/>
-      <c r="AA22" s="11">
-        <f>Z22/H22</f>
-        <v>0</v>
-      </c>
+      <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="11">
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21">
+        <f>Z22+AA22+AB22-AC22</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="11">
+        <f>AA22/H22</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="11">
         <f>AB22/H22</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="11">
+      <c r="AH22" s="11">
+        <f>AC22/H22</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="11">
         <f>AD22/H22</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="11">
-        <f>AF22/H22</f>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="21">
-        <f>Z22+AB22+AD22-AF22</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AJ22" s="11" t="e">
-        <f>M22/AH22</f>
+        <f>M22/AD22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK22" s="18" t="s">
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
@@ -4189,87 +4314,90 @@
         <v>55000</v>
       </c>
       <c r="P23" s="8">
+        <f t="shared" si="18"/>
+        <v>26.19047619047619</v>
+      </c>
+      <c r="Q23" s="23">
+        <f t="shared" si="2"/>
+        <v>0.60339943342776203</v>
+      </c>
+      <c r="R23" s="23">
+        <f t="shared" si="19"/>
+        <v>0.30594900849858359</v>
+      </c>
+      <c r="S23" s="23">
+        <f t="shared" si="20"/>
+        <v>0.50704225352112675</v>
+      </c>
+      <c r="T23" s="23">
         <f t="shared" si="13"/>
-        <v>26.19047619047619</v>
-      </c>
-      <c r="Q23" s="23">
-        <f>(D23-E23)/D23</f>
-        <v>0.60339943342776203</v>
-      </c>
-      <c r="R23" s="23">
-        <f>F23/D23</f>
-        <v>0.30594900849858359</v>
-      </c>
-      <c r="S23" s="23">
-        <f>F23/(D23-E23)</f>
-        <v>0.50704225352112675</v>
-      </c>
-      <c r="T23" s="23">
-        <f t="shared" si="8"/>
         <v>0.13930348258706468</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.1044776119402985</v>
       </c>
       <c r="V23" s="23">
-        <f>H23/D23</f>
+        <f t="shared" si="5"/>
         <v>0.56940509915014159</v>
       </c>
       <c r="W23" s="8">
-        <f>D23/E23</f>
+        <f t="shared" si="6"/>
         <v>2.5214285714285714</v>
       </c>
       <c r="X23" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
-      <c r="Y23" s="11"/>
+      <c r="Y23" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z23" s="21">
         <v>13458</v>
       </c>
-      <c r="AA23" s="11">
-        <f>Z23/H23</f>
+      <c r="AA23" s="21">
+        <v>2044</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>5555</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>4168</v>
+      </c>
+      <c r="AD23" s="21">
+        <f>Z23+AA23+AB23-AC23</f>
+        <v>16889</v>
+      </c>
+      <c r="AE23" s="11">
+        <f t="shared" si="7"/>
         <v>0.66955223880597015</v>
       </c>
-      <c r="AB23" s="21">
-        <v>2044</v>
-      </c>
-      <c r="AC23" s="11">
+      <c r="AF23" s="11">
+        <f>AA23/H23</f>
+        <v>0.10169154228855722</v>
+      </c>
+      <c r="AG23" s="11">
         <f>AB23/H23</f>
-        <v>0.10169154228855722</v>
-      </c>
-      <c r="AD23" s="21">
-        <v>5555</v>
-      </c>
-      <c r="AE23" s="11">
+        <v>0.27636815920398011</v>
+      </c>
+      <c r="AH23" s="11">
+        <f>AC23/H23</f>
+        <v>0.207363184079602</v>
+      </c>
+      <c r="AI23" s="11">
         <f>AD23/H23</f>
-        <v>0.27636815920398011</v>
-      </c>
-      <c r="AF23" s="21">
-        <v>4168</v>
-      </c>
-      <c r="AG23" s="11">
-        <f>AF23/H23</f>
-        <v>0.207363184079602</v>
-      </c>
-      <c r="AH23" s="21">
-        <f>Z23+AB23+AD23-AF23</f>
-        <v>16889</v>
-      </c>
-      <c r="AI23" s="11">
-        <f t="shared" si="5"/>
         <v>0.84024875621890549</v>
       </c>
       <c r="AJ23" s="11">
-        <f>M23/AH23</f>
+        <f>M23/AD23</f>
         <v>0.1243412872283735</v>
       </c>
-      <c r="AK23" s="3" t="s">
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>162</v>
       </c>
@@ -4317,84 +4445,87 @@
         <v>18700</v>
       </c>
       <c r="P24" s="8">
+        <f t="shared" si="18"/>
+        <v>27.10144927536232</v>
+      </c>
+      <c r="Q24" s="23">
+        <f t="shared" si="2"/>
+        <v>0.24590163934426229</v>
+      </c>
+      <c r="R24" s="23">
+        <f t="shared" si="19"/>
+        <v>2.4590163934426229E-2</v>
+      </c>
+      <c r="S24" s="23">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="T24" s="23">
         <f t="shared" si="13"/>
-        <v>27.10144927536232</v>
-      </c>
-      <c r="Q24" s="23">
-        <f>(D24-E24)/D24</f>
-        <v>0.24590163934426229</v>
-      </c>
-      <c r="R24" s="23">
-        <f>F24/D24</f>
-        <v>2.4590163934426229E-2</v>
-      </c>
-      <c r="S24" s="23">
-        <f>F24/(D24-E24)</f>
-        <v>0.1</v>
-      </c>
-      <c r="T24" s="23">
-        <f t="shared" si="8"/>
         <v>0.39800000000000002</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="V24" s="23">
-        <f>H24/D24</f>
+        <f t="shared" si="5"/>
         <v>0.4098360655737705</v>
       </c>
       <c r="W24" s="8">
-        <f>D24/E24</f>
+        <f t="shared" si="6"/>
         <v>1.326086956521739</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
-      <c r="Y24" s="11"/>
+      <c r="Y24" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z24" s="21">
         <v>741</v>
       </c>
-      <c r="AA24" s="11">
-        <f>Z24/H24</f>
+      <c r="AA24" s="21">
+        <v>1514</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>84</v>
+      </c>
+      <c r="AD24" s="21">
+        <f>Z24+AA24+AB24-AC24</f>
+        <v>2193</v>
+      </c>
+      <c r="AE24" s="11">
+        <f t="shared" si="7"/>
         <v>0.2964</v>
       </c>
-      <c r="AB24" s="21">
-        <v>1514</v>
-      </c>
-      <c r="AC24" s="11">
+      <c r="AF24" s="11">
+        <f>AA24/H24</f>
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="AG24" s="11">
         <f>AB24/H24</f>
-        <v>0.60560000000000003</v>
-      </c>
-      <c r="AD24" s="21">
-        <v>22</v>
-      </c>
-      <c r="AE24" s="11">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="AH24" s="11">
+        <f>AC24/H24</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="AI24" s="11">
         <f>AD24/H24</f>
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="AF24" s="21">
-        <v>84</v>
-      </c>
-      <c r="AG24" s="11">
-        <f>AF24/H24</f>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="AH24" s="21">
-        <f>Z24+AB24+AD24-AF24</f>
-        <v>2193</v>
-      </c>
-      <c r="AI24" s="11">
-        <f t="shared" si="5"/>
         <v>0.87719999999999998</v>
       </c>
       <c r="AJ24" s="11">
-        <f>M24/AH24</f>
+        <f>M24/AD24</f>
         <v>0.31463748290013682</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK24" s="27"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>151</v>
       </c>
@@ -4442,87 +4573,90 @@
         <v>8800</v>
       </c>
       <c r="P25" s="8">
+        <f t="shared" si="18"/>
+        <v>34.645669291338585</v>
+      </c>
+      <c r="Q25" s="23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="R25" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="23">
         <f t="shared" si="13"/>
-        <v>34.645669291338585</v>
-      </c>
-      <c r="Q25" s="23">
-        <f>(D25-E25)/D25</f>
-        <v>0.2</v>
-      </c>
-      <c r="R25" s="23">
-        <f>F25/D25</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="23">
-        <f>F25/(D25-E25)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="23">
-        <f t="shared" si="8"/>
         <v>0.22777777777777777</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.1411111111111111</v>
       </c>
       <c r="V25" s="23">
-        <f>H25/D25</f>
+        <f t="shared" si="5"/>
         <v>0.72</v>
       </c>
       <c r="W25" s="8">
-        <f>D25/E25</f>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="X25" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.127</v>
       </c>
-      <c r="Y25" s="11"/>
+      <c r="Y25" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z25" s="21">
         <v>480</v>
       </c>
-      <c r="AA25" s="11">
-        <f>Z25/H25</f>
+      <c r="AA25" s="21">
+        <v>51</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>7</v>
+      </c>
+      <c r="AC25" s="21">
+        <v>169</v>
+      </c>
+      <c r="AD25" s="21">
+        <f>Z25+AA25+AB25-AC25</f>
+        <v>369</v>
+      </c>
+      <c r="AE25" s="11">
+        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="AB25" s="21">
-        <v>51</v>
-      </c>
-      <c r="AC25" s="11">
+      <c r="AF25" s="11">
+        <f>AA25/H25</f>
+        <v>2.8333333333333332E-2</v>
+      </c>
+      <c r="AG25" s="11">
         <f>AB25/H25</f>
-        <v>2.8333333333333332E-2</v>
-      </c>
-      <c r="AD25" s="21">
-        <v>7</v>
-      </c>
-      <c r="AE25" s="11">
+        <v>3.8888888888888888E-3</v>
+      </c>
+      <c r="AH25" s="11">
+        <f>AC25/H25</f>
+        <v>9.3888888888888883E-2</v>
+      </c>
+      <c r="AI25" s="11">
         <f>AD25/H25</f>
-        <v>3.8888888888888888E-3</v>
-      </c>
-      <c r="AF25" s="21">
-        <v>169</v>
-      </c>
-      <c r="AG25" s="11">
-        <f>AF25/H25</f>
-        <v>9.3888888888888883E-2</v>
-      </c>
-      <c r="AH25" s="21">
-        <f>Z25+AB25+AD25-AF25</f>
-        <v>369</v>
-      </c>
-      <c r="AI25" s="11">
-        <f t="shared" si="5"/>
         <v>0.20499999999999999</v>
       </c>
       <c r="AJ25" s="11">
-        <f>M25/AH25</f>
+        <f>M25/AD25</f>
         <v>0.68834688346883466</v>
       </c>
-      <c r="AK25" s="20" t="s">
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -4539,73 +4673,76 @@
       <c r="N26" s="2"/>
       <c r="O26" s="21"/>
       <c r="P26" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="23" t="e">
-        <f>(D26-E26)/D26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="23" t="e">
-        <f>F26/D26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="23" t="e">
-        <f>F26/(D26-E26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23" t="e">
-        <f>H26/D26</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="8" t="e">
-        <f>D26/E26</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X26" s="23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y26" s="11"/>
+      <c r="Y26" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z26" s="21"/>
-      <c r="AA26" s="11" t="e">
-        <f>Z26/H26</f>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="21">
+        <f>Z26+AA26+AB26-AC26</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="11" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="11" t="e">
+      <c r="AF26" s="11" t="e">
+        <f>AA26/H26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="11" t="e">
         <f>AB26/H26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="11" t="e">
+      <c r="AH26" s="11" t="e">
+        <f>AC26/H26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" s="11" t="e">
         <f>AD26/H26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="11" t="e">
-        <f>AF26/H26</f>
+      <c r="AJ26" s="11" t="e">
+        <f>M26/AD26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH26" s="21">
-        <f>Z26+AB26+AD26-AF26</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ26" s="11" t="e">
-        <f>M26/AH26</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK26" s="27"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4622,70 +4759,73 @@
       <c r="N27" s="2"/>
       <c r="O27" s="21"/>
       <c r="P27" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="23" t="e">
-        <f>(D27-E27)/D27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="23" t="e">
-        <f>F27/D27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="23" t="e">
-        <f>F27/(D27-E27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="U27" s="23"/>
       <c r="V27" s="23" t="e">
-        <f>H27/D27</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="8" t="e">
-        <f>D27/E27</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y27" s="11"/>
+      <c r="Y27" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z27" s="21"/>
-      <c r="AA27" s="11" t="e">
-        <f>Z27/H27</f>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="21">
+        <f>Z27+AA27+AB27-AC27</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="11" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="11" t="e">
+      <c r="AF27" s="11" t="e">
+        <f>AA27/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="11" t="e">
         <f>AB27/H27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="11" t="e">
+      <c r="AH27" s="11" t="e">
+        <f>AC27/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI27" s="11" t="e">
         <f>AD27/H27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="11" t="e">
-        <f>AF27/H27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH27" s="21">
-        <f>Z27+AB27+AD27-AF27</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ27" s="11"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK27" s="27"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4702,70 +4842,73 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="23" t="e">
-        <f>(D28-E28)/D28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="23" t="e">
-        <f>F28/D28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="23" t="e">
-        <f>F28/(D28-E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="U28" s="23"/>
       <c r="V28" s="23" t="e">
-        <f>H28/D28</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="8" t="e">
-        <f>D28/E28</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y28" s="11"/>
+      <c r="Y28" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z28" s="21"/>
-      <c r="AA28" s="11" t="e">
-        <f>Z28/H28</f>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="21">
+        <f>Z28+AA28+AB28-AC28</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="11" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="11" t="e">
+      <c r="AF28" s="11" t="e">
+        <f>AA28/H28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="11" t="e">
         <f>AB28/H28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="11" t="e">
+      <c r="AH28" s="11" t="e">
+        <f>AC28/H28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="11" t="e">
         <f>AD28/H28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="11" t="e">
-        <f>AF28/H28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" s="21">
-        <f>Z28+AB28+AD28-AF28</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ28" s="11"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK28" s="27"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -4782,67 +4925,70 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="23" t="e">
-        <f>(D29-E29)/D29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="23" t="e">
-        <f>F29/D29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="23" t="e">
-        <f>F29/(D29-E29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="U29" s="23"/>
       <c r="V29" s="23" t="e">
-        <f>H29/D29</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="8" t="e">
-        <f>D29/E29</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y29" s="11"/>
+      <c r="Y29" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="11" t="e">
-        <f>Z29/H29</f>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="11" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="11" t="e">
+      <c r="AF29" s="11" t="e">
+        <f>AA29/H29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="11" t="e">
         <f>AB29/H29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="11" t="e">
+      <c r="AH29" s="11" t="e">
+        <f>AC29/H29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI29" s="11" t="e">
         <f>AD29/H29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="11" t="e">
-        <f>AF29/H29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ29" s="11"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK29" s="27"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -4859,67 +5005,70 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="23" t="e">
-        <f>(D30-E30)/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="23" t="e">
-        <f>F30/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="23" t="e">
-        <f>F30/(D30-E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="U30" s="23"/>
       <c r="V30" s="23" t="e">
-        <f>H30/D30</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="8" t="e">
-        <f>D30/E30</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y30" s="11"/>
+      <c r="Y30" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z30" s="21"/>
-      <c r="AA30" s="11" t="e">
-        <f>Z30/H30</f>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="11" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="11" t="e">
+      <c r="AF30" s="11" t="e">
+        <f>AA30/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="11" t="e">
         <f>AB30/H30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="11" t="e">
+      <c r="AH30" s="11" t="e">
+        <f>AC30/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="11" t="e">
         <f>AD30/H30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="11" t="e">
-        <f>AF30/H30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ30" s="11"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK30" s="27"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -4936,46 +5085,49 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="23" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="23" t="e">
-        <f>(D31-E31)/D31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="23" t="e">
-        <f>F31/D31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="23" t="e">
-        <f>F31/(D31-E31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="23" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="23"/>
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
       <c r="X31" s="23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y31" s="11"/>
+      <c r="Y31" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z31" s="21"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
+      <c r="AD31" s="21"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
-      <c r="AH31" s="21"/>
+      <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="11"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AK31" s="27"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4992,11 +5144,14 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
+      <c r="Y32" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
@@ -5027,6 +5182,9 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
+      <c r="Y33" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
@@ -5057,6 +5215,9 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
+      <c r="Y34" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
@@ -5084,7 +5245,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
-      <c r="AH35" s="21"/>
+      <c r="AD35" s="21"/>
     </row>
     <row r="36" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
@@ -5102,7 +5263,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-      <c r="AH36" s="21"/>
+      <c r="AD36" s="21"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D37" s="2"/>
@@ -5120,7 +5281,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-      <c r="AH37" s="21"/>
+      <c r="AD37" s="21"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
@@ -5429,7 +5590,7 @@
       <c r="R55" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7617,7 +7778,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9387,7 +9548,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9402,7 +9563,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="00101现金流1" sheetId="1" r:id="rId2"/>
     <sheet name="00102现金流2" sheetId="2" r:id="rId3"/>
     <sheet name="收益率" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="246">
   <si>
     <t>Account</t>
   </si>
@@ -617,7 +618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,10 +718,6 @@
   </si>
   <si>
     <t>已用资本</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均已用资本收益率</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -731,7 +728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -747,7 +744,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -775,7 +772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -795,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -811,7 +808,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -821,7 +818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -837,7 +834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +850,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -870,7 +867,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -887,7 +884,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -915,7 +912,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -953,10 +950,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>应付/应收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>已用资本/营收</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -967,100 +960,121 @@
   <si>
     <t>|</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用资本收益率</t>
+  </si>
+  <si>
+    <t>应付/营收</t>
+  </si>
+  <si>
+    <t>N.IBM</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>H00175</t>
+  </si>
+  <si>
+    <t>吉利汽车</t>
+  </si>
+  <si>
+    <t>平均（三年）已用资本收益率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1069,7 +1083,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1077,14 +1091,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1093,7 +1107,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1101,7 +1115,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1460,41 +1474,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="6" customWidth="1"/>
     <col min="17" max="17" width="5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.75" style="6" customWidth="1"/>
-    <col min="19" max="19" width="5.625" style="23" customWidth="1"/>
-    <col min="20" max="22" width="5.375" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="2.625" style="25" customWidth="1"/>
-    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="6.625" customWidth="1"/>
-    <col min="30" max="30" width="9.125" customWidth="1"/>
-    <col min="31" max="35" width="6.625" customWidth="1"/>
-    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.625" style="25" customWidth="1"/>
-    <col min="38" max="38" width="54.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="23" customWidth="1"/>
+    <col min="20" max="22" width="5.42578125" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.5703125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="1" style="25" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="6.5703125" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" customWidth="1"/>
+    <col min="32" max="35" width="6.5703125" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="1" style="25" customWidth="1"/>
+    <col min="39" max="39" width="54.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" s="9" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -1564,7 +1580,7 @@
         <v>207</v>
       </c>
       <c r="Y1" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Z1" s="20" t="s">
         <v>208</v>
@@ -1573,7 +1589,7 @@
         <v>209</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC1" s="20" t="s">
         <v>210</v>
@@ -1582,33 +1598,36 @@
         <v>211</v>
       </c>
       <c r="AE1" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF1" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI1" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>238</v>
-      </c>
       <c r="AJ1" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1641,8 +1660,8 @@
       <c r="L2" s="21">
         <v>19100</v>
       </c>
-      <c r="M2" s="8">
-        <f t="shared" ref="M2:M34" si="0">(J2+K2+L2)/3</f>
+      <c r="M2" s="21">
+        <f t="shared" ref="M2:M35" si="0">(J2+K2+L2)/3</f>
         <v>21566.666666666668</v>
       </c>
       <c r="N2" s="2"/>
@@ -1654,7 +1673,7 @@
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="23">
-        <f t="shared" ref="Q2:Q31" si="2">(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q32" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="23">
@@ -1674,11 +1693,11 @@
         <v>0.20403658152002524</v>
       </c>
       <c r="V2" s="23">
-        <f t="shared" ref="V2:V30" si="5">H2/D2</f>
+        <f t="shared" ref="V2:V31" si="5">H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
       <c r="W2" s="8">
-        <f t="shared" ref="W2:W30" si="6">D2/E2</f>
+        <f t="shared" ref="W2:W31" si="6">D2/E2</f>
         <v>14.632432432432433</v>
       </c>
       <c r="X2" s="23">
@@ -1686,7 +1705,7 @@
         <v>9.7147147147147159E-2</v>
       </c>
       <c r="Y2" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z2" s="21">
         <v>0</v>
@@ -1695,44 +1714,48 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21">
-        <f>Z2+AA2+AB2-AC2</f>
+        <f t="shared" ref="AD2:AD29" si="7">Z2+AA2+AB2-AC2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="11">
-        <f t="shared" ref="AE2:AE30" si="7">Z2/H2</f>
+        <f t="shared" ref="AE2:AE31" si="8">Z2/H2</f>
         <v>0</v>
       </c>
       <c r="AF2" s="11">
-        <f>AA2/H2</f>
+        <f t="shared" ref="AF2:AF31" si="9">AA2/H2</f>
         <v>0</v>
       </c>
       <c r="AG2" s="11">
-        <f>AB2/H2</f>
+        <f t="shared" ref="AG2:AG31" si="10">AB2/H2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="11">
-        <f>AC2/H2</f>
+        <f t="shared" ref="AH2:AH31" si="11">AC2/H2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="11">
-        <f>AD2/H2</f>
+        <f t="shared" ref="AI2:AI31" si="12">AD2/H2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="11" t="e">
-        <f>M2/AD2</f>
+        <f>J2/AD2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK2" s="27"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AK2" s="11" t="e">
+        <f t="shared" ref="AK2:AK27" si="13">M2/AD2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL2" s="27"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="D3" s="21">
         <v>248106</v>
@@ -1761,7 +1784,7 @@
       <c r="L3" s="21">
         <v>13624</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="21">
         <f t="shared" si="0"/>
         <v>16032</v>
       </c>
@@ -1772,7 +1795,7 @@
         <v>349000</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3" si="8">O3/M3</f>
+        <f t="shared" ref="P3" si="14">O3/M3</f>
         <v>21.768962075848304</v>
       </c>
       <c r="Q3" s="23">
@@ -1808,7 +1831,7 @@
         <v>0.19333132348507687</v>
       </c>
       <c r="Y3" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z3" s="21">
         <v>22600</v>
@@ -1823,36 +1846,40 @@
         <v>35144</v>
       </c>
       <c r="AD3" s="21">
-        <f>Z3+AA3+AB3-AC3</f>
+        <f t="shared" si="7"/>
         <v>34428</v>
       </c>
       <c r="AE3" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.3888131875436209E-2</v>
       </c>
       <c r="AF3" s="11">
-        <f>AA3/H3</f>
+        <f t="shared" si="9"/>
         <v>0.12232044933364353</v>
       </c>
       <c r="AG3" s="11">
-        <f>AB3/H3</f>
+        <f t="shared" si="10"/>
         <v>7.2817308651002027E-2</v>
       </c>
       <c r="AH3" s="11">
-        <f>AC3/H3</f>
+        <f t="shared" si="11"/>
         <v>0.14600019940842168</v>
       </c>
       <c r="AI3" s="11">
-        <f>AD3/H3</f>
+        <f t="shared" si="12"/>
         <v>0.14302569045166008</v>
       </c>
       <c r="AJ3" s="11">
-        <f>M3/AD3</f>
+        <f t="shared" ref="AJ3:AJ31" si="15">J3/AD3</f>
+        <v>0.54057743696990823</v>
+      </c>
+      <c r="AK3" s="11">
+        <f t="shared" si="13"/>
         <v>0.46566747995817359</v>
       </c>
-      <c r="AK3" s="27"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL3" s="27"/>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
@@ -1889,7 +1916,7 @@
       <c r="L4" s="21">
         <v>2100</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="21">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
@@ -1900,7 +1927,7 @@
         <v>67300</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" ref="P4" si="9">O4/M4</f>
+        <f t="shared" ref="P4" si="16">O4/M4</f>
         <v>13.73469387755102</v>
       </c>
       <c r="Q4" s="23">
@@ -1932,11 +1959,11 @@
         <v>3.3676731793960926</v>
       </c>
       <c r="X4" s="23">
-        <f t="shared" ref="X4:X31" si="10">M4/E4</f>
+        <f t="shared" ref="X4:X32" si="17">M4/E4</f>
         <v>8.7033747779751328E-2</v>
       </c>
       <c r="Y4" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z4" s="21">
         <v>27000</v>
@@ -1951,44 +1978,48 @@
         <v>30600</v>
       </c>
       <c r="AD4" s="21">
-        <f>Z4+AA4+AB4-AC4</f>
+        <f t="shared" si="7"/>
         <v>29900</v>
       </c>
       <c r="AE4" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17821782178217821</v>
       </c>
       <c r="AF4" s="11">
-        <f>AA4/H4</f>
+        <f t="shared" si="9"/>
         <v>0.1306930693069307</v>
       </c>
       <c r="AG4" s="11">
-        <f>AB4/H4</f>
+        <f t="shared" si="10"/>
         <v>9.0429042904290435E-2</v>
       </c>
       <c r="AH4" s="11">
-        <f>AC4/H4</f>
+        <f t="shared" si="11"/>
         <v>0.20198019801980199</v>
       </c>
       <c r="AI4" s="11">
-        <f>AD4/H4</f>
+        <f t="shared" si="12"/>
         <v>0.19735973597359735</v>
       </c>
       <c r="AJ4" s="11">
-        <f>M4/AD4</f>
+        <f t="shared" si="15"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="AK4" s="11">
+        <f t="shared" si="13"/>
         <v>0.16387959866220736</v>
       </c>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>153</v>
@@ -2020,18 +2051,18 @@
       <c r="L5" s="21">
         <v>14252</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="21">
         <f t="shared" si="0"/>
         <v>14133</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O5" s="21">
         <v>281500</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" ref="P5" si="11">O5/M5</f>
+        <f t="shared" ref="P5" si="18">O5/M5</f>
         <v>19.917922592513975</v>
       </c>
       <c r="Q5" s="23">
@@ -2063,11 +2094,11 @@
         <v>3.3204486280793111</v>
       </c>
       <c r="X5" s="23">
-        <f t="shared" ref="X5" si="12">M5/E5</f>
+        <f t="shared" ref="X5" si="19">M5/E5</f>
         <v>0.25732388980936949</v>
       </c>
       <c r="Y5" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z5" s="21">
         <v>17681</v>
@@ -2082,39 +2113,43 @@
         <v>29541</v>
       </c>
       <c r="AD5" s="21">
-        <f>Z5+AA5+AB5-AC5</f>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="AE5" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16325644955771823</v>
       </c>
       <c r="AF5" s="11">
-        <f>AA5/H5</f>
+        <f t="shared" si="9"/>
         <v>8.3322560986870048E-2</v>
       </c>
       <c r="AG5" s="11">
-        <f>AB5/H5</f>
+        <f t="shared" si="10"/>
         <v>2.7330981883991062E-2</v>
       </c>
       <c r="AH5" s="11">
-        <f>AC5/H5</f>
+        <f t="shared" si="11"/>
         <v>0.27276504589019596</v>
       </c>
       <c r="AI5" s="11">
-        <f>AD5/H5</f>
+        <f t="shared" si="12"/>
         <v>1.1449465383834095E-3</v>
       </c>
       <c r="AJ5" s="11">
-        <f>M5/AD5</f>
+        <f t="shared" si="15"/>
+        <v>125.19354838709677</v>
+      </c>
+      <c r="AK5" s="11">
+        <f t="shared" si="13"/>
         <v>113.9758064516129</v>
       </c>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="6" t="s">
         <v>175</v>
       </c>
@@ -2151,7 +2186,7 @@
       <c r="L6" s="21">
         <v>469</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>447.66666666666669</v>
       </c>
@@ -2176,11 +2211,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="23">
-        <f t="shared" ref="T6:T31" si="13">I6/H6</f>
+        <f t="shared" ref="T6:T32" si="20">I6/H6</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="U6" s="23">
-        <f t="shared" ref="U6:U25" si="14">M6/H6</f>
+        <f t="shared" ref="U6:U27" si="21">M6/H6</f>
         <v>0.21317460317460318</v>
       </c>
       <c r="V6" s="23">
@@ -2192,11 +2227,11 @@
         <v>1.4</v>
       </c>
       <c r="X6" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.22383333333333336</v>
       </c>
       <c r="Y6" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z6" s="21">
         <v>259</v>
@@ -2211,42 +2246,46 @@
         <v>197</v>
       </c>
       <c r="AD6" s="21">
-        <f>Z6+AA6+AB6-AC6</f>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="AE6" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12333333333333334</v>
       </c>
       <c r="AF6" s="11">
-        <f>AA6/H6</f>
+        <f t="shared" si="9"/>
         <v>0.12285714285714286</v>
       </c>
       <c r="AG6" s="11">
-        <f>AB6/H6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH6" s="11">
-        <f>AC6/H6</f>
+        <f t="shared" si="11"/>
         <v>9.3809523809523815E-2</v>
       </c>
       <c r="AI6" s="11">
-        <f>AD6/H6</f>
+        <f t="shared" si="12"/>
         <v>0.15238095238095239</v>
       </c>
       <c r="AJ6" s="11">
-        <f>M6/AD6</f>
+        <f t="shared" si="15"/>
+        <v>1.3062499999999999</v>
+      </c>
+      <c r="AK6" s="11">
+        <f t="shared" si="13"/>
         <v>1.3989583333333333</v>
       </c>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN6" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:41">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2283,7 +2322,7 @@
       <c r="L7" s="21">
         <v>4400</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="21">
         <f t="shared" si="0"/>
         <v>4466.666666666667</v>
       </c>
@@ -2310,11 +2349,11 @@
         <v>0.25526315789473686</v>
       </c>
       <c r="T7" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.10912698412698413</v>
       </c>
       <c r="U7" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>8.8624338624338633E-2</v>
       </c>
       <c r="V7" s="23">
@@ -2326,11 +2365,11 @@
         <v>1.4935064935064934</v>
       </c>
       <c r="X7" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.29004329004329005</v>
       </c>
       <c r="Y7" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z7" s="21">
         <v>11400</v>
@@ -2345,37 +2384,41 @@
         <v>1800</v>
       </c>
       <c r="AD7" s="21">
-        <f>Z7+AA7+AB7-AC7</f>
+        <f t="shared" si="7"/>
         <v>12635</v>
       </c>
       <c r="AE7" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22619047619047619</v>
       </c>
       <c r="AF7" s="11">
-        <f>AA7/H7</f>
+        <f t="shared" si="9"/>
         <v>5.7539682539682536E-2</v>
       </c>
       <c r="AG7" s="11">
-        <f>AB7/H7</f>
+        <f t="shared" si="10"/>
         <v>2.6785714285714286E-3</v>
       </c>
       <c r="AH7" s="11">
-        <f>AC7/H7</f>
+        <f t="shared" si="11"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AI7" s="11">
-        <f>AD7/H7</f>
+        <f t="shared" si="12"/>
         <v>0.25069444444444444</v>
       </c>
       <c r="AJ7" s="11">
-        <f>M7/AD7</f>
+        <f t="shared" si="15"/>
+        <v>0.35615354174910963</v>
+      </c>
+      <c r="AK7" s="11">
+        <f t="shared" si="13"/>
         <v>0.35351536736578293</v>
       </c>
-      <c r="AK7" s="27"/>
-      <c r="AM7" s="6"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL7" s="27"/>
+      <c r="AN7" s="6"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -2412,7 +2455,7 @@
       <c r="L8" s="21">
         <v>580</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="21">
         <f t="shared" si="0"/>
         <v>723.66666666666663</v>
       </c>
@@ -2437,11 +2480,11 @@
         <v>0</v>
       </c>
       <c r="T8" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.39826086956521739</v>
       </c>
       <c r="U8" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.31463768115942026</v>
       </c>
       <c r="V8" s="23">
@@ -2453,11 +2496,11 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="X8" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.15076388888888889</v>
       </c>
       <c r="Y8" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z8" s="21">
         <v>959</v>
@@ -2472,39 +2515,43 @@
         <v>68</v>
       </c>
       <c r="AD8" s="21">
-        <f>Z8+AA8+AB8-AC8</f>
+        <f t="shared" si="7"/>
         <v>2869</v>
       </c>
       <c r="AE8" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41695652173913045</v>
       </c>
       <c r="AF8" s="11">
-        <f>AA8/H8</f>
+        <f t="shared" si="9"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="AG8" s="11">
-        <f>AB8/H8</f>
+        <f t="shared" si="10"/>
         <v>0.33826086956521739</v>
       </c>
       <c r="AH8" s="11">
-        <f>AC8/H8</f>
+        <f t="shared" si="11"/>
         <v>2.9565217391304348E-2</v>
       </c>
       <c r="AI8" s="11">
-        <f>AD8/H8</f>
+        <f t="shared" si="12"/>
         <v>1.2473913043478262</v>
       </c>
       <c r="AJ8" s="11">
-        <f>M8/AD8</f>
+        <f t="shared" si="15"/>
+        <v>0.28616242593238062</v>
+      </c>
+      <c r="AK8" s="11">
+        <f t="shared" si="13"/>
         <v>0.25223655164401065</v>
       </c>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="30">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -2512,7 +2559,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="21">
         <v>4700</v>
@@ -2541,7 +2588,7 @@
       <c r="L9" s="21">
         <v>262</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="21">
         <f t="shared" si="0"/>
         <v>320.33333333333331</v>
       </c>
@@ -2566,11 +2613,11 @@
         <v>5.7142857142857143E-3</v>
       </c>
       <c r="T9" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.20263157894736841</v>
       </c>
       <c r="U9" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.16859649122807016</v>
       </c>
       <c r="V9" s="23">
@@ -2582,11 +2629,11 @@
         <v>1.175</v>
       </c>
       <c r="X9" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8.0083333333333326E-2</v>
       </c>
       <c r="Y9" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z9" s="21">
         <v>2244</v>
@@ -2601,42 +2648,46 @@
         <v>172</v>
       </c>
       <c r="AD9" s="21">
-        <f>Z9+AA9+AB9-AC9</f>
+        <f t="shared" si="7"/>
         <v>3190</v>
       </c>
       <c r="AE9" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1810526315789474</v>
       </c>
       <c r="AF9" s="11">
-        <f>AA9/H9</f>
+        <f t="shared" si="9"/>
         <v>0.20105263157894737</v>
       </c>
       <c r="AG9" s="11">
-        <f>AB9/H9</f>
+        <f t="shared" si="10"/>
         <v>0.38736842105263158</v>
       </c>
       <c r="AH9" s="11">
-        <f>AC9/H9</f>
+        <f t="shared" si="11"/>
         <v>9.0526315789473691E-2</v>
       </c>
       <c r="AI9" s="11">
-        <f>AD9/H9</f>
+        <f t="shared" si="12"/>
         <v>1.6789473684210525</v>
       </c>
       <c r="AJ9" s="11">
-        <f>M9/AD9</f>
+        <f t="shared" si="15"/>
+        <v>0.10689655172413794</v>
+      </c>
+      <c r="AK9" s="11">
+        <f t="shared" si="13"/>
         <v>0.10041797283176593</v>
       </c>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM9" s="4" t="s">
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN9" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:41">
       <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
@@ -2644,7 +2695,7 @@
         <v>143</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="21">
         <v>26400</v>
@@ -2673,7 +2724,7 @@
       <c r="L10" s="21">
         <v>1000</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="21">
         <f t="shared" si="0"/>
         <v>1433.3333333333333</v>
       </c>
@@ -2698,11 +2749,11 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="T10" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.2391304347826087</v>
       </c>
       <c r="U10" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.15579710144927536</v>
       </c>
       <c r="V10" s="23">
@@ -2714,11 +2765,11 @@
         <v>1.6923076923076923</v>
       </c>
       <c r="X10" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.1880341880341873E-2</v>
       </c>
       <c r="Y10" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z10" s="21">
         <v>3085</v>
@@ -2733,39 +2784,43 @@
         <v>625</v>
       </c>
       <c r="AD10" s="21">
-        <f>Z10+AA10+AB10-AC10</f>
+        <f t="shared" si="7"/>
         <v>7860</v>
       </c>
       <c r="AE10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33532608695652172</v>
       </c>
       <c r="AF10" s="11">
-        <f>AA10/H10</f>
+        <f t="shared" si="9"/>
         <v>6.5326086956521742E-2</v>
       </c>
       <c r="AG10" s="11">
-        <f>AB10/H10</f>
+        <f t="shared" si="10"/>
         <v>0.52163043478260873</v>
       </c>
       <c r="AH10" s="11">
-        <f>AC10/H10</f>
+        <f t="shared" si="11"/>
         <v>6.7934782608695649E-2</v>
       </c>
       <c r="AI10" s="11">
-        <f>AD10/H10</f>
+        <f t="shared" si="12"/>
         <v>0.85434782608695647</v>
       </c>
       <c r="AJ10" s="11">
-        <f>M10/AD10</f>
+        <f t="shared" si="15"/>
+        <v>0.24173027989821882</v>
+      </c>
+      <c r="AK10" s="11">
+        <f t="shared" si="13"/>
         <v>0.1823579304495335</v>
       </c>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="3" t="s">
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:41" ht="45">
       <c r="A11" s="6" t="s">
         <v>146</v>
       </c>
@@ -2788,23 +2843,23 @@
         <v>2300</v>
       </c>
       <c r="H11" s="21">
-        <v>105900</v>
+        <v>105914</v>
       </c>
       <c r="I11" s="21">
-        <v>5400</v>
+        <v>5410</v>
       </c>
       <c r="J11" s="21">
-        <v>4900</v>
+        <v>4916</v>
       </c>
       <c r="K11" s="21">
-        <v>5400</v>
+        <v>5480</v>
       </c>
       <c r="L11" s="21">
-        <v>3100</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="0"/>
-        <v>4466.666666666667</v>
+        <v>3138</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="0"/>
+        <v>4511.333333333333</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="21">
@@ -2812,7 +2867,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="1"/>
-        <v>33.582089552238806</v>
+        <v>33.24959361607803</v>
       </c>
       <c r="Q11" s="23">
         <f t="shared" si="2"/>
@@ -2827,27 +2882,27 @@
         <v>0.47800742815083036</v>
       </c>
       <c r="T11" s="23">
-        <f t="shared" si="13"/>
-        <v>5.0991501416430593E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.1079177445852296E-2</v>
       </c>
       <c r="U11" s="23">
-        <f t="shared" si="14"/>
-        <v>4.2178155492603085E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.2594306072222116E-2</v>
       </c>
       <c r="V11" s="23">
         <f t="shared" si="5"/>
-        <v>0.59461310843968807</v>
+        <v>0.59469171640492091</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="6"/>
         <v>2.9732721202003338</v>
       </c>
       <c r="X11" s="23">
-        <f t="shared" si="10"/>
-        <v>7.456872565386756E-2</v>
+        <f t="shared" si="17"/>
+        <v>7.5314412910406234E-2</v>
       </c>
       <c r="Y11" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z11" s="21">
         <v>43244</v>
@@ -2862,42 +2917,46 @@
         <v>23319</v>
       </c>
       <c r="AD11" s="21">
-        <f>Z11+AA11+AB11-AC11</f>
+        <f t="shared" si="7"/>
         <v>91677</v>
       </c>
       <c r="AE11" s="11">
-        <f t="shared" si="7"/>
-        <v>0.40834749763928235</v>
+        <f t="shared" si="8"/>
+        <v>0.4082935211586759</v>
       </c>
       <c r="AF11" s="11">
-        <f>AA11/H11</f>
-        <v>0.18764872521246459</v>
+        <f t="shared" si="9"/>
+        <v>0.18762392129463526</v>
       </c>
       <c r="AG11" s="11">
-        <f>AB11/H11</f>
-        <v>0.48989612842304059</v>
+        <f t="shared" si="10"/>
+        <v>0.48983137262307153</v>
       </c>
       <c r="AH11" s="11">
-        <f>AC11/H11</f>
-        <v>0.22019830028328613</v>
+        <f t="shared" si="11"/>
+        <v>0.22016919387427536</v>
       </c>
       <c r="AI11" s="11">
-        <f>AD11/H11</f>
-        <v>0.86569405099150143</v>
+        <f t="shared" si="12"/>
+        <v>0.86557962120210741</v>
       </c>
       <c r="AJ11" s="11">
-        <f>M11/AD11</f>
-        <v>4.872178045383975E-2</v>
-      </c>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v>5.3623046129345417E-2</v>
+      </c>
+      <c r="AK11" s="11">
+        <f t="shared" si="13"/>
+        <v>4.9208998258378142E-2</v>
+      </c>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="6" t="s">
         <v>200</v>
       </c>
@@ -2934,7 +2993,7 @@
       <c r="L12" s="21">
         <v>72</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="21">
         <f t="shared" si="0"/>
         <v>103.33333333333333</v>
       </c>
@@ -2959,11 +3018,11 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="T12" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.21961932650073207</v>
       </c>
       <c r="U12" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.15129331381161543</v>
       </c>
       <c r="V12" s="23">
@@ -2975,11 +3034,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="X12" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6.0784313725490195E-2</v>
       </c>
       <c r="Y12" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z12" s="21">
         <v>491</v>
@@ -2994,37 +3053,41 @@
         <v>100</v>
       </c>
       <c r="AD12" s="21">
-        <f>Z12+AA12+AB12-AC12</f>
+        <f t="shared" si="7"/>
         <v>922</v>
       </c>
       <c r="AE12" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71888726207906295</v>
       </c>
       <c r="AF12" s="11">
-        <f>AA12/H12</f>
+        <f t="shared" si="9"/>
         <v>0.24597364568081992</v>
       </c>
       <c r="AG12" s="11">
-        <f>AB12/H12</f>
+        <f t="shared" si="10"/>
         <v>0.53147877013177158</v>
       </c>
       <c r="AH12" s="11">
-        <f>AC12/H12</f>
+        <f t="shared" si="11"/>
         <v>0.14641288433382138</v>
       </c>
       <c r="AI12" s="11">
-        <f>AD12/H12</f>
+        <f t="shared" si="12"/>
         <v>1.3499267935578332</v>
       </c>
       <c r="AJ12" s="11">
-        <f>M12/AD12</f>
+        <f t="shared" si="15"/>
+        <v>0.15184381778741865</v>
+      </c>
+      <c r="AK12" s="11">
+        <f t="shared" si="13"/>
         <v>0.11207519884309472</v>
       </c>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="7"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="7"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="6" t="s">
         <v>196</v>
       </c>
@@ -3061,7 +3124,7 @@
       <c r="L13" s="21">
         <v>2800</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="21">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
@@ -3088,11 +3151,11 @@
         <v>0</v>
       </c>
       <c r="T13" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.21079258010118043</v>
       </c>
       <c r="U13" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.12141652613827993</v>
       </c>
       <c r="V13" s="23">
@@ -3104,11 +3167,11 @@
         <v>1.3226837060702876</v>
       </c>
       <c r="X13" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.23003194888178913</v>
       </c>
       <c r="Y13" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z13" s="21">
         <v>11370</v>
@@ -3123,39 +3186,43 @@
         <v>2648</v>
       </c>
       <c r="AD13" s="21">
-        <f>Z13+AA13+AB13-AC13</f>
+        <f t="shared" si="7"/>
         <v>19412</v>
       </c>
       <c r="AE13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19173693086003374</v>
       </c>
       <c r="AF13" s="11">
-        <f>AA13/H13</f>
+        <f t="shared" si="9"/>
         <v>0.17785834738617201</v>
       </c>
       <c r="AG13" s="11">
-        <f>AB13/H13</f>
+        <f t="shared" si="10"/>
         <v>2.4114671163575044E-3</v>
       </c>
       <c r="AH13" s="11">
-        <f>AC13/H13</f>
+        <f t="shared" si="11"/>
         <v>4.4654300168634066E-2</v>
       </c>
       <c r="AI13" s="11">
-        <f>AD13/H13</f>
+        <f t="shared" si="12"/>
         <v>0.3273524451939292</v>
       </c>
       <c r="AJ13" s="11">
-        <f>M13/AD13</f>
+        <f t="shared" si="15"/>
+        <v>0.62847723057902327</v>
+      </c>
+      <c r="AK13" s="11">
+        <f t="shared" si="13"/>
         <v>0.37090459509581702</v>
       </c>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -3188,7 +3255,7 @@
       <c r="L14" s="21">
         <v>18000</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="21">
         <f t="shared" si="0"/>
         <v>18866.666666666668</v>
       </c>
@@ -3199,7 +3266,7 @@
         <v>113000</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P15" si="15">O14/M14</f>
+        <f t="shared" ref="P14:P15" si="22">O14/M14</f>
         <v>5.989399293286219</v>
       </c>
       <c r="Q14" s="23">
@@ -3215,11 +3282,11 @@
         <v>0</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" ref="T14:T15" si="16">I14/H14</f>
+        <f t="shared" ref="T14:T15" si="23">I14/H14</f>
         <v>0.40781250000000002</v>
       </c>
       <c r="U14" s="23">
-        <f t="shared" ref="U14:U15" si="17">M14/H14</f>
+        <f t="shared" ref="U14:U15" si="24">M14/H14</f>
         <v>0.29479166666666667</v>
       </c>
       <c r="V14" s="23">
@@ -3231,48 +3298,52 @@
         <v>15.434924787442773</v>
       </c>
       <c r="X14" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.12339219533464138</v>
       </c>
       <c r="Y14" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="21">
-        <f>Z14+AA14+AB14-AC14</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AF14" s="11">
-        <f>AA14/H14</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG14" s="11">
-        <f>AB14/H14</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH14" s="11">
-        <f>AC14/H14</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI14" s="11">
-        <f>AD14/H14</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="11" t="e">
-        <f>M14/AD14</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="17"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AK14" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="17"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -3305,7 +3376,7 @@
       <c r="L15" s="21">
         <v>58000</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="21">
         <f t="shared" si="0"/>
         <v>63633.333333333336</v>
       </c>
@@ -3316,7 +3387,7 @@
         <v>725000</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11.393399685699318</v>
       </c>
       <c r="Q15" s="23">
@@ -3332,11 +3403,11 @@
         <v>0</v>
       </c>
       <c r="T15" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.40987318840579712</v>
       </c>
       <c r="U15" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.28819444444444448</v>
       </c>
       <c r="V15" s="23">
@@ -3348,48 +3419,52 @@
         <v>13.035381750465548</v>
       </c>
       <c r="X15" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.13166425270708326</v>
       </c>
       <c r="Y15" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21">
-        <f>Z15+AA15+AB15-AC15</f>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AE15" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AF15" s="11">
-        <f>AA15/H15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <f>AB15/H15</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH15" s="11">
-        <f>AC15/H15</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI15" s="11">
-        <f>AD15/H15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="11" t="e">
-        <f>M15/AD15</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="17"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AK15" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="17"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -3426,7 +3501,7 @@
       <c r="L16" s="21">
         <v>2200</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="21">
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
@@ -3453,11 +3528,11 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.14609374999999999</v>
       </c>
       <c r="V16" s="23">
@@ -3469,11 +3544,11 @@
         <v>1.8113207547169812</v>
       </c>
       <c r="X16" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.17641509433962263</v>
       </c>
       <c r="Y16" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z16" s="21">
         <v>297</v>
@@ -3488,39 +3563,43 @@
         <v>683</v>
       </c>
       <c r="AD16" s="21">
-        <f>Z16+AA16+AB16-AC16</f>
+        <f t="shared" si="7"/>
         <v>1290</v>
       </c>
       <c r="AE16" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6406250000000003E-2</v>
       </c>
       <c r="AF16" s="11">
-        <f>AA16/H16</f>
+        <f t="shared" si="9"/>
         <v>0.1171875</v>
       </c>
       <c r="AG16" s="11">
-        <f>AB16/H16</f>
+        <f t="shared" si="10"/>
         <v>0.1446875</v>
       </c>
       <c r="AH16" s="11">
-        <f>AC16/H16</f>
+        <f t="shared" si="11"/>
         <v>0.10671875</v>
       </c>
       <c r="AI16" s="11">
-        <f>AD16/H16</f>
+        <f t="shared" si="12"/>
         <v>0.20156250000000001</v>
       </c>
       <c r="AJ16" s="11">
-        <f>M16/AD16</f>
+        <f t="shared" si="15"/>
+        <v>0.30155038759689923</v>
+      </c>
+      <c r="AK16" s="11">
+        <f t="shared" si="13"/>
         <v>0.72480620155038755</v>
       </c>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="14" t="s">
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:41" ht="45">
       <c r="A17" s="6" t="s">
         <v>118</v>
       </c>
@@ -3557,7 +3636,7 @@
       <c r="L17" s="21">
         <v>7500</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="21">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
@@ -3584,11 +3663,11 @@
         <v>3.888888888888889E-2</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.11974522292993631</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.11719745222929936</v>
       </c>
       <c r="V17" s="23">
@@ -3600,11 +3679,11 @@
         <v>2.1739130434782608</v>
       </c>
       <c r="X17" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="Y17" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z17" s="21">
         <v>15480</v>
@@ -3619,42 +3698,46 @@
         <v>19880</v>
       </c>
       <c r="AD17" s="21">
-        <f>Z17+AA17+AB17-AC17</f>
+        <f t="shared" si="7"/>
         <v>4402</v>
       </c>
       <c r="AE17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19719745222929935</v>
       </c>
       <c r="AF17" s="11">
-        <f>AA17/H17</f>
+        <f t="shared" si="9"/>
         <v>9.3044585987261147E-2</v>
       </c>
       <c r="AG17" s="11">
-        <f>AB17/H17</f>
+        <f t="shared" si="10"/>
         <v>1.90828025477707E-2</v>
       </c>
       <c r="AH17" s="11">
-        <f>AC17/H17</f>
+        <f t="shared" si="11"/>
         <v>0.25324840764331208</v>
       </c>
       <c r="AI17" s="11">
-        <f>AD17/H17</f>
+        <f t="shared" si="12"/>
         <v>5.6076433121019106E-2</v>
       </c>
       <c r="AJ17" s="11">
-        <f>M17/AD17</f>
+        <f t="shared" si="15"/>
+        <v>2.3171285779191275</v>
+      </c>
+      <c r="AK17" s="11">
+        <f t="shared" si="13"/>
         <v>2.089959109495684</v>
       </c>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="6" t="s">
         <v>179</v>
       </c>
@@ -3691,7 +3774,7 @@
       <c r="L18" s="21">
         <v>3500</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="21">
         <f t="shared" si="0"/>
         <v>3650</v>
       </c>
@@ -3716,11 +3799,11 @@
         <v>0.81186440677966099</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>3.569</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>3.65</v>
       </c>
       <c r="V18" s="23">
@@ -3732,11 +3815,11 @@
         <v>1.2822966507177034</v>
       </c>
       <c r="X18" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.17464114832535885</v>
       </c>
       <c r="Y18" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z18" s="21">
         <v>3482</v>
@@ -3751,42 +3834,46 @@
         <v>173</v>
       </c>
       <c r="AD18" s="21">
-        <f>Z18+AA18+AB18-AC18</f>
+        <f t="shared" si="7"/>
         <v>3732</v>
       </c>
       <c r="AE18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4820000000000002</v>
       </c>
       <c r="AF18" s="11">
-        <f>AA18/H18</f>
+        <f t="shared" si="9"/>
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AG18" s="11">
-        <f>AB18/H18</f>
+        <f t="shared" si="10"/>
         <v>0.36399999999999999</v>
       </c>
       <c r="AH18" s="11">
-        <f>AC18/H18</f>
+        <f t="shared" si="11"/>
         <v>0.17299999999999999</v>
       </c>
       <c r="AI18" s="11">
-        <f>AD18/H18</f>
+        <f t="shared" si="12"/>
         <v>3.7320000000000002</v>
       </c>
       <c r="AJ18" s="11">
-        <f>M18/AD18</f>
+        <f t="shared" si="15"/>
+        <v>0.9512325830653805</v>
+      </c>
+      <c r="AK18" s="11">
+        <f t="shared" si="13"/>
         <v>0.97802786709539125</v>
       </c>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="12" t="s">
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="AM18" s="6" t="s">
+      <c r="AN18" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:41" ht="30">
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
@@ -3821,7 +3908,7 @@
       <c r="L19" s="21">
         <v>10100</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="21">
         <f>(J19+K19+L19)/3</f>
         <v>8133.333333333333</v>
       </c>
@@ -3862,11 +3949,11 @@
         <v>3.4299835255354201</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.13399231191652938</v>
       </c>
       <c r="Y19" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z19" s="21">
         <v>134490</v>
@@ -3881,42 +3968,46 @@
         <v>4834</v>
       </c>
       <c r="AD19" s="21">
-        <f>Z19+AA19+AB19-AC19</f>
+        <f t="shared" si="7"/>
         <v>134390</v>
       </c>
       <c r="AE19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2560126582278484</v>
       </c>
       <c r="AF19" s="11">
-        <f>AA19/H19</f>
+        <f t="shared" si="9"/>
         <v>3.7436708860759491E-2</v>
       </c>
       <c r="AG19" s="11">
-        <f>AB19/H19</f>
+        <f t="shared" si="10"/>
         <v>0.11237341772151899</v>
       </c>
       <c r="AH19" s="11">
-        <f>AC19/H19</f>
+        <f t="shared" si="11"/>
         <v>0.1529746835443038</v>
       </c>
       <c r="AI19" s="11">
-        <f>AD19/H19</f>
+        <f t="shared" si="12"/>
         <v>4.2528481012658226</v>
       </c>
       <c r="AJ19" s="11">
-        <f>M19/AD19</f>
+        <f t="shared" si="15"/>
+        <v>4.8366693950442741E-2</v>
+      </c>
+      <c r="AK19" s="11">
+        <f t="shared" si="13"/>
         <v>6.0520376020041171E-2</v>
       </c>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM19" s="6" t="s">
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="20" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AN19" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -3949,7 +4040,7 @@
       <c r="L20" s="21">
         <v>65100</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="21">
         <f>(J20+K20+L20)/3</f>
         <v>79100</v>
       </c>
@@ -3983,47 +4074,51 @@
         <v>11.044395305324034</v>
       </c>
       <c r="X20" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.13454669161422012</v>
       </c>
       <c r="Y20" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="21">
-        <f>Z20+AA20+AB20-AC20</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AE20" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AF20" s="11">
-        <f>AA20/H20</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG20" s="11">
-        <f>AB20/H20</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH20" s="11">
-        <f>AC20/H20</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI20" s="11">
-        <f>AD20/H20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="11" t="e">
-        <f>M20/AD20</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK20" s="27"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AK20" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL20" s="27"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
@@ -4060,7 +4155,7 @@
       <c r="L21" s="21">
         <v>8000</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="21">
         <f t="shared" si="0"/>
         <v>7833.333333333333</v>
       </c>
@@ -4069,7 +4164,7 @@
         <v>105000</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" ref="P21:P32" si="18">O21/M21</f>
+        <f t="shared" ref="P21:P33" si="25">O21/M21</f>
         <v>13.404255319148938</v>
       </c>
       <c r="Q21" s="23">
@@ -4077,19 +4172,19 @@
         <v>0.55475113122171948</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" ref="R21:R31" si="19">F21/D21</f>
+        <f t="shared" ref="R21:R32" si="26">F21/D21</f>
         <v>1.3574660633484163E-2</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" ref="S21:S31" si="20">F21/(D21-E21)</f>
+        <f t="shared" ref="S21:S32" si="27">F21/(D21-E21)</f>
         <v>2.4469820554649267E-2</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>5.7768924302788842E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>7.802124833997344E-2</v>
       </c>
       <c r="V21" s="23">
@@ -4101,11 +4196,11 @@
         <v>2.2459349593495936</v>
       </c>
       <c r="X21" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.15921409214092141</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z21" s="21">
         <v>27718</v>
@@ -4120,39 +4215,43 @@
         <v>27961</v>
       </c>
       <c r="AD21" s="21">
-        <f>Z21+AA21+AB21-AC21</f>
+        <f t="shared" si="7"/>
         <v>6204</v>
       </c>
       <c r="AE21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27607569721115538</v>
       </c>
       <c r="AF21" s="11">
-        <f>AA21/H21</f>
+        <f t="shared" si="9"/>
         <v>5.5517928286852591E-2</v>
       </c>
       <c r="AG21" s="11">
-        <f>AB21/H21</f>
+        <f t="shared" si="10"/>
         <v>8.6952191235059768E-3</v>
       </c>
       <c r="AH21" s="11">
-        <f>AC21/H21</f>
+        <f t="shared" si="11"/>
         <v>0.278496015936255</v>
       </c>
       <c r="AI21" s="11">
-        <f>AD21/H21</f>
+        <f t="shared" si="12"/>
         <v>6.1792828685258962E-2</v>
       </c>
       <c r="AJ21" s="11">
-        <f>M21/AD21</f>
+        <f t="shared" si="15"/>
+        <v>0.80593165699548674</v>
+      </c>
+      <c r="AK21" s="11">
+        <f t="shared" si="13"/>
         <v>1.2626262626262625</v>
       </c>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="12" t="s">
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:41">
       <c r="A22" s="6" t="s">
         <v>72</v>
       </c>
@@ -4184,7 +4283,7 @@
       <c r="L22" s="21">
         <v>47500</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="21">
         <f t="shared" si="0"/>
         <v>50800</v>
       </c>
@@ -4193,7 +4292,7 @@
         <v>350000</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>6.8897637795275593</v>
       </c>
       <c r="Q22" s="23">
@@ -4201,19 +4300,19 @@
         <v>0.93539777427461024</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S22" s="23">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="23">
-        <f t="shared" si="13"/>
         <v>0.4031847133757962</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.3235668789808917</v>
       </c>
       <c r="V22" s="23">
@@ -4225,53 +4324,57 @@
         <v>15.479342836433922</v>
       </c>
       <c r="X22" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.12273496013529839</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
       <c r="AD22" s="21">
-        <f>Z22+AA22+AB22-AC22</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AE22" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AF22" s="11">
-        <f>AA22/H22</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG22" s="11">
-        <f>AB22/H22</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH22" s="11">
-        <f>AC22/H22</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI22" s="11">
-        <f>AD22/H22</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ22" s="11" t="e">
-        <f>M22/AD22</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="18" t="s">
+      <c r="AK22" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AO22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:41">
       <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
@@ -4305,7 +4408,7 @@
       <c r="L23" s="21">
         <v>1900</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="21">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
@@ -4314,7 +4417,7 @@
         <v>55000</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>26.19047619047619</v>
       </c>
       <c r="Q23" s="23">
@@ -4322,19 +4425,19 @@
         <v>0.60339943342776203</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.30594900849858359</v>
       </c>
       <c r="S23" s="23">
+        <f t="shared" si="27"/>
+        <v>0.50704225352112675</v>
+      </c>
+      <c r="T23" s="23">
         <f t="shared" si="20"/>
-        <v>0.50704225352112675</v>
-      </c>
-      <c r="T23" s="23">
-        <f t="shared" si="13"/>
         <v>0.13930348258706468</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.1044776119402985</v>
       </c>
       <c r="V23" s="23">
@@ -4346,11 +4449,11 @@
         <v>2.5214285714285714</v>
       </c>
       <c r="X23" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
       <c r="Y23" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z23" s="21">
         <v>13458</v>
@@ -4365,39 +4468,43 @@
         <v>4168</v>
       </c>
       <c r="AD23" s="21">
-        <f>Z23+AA23+AB23-AC23</f>
+        <f t="shared" si="7"/>
         <v>16889</v>
       </c>
       <c r="AE23" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66955223880597015</v>
       </c>
       <c r="AF23" s="11">
-        <f>AA23/H23</f>
+        <f t="shared" si="9"/>
         <v>0.10169154228855722</v>
       </c>
       <c r="AG23" s="11">
-        <f>AB23/H23</f>
+        <f t="shared" si="10"/>
         <v>0.27636815920398011</v>
       </c>
       <c r="AH23" s="11">
-        <f>AC23/H23</f>
+        <f t="shared" si="11"/>
         <v>0.207363184079602</v>
       </c>
       <c r="AI23" s="11">
-        <f>AD23/H23</f>
+        <f t="shared" si="12"/>
         <v>0.84024875621890549</v>
       </c>
       <c r="AJ23" s="11">
-        <f>M23/AD23</f>
+        <f t="shared" si="15"/>
+        <v>0.15394635561608147</v>
+      </c>
+      <c r="AK23" s="11">
+        <f t="shared" si="13"/>
         <v>0.1243412872283735</v>
       </c>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="3" t="s">
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:41">
       <c r="A24" s="6" t="s">
         <v>162</v>
       </c>
@@ -4434,7 +4541,7 @@
       <c r="L24" s="21">
         <v>640</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="21">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
@@ -4445,7 +4552,7 @@
         <v>18700</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>27.10144927536232</v>
       </c>
       <c r="Q24" s="23">
@@ -4453,19 +4560,19 @@
         <v>0.24590163934426229</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2.4590163934426229E-2</v>
       </c>
       <c r="S24" s="23">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="T24" s="23">
         <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="T24" s="23">
-        <f t="shared" si="13"/>
         <v>0.39800000000000002</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="V24" s="23">
@@ -4477,11 +4584,11 @@
         <v>1.326086956521739</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
       <c r="Y24" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z24" s="21">
         <v>741</v>
@@ -4496,36 +4603,40 @@
         <v>84</v>
       </c>
       <c r="AD24" s="21">
-        <f>Z24+AA24+AB24-AC24</f>
+        <f t="shared" si="7"/>
         <v>2193</v>
       </c>
       <c r="AE24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2964</v>
       </c>
       <c r="AF24" s="11">
-        <f>AA24/H24</f>
+        <f t="shared" si="9"/>
         <v>0.60560000000000003</v>
       </c>
       <c r="AG24" s="11">
-        <f>AB24/H24</f>
+        <f t="shared" si="10"/>
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="AH24" s="11">
-        <f>AC24/H24</f>
+        <f t="shared" si="11"/>
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="AI24" s="11">
-        <f>AD24/H24</f>
+        <f t="shared" si="12"/>
         <v>0.87719999999999998</v>
       </c>
       <c r="AJ24" s="11">
-        <f>M24/AD24</f>
+        <f t="shared" si="15"/>
+        <v>0.34199726402188785</v>
+      </c>
+      <c r="AK24" s="11">
+        <f t="shared" si="13"/>
         <v>0.31463748290013682</v>
       </c>
-      <c r="AK24" s="27"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AL24" s="27"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="6" t="s">
         <v>151</v>
       </c>
@@ -4562,7 +4673,7 @@
       <c r="L25" s="21">
         <v>162</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="21">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
@@ -4573,7 +4684,7 @@
         <v>8800</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>34.645669291338585</v>
       </c>
       <c r="Q25" s="23">
@@ -4581,19 +4692,19 @@
         <v>0.2</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S25" s="23">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="23">
-        <f t="shared" si="13"/>
         <v>0.22777777777777777</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.1411111111111111</v>
       </c>
       <c r="V25" s="23">
@@ -4605,11 +4716,11 @@
         <v>1.25</v>
       </c>
       <c r="X25" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.127</v>
       </c>
       <c r="Y25" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z25" s="21">
         <v>480</v>
@@ -4624,225 +4735,324 @@
         <v>169</v>
       </c>
       <c r="AD25" s="21">
-        <f>Z25+AA25+AB25-AC25</f>
+        <f t="shared" si="7"/>
         <v>369</v>
       </c>
       <c r="AE25" s="11">
+        <f t="shared" si="8"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AF25" s="11">
+        <f t="shared" si="9"/>
+        <v>2.8333333333333332E-2</v>
+      </c>
+      <c r="AG25" s="11">
+        <f t="shared" si="10"/>
+        <v>3.8888888888888888E-3</v>
+      </c>
+      <c r="AH25" s="11">
+        <f t="shared" si="11"/>
+        <v>9.3888888888888883E-2</v>
+      </c>
+      <c r="AI25" s="11">
+        <f t="shared" si="12"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AJ25" s="11">
+        <f t="shared" si="15"/>
+        <v>0.94308943089430897</v>
+      </c>
+      <c r="AK25" s="11">
+        <f t="shared" si="13"/>
+        <v>0.68834688346883466</v>
+      </c>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="21">
+        <v>84980</v>
+      </c>
+      <c r="E26" s="21">
+        <v>34810</v>
+      </c>
+      <c r="F26" s="21">
+        <v>1296</v>
+      </c>
+      <c r="G26" s="21">
+        <v>35</v>
+      </c>
+      <c r="H26" s="21">
+        <v>92760</v>
+      </c>
+      <c r="I26" s="21">
+        <v>17981</v>
+      </c>
+      <c r="J26" s="21">
+        <v>10735</v>
+      </c>
+      <c r="K26" s="21">
+        <v>5170</v>
+      </c>
+      <c r="L26" s="21">
+        <v>2288</v>
+      </c>
+      <c r="M26" s="21">
+        <f t="shared" si="0"/>
+        <v>6064.333333333333</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" s="21">
+        <v>210437</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" ref="P26" si="28">O26/M26</f>
+        <v>34.700764030121476</v>
+      </c>
+      <c r="Q26" s="23">
+        <f t="shared" ref="Q26" si="29">(D26-E26)/D26</f>
+        <v>0.59037420569545773</v>
+      </c>
+      <c r="R26" s="23">
+        <f t="shared" ref="R26" si="30">F26/D26</f>
+        <v>1.5250647211108496E-2</v>
+      </c>
+      <c r="S26" s="23">
+        <f t="shared" ref="S26" si="31">F26/(D26-E26)</f>
+        <v>2.5832170619892365E-2</v>
+      </c>
+      <c r="T26" s="23">
+        <f t="shared" ref="T26" si="32">I26/H26</f>
+        <v>0.19384432945235014</v>
+      </c>
+      <c r="U26" s="23">
+        <f t="shared" ref="U26" si="33">M26/H26</f>
+        <v>6.5376599108811259E-2</v>
+      </c>
+      <c r="V26" s="23">
+        <f t="shared" ref="V26" si="34">H26/D26</f>
+        <v>1.0915509531654506</v>
+      </c>
+      <c r="W26" s="8">
+        <f t="shared" ref="W26" si="35">D26/E26</f>
+        <v>2.4412525136455043</v>
+      </c>
+      <c r="X26" s="23">
+        <f t="shared" ref="X26" si="36">M26/E26</f>
+        <v>0.17421239107536149</v>
+      </c>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="21">
+        <v>14052</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>6027</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>33478</v>
+      </c>
+      <c r="AC26" s="21">
+        <v>47532</v>
+      </c>
+      <c r="AD26" s="21">
         <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="AF25" s="11">
-        <f>AA25/H25</f>
-        <v>2.8333333333333332E-2</v>
-      </c>
-      <c r="AG25" s="11">
-        <f>AB25/H25</f>
-        <v>3.8888888888888888E-3</v>
-      </c>
-      <c r="AH25" s="11">
-        <f>AC25/H25</f>
-        <v>9.3888888888888883E-2</v>
-      </c>
-      <c r="AI25" s="11">
-        <f>AD25/H25</f>
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="AJ25" s="11">
-        <f>M25/AD25</f>
-        <v>0.68834688346883466</v>
-      </c>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="8">
+        <v>6025</v>
+      </c>
+      <c r="AE26" s="11">
+        <f t="shared" ref="AE26" si="37">Z26/H26</f>
+        <v>0.15148771021992238</v>
+      </c>
+      <c r="AF26" s="11">
+        <f t="shared" ref="AF26" si="38">AA26/H26</f>
+        <v>6.4974126778783961E-2</v>
+      </c>
+      <c r="AG26" s="11">
+        <f t="shared" ref="AG26" si="39">AB26/H26</f>
+        <v>0.36090987494609744</v>
+      </c>
+      <c r="AH26" s="11">
+        <f t="shared" ref="AH26" si="40">AC26/H26</f>
+        <v>0.51241914618369988</v>
+      </c>
+      <c r="AI26" s="11">
+        <f t="shared" ref="AI26" si="41">AD26/H26</f>
+        <v>6.495256576110392E-2</v>
+      </c>
+      <c r="AJ26" s="11">
+        <f t="shared" si="15"/>
+        <v>1.7817427385892117</v>
+      </c>
+      <c r="AK26" s="11">
+        <f t="shared" si="13"/>
+        <v>1.0065283540802212</v>
+      </c>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="20"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="21">
+        <v>120492</v>
+      </c>
+      <c r="E27" s="21">
+        <v>17725</v>
+      </c>
+      <c r="F27" s="21">
+        <f>6986+39837</f>
+        <v>46823</v>
+      </c>
+      <c r="G27" s="21">
+        <v>164</v>
+      </c>
+      <c r="H27" s="21">
+        <v>79139</v>
+      </c>
+      <c r="I27" s="21">
+        <v>36227</v>
+      </c>
+      <c r="J27" s="21">
+        <v>5753</v>
+      </c>
+      <c r="K27" s="21">
+        <v>11872</v>
+      </c>
+      <c r="L27" s="21">
+        <v>13190</v>
+      </c>
+      <c r="M27" s="21">
+        <f t="shared" si="0"/>
+        <v>10271.666666666666</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="21">
+        <v>145410</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="25"/>
+        <v>14.156417329222782</v>
+      </c>
+      <c r="Q27" s="23">
+        <f t="shared" si="2"/>
+        <v>0.85289479799488765</v>
+      </c>
+      <c r="R27" s="23">
+        <f t="shared" si="26"/>
+        <v>0.38859841317265875</v>
+      </c>
+      <c r="S27" s="23">
+        <f t="shared" si="27"/>
+        <v>0.45562291397043797</v>
+      </c>
+      <c r="T27" s="23">
+        <f t="shared" si="20"/>
+        <v>0.45776418706326844</v>
+      </c>
+      <c r="U27" s="23">
+        <f t="shared" si="21"/>
+        <v>0.12979272756373805</v>
+      </c>
+      <c r="V27" s="23">
+        <f t="shared" si="5"/>
+        <v>0.65679879162102051</v>
+      </c>
+      <c r="W27" s="8">
+        <f t="shared" si="6"/>
+        <v>6.7978561354019744</v>
+      </c>
+      <c r="X27" s="23">
+        <f t="shared" si="17"/>
+        <v>0.57950164551010808</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>11116</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>1583</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>9909</v>
+      </c>
+      <c r="AC27" s="21">
+        <v>6451</v>
+      </c>
+      <c r="AD27" s="21">
+        <f t="shared" si="7"/>
+        <v>16157</v>
+      </c>
+      <c r="AE27" s="11">
+        <f t="shared" si="8"/>
+        <v>0.14046171925346543</v>
+      </c>
+      <c r="AF27" s="11">
+        <f t="shared" si="9"/>
+        <v>2.0002779918876914E-2</v>
+      </c>
+      <c r="AG27" s="11">
+        <f t="shared" si="10"/>
+        <v>0.12521007341513035</v>
+      </c>
+      <c r="AH27" s="11">
+        <f t="shared" si="11"/>
+        <v>8.1514803068019559E-2</v>
+      </c>
+      <c r="AI27" s="11">
+        <f t="shared" si="12"/>
+        <v>0.20415976951945311</v>
+      </c>
+      <c r="AJ27" s="11">
+        <f t="shared" si="15"/>
+        <v>0.35606857708733058</v>
+      </c>
+      <c r="AK27" s="11">
+        <f t="shared" si="13"/>
+        <v>0.63574095851127477</v>
+      </c>
+      <c r="AL27" s="27"/>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="23" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="23" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="23" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="21">
-        <f>Z26+AA26+AB26-AC26</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF26" s="11" t="e">
-        <f>AA26/H26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG26" s="11" t="e">
-        <f>AB26/H26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH26" s="11" t="e">
-        <f>AC26/H26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI26" s="11" t="e">
-        <f>AD26/H26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ26" s="11" t="e">
-        <f>M26/AD26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK26" s="27"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="23" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="23" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="23" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="21">
-        <f>Z27+AA27+AB27-AC27</f>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF27" s="11" t="e">
-        <f>AA27/H27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG27" s="11" t="e">
-        <f>AB27/H27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH27" s="11" t="e">
-        <f>AC27/H27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI27" s="11" t="e">
-        <f>AD27/H27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="27"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="21"/>
       <c r="P28" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="23" t="e">
@@ -4850,15 +5060,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="23" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="23" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="23" t="e">
-        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="23"/>
@@ -4871,61 +5081,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="23" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="21">
-        <f>Z28+AA28+AB28-AC28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE28" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF28" s="11" t="e">
-        <f>AA28/H28</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG28" s="11" t="e">
-        <f>AB28/H28</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH28" s="11" t="e">
-        <f>AC28/H28</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI28" s="11" t="e">
-        <f>AD28/H28</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="27"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8">
+      <c r="AJ28" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="27"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="23" t="e">
@@ -4933,15 +5147,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="23" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="23" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="23" t="e">
-        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="23"/>
@@ -4954,58 +5168,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="23" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="21"/>
+      <c r="AD29" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AE29" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF29" s="11" t="e">
-        <f>AA29/H29</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG29" s="11" t="e">
-        <f>AB29/H29</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH29" s="11" t="e">
-        <f>AC29/H29</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI29" s="11" t="e">
-        <f>AD29/H29</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="27"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="8">
+      <c r="AJ29" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="27"/>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="23" t="e">
@@ -5013,15 +5234,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="23" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="23" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="23" t="e">
-        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="23"/>
@@ -5034,11 +5255,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="23" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
@@ -5046,46 +5267,50 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF30" s="11" t="e">
-        <f>AA30/H30</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG30" s="11" t="e">
-        <f>AB30/H30</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="11" t="e">
-        <f>AC30/H30</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="11" t="e">
-        <f>AD30/H30</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="27"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="8">
+      <c r="AJ30" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="27"/>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="23" t="e">
@@ -5093,97 +5318,149 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="23" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="23" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="23" t="e">
-        <f t="shared" si="13"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
+      <c r="W31" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X31" s="23" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF31" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG31" s="11" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y31" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="27"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="8">
+      <c r="AH31" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI31" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ31" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="27"/>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
+      <c r="Q32" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="23" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y32" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-    </row>
-    <row r="33" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="8">
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="27"/>
+    </row>
+    <row r="33" spans="4:36">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="8"/>
+      <c r="P33" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
       <c r="Y33" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
@@ -5195,18 +5472,19 @@
       <c r="AG33" s="21"/>
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
-    </row>
-    <row r="34" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="8">
+      <c r="AJ33" s="21"/>
+    </row>
+    <row r="34" spans="4:36">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5216,7 +5494,7 @@
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="Y34" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
@@ -5228,36 +5506,53 @@
       <c r="AG34" s="21"/>
       <c r="AH34" s="21"/>
       <c r="AI34" s="21"/>
-    </row>
-    <row r="35" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="8"/>
+      <c r="AJ34" s="21"/>
+    </row>
+    <row r="35" spans="4:36">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
+      <c r="Y35" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
-    </row>
-    <row r="36" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="8"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+    </row>
+    <row r="36" spans="4:36">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="8"/>
@@ -5265,17 +5560,17 @@
       <c r="R36" s="23"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="8"/>
+    <row r="37" spans="4:36">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="8"/>
@@ -5283,58 +5578,59 @@
       <c r="R37" s="23"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="8"/>
+    <row r="38" spans="4:36">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-    </row>
-    <row r="39" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="8"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="AD38" s="21"/>
+    </row>
+    <row r="39" spans="4:36">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="8"/>
+    <row r="40" spans="4:36">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:36">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -5351,7 +5647,7 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:36">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -5368,7 +5664,7 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:36">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -5385,7 +5681,7 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:36">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -5402,7 +5698,7 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:36">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -5419,7 +5715,7 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:36">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -5436,7 +5732,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:36">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -5453,7 +5749,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="4:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:36">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5470,7 +5766,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:18">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5487,7 +5783,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:18">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5504,7 +5800,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:18">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5521,7 +5817,7 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:18">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5538,7 +5834,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:18">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5555,7 +5851,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:18">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5572,7 +5868,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:18">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5588,6 +5884,23 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="4:18">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -5605,12 +5918,12 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5642,7 +5955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5672,7 +5985,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5702,7 +6015,7 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5732,7 +6045,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5762,7 +6075,7 @@
         <v>-1742.0000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5792,7 +6105,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5822,7 +6135,7 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5852,7 +6165,7 @@
         <v>-3634.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5882,7 +6195,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5912,7 +6225,7 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5939,7 +6252,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5969,7 +6282,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5999,7 +6312,7 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6029,7 +6342,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6059,7 +6372,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6089,7 +6402,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6119,7 +6432,7 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6149,7 +6462,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6179,7 +6492,7 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +6522,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6239,7 +6552,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -6266,7 +6579,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -6296,7 +6609,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -6326,7 +6639,7 @@
         <v>-3734.0000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6356,7 +6669,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -6386,7 +6699,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -6416,7 +6729,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6446,7 +6759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -6476,7 +6789,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6503,7 +6816,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -6533,7 +6846,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -6563,7 +6876,7 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -6593,7 +6906,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -6623,7 +6936,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -6653,7 +6966,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -6683,7 +6996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -6713,7 +7026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6743,7 +7056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -6773,7 +7086,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -6803,7 +7116,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -6833,7 +7146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -6863,7 +7176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -6893,7 +7206,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -6920,7 +7233,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -6950,7 +7263,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -6977,7 +7290,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -7007,7 +7320,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7037,7 +7350,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -7064,7 +7377,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7091,7 +7404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7121,7 +7434,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7154,7 +7467,7 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -7184,7 +7497,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -7214,7 +7527,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -7241,7 +7554,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7271,7 +7584,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -7301,7 +7614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -7331,7 +7644,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7361,7 +7674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -7391,7 +7704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -7421,7 +7734,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -7451,7 +7764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -7481,7 +7794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -7511,7 +7824,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -7538,7 +7851,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -7571,7 +7884,7 @@
         <v>-3068</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -7598,7 +7911,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -7631,7 +7944,7 @@
         <v>-5750</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -7661,7 +7974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -7688,7 +8001,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -7715,57 +8028,57 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1">
       <c r="B72">
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" hidden="1">
       <c r="B73">
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" hidden="1">
       <c r="B74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" hidden="1">
       <c r="B75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" hidden="1">
       <c r="B76">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" hidden="1">
       <c r="B77">
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" hidden="1">
       <c r="B78">
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1">
       <c r="B79">
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" hidden="1">
       <c r="B80">
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" hidden="1">
       <c r="B81">
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" hidden="1">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -7792,13 +8105,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7830,7 +8143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -7863,7 +8176,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -7896,7 +8209,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -7929,7 +8242,7 @@
         <v>-4676.09</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -7962,7 +8275,7 @@
         <v>-4947.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -7995,7 +8308,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -8025,7 +8338,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -8058,7 +8371,7 @@
         <v>-2201.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -8088,7 +8401,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -8121,7 +8434,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -8154,7 +8467,7 @@
         <v>-1972.0400000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -8187,7 +8500,7 @@
         <v>-1826</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -8217,7 +8530,7 @@
         <v>-5576</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -8250,7 +8563,7 @@
         <v>-3797</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -8283,7 +8596,7 @@
         <v>-3699</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -8316,7 +8629,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -8349,7 +8662,7 @@
         <v>-2552.0500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8385,7 +8698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -8415,7 +8728,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -8448,7 +8761,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -8481,7 +8794,7 @@
         <v>-6452.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -8514,7 +8827,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -8547,7 +8860,7 @@
         <v>-9311.19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -8580,7 +8893,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -8610,7 +8923,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -8640,7 +8953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -8673,7 +8986,7 @@
         <v>-4836</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -8706,7 +9019,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -8736,7 +9049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -8766,7 +9079,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -8796,7 +9109,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -8829,7 +9142,7 @@
         <v>-3095</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -8862,7 +9175,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -8895,7 +9208,7 @@
         <v>-2849</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -8928,7 +9241,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -8958,7 +9271,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -8991,7 +9304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -9021,7 +9334,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -9054,7 +9367,7 @@
         <v>-4229</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -9084,7 +9397,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -9117,7 +9430,7 @@
         <v>-2804</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -9147,7 +9460,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -9180,7 +9493,7 @@
         <v>-2783</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -9213,7 +9526,7 @@
         <v>-3645</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -9240,7 +9553,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -9267,7 +9580,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -9300,7 +9613,7 @@
         <v>-3061.9999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -9333,7 +9646,7 @@
         <v>-5037</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -9360,7 +9673,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -9387,7 +9700,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -9420,7 +9733,7 @@
         <v>-4878</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -9453,7 +9766,7 @@
         <v>-2977</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="B53">
         <v>2018</v>
       </c>
@@ -9483,7 +9796,7 @@
         <v>-5531.0000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="B54">
         <v>2018</v>
       </c>
@@ -9492,55 +9805,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="J56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="J57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="J58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="J59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="J60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="J61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="J62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="J63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9561,9 +9874,23 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="253">
   <si>
     <t>Account</t>
   </si>
@@ -618,7 +618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,7 +728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -744,7 +744,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -772,7 +772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -808,7 +808,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -818,7 +818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -834,7 +834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -850,7 +850,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -867,7 +867,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -884,7 +884,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -912,7 +912,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -982,99 +982,140 @@
   <si>
     <t>平均（三年）已用资本收益率</t>
   </si>
+  <si>
+    <t>A601390</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国中铁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8y04</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A601857</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A601986</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国核电</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1083,7 +1124,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1091,14 +1132,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1107,7 +1148,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1115,7 +1156,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1147,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1199,6 +1240,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,43 +1516,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="7.25" style="6" customWidth="1"/>
     <col min="17" max="17" width="5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" style="23" customWidth="1"/>
-    <col min="20" max="22" width="5.42578125" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="5.75" style="6" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="23" customWidth="1"/>
+    <col min="20" max="22" width="5.375" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.625" style="6" customWidth="1"/>
     <col min="25" max="25" width="1" style="25" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="6.5703125" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" customWidth="1"/>
-    <col min="31" max="31" width="7.140625" customWidth="1"/>
-    <col min="32" max="35" width="6.5703125" customWidth="1"/>
-    <col min="36" max="36" width="8.85546875" customWidth="1"/>
-    <col min="37" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" customWidth="1"/>
+    <col min="28" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.125" customWidth="1"/>
+    <col min="31" max="31" width="7.125" customWidth="1"/>
+    <col min="32" max="35" width="6.625" customWidth="1"/>
+    <col min="36" max="36" width="8.875" customWidth="1"/>
+    <col min="37" max="37" width="9.375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="1" style="25" customWidth="1"/>
-    <col min="39" max="39" width="54.42578125" style="3" customWidth="1"/>
+    <col min="39" max="39" width="54.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="9" customFormat="1" ht="57.75" customHeight="1">
+    <row r="1" spans="1:41" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -1627,7 +1672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1661,7 +1706,7 @@
         <v>19100</v>
       </c>
       <c r="M2" s="21">
-        <f t="shared" ref="M2:M35" si="0">(J2+K2+L2)/3</f>
+        <f t="shared" ref="M2:M38" si="0">(J2+K2+L2)/3</f>
         <v>21566.666666666668</v>
       </c>
       <c r="N2" s="2"/>
@@ -1673,15 +1718,15 @@
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="23">
-        <f t="shared" ref="Q2:Q32" si="2">(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q35" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="23">
-        <f t="shared" ref="R2:R19" si="3">F2/D2</f>
+        <f t="shared" ref="R2:R21" si="3">F2/D2</f>
         <v>0</v>
       </c>
       <c r="S2" s="23">
-        <f t="shared" ref="S2:S19" si="4">F2/(D2-E2)</f>
+        <f t="shared" ref="S2:S21" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
       <c r="T2" s="23">
@@ -1693,11 +1738,11 @@
         <v>0.20403658152002524</v>
       </c>
       <c r="V2" s="23">
-        <f t="shared" ref="V2:V31" si="5">H2/D2</f>
+        <f t="shared" ref="V2:V34" si="5">H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
       <c r="W2" s="8">
-        <f t="shared" ref="W2:W31" si="6">D2/E2</f>
+        <f t="shared" ref="W2:W34" si="6">D2/E2</f>
         <v>14.632432432432433</v>
       </c>
       <c r="X2" s="23">
@@ -1714,27 +1759,27 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21">
-        <f t="shared" ref="AD2:AD29" si="7">Z2+AA2+AB2-AC2</f>
+        <f t="shared" ref="AD2:AD32" si="7">Z2+AA2+AB2-AC2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="11">
-        <f t="shared" ref="AE2:AE31" si="8">Z2/H2</f>
+        <f t="shared" ref="AE2:AE34" si="8">Z2/H2</f>
         <v>0</v>
       </c>
       <c r="AF2" s="11">
-        <f t="shared" ref="AF2:AF31" si="9">AA2/H2</f>
+        <f t="shared" ref="AF2:AF34" si="9">AA2/H2</f>
         <v>0</v>
       </c>
       <c r="AG2" s="11">
-        <f t="shared" ref="AG2:AG31" si="10">AB2/H2</f>
+        <f t="shared" ref="AG2:AG34" si="10">AB2/H2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="11">
-        <f t="shared" ref="AH2:AH31" si="11">AC2/H2</f>
+        <f t="shared" ref="AH2:AH34" si="11">AC2/H2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="11">
-        <f t="shared" ref="AI2:AI31" si="12">AD2/H2</f>
+        <f t="shared" ref="AI2:AI34" si="12">AD2/H2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="11" t="e">
@@ -1742,12 +1787,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" s="11" t="e">
-        <f t="shared" ref="AK2:AK27" si="13">M2/AD2</f>
+        <f t="shared" ref="AK2:AK30" si="13">M2/AD2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" s="27"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>230</v>
       </c>
@@ -1870,7 +1915,7 @@
         <v>0.14302569045166008</v>
       </c>
       <c r="AJ3" s="11">
-        <f t="shared" ref="AJ3:AJ31" si="15">J3/AD3</f>
+        <f t="shared" ref="AJ3:AJ34" si="15">J3/AD3</f>
         <v>0.54057743696990823</v>
       </c>
       <c r="AK3" s="11">
@@ -1879,7 +1924,7 @@
       </c>
       <c r="AL3" s="27"/>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
@@ -1959,7 +2004,7 @@
         <v>3.3676731793960926</v>
       </c>
       <c r="X4" s="23">
-        <f t="shared" ref="X4:X32" si="17">M4/E4</f>
+        <f t="shared" ref="X4:X35" si="17">M4/E4</f>
         <v>8.7033747779751328E-2</v>
       </c>
       <c r="Y4" s="24" t="s">
@@ -2014,7 +2059,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>226</v>
       </c>
@@ -2149,7 +2194,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>175</v>
       </c>
@@ -2211,11 +2256,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="23">
-        <f t="shared" ref="T6:T32" si="20">I6/H6</f>
+        <f t="shared" ref="T6:T35" si="20">I6/H6</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="U6" s="23">
-        <f t="shared" ref="U6:U27" si="21">M6/H6</f>
+        <f t="shared" ref="U6:U30" si="21">M6/H6</f>
         <v>0.21317460317460318</v>
       </c>
       <c r="V6" s="23">
@@ -2285,7 +2330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2418,7 +2463,7 @@
       <c r="AL7" s="27"/>
       <c r="AN7" s="6"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -2551,7 +2596,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="30">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -2687,7 +2732,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
@@ -2820,7 +2865,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="45">
+    <row r="11" spans="1:41" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>146</v>
       </c>
@@ -2956,7 +3001,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>200</v>
       </c>
@@ -3087,7 +3132,7 @@
       <c r="AL12" s="27"/>
       <c r="AM12" s="7"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>196</v>
       </c>
@@ -3222,7 +3267,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -3343,7 +3388,7 @@
       <c r="AL14" s="27"/>
       <c r="AM14" s="17"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -3464,7 +3509,7 @@
       <c r="AL15" s="27"/>
       <c r="AM15" s="17"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -3599,7 +3644,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="45">
+    <row r="17" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>118</v>
       </c>
@@ -3737,7 +3782,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>179</v>
       </c>
@@ -3873,7 +3918,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="30">
+    <row r="19" spans="1:41" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
@@ -4007,7 +4052,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -4056,7 +4101,14 @@
         <f t="shared" si="2"/>
         <v>0.90945633759433231</v>
       </c>
-      <c r="R20" s="23"/>
+      <c r="R20" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T20" s="23">
         <f>I20/H20</f>
         <v>0.15121239335428829</v>
@@ -4118,140 +4170,137 @@
       </c>
       <c r="AL20" s="27"/>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="21">
-        <v>110500</v>
+        <v>844083</v>
       </c>
       <c r="E21" s="21">
-        <v>49200</v>
+        <v>169719</v>
       </c>
       <c r="F21" s="21">
-        <v>1500</v>
+        <v>138024</v>
       </c>
       <c r="G21" s="21">
-        <v>139</v>
+        <v>3537</v>
       </c>
       <c r="H21" s="21">
-        <v>100400</v>
+        <v>689944</v>
       </c>
       <c r="I21" s="21">
-        <v>5800</v>
+        <v>19247</v>
       </c>
       <c r="J21" s="21">
-        <v>5000</v>
+        <v>14203</v>
       </c>
       <c r="K21" s="21">
-        <v>10500</v>
+        <v>12702</v>
       </c>
       <c r="L21" s="21">
-        <v>8000</v>
+        <v>11786</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="0"/>
-        <v>7833.333333333333</v>
-      </c>
-      <c r="N21" s="2"/>
+        <f>(J21+K21+L21)/3</f>
+        <v>12897</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="O21" s="21">
-        <v>105000</v>
+        <v>169200</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" ref="P21:P33" si="25">O21/M21</f>
-        <v>13.404255319148938</v>
+        <f>O21/M21</f>
+        <v>13.119330076762038</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="2"/>
-        <v>0.55475113122171948</v>
+        <v>0.79893091082275081</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" ref="R21:R32" si="26">F21/D21</f>
-        <v>1.3574660633484163E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.16351946431808245</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" ref="S21:S32" si="27">F21/(D21-E21)</f>
-        <v>2.4469820554649267E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.20467284730501628</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="20"/>
-        <v>5.7768924302788842E-2</v>
+        <f>I21/H21</f>
+        <v>2.7896466959637305E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="21"/>
-        <v>7.802124833997344E-2</v>
+        <f>M21/H21</f>
+        <v>1.8692821446378256E-2</v>
       </c>
       <c r="V21" s="23">
         <f t="shared" si="5"/>
-        <v>0.90859728506787329</v>
+        <v>0.81738881128988505</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="6"/>
-        <v>2.2459349593495936</v>
+        <v>4.9734148798896998</v>
       </c>
       <c r="X21" s="23">
         <f t="shared" si="17"/>
-        <v>0.15921409214092141</v>
-      </c>
-      <c r="Y21" s="24" t="s">
-        <v>237</v>
-      </c>
+        <v>7.599031340038534E-2</v>
+      </c>
+      <c r="Y21" s="24"/>
       <c r="Z21" s="21">
-        <v>27718</v>
+        <v>52368</v>
       </c>
       <c r="AA21" s="21">
-        <v>5574</v>
+        <v>242463</v>
       </c>
       <c r="AB21" s="21">
-        <v>873</v>
+        <v>157804</v>
       </c>
       <c r="AC21" s="21">
-        <v>27961</v>
+        <v>288407</v>
       </c>
       <c r="AD21" s="21">
         <f t="shared" si="7"/>
-        <v>6204</v>
+        <v>164228</v>
       </c>
       <c r="AE21" s="11">
         <f t="shared" si="8"/>
-        <v>0.27607569721115538</v>
+        <v>7.5901812320999962E-2</v>
       </c>
       <c r="AF21" s="11">
         <f t="shared" si="9"/>
-        <v>5.5517928286852591E-2</v>
+        <v>0.35142417355611472</v>
       </c>
       <c r="AG21" s="11">
         <f t="shared" si="10"/>
-        <v>8.6952191235059768E-3</v>
+        <v>0.22872001205894971</v>
       </c>
       <c r="AH21" s="11">
         <f t="shared" si="11"/>
-        <v>0.278496015936255</v>
+        <v>0.41801508528228376</v>
       </c>
       <c r="AI21" s="11">
         <f t="shared" si="12"/>
-        <v>6.1792828685258962E-2</v>
+        <v>0.2380309126537806</v>
       </c>
       <c r="AJ21" s="11">
         <f t="shared" si="15"/>
-        <v>0.80593165699548674</v>
+        <v>8.6483425481647461E-2</v>
       </c>
       <c r="AK21" s="11">
         <f t="shared" si="13"/>
-        <v>1.2626262626262625</v>
+        <v>7.8531066565993624E-2</v>
       </c>
       <c r="AL21" s="27"/>
-      <c r="AM21" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>72</v>
       </c>
@@ -4284,7 +4333,7 @@
         <v>47500</v>
       </c>
       <c r="M22" s="21">
-        <f t="shared" si="0"/>
+        <f>(J22+K22+L22)/3</f>
         <v>50800</v>
       </c>
       <c r="N22" s="2"/>
@@ -4292,39 +4341,39 @@
         <v>350000</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="25"/>
+        <f>O22/M22</f>
         <v>6.8897637795275593</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="2"/>
+        <f>(D22-E22)/D22</f>
         <v>0.93539777427461024</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="26"/>
+        <f>F22/D22</f>
         <v>0</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="27"/>
+        <f>F22/(D22-E22)</f>
         <v>0</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" si="20"/>
+        <f>I22/H22</f>
         <v>0.4031847133757962</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="21"/>
+        <f>M22/H22</f>
         <v>0.3235668789808917</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" si="5"/>
+        <f>H22/D22</f>
         <v>2.45048307293699E-2</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="6"/>
+        <f>D22/E22</f>
         <v>15.479342836433922</v>
       </c>
       <c r="X22" s="23">
-        <f t="shared" si="17"/>
+        <f>M22/E22</f>
         <v>0.12273496013529839</v>
       </c>
       <c r="Y22" s="24" t="s">
@@ -4335,35 +4384,35 @@
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
       <c r="AD22" s="21">
-        <f t="shared" si="7"/>
+        <f>Z22+AA22+AB22-AC22</f>
         <v>0</v>
       </c>
       <c r="AE22" s="11">
-        <f t="shared" si="8"/>
+        <f>Z22/H22</f>
         <v>0</v>
       </c>
       <c r="AF22" s="11">
-        <f t="shared" si="9"/>
+        <f>AA22/H22</f>
         <v>0</v>
       </c>
       <c r="AG22" s="11">
-        <f t="shared" si="10"/>
+        <f>AB22/H22</f>
         <v>0</v>
       </c>
       <c r="AH22" s="11">
-        <f t="shared" si="11"/>
+        <f>AC22/H22</f>
         <v>0</v>
       </c>
       <c r="AI22" s="11">
-        <f t="shared" si="12"/>
+        <f>AD22/H22</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f>J22/AD22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK22" s="11" t="e">
-        <f t="shared" si="13"/>
+        <f>M22/AD22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL22" s="27"/>
@@ -4374,926 +4423,1064 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="D23" s="21">
-        <v>35300</v>
+        <v>110500</v>
       </c>
       <c r="E23" s="21">
-        <v>14000</v>
+        <v>49200</v>
       </c>
       <c r="F23" s="21">
-        <v>10800</v>
+        <v>1500</v>
       </c>
       <c r="G23" s="21">
-        <v>400</v>
+        <v>139</v>
       </c>
       <c r="H23" s="21">
-        <v>20100</v>
+        <v>100400</v>
       </c>
       <c r="I23" s="21">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="J23" s="21">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="K23" s="21">
-        <v>1800</v>
+        <v>10500</v>
       </c>
       <c r="L23" s="21">
-        <v>1900</v>
+        <v>8000</v>
       </c>
       <c r="M23" s="21">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>7833.333333333333</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="21">
+        <v>105000</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" ref="P23:P36" si="25">O23/M23</f>
+        <v>13.404255319148938</v>
+      </c>
+      <c r="Q23" s="23">
+        <f t="shared" si="2"/>
+        <v>0.55475113122171948</v>
+      </c>
+      <c r="R23" s="23">
+        <f t="shared" ref="R23:R35" si="26">F23/D23</f>
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="S23" s="23">
+        <f t="shared" ref="S23:S35" si="27">F23/(D23-E23)</f>
+        <v>2.4469820554649267E-2</v>
+      </c>
+      <c r="T23" s="23">
+        <f t="shared" si="20"/>
+        <v>5.7768924302788842E-2</v>
+      </c>
+      <c r="U23" s="23">
+        <f t="shared" si="21"/>
+        <v>7.802124833997344E-2</v>
+      </c>
+      <c r="V23" s="23">
+        <f t="shared" si="5"/>
+        <v>0.90859728506787329</v>
+      </c>
+      <c r="W23" s="8">
+        <f t="shared" si="6"/>
+        <v>2.2459349593495936</v>
+      </c>
+      <c r="X23" s="23">
+        <f t="shared" si="17"/>
+        <v>0.15921409214092141</v>
+      </c>
+      <c r="Y23" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>27718</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>5574</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>873</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>27961</v>
+      </c>
+      <c r="AD23" s="21">
+        <f t="shared" si="7"/>
+        <v>6204</v>
+      </c>
+      <c r="AE23" s="11">
+        <f t="shared" si="8"/>
+        <v>0.27607569721115538</v>
+      </c>
+      <c r="AF23" s="11">
+        <f t="shared" si="9"/>
+        <v>5.5517928286852591E-2</v>
+      </c>
+      <c r="AG23" s="11">
+        <f t="shared" si="10"/>
+        <v>8.6952191235059768E-3</v>
+      </c>
+      <c r="AH23" s="11">
+        <f t="shared" si="11"/>
+        <v>0.278496015936255</v>
+      </c>
+      <c r="AI23" s="11">
+        <f t="shared" si="12"/>
+        <v>6.1792828685258962E-2</v>
+      </c>
+      <c r="AJ23" s="11">
+        <f t="shared" si="15"/>
+        <v>0.80593165699548674</v>
+      </c>
+      <c r="AK23" s="11">
+        <f t="shared" si="13"/>
+        <v>1.2626262626262625</v>
+      </c>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="21">
+        <v>2404910</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1381610</v>
+      </c>
+      <c r="F24" s="21">
+        <f>93881+81536+195192+94666</f>
+        <v>465275</v>
+      </c>
+      <c r="G24" s="21">
+        <v>21648</v>
+      </c>
+      <c r="H24" s="21">
+        <v>2015890</v>
+      </c>
+      <c r="I24" s="21">
+        <v>57769</v>
+      </c>
+      <c r="J24" s="21">
+        <v>36788</v>
+      </c>
+      <c r="K24" s="21">
+        <v>29414</v>
+      </c>
+      <c r="L24" s="21">
+        <v>42364</v>
+      </c>
+      <c r="M24" s="21">
+        <f t="shared" si="0"/>
+        <v>36188.666666666664</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O24" s="21">
+        <v>1370000</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="25"/>
+        <v>37.857156015695523</v>
+      </c>
+      <c r="Q24" s="23">
+        <f t="shared" si="2"/>
+        <v>0.42550448873346614</v>
+      </c>
+      <c r="R24" s="23">
+        <f t="shared" si="26"/>
+        <v>0.1934687784574059</v>
+      </c>
+      <c r="S24" s="23">
+        <f t="shared" si="27"/>
+        <v>0.45468093423238543</v>
+      </c>
+      <c r="T24" s="23">
+        <f t="shared" si="20"/>
+        <v>2.8656821552763296E-2</v>
+      </c>
+      <c r="U24" s="23">
+        <f t="shared" si="21"/>
+        <v>1.7951707021051082E-2</v>
+      </c>
+      <c r="V24" s="23">
+        <f t="shared" si="5"/>
+        <v>0.83823926882918698</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" si="6"/>
+        <v>1.740657638552124</v>
+      </c>
+      <c r="X24" s="23">
+        <f t="shared" si="17"/>
+        <v>2.6193112865907649E-2</v>
+      </c>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="21">
+        <v>694359</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>144669</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>53143</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>224514</v>
+      </c>
+      <c r="AD24" s="21">
+        <f t="shared" si="7"/>
+        <v>667657</v>
+      </c>
+      <c r="AE24" s="11">
+        <f t="shared" si="8"/>
+        <v>0.34444290115036041</v>
+      </c>
+      <c r="AF24" s="11">
+        <f t="shared" si="9"/>
+        <v>7.1764332379246884E-2</v>
+      </c>
+      <c r="AG24" s="11">
+        <f t="shared" si="10"/>
+        <v>2.6362053485061189E-2</v>
+      </c>
+      <c r="AH24" s="11">
+        <f t="shared" si="11"/>
+        <v>0.1113721482819003</v>
+      </c>
+      <c r="AI24" s="11">
+        <f t="shared" si="12"/>
+        <v>0.33119713873276818</v>
+      </c>
+      <c r="AJ24" s="11">
+        <f t="shared" si="15"/>
+        <v>5.5100148729062978E-2</v>
+      </c>
+      <c r="AK24" s="11">
+        <f t="shared" si="13"/>
+        <v>5.420248221267307E-2</v>
+      </c>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="12"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="21">
+        <v>35300</v>
+      </c>
+      <c r="E25" s="21">
+        <v>14000</v>
+      </c>
+      <c r="F25" s="21">
+        <v>10800</v>
+      </c>
+      <c r="G25" s="21">
+        <v>400</v>
+      </c>
+      <c r="H25" s="21">
+        <v>20100</v>
+      </c>
+      <c r="I25" s="21">
+        <v>2800</v>
+      </c>
+      <c r="J25" s="21">
+        <v>2600</v>
+      </c>
+      <c r="K25" s="21">
+        <v>1800</v>
+      </c>
+      <c r="L25" s="21">
+        <v>1900</v>
+      </c>
+      <c r="M25" s="21">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="21">
         <v>55000</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P25" s="8">
         <f t="shared" si="25"/>
         <v>26.19047619047619</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q25" s="23">
         <f t="shared" si="2"/>
         <v>0.60339943342776203</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R25" s="23">
         <f t="shared" si="26"/>
         <v>0.30594900849858359</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S25" s="23">
         <f t="shared" si="27"/>
         <v>0.50704225352112675</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T25" s="23">
         <f t="shared" si="20"/>
         <v>0.13930348258706468</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U25" s="23">
         <f t="shared" si="21"/>
         <v>0.1044776119402985</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V25" s="23">
         <f t="shared" si="5"/>
         <v>0.56940509915014159</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W25" s="8">
         <f t="shared" si="6"/>
         <v>2.5214285714285714</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X25" s="23">
         <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
-      <c r="Y23" s="24" t="s">
+      <c r="Y25" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z25" s="21">
         <v>13458</v>
       </c>
-      <c r="AA23" s="21">
+      <c r="AA25" s="21">
         <v>2044</v>
       </c>
-      <c r="AB23" s="21">
+      <c r="AB25" s="21">
         <v>5555</v>
       </c>
-      <c r="AC23" s="21">
+      <c r="AC25" s="21">
         <v>4168</v>
       </c>
-      <c r="AD23" s="21">
+      <c r="AD25" s="21">
         <f t="shared" si="7"/>
         <v>16889</v>
       </c>
-      <c r="AE23" s="11">
+      <c r="AE25" s="11">
         <f t="shared" si="8"/>
         <v>0.66955223880597015</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AF25" s="11">
         <f t="shared" si="9"/>
         <v>0.10169154228855722</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AG25" s="11">
         <f t="shared" si="10"/>
         <v>0.27636815920398011</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AH25" s="11">
         <f t="shared" si="11"/>
         <v>0.207363184079602</v>
       </c>
-      <c r="AI23" s="11">
+      <c r="AI25" s="11">
         <f t="shared" si="12"/>
         <v>0.84024875621890549</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AJ25" s="11">
         <f t="shared" si="15"/>
         <v>0.15394635561608147</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AK25" s="11">
         <f t="shared" si="13"/>
         <v>0.1243412872283735</v>
       </c>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="3" t="s">
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
-      <c r="A24" s="6" t="s">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="21">
+        <v>282046</v>
+      </c>
+      <c r="E26" s="21">
+        <v>71725</v>
+      </c>
+      <c r="F26" s="21">
+        <f>12038+14549+152801</f>
+        <v>179388</v>
+      </c>
+      <c r="G26" s="21">
+        <v>4325</v>
+      </c>
+      <c r="H26" s="21">
+        <v>30008</v>
+      </c>
+      <c r="I26" s="21">
+        <v>6180</v>
+      </c>
+      <c r="J26" s="21">
+        <v>8108</v>
+      </c>
+      <c r="K26" s="21">
+        <v>7108</v>
+      </c>
+      <c r="L26" s="21">
+        <v>5156</v>
+      </c>
+      <c r="M26" s="21">
+        <f t="shared" si="0"/>
+        <v>6790.666666666667</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" s="21">
+        <v>103354</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="25"/>
+        <v>15.22000785391714</v>
+      </c>
+      <c r="Q26" s="23">
+        <f t="shared" si="2"/>
+        <v>0.7456975103351936</v>
+      </c>
+      <c r="R26" s="23">
+        <f t="shared" si="26"/>
+        <v>0.63602391099324229</v>
+      </c>
+      <c r="S26" s="23">
+        <f t="shared" si="27"/>
+        <v>0.85292481492575634</v>
+      </c>
+      <c r="T26" s="23">
+        <f t="shared" si="20"/>
+        <v>0.20594508131165024</v>
+      </c>
+      <c r="U26" s="23">
+        <f t="shared" si="21"/>
+        <v>0.22629521016617793</v>
+      </c>
+      <c r="V26" s="23">
+        <f t="shared" si="5"/>
+        <v>0.10639399246931351</v>
+      </c>
+      <c r="W26" s="8">
+        <f t="shared" si="6"/>
+        <v>3.9323248518647613</v>
+      </c>
+      <c r="X26" s="23">
+        <f t="shared" si="17"/>
+        <v>9.4676426164749625E-2</v>
+      </c>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="21">
+        <v>128176</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>13599</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>3552</v>
+      </c>
+      <c r="AC26" s="21">
+        <v>11926</v>
+      </c>
+      <c r="AD26" s="21">
+        <f t="shared" si="7"/>
+        <v>133401</v>
+      </c>
+      <c r="AE26" s="11">
+        <f t="shared" si="8"/>
+        <v>4.271394294854705</v>
+      </c>
+      <c r="AF26" s="11">
+        <f t="shared" si="9"/>
+        <v>0.45317915222607302</v>
+      </c>
+      <c r="AG26" s="11">
+        <f t="shared" si="10"/>
+        <v>0.11836843508397761</v>
+      </c>
+      <c r="AH26" s="11">
+        <f t="shared" si="11"/>
+        <v>0.39742735270594509</v>
+      </c>
+      <c r="AI26" s="11">
+        <f t="shared" si="12"/>
+        <v>4.4455145294588112</v>
+      </c>
+      <c r="AJ26" s="11">
+        <f t="shared" si="15"/>
+        <v>6.0779154579051128E-2</v>
+      </c>
+      <c r="AK26" s="11">
+        <f t="shared" si="13"/>
+        <v>5.0904166135686144E-2</v>
+      </c>
+      <c r="AL26" s="27"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D27" s="21">
         <v>6100</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E27" s="21">
         <v>4600</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F27" s="21">
         <v>150</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G27" s="21">
         <v>-18</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H27" s="21">
         <v>2500</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I27" s="21">
         <v>995</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J27" s="21">
         <v>750</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K27" s="21">
         <v>680</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L27" s="21">
         <v>640</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M27" s="21">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O27" s="21">
         <v>18700</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P27" s="8">
         <f t="shared" si="25"/>
         <v>27.10144927536232</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q27" s="23">
         <f t="shared" si="2"/>
         <v>0.24590163934426229</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R27" s="23">
         <f t="shared" si="26"/>
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S27" s="23">
         <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T27" s="23">
         <f t="shared" si="20"/>
         <v>0.39800000000000002</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U27" s="23">
         <f t="shared" si="21"/>
         <v>0.27600000000000002</v>
       </c>
-      <c r="V24" s="23">
+      <c r="V27" s="23">
         <f t="shared" si="5"/>
         <v>0.4098360655737705</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W27" s="8">
         <f t="shared" si="6"/>
         <v>1.326086956521739</v>
       </c>
-      <c r="X24" s="23">
+      <c r="X27" s="23">
         <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
-      <c r="Y24" s="24" t="s">
+      <c r="Y27" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z27" s="21">
         <v>741</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA27" s="21">
         <v>1514</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB27" s="21">
         <v>22</v>
       </c>
-      <c r="AC24" s="21">
+      <c r="AC27" s="21">
         <v>84</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AD27" s="21">
         <f t="shared" si="7"/>
         <v>2193</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AE27" s="11">
         <f t="shared" si="8"/>
         <v>0.2964</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF27" s="11">
         <f t="shared" si="9"/>
         <v>0.60560000000000003</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AG27" s="11">
         <f t="shared" si="10"/>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AH24" s="11">
+      <c r="AH27" s="11">
         <f t="shared" si="11"/>
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="AI24" s="11">
+      <c r="AI27" s="11">
         <f t="shared" si="12"/>
         <v>0.87719999999999998</v>
       </c>
-      <c r="AJ24" s="11">
+      <c r="AJ27" s="11">
         <f t="shared" si="15"/>
         <v>0.34199726402188785</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AK27" s="11">
         <f t="shared" si="13"/>
         <v>0.31463748290013682</v>
       </c>
-      <c r="AL24" s="27"/>
-    </row>
-    <row r="25" spans="1:41">
-      <c r="A25" s="6" t="s">
+      <c r="AL27" s="27"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D28" s="21">
         <v>2500</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E28" s="21">
         <v>2000</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F28" s="21">
         <v>0</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G28" s="21">
         <v>-3</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H28" s="21">
         <v>1800</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I28" s="21">
         <v>410</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J28" s="21">
         <v>348</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K28" s="21">
         <v>252</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L28" s="21">
         <v>162</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M28" s="21">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O28" s="21">
         <v>8800</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P28" s="8">
         <f t="shared" si="25"/>
         <v>34.645669291338585</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q28" s="23">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R28" s="23">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S28" s="23">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T28" s="23">
         <f t="shared" si="20"/>
         <v>0.22777777777777777</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U28" s="23">
         <f t="shared" si="21"/>
         <v>0.1411111111111111</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V28" s="23">
         <f t="shared" si="5"/>
         <v>0.72</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W28" s="8">
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X28" s="23">
         <f t="shared" si="17"/>
         <v>0.127</v>
       </c>
-      <c r="Y25" s="24" t="s">
+      <c r="Y28" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z28" s="21">
         <v>480</v>
       </c>
-      <c r="AA25" s="21">
+      <c r="AA28" s="21">
         <v>51</v>
       </c>
-      <c r="AB25" s="21">
+      <c r="AB28" s="21">
         <v>7</v>
       </c>
-      <c r="AC25" s="21">
+      <c r="AC28" s="21">
         <v>169</v>
       </c>
-      <c r="AD25" s="21">
+      <c r="AD28" s="21">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AE28" s="11">
         <f t="shared" si="8"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AF28" s="11">
         <f t="shared" si="9"/>
         <v>2.8333333333333332E-2</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AG28" s="11">
         <f t="shared" si="10"/>
         <v>3.8888888888888888E-3</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AH28" s="11">
         <f t="shared" si="11"/>
         <v>9.3888888888888883E-2</v>
       </c>
-      <c r="AI25" s="11">
+      <c r="AI28" s="11">
         <f t="shared" si="12"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="AJ25" s="11">
+      <c r="AJ28" s="11">
         <f t="shared" si="15"/>
         <v>0.94308943089430897</v>
       </c>
-      <c r="AK25" s="11">
+      <c r="AK28" s="11">
         <f t="shared" si="13"/>
         <v>0.68834688346883466</v>
       </c>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="20" t="s">
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
-      <c r="A26" s="6" t="s">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D29" s="21">
         <v>84980</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E29" s="21">
         <v>34810</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F29" s="21">
         <v>1296</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G29" s="21">
         <v>35</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H29" s="21">
         <v>92760</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I29" s="21">
         <v>17981</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J29" s="21">
         <v>10735</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K29" s="21">
         <v>5170</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L29" s="21">
         <v>2288</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M29" s="21">
         <f t="shared" si="0"/>
         <v>6064.333333333333</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O29" s="21">
         <v>210437</v>
       </c>
-      <c r="P26" s="8">
-        <f t="shared" ref="P26" si="28">O26/M26</f>
+      <c r="P29" s="8">
+        <f t="shared" ref="P29" si="28">O29/M29</f>
         <v>34.700764030121476</v>
       </c>
-      <c r="Q26" s="23">
-        <f t="shared" ref="Q26" si="29">(D26-E26)/D26</f>
+      <c r="Q29" s="23">
+        <f t="shared" ref="Q29" si="29">(D29-E29)/D29</f>
         <v>0.59037420569545773</v>
       </c>
-      <c r="R26" s="23">
-        <f t="shared" ref="R26" si="30">F26/D26</f>
+      <c r="R29" s="23">
+        <f t="shared" ref="R29" si="30">F29/D29</f>
         <v>1.5250647211108496E-2</v>
       </c>
-      <c r="S26" s="23">
-        <f t="shared" ref="S26" si="31">F26/(D26-E26)</f>
+      <c r="S29" s="23">
+        <f t="shared" ref="S29" si="31">F29/(D29-E29)</f>
         <v>2.5832170619892365E-2</v>
       </c>
-      <c r="T26" s="23">
-        <f t="shared" ref="T26" si="32">I26/H26</f>
+      <c r="T29" s="23">
+        <f t="shared" ref="T29" si="32">I29/H29</f>
         <v>0.19384432945235014</v>
       </c>
-      <c r="U26" s="23">
-        <f t="shared" ref="U26" si="33">M26/H26</f>
+      <c r="U29" s="23">
+        <f t="shared" ref="U29" si="33">M29/H29</f>
         <v>6.5376599108811259E-2</v>
       </c>
-      <c r="V26" s="23">
-        <f t="shared" ref="V26" si="34">H26/D26</f>
+      <c r="V29" s="23">
+        <f t="shared" ref="V29" si="34">H29/D29</f>
         <v>1.0915509531654506</v>
       </c>
-      <c r="W26" s="8">
-        <f t="shared" ref="W26" si="35">D26/E26</f>
+      <c r="W29" s="8">
+        <f t="shared" ref="W29" si="35">D29/E29</f>
         <v>2.4412525136455043</v>
       </c>
-      <c r="X26" s="23">
-        <f t="shared" ref="X26" si="36">M26/E26</f>
+      <c r="X29" s="23">
+        <f t="shared" ref="X29" si="36">M29/E29</f>
         <v>0.17421239107536149</v>
       </c>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="21">
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="21">
         <v>14052</v>
       </c>
-      <c r="AA26" s="21">
+      <c r="AA29" s="21">
         <v>6027</v>
       </c>
-      <c r="AB26" s="21">
+      <c r="AB29" s="21">
         <v>33478</v>
       </c>
-      <c r="AC26" s="21">
+      <c r="AC29" s="21">
         <v>47532</v>
       </c>
-      <c r="AD26" s="21">
+      <c r="AD29" s="21">
         <f t="shared" si="7"/>
         <v>6025</v>
       </c>
-      <c r="AE26" s="11">
-        <f t="shared" ref="AE26" si="37">Z26/H26</f>
+      <c r="AE29" s="11">
+        <f t="shared" ref="AE29" si="37">Z29/H29</f>
         <v>0.15148771021992238</v>
       </c>
-      <c r="AF26" s="11">
-        <f t="shared" ref="AF26" si="38">AA26/H26</f>
+      <c r="AF29" s="11">
+        <f t="shared" ref="AF29" si="38">AA29/H29</f>
         <v>6.4974126778783961E-2</v>
       </c>
-      <c r="AG26" s="11">
-        <f t="shared" ref="AG26" si="39">AB26/H26</f>
+      <c r="AG29" s="11">
+        <f t="shared" ref="AG29" si="39">AB29/H29</f>
         <v>0.36090987494609744</v>
       </c>
-      <c r="AH26" s="11">
-        <f t="shared" ref="AH26" si="40">AC26/H26</f>
+      <c r="AH29" s="11">
+        <f t="shared" ref="AH29" si="40">AC29/H29</f>
         <v>0.51241914618369988</v>
       </c>
-      <c r="AI26" s="11">
-        <f t="shared" ref="AI26" si="41">AD26/H26</f>
+      <c r="AI29" s="11">
+        <f t="shared" ref="AI29" si="41">AD29/H29</f>
         <v>6.495256576110392E-2</v>
       </c>
-      <c r="AJ26" s="11">
+      <c r="AJ29" s="11">
         <f t="shared" si="15"/>
         <v>1.7817427385892117</v>
       </c>
-      <c r="AK26" s="11">
+      <c r="AK29" s="11">
         <f t="shared" si="13"/>
         <v>1.0065283540802212</v>
       </c>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="20"/>
-    </row>
-    <row r="27" spans="1:41">
-      <c r="A27" s="6" t="s">
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="20"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D30" s="21">
         <v>120492</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E30" s="21">
         <v>17725</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F30" s="21">
         <f>6986+39837</f>
         <v>46823</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G30" s="21">
         <v>164</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H30" s="21">
         <v>79139</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I30" s="21">
         <v>36227</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J30" s="21">
         <v>5753</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K30" s="21">
         <v>11872</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L30" s="21">
         <v>13190</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M30" s="21">
         <f t="shared" si="0"/>
         <v>10271.666666666666</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O30" s="21">
         <v>145410</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P30" s="8">
         <f t="shared" si="25"/>
         <v>14.156417329222782</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q30" s="23">
         <f t="shared" si="2"/>
         <v>0.85289479799488765</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R30" s="23">
         <f t="shared" si="26"/>
         <v>0.38859841317265875</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S30" s="23">
         <f t="shared" si="27"/>
         <v>0.45562291397043797</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T30" s="23">
         <f t="shared" si="20"/>
         <v>0.45776418706326844</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U30" s="23">
         <f t="shared" si="21"/>
         <v>0.12979272756373805</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V30" s="23">
         <f t="shared" si="5"/>
         <v>0.65679879162102051</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W30" s="8">
         <f t="shared" si="6"/>
         <v>6.7978561354019744</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X30" s="23">
         <f t="shared" si="17"/>
         <v>0.57950164551010808</v>
       </c>
-      <c r="Y27" s="24" t="s">
+      <c r="Y30" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z30" s="21">
         <v>11116</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA30" s="21">
         <v>1583</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB30" s="21">
         <v>9909</v>
       </c>
-      <c r="AC27" s="21">
+      <c r="AC30" s="21">
         <v>6451</v>
       </c>
-      <c r="AD27" s="21">
+      <c r="AD30" s="21">
         <f t="shared" si="7"/>
         <v>16157</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AE30" s="11">
         <f t="shared" si="8"/>
         <v>0.14046171925346543</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AF30" s="11">
         <f t="shared" si="9"/>
         <v>2.0002779918876914E-2</v>
       </c>
-      <c r="AG27" s="11">
+      <c r="AG30" s="11">
         <f t="shared" si="10"/>
         <v>0.12521007341513035</v>
       </c>
-      <c r="AH27" s="11">
+      <c r="AH30" s="11">
         <f t="shared" si="11"/>
         <v>8.1514803068019559E-2</v>
       </c>
-      <c r="AI27" s="11">
+      <c r="AI30" s="11">
         <f t="shared" si="12"/>
         <v>0.20415976951945311</v>
       </c>
-      <c r="AJ27" s="11">
+      <c r="AJ30" s="11">
         <f t="shared" si="15"/>
         <v>0.35606857708733058</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AK30" s="11">
         <f t="shared" si="13"/>
         <v>0.63574095851127477</v>
       </c>
-      <c r="AL27" s="27"/>
-    </row>
-    <row r="28" spans="1:41">
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="23" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="23" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF28" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG28" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI28" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ28" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="27"/>
-    </row>
-    <row r="29" spans="1:41">
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="23" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="23" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF29" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG29" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI29" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ29" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="27"/>
-    </row>
-    <row r="30" spans="1:41">
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="23" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="23" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF30" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG30" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI30" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ30" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" s="11"/>
       <c r="AL30" s="27"/>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -5308,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="21"/>
       <c r="P31" s="8" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -5349,7 +5536,10 @@
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="21"/>
+      <c r="AD31" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AE31" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -5377,7 +5567,7 @@
       <c r="AK31" s="11"/>
       <c r="AL31" s="27"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -5414,8 +5604,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
+      <c r="V32" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X32" s="23" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -5425,19 +5621,40 @@
       </c>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
-      <c r="AB32" s="2"/>
+      <c r="AB32" s="21"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
+      <c r="AD32" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF32" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ32" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AK32" s="11"/>
       <c r="AL32" s="27"/>
     </row>
-    <row r="33" spans="4:36">
+    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -5457,24 +5674,71 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
+      <c r="Q33" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="23" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X33" s="23" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y33" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
-      <c r="AJ33" s="21"/>
-    </row>
-    <row r="34" spans="4:36">
+      <c r="AE33" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF33" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG33" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH33" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI33" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ33" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="27"/>
+    </row>
+    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -5490,25 +5754,75 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
+      <c r="P34" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="23" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="23" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y34" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
+      <c r="AC34" s="2"/>
       <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-    </row>
-    <row r="35" spans="4:36">
+      <c r="AE34" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF34" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG34" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH34" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI34" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ34" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="27"/>
+    </row>
+    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -5524,25 +5838,51 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
+      <c r="P35" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="23" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="23" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y35" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
       <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-    </row>
-    <row r="36" spans="4:36">
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="27"/>
+    </row>
+    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -5552,15 +5892,34 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="M36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="8"/>
+      <c r="P36" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
+      <c r="Y36" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
-    </row>
-    <row r="37" spans="4:36">
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+    </row>
+    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -5570,15 +5929,31 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
+      <c r="M37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
+      <c r="Y37" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
-    </row>
-    <row r="38" spans="4:36">
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+    </row>
+    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -5588,15 +5963,31 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
+      <c r="M38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
+      <c r="Y38" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
-    </row>
-    <row r="39" spans="4:36">
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+    </row>
+    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -5610,10 +6001,11 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-    </row>
-    <row r="40" spans="4:36">
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="AD39" s="21"/>
+    </row>
+    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -5627,61 +6019,63 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-    </row>
-    <row r="41" spans="4:36">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="8"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="AD40" s="21"/>
+    </row>
+    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-    </row>
-    <row r="42" spans="4:36">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="8"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="AD41" s="21"/>
+    </row>
+    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="4:36">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="8"/>
+    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="4:36">
+    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -5698,7 +6092,7 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="4:36">
+    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -5715,7 +6109,7 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="4:36">
+    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -5732,7 +6126,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="4:36">
+    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -5749,7 +6143,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="4:36">
+    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5766,7 +6160,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="4:18">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5783,7 +6177,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="4:18">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5800,7 +6194,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="4:18">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5817,7 +6211,7 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="4:18">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5834,7 +6228,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="4:18">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5851,7 +6245,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="4:18">
+    <row r="54" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5868,7 +6262,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="4:18">
+    <row r="55" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5885,7 +6279,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="4:18">
+    <row r="56" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5901,6 +6295,57 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -5918,12 +6363,12 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5955,7 +6400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5985,7 +6430,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6015,7 +6460,7 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6045,7 +6490,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6075,7 +6520,7 @@
         <v>-1742.0000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6105,7 +6550,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6135,7 +6580,7 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6165,7 +6610,7 @@
         <v>-3634.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6195,7 +6640,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6225,7 +6670,7 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6252,7 +6697,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6282,7 +6727,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6312,7 +6757,7 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6342,7 +6787,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6372,7 +6817,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6402,7 +6847,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6432,7 +6877,7 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6462,7 +6907,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6492,7 +6937,7 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6522,7 +6967,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6552,7 +6997,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -6579,7 +7024,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -6609,7 +7054,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -6639,7 +7084,7 @@
         <v>-3734.0000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6669,7 +7114,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -6699,7 +7144,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -6729,7 +7174,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6759,7 +7204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -6789,7 +7234,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6816,7 +7261,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -6846,7 +7291,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -6876,7 +7321,7 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -6906,7 +7351,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +7381,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -6966,7 +7411,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -6996,7 +7441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -7026,7 +7471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -7056,7 +7501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -7086,7 +7531,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -7116,7 +7561,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -7146,7 +7591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -7176,7 +7621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -7206,7 +7651,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -7233,7 +7678,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -7263,7 +7708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -7290,7 +7735,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -7320,7 +7765,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7350,7 +7795,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -7377,7 +7822,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7404,7 +7849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7434,7 +7879,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7467,7 +7912,7 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -7497,7 +7942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -7527,7 +7972,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -7554,7 +7999,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7584,7 +8029,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -7614,7 +8059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -7644,7 +8089,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7674,7 +8119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -7704,7 +8149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -7734,7 +8179,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -7764,7 +8209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -7794,7 +8239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -7824,7 +8269,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -7851,7 +8296,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -7884,7 +8329,7 @@
         <v>-3068</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -7911,7 +8356,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -7944,7 +8389,7 @@
         <v>-5750</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -7974,7 +8419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8001,7 +8446,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8028,57 +8473,57 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="2:2" hidden="1">
+    <row r="81" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="2:2" hidden="1">
+    <row r="82" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -8105,13 +8550,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8143,7 +8588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -8176,7 +8621,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -8209,7 +8654,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -8242,7 +8687,7 @@
         <v>-4676.09</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -8275,7 +8720,7 @@
         <v>-4947.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -8308,7 +8753,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -8338,7 +8783,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -8371,7 +8816,7 @@
         <v>-2201.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -8401,7 +8846,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -8434,7 +8879,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -8467,7 +8912,7 @@
         <v>-1972.0400000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -8500,7 +8945,7 @@
         <v>-1826</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -8530,7 +8975,7 @@
         <v>-5576</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -8563,7 +9008,7 @@
         <v>-3797</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -8596,7 +9041,7 @@
         <v>-3699</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -8629,7 +9074,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -8662,7 +9107,7 @@
         <v>-2552.0500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8698,7 +9143,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -8728,7 +9173,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -8761,7 +9206,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -8794,7 +9239,7 @@
         <v>-6452.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -8827,7 +9272,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -8860,7 +9305,7 @@
         <v>-9311.19</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -8893,7 +9338,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -8923,7 +9368,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -8953,7 +9398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -8986,7 +9431,7 @@
         <v>-4836</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -9019,7 +9464,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -9049,7 +9494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -9079,7 +9524,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -9109,7 +9554,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -9142,7 +9587,7 @@
         <v>-3095</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -9175,7 +9620,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -9208,7 +9653,7 @@
         <v>-2849</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -9241,7 +9686,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -9271,7 +9716,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -9304,7 +9749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -9334,7 +9779,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -9367,7 +9812,7 @@
         <v>-4229</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -9397,7 +9842,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -9430,7 +9875,7 @@
         <v>-2804</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -9460,7 +9905,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -9493,7 +9938,7 @@
         <v>-2783</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -9526,7 +9971,7 @@
         <v>-3645</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -9553,7 +9998,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -9580,7 +10025,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -9613,7 +10058,7 @@
         <v>-3061.9999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -9646,7 +10091,7 @@
         <v>-5037</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -9673,7 +10118,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -9700,7 +10145,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -9733,7 +10178,7 @@
         <v>-4878</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -9766,7 +10211,7 @@
         <v>-2977</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>2018</v>
       </c>
@@ -9796,7 +10241,7 @@
         <v>-5531.0000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>2018</v>
       </c>
@@ -9805,55 +10250,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9874,7 +10319,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9889,8 +10334,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="266">
   <si>
     <t>Account</t>
   </si>
@@ -468,147 +468,147 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -618,21 +618,21 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>双汇发展</t>
@@ -702,23 +702,23 @@
   </si>
   <si>
     <t>平均ROE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>固定资产</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>存货</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应付账款</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已用资本</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -728,13 +728,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>%;ROE9%;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -744,25 +744,25 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>40%;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应收账款</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零；已用资本-营收比125%;毛利率:40%;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -772,17 +772,17 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>-营收比168%;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -792,13 +792,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>5%;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -808,7 +808,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -818,13 +818,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>与双汇相当;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -834,13 +834,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>209%;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -850,14 +850,14 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>%,是否能够覆盖资金成本?</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -867,14 +867,14 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>%;资金成本?</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -884,25 +884,25 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>RTOCE6%,与川投能源差距很大;</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>债券用途;为何已用资本收益率如此之高209%;已用资本营收比如此之低6%?</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A000651</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>格力电器</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -912,54 +912,54 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>投入1元带来营收873元,带来收益113元,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A000333</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>美的集团</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>固定资产/营收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>存货/营收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应收/营收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已用资本/营收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已用资本收益率</t>
@@ -984,11 +984,11 @@
   </si>
   <si>
     <t>A601390</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>中国中铁</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -998,124 +998,170 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A601857</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>中国石油</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A601986</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>中国核电</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A002507</t>
+  </si>
+  <si>
+    <t>涪陵榨菜</t>
+  </si>
+  <si>
+    <t>同花顺</t>
+  </si>
+  <si>
+    <t>哈药股份</t>
+  </si>
+  <si>
+    <t>张裕A</t>
+  </si>
+  <si>
+    <t>A600519</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>N.HPE</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>流动资产</t>
+  </si>
+  <si>
+    <t>流动负债</t>
+  </si>
+  <si>
+    <t>流动比率</t>
+  </si>
+  <si>
+    <t>速动比率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1124,7 +1170,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1132,14 +1178,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1148,7 +1194,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1156,7 +1202,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1188,59 +1234,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,46 +1566,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="7.25" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="6" customWidth="1"/>
     <col min="17" max="17" width="5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.75" style="6" customWidth="1"/>
-    <col min="19" max="19" width="5.625" style="23" customWidth="1"/>
-    <col min="20" max="22" width="5.375" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="23" customWidth="1"/>
+    <col min="20" max="22" width="5.42578125" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.5703125" style="6" customWidth="1"/>
     <col min="25" max="25" width="1" style="25" customWidth="1"/>
-    <col min="26" max="26" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.125" customWidth="1"/>
-    <col min="28" max="29" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.125" customWidth="1"/>
-    <col min="31" max="31" width="7.125" customWidth="1"/>
-    <col min="32" max="35" width="6.625" customWidth="1"/>
-    <col min="36" max="36" width="8.875" customWidth="1"/>
-    <col min="37" max="37" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" customWidth="1"/>
+    <col min="28" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" customWidth="1"/>
+    <col min="32" max="35" width="6.5703125" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="1" style="25" customWidth="1"/>
-    <col min="39" max="39" width="54.375" style="3" customWidth="1"/>
+    <col min="39" max="42" width="23.85546875" customWidth="1"/>
+    <col min="43" max="43" width="54.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" s="9" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -1664,15 +1715,27 @@
         <v>245</v>
       </c>
       <c r="AL1" s="26"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="9" t="s">
+      <c r="AM1" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN1" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO1" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP1" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1706,7 +1769,7 @@
         <v>19100</v>
       </c>
       <c r="M2" s="21">
-        <f t="shared" ref="M2:M38" si="0">(J2+K2+L2)/3</f>
+        <f t="shared" ref="M2:M43" si="0">(J2+K2+L2)/3</f>
         <v>21566.666666666668</v>
       </c>
       <c r="N2" s="2"/>
@@ -1714,19 +1777,19 @@
         <v>186800</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P18" si="1">O2/M2</f>
+        <f t="shared" ref="P2:P23" si="1">O2/M2</f>
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="23">
-        <f t="shared" ref="Q2:Q35" si="2">(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q40" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="23">
-        <f t="shared" ref="R2:R21" si="3">F2/D2</f>
+        <f t="shared" ref="R2:R26" si="3">F2/D2</f>
         <v>0</v>
       </c>
       <c r="S2" s="23">
-        <f t="shared" ref="S2:S21" si="4">F2/(D2-E2)</f>
+        <f t="shared" ref="S2:S26" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
       <c r="T2" s="23">
@@ -1738,11 +1801,11 @@
         <v>0.20403658152002524</v>
       </c>
       <c r="V2" s="23">
-        <f t="shared" ref="V2:V34" si="5">H2/D2</f>
+        <f t="shared" ref="V2:V39" si="5">H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
       <c r="W2" s="8">
-        <f t="shared" ref="W2:W34" si="6">D2/E2</f>
+        <f t="shared" ref="W2:W39" si="6">D2/E2</f>
         <v>14.632432432432433</v>
       </c>
       <c r="X2" s="23">
@@ -1759,27 +1822,27 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21">
-        <f t="shared" ref="AD2:AD32" si="7">Z2+AA2+AB2-AC2</f>
+        <f t="shared" ref="AD2:AD37" si="7">Z2+AA2+AB2-AC2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="11">
-        <f t="shared" ref="AE2:AE34" si="8">Z2/H2</f>
+        <f t="shared" ref="AE2:AE39" si="8">Z2/H2</f>
         <v>0</v>
       </c>
       <c r="AF2" s="11">
-        <f t="shared" ref="AF2:AF34" si="9">AA2/H2</f>
+        <f t="shared" ref="AF2:AF39" si="9">AA2/H2</f>
         <v>0</v>
       </c>
       <c r="AG2" s="11">
-        <f t="shared" ref="AG2:AG34" si="10">AB2/H2</f>
+        <f t="shared" ref="AG2:AG39" si="10">AB2/H2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="11">
-        <f t="shared" ref="AH2:AH34" si="11">AC2/H2</f>
+        <f t="shared" ref="AH2:AH39" si="11">AC2/H2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="11">
-        <f t="shared" ref="AI2:AI34" si="12">AD2/H2</f>
+        <f t="shared" ref="AI2:AI39" si="12">AD2/H2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="11" t="e">
@@ -1787,12 +1850,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" s="11" t="e">
-        <f t="shared" ref="AK2:AK30" si="13">M2/AD2</f>
+        <f t="shared" ref="AK2:AK39" si="13">M2/AD2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" s="27"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="11" t="e">
+        <f t="shared" ref="AO2:AO17" si="14">AM2/AN2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP2" s="11" t="e">
+        <f>(AM2-AA2)/AN2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3" s="6" t="s">
         <v>230</v>
       </c>
@@ -1840,7 +1913,7 @@
         <v>349000</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3" si="14">O3/M3</f>
+        <f t="shared" ref="P3" si="15">O3/M3</f>
         <v>21.768962075848304</v>
       </c>
       <c r="Q3" s="23">
@@ -1915,7 +1988,7 @@
         <v>0.14302569045166008</v>
       </c>
       <c r="AJ3" s="11">
-        <f t="shared" ref="AJ3:AJ34" si="15">J3/AD3</f>
+        <f t="shared" ref="AJ3:AJ39" si="16">J3/AD3</f>
         <v>0.54057743696990823</v>
       </c>
       <c r="AK3" s="11">
@@ -1923,8 +1996,22 @@
         <v>0.46566747995817359</v>
       </c>
       <c r="AL3" s="27"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM3" s="21">
+        <v>169810</v>
+      </c>
+      <c r="AN3" s="21">
+        <v>119091</v>
+      </c>
+      <c r="AO3" s="11">
+        <f t="shared" si="14"/>
+        <v>1.4258844077218262</v>
+      </c>
+      <c r="AP3" s="11">
+        <f t="shared" ref="AP3:AP36" si="17">(AM3-AA3)/AN3</f>
+        <v>1.1786449017977849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
@@ -1972,7 +2059,7 @@
         <v>67300</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" ref="P4" si="16">O4/M4</f>
+        <f t="shared" ref="P4" si="18">O4/M4</f>
         <v>13.73469387755102</v>
       </c>
       <c r="Q4" s="23">
@@ -2004,7 +2091,7 @@
         <v>3.3676731793960926</v>
       </c>
       <c r="X4" s="23">
-        <f t="shared" ref="X4:X35" si="17">M4/E4</f>
+        <f t="shared" ref="X4:X40" si="19">M4/E4</f>
         <v>8.7033747779751328E-2</v>
       </c>
       <c r="Y4" s="24" t="s">
@@ -2047,7 +2134,7 @@
         <v>0.19735973597359735</v>
       </c>
       <c r="AJ4" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="AK4" s="11">
@@ -2055,11 +2142,21 @@
         <v>0.16387959866220736</v>
       </c>
       <c r="AL4" s="27"/>
-      <c r="AM4" s="20" t="s">
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP4" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45">
       <c r="A5" s="6" t="s">
         <v>226</v>
       </c>
@@ -2107,7 +2204,7 @@
         <v>281500</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" ref="P5" si="18">O5/M5</f>
+        <f t="shared" ref="P5" si="20">O5/M5</f>
         <v>19.917922592513975</v>
       </c>
       <c r="Q5" s="23">
@@ -2139,7 +2236,7 @@
         <v>3.3204486280793111</v>
       </c>
       <c r="X5" s="23">
-        <f t="shared" ref="X5" si="19">M5/E5</f>
+        <f t="shared" ref="X5" si="21">M5/E5</f>
         <v>0.25732388980936949</v>
       </c>
       <c r="Y5" s="24" t="s">
@@ -2182,7 +2279,7 @@
         <v>1.1449465383834095E-3</v>
       </c>
       <c r="AJ5" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>125.19354838709677</v>
       </c>
       <c r="AK5" s="11">
@@ -2190,11 +2287,25 @@
         <v>113.9758064516129</v>
       </c>
       <c r="AL5" s="27"/>
-      <c r="AM5" s="20" t="s">
+      <c r="AM5" s="21">
+        <v>142910</v>
+      </c>
+      <c r="AN5" s="21">
+        <v>126876</v>
+      </c>
+      <c r="AO5" s="11">
+        <f t="shared" si="14"/>
+        <v>1.1263753586178631</v>
+      </c>
+      <c r="AP5" s="11">
+        <f t="shared" si="17"/>
+        <v>1.055250796052839</v>
+      </c>
+      <c r="AQ5" s="20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45">
       <c r="A6" s="6" t="s">
         <v>175</v>
       </c>
@@ -2256,11 +2367,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="23">
-        <f t="shared" ref="T6:T35" si="20">I6/H6</f>
+        <f t="shared" ref="T6:T40" si="22">I6/H6</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="U6" s="23">
-        <f t="shared" ref="U6:U30" si="21">M6/H6</f>
+        <f t="shared" ref="U6:U36" si="23">M6/H6</f>
         <v>0.21317460317460318</v>
       </c>
       <c r="V6" s="23">
@@ -2272,7 +2383,7 @@
         <v>1.4</v>
       </c>
       <c r="X6" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.22383333333333336</v>
       </c>
       <c r="Y6" s="24" t="s">
@@ -2315,7 +2426,7 @@
         <v>0.15238095238095239</v>
       </c>
       <c r="AJ6" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3062499999999999</v>
       </c>
       <c r="AK6" s="11">
@@ -2323,1121 +2434,1228 @@
         <v>1.3989583333333333</v>
       </c>
       <c r="AL6" s="27"/>
-      <c r="AM6" s="20" t="s">
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP6" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>186</v>
+        <v>257</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="D7" s="21">
-        <v>23000</v>
+        <v>11528</v>
       </c>
       <c r="E7" s="21">
-        <v>15400</v>
+        <v>8399</v>
       </c>
       <c r="F7" s="21">
-        <v>1940</v>
+        <f>662+71+49</f>
+        <v>782</v>
       </c>
       <c r="G7" s="21">
-        <v>55</v>
+        <v>21.9</v>
       </c>
       <c r="H7" s="21">
-        <v>50400</v>
+        <v>4717</v>
       </c>
       <c r="I7" s="21">
-        <v>5500</v>
+        <v>1283</v>
       </c>
       <c r="J7" s="21">
-        <v>4500</v>
+        <v>980</v>
       </c>
       <c r="K7" s="21">
-        <v>4500</v>
+        <v>1030</v>
       </c>
       <c r="L7" s="21">
-        <v>4400</v>
+        <v>977</v>
       </c>
       <c r="M7" s="21">
         <f t="shared" si="0"/>
-        <v>4466.666666666667</v>
+        <v>995.66666666666663</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O7" s="21">
-        <v>82000</v>
+        <v>26130</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="1"/>
-        <v>18.35820895522388</v>
+        <v>26.243722798794778</v>
       </c>
       <c r="Q7" s="23">
         <f t="shared" si="2"/>
-        <v>0.33043478260869563</v>
+        <v>0.27142609299097847</v>
       </c>
       <c r="R7" s="23">
         <f t="shared" si="3"/>
-        <v>8.4347826086956526E-2</v>
+        <v>6.7834836918806388E-2</v>
       </c>
       <c r="S7" s="23">
         <f t="shared" si="4"/>
-        <v>0.25526315789473686</v>
+        <v>0.24992010226909556</v>
       </c>
       <c r="T7" s="23">
-        <f t="shared" si="20"/>
-        <v>0.10912698412698413</v>
+        <f t="shared" si="22"/>
+        <v>0.27199491202035192</v>
       </c>
       <c r="U7" s="23">
-        <f t="shared" si="21"/>
-        <v>8.8624338624338633E-2</v>
+        <f t="shared" si="23"/>
+        <v>0.21108048901137727</v>
       </c>
       <c r="V7" s="23">
         <f t="shared" si="5"/>
-        <v>2.1913043478260867</v>
+        <v>0.40917765440666204</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="6"/>
-        <v>1.4935064935064934</v>
+        <v>1.3725443505179189</v>
       </c>
       <c r="X7" s="23">
-        <f t="shared" si="17"/>
-        <v>0.29004329004329005</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>0.11854585863396436</v>
+      </c>
+      <c r="Y7" s="24"/>
       <c r="Z7" s="21">
-        <v>11400</v>
+        <v>4683</v>
       </c>
       <c r="AA7" s="21">
-        <v>2900</v>
+        <v>2248</v>
       </c>
       <c r="AB7" s="21">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="AC7" s="21">
-        <v>1800</v>
+        <v>545</v>
       </c>
       <c r="AD7" s="21">
         <f t="shared" si="7"/>
-        <v>12635</v>
+        <v>6559</v>
       </c>
       <c r="AE7" s="11">
         <f t="shared" si="8"/>
-        <v>0.22619047619047619</v>
+        <v>0.99279202883188467</v>
       </c>
       <c r="AF7" s="11">
         <f t="shared" si="9"/>
-        <v>5.7539682539682536E-2</v>
+        <v>0.47657409370362519</v>
       </c>
       <c r="AG7" s="11">
         <f t="shared" si="10"/>
-        <v>2.6785714285714286E-3</v>
+        <v>3.6675853296586812E-2</v>
       </c>
       <c r="AH7" s="11">
         <f t="shared" si="11"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.11553953784184863</v>
       </c>
       <c r="AI7" s="11">
         <f t="shared" si="12"/>
-        <v>0.25069444444444444</v>
+        <v>1.390502437990248</v>
       </c>
       <c r="AJ7" s="11">
-        <f t="shared" si="15"/>
-        <v>0.35615354174910963</v>
+        <f t="shared" si="16"/>
+        <v>0.14941302027748132</v>
       </c>
       <c r="AK7" s="11">
         <f t="shared" si="13"/>
-        <v>0.35351536736578293</v>
+        <v>0.15180159577171315</v>
       </c>
       <c r="AL7" s="27"/>
-      <c r="AN7" s="6"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP7" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="6"/>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8" s="6" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>152</v>
+        <v>185</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="D8" s="21">
-        <v>5200</v>
+        <v>23000</v>
       </c>
       <c r="E8" s="21">
-        <v>4800</v>
+        <v>15400</v>
       </c>
       <c r="F8" s="21">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="G8" s="21">
-        <v>-7</v>
+        <v>55</v>
       </c>
       <c r="H8" s="21">
-        <v>2300</v>
+        <v>50400</v>
       </c>
       <c r="I8" s="21">
-        <v>916</v>
+        <v>5500</v>
       </c>
       <c r="J8" s="21">
-        <v>821</v>
+        <v>4500</v>
       </c>
       <c r="K8" s="21">
-        <v>770</v>
+        <v>4500</v>
       </c>
       <c r="L8" s="21">
-        <v>580</v>
+        <v>4400</v>
       </c>
       <c r="M8" s="21">
         <f t="shared" si="0"/>
-        <v>723.66666666666663</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>4466.666666666667</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="O8" s="21">
-        <v>28000</v>
+        <v>82000</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="1"/>
-        <v>38.691847075080609</v>
+        <v>18.35820895522388</v>
       </c>
       <c r="Q8" s="23">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.33043478260869563</v>
       </c>
       <c r="R8" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.4347826086956526E-2</v>
       </c>
       <c r="S8" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25526315789473686</v>
       </c>
       <c r="T8" s="23">
-        <f t="shared" si="20"/>
-        <v>0.39826086956521739</v>
+        <f t="shared" si="22"/>
+        <v>0.10912698412698413</v>
       </c>
       <c r="U8" s="23">
-        <f t="shared" si="21"/>
-        <v>0.31463768115942026</v>
+        <f t="shared" si="23"/>
+        <v>8.8624338624338633E-2</v>
       </c>
       <c r="V8" s="23">
         <f t="shared" si="5"/>
-        <v>0.44230769230769229</v>
+        <v>2.1913043478260867</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="6"/>
-        <v>1.0833333333333333</v>
+        <v>1.4935064935064934</v>
       </c>
       <c r="X8" s="23">
-        <f t="shared" si="17"/>
-        <v>0.15076388888888889</v>
+        <f t="shared" si="19"/>
+        <v>0.29004329004329005</v>
       </c>
       <c r="Y8" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z8" s="21">
-        <v>959</v>
+        <v>11400</v>
       </c>
       <c r="AA8" s="21">
-        <v>1200</v>
+        <v>2900</v>
       </c>
       <c r="AB8" s="21">
-        <v>778</v>
+        <v>135</v>
       </c>
       <c r="AC8" s="21">
-        <v>68</v>
+        <v>1800</v>
       </c>
       <c r="AD8" s="21">
         <f t="shared" si="7"/>
-        <v>2869</v>
+        <v>12635</v>
       </c>
       <c r="AE8" s="11">
         <f t="shared" si="8"/>
-        <v>0.41695652173913045</v>
+        <v>0.22619047619047619</v>
       </c>
       <c r="AF8" s="11">
         <f t="shared" si="9"/>
-        <v>0.52173913043478259</v>
+        <v>5.7539682539682536E-2</v>
       </c>
       <c r="AG8" s="11">
         <f t="shared" si="10"/>
-        <v>0.33826086956521739</v>
+        <v>2.6785714285714286E-3</v>
       </c>
       <c r="AH8" s="11">
         <f t="shared" si="11"/>
-        <v>2.9565217391304348E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="AI8" s="11">
         <f t="shared" si="12"/>
-        <v>1.2473913043478262</v>
+        <v>0.25069444444444444</v>
       </c>
       <c r="AJ8" s="11">
-        <f t="shared" si="15"/>
-        <v>0.28616242593238062</v>
+        <f t="shared" si="16"/>
+        <v>0.35615354174910963</v>
       </c>
       <c r="AK8" s="11">
         <f t="shared" si="13"/>
-        <v>0.25223655164401065</v>
+        <v>0.35351536736578293</v>
       </c>
       <c r="AL8" s="27"/>
-      <c r="AM8" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM8" s="21">
+        <v>10016</v>
+      </c>
+      <c r="AN8" s="21">
+        <v>7407</v>
+      </c>
+      <c r="AO8" s="11">
+        <f t="shared" si="14"/>
+        <v>1.3522343728905091</v>
+      </c>
+      <c r="AP8" s="11">
+        <f t="shared" si="17"/>
+        <v>0.96071283920615635</v>
+      </c>
+      <c r="AR8" s="6"/>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" s="6" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="D9" s="21">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="E9" s="21">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="F9" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="21">
-        <v>30</v>
+        <v>-7</v>
       </c>
       <c r="H9" s="21">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="I9" s="21">
-        <v>385</v>
+        <v>916</v>
       </c>
       <c r="J9" s="21">
-        <v>341</v>
+        <v>821</v>
       </c>
       <c r="K9" s="21">
-        <v>358</v>
+        <v>770</v>
       </c>
       <c r="L9" s="21">
-        <v>262</v>
+        <v>580</v>
       </c>
       <c r="M9" s="21">
         <f t="shared" si="0"/>
-        <v>320.33333333333331</v>
+        <v>723.66666666666663</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="21">
-        <v>13200</v>
+        <v>28000</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="1"/>
-        <v>41.207075962539022</v>
+        <v>38.691847075080609</v>
       </c>
       <c r="Q9" s="23">
         <f t="shared" si="2"/>
-        <v>0.14893617021276595</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="R9" s="23">
         <f t="shared" si="3"/>
-        <v>8.5106382978723403E-4</v>
+        <v>0</v>
       </c>
       <c r="S9" s="23">
         <f t="shared" si="4"/>
-        <v>5.7142857142857143E-3</v>
+        <v>0</v>
       </c>
       <c r="T9" s="23">
-        <f t="shared" si="20"/>
-        <v>0.20263157894736841</v>
+        <f t="shared" si="22"/>
+        <v>0.39826086956521739</v>
       </c>
       <c r="U9" s="23">
-        <f t="shared" si="21"/>
-        <v>0.16859649122807016</v>
+        <f t="shared" si="23"/>
+        <v>0.31463768115942026</v>
       </c>
       <c r="V9" s="23">
         <f t="shared" si="5"/>
-        <v>0.40425531914893614</v>
+        <v>0.44230769230769229</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="6"/>
-        <v>1.175</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="X9" s="23">
-        <f t="shared" si="17"/>
-        <v>8.0083333333333326E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.15076388888888889</v>
       </c>
       <c r="Y9" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z9" s="21">
-        <v>2244</v>
+        <v>959</v>
       </c>
       <c r="AA9" s="21">
-        <v>382</v>
+        <v>1200</v>
       </c>
       <c r="AB9" s="21">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="AC9" s="21">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="AD9" s="21">
         <f t="shared" si="7"/>
-        <v>3190</v>
+        <v>2869</v>
       </c>
       <c r="AE9" s="11">
         <f t="shared" si="8"/>
-        <v>1.1810526315789474</v>
+        <v>0.41695652173913045</v>
       </c>
       <c r="AF9" s="11">
         <f t="shared" si="9"/>
-        <v>0.20105263157894737</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="AG9" s="11">
         <f t="shared" si="10"/>
-        <v>0.38736842105263158</v>
+        <v>0.33826086956521739</v>
       </c>
       <c r="AH9" s="11">
         <f t="shared" si="11"/>
-        <v>9.0526315789473691E-2</v>
+        <v>2.9565217391304348E-2</v>
       </c>
       <c r="AI9" s="11">
         <f t="shared" si="12"/>
-        <v>1.6789473684210525</v>
+        <v>1.2473913043478262</v>
       </c>
       <c r="AJ9" s="11">
-        <f t="shared" si="15"/>
-        <v>0.10689655172413794</v>
+        <f t="shared" si="16"/>
+        <v>0.28616242593238062</v>
       </c>
       <c r="AK9" s="11">
         <f t="shared" si="13"/>
-        <v>0.10041797283176593</v>
+        <v>0.25223655164401065</v>
       </c>
       <c r="AL9" s="27"/>
-      <c r="AM9" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM9" s="21">
+        <v>3669</v>
+      </c>
+      <c r="AN9" s="21">
+        <v>3772</v>
+      </c>
+      <c r="AO9" s="11">
+        <f t="shared" si="14"/>
+        <v>0.97269353128313896</v>
+      </c>
+      <c r="AP9" s="11">
+        <f t="shared" si="17"/>
+        <v>0.65455991516436907</v>
+      </c>
+      <c r="AQ9" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="30">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D10" s="21">
-        <v>26400</v>
+        <v>4700</v>
       </c>
       <c r="E10" s="21">
-        <v>15600</v>
+        <v>4000</v>
       </c>
       <c r="F10" s="21">
-        <v>5700</v>
+        <v>4</v>
       </c>
       <c r="G10" s="21">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="H10" s="21">
-        <v>9200</v>
+        <v>1900</v>
       </c>
       <c r="I10" s="21">
-        <v>2200</v>
+        <v>385</v>
       </c>
       <c r="J10" s="21">
-        <v>1900</v>
+        <v>341</v>
       </c>
       <c r="K10" s="21">
-        <v>1400</v>
+        <v>358</v>
       </c>
       <c r="L10" s="21">
-        <v>1000</v>
+        <v>262</v>
       </c>
       <c r="M10" s="21">
         <f t="shared" si="0"/>
-        <v>1433.3333333333333</v>
+        <v>320.33333333333331</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="21">
-        <v>70000</v>
+        <v>13200</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="1"/>
-        <v>48.837209302325583</v>
+        <v>41.207075962539022</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" si="2"/>
-        <v>0.40909090909090912</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="R10" s="23">
         <f t="shared" si="3"/>
-        <v>0.21590909090909091</v>
+        <v>8.5106382978723403E-4</v>
       </c>
       <c r="S10" s="23">
         <f t="shared" si="4"/>
-        <v>0.52777777777777779</v>
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="T10" s="23">
-        <f t="shared" si="20"/>
-        <v>0.2391304347826087</v>
+        <f t="shared" si="22"/>
+        <v>0.20263157894736841</v>
       </c>
       <c r="U10" s="23">
-        <f t="shared" si="21"/>
-        <v>0.15579710144927536</v>
+        <f t="shared" si="23"/>
+        <v>0.16859649122807016</v>
       </c>
       <c r="V10" s="23">
         <f t="shared" si="5"/>
-        <v>0.34848484848484851</v>
+        <v>0.40425531914893614</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="6"/>
-        <v>1.6923076923076923</v>
+        <v>1.175</v>
       </c>
       <c r="X10" s="23">
-        <f t="shared" si="17"/>
-        <v>9.1880341880341873E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.0083333333333326E-2</v>
       </c>
       <c r="Y10" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z10" s="21">
-        <v>3085</v>
+        <v>2244</v>
       </c>
       <c r="AA10" s="21">
-        <v>601</v>
+        <v>382</v>
       </c>
       <c r="AB10" s="21">
-        <v>4799</v>
+        <v>736</v>
       </c>
       <c r="AC10" s="21">
-        <v>625</v>
+        <v>172</v>
       </c>
       <c r="AD10" s="21">
         <f t="shared" si="7"/>
-        <v>7860</v>
+        <v>3190</v>
       </c>
       <c r="AE10" s="11">
         <f t="shared" si="8"/>
-        <v>0.33532608695652172</v>
+        <v>1.1810526315789474</v>
       </c>
       <c r="AF10" s="11">
         <f t="shared" si="9"/>
-        <v>6.5326086956521742E-2</v>
+        <v>0.20105263157894737</v>
       </c>
       <c r="AG10" s="11">
         <f t="shared" si="10"/>
-        <v>0.52163043478260873</v>
+        <v>0.38736842105263158</v>
       </c>
       <c r="AH10" s="11">
         <f t="shared" si="11"/>
-        <v>6.7934782608695649E-2</v>
+        <v>9.0526315789473691E-2</v>
       </c>
       <c r="AI10" s="11">
         <f t="shared" si="12"/>
-        <v>0.85434782608695647</v>
+        <v>1.6789473684210525</v>
       </c>
       <c r="AJ10" s="11">
-        <f t="shared" si="15"/>
-        <v>0.24173027989821882</v>
+        <f t="shared" si="16"/>
+        <v>0.10689655172413794</v>
       </c>
       <c r="AK10" s="11">
         <f t="shared" si="13"/>
-        <v>0.1823579304495335</v>
+        <v>0.10041797283176593</v>
       </c>
       <c r="AL10" s="27"/>
-      <c r="AM10" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="27" x14ac:dyDescent="0.15">
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11" s="6" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="D11" s="21">
-        <v>178099</v>
+        <v>26400</v>
       </c>
       <c r="E11" s="21">
-        <v>59900</v>
+        <v>15600</v>
       </c>
       <c r="F11" s="21">
-        <v>56500</v>
+        <v>5700</v>
       </c>
       <c r="G11" s="21">
-        <v>2300</v>
+        <v>230</v>
       </c>
       <c r="H11" s="21">
-        <v>105914</v>
+        <v>9200</v>
       </c>
       <c r="I11" s="21">
-        <v>5410</v>
+        <v>2200</v>
       </c>
       <c r="J11" s="21">
-        <v>4916</v>
+        <v>1900</v>
       </c>
       <c r="K11" s="21">
-        <v>5480</v>
+        <v>1400</v>
       </c>
       <c r="L11" s="21">
-        <v>3138</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="21">
         <f t="shared" si="0"/>
-        <v>4511.333333333333</v>
+        <v>1433.3333333333333</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="21">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="1"/>
-        <v>33.24959361607803</v>
+        <v>48.837209302325583</v>
       </c>
       <c r="Q11" s="23">
         <f t="shared" si="2"/>
-        <v>0.66367020589672032</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="R11" s="23">
         <f t="shared" si="3"/>
-        <v>0.31723928826102338</v>
+        <v>0.21590909090909091</v>
       </c>
       <c r="S11" s="23">
         <f t="shared" si="4"/>
-        <v>0.47800742815083036</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="T11" s="23">
-        <f t="shared" si="20"/>
-        <v>5.1079177445852296E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.2391304347826087</v>
       </c>
       <c r="U11" s="23">
-        <f t="shared" si="21"/>
-        <v>4.2594306072222116E-2</v>
+        <f t="shared" si="23"/>
+        <v>0.15579710144927536</v>
       </c>
       <c r="V11" s="23">
         <f t="shared" si="5"/>
-        <v>0.59469171640492091</v>
+        <v>0.34848484848484851</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="6"/>
-        <v>2.9732721202003338</v>
+        <v>1.6923076923076923</v>
       </c>
       <c r="X11" s="23">
-        <f t="shared" si="17"/>
-        <v>7.5314412910406234E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.1880341880341873E-2</v>
       </c>
       <c r="Y11" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z11" s="21">
-        <v>43244</v>
+        <v>3085</v>
       </c>
       <c r="AA11" s="21">
-        <v>19872</v>
+        <v>601</v>
       </c>
       <c r="AB11" s="21">
-        <v>51880</v>
+        <v>4799</v>
       </c>
       <c r="AC11" s="21">
-        <v>23319</v>
+        <v>625</v>
       </c>
       <c r="AD11" s="21">
         <f t="shared" si="7"/>
-        <v>91677</v>
+        <v>7860</v>
       </c>
       <c r="AE11" s="11">
         <f t="shared" si="8"/>
-        <v>0.4082935211586759</v>
+        <v>0.33532608695652172</v>
       </c>
       <c r="AF11" s="11">
         <f t="shared" si="9"/>
-        <v>0.18762392129463526</v>
+        <v>6.5326086956521742E-2</v>
       </c>
       <c r="AG11" s="11">
         <f t="shared" si="10"/>
-        <v>0.48983137262307153</v>
+        <v>0.52163043478260873</v>
       </c>
       <c r="AH11" s="11">
         <f t="shared" si="11"/>
-        <v>0.22016919387427536</v>
+        <v>6.7934782608695649E-2</v>
       </c>
       <c r="AI11" s="11">
         <f t="shared" si="12"/>
-        <v>0.86557962120210741</v>
+        <v>0.85434782608695647</v>
       </c>
       <c r="AJ11" s="11">
-        <f t="shared" si="15"/>
-        <v>5.3623046129345417E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.24173027989821882</v>
       </c>
       <c r="AK11" s="11">
         <f t="shared" si="13"/>
-        <v>4.9208998258378142E-2</v>
+        <v>0.1823579304495335</v>
       </c>
       <c r="AL11" s="27"/>
-      <c r="AM11" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP11" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12" s="6" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>198</v>
+        <v>254</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="D12" s="21">
-        <v>2200</v>
+        <v>2484</v>
       </c>
       <c r="E12" s="21">
-        <v>1700</v>
+        <v>1927</v>
       </c>
       <c r="F12" s="21">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="H12" s="21">
-        <v>683</v>
+        <v>1520</v>
       </c>
       <c r="I12" s="21">
-        <v>150</v>
+        <v>469</v>
       </c>
       <c r="J12" s="21">
-        <v>140</v>
+        <v>414</v>
       </c>
       <c r="K12" s="21">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="L12" s="21">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="M12" s="21">
         <f t="shared" si="0"/>
-        <v>103.33333333333333</v>
+        <v>276</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="21">
-        <v>12300</v>
+        <v>17547</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="1"/>
-        <v>119.03225806451613</v>
+        <v>63.576086956521742</v>
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="2"/>
-        <v>0.22727272727272727</v>
+        <v>0.22423510466988728</v>
       </c>
       <c r="R12" s="23">
         <f t="shared" si="3"/>
-        <v>9.4545454545454544E-2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="23">
         <f t="shared" si="4"/>
-        <v>0.41599999999999998</v>
+        <v>0</v>
       </c>
       <c r="T12" s="23">
-        <f t="shared" si="20"/>
-        <v>0.21961932650073207</v>
+        <f t="shared" si="22"/>
+        <v>0.30855263157894736</v>
       </c>
       <c r="U12" s="23">
-        <f t="shared" si="21"/>
-        <v>0.15129331381161543</v>
+        <f t="shared" si="23"/>
+        <v>0.18157894736842106</v>
       </c>
       <c r="V12" s="23">
         <f t="shared" si="5"/>
-        <v>0.31045454545454543</v>
+        <v>0.61191626409017719</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="6"/>
-        <v>1.2941176470588236</v>
+        <v>1.2890503373118838</v>
       </c>
       <c r="X12" s="23">
-        <f t="shared" si="17"/>
-        <v>6.0784313725490195E-2</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>0.14322781525687597</v>
+      </c>
+      <c r="Y12" s="24"/>
       <c r="Z12" s="21">
-        <v>491</v>
+        <v>718</v>
       </c>
       <c r="AA12" s="21">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="AB12" s="21">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="21">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="21">
         <f t="shared" si="7"/>
-        <v>922</v>
+        <v>857</v>
       </c>
       <c r="AE12" s="11">
         <f t="shared" si="8"/>
-        <v>0.71888726207906295</v>
+        <v>0.4723684210526316</v>
       </c>
       <c r="AF12" s="11">
         <f t="shared" si="9"/>
-        <v>0.24597364568081992</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="AG12" s="11">
         <f t="shared" si="10"/>
-        <v>0.53147877013177158</v>
+        <v>6.5789473684210525E-4</v>
       </c>
       <c r="AH12" s="11">
         <f t="shared" si="11"/>
-        <v>0.14641288433382138</v>
+        <v>7.1710526315789475E-2</v>
       </c>
       <c r="AI12" s="11">
         <f t="shared" si="12"/>
-        <v>1.3499267935578332</v>
+        <v>0.56381578947368416</v>
       </c>
       <c r="AJ12" s="11">
-        <f t="shared" si="15"/>
-        <v>0.15184381778741865</v>
+        <f t="shared" si="16"/>
+        <v>0.48308051341890312</v>
       </c>
       <c r="AK12" s="11">
         <f t="shared" si="13"/>
-        <v>0.11207519884309472</v>
+        <v>0.32205367561260212</v>
       </c>
       <c r="AL12" s="27"/>
-      <c r="AM12" s="7"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP12" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="45">
       <c r="A13" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>198</v>
+        <v>147</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D13" s="21">
-        <v>41400</v>
+        <v>178099</v>
       </c>
       <c r="E13" s="21">
-        <v>31300</v>
+        <v>59900</v>
       </c>
       <c r="F13" s="21">
-        <v>0</v>
+        <v>56500</v>
       </c>
       <c r="G13" s="21">
-        <v>-136</v>
+        <v>2300</v>
       </c>
       <c r="H13" s="21">
-        <v>59300</v>
+        <v>105914</v>
       </c>
       <c r="I13" s="21">
-        <v>12500</v>
+        <v>5410</v>
       </c>
       <c r="J13" s="21">
-        <v>12200</v>
+        <v>4916</v>
       </c>
       <c r="K13" s="21">
-        <v>6600</v>
+        <v>5480</v>
       </c>
       <c r="L13" s="21">
-        <v>2800</v>
+        <v>3138</v>
       </c>
       <c r="M13" s="21">
         <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>4511.333333333333</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="21">
-        <v>112700</v>
+        <v>150000</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="1"/>
-        <v>15.652777777777779</v>
+        <v>33.24959361607803</v>
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="2"/>
-        <v>0.24396135265700483</v>
+        <v>0.66367020589672032</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.31723928826102338</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.47800742815083036</v>
       </c>
       <c r="T13" s="23">
-        <f t="shared" si="20"/>
-        <v>0.21079258010118043</v>
+        <f t="shared" si="22"/>
+        <v>5.1079177445852296E-2</v>
       </c>
       <c r="U13" s="23">
-        <f t="shared" si="21"/>
-        <v>0.12141652613827993</v>
+        <f t="shared" si="23"/>
+        <v>4.2594306072222116E-2</v>
       </c>
       <c r="V13" s="23">
         <f t="shared" si="5"/>
-        <v>1.432367149758454</v>
+        <v>0.59469171640492091</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="6"/>
-        <v>1.3226837060702876</v>
+        <v>2.9732721202003338</v>
       </c>
       <c r="X13" s="23">
-        <f t="shared" si="17"/>
-        <v>0.23003194888178913</v>
+        <f t="shared" si="19"/>
+        <v>7.5314412910406234E-2</v>
       </c>
       <c r="Y13" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z13" s="21">
-        <v>11370</v>
+        <v>43244</v>
       </c>
       <c r="AA13" s="21">
-        <v>10547</v>
+        <v>19872</v>
       </c>
       <c r="AB13" s="21">
-        <v>143</v>
+        <v>51880</v>
       </c>
       <c r="AC13" s="21">
-        <v>2648</v>
+        <v>23319</v>
       </c>
       <c r="AD13" s="21">
         <f t="shared" si="7"/>
-        <v>19412</v>
+        <v>91677</v>
       </c>
       <c r="AE13" s="11">
         <f t="shared" si="8"/>
-        <v>0.19173693086003374</v>
+        <v>0.4082935211586759</v>
       </c>
       <c r="AF13" s="11">
         <f t="shared" si="9"/>
-        <v>0.17785834738617201</v>
+        <v>0.18762392129463526</v>
       </c>
       <c r="AG13" s="11">
         <f t="shared" si="10"/>
-        <v>2.4114671163575044E-3</v>
+        <v>0.48983137262307153</v>
       </c>
       <c r="AH13" s="11">
         <f t="shared" si="11"/>
-        <v>4.4654300168634066E-2</v>
+        <v>0.22016919387427536</v>
       </c>
       <c r="AI13" s="11">
         <f t="shared" si="12"/>
-        <v>0.3273524451939292</v>
+        <v>0.86557962120210741</v>
       </c>
       <c r="AJ13" s="11">
-        <f t="shared" si="15"/>
-        <v>0.62847723057902327</v>
+        <f t="shared" si="16"/>
+        <v>5.3623046129345417E-2</v>
       </c>
       <c r="AK13" s="11">
         <f t="shared" si="13"/>
-        <v>0.37090459509581702</v>
+        <v>4.9208998258378142E-2</v>
       </c>
       <c r="AL13" s="27"/>
-      <c r="AM13" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ13" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14" s="6" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D14" s="21">
-        <v>2360000</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="21">
-        <v>152900</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+        <v>1700</v>
+      </c>
+      <c r="F14" s="21">
+        <v>208</v>
+      </c>
+      <c r="G14" s="21">
+        <v>-12</v>
+      </c>
       <c r="H14" s="21">
-        <v>64000</v>
+        <v>683</v>
       </c>
       <c r="I14" s="21">
-        <v>26100</v>
+        <v>150</v>
       </c>
       <c r="J14" s="21">
-        <v>19700</v>
+        <v>140</v>
       </c>
       <c r="K14" s="21">
-        <v>18900</v>
+        <v>98</v>
       </c>
       <c r="L14" s="21">
-        <v>18000</v>
+        <v>72</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" si="0"/>
-        <v>18866.666666666668</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>103.33333333333333</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="21">
-        <v>113000</v>
+        <v>12300</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P15" si="22">O14/M14</f>
-        <v>5.989399293286219</v>
+        <f t="shared" si="1"/>
+        <v>119.03225806451613</v>
       </c>
       <c r="Q14" s="23">
         <f t="shared" si="2"/>
-        <v>0.93521186440677961</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="R14" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.4545454545454544E-2</v>
       </c>
       <c r="S14" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" ref="T14:T15" si="23">I14/H14</f>
-        <v>0.40781250000000002</v>
+        <f t="shared" si="22"/>
+        <v>0.21961932650073207</v>
       </c>
       <c r="U14" s="23">
-        <f t="shared" ref="U14:U15" si="24">M14/H14</f>
-        <v>0.29479166666666667</v>
+        <f t="shared" si="23"/>
+        <v>0.15129331381161543</v>
       </c>
       <c r="V14" s="23">
         <f t="shared" si="5"/>
-        <v>2.7118644067796609E-2</v>
+        <v>0.31045454545454543</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="6"/>
-        <v>15.434924787442773</v>
+        <v>1.2941176470588236</v>
       </c>
       <c r="X14" s="23">
-        <f t="shared" si="17"/>
-        <v>0.12339219533464138</v>
+        <f t="shared" si="19"/>
+        <v>6.0784313725490195E-2</v>
       </c>
       <c r="Y14" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
+      <c r="Z14" s="21">
+        <v>491</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>168</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>363</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>100</v>
+      </c>
       <c r="AD14" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="AE14" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.71888726207906295</v>
       </c>
       <c r="AF14" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.24597364568081992</v>
       </c>
       <c r="AG14" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.53147877013177158</v>
       </c>
       <c r="AH14" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.14641288433382138</v>
       </c>
       <c r="AI14" s="11">
         <f t="shared" si="12"/>
+        <v>1.3499267935578332</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f t="shared" si="16"/>
+        <v>0.15184381778741865</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="13"/>
+        <v>0.11207519884309472</v>
+      </c>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" s="7"/>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="21">
+        <v>4211</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3169</v>
+      </c>
+      <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="AJ14" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="11" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="17"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="21">
-        <v>6300000</v>
-      </c>
-      <c r="E15" s="21">
-        <v>483300</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21">
+        <v>-61</v>
+      </c>
       <c r="H15" s="21">
-        <v>220800</v>
+        <v>1409</v>
       </c>
       <c r="I15" s="21">
-        <v>90500</v>
+        <v>806.5</v>
       </c>
       <c r="J15" s="21">
-        <v>70600</v>
+        <v>725.6</v>
       </c>
       <c r="K15" s="21">
-        <v>62300</v>
+        <v>1211.5</v>
       </c>
       <c r="L15" s="21">
-        <v>58000</v>
+        <v>957</v>
       </c>
       <c r="M15" s="21">
         <f t="shared" si="0"/>
-        <v>63633.333333333336</v>
+        <v>964.69999999999993</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O15" s="21">
-        <v>725000</v>
+        <v>26880</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="22"/>
-        <v>11.393399685699318</v>
+        <f t="shared" si="1"/>
+        <v>27.863584534052038</v>
       </c>
       <c r="Q15" s="23">
         <f t="shared" si="2"/>
-        <v>0.92328571428571427</v>
+        <v>0.24744716219425314</v>
       </c>
       <c r="R15" s="23">
         <f t="shared" si="3"/>
@@ -3448,39 +3666,45 @@
         <v>0</v>
       </c>
       <c r="T15" s="23">
+        <f t="shared" si="22"/>
+        <v>0.57239176721078777</v>
+      </c>
+      <c r="U15" s="23">
         <f t="shared" si="23"/>
-        <v>0.40987318840579712</v>
-      </c>
-      <c r="U15" s="23">
-        <f t="shared" si="24"/>
-        <v>0.28819444444444448</v>
+        <v>0.68466997870830371</v>
       </c>
       <c r="V15" s="23">
         <f t="shared" si="5"/>
-        <v>3.504761904761905E-2</v>
+        <v>0.33459985751602944</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="6"/>
-        <v>13.035381750465548</v>
+        <v>1.3288103502682234</v>
       </c>
       <c r="X15" s="23">
-        <f t="shared" si="17"/>
-        <v>0.13166425270708326</v>
-      </c>
-      <c r="Y15" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
+        <f t="shared" si="19"/>
+        <v>0.30441779741243291</v>
+      </c>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="21">
+        <v>361.9</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>11.8</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>33.69</v>
+      </c>
       <c r="AD15" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>340.01</v>
       </c>
       <c r="AE15" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.25684882895670685</v>
       </c>
       <c r="AF15" s="11">
         <f t="shared" si="9"/>
@@ -3488,2438 +3712,2996 @@
       </c>
       <c r="AG15" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.3747338537970197E-3</v>
       </c>
       <c r="AH15" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.3910574875798438E-2</v>
       </c>
       <c r="AI15" s="11">
         <f t="shared" si="12"/>
+        <v>0.24131298793470546</v>
+      </c>
+      <c r="AJ15" s="11">
+        <f t="shared" si="16"/>
+        <v>2.1340548807388018</v>
+      </c>
+      <c r="AK15" s="11">
+        <f t="shared" si="13"/>
+        <v>2.8372694920737622</v>
+      </c>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP15" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ15" s="7"/>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="21">
+        <v>41400</v>
+      </c>
+      <c r="E16" s="21">
+        <v>31300</v>
+      </c>
+      <c r="F16" s="21">
         <v>0</v>
       </c>
-      <c r="AJ15" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK15" s="11" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="17"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="21">
-        <v>9600</v>
-      </c>
-      <c r="E16" s="21">
-        <v>5300</v>
-      </c>
-      <c r="F16" s="21">
-        <v>1100</v>
-      </c>
       <c r="G16" s="21">
-        <v>29</v>
+        <v>-136</v>
       </c>
       <c r="H16" s="21">
-        <v>6400</v>
+        <v>59300</v>
       </c>
       <c r="I16" s="21">
-        <v>480</v>
+        <v>12500</v>
       </c>
       <c r="J16" s="21">
-        <v>389</v>
+        <v>12200</v>
       </c>
       <c r="K16" s="21">
-        <v>216</v>
+        <v>6600</v>
       </c>
       <c r="L16" s="21">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M16" s="21">
         <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="N16" s="15" t="s">
+        <v>7200</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O16" s="21">
-        <v>26600</v>
+        <v>112700</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="1"/>
-        <v>28.449197860962567</v>
+        <v>15.652777777777779</v>
       </c>
       <c r="Q16" s="23">
         <f t="shared" si="2"/>
-        <v>0.44791666666666669</v>
+        <v>0.24396135265700483</v>
       </c>
       <c r="R16" s="23">
         <f t="shared" si="3"/>
-        <v>0.11458333333333333</v>
+        <v>0</v>
       </c>
       <c r="S16" s="23">
         <f t="shared" si="4"/>
-        <v>0.2558139534883721</v>
+        <v>0</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="20"/>
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.21079258010118043</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="21"/>
-        <v>0.14609374999999999</v>
+        <f t="shared" si="23"/>
+        <v>0.12141652613827993</v>
       </c>
       <c r="V16" s="23">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>1.432367149758454</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="6"/>
-        <v>1.8113207547169812</v>
+        <v>1.3226837060702876</v>
       </c>
       <c r="X16" s="23">
-        <f t="shared" si="17"/>
-        <v>0.17641509433962263</v>
+        <f t="shared" si="19"/>
+        <v>0.23003194888178913</v>
       </c>
       <c r="Y16" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z16" s="21">
-        <v>297</v>
+        <v>11370</v>
       </c>
       <c r="AA16" s="21">
-        <v>750</v>
+        <v>10547</v>
       </c>
       <c r="AB16" s="21">
-        <v>926</v>
+        <v>143</v>
       </c>
       <c r="AC16" s="21">
-        <v>683</v>
+        <v>2648</v>
       </c>
       <c r="AD16" s="21">
         <f t="shared" si="7"/>
-        <v>1290</v>
+        <v>19412</v>
       </c>
       <c r="AE16" s="11">
         <f t="shared" si="8"/>
-        <v>4.6406250000000003E-2</v>
+        <v>0.19173693086003374</v>
       </c>
       <c r="AF16" s="11">
         <f t="shared" si="9"/>
-        <v>0.1171875</v>
+        <v>0.17785834738617201</v>
       </c>
       <c r="AG16" s="11">
         <f t="shared" si="10"/>
-        <v>0.1446875</v>
+        <v>2.4114671163575044E-3</v>
       </c>
       <c r="AH16" s="11">
         <f t="shared" si="11"/>
-        <v>0.10671875</v>
+        <v>4.4654300168634066E-2</v>
       </c>
       <c r="AI16" s="11">
         <f t="shared" si="12"/>
-        <v>0.20156250000000001</v>
+        <v>0.3273524451939292</v>
       </c>
       <c r="AJ16" s="11">
-        <f t="shared" si="15"/>
-        <v>0.30155038759689923</v>
+        <f t="shared" si="16"/>
+        <v>0.62847723057902327</v>
       </c>
       <c r="AK16" s="11">
         <f t="shared" si="13"/>
-        <v>0.72480620155038755</v>
+        <v>0.37090459509581702</v>
       </c>
       <c r="AL16" s="27"/>
-      <c r="AM16" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP16" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ16" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>198</v>
       </c>
       <c r="D17" s="21">
-        <v>100000</v>
+        <v>2360000</v>
       </c>
       <c r="E17" s="21">
-        <v>46000</v>
-      </c>
-      <c r="F17" s="21">
-        <v>2100</v>
-      </c>
-      <c r="G17" s="21">
-        <v>-300</v>
-      </c>
+        <v>152900</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="21">
-        <v>78500</v>
+        <v>64000</v>
       </c>
       <c r="I17" s="21">
-        <v>9400</v>
+        <v>26100</v>
       </c>
       <c r="J17" s="21">
-        <v>10200</v>
+        <v>19700</v>
       </c>
       <c r="K17" s="21">
-        <v>9900</v>
+        <v>18900</v>
       </c>
       <c r="L17" s="21">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M17" s="21">
         <f t="shared" si="0"/>
+        <v>18866.666666666668</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O17" s="21">
+        <v>113000</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" ref="P17:P18" si="24">O17/M17</f>
+        <v>5.989399293286219</v>
+      </c>
+      <c r="Q17" s="23">
+        <f t="shared" si="2"/>
+        <v>0.93521186440677961</v>
+      </c>
+      <c r="R17" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="23">
+        <f t="shared" ref="T17:T18" si="25">I17/H17</f>
+        <v>0.40781250000000002</v>
+      </c>
+      <c r="U17" s="23">
+        <f t="shared" ref="U17:U18" si="26">M17/H17</f>
+        <v>0.29479166666666667</v>
+      </c>
+      <c r="V17" s="23">
+        <f t="shared" si="5"/>
+        <v>2.7118644067796609E-2</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" si="6"/>
+        <v>15.434924787442773</v>
+      </c>
+      <c r="X17" s="23">
+        <f t="shared" si="19"/>
+        <v>0.12339219533464138</v>
+      </c>
+      <c r="Y17" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK17" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP17" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ17" s="17"/>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="21">
+        <v>6300000</v>
+      </c>
+      <c r="E18" s="21">
+        <v>483300</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21">
+        <v>220800</v>
+      </c>
+      <c r="I18" s="21">
+        <v>90500</v>
+      </c>
+      <c r="J18" s="21">
+        <v>70600</v>
+      </c>
+      <c r="K18" s="21">
+        <v>62300</v>
+      </c>
+      <c r="L18" s="21">
+        <v>58000</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="0"/>
+        <v>63633.333333333336</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" s="21">
+        <v>725000</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="24"/>
+        <v>11.393399685699318</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.92328571428571427</v>
+      </c>
+      <c r="R18" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="25"/>
+        <v>0.40987318840579712</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" si="26"/>
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="5"/>
+        <v>3.504761904761905E-2</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" si="6"/>
+        <v>13.035381750465548</v>
+      </c>
+      <c r="X18" s="23">
+        <f t="shared" si="19"/>
+        <v>0.13166425270708326</v>
+      </c>
+      <c r="Y18" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK18" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="11" t="e">
+        <f t="shared" ref="AO18:AO35" si="27">AM18/AN18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP18" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ18" s="17"/>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="21">
+        <v>9600</v>
+      </c>
+      <c r="E19" s="21">
+        <v>5300</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1100</v>
+      </c>
+      <c r="G19" s="21">
+        <v>29</v>
+      </c>
+      <c r="H19" s="21">
+        <v>6400</v>
+      </c>
+      <c r="I19" s="21">
+        <v>480</v>
+      </c>
+      <c r="J19" s="21">
+        <v>389</v>
+      </c>
+      <c r="K19" s="21">
+        <v>216</v>
+      </c>
+      <c r="L19" s="21">
+        <v>2200</v>
+      </c>
+      <c r="M19" s="21">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" s="21">
+        <v>26600</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="1"/>
+        <v>28.449197860962567</v>
+      </c>
+      <c r="Q19" s="23">
+        <f t="shared" si="2"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="R19" s="23">
+        <f t="shared" si="3"/>
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="S19" s="23">
+        <f t="shared" si="4"/>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="T19" s="23">
+        <f t="shared" si="22"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U19" s="23">
+        <f t="shared" si="23"/>
+        <v>0.14609374999999999</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W19" s="8">
+        <f t="shared" si="6"/>
+        <v>1.8113207547169812</v>
+      </c>
+      <c r="X19" s="23">
+        <f t="shared" si="19"/>
+        <v>0.17641509433962263</v>
+      </c>
+      <c r="Y19" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>297</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>750</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>926</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>683</v>
+      </c>
+      <c r="AD19" s="21">
+        <f t="shared" si="7"/>
+        <v>1290</v>
+      </c>
+      <c r="AE19" s="11">
+        <f t="shared" si="8"/>
+        <v>4.6406250000000003E-2</v>
+      </c>
+      <c r="AF19" s="11">
+        <f t="shared" si="9"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="AG19" s="11">
+        <f t="shared" si="10"/>
+        <v>0.1446875</v>
+      </c>
+      <c r="AH19" s="11">
+        <f t="shared" si="11"/>
+        <v>0.10671875</v>
+      </c>
+      <c r="AI19" s="11">
+        <f t="shared" si="12"/>
+        <v>0.20156250000000001</v>
+      </c>
+      <c r="AJ19" s="11">
+        <f t="shared" si="16"/>
+        <v>0.30155038759689923</v>
+      </c>
+      <c r="AK19" s="11">
+        <f t="shared" si="13"/>
+        <v>0.72480620155038755</v>
+      </c>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP19" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="45">
+      <c r="A20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="21">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="21">
+        <v>46000</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2100</v>
+      </c>
+      <c r="G20" s="21">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="21">
+        <v>78500</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9400</v>
+      </c>
+      <c r="J20" s="21">
+        <v>10200</v>
+      </c>
+      <c r="K20" s="21">
+        <v>9900</v>
+      </c>
+      <c r="L20" s="21">
+        <v>7500</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O20" s="21">
         <v>53000</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P20" s="8">
         <f t="shared" si="1"/>
         <v>5.7608695652173916</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q20" s="23">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R20" s="23">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S20" s="23">
         <f t="shared" si="4"/>
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="T17" s="23">
-        <f t="shared" si="20"/>
+      <c r="T20" s="23">
+        <f t="shared" si="22"/>
         <v>0.11974522292993631</v>
       </c>
-      <c r="U17" s="23">
-        <f t="shared" si="21"/>
+      <c r="U20" s="23">
+        <f t="shared" si="23"/>
         <v>0.11719745222929936</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V20" s="23">
         <f t="shared" si="5"/>
         <v>0.78500000000000003</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W20" s="8">
         <f t="shared" si="6"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="X17" s="23">
-        <f t="shared" si="17"/>
+      <c r="X20" s="23">
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
-      <c r="Y17" s="24" t="s">
+      <c r="Y20" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z17" s="21">
+      <c r="Z20" s="21">
         <v>15480</v>
       </c>
-      <c r="AA17" s="21">
+      <c r="AA20" s="21">
         <v>7304</v>
       </c>
-      <c r="AB17" s="21">
+      <c r="AB20" s="21">
         <v>1498</v>
       </c>
-      <c r="AC17" s="21">
+      <c r="AC20" s="21">
         <v>19880</v>
       </c>
-      <c r="AD17" s="21">
+      <c r="AD20" s="21">
         <f t="shared" si="7"/>
         <v>4402</v>
       </c>
-      <c r="AE17" s="11">
+      <c r="AE20" s="11">
         <f t="shared" si="8"/>
         <v>0.19719745222929935</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AF20" s="11">
         <f t="shared" si="9"/>
         <v>9.3044585987261147E-2</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AG20" s="11">
         <f t="shared" si="10"/>
         <v>1.90828025477707E-2</v>
       </c>
-      <c r="AH17" s="11">
+      <c r="AH20" s="11">
         <f t="shared" si="11"/>
         <v>0.25324840764331208</v>
       </c>
-      <c r="AI17" s="11">
+      <c r="AI20" s="11">
         <f t="shared" si="12"/>
         <v>5.6076433121019106E-2</v>
       </c>
-      <c r="AJ17" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ20" s="11">
+        <f t="shared" si="16"/>
         <v>2.3171285779191275</v>
       </c>
-      <c r="AK17" s="11">
+      <c r="AK20" s="11">
         <f t="shared" si="13"/>
         <v>2.089959109495684</v>
       </c>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="20" t="s">
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP20" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ20" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="AN17" s="6" t="s">
+      <c r="AR20" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="21" spans="1:45">
+      <c r="A21" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="21">
+        <v>134610</v>
+      </c>
+      <c r="E21" s="21">
+        <v>96019</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>-55</v>
+      </c>
+      <c r="H21" s="21">
+        <v>58217</v>
+      </c>
+      <c r="I21" s="21">
+        <v>38940</v>
+      </c>
+      <c r="J21" s="21">
+        <v>29006</v>
+      </c>
+      <c r="K21" s="21">
+        <v>17930</v>
+      </c>
+      <c r="L21" s="21">
+        <v>16454</v>
+      </c>
+      <c r="M21" s="21">
+        <f t="shared" si="0"/>
+        <v>21130</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" s="21">
+        <v>881725</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="1"/>
+        <v>41.728584950307621</v>
+      </c>
+      <c r="Q21" s="23">
+        <f t="shared" si="2"/>
+        <v>0.28668746749869994</v>
+      </c>
+      <c r="R21" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="23">
+        <f t="shared" si="22"/>
+        <v>0.66887678856691346</v>
+      </c>
+      <c r="U21" s="23">
+        <f t="shared" si="23"/>
+        <v>0.36295240221928304</v>
+      </c>
+      <c r="V21" s="23">
+        <f t="shared" si="5"/>
+        <v>0.43248644231483546</v>
+      </c>
+      <c r="W21" s="8">
+        <f t="shared" si="6"/>
+        <v>1.4019100386381862</v>
+      </c>
+      <c r="X21" s="23">
+        <f t="shared" si="19"/>
+        <v>0.22006061300367635</v>
+      </c>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="21">
+        <v>15244</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>22057</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>992</v>
+      </c>
+      <c r="AD21" s="21">
+        <f t="shared" si="7"/>
+        <v>36309</v>
+      </c>
+      <c r="AE21" s="11">
+        <f t="shared" si="8"/>
+        <v>0.2618479138396001</v>
+      </c>
+      <c r="AF21" s="11">
+        <f t="shared" si="9"/>
+        <v>0.37887558616898842</v>
+      </c>
+      <c r="AG21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="11">
+        <f t="shared" si="11"/>
+        <v>1.7039696308638372E-2</v>
+      </c>
+      <c r="AI21" s="11">
+        <f t="shared" si="12"/>
+        <v>0.62368380369995013</v>
+      </c>
+      <c r="AJ21" s="11">
+        <f t="shared" si="16"/>
+        <v>0.79886529510589666</v>
+      </c>
+      <c r="AK21" s="11">
+        <f t="shared" si="13"/>
+        <v>0.58194937894186016</v>
+      </c>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP21" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="6"/>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="21">
+        <v>13699</v>
+      </c>
+      <c r="E22" s="21">
+        <v>7481</v>
+      </c>
+      <c r="F22" s="21">
+        <f>114+99+48</f>
+        <v>261</v>
+      </c>
+      <c r="G22" s="21">
+        <v>-49.6</v>
+      </c>
+      <c r="H22" s="21">
+        <v>12017</v>
+      </c>
+      <c r="I22" s="21">
+        <v>655.9</v>
+      </c>
+      <c r="J22" s="21">
+        <v>464</v>
+      </c>
+      <c r="K22" s="21">
+        <v>843.7</v>
+      </c>
+      <c r="L22" s="21">
+        <v>614</v>
+      </c>
+      <c r="M22" s="21">
+        <f t="shared" si="0"/>
+        <v>640.56666666666672</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="21">
+        <v>13336</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="1"/>
+        <v>20.819066451579328</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" si="2"/>
+        <v>0.45390174465289435</v>
+      </c>
+      <c r="R22" s="23">
+        <f t="shared" si="3"/>
+        <v>1.9052485582889262E-2</v>
+      </c>
+      <c r="S22" s="23">
+        <f t="shared" si="4"/>
+        <v>4.1974911547121262E-2</v>
+      </c>
+      <c r="T22" s="23">
+        <f t="shared" si="22"/>
+        <v>5.4581010235499709E-2</v>
+      </c>
+      <c r="U22" s="23">
+        <f t="shared" si="23"/>
+        <v>5.330504008210591E-2</v>
+      </c>
+      <c r="V22" s="23">
+        <f t="shared" si="5"/>
+        <v>0.87721731513249146</v>
+      </c>
+      <c r="W22" s="8">
+        <f t="shared" si="6"/>
+        <v>1.8311723031680256</v>
+      </c>
+      <c r="X22" s="23">
+        <f t="shared" si="19"/>
+        <v>8.5625807601479309E-2</v>
+      </c>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="21">
+        <v>3655.5</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>1730.8</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>2901.8</v>
+      </c>
+      <c r="AC22" s="21">
+        <v>2195</v>
+      </c>
+      <c r="AD22" s="21">
+        <f t="shared" si="7"/>
+        <v>6093.1</v>
+      </c>
+      <c r="AE22" s="11">
+        <f t="shared" si="8"/>
+        <v>0.30419405841724223</v>
+      </c>
+      <c r="AF22" s="11">
+        <f t="shared" si="9"/>
+        <v>0.14402929183656485</v>
+      </c>
+      <c r="AG22" s="11">
+        <f t="shared" si="10"/>
+        <v>0.24147457768161773</v>
+      </c>
+      <c r="AH22" s="11">
+        <f t="shared" si="11"/>
+        <v>0.18265790130648249</v>
+      </c>
+      <c r="AI22" s="11">
+        <f t="shared" si="12"/>
+        <v>0.50704002662894232</v>
+      </c>
+      <c r="AJ22" s="11">
+        <f t="shared" si="16"/>
+        <v>7.6151712592932991E-2</v>
+      </c>
+      <c r="AK22" s="11">
+        <f t="shared" si="13"/>
+        <v>0.10512984632890757</v>
+      </c>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP22" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="6"/>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D23" s="21">
         <v>26800</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E23" s="21">
         <v>20900</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F23" s="21">
         <v>4790</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G23" s="21">
         <v>275</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H23" s="21">
         <v>1000</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I23" s="21">
         <v>3569</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J23" s="21">
         <v>3550</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K23" s="21">
         <v>3900</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L23" s="21">
         <v>3500</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M23" s="21">
         <f t="shared" si="0"/>
         <v>3650</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="21">
+      <c r="N23" s="2"/>
+      <c r="O23" s="21">
         <v>39000</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P23" s="8">
         <f t="shared" si="1"/>
         <v>10.684931506849315</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q23" s="23">
         <f t="shared" si="2"/>
         <v>0.22014925373134328</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R23" s="23">
         <f t="shared" si="3"/>
         <v>0.17873134328358209</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S23" s="23">
         <f t="shared" si="4"/>
         <v>0.81186440677966099</v>
       </c>
-      <c r="T18" s="23">
-        <f t="shared" si="20"/>
+      <c r="T23" s="23">
+        <f t="shared" si="22"/>
         <v>3.569</v>
       </c>
-      <c r="U18" s="23">
-        <f t="shared" si="21"/>
+      <c r="U23" s="23">
+        <f t="shared" si="23"/>
         <v>3.65</v>
       </c>
-      <c r="V18" s="23">
+      <c r="V23" s="23">
         <f t="shared" si="5"/>
         <v>3.7313432835820892E-2</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W23" s="8">
         <f t="shared" si="6"/>
         <v>1.2822966507177034</v>
       </c>
-      <c r="X18" s="23">
-        <f t="shared" si="17"/>
+      <c r="X23" s="23">
+        <f t="shared" si="19"/>
         <v>0.17464114832535885</v>
       </c>
-      <c r="Y18" s="24" t="s">
+      <c r="Y23" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z18" s="21">
+      <c r="Z23" s="21">
         <v>3482</v>
       </c>
-      <c r="AA18" s="21">
+      <c r="AA23" s="21">
         <v>59</v>
       </c>
-      <c r="AB18" s="21">
+      <c r="AB23" s="21">
         <v>364</v>
       </c>
-      <c r="AC18" s="21">
+      <c r="AC23" s="21">
         <v>173</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AD23" s="21">
         <f t="shared" si="7"/>
         <v>3732</v>
       </c>
-      <c r="AE18" s="11">
+      <c r="AE23" s="11">
         <f t="shared" si="8"/>
         <v>3.4820000000000002</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AF23" s="11">
         <f t="shared" si="9"/>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AG23" s="11">
         <f t="shared" si="10"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AH23" s="11">
         <f t="shared" si="11"/>
         <v>0.17299999999999999</v>
       </c>
-      <c r="AI18" s="11">
+      <c r="AI23" s="11">
         <f t="shared" si="12"/>
         <v>3.7320000000000002</v>
       </c>
-      <c r="AJ18" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ23" s="11">
+        <f t="shared" si="16"/>
         <v>0.9512325830653805</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AK23" s="11">
         <f t="shared" si="13"/>
         <v>0.97802786709539125</v>
       </c>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="12" t="s">
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="AN18" s="6" t="s">
+      <c r="AR23" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="24" spans="1:45" ht="30">
+      <c r="A24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="21">
+      <c r="C24" s="4"/>
+      <c r="D24" s="21">
         <v>208200</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E24" s="21">
         <v>60700</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F24" s="21">
         <v>114400</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G24" s="21">
         <v>4800</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H24" s="21">
         <v>31600</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I24" s="21">
         <v>7500</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J24" s="21">
         <v>6500</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K24" s="21">
         <v>7800</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L24" s="21">
         <v>10100</v>
       </c>
-      <c r="M19" s="21">
-        <f>(J19+K19+L19)/3</f>
+      <c r="M24" s="21">
+        <f>(J24+K24+L24)/3</f>
         <v>8133.333333333333</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="21">
+      <c r="N24" s="2"/>
+      <c r="O24" s="21">
         <v>47000</v>
       </c>
-      <c r="P19" s="8">
-        <f>O19/M19</f>
+      <c r="P24" s="8">
+        <f>O24/M24</f>
         <v>5.778688524590164</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q24" s="23">
         <f t="shared" si="2"/>
         <v>0.70845341018251684</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R24" s="23">
         <f t="shared" si="3"/>
         <v>0.54947166186359275</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S24" s="23">
         <f t="shared" si="4"/>
         <v>0.77559322033898304</v>
       </c>
-      <c r="T19" s="23">
-        <f>I19/H19</f>
+      <c r="T24" s="23">
+        <f>I24/H24</f>
         <v>0.23734177215189872</v>
       </c>
-      <c r="U19" s="23">
-        <f>M19/H19</f>
+      <c r="U24" s="23">
+        <f>M24/H24</f>
         <v>0.2573839662447257</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V24" s="23">
         <f t="shared" si="5"/>
         <v>0.15177713736791545</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W24" s="8">
         <f t="shared" si="6"/>
         <v>3.4299835255354201</v>
       </c>
-      <c r="X19" s="23">
-        <f t="shared" si="17"/>
+      <c r="X24" s="23">
+        <f t="shared" si="19"/>
         <v>0.13399231191652938</v>
       </c>
-      <c r="Y19" s="24" t="s">
+      <c r="Y24" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z24" s="21">
         <v>134490</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AA24" s="21">
         <v>1183</v>
       </c>
-      <c r="AB19" s="21">
+      <c r="AB24" s="21">
         <v>3551</v>
       </c>
-      <c r="AC19" s="21">
+      <c r="AC24" s="21">
         <v>4834</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD24" s="21">
         <f t="shared" si="7"/>
         <v>134390</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AE24" s="11">
         <f t="shared" si="8"/>
         <v>4.2560126582278484</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF24" s="11">
         <f t="shared" si="9"/>
         <v>3.7436708860759491E-2</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG24" s="11">
         <f t="shared" si="10"/>
         <v>0.11237341772151899</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AH24" s="11">
         <f t="shared" si="11"/>
         <v>0.1529746835443038</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AI24" s="11">
         <f t="shared" si="12"/>
         <v>4.2528481012658226</v>
       </c>
-      <c r="AJ19" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ24" s="11">
+        <f t="shared" si="16"/>
         <v>4.8366693950442741E-2</v>
       </c>
-      <c r="AK19" s="11">
+      <c r="AK24" s="11">
         <f t="shared" si="13"/>
         <v>6.0520376020041171E-2</v>
       </c>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="20" t="s">
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="AN19" s="6" t="s">
+      <c r="AR24" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="25" spans="1:45">
+      <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D25" s="21">
         <v>6493000</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E25" s="21">
         <v>587900</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21">
         <v>890800</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I25" s="21">
         <v>134700</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J25" s="21">
         <v>99900</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K25" s="21">
         <v>72300</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L25" s="21">
         <v>65100</v>
       </c>
-      <c r="M20" s="21">
-        <f>(J20+K20+L20)/3</f>
+      <c r="M25" s="21">
+        <f>(J25+K25+L25)/3</f>
         <v>79100</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="21">
+      <c r="N25" s="2"/>
+      <c r="O25" s="21">
         <v>1180000</v>
       </c>
-      <c r="P20" s="8">
-        <f>O20/M20</f>
+      <c r="P25" s="8">
+        <f>O25/M25</f>
         <v>14.917825537294563</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q25" s="23">
         <f t="shared" si="2"/>
         <v>0.90945633759433231</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R25" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S25" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="23">
-        <f>I20/H20</f>
+      <c r="T25" s="23">
+        <f>I25/H25</f>
         <v>0.15121239335428829</v>
       </c>
-      <c r="U20" s="23">
-        <f>M20/H20</f>
+      <c r="U25" s="23">
+        <f>M25/H25</f>
         <v>8.8796587337224966E-2</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V25" s="23">
         <f t="shared" si="5"/>
         <v>0.1371939011242877</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W25" s="8">
         <f t="shared" si="6"/>
         <v>11.044395305324034</v>
       </c>
-      <c r="X20" s="23">
-        <f t="shared" si="17"/>
+      <c r="X25" s="23">
+        <f t="shared" si="19"/>
         <v>0.13454669161422012</v>
       </c>
-      <c r="Y20" s="24" t="s">
+      <c r="Y25" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21">
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="11">
+      <c r="AE25" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AF25" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AG25" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AH25" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="11">
+      <c r="AI25" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK20" s="11" t="e">
+      <c r="AJ25" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="11" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL20" s="27"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C26" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D26" s="21">
         <v>844083</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E26" s="21">
         <v>169719</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F26" s="21">
         <v>138024</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G26" s="21">
         <v>3537</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H26" s="21">
         <v>689944</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I26" s="21">
         <v>19247</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J26" s="21">
         <v>14203</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K26" s="21">
         <v>12702</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L26" s="21">
         <v>11786</v>
       </c>
-      <c r="M21" s="21">
-        <f>(J21+K21+L21)/3</f>
+      <c r="M26" s="21">
+        <f>(J26+K26+L26)/3</f>
         <v>12897</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O26" s="21">
         <v>169200</v>
       </c>
-      <c r="P21" s="8">
-        <f>O21/M21</f>
+      <c r="P26" s="8">
+        <f>O26/M26</f>
         <v>13.119330076762038</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q26" s="23">
         <f t="shared" si="2"/>
         <v>0.79893091082275081</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R26" s="23">
         <f t="shared" si="3"/>
         <v>0.16351946431808245</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S26" s="23">
         <f t="shared" si="4"/>
         <v>0.20467284730501628</v>
       </c>
-      <c r="T21" s="23">
-        <f>I21/H21</f>
+      <c r="T26" s="23">
+        <f>I26/H26</f>
         <v>2.7896466959637305E-2</v>
       </c>
-      <c r="U21" s="23">
-        <f>M21/H21</f>
+      <c r="U26" s="23">
+        <f>M26/H26</f>
         <v>1.8692821446378256E-2</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V26" s="23">
         <f t="shared" si="5"/>
         <v>0.81738881128988505</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W26" s="8">
         <f t="shared" si="6"/>
         <v>4.9734148798896998</v>
       </c>
-      <c r="X21" s="23">
-        <f t="shared" si="17"/>
+      <c r="X26" s="23">
+        <f t="shared" si="19"/>
         <v>7.599031340038534E-2</v>
       </c>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="21">
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="21">
         <v>52368</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA26" s="21">
         <v>242463</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB26" s="21">
         <v>157804</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC26" s="21">
         <v>288407</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AD26" s="21">
         <f t="shared" si="7"/>
         <v>164228</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AE26" s="11">
         <f t="shared" si="8"/>
         <v>7.5901812320999962E-2</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AF26" s="11">
         <f t="shared" si="9"/>
         <v>0.35142417355611472</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AG26" s="11">
         <f t="shared" si="10"/>
         <v>0.22872001205894971</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AH26" s="11">
         <f t="shared" si="11"/>
         <v>0.41801508528228376</v>
       </c>
-      <c r="AI21" s="11">
+      <c r="AI26" s="11">
         <f t="shared" si="12"/>
         <v>0.2380309126537806</v>
       </c>
-      <c r="AJ21" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ26" s="11">
+        <f t="shared" si="16"/>
         <v>8.6483425481647461E-2</v>
       </c>
-      <c r="AK21" s="11">
+      <c r="AK26" s="11">
         <f t="shared" si="13"/>
         <v>7.8531066565993624E-2</v>
       </c>
-      <c r="AL21" s="27"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP26" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D27" s="21">
         <v>6406900</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E27" s="21">
         <v>413900</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F27" s="21">
         <v>0</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21">
         <v>157000</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I27" s="21">
         <v>63300</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J27" s="21">
         <v>54300</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K27" s="21">
         <v>50600</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L27" s="21">
         <v>47500</v>
       </c>
-      <c r="M22" s="21">
-        <f>(J22+K22+L22)/3</f>
+      <c r="M27" s="21">
+        <f>(J27+K27+L27)/3</f>
         <v>50800</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="21">
+      <c r="N27" s="2"/>
+      <c r="O27" s="21">
         <v>350000</v>
       </c>
-      <c r="P22" s="8">
-        <f>O22/M22</f>
+      <c r="P27" s="8">
+        <f>O27/M27</f>
         <v>6.8897637795275593</v>
       </c>
-      <c r="Q22" s="23">
-        <f>(D22-E22)/D22</f>
+      <c r="Q27" s="23">
+        <f>(D27-E27)/D27</f>
         <v>0.93539777427461024</v>
       </c>
-      <c r="R22" s="23">
-        <f>F22/D22</f>
+      <c r="R27" s="23">
+        <f>F27/D27</f>
         <v>0</v>
       </c>
-      <c r="S22" s="23">
-        <f>F22/(D22-E22)</f>
+      <c r="S27" s="23">
+        <f>F27/(D27-E27)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="23">
-        <f>I22/H22</f>
+      <c r="T27" s="23">
+        <f>I27/H27</f>
         <v>0.4031847133757962</v>
       </c>
-      <c r="U22" s="23">
-        <f>M22/H22</f>
+      <c r="U27" s="23">
+        <f>M27/H27</f>
         <v>0.3235668789808917</v>
       </c>
-      <c r="V22" s="23">
-        <f>H22/D22</f>
+      <c r="V27" s="23">
+        <f>H27/D27</f>
         <v>2.45048307293699E-2</v>
       </c>
-      <c r="W22" s="8">
-        <f>D22/E22</f>
+      <c r="W27" s="8">
+        <f>D27/E27</f>
         <v>15.479342836433922</v>
       </c>
-      <c r="X22" s="23">
-        <f>M22/E22</f>
+      <c r="X27" s="23">
+        <f>M27/E27</f>
         <v>0.12273496013529839</v>
       </c>
-      <c r="Y22" s="24" t="s">
+      <c r="Y27" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21">
-        <f>Z22+AA22+AB22-AC22</f>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21">
+        <f>Z27+AA27+AB27-AC27</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="11">
-        <f>Z22/H22</f>
+      <c r="AE27" s="11">
+        <f>Z27/H27</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="11">
-        <f>AA22/H22</f>
+      <c r="AF27" s="11">
+        <f>AA27/H27</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="11">
-        <f>AB22/H22</f>
+      <c r="AG27" s="11">
+        <f>AB27/H27</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="11">
-        <f>AC22/H22</f>
+      <c r="AH27" s="11">
+        <f>AC27/H27</f>
         <v>0</v>
       </c>
-      <c r="AI22" s="11">
-        <f>AD22/H22</f>
+      <c r="AI27" s="11">
+        <f>AD27/H27</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="11" t="e">
-        <f>J22/AD22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK22" s="11" t="e">
-        <f>M22/AD22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="18" t="s">
+      <c r="AJ27" s="11" t="e">
+        <f>J27/AD27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK27" s="11" t="e">
+        <f>M27/AD27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP27" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ27" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AS27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="28" spans="1:45">
+      <c r="A28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C28" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D28" s="21">
         <v>110500</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E28" s="21">
         <v>49200</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F28" s="21">
         <v>1500</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G28" s="21">
         <v>139</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H28" s="21">
         <v>100400</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I28" s="21">
         <v>5800</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J28" s="21">
         <v>5000</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K28" s="21">
         <v>10500</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L28" s="21">
         <v>8000</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M28" s="21">
         <f t="shared" si="0"/>
         <v>7833.333333333333</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="21">
+      <c r="N28" s="2"/>
+      <c r="O28" s="21">
         <v>105000</v>
       </c>
-      <c r="P23" s="8">
-        <f t="shared" ref="P23:P36" si="25">O23/M23</f>
+      <c r="P28" s="8">
+        <f t="shared" ref="P28:P41" si="28">O28/M28</f>
         <v>13.404255319148938</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q28" s="23">
         <f t="shared" si="2"/>
         <v>0.55475113122171948</v>
       </c>
-      <c r="R23" s="23">
-        <f t="shared" ref="R23:R35" si="26">F23/D23</f>
+      <c r="R28" s="23">
+        <f t="shared" ref="R28:R40" si="29">F28/D28</f>
         <v>1.3574660633484163E-2</v>
       </c>
-      <c r="S23" s="23">
-        <f t="shared" ref="S23:S35" si="27">F23/(D23-E23)</f>
+      <c r="S28" s="23">
+        <f t="shared" ref="S28:S40" si="30">F28/(D28-E28)</f>
         <v>2.4469820554649267E-2</v>
       </c>
-      <c r="T23" s="23">
-        <f t="shared" si="20"/>
+      <c r="T28" s="23">
+        <f t="shared" si="22"/>
         <v>5.7768924302788842E-2</v>
       </c>
-      <c r="U23" s="23">
-        <f t="shared" si="21"/>
+      <c r="U28" s="23">
+        <f t="shared" si="23"/>
         <v>7.802124833997344E-2</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V28" s="23">
         <f t="shared" si="5"/>
         <v>0.90859728506787329</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W28" s="8">
         <f t="shared" si="6"/>
         <v>2.2459349593495936</v>
       </c>
-      <c r="X23" s="23">
-        <f t="shared" si="17"/>
+      <c r="X28" s="23">
+        <f t="shared" si="19"/>
         <v>0.15921409214092141</v>
       </c>
-      <c r="Y23" s="24" t="s">
+      <c r="Y28" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z28" s="21">
         <v>27718</v>
       </c>
-      <c r="AA23" s="21">
+      <c r="AA28" s="21">
         <v>5574</v>
       </c>
-      <c r="AB23" s="21">
+      <c r="AB28" s="21">
         <v>873</v>
       </c>
-      <c r="AC23" s="21">
+      <c r="AC28" s="21">
         <v>27961</v>
       </c>
-      <c r="AD23" s="21">
+      <c r="AD28" s="21">
         <f t="shared" si="7"/>
         <v>6204</v>
       </c>
-      <c r="AE23" s="11">
+      <c r="AE28" s="11">
         <f t="shared" si="8"/>
         <v>0.27607569721115538</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AF28" s="11">
         <f t="shared" si="9"/>
         <v>5.5517928286852591E-2</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AG28" s="11">
         <f t="shared" si="10"/>
         <v>8.6952191235059768E-3</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AH28" s="11">
         <f t="shared" si="11"/>
         <v>0.278496015936255</v>
       </c>
-      <c r="AI23" s="11">
+      <c r="AI28" s="11">
         <f t="shared" si="12"/>
         <v>6.1792828685258962E-2</v>
       </c>
-      <c r="AJ23" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ28" s="11">
+        <f t="shared" si="16"/>
         <v>0.80593165699548674</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AK28" s="11">
         <f t="shared" si="13"/>
         <v>1.2626262626262625</v>
       </c>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="12" t="s">
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP28" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ28" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="29" spans="1:45">
+      <c r="A29" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C29" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D29" s="21">
         <v>2404910</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E29" s="21">
         <v>1381610</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F29" s="21">
         <f>93881+81536+195192+94666</f>
         <v>465275</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G29" s="21">
         <v>21648</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H29" s="21">
         <v>2015890</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I29" s="21">
         <v>57769</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J29" s="21">
         <v>36788</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K29" s="21">
         <v>29414</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L29" s="21">
         <v>42364</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M29" s="21">
         <f t="shared" si="0"/>
         <v>36188.666666666664</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O29" s="21">
         <v>1370000</v>
       </c>
-      <c r="P24" s="8">
-        <f t="shared" si="25"/>
+      <c r="P29" s="8">
+        <f t="shared" si="28"/>
         <v>37.857156015695523</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q29" s="23">
         <f t="shared" si="2"/>
         <v>0.42550448873346614</v>
       </c>
-      <c r="R24" s="23">
-        <f t="shared" si="26"/>
+      <c r="R29" s="23">
+        <f t="shared" si="29"/>
         <v>0.1934687784574059</v>
       </c>
-      <c r="S24" s="23">
-        <f t="shared" si="27"/>
+      <c r="S29" s="23">
+        <f t="shared" si="30"/>
         <v>0.45468093423238543</v>
       </c>
-      <c r="T24" s="23">
-        <f t="shared" si="20"/>
+      <c r="T29" s="23">
+        <f t="shared" si="22"/>
         <v>2.8656821552763296E-2</v>
       </c>
-      <c r="U24" s="23">
-        <f t="shared" si="21"/>
+      <c r="U29" s="23">
+        <f t="shared" si="23"/>
         <v>1.7951707021051082E-2</v>
       </c>
-      <c r="V24" s="23">
+      <c r="V29" s="23">
         <f t="shared" si="5"/>
         <v>0.83823926882918698</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W29" s="8">
         <f t="shared" si="6"/>
         <v>1.740657638552124</v>
       </c>
-      <c r="X24" s="23">
-        <f t="shared" si="17"/>
+      <c r="X29" s="23">
+        <f t="shared" si="19"/>
         <v>2.6193112865907649E-2</v>
       </c>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="21">
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="21">
         <v>694359</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA29" s="21">
         <v>144669</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB29" s="21">
         <v>53143</v>
       </c>
-      <c r="AC24" s="21">
+      <c r="AC29" s="21">
         <v>224514</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AD29" s="21">
         <f t="shared" si="7"/>
         <v>667657</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AE29" s="11">
         <f t="shared" si="8"/>
         <v>0.34444290115036041</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF29" s="11">
         <f t="shared" si="9"/>
         <v>7.1764332379246884E-2</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AG29" s="11">
         <f t="shared" si="10"/>
         <v>2.6362053485061189E-2</v>
       </c>
-      <c r="AH24" s="11">
+      <c r="AH29" s="11">
         <f t="shared" si="11"/>
         <v>0.1113721482819003</v>
       </c>
-      <c r="AI24" s="11">
+      <c r="AI29" s="11">
         <f t="shared" si="12"/>
         <v>0.33119713873276818</v>
       </c>
-      <c r="AJ24" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ29" s="11">
+        <f t="shared" si="16"/>
         <v>5.5100148729062978E-2</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AK29" s="11">
         <f t="shared" si="13"/>
         <v>5.420248221267307E-2</v>
       </c>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="12"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ29" s="12"/>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D30" s="21">
         <v>35300</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E30" s="21">
         <v>14000</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F30" s="21">
         <v>10800</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G30" s="21">
         <v>400</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H30" s="21">
         <v>20100</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I30" s="21">
         <v>2800</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J30" s="21">
         <v>2600</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K30" s="21">
         <v>1800</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L30" s="21">
         <v>1900</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M30" s="21">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="21">
+      <c r="N30" s="2"/>
+      <c r="O30" s="21">
         <v>55000</v>
       </c>
-      <c r="P25" s="8">
-        <f t="shared" si="25"/>
+      <c r="P30" s="8">
+        <f t="shared" si="28"/>
         <v>26.19047619047619</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q30" s="23">
         <f t="shared" si="2"/>
         <v>0.60339943342776203</v>
       </c>
-      <c r="R25" s="23">
-        <f t="shared" si="26"/>
+      <c r="R30" s="23">
+        <f t="shared" si="29"/>
         <v>0.30594900849858359</v>
       </c>
-      <c r="S25" s="23">
-        <f t="shared" si="27"/>
+      <c r="S30" s="23">
+        <f t="shared" si="30"/>
         <v>0.50704225352112675</v>
       </c>
-      <c r="T25" s="23">
-        <f t="shared" si="20"/>
+      <c r="T30" s="23">
+        <f t="shared" si="22"/>
         <v>0.13930348258706468</v>
       </c>
-      <c r="U25" s="23">
-        <f t="shared" si="21"/>
+      <c r="U30" s="23">
+        <f t="shared" si="23"/>
         <v>0.1044776119402985</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V30" s="23">
         <f t="shared" si="5"/>
         <v>0.56940509915014159</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W30" s="8">
         <f t="shared" si="6"/>
         <v>2.5214285714285714</v>
       </c>
-      <c r="X25" s="23">
-        <f t="shared" si="17"/>
+      <c r="X30" s="23">
+        <f t="shared" si="19"/>
         <v>0.15</v>
       </c>
-      <c r="Y25" s="24" t="s">
+      <c r="Y30" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z30" s="21">
         <v>13458</v>
       </c>
-      <c r="AA25" s="21">
+      <c r="AA30" s="21">
         <v>2044</v>
       </c>
-      <c r="AB25" s="21">
+      <c r="AB30" s="21">
         <v>5555</v>
       </c>
-      <c r="AC25" s="21">
+      <c r="AC30" s="21">
         <v>4168</v>
       </c>
-      <c r="AD25" s="21">
+      <c r="AD30" s="21">
         <f t="shared" si="7"/>
         <v>16889</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AE30" s="11">
         <f t="shared" si="8"/>
         <v>0.66955223880597015</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AF30" s="11">
         <f t="shared" si="9"/>
         <v>0.10169154228855722</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AG30" s="11">
         <f t="shared" si="10"/>
         <v>0.27636815920398011</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AH30" s="11">
         <f t="shared" si="11"/>
         <v>0.207363184079602</v>
       </c>
-      <c r="AI25" s="11">
+      <c r="AI30" s="11">
         <f t="shared" si="12"/>
         <v>0.84024875621890549</v>
       </c>
-      <c r="AJ25" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ30" s="11">
+        <f t="shared" si="16"/>
         <v>0.15394635561608147</v>
       </c>
-      <c r="AK25" s="11">
+      <c r="AK30" s="11">
         <f t="shared" si="13"/>
         <v>0.1243412872283735</v>
       </c>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="3" t="s">
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="31" spans="1:45">
+      <c r="A31" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D31" s="21">
         <v>282046</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E31" s="21">
         <v>71725</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F31" s="21">
         <f>12038+14549+152801</f>
         <v>179388</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G31" s="21">
         <v>4325</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H31" s="21">
         <v>30008</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I31" s="21">
         <v>6180</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J31" s="21">
         <v>8108</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K31" s="21">
         <v>7108</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L31" s="21">
         <v>5156</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M31" s="21">
         <f t="shared" si="0"/>
         <v>6790.666666666667</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O31" s="21">
         <v>103354</v>
       </c>
-      <c r="P26" s="8">
-        <f t="shared" si="25"/>
+      <c r="P31" s="8">
+        <f t="shared" si="28"/>
         <v>15.22000785391714</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q31" s="23">
         <f t="shared" si="2"/>
         <v>0.7456975103351936</v>
       </c>
-      <c r="R26" s="23">
-        <f t="shared" si="26"/>
+      <c r="R31" s="23">
+        <f t="shared" si="29"/>
         <v>0.63602391099324229</v>
       </c>
-      <c r="S26" s="23">
-        <f t="shared" si="27"/>
+      <c r="S31" s="23">
+        <f t="shared" si="30"/>
         <v>0.85292481492575634</v>
       </c>
-      <c r="T26" s="23">
-        <f t="shared" si="20"/>
+      <c r="T31" s="23">
+        <f t="shared" si="22"/>
         <v>0.20594508131165024</v>
       </c>
-      <c r="U26" s="23">
-        <f t="shared" si="21"/>
+      <c r="U31" s="23">
+        <f t="shared" si="23"/>
         <v>0.22629521016617793</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V31" s="23">
         <f t="shared" si="5"/>
         <v>0.10639399246931351</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W31" s="8">
         <f t="shared" si="6"/>
         <v>3.9323248518647613</v>
       </c>
-      <c r="X26" s="23">
-        <f t="shared" si="17"/>
+      <c r="X31" s="23">
+        <f t="shared" si="19"/>
         <v>9.4676426164749625E-2</v>
       </c>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="21">
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="21">
         <v>128176</v>
       </c>
-      <c r="AA26" s="21">
+      <c r="AA31" s="21">
         <v>13599</v>
       </c>
-      <c r="AB26" s="21">
+      <c r="AB31" s="21">
         <v>3552</v>
       </c>
-      <c r="AC26" s="21">
+      <c r="AC31" s="21">
         <v>11926</v>
       </c>
-      <c r="AD26" s="21">
+      <c r="AD31" s="21">
         <f t="shared" si="7"/>
         <v>133401</v>
       </c>
-      <c r="AE26" s="11">
+      <c r="AE31" s="11">
         <f t="shared" si="8"/>
         <v>4.271394294854705</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AF31" s="11">
         <f t="shared" si="9"/>
         <v>0.45317915222607302</v>
       </c>
-      <c r="AG26" s="11">
+      <c r="AG31" s="11">
         <f t="shared" si="10"/>
         <v>0.11836843508397761</v>
       </c>
-      <c r="AH26" s="11">
+      <c r="AH31" s="11">
         <f t="shared" si="11"/>
         <v>0.39742735270594509</v>
       </c>
-      <c r="AI26" s="11">
+      <c r="AI31" s="11">
         <f t="shared" si="12"/>
         <v>4.4455145294588112</v>
       </c>
-      <c r="AJ26" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ31" s="11">
+        <f t="shared" si="16"/>
         <v>6.0779154579051128E-2</v>
       </c>
-      <c r="AK26" s="11">
+      <c r="AK31" s="11">
         <f t="shared" si="13"/>
         <v>5.0904166135686144E-2</v>
       </c>
-      <c r="AL26" s="27"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP31" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D32" s="21">
         <v>6100</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E32" s="21">
         <v>4600</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F32" s="21">
         <v>150</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G32" s="21">
         <v>-18</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H32" s="21">
         <v>2500</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I32" s="21">
         <v>995</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J32" s="21">
         <v>750</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K32" s="21">
         <v>680</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L32" s="21">
         <v>640</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M32" s="21">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O32" s="21">
         <v>18700</v>
       </c>
-      <c r="P27" s="8">
-        <f t="shared" si="25"/>
+      <c r="P32" s="8">
+        <f t="shared" si="28"/>
         <v>27.10144927536232</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q32" s="23">
         <f t="shared" si="2"/>
         <v>0.24590163934426229</v>
       </c>
-      <c r="R27" s="23">
-        <f t="shared" si="26"/>
+      <c r="R32" s="23">
+        <f t="shared" si="29"/>
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="S27" s="23">
-        <f t="shared" si="27"/>
+      <c r="S32" s="23">
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
-      <c r="T27" s="23">
-        <f t="shared" si="20"/>
+      <c r="T32" s="23">
+        <f t="shared" si="22"/>
         <v>0.39800000000000002</v>
       </c>
-      <c r="U27" s="23">
-        <f t="shared" si="21"/>
+      <c r="U32" s="23">
+        <f t="shared" si="23"/>
         <v>0.27600000000000002</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V32" s="23">
         <f t="shared" si="5"/>
         <v>0.4098360655737705</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W32" s="8">
         <f t="shared" si="6"/>
         <v>1.326086956521739</v>
       </c>
-      <c r="X27" s="23">
-        <f t="shared" si="17"/>
+      <c r="X32" s="23">
+        <f t="shared" si="19"/>
         <v>0.15</v>
       </c>
-      <c r="Y27" s="24" t="s">
+      <c r="Y32" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z32" s="21">
         <v>741</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA32" s="21">
         <v>1514</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB32" s="21">
         <v>22</v>
       </c>
-      <c r="AC27" s="21">
+      <c r="AC32" s="21">
         <v>84</v>
       </c>
-      <c r="AD27" s="21">
+      <c r="AD32" s="21">
         <f t="shared" si="7"/>
         <v>2193</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AE32" s="11">
         <f t="shared" si="8"/>
         <v>0.2964</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AF32" s="11">
         <f t="shared" si="9"/>
         <v>0.60560000000000003</v>
       </c>
-      <c r="AG27" s="11">
+      <c r="AG32" s="11">
         <f t="shared" si="10"/>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AH27" s="11">
+      <c r="AH32" s="11">
         <f t="shared" si="11"/>
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="AI27" s="11">
+      <c r="AI32" s="11">
         <f t="shared" si="12"/>
         <v>0.87719999999999998</v>
       </c>
-      <c r="AJ27" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ32" s="11">
+        <f t="shared" si="16"/>
         <v>0.34199726402188785</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AK32" s="11">
         <f t="shared" si="13"/>
         <v>0.31463748290013682</v>
       </c>
-      <c r="AL27" s="27"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP32" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D33" s="21">
         <v>2500</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E33" s="21">
         <v>2000</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F33" s="21">
         <v>0</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G33" s="21">
         <v>-3</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H33" s="21">
         <v>1800</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I33" s="21">
         <v>410</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J33" s="21">
         <v>348</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K33" s="21">
         <v>252</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L33" s="21">
         <v>162</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M33" s="21">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N33" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O33" s="21">
         <v>8800</v>
       </c>
-      <c r="P28" s="8">
-        <f t="shared" si="25"/>
+      <c r="P33" s="8">
+        <f t="shared" si="28"/>
         <v>34.645669291338585</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q33" s="23">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="R28" s="23">
-        <f t="shared" si="26"/>
+      <c r="R33" s="23">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S28" s="23">
-        <f t="shared" si="27"/>
+      <c r="S33" s="23">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T28" s="23">
-        <f t="shared" si="20"/>
+      <c r="T33" s="23">
+        <f t="shared" si="22"/>
         <v>0.22777777777777777</v>
       </c>
-      <c r="U28" s="23">
-        <f t="shared" si="21"/>
+      <c r="U33" s="23">
+        <f t="shared" si="23"/>
         <v>0.1411111111111111</v>
       </c>
-      <c r="V28" s="23">
+      <c r="V33" s="23">
         <f t="shared" si="5"/>
         <v>0.72</v>
       </c>
-      <c r="W28" s="8">
+      <c r="W33" s="8">
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="X28" s="23">
-        <f t="shared" si="17"/>
+      <c r="X33" s="23">
+        <f t="shared" si="19"/>
         <v>0.127</v>
       </c>
-      <c r="Y28" s="24" t="s">
+      <c r="Y33" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z33" s="21">
         <v>480</v>
       </c>
-      <c r="AA28" s="21">
+      <c r="AA33" s="21">
         <v>51</v>
       </c>
-      <c r="AB28" s="21">
+      <c r="AB33" s="21">
         <v>7</v>
       </c>
-      <c r="AC28" s="21">
+      <c r="AC33" s="21">
         <v>169</v>
       </c>
-      <c r="AD28" s="21">
+      <c r="AD33" s="21">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="AE28" s="11">
+      <c r="AE33" s="11">
         <f t="shared" si="8"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="AF28" s="11">
+      <c r="AF33" s="11">
         <f t="shared" si="9"/>
         <v>2.8333333333333332E-2</v>
       </c>
-      <c r="AG28" s="11">
+      <c r="AG33" s="11">
         <f t="shared" si="10"/>
         <v>3.8888888888888888E-3</v>
       </c>
-      <c r="AH28" s="11">
+      <c r="AH33" s="11">
         <f t="shared" si="11"/>
         <v>9.3888888888888883E-2</v>
       </c>
-      <c r="AI28" s="11">
+      <c r="AI33" s="11">
         <f t="shared" si="12"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="AJ28" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ33" s="11">
+        <f t="shared" si="16"/>
         <v>0.94308943089430897</v>
       </c>
-      <c r="AK28" s="11">
+      <c r="AK33" s="11">
         <f t="shared" si="13"/>
         <v>0.68834688346883466</v>
       </c>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="20" t="s">
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP33" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ33" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="34" spans="1:43">
+      <c r="A34" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D34" s="21">
         <v>84980</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E34" s="21">
         <v>34810</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F34" s="21">
         <v>1296</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G34" s="21">
         <v>35</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H34" s="21">
         <v>92760</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I34" s="21">
         <v>17981</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J34" s="21">
         <v>10735</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K34" s="21">
         <v>5170</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L34" s="21">
         <v>2288</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M34" s="21">
         <f t="shared" si="0"/>
         <v>6064.333333333333</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O34" s="21">
         <v>210437</v>
       </c>
-      <c r="P29" s="8">
-        <f t="shared" ref="P29" si="28">O29/M29</f>
+      <c r="P34" s="8">
+        <f t="shared" ref="P34" si="31">O34/M34</f>
         <v>34.700764030121476</v>
       </c>
-      <c r="Q29" s="23">
-        <f t="shared" ref="Q29" si="29">(D29-E29)/D29</f>
+      <c r="Q34" s="23">
+        <f t="shared" ref="Q34" si="32">(D34-E34)/D34</f>
         <v>0.59037420569545773</v>
       </c>
-      <c r="R29" s="23">
-        <f t="shared" ref="R29" si="30">F29/D29</f>
+      <c r="R34" s="23">
+        <f t="shared" ref="R34" si="33">F34/D34</f>
         <v>1.5250647211108496E-2</v>
       </c>
-      <c r="S29" s="23">
-        <f t="shared" ref="S29" si="31">F29/(D29-E29)</f>
+      <c r="S34" s="23">
+        <f t="shared" ref="S34" si="34">F34/(D34-E34)</f>
         <v>2.5832170619892365E-2</v>
       </c>
-      <c r="T29" s="23">
-        <f t="shared" ref="T29" si="32">I29/H29</f>
+      <c r="T34" s="23">
+        <f t="shared" ref="T34" si="35">I34/H34</f>
         <v>0.19384432945235014</v>
       </c>
-      <c r="U29" s="23">
-        <f t="shared" ref="U29" si="33">M29/H29</f>
+      <c r="U34" s="23">
+        <f t="shared" ref="U34" si="36">M34/H34</f>
         <v>6.5376599108811259E-2</v>
       </c>
-      <c r="V29" s="23">
-        <f t="shared" ref="V29" si="34">H29/D29</f>
+      <c r="V34" s="23">
+        <f t="shared" ref="V34" si="37">H34/D34</f>
         <v>1.0915509531654506</v>
       </c>
-      <c r="W29" s="8">
-        <f t="shared" ref="W29" si="35">D29/E29</f>
+      <c r="W34" s="8">
+        <f t="shared" ref="W34" si="38">D34/E34</f>
         <v>2.4412525136455043</v>
       </c>
-      <c r="X29" s="23">
-        <f t="shared" ref="X29" si="36">M29/E29</f>
+      <c r="X34" s="23">
+        <f t="shared" ref="X34" si="39">M34/E34</f>
         <v>0.17421239107536149</v>
       </c>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="21">
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="21">
         <v>14052</v>
       </c>
-      <c r="AA29" s="21">
+      <c r="AA34" s="21">
         <v>6027</v>
       </c>
-      <c r="AB29" s="21">
+      <c r="AB34" s="21">
         <v>33478</v>
       </c>
-      <c r="AC29" s="21">
+      <c r="AC34" s="21">
         <v>47532</v>
       </c>
-      <c r="AD29" s="21">
+      <c r="AD34" s="21">
         <f t="shared" si="7"/>
         <v>6025</v>
       </c>
-      <c r="AE29" s="11">
-        <f t="shared" ref="AE29" si="37">Z29/H29</f>
+      <c r="AE34" s="11">
+        <f t="shared" ref="AE34" si="40">Z34/H34</f>
         <v>0.15148771021992238</v>
       </c>
-      <c r="AF29" s="11">
-        <f t="shared" ref="AF29" si="38">AA29/H29</f>
+      <c r="AF34" s="11">
+        <f t="shared" ref="AF34" si="41">AA34/H34</f>
         <v>6.4974126778783961E-2</v>
       </c>
-      <c r="AG29" s="11">
-        <f t="shared" ref="AG29" si="39">AB29/H29</f>
+      <c r="AG34" s="11">
+        <f t="shared" ref="AG34" si="42">AB34/H34</f>
         <v>0.36090987494609744</v>
       </c>
-      <c r="AH29" s="11">
-        <f t="shared" ref="AH29" si="40">AC29/H29</f>
+      <c r="AH34" s="11">
+        <f t="shared" ref="AH34" si="43">AC34/H34</f>
         <v>0.51241914618369988</v>
       </c>
-      <c r="AI29" s="11">
-        <f t="shared" ref="AI29" si="41">AD29/H29</f>
+      <c r="AI34" s="11">
+        <f t="shared" ref="AI34" si="44">AD34/H34</f>
         <v>6.495256576110392E-2</v>
       </c>
-      <c r="AJ29" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ34" s="11">
+        <f t="shared" si="16"/>
         <v>1.7817427385892117</v>
       </c>
-      <c r="AK29" s="11">
+      <c r="AK34" s="11">
         <f t="shared" si="13"/>
         <v>1.0065283540802212</v>
       </c>
-      <c r="AL29" s="27"/>
-      <c r="AM29" s="20"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="11" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP34" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ34" s="20"/>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D35" s="21">
         <v>120492</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E35" s="21">
         <v>17725</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F35" s="21">
         <f>6986+39837</f>
         <v>46823</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G35" s="21">
         <v>164</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H35" s="21">
         <v>79139</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I35" s="21">
         <v>36227</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J35" s="21">
         <v>5753</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K35" s="21">
         <v>11872</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L35" s="21">
         <v>13190</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M35" s="21">
         <f t="shared" si="0"/>
         <v>10271.666666666666</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O35" s="21">
         <v>145410</v>
       </c>
-      <c r="P30" s="8">
-        <f t="shared" si="25"/>
+      <c r="P35" s="8">
+        <f t="shared" si="28"/>
         <v>14.156417329222782</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q35" s="23">
         <f t="shared" si="2"/>
         <v>0.85289479799488765</v>
       </c>
-      <c r="R30" s="23">
-        <f t="shared" si="26"/>
+      <c r="R35" s="23">
+        <f t="shared" si="29"/>
         <v>0.38859841317265875</v>
       </c>
-      <c r="S30" s="23">
-        <f t="shared" si="27"/>
+      <c r="S35" s="23">
+        <f t="shared" si="30"/>
         <v>0.45562291397043797</v>
       </c>
-      <c r="T30" s="23">
-        <f t="shared" si="20"/>
+      <c r="T35" s="23">
+        <f t="shared" si="22"/>
         <v>0.45776418706326844</v>
       </c>
-      <c r="U30" s="23">
-        <f t="shared" si="21"/>
+      <c r="U35" s="23">
+        <f t="shared" si="23"/>
         <v>0.12979272756373805</v>
       </c>
-      <c r="V30" s="23">
+      <c r="V35" s="23">
         <f t="shared" si="5"/>
         <v>0.65679879162102051</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W35" s="8">
         <f t="shared" si="6"/>
         <v>6.7978561354019744</v>
       </c>
-      <c r="X30" s="23">
-        <f t="shared" si="17"/>
+      <c r="X35" s="23">
+        <f t="shared" si="19"/>
         <v>0.57950164551010808</v>
       </c>
-      <c r="Y30" s="24" t="s">
+      <c r="Y35" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z30" s="21">
+      <c r="Z35" s="21">
         <v>11116</v>
       </c>
-      <c r="AA30" s="21">
+      <c r="AA35" s="21">
         <v>1583</v>
       </c>
-      <c r="AB30" s="21">
+      <c r="AB35" s="21">
         <v>9909</v>
       </c>
-      <c r="AC30" s="21">
+      <c r="AC35" s="21">
         <v>6451</v>
       </c>
-      <c r="AD30" s="21">
+      <c r="AD35" s="21">
         <f t="shared" si="7"/>
         <v>16157</v>
       </c>
-      <c r="AE30" s="11">
+      <c r="AE35" s="11">
         <f t="shared" si="8"/>
         <v>0.14046171925346543</v>
       </c>
-      <c r="AF30" s="11">
+      <c r="AF35" s="11">
         <f t="shared" si="9"/>
         <v>2.0002779918876914E-2</v>
       </c>
-      <c r="AG30" s="11">
+      <c r="AG35" s="11">
         <f t="shared" si="10"/>
         <v>0.12521007341513035</v>
       </c>
-      <c r="AH30" s="11">
+      <c r="AH35" s="11">
         <f t="shared" si="11"/>
         <v>8.1514803068019559E-2</v>
       </c>
-      <c r="AI30" s="11">
+      <c r="AI35" s="11">
         <f t="shared" si="12"/>
         <v>0.20415976951945311</v>
       </c>
-      <c r="AJ30" s="11">
-        <f t="shared" si="15"/>
+      <c r="AJ35" s="11">
+        <f t="shared" si="16"/>
         <v>0.35606857708733058</v>
       </c>
-      <c r="AK30" s="11">
+      <c r="AK35" s="11">
         <f t="shared" si="13"/>
         <v>0.63574095851127477</v>
       </c>
-      <c r="AL30" s="27"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="23" t="e">
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="11" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="23" t="e">
+      <c r="AP35" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y31" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF31" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG31" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH31" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI31" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ31" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="27"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="23" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="23" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF32" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG32" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH32" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI32" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ32" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="27"/>
-    </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="23" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" s="23" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y33" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF33" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG33" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH33" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI33" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ33" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="27"/>
-    </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="23" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" s="23" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y34" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF34" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG34" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH34" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI34" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ34" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="27"/>
-    </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="23" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="23" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y35" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="27"/>
-    </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="21">
+        <v>61604</v>
+      </c>
+      <c r="E36" s="21">
+        <v>23505</v>
+      </c>
+      <c r="F36" s="21">
+        <f>3850+10182</f>
+        <v>14032</v>
+      </c>
+      <c r="G36" s="21">
+        <v>265</v>
+      </c>
+      <c r="H36" s="21">
+        <v>28871</v>
+      </c>
+      <c r="I36" s="21">
+        <v>625</v>
+      </c>
+      <c r="J36" s="21">
+        <v>344</v>
+      </c>
+      <c r="K36" s="21">
+        <v>3161</v>
+      </c>
+      <c r="L36" s="21">
+        <v>2461</v>
+      </c>
       <c r="M36" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="8" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
+        <v>1988.6666666666667</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O36" s="21">
+        <v>25939</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="28"/>
+        <v>13.043412671806905</v>
+      </c>
+      <c r="Q36" s="23">
+        <f t="shared" si="2"/>
+        <v>0.61845010064281536</v>
+      </c>
+      <c r="R36" s="23">
+        <f t="shared" si="29"/>
+        <v>0.22777741705084084</v>
+      </c>
+      <c r="S36" s="23">
+        <f t="shared" si="30"/>
+        <v>0.36830363001653588</v>
+      </c>
+      <c r="T36" s="23">
+        <f t="shared" si="22"/>
+        <v>2.1648020505005021E-2</v>
+      </c>
+      <c r="U36" s="23">
+        <f t="shared" si="23"/>
+        <v>6.8881114844191987E-2</v>
+      </c>
+      <c r="V36" s="23">
+        <f t="shared" si="5"/>
+        <v>0.46865463281605091</v>
+      </c>
+      <c r="W36" s="8">
+        <f t="shared" si="6"/>
+        <v>2.620889172516486</v>
+      </c>
+      <c r="X36" s="23">
+        <f t="shared" si="19"/>
+        <v>8.4606112174714601E-2</v>
+      </c>
       <c r="Y36" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-    </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="Z36" s="21">
+        <v>6296</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>2315</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>3073</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>6072</v>
+      </c>
+      <c r="AD36" s="21">
+        <f t="shared" si="7"/>
+        <v>5612</v>
+      </c>
+      <c r="AE36" s="11">
+        <f t="shared" si="8"/>
+        <v>0.2180734993592186</v>
+      </c>
+      <c r="AF36" s="11">
+        <f t="shared" si="9"/>
+        <v>8.018426795053861E-2</v>
+      </c>
+      <c r="AG36" s="11">
+        <f t="shared" si="10"/>
+        <v>0.1064389872190087</v>
+      </c>
+      <c r="AH36" s="11">
+        <f t="shared" si="11"/>
+        <v>0.2103148488102248</v>
+      </c>
+      <c r="AI36" s="11">
+        <f t="shared" si="12"/>
+        <v>0.19438190571854111</v>
+      </c>
+      <c r="AJ36" s="11">
+        <f t="shared" si="16"/>
+        <v>6.1297220242337851E-2</v>
+      </c>
+      <c r="AK36" s="11">
+        <f t="shared" si="13"/>
+        <v>0.35435970539320505</v>
+      </c>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="21">
+        <v>21444</v>
+      </c>
+      <c r="AN36" s="21">
+        <v>18924</v>
+      </c>
+      <c r="AO36" s="11">
+        <f>AM36/AN36</f>
+        <v>1.1331642358909322</v>
+      </c>
+      <c r="AP36" s="11">
+        <f t="shared" si="17"/>
+        <v>1.0108328049038258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -5935,25 +6717,81 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
+      <c r="P37" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="23" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="23" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X37" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y37" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-    </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF37" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG37" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH37" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI37" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ37" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK37" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL37" s="27"/>
+    </row>
+    <row r="38" spans="1:43">
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -5969,25 +6807,78 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
+      <c r="P38" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="23" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="23" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y38" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
+      <c r="AC38" s="2"/>
       <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-    </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="AE38" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF38" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG38" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH38" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI38" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ38" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK38" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL38" s="27"/>
+    </row>
+    <row r="39" spans="1:43">
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -5997,15 +6888,84 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
+      <c r="M39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
+      <c r="P39" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="23" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" s="23" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y39" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="2"/>
       <c r="AD39" s="21"/>
-    </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="AE39" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF39" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG39" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH39" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI39" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ39" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK39" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL39" s="27"/>
+    </row>
+    <row r="40" spans="1:43">
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -6015,15 +6975,57 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="M40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
+      <c r="P40" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="23" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="23" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y40" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
       <c r="AD40" s="21"/>
-    </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="27"/>
+    </row>
+    <row r="41" spans="1:43">
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -6033,15 +7035,34 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="M41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="8"/>
+      <c r="P41" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
+      <c r="Y41" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
-    </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+    </row>
+    <row r="42" spans="1:43">
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -6051,14 +7072,31 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="M42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-    </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="Y42" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+    </row>
+    <row r="43" spans="1:43">
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -6068,99 +7106,119 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="M43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-    </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="8"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="Y43" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+    </row>
+    <row r="44" spans="1:43">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-    </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="8"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="AD44" s="21"/>
+    </row>
+    <row r="45" spans="1:43">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-    </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="8"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="AD45" s="21"/>
+    </row>
+    <row r="46" spans="1:43">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-    </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="8"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="AD46" s="21"/>
+    </row>
+    <row r="47" spans="1:43">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="8"/>
+    <row r="48" spans="1:43">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:18">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -6177,7 +7235,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:18">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -6194,7 +7252,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:18">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -6211,7 +7269,7 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:18">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -6228,7 +7286,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:18">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -6245,7 +7303,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:18">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -6262,7 +7320,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:18">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -6279,7 +7337,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:18">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -6296,7 +7354,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:18">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -6313,7 +7371,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:18">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -6330,7 +7388,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:18">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -6347,8 +7405,93 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
+    <row r="60" spans="4:18">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="4:18">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="4:18">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+    </row>
+    <row r="63" spans="4:18">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="4:18">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6363,12 +7506,12 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6400,7 +7543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +7573,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6460,7 +7603,7 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6490,7 +7633,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6520,7 +7663,7 @@
         <v>-1742.0000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6550,7 +7693,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6580,7 +7723,7 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6610,7 +7753,7 @@
         <v>-3634.0000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6640,7 +7783,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6670,7 +7813,7 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6697,7 +7840,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +7870,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6757,7 +7900,7 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6787,7 +7930,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6817,7 +7960,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6847,7 +7990,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6877,7 +8020,7 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6907,7 +8050,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6937,7 +8080,7 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6967,7 +8110,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6997,7 +8140,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7024,7 +8167,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7054,7 +8197,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7084,7 +8227,7 @@
         <v>-3734.0000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7114,7 +8257,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7144,7 +8287,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7174,7 +8317,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7204,7 +8347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7234,7 +8377,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7261,7 +8404,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7291,7 +8434,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -7321,7 +8464,7 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -7351,7 +8494,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -7381,7 +8524,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -7411,7 +8554,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -7441,7 +8584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -7471,7 +8614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -7501,7 +8644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -7531,7 +8674,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -7561,7 +8704,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -7591,7 +8734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -7621,7 +8764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -7651,7 +8794,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -7678,7 +8821,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -7708,7 +8851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -7735,7 +8878,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -7765,7 +8908,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7795,7 +8938,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -7822,7 +8965,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7849,7 +8992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7879,7 +9022,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7912,7 +9055,7 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -7942,7 +9085,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -7972,7 +9115,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -7999,7 +9142,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8029,7 +9172,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8059,7 +9202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8089,7 +9232,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8119,7 +9262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8149,7 +9292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8179,7 +9322,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -8209,7 +9352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8239,7 +9382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8269,7 +9412,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8296,7 +9439,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8329,7 +9472,7 @@
         <v>-3068</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8356,7 +9499,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8389,7 +9532,7 @@
         <v>-5750</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -8419,7 +9562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8446,7 +9589,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8473,57 +9616,57 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1">
       <c r="B72">
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" hidden="1">
       <c r="B73">
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" hidden="1">
       <c r="B74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" hidden="1">
       <c r="B75">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" hidden="1">
       <c r="B76">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" hidden="1">
       <c r="B77">
         <v>2018</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" hidden="1">
       <c r="B78">
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1">
       <c r="B79">
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" hidden="1">
       <c r="B80">
         <v>2018</v>
       </c>
     </row>
-    <row r="81" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" hidden="1">
       <c r="B81">
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="2:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" hidden="1">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -8536,7 +9679,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8550,13 +9693,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.125" style="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8588,7 +9731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -8621,7 +9764,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -8654,7 +9797,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -8687,7 +9830,7 @@
         <v>-4676.09</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -8720,7 +9863,7 @@
         <v>-4947.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -8753,7 +9896,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -8783,7 +9926,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -8816,7 +9959,7 @@
         <v>-2201.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -8846,7 +9989,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -8879,7 +10022,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -8912,7 +10055,7 @@
         <v>-1972.0400000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -8945,7 +10088,7 @@
         <v>-1826</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -8975,7 +10118,7 @@
         <v>-5576</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -9008,7 +10151,7 @@
         <v>-3797</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -9041,7 +10184,7 @@
         <v>-3699</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -9074,7 +10217,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -9107,7 +10250,7 @@
         <v>-2552.0500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -9143,7 +10286,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -9173,7 +10316,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -9206,7 +10349,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -9239,7 +10382,7 @@
         <v>-6452.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -9272,7 +10415,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -9305,7 +10448,7 @@
         <v>-9311.19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -9338,7 +10481,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -9368,7 +10511,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -9398,7 +10541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -9431,7 +10574,7 @@
         <v>-4836</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -9464,7 +10607,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -9494,7 +10637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -9524,7 +10667,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -9554,7 +10697,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -9587,7 +10730,7 @@
         <v>-3095</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -9620,7 +10763,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -9653,7 +10796,7 @@
         <v>-2849</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -9686,7 +10829,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -9716,7 +10859,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -9749,7 +10892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -9779,7 +10922,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -9812,7 +10955,7 @@
         <v>-4229</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -9842,7 +10985,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -9875,7 +11018,7 @@
         <v>-2804</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -9905,7 +11048,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -9938,7 +11081,7 @@
         <v>-2783</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -9971,7 +11114,7 @@
         <v>-3645</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -9998,7 +11141,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -10025,7 +11168,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -10058,7 +11201,7 @@
         <v>-3061.9999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -10091,7 +11234,7 @@
         <v>-5037</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -10118,7 +11261,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -10145,7 +11288,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -10178,7 +11321,7 @@
         <v>-4878</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -10211,7 +11354,7 @@
         <v>-2977</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="B53">
         <v>2018</v>
       </c>
@@ -10241,7 +11384,7 @@
         <v>-5531.0000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="B54">
         <v>2018</v>
       </c>
@@ -10250,55 +11393,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="J56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="J57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="J58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="J59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="J60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="J61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="J62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="J63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10306,7 +11449,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10319,9 +11462,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10334,9 +11477,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -21,13 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'00102现金流2'!$A$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dict!$A$1:$AU$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="272">
   <si>
     <t>Account</t>
   </si>
@@ -468,147 +469,147 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -624,15 +625,15 @@
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>双汇发展</t>
@@ -702,23 +703,23 @@
   </si>
   <si>
     <t>平均ROE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>固定资产</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>存货</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>应付账款</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已用资本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -734,7 +735,7 @@
       </rPr>
       <t>%;ROE9%;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -750,19 +751,19 @@
       </rPr>
       <t>40%;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>应收账款</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零；已用资本-营收比125%;毛利率:40%;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -778,11 +779,11 @@
       </rPr>
       <t>-营收比168%;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -798,7 +799,7 @@
       </rPr>
       <t>5%;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -824,7 +825,7 @@
       </rPr>
       <t>与双汇相当;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -840,7 +841,7 @@
       </rPr>
       <t>209%;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -857,7 +858,7 @@
       </rPr>
       <t>%,是否能够覆盖资金成本?</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -874,7 +875,7 @@
       </rPr>
       <t>%;资金成本?</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -890,19 +891,19 @@
       </rPr>
       <t>RTOCE6%,与川投能源差距很大;</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>债券用途;为何已用资本收益率如此之高209%;已用资本营收比如此之低6%?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A000651</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>格力电器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -919,47 +920,47 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>投入1元带来营收873元,带来收益113元,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A000333</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美的集团</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>固定资产/营收</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>存货/营收</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>应收/营收</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已用资本/营收</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已用资本收益率</t>
@@ -984,11 +985,11 @@
   </si>
   <si>
     <t>A601390</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>中国中铁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1005,23 +1006,23 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A601857</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>中国石油</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A601986</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>中国核电</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>A002507</t>
@@ -1061,18 +1062,57 @@
   </si>
   <si>
     <t>速动比率</t>
+  </si>
+  <si>
+    <t>A000002</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>净营运资金</t>
+  </si>
+  <si>
+    <t>17年年报：养猪户2.1万户；养鸡户3.27万户；猪上市1900万头；均价14.98元/公斤；</t>
+  </si>
+  <si>
+    <t>A600660</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1234,63 +1274,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,13 +1609,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS64"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AU66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,10 +1635,11 @@
     <col min="18" max="18" width="5.7109375" style="6" customWidth="1"/>
     <col min="19" max="19" width="5.5703125" style="23" customWidth="1"/>
     <col min="20" max="22" width="5.42578125" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" style="6" customWidth="1"/>
     <col min="25" max="25" width="1" style="25" customWidth="1"/>
     <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.140625" customWidth="1"/>
     <col min="31" max="31" width="7.140625" customWidth="1"/>
@@ -1602,11 +1647,14 @@
     <col min="36" max="36" width="8.85546875" customWidth="1"/>
     <col min="37" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="1" style="25" customWidth="1"/>
-    <col min="39" max="42" width="23.85546875" customWidth="1"/>
-    <col min="43" max="43" width="54.42578125" style="3" customWidth="1"/>
+    <col min="39" max="40" width="23.85546875" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" customWidth="1"/>
+    <col min="42" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.85546875" customWidth="1"/>
+    <col min="45" max="45" width="54.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="9" customFormat="1" ht="57.75" customHeight="1">
+    <row r="1" spans="1:47" s="9" customFormat="1" ht="81" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -1721,21 +1769,25 @@
       <c r="AN1" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP1" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="AP1" s="31" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:47" hidden="1">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1769,7 +1821,7 @@
         <v>19100</v>
       </c>
       <c r="M2" s="21">
-        <f t="shared" ref="M2:M43" si="0">(J2+K2+L2)/3</f>
+        <f t="shared" ref="M2:M45" si="0">(J2+K2+L2)/3</f>
         <v>21566.666666666668</v>
       </c>
       <c r="N2" s="2"/>
@@ -1777,19 +1829,19 @@
         <v>186800</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P23" si="1">O2/M2</f>
+        <f t="shared" ref="P2:P25" si="1">O2/M2</f>
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="23">
-        <f t="shared" ref="Q2:Q40" si="2">(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q42" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="23">
-        <f t="shared" ref="R2:R26" si="3">F2/D2</f>
+        <f t="shared" ref="R2:R28" si="3">F2/D2</f>
         <v>0</v>
       </c>
       <c r="S2" s="23">
-        <f t="shared" ref="S2:S26" si="4">F2/(D2-E2)</f>
+        <f t="shared" ref="S2:S28" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
       <c r="T2" s="23">
@@ -1801,11 +1853,11 @@
         <v>0.20403658152002524</v>
       </c>
       <c r="V2" s="23">
-        <f t="shared" ref="V2:V39" si="5">H2/D2</f>
+        <f t="shared" ref="V2:V41" si="5">H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
       <c r="W2" s="8">
-        <f t="shared" ref="W2:W39" si="6">D2/E2</f>
+        <f t="shared" ref="W2:W41" si="6">D2/E2</f>
         <v>14.632432432432433</v>
       </c>
       <c r="X2" s="23">
@@ -1822,27 +1874,27 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21">
-        <f t="shared" ref="AD2:AD37" si="7">Z2+AA2+AB2-AC2</f>
+        <f t="shared" ref="AD2:AD39" si="7">Z2+AA2+AB2-AC2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="11">
-        <f t="shared" ref="AE2:AE39" si="8">Z2/H2</f>
+        <f t="shared" ref="AE2:AE41" si="8">Z2/H2</f>
         <v>0</v>
       </c>
       <c r="AF2" s="11">
-        <f t="shared" ref="AF2:AF39" si="9">AA2/H2</f>
+        <f t="shared" ref="AF2:AF41" si="9">AA2/H2</f>
         <v>0</v>
       </c>
       <c r="AG2" s="11">
-        <f t="shared" ref="AG2:AG39" si="10">AB2/H2</f>
+        <f t="shared" ref="AG2:AG41" si="10">AB2/H2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="11">
-        <f t="shared" ref="AH2:AH39" si="11">AC2/H2</f>
+        <f t="shared" ref="AH2:AH41" si="11">AC2/H2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="11">
-        <f t="shared" ref="AI2:AI39" si="12">AD2/H2</f>
+        <f t="shared" ref="AI2:AI41" si="12">AD2/H2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="11" t="e">
@@ -1850,1953 +1902,2027 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" s="11" t="e">
-        <f t="shared" ref="AK2:AK39" si="13">M2/AD2</f>
+        <f t="shared" ref="AK2:AK41" si="13">M2/AD2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" s="27"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="21"/>
-      <c r="AO2" s="11" t="e">
-        <f t="shared" ref="AO2:AO17" si="14">AM2/AN2</f>
-        <v>#DIV/0!</v>
+      <c r="AO2" s="21">
+        <f>AM2-AN2</f>
+        <v>0</v>
       </c>
       <c r="AP2" s="11" t="e">
+        <f t="shared" ref="AP2:AP18" si="14">AM2/AN2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ2" s="11" t="e">
         <f>(AM2-AA2)/AN2</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="3" spans="1:45">
+      <c r="AR2" s="11"/>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" s="6" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>232</v>
+        <v>267</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="D3" s="21">
-        <v>248106</v>
+        <v>1165346</v>
       </c>
       <c r="E3" s="21">
-        <v>82925</v>
+        <v>186673</v>
       </c>
       <c r="F3" s="21">
-        <v>40259</v>
+        <f>16108+46163+96029+32322</f>
+        <v>190622</v>
       </c>
       <c r="G3" s="21">
-        <v>815</v>
+        <v>2075</v>
       </c>
       <c r="H3" s="21">
-        <v>240712</v>
+        <v>242897</v>
       </c>
       <c r="I3" s="21">
-        <v>21627</v>
+        <v>50812</v>
       </c>
       <c r="J3" s="21">
-        <v>18611</v>
+        <v>37208</v>
       </c>
       <c r="K3" s="21">
-        <v>15861</v>
+        <v>28350</v>
       </c>
       <c r="L3" s="21">
-        <v>13624</v>
+        <v>25949</v>
       </c>
       <c r="M3" s="21">
         <f t="shared" si="0"/>
-        <v>16032</v>
+        <v>30502.333333333332</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O3" s="21">
-        <v>349000</v>
+        <v>355240</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" ref="P3" si="15">O3/M3</f>
+        <v>11.646322139289891</v>
+      </c>
+      <c r="Q3" s="23">
+        <f t="shared" ref="Q3" si="16">(D3-E3)/D3</f>
+        <v>0.83981324001626989</v>
+      </c>
+      <c r="R3" s="23">
+        <f t="shared" ref="R3" si="17">F3/D3</f>
+        <v>0.16357545312722574</v>
+      </c>
+      <c r="S3" s="23">
+        <f t="shared" ref="S3" si="18">F3/(D3-E3)</f>
+        <v>0.19477598748509461</v>
+      </c>
+      <c r="T3" s="23">
+        <f>I3/H3</f>
+        <v>0.20919155032791678</v>
+      </c>
+      <c r="U3" s="23">
+        <f>M3/H3</f>
+        <v>0.12557723369713636</v>
+      </c>
+      <c r="V3" s="23">
+        <f t="shared" ref="V3" si="19">H3/D3</f>
+        <v>0.20843337515210075</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ref="W3" si="20">D3/E3</f>
+        <v>6.2427131936595011</v>
+      </c>
+      <c r="X3" s="23">
+        <f>M3/E3</f>
+        <v>0.16339981322062286</v>
+      </c>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="21">
+        <v>7098</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>598087</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>1432</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>173439</v>
+      </c>
+      <c r="AD3" s="21">
+        <f t="shared" ref="AD3" si="21">Z3+AA3+AB3-AC3</f>
+        <v>433178</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" ref="AE3" si="22">Z3/H3</f>
+        <v>2.9222262934494869E-2</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" ref="AF3" si="23">AA3/H3</f>
+        <v>2.4623070684281814</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="shared" ref="AG3" si="24">AB3/H3</f>
+        <v>5.8955030321494297E-3</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" ref="AH3" si="25">AC3/H3</f>
+        <v>0.71404340111240572</v>
+      </c>
+      <c r="AI3" s="11">
+        <f t="shared" ref="AI3" si="26">AD3/H3</f>
+        <v>1.78338143328242</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f>J3/AD3</f>
+        <v>8.5895405583847742E-2</v>
+      </c>
+      <c r="AK3" s="11">
+        <f t="shared" ref="AK3" si="27">M3/AD3</f>
+        <v>7.0415241155675795E-2</v>
+      </c>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="21">
+        <v>721295</v>
+      </c>
+      <c r="AN3" s="21">
+        <v>579998</v>
+      </c>
+      <c r="AO3" s="21">
+        <f t="shared" ref="AO3:AO42" si="28">AM3-AN3</f>
+        <v>141297</v>
+      </c>
+      <c r="AP3" s="11">
+        <f t="shared" si="14"/>
+        <v>1.2436163572977839</v>
+      </c>
+      <c r="AQ3" s="11">
+        <f>(AM3-AA3)/AN3</f>
+        <v>0.21242831871834042</v>
+      </c>
+      <c r="AR3" s="11"/>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="21">
+        <v>248106</v>
+      </c>
+      <c r="E4" s="21">
+        <v>82925</v>
+      </c>
+      <c r="F4" s="21">
+        <v>40259</v>
+      </c>
+      <c r="G4" s="21">
+        <v>815</v>
+      </c>
+      <c r="H4" s="21">
+        <v>240712</v>
+      </c>
+      <c r="I4" s="21">
+        <v>21627</v>
+      </c>
+      <c r="J4" s="21">
+        <v>18611</v>
+      </c>
+      <c r="K4" s="21">
+        <v>15861</v>
+      </c>
+      <c r="L4" s="21">
+        <v>13624</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="0"/>
+        <v>16032</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="21">
+        <v>349000</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4" si="29">O4/M4</f>
         <v>21.768962075848304</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q4" s="23">
         <f t="shared" si="2"/>
         <v>0.66576785728680488</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R4" s="23">
         <f t="shared" si="3"/>
         <v>0.16226532208007868</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S4" s="23">
         <f t="shared" si="4"/>
         <v>0.24372657872273445</v>
       </c>
-      <c r="T3" s="23">
-        <f>I3/H3</f>
+      <c r="T4" s="23">
+        <f>I4/H4</f>
         <v>8.9845956994250395E-2</v>
       </c>
-      <c r="U3" s="23">
-        <f>M3/H3</f>
+      <c r="U4" s="23">
+        <f>M4/H4</f>
         <v>6.6602412841902353E-2</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V4" s="23">
         <f t="shared" si="5"/>
         <v>0.9701982217278099</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W4" s="8">
         <f t="shared" si="6"/>
         <v>2.9919324690985829</v>
       </c>
-      <c r="X3" s="23">
-        <f>M3/E3</f>
+      <c r="X4" s="23">
+        <f>M4/E4</f>
         <v>0.19333132348507687</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y4" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z4" s="21">
         <v>22600</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA4" s="21">
         <v>29444</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AB4" s="21">
         <v>17528</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC4" s="21">
         <v>35144</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AD4" s="21">
         <f t="shared" si="7"/>
         <v>34428</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE4" s="11">
         <f t="shared" si="8"/>
         <v>9.3888131875436209E-2</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF4" s="11">
         <f t="shared" si="9"/>
         <v>0.12232044933364353</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG4" s="11">
         <f t="shared" si="10"/>
         <v>7.2817308651002027E-2</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH4" s="11">
         <f t="shared" si="11"/>
         <v>0.14600019940842168</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI4" s="11">
         <f t="shared" si="12"/>
         <v>0.14302569045166008</v>
       </c>
-      <c r="AJ3" s="11">
-        <f t="shared" ref="AJ3:AJ39" si="16">J3/AD3</f>
+      <c r="AJ4" s="11">
+        <f t="shared" ref="AJ4:AJ41" si="30">J4/AD4</f>
         <v>0.54057743696990823</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK4" s="11">
         <f t="shared" si="13"/>
         <v>0.46566747995817359</v>
       </c>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="21">
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="21">
         <v>169810</v>
       </c>
-      <c r="AN3" s="21">
+      <c r="AN4" s="21">
         <v>119091</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO4" s="21">
+        <f t="shared" si="28"/>
+        <v>50719</v>
+      </c>
+      <c r="AP4" s="11">
         <f t="shared" si="14"/>
         <v>1.4258844077218262</v>
       </c>
-      <c r="AP3" s="11">
-        <f t="shared" ref="AP3:AP36" si="17">(AM3-AA3)/AN3</f>
+      <c r="AQ4" s="11">
+        <f t="shared" ref="AQ4:AQ38" si="31">(AM4-AA4)/AN4</f>
         <v>1.1786449017977849</v>
       </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" s="6" t="s">
+      <c r="AR4" s="11"/>
+    </row>
+    <row r="5" spans="1:47" hidden="1">
+      <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D5" s="21">
         <v>189600</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E5" s="21">
         <v>56300</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F5" s="21">
         <v>34700</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G5" s="21">
         <v>590</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H5" s="21">
         <v>151500</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I5" s="21">
         <v>10300</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J5" s="21">
         <v>9100</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K5" s="21">
         <v>3500</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L5" s="21">
         <v>2100</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M5" s="21">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O5" s="21">
         <v>67300</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" ref="P4" si="18">O4/M4</f>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5" si="32">O5/M5</f>
         <v>13.73469387755102</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q5" s="23">
         <f t="shared" si="2"/>
         <v>0.70305907172995785</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R5" s="23">
         <f t="shared" si="3"/>
         <v>0.18301687763713081</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S5" s="23">
         <f t="shared" si="4"/>
         <v>0.2603150787696924</v>
       </c>
-      <c r="T4" s="23">
-        <f>I4/H4</f>
+      <c r="T5" s="23">
+        <f>I5/H5</f>
         <v>6.7986798679867982E-2</v>
       </c>
-      <c r="U4" s="23">
-        <f>M4/H4</f>
+      <c r="U5" s="23">
+        <f>M5/H5</f>
         <v>3.2343234323432342E-2</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V5" s="23">
         <f t="shared" si="5"/>
         <v>0.79905063291139244</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W5" s="8">
         <f t="shared" si="6"/>
         <v>3.3676731793960926</v>
       </c>
-      <c r="X4" s="23">
-        <f t="shared" ref="X4:X40" si="19">M4/E4</f>
+      <c r="X5" s="23">
+        <f t="shared" ref="X5:X42" si="33">M5/E5</f>
         <v>8.7033747779751328E-2</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Y5" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z5" s="21">
         <v>27000</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA5" s="21">
         <v>19800</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB5" s="21">
         <v>13700</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC5" s="21">
         <v>30600</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD5" s="21">
         <f t="shared" si="7"/>
         <v>29900</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE5" s="11">
         <f t="shared" si="8"/>
         <v>0.17821782178217821</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF5" s="11">
         <f t="shared" si="9"/>
         <v>0.1306930693069307</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG5" s="11">
         <f t="shared" si="10"/>
         <v>9.0429042904290435E-2</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH5" s="11">
         <f t="shared" si="11"/>
         <v>0.20198019801980199</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI5" s="11">
         <f t="shared" si="12"/>
         <v>0.19735973597359735</v>
       </c>
-      <c r="AJ4" s="11">
-        <f t="shared" si="16"/>
+      <c r="AJ5" s="11">
+        <f t="shared" si="30"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK5" s="11">
         <f t="shared" si="13"/>
         <v>0.16387959866220736</v>
       </c>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="11" t="e">
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ4" s="20" t="s">
+      <c r="AQ5" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:47">
+      <c r="A6" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C6" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D6" s="21">
         <v>182369</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E6" s="21">
         <v>54923</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F6" s="21">
         <v>10701</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G6" s="21">
         <v>-4845</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H6" s="21">
         <v>108302</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I6" s="21">
         <v>17455</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J6" s="21">
         <v>15524</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K6" s="21">
         <v>12623</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L6" s="21">
         <v>14252</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>14133</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O6" s="21">
         <v>281500</v>
       </c>
-      <c r="P5" s="8">
-        <f t="shared" ref="P5" si="20">O5/M5</f>
+      <c r="P6" s="8">
+        <f t="shared" ref="P6" si="34">O6/M6</f>
         <v>19.917922592513975</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q6" s="23">
         <f t="shared" si="2"/>
         <v>0.69883587671150249</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R6" s="23">
         <f t="shared" si="3"/>
         <v>5.8677735799395732E-2</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S6" s="23">
         <f t="shared" si="4"/>
         <v>8.3964973400499035E-2</v>
       </c>
-      <c r="T5" s="23">
-        <f>I5/H5</f>
+      <c r="T6" s="23">
+        <f>I6/H6</f>
         <v>0.16116969215711621</v>
       </c>
-      <c r="U5" s="23">
-        <f>M5/H5</f>
+      <c r="U6" s="23">
+        <f>M6/H6</f>
         <v>0.13049620505623166</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V6" s="23">
         <f t="shared" si="5"/>
         <v>0.59386189538792233</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W6" s="8">
         <f t="shared" si="6"/>
         <v>3.3204486280793111</v>
       </c>
-      <c r="X5" s="23">
-        <f t="shared" ref="X5" si="21">M5/E5</f>
+      <c r="X6" s="23">
+        <f t="shared" ref="X6" si="35">M6/E6</f>
         <v>0.25732388980936949</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="Y6" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z6" s="21">
         <v>17681</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA6" s="21">
         <v>9024</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB6" s="21">
         <v>2960</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC6" s="21">
         <v>29541</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD6" s="21">
         <f t="shared" si="7"/>
         <v>124</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE6" s="11">
         <f t="shared" si="8"/>
         <v>0.16325644955771823</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF6" s="11">
         <f t="shared" si="9"/>
         <v>8.3322560986870048E-2</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG6" s="11">
         <f t="shared" si="10"/>
         <v>2.7330981883991062E-2</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH6" s="11">
         <f t="shared" si="11"/>
         <v>0.27276504589019596</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI6" s="11">
         <f t="shared" si="12"/>
         <v>1.1449465383834095E-3</v>
       </c>
-      <c r="AJ5" s="11">
-        <f t="shared" si="16"/>
+      <c r="AJ6" s="11">
+        <f t="shared" si="30"/>
         <v>125.19354838709677</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK6" s="11">
         <f t="shared" si="13"/>
         <v>113.9758064516129</v>
       </c>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="21">
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="21">
         <v>142910</v>
       </c>
-      <c r="AN5" s="21">
+      <c r="AN6" s="21">
         <v>126876</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO6" s="21">
+        <f t="shared" si="28"/>
+        <v>16034</v>
+      </c>
+      <c r="AP6" s="11">
         <f t="shared" si="14"/>
         <v>1.1263753586178631</v>
       </c>
-      <c r="AP5" s="11">
-        <f t="shared" si="17"/>
+      <c r="AQ6" s="11">
+        <f t="shared" si="31"/>
         <v>1.055250796052839</v>
       </c>
-      <c r="AQ5" s="20" t="s">
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:47">
+      <c r="A7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D7" s="21">
         <v>2800</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E7" s="21">
         <v>2000</v>
       </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
         <v>-19</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H7" s="21">
         <v>2100</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I7" s="21">
         <v>560</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J7" s="21">
         <v>418</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K7" s="21">
         <v>456</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L7" s="21">
         <v>469</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M7" s="21">
         <f t="shared" si="0"/>
         <v>447.66666666666669</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="21">
+      <c r="N7" s="2"/>
+      <c r="O7" s="21">
         <v>8500</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P7" s="8">
         <f t="shared" si="1"/>
         <v>18.987341772151897</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q7" s="23">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R7" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S7" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T6" s="23">
-        <f t="shared" ref="T6:T40" si="22">I6/H6</f>
+      <c r="T7" s="23">
+        <f t="shared" ref="T7:T42" si="36">I7/H7</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="U6" s="23">
-        <f t="shared" ref="U6:U36" si="23">M6/H6</f>
+      <c r="U7" s="23">
+        <f t="shared" ref="U7:U38" si="37">M7/H7</f>
         <v>0.21317460317460318</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V7" s="23">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W7" s="8">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="X6" s="23">
-        <f t="shared" si="19"/>
+      <c r="X7" s="23">
+        <f t="shared" si="33"/>
         <v>0.22383333333333336</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y7" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z7" s="21">
         <v>259</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA7" s="21">
         <v>258</v>
       </c>
-      <c r="AB6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21">
+      <c r="AB7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="21">
         <v>197</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AD7" s="21">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE7" s="11">
         <f t="shared" si="8"/>
         <v>0.12333333333333334</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF7" s="11">
         <f t="shared" si="9"/>
         <v>0.12285714285714286</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG7" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH7" s="11">
         <f t="shared" si="11"/>
         <v>9.3809523809523815E-2</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI7" s="11">
         <f t="shared" si="12"/>
         <v>0.15238095238095239</v>
       </c>
-      <c r="AJ6" s="11">
-        <f t="shared" si="16"/>
+      <c r="AJ7" s="11">
+        <f t="shared" si="30"/>
         <v>1.3062499999999999</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK7" s="11">
         <f t="shared" si="13"/>
         <v>1.3989583333333333</v>
-      </c>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="11" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP6" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ6" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR6" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="21">
-        <v>11528</v>
-      </c>
-      <c r="E7" s="21">
-        <v>8399</v>
-      </c>
-      <c r="F7" s="21">
-        <f>662+71+49</f>
-        <v>782</v>
-      </c>
-      <c r="G7" s="21">
-        <v>21.9</v>
-      </c>
-      <c r="H7" s="21">
-        <v>4717</v>
-      </c>
-      <c r="I7" s="21">
-        <v>1283</v>
-      </c>
-      <c r="J7" s="21">
-        <v>980</v>
-      </c>
-      <c r="K7" s="21">
-        <v>1030</v>
-      </c>
-      <c r="L7" s="21">
-        <v>977</v>
-      </c>
-      <c r="M7" s="21">
-        <f t="shared" si="0"/>
-        <v>995.66666666666663</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O7" s="21">
-        <v>26130</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="1"/>
-        <v>26.243722798794778</v>
-      </c>
-      <c r="Q7" s="23">
-        <f t="shared" si="2"/>
-        <v>0.27142609299097847</v>
-      </c>
-      <c r="R7" s="23">
-        <f t="shared" si="3"/>
-        <v>6.7834836918806388E-2</v>
-      </c>
-      <c r="S7" s="23">
-        <f t="shared" si="4"/>
-        <v>0.24992010226909556</v>
-      </c>
-      <c r="T7" s="23">
-        <f t="shared" si="22"/>
-        <v>0.27199491202035192</v>
-      </c>
-      <c r="U7" s="23">
-        <f t="shared" si="23"/>
-        <v>0.21108048901137727</v>
-      </c>
-      <c r="V7" s="23">
-        <f t="shared" si="5"/>
-        <v>0.40917765440666204</v>
-      </c>
-      <c r="W7" s="8">
-        <f t="shared" si="6"/>
-        <v>1.3725443505179189</v>
-      </c>
-      <c r="X7" s="23">
-        <f t="shared" si="19"/>
-        <v>0.11854585863396436</v>
-      </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="21">
-        <v>4683</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>2248</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>173</v>
-      </c>
-      <c r="AC7" s="21">
-        <v>545</v>
-      </c>
-      <c r="AD7" s="21">
-        <f t="shared" si="7"/>
-        <v>6559</v>
-      </c>
-      <c r="AE7" s="11">
-        <f t="shared" si="8"/>
-        <v>0.99279202883188467</v>
-      </c>
-      <c r="AF7" s="11">
-        <f t="shared" si="9"/>
-        <v>0.47657409370362519</v>
-      </c>
-      <c r="AG7" s="11">
-        <f t="shared" si="10"/>
-        <v>3.6675853296586812E-2</v>
-      </c>
-      <c r="AH7" s="11">
-        <f t="shared" si="11"/>
-        <v>0.11553953784184863</v>
-      </c>
-      <c r="AI7" s="11">
-        <f t="shared" si="12"/>
-        <v>1.390502437990248</v>
-      </c>
-      <c r="AJ7" s="11">
-        <f t="shared" si="16"/>
-        <v>0.14941302027748132</v>
-      </c>
-      <c r="AK7" s="11">
-        <f t="shared" si="13"/>
-        <v>0.15180159577171315</v>
       </c>
       <c r="AL7" s="27"/>
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
-      <c r="AO7" s="11" t="e">
+      <c r="AO7" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="6"/>
-    </row>
-    <row r="8" spans="1:45">
+      <c r="AQ7" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" hidden="1">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>186</v>
+        <v>257</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="D8" s="21">
-        <v>23000</v>
+        <v>11528</v>
       </c>
       <c r="E8" s="21">
-        <v>15400</v>
+        <v>8399</v>
       </c>
       <c r="F8" s="21">
-        <v>1940</v>
+        <f>662+71+49</f>
+        <v>782</v>
       </c>
       <c r="G8" s="21">
-        <v>55</v>
+        <v>21.9</v>
       </c>
       <c r="H8" s="21">
-        <v>50400</v>
+        <v>4717</v>
       </c>
       <c r="I8" s="21">
-        <v>5500</v>
+        <v>1283</v>
       </c>
       <c r="J8" s="21">
-        <v>4500</v>
+        <v>980</v>
       </c>
       <c r="K8" s="21">
-        <v>4500</v>
+        <v>1030</v>
       </c>
       <c r="L8" s="21">
-        <v>4400</v>
+        <v>977</v>
       </c>
       <c r="M8" s="21">
         <f t="shared" si="0"/>
-        <v>4466.666666666667</v>
+        <v>995.66666666666663</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O8" s="21">
-        <v>82000</v>
+        <v>26130</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="1"/>
-        <v>18.35820895522388</v>
+        <v>26.243722798794778</v>
       </c>
       <c r="Q8" s="23">
         <f t="shared" si="2"/>
-        <v>0.33043478260869563</v>
+        <v>0.27142609299097847</v>
       </c>
       <c r="R8" s="23">
         <f t="shared" si="3"/>
-        <v>8.4347826086956526E-2</v>
+        <v>6.7834836918806388E-2</v>
       </c>
       <c r="S8" s="23">
         <f t="shared" si="4"/>
-        <v>0.25526315789473686</v>
+        <v>0.24992010226909556</v>
       </c>
       <c r="T8" s="23">
-        <f t="shared" si="22"/>
-        <v>0.10912698412698413</v>
+        <f t="shared" si="36"/>
+        <v>0.27199491202035192</v>
       </c>
       <c r="U8" s="23">
-        <f t="shared" si="23"/>
-        <v>8.8624338624338633E-2</v>
+        <f t="shared" si="37"/>
+        <v>0.21108048901137727</v>
       </c>
       <c r="V8" s="23">
         <f t="shared" si="5"/>
-        <v>2.1913043478260867</v>
+        <v>0.40917765440666204</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="6"/>
-        <v>1.4935064935064934</v>
+        <v>1.3725443505179189</v>
       </c>
       <c r="X8" s="23">
-        <f t="shared" si="19"/>
-        <v>0.29004329004329005</v>
-      </c>
-      <c r="Y8" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>0.11854585863396436</v>
+      </c>
+      <c r="Y8" s="24"/>
       <c r="Z8" s="21">
-        <v>11400</v>
+        <v>4683</v>
       </c>
       <c r="AA8" s="21">
-        <v>2900</v>
+        <v>2248</v>
       </c>
       <c r="AB8" s="21">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="AC8" s="21">
-        <v>1800</v>
+        <v>545</v>
       </c>
       <c r="AD8" s="21">
         <f t="shared" si="7"/>
-        <v>12635</v>
+        <v>6559</v>
       </c>
       <c r="AE8" s="11">
         <f t="shared" si="8"/>
-        <v>0.22619047619047619</v>
+        <v>0.99279202883188467</v>
       </c>
       <c r="AF8" s="11">
         <f t="shared" si="9"/>
-        <v>5.7539682539682536E-2</v>
+        <v>0.47657409370362519</v>
       </c>
       <c r="AG8" s="11">
         <f t="shared" si="10"/>
-        <v>2.6785714285714286E-3</v>
+        <v>3.6675853296586812E-2</v>
       </c>
       <c r="AH8" s="11">
         <f t="shared" si="11"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.11553953784184863</v>
       </c>
       <c r="AI8" s="11">
         <f t="shared" si="12"/>
-        <v>0.25069444444444444</v>
+        <v>1.390502437990248</v>
       </c>
       <c r="AJ8" s="11">
-        <f t="shared" si="16"/>
-        <v>0.35615354174910963</v>
+        <f t="shared" si="30"/>
+        <v>0.14941302027748132</v>
       </c>
       <c r="AK8" s="11">
         <f t="shared" si="13"/>
+        <v>0.15180159577171315</v>
+      </c>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="11" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ8" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="6"/>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="21">
+        <v>23000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>15400</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1940</v>
+      </c>
+      <c r="G9" s="21">
+        <v>55</v>
+      </c>
+      <c r="H9" s="21">
+        <v>50400</v>
+      </c>
+      <c r="I9" s="21">
+        <v>5500</v>
+      </c>
+      <c r="J9" s="21">
+        <v>4500</v>
+      </c>
+      <c r="K9" s="21">
+        <v>4500</v>
+      </c>
+      <c r="L9" s="21">
+        <v>4400</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="0"/>
+        <v>4466.666666666667</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="21">
+        <v>82000</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="1"/>
+        <v>18.35820895522388</v>
+      </c>
+      <c r="Q9" s="23">
+        <f t="shared" si="2"/>
+        <v>0.33043478260869563</v>
+      </c>
+      <c r="R9" s="23">
+        <f t="shared" si="3"/>
+        <v>8.4347826086956526E-2</v>
+      </c>
+      <c r="S9" s="23">
+        <f t="shared" si="4"/>
+        <v>0.25526315789473686</v>
+      </c>
+      <c r="T9" s="23">
+        <f t="shared" si="36"/>
+        <v>0.10912698412698413</v>
+      </c>
+      <c r="U9" s="23">
+        <f t="shared" si="37"/>
+        <v>8.8624338624338633E-2</v>
+      </c>
+      <c r="V9" s="23">
+        <f t="shared" si="5"/>
+        <v>2.1913043478260867</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" si="6"/>
+        <v>1.4935064935064934</v>
+      </c>
+      <c r="X9" s="23">
+        <f t="shared" si="33"/>
+        <v>0.29004329004329005</v>
+      </c>
+      <c r="Y9" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>11400</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>2900</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>135</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>1800</v>
+      </c>
+      <c r="AD9" s="21">
+        <f t="shared" si="7"/>
+        <v>12635</v>
+      </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="8"/>
+        <v>0.22619047619047619</v>
+      </c>
+      <c r="AF9" s="11">
+        <f t="shared" si="9"/>
+        <v>5.7539682539682536E-2</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="10"/>
+        <v>2.6785714285714286E-3</v>
+      </c>
+      <c r="AH9" s="11">
+        <f t="shared" si="11"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AI9" s="11">
+        <f t="shared" si="12"/>
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f t="shared" si="30"/>
+        <v>0.35615354174910963</v>
+      </c>
+      <c r="AK9" s="11">
+        <f t="shared" si="13"/>
         <v>0.35351536736578293</v>
       </c>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="21">
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="21">
         <v>10016</v>
       </c>
-      <c r="AN8" s="21">
+      <c r="AN9" s="21">
         <v>7407</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO9" s="21">
+        <f t="shared" si="28"/>
+        <v>2609</v>
+      </c>
+      <c r="AP9" s="11">
         <f t="shared" si="14"/>
         <v>1.3522343728905091</v>
       </c>
-      <c r="AP8" s="11">
-        <f t="shared" si="17"/>
+      <c r="AQ9" s="11">
+        <f t="shared" si="31"/>
         <v>0.96071283920615635</v>
       </c>
-      <c r="AR8" s="6"/>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" s="6" t="s">
+      <c r="AR9" s="11"/>
+      <c r="AT9" s="6"/>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C10" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D10" s="21">
         <v>5200</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E10" s="21">
         <v>4800</v>
       </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
         <v>-7</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H10" s="21">
         <v>2300</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I10" s="21">
         <v>916</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J10" s="21">
         <v>821</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K10" s="21">
         <v>770</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L10" s="21">
         <v>580</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M10" s="21">
         <f t="shared" si="0"/>
         <v>723.66666666666663</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="21">
+      <c r="N10" s="2"/>
+      <c r="O10" s="21">
         <v>28000</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P10" s="8">
         <f t="shared" si="1"/>
         <v>38.691847075080609</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q10" s="23">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R10" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S10" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="23">
-        <f t="shared" si="22"/>
+      <c r="T10" s="23">
+        <f t="shared" si="36"/>
         <v>0.39826086956521739</v>
       </c>
-      <c r="U9" s="23">
-        <f t="shared" si="23"/>
+      <c r="U10" s="23">
+        <f t="shared" si="37"/>
         <v>0.31463768115942026</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V10" s="23">
         <f t="shared" si="5"/>
         <v>0.44230769230769229</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W10" s="8">
         <f t="shared" si="6"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="X9" s="23">
-        <f t="shared" si="19"/>
+      <c r="X10" s="23">
+        <f t="shared" si="33"/>
         <v>0.15076388888888889</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z10" s="21">
         <v>959</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA10" s="21">
         <v>1200</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB10" s="21">
         <v>778</v>
       </c>
-      <c r="AC9" s="21">
+      <c r="AC10" s="21">
         <v>68</v>
       </c>
-      <c r="AD9" s="21">
+      <c r="AD10" s="21">
         <f t="shared" si="7"/>
         <v>2869</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE10" s="11">
         <f t="shared" si="8"/>
         <v>0.41695652173913045</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF10" s="11">
         <f t="shared" si="9"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AG10" s="11">
         <f t="shared" si="10"/>
         <v>0.33826086956521739</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH10" s="11">
         <f t="shared" si="11"/>
         <v>2.9565217391304348E-2</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI10" s="11">
         <f t="shared" si="12"/>
         <v>1.2473913043478262</v>
       </c>
-      <c r="AJ9" s="11">
-        <f t="shared" si="16"/>
+      <c r="AJ10" s="11">
+        <f t="shared" si="30"/>
         <v>0.28616242593238062</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AK10" s="11">
         <f t="shared" si="13"/>
         <v>0.25223655164401065</v>
       </c>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="21">
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="21">
         <v>3669</v>
       </c>
-      <c r="AN9" s="21">
+      <c r="AN10" s="21">
         <v>3772</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO10" s="21">
+        <f t="shared" si="28"/>
+        <v>-103</v>
+      </c>
+      <c r="AP10" s="11">
         <f t="shared" si="14"/>
         <v>0.97269353128313896</v>
       </c>
-      <c r="AP9" s="11">
-        <f t="shared" si="17"/>
+      <c r="AQ10" s="11">
+        <f t="shared" si="31"/>
         <v>0.65455991516436907</v>
       </c>
-      <c r="AQ9" s="20" t="s">
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="30">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:47" ht="30" hidden="1">
+      <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="21">
         <v>4700</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E11" s="21">
         <v>4000</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F11" s="21">
         <v>4</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G11" s="21">
         <v>30</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H11" s="21">
         <v>1900</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I11" s="21">
         <v>385</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J11" s="21">
         <v>341</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K11" s="21">
         <v>358</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L11" s="21">
         <v>262</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M11" s="21">
         <f t="shared" si="0"/>
         <v>320.33333333333331</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="21">
+      <c r="N11" s="2"/>
+      <c r="O11" s="21">
         <v>13200</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P11" s="8">
         <f t="shared" si="1"/>
         <v>41.207075962539022</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q11" s="23">
         <f t="shared" si="2"/>
         <v>0.14893617021276595</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R11" s="23">
         <f t="shared" si="3"/>
         <v>8.5106382978723403E-4</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S11" s="23">
         <f t="shared" si="4"/>
         <v>5.7142857142857143E-3</v>
       </c>
-      <c r="T10" s="23">
-        <f t="shared" si="22"/>
+      <c r="T11" s="23">
+        <f t="shared" si="36"/>
         <v>0.20263157894736841</v>
       </c>
-      <c r="U10" s="23">
-        <f t="shared" si="23"/>
+      <c r="U11" s="23">
+        <f t="shared" si="37"/>
         <v>0.16859649122807016</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V11" s="23">
         <f t="shared" si="5"/>
         <v>0.40425531914893614</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W11" s="8">
         <f t="shared" si="6"/>
         <v>1.175</v>
       </c>
-      <c r="X10" s="23">
-        <f t="shared" si="19"/>
+      <c r="X11" s="23">
+        <f t="shared" si="33"/>
         <v>8.0083333333333326E-2</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Y11" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z11" s="21">
         <v>2244</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AA11" s="21">
         <v>382</v>
       </c>
-      <c r="AB10" s="21">
+      <c r="AB11" s="21">
         <v>736</v>
       </c>
-      <c r="AC10" s="21">
+      <c r="AC11" s="21">
         <v>172</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AD11" s="21">
         <f t="shared" si="7"/>
         <v>3190</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AE11" s="11">
         <f t="shared" si="8"/>
         <v>1.1810526315789474</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF11" s="11">
         <f t="shared" si="9"/>
         <v>0.20105263157894737</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG11" s="11">
         <f t="shared" si="10"/>
         <v>0.38736842105263158</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH11" s="11">
         <f t="shared" si="11"/>
         <v>9.0526315789473691E-2</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AI11" s="11">
         <f t="shared" si="12"/>
         <v>1.6789473684210525</v>
       </c>
-      <c r="AJ10" s="11">
-        <f t="shared" si="16"/>
+      <c r="AJ11" s="11">
+        <f t="shared" si="30"/>
         <v>0.10689655172413794</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AK11" s="11">
         <f t="shared" si="13"/>
         <v>0.10041797283176593</v>
-      </c>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="11" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP10" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ10" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="21">
-        <v>26400</v>
-      </c>
-      <c r="E11" s="21">
-        <v>15600</v>
-      </c>
-      <c r="F11" s="21">
-        <v>5700</v>
-      </c>
-      <c r="G11" s="21">
-        <v>230</v>
-      </c>
-      <c r="H11" s="21">
-        <v>9200</v>
-      </c>
-      <c r="I11" s="21">
-        <v>2200</v>
-      </c>
-      <c r="J11" s="21">
-        <v>1900</v>
-      </c>
-      <c r="K11" s="21">
-        <v>1400</v>
-      </c>
-      <c r="L11" s="21">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="21">
-        <f t="shared" si="0"/>
-        <v>1433.3333333333333</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="21">
-        <v>70000</v>
-      </c>
-      <c r="P11" s="8">
-        <f t="shared" si="1"/>
-        <v>48.837209302325583</v>
-      </c>
-      <c r="Q11" s="23">
-        <f t="shared" si="2"/>
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="R11" s="23">
-        <f t="shared" si="3"/>
-        <v>0.21590909090909091</v>
-      </c>
-      <c r="S11" s="23">
-        <f t="shared" si="4"/>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="T11" s="23">
-        <f t="shared" si="22"/>
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="U11" s="23">
-        <f t="shared" si="23"/>
-        <v>0.15579710144927536</v>
-      </c>
-      <c r="V11" s="23">
-        <f t="shared" si="5"/>
-        <v>0.34848484848484851</v>
-      </c>
-      <c r="W11" s="8">
-        <f t="shared" si="6"/>
-        <v>1.6923076923076923</v>
-      </c>
-      <c r="X11" s="23">
-        <f t="shared" si="19"/>
-        <v>9.1880341880341873E-2</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>3085</v>
-      </c>
-      <c r="AA11" s="21">
-        <v>601</v>
-      </c>
-      <c r="AB11" s="21">
-        <v>4799</v>
-      </c>
-      <c r="AC11" s="21">
-        <v>625</v>
-      </c>
-      <c r="AD11" s="21">
-        <f t="shared" si="7"/>
-        <v>7860</v>
-      </c>
-      <c r="AE11" s="11">
-        <f t="shared" si="8"/>
-        <v>0.33532608695652172</v>
-      </c>
-      <c r="AF11" s="11">
-        <f t="shared" si="9"/>
-        <v>6.5326086956521742E-2</v>
-      </c>
-      <c r="AG11" s="11">
-        <f t="shared" si="10"/>
-        <v>0.52163043478260873</v>
-      </c>
-      <c r="AH11" s="11">
-        <f t="shared" si="11"/>
-        <v>6.7934782608695649E-2</v>
-      </c>
-      <c r="AI11" s="11">
-        <f t="shared" si="12"/>
-        <v>0.85434782608695647</v>
-      </c>
-      <c r="AJ11" s="11">
-        <f t="shared" si="16"/>
-        <v>0.24173027989821882</v>
-      </c>
-      <c r="AK11" s="11">
-        <f t="shared" si="13"/>
-        <v>0.1823579304495335</v>
       </c>
       <c r="AL11" s="27"/>
       <c r="AM11" s="21"/>
       <c r="AN11" s="21"/>
-      <c r="AO11" s="11" t="e">
+      <c r="AO11" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+      <c r="AQ11" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" hidden="1">
       <c r="A12" s="6" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>186</v>
+        <v>143</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="D12" s="21">
-        <v>2484</v>
+        <v>26400</v>
       </c>
       <c r="E12" s="21">
-        <v>1927</v>
+        <v>15600</v>
       </c>
       <c r="F12" s="21">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="G12" s="21">
-        <v>-2</v>
+        <v>230</v>
       </c>
       <c r="H12" s="21">
-        <v>1520</v>
+        <v>9200</v>
       </c>
       <c r="I12" s="21">
-        <v>469</v>
+        <v>2200</v>
       </c>
       <c r="J12" s="21">
-        <v>414</v>
+        <v>1900</v>
       </c>
       <c r="K12" s="21">
-        <v>257</v>
+        <v>1400</v>
       </c>
       <c r="L12" s="21">
-        <v>157</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="21">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>1433.3333333333333</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="21">
-        <v>17547</v>
+        <v>70000</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="1"/>
-        <v>63.576086956521742</v>
+        <v>48.837209302325583</v>
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="2"/>
-        <v>0.22423510466988728</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="R12" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21590909090909091</v>
       </c>
       <c r="S12" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="T12" s="23">
-        <f t="shared" si="22"/>
-        <v>0.30855263157894736</v>
+        <f t="shared" si="36"/>
+        <v>0.2391304347826087</v>
       </c>
       <c r="U12" s="23">
-        <f t="shared" si="23"/>
-        <v>0.18157894736842106</v>
+        <f t="shared" si="37"/>
+        <v>0.15579710144927536</v>
       </c>
       <c r="V12" s="23">
         <f t="shared" si="5"/>
-        <v>0.61191626409017719</v>
+        <v>0.34848484848484851</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="6"/>
-        <v>1.2890503373118838</v>
+        <v>1.6923076923076923</v>
       </c>
       <c r="X12" s="23">
-        <f t="shared" si="19"/>
-        <v>0.14322781525687597</v>
-      </c>
-      <c r="Y12" s="24"/>
+        <f t="shared" si="33"/>
+        <v>9.1880341880341873E-2</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="Z12" s="21">
-        <v>718</v>
+        <v>3085</v>
       </c>
       <c r="AA12" s="21">
-        <v>247</v>
+        <v>601</v>
       </c>
       <c r="AB12" s="21">
-        <v>1</v>
+        <v>4799</v>
       </c>
       <c r="AC12" s="21">
-        <v>109</v>
+        <v>625</v>
       </c>
       <c r="AD12" s="21">
         <f t="shared" si="7"/>
-        <v>857</v>
+        <v>7860</v>
       </c>
       <c r="AE12" s="11">
         <f t="shared" si="8"/>
-        <v>0.4723684210526316</v>
+        <v>0.33532608695652172</v>
       </c>
       <c r="AF12" s="11">
         <f t="shared" si="9"/>
-        <v>0.16250000000000001</v>
+        <v>6.5326086956521742E-2</v>
       </c>
       <c r="AG12" s="11">
         <f t="shared" si="10"/>
-        <v>6.5789473684210525E-4</v>
+        <v>0.52163043478260873</v>
       </c>
       <c r="AH12" s="11">
         <f t="shared" si="11"/>
-        <v>7.1710526315789475E-2</v>
+        <v>6.7934782608695649E-2</v>
       </c>
       <c r="AI12" s="11">
         <f t="shared" si="12"/>
-        <v>0.56381578947368416</v>
+        <v>0.85434782608695647</v>
       </c>
       <c r="AJ12" s="11">
-        <f t="shared" si="16"/>
-        <v>0.48308051341890312</v>
+        <f t="shared" si="30"/>
+        <v>0.24173027989821882</v>
       </c>
       <c r="AK12" s="11">
         <f t="shared" si="13"/>
-        <v>0.32205367561260212</v>
+        <v>0.1823579304495335</v>
       </c>
       <c r="AL12" s="27"/>
       <c r="AM12" s="21"/>
       <c r="AN12" s="21"/>
-      <c r="AO12" s="11" t="e">
+      <c r="AO12" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="45">
+      <c r="AQ12" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" hidden="1">
       <c r="A13" s="6" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>154</v>
+        <v>254</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="D13" s="21">
-        <v>178099</v>
+        <v>2484</v>
       </c>
       <c r="E13" s="21">
-        <v>59900</v>
+        <v>1927</v>
       </c>
       <c r="F13" s="21">
-        <v>56500</v>
+        <v>0</v>
       </c>
       <c r="G13" s="21">
-        <v>2300</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="21">
-        <v>105914</v>
+        <v>1520</v>
       </c>
       <c r="I13" s="21">
-        <v>5410</v>
+        <v>469</v>
       </c>
       <c r="J13" s="21">
-        <v>4916</v>
+        <v>414</v>
       </c>
       <c r="K13" s="21">
-        <v>5480</v>
+        <v>257</v>
       </c>
       <c r="L13" s="21">
-        <v>3138</v>
+        <v>157</v>
       </c>
       <c r="M13" s="21">
         <f t="shared" si="0"/>
-        <v>4511.333333333333</v>
+        <v>276</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="21">
-        <v>150000</v>
+        <v>17547</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="1"/>
-        <v>33.24959361607803</v>
+        <v>63.576086956521742</v>
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="2"/>
-        <v>0.66367020589672032</v>
+        <v>0.22423510466988728</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" si="3"/>
-        <v>0.31723928826102338</v>
+        <v>0</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="4"/>
-        <v>0.47800742815083036</v>
+        <v>0</v>
       </c>
       <c r="T13" s="23">
-        <f t="shared" si="22"/>
-        <v>5.1079177445852296E-2</v>
+        <f t="shared" si="36"/>
+        <v>0.30855263157894736</v>
       </c>
       <c r="U13" s="23">
-        <f t="shared" si="23"/>
-        <v>4.2594306072222116E-2</v>
+        <f t="shared" si="37"/>
+        <v>0.18157894736842106</v>
       </c>
       <c r="V13" s="23">
         <f t="shared" si="5"/>
-        <v>0.59469171640492091</v>
+        <v>0.61191626409017719</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="6"/>
-        <v>2.9732721202003338</v>
+        <v>1.2890503373118838</v>
       </c>
       <c r="X13" s="23">
-        <f t="shared" si="19"/>
-        <v>7.5314412910406234E-2</v>
-      </c>
-      <c r="Y13" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>0.14322781525687597</v>
+      </c>
+      <c r="Y13" s="24"/>
       <c r="Z13" s="21">
-        <v>43244</v>
+        <v>718</v>
       </c>
       <c r="AA13" s="21">
-        <v>19872</v>
+        <v>247</v>
       </c>
       <c r="AB13" s="21">
-        <v>51880</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="21">
-        <v>23319</v>
+        <v>109</v>
       </c>
       <c r="AD13" s="21">
         <f t="shared" si="7"/>
-        <v>91677</v>
+        <v>857</v>
       </c>
       <c r="AE13" s="11">
         <f t="shared" si="8"/>
-        <v>0.4082935211586759</v>
+        <v>0.4723684210526316</v>
       </c>
       <c r="AF13" s="11">
         <f t="shared" si="9"/>
-        <v>0.18762392129463526</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="AG13" s="11">
         <f t="shared" si="10"/>
-        <v>0.48983137262307153</v>
+        <v>6.5789473684210525E-4</v>
       </c>
       <c r="AH13" s="11">
         <f t="shared" si="11"/>
-        <v>0.22016919387427536</v>
+        <v>7.1710526315789475E-2</v>
       </c>
       <c r="AI13" s="11">
         <f t="shared" si="12"/>
-        <v>0.86557962120210741</v>
+        <v>0.56381578947368416</v>
       </c>
       <c r="AJ13" s="11">
-        <f t="shared" si="16"/>
-        <v>5.3623046129345417E-2</v>
+        <f t="shared" si="30"/>
+        <v>0.48308051341890312</v>
       </c>
       <c r="AK13" s="11">
         <f t="shared" si="13"/>
-        <v>4.9208998258378142E-2</v>
+        <v>0.32205367561260212</v>
       </c>
       <c r="AL13" s="27"/>
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
-      <c r="AO13" s="11" t="e">
+      <c r="AO13" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP13" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ13" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+      <c r="AQ13" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR13" s="11"/>
+    </row>
+    <row r="14" spans="1:47" ht="45" hidden="1">
       <c r="A14" s="6" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>198</v>
+        <v>147</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D14" s="21">
-        <v>2200</v>
+        <v>178099</v>
       </c>
       <c r="E14" s="21">
-        <v>1700</v>
+        <v>59900</v>
       </c>
       <c r="F14" s="21">
-        <v>208</v>
+        <v>56500</v>
       </c>
       <c r="G14" s="21">
-        <v>-12</v>
+        <v>2300</v>
       </c>
       <c r="H14" s="21">
-        <v>683</v>
+        <v>105914</v>
       </c>
       <c r="I14" s="21">
-        <v>150</v>
+        <v>5410</v>
       </c>
       <c r="J14" s="21">
-        <v>140</v>
+        <v>4916</v>
       </c>
       <c r="K14" s="21">
-        <v>98</v>
+        <v>5480</v>
       </c>
       <c r="L14" s="21">
-        <v>72</v>
+        <v>3138</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" si="0"/>
-        <v>103.33333333333333</v>
+        <v>4511.333333333333</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="21">
-        <v>12300</v>
+        <v>150000</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="1"/>
-        <v>119.03225806451613</v>
+        <v>33.24959361607803</v>
       </c>
       <c r="Q14" s="23">
         <f t="shared" si="2"/>
-        <v>0.22727272727272727</v>
+        <v>0.66367020589672032</v>
       </c>
       <c r="R14" s="23">
         <f t="shared" si="3"/>
-        <v>9.4545454545454544E-2</v>
+        <v>0.31723928826102338</v>
       </c>
       <c r="S14" s="23">
         <f t="shared" si="4"/>
-        <v>0.41599999999999998</v>
+        <v>0.47800742815083036</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" si="22"/>
-        <v>0.21961932650073207</v>
+        <f t="shared" si="36"/>
+        <v>5.1079177445852296E-2</v>
       </c>
       <c r="U14" s="23">
-        <f t="shared" si="23"/>
-        <v>0.15129331381161543</v>
+        <f t="shared" si="37"/>
+        <v>4.2594306072222116E-2</v>
       </c>
       <c r="V14" s="23">
         <f t="shared" si="5"/>
-        <v>0.31045454545454543</v>
+        <v>0.59469171640492091</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="6"/>
-        <v>1.2941176470588236</v>
+        <v>2.9732721202003338</v>
       </c>
       <c r="X14" s="23">
-        <f t="shared" si="19"/>
-        <v>6.0784313725490195E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.5314412910406234E-2</v>
       </c>
       <c r="Y14" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z14" s="21">
-        <v>491</v>
+        <v>43244</v>
       </c>
       <c r="AA14" s="21">
-        <v>168</v>
+        <v>19872</v>
       </c>
       <c r="AB14" s="21">
-        <v>363</v>
+        <v>51880</v>
       </c>
       <c r="AC14" s="21">
-        <v>100</v>
+        <v>23319</v>
       </c>
       <c r="AD14" s="21">
         <f t="shared" si="7"/>
-        <v>922</v>
+        <v>91677</v>
       </c>
       <c r="AE14" s="11">
         <f t="shared" si="8"/>
-        <v>0.71888726207906295</v>
+        <v>0.4082935211586759</v>
       </c>
       <c r="AF14" s="11">
         <f t="shared" si="9"/>
-        <v>0.24597364568081992</v>
+        <v>0.18762392129463526</v>
       </c>
       <c r="AG14" s="11">
         <f t="shared" si="10"/>
-        <v>0.53147877013177158</v>
+        <v>0.48983137262307153</v>
       </c>
       <c r="AH14" s="11">
         <f t="shared" si="11"/>
-        <v>0.14641288433382138</v>
+        <v>0.22016919387427536</v>
       </c>
       <c r="AI14" s="11">
         <f t="shared" si="12"/>
-        <v>1.3499267935578332</v>
+        <v>0.86557962120210741</v>
       </c>
       <c r="AJ14" s="11">
-        <f t="shared" si="16"/>
-        <v>0.15184381778741865</v>
+        <f t="shared" si="30"/>
+        <v>5.3623046129345417E-2</v>
       </c>
       <c r="AK14" s="11">
         <f t="shared" si="13"/>
-        <v>0.11207519884309472</v>
+        <v>4.9208998258378142E-2</v>
       </c>
       <c r="AL14" s="27"/>
       <c r="AM14" s="21"/>
       <c r="AN14" s="21"/>
-      <c r="AO14" s="11" t="e">
+      <c r="AO14" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ14" s="7"/>
-    </row>
-    <row r="15" spans="1:45">
+      <c r="AQ14" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT14" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" hidden="1">
       <c r="A15" s="6" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>186</v>
+        <v>201</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="D15" s="21">
-        <v>4211</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="21">
-        <v>3169</v>
+        <v>1700</v>
       </c>
       <c r="F15" s="21">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="G15" s="21">
-        <v>-61</v>
+        <v>-12</v>
       </c>
       <c r="H15" s="21">
-        <v>1409</v>
+        <v>683</v>
       </c>
       <c r="I15" s="21">
-        <v>806.5</v>
+        <v>150</v>
       </c>
       <c r="J15" s="21">
-        <v>725.6</v>
+        <v>140</v>
       </c>
       <c r="K15" s="21">
-        <v>1211.5</v>
+        <v>98</v>
       </c>
       <c r="L15" s="21">
-        <v>957</v>
+        <v>72</v>
       </c>
       <c r="M15" s="21">
         <f t="shared" si="0"/>
-        <v>964.69999999999993</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>103.33333333333333</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="21">
-        <v>26880</v>
+        <v>12300</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="1"/>
-        <v>27.863584534052038</v>
+        <v>119.03225806451613</v>
       </c>
       <c r="Q15" s="23">
         <f t="shared" si="2"/>
-        <v>0.24744716219425314</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="R15" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.4545454545454544E-2</v>
       </c>
       <c r="S15" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="T15" s="23">
-        <f t="shared" si="22"/>
-        <v>0.57239176721078777</v>
+        <f t="shared" si="36"/>
+        <v>0.21961932650073207</v>
       </c>
       <c r="U15" s="23">
-        <f t="shared" si="23"/>
-        <v>0.68466997870830371</v>
+        <f t="shared" si="37"/>
+        <v>0.15129331381161543</v>
       </c>
       <c r="V15" s="23">
         <f t="shared" si="5"/>
-        <v>0.33459985751602944</v>
+        <v>0.31045454545454543</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="6"/>
-        <v>1.3288103502682234</v>
+        <v>1.2941176470588236</v>
       </c>
       <c r="X15" s="23">
-        <f t="shared" si="19"/>
-        <v>0.30441779741243291</v>
-      </c>
-      <c r="Y15" s="24"/>
+        <f t="shared" si="33"/>
+        <v>6.0784313725490195E-2</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="Z15" s="21">
-        <v>361.9</v>
+        <v>491</v>
       </c>
       <c r="AA15" s="21">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AB15" s="21">
-        <v>11.8</v>
+        <v>363</v>
       </c>
       <c r="AC15" s="21">
-        <v>33.69</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="21">
         <f t="shared" si="7"/>
-        <v>340.01</v>
+        <v>922</v>
       </c>
       <c r="AE15" s="11">
         <f t="shared" si="8"/>
-        <v>0.25684882895670685</v>
+        <v>0.71888726207906295</v>
       </c>
       <c r="AF15" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.24597364568081992</v>
       </c>
       <c r="AG15" s="11">
         <f t="shared" si="10"/>
-        <v>8.3747338537970197E-3</v>
+        <v>0.53147877013177158</v>
       </c>
       <c r="AH15" s="11">
         <f t="shared" si="11"/>
-        <v>2.3910574875798438E-2</v>
+        <v>0.14641288433382138</v>
       </c>
       <c r="AI15" s="11">
         <f t="shared" si="12"/>
-        <v>0.24131298793470546</v>
+        <v>1.3499267935578332</v>
       </c>
       <c r="AJ15" s="11">
-        <f t="shared" si="16"/>
-        <v>2.1340548807388018</v>
+        <f t="shared" si="30"/>
+        <v>0.15184381778741865</v>
       </c>
       <c r="AK15" s="11">
         <f t="shared" si="13"/>
-        <v>2.8372694920737622</v>
+        <v>0.11207519884309472</v>
       </c>
       <c r="AL15" s="27"/>
       <c r="AM15" s="21"/>
       <c r="AN15" s="21"/>
-      <c r="AO15" s="11" t="e">
+      <c r="AO15" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ15" s="7"/>
-    </row>
-    <row r="16" spans="1:45">
+      <c r="AQ15" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="7"/>
+    </row>
+    <row r="16" spans="1:47">
       <c r="A16" s="6" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>198</v>
+        <v>255</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="D16" s="21">
-        <v>41400</v>
+        <v>4211</v>
       </c>
       <c r="E16" s="21">
-        <v>31300</v>
+        <v>3169</v>
       </c>
       <c r="F16" s="21">
         <v>0</v>
       </c>
       <c r="G16" s="21">
-        <v>-136</v>
+        <v>-61</v>
       </c>
       <c r="H16" s="21">
-        <v>59300</v>
+        <v>1409</v>
       </c>
       <c r="I16" s="21">
-        <v>12500</v>
+        <v>806.5</v>
       </c>
       <c r="J16" s="21">
-        <v>12200</v>
+        <v>725.6</v>
       </c>
       <c r="K16" s="21">
-        <v>6600</v>
+        <v>1211.5</v>
       </c>
       <c r="L16" s="21">
-        <v>2800</v>
+        <v>957</v>
       </c>
       <c r="M16" s="21">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>964.69999999999993</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O16" s="21">
-        <v>112700</v>
+        <v>26880</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="1"/>
-        <v>15.652777777777779</v>
+        <v>27.863584534052038</v>
       </c>
       <c r="Q16" s="23">
         <f t="shared" si="2"/>
-        <v>0.24396135265700483</v>
+        <v>0.24744716219425314</v>
       </c>
       <c r="R16" s="23">
         <f t="shared" si="3"/>
@@ -3807,268 +3933,292 @@
         <v>0</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="22"/>
-        <v>0.21079258010118043</v>
+        <f t="shared" si="36"/>
+        <v>0.57239176721078777</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="23"/>
-        <v>0.12141652613827993</v>
+        <f t="shared" si="37"/>
+        <v>0.68466997870830371</v>
       </c>
       <c r="V16" s="23">
         <f t="shared" si="5"/>
-        <v>1.432367149758454</v>
+        <v>0.33459985751602944</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="6"/>
-        <v>1.3226837060702876</v>
+        <v>1.3288103502682234</v>
       </c>
       <c r="X16" s="23">
-        <f t="shared" si="19"/>
-        <v>0.23003194888178913</v>
-      </c>
-      <c r="Y16" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>0.30441779741243291</v>
+      </c>
+      <c r="Y16" s="24"/>
       <c r="Z16" s="21">
-        <v>11370</v>
+        <v>361.9</v>
       </c>
       <c r="AA16" s="21">
-        <v>10547</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="21">
-        <v>143</v>
+        <v>11.8</v>
       </c>
       <c r="AC16" s="21">
-        <v>2648</v>
+        <v>33.69</v>
       </c>
       <c r="AD16" s="21">
         <f t="shared" si="7"/>
-        <v>19412</v>
+        <v>340.01</v>
       </c>
       <c r="AE16" s="11">
         <f t="shared" si="8"/>
-        <v>0.19173693086003374</v>
+        <v>0.25684882895670685</v>
       </c>
       <c r="AF16" s="11">
         <f t="shared" si="9"/>
-        <v>0.17785834738617201</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="11">
         <f t="shared" si="10"/>
-        <v>2.4114671163575044E-3</v>
+        <v>8.3747338537970197E-3</v>
       </c>
       <c r="AH16" s="11">
         <f t="shared" si="11"/>
-        <v>4.4654300168634066E-2</v>
+        <v>2.3910574875798438E-2</v>
       </c>
       <c r="AI16" s="11">
         <f t="shared" si="12"/>
-        <v>0.3273524451939292</v>
+        <v>0.24131298793470546</v>
       </c>
       <c r="AJ16" s="11">
-        <f t="shared" si="16"/>
-        <v>0.62847723057902327</v>
+        <f t="shared" si="30"/>
+        <v>2.1340548807388018</v>
       </c>
       <c r="AK16" s="11">
         <f t="shared" si="13"/>
-        <v>0.37090459509581702</v>
+        <v>2.8372694920737622</v>
       </c>
       <c r="AL16" s="27"/>
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
-      <c r="AO16" s="11" t="e">
+      <c r="AO16" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP16" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ16" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
+      <c r="AQ16" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="7"/>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" s="6" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>186</v>
       </c>
       <c r="D17" s="21">
-        <v>2360000</v>
+        <v>49039</v>
       </c>
       <c r="E17" s="21">
-        <v>152900</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+        <v>33369</v>
+      </c>
+      <c r="F17" s="21">
+        <f>2500+70+895+2481</f>
+        <v>5946</v>
+      </c>
+      <c r="G17" s="21">
+        <v>-5</v>
+      </c>
       <c r="H17" s="21">
-        <v>64000</v>
+        <v>55657</v>
       </c>
       <c r="I17" s="21">
-        <v>26100</v>
+        <v>7225</v>
       </c>
       <c r="J17" s="21">
-        <v>19700</v>
+        <v>6999</v>
       </c>
       <c r="K17" s="21">
-        <v>18900</v>
+        <v>12200</v>
       </c>
       <c r="L17" s="21">
-        <v>18000</v>
+        <v>6600</v>
       </c>
       <c r="M17" s="21">
         <f t="shared" si="0"/>
-        <v>18866.666666666668</v>
+        <v>8599.6666666666661</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O17" s="21">
-        <v>113000</v>
+        <v>112100</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" ref="P17:P18" si="24">O17/M17</f>
-        <v>5.989399293286219</v>
+        <f t="shared" si="1"/>
+        <v>13.035388968564673</v>
       </c>
       <c r="Q17" s="23">
         <f t="shared" si="2"/>
-        <v>0.93521186440677961</v>
+        <v>0.31954158934725424</v>
       </c>
       <c r="R17" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.12125043332857521</v>
       </c>
       <c r="S17" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37945118059987237</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" ref="T17:T18" si="25">I17/H17</f>
-        <v>0.40781250000000002</v>
+        <f t="shared" si="36"/>
+        <v>0.12981296153224212</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" ref="U17:U18" si="26">M17/H17</f>
-        <v>0.29479166666666667</v>
+        <f t="shared" si="37"/>
+        <v>0.15451186134119096</v>
       </c>
       <c r="V17" s="23">
         <f t="shared" si="5"/>
-        <v>2.7118644067796609E-2</v>
+        <v>1.1349538122718652</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="6"/>
-        <v>15.434924787442773</v>
+        <v>1.4695975306422129</v>
       </c>
       <c r="X17" s="23">
-        <f t="shared" si="19"/>
-        <v>0.12339219533464138</v>
+        <f t="shared" si="33"/>
+        <v>0.25771424575703994</v>
       </c>
       <c r="Y17" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
+      <c r="Z17" s="21">
+        <v>14438</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>11328</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>172</v>
+      </c>
+      <c r="AC17" s="21">
+        <v>2430</v>
+      </c>
       <c r="AD17" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23508</v>
       </c>
       <c r="AE17" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.25941031676159332</v>
       </c>
       <c r="AF17" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.2035323499290296</v>
       </c>
       <c r="AG17" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.0903570081032036E-3</v>
       </c>
       <c r="AH17" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.3660276335411537E-2</v>
       </c>
       <c r="AI17" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="11" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK17" s="11" t="e">
+        <v>0.42237274736331459</v>
+      </c>
+      <c r="AJ17" s="11">
+        <f>K17/AD17</f>
+        <v>0.5189722647609325</v>
+      </c>
+      <c r="AK17" s="11">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.36581872837615559</v>
       </c>
       <c r="AL17" s="27"/>
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
-      <c r="AO17" s="11" t="e">
+      <c r="AO17" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="11" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP17" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ17" s="17"/>
-    </row>
-    <row r="18" spans="1:45">
+      <c r="AQ17" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" hidden="1">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D18" s="21">
-        <v>6300000</v>
+        <v>2360000</v>
       </c>
       <c r="E18" s="21">
-        <v>483300</v>
+        <v>152900</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21">
-        <v>220800</v>
+        <v>64000</v>
       </c>
       <c r="I18" s="21">
-        <v>90500</v>
+        <v>26100</v>
       </c>
       <c r="J18" s="21">
-        <v>70600</v>
+        <v>19700</v>
       </c>
       <c r="K18" s="21">
-        <v>62300</v>
+        <v>18900</v>
       </c>
       <c r="L18" s="21">
-        <v>58000</v>
+        <v>18000</v>
       </c>
       <c r="M18" s="21">
         <f t="shared" si="0"/>
-        <v>63633.333333333336</v>
+        <v>18866.666666666668</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O18" s="21">
-        <v>725000</v>
+        <v>113000</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="24"/>
-        <v>11.393399685699318</v>
+        <f t="shared" ref="P18:P19" si="38">O18/M18</f>
+        <v>5.989399293286219</v>
       </c>
       <c r="Q18" s="23">
         <f t="shared" si="2"/>
-        <v>0.92328571428571427</v>
+        <v>0.93521186440677961</v>
       </c>
       <c r="R18" s="23">
         <f t="shared" si="3"/>
@@ -4079,24 +4229,24 @@
         <v>0</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="25"/>
-        <v>0.40987318840579712</v>
+        <f t="shared" ref="T18:T19" si="39">I18/H18</f>
+        <v>0.40781250000000002</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="26"/>
-        <v>0.28819444444444448</v>
+        <f t="shared" ref="U18:U19" si="40">M18/H18</f>
+        <v>0.29479166666666667</v>
       </c>
       <c r="V18" s="23">
         <f t="shared" si="5"/>
-        <v>3.504761904761905E-2</v>
+        <v>2.7118644067796609E-2</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="6"/>
-        <v>13.035381750465548</v>
+        <v>15.434924787442773</v>
       </c>
       <c r="X18" s="23">
-        <f t="shared" si="19"/>
-        <v>0.13166425270708326</v>
+        <f t="shared" si="33"/>
+        <v>0.12339219533464138</v>
       </c>
       <c r="Y18" s="24" t="s">
         <v>237</v>
@@ -4130,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="11" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK18" s="11" t="e">
@@ -4140,310 +4290,308 @@
       <c r="AL18" s="27"/>
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
-      <c r="AO18" s="11" t="e">
-        <f t="shared" ref="AO18:AO35" si="27">AM18/AN18</f>
-        <v>#DIV/0!</v>
+      <c r="AO18" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP18" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ18" s="17"/>
-    </row>
-    <row r="19" spans="1:45">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ18" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="17"/>
+    </row>
+    <row r="19" spans="1:47" hidden="1">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>186</v>
       </c>
       <c r="D19" s="21">
-        <v>9600</v>
+        <v>6300000</v>
       </c>
       <c r="E19" s="21">
-        <v>5300</v>
-      </c>
-      <c r="F19" s="21">
-        <v>1100</v>
-      </c>
-      <c r="G19" s="21">
-        <v>29</v>
-      </c>
+        <v>483300</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="21">
-        <v>6400</v>
+        <v>220800</v>
       </c>
       <c r="I19" s="21">
-        <v>480</v>
+        <v>90500</v>
       </c>
       <c r="J19" s="21">
-        <v>389</v>
+        <v>70600</v>
       </c>
       <c r="K19" s="21">
-        <v>216</v>
+        <v>62300</v>
       </c>
       <c r="L19" s="21">
-        <v>2200</v>
+        <v>58000</v>
       </c>
       <c r="M19" s="21">
         <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="N19" s="15" t="s">
+        <v>63633.333333333336</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O19" s="21">
-        <v>26600</v>
+        <v>725000</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="1"/>
-        <v>28.449197860962567</v>
+        <f t="shared" si="38"/>
+        <v>11.393399685699318</v>
       </c>
       <c r="Q19" s="23">
         <f t="shared" si="2"/>
-        <v>0.44791666666666669</v>
+        <v>0.92328571428571427</v>
       </c>
       <c r="R19" s="23">
         <f t="shared" si="3"/>
-        <v>0.11458333333333333</v>
+        <v>0</v>
       </c>
       <c r="S19" s="23">
         <f t="shared" si="4"/>
-        <v>0.2558139534883721</v>
+        <v>0</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="22"/>
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="39"/>
+        <v>0.40987318840579712</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="23"/>
-        <v>0.14609374999999999</v>
+        <f t="shared" si="40"/>
+        <v>0.28819444444444448</v>
       </c>
       <c r="V19" s="23">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>3.504761904761905E-2</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="6"/>
-        <v>1.8113207547169812</v>
+        <v>13.035381750465548</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="19"/>
-        <v>0.17641509433962263</v>
+        <f t="shared" si="33"/>
+        <v>0.13166425270708326</v>
       </c>
       <c r="Y19" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z19" s="21">
-        <v>297</v>
-      </c>
-      <c r="AA19" s="21">
-        <v>750</v>
-      </c>
-      <c r="AB19" s="21">
-        <v>926</v>
-      </c>
-      <c r="AC19" s="21">
-        <v>683</v>
-      </c>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
       <c r="AD19" s="21">
         <f t="shared" si="7"/>
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="11">
         <f t="shared" si="8"/>
-        <v>4.6406250000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="11">
         <f t="shared" si="9"/>
-        <v>0.1171875</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="11">
         <f t="shared" si="10"/>
-        <v>0.1446875</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="11">
         <f t="shared" si="11"/>
-        <v>0.10671875</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="11">
         <f t="shared" si="12"/>
-        <v>0.20156250000000001</v>
-      </c>
-      <c r="AJ19" s="11">
-        <f t="shared" si="16"/>
-        <v>0.30155038759689923</v>
-      </c>
-      <c r="AK19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK19" s="11" t="e">
         <f t="shared" si="13"/>
-        <v>0.72480620155038755</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AL19" s="27"/>
       <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
-      <c r="AO19" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO19" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP19" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ19" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="45">
+        <f t="shared" ref="AP19:AP37" si="41">AM19/AN19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="17"/>
+    </row>
+    <row r="20" spans="1:47">
       <c r="A20" s="6" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="D20" s="21">
-        <v>100000</v>
+        <v>9600</v>
       </c>
       <c r="E20" s="21">
-        <v>46000</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="21">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="21">
-        <v>-300</v>
+        <v>29</v>
       </c>
       <c r="H20" s="21">
-        <v>78500</v>
+        <v>6400</v>
       </c>
       <c r="I20" s="21">
-        <v>9400</v>
+        <v>480</v>
       </c>
       <c r="J20" s="21">
-        <v>10200</v>
+        <v>389</v>
       </c>
       <c r="K20" s="21">
-        <v>9900</v>
+        <v>216</v>
       </c>
       <c r="L20" s="21">
-        <v>7500</v>
+        <v>2200</v>
       </c>
       <c r="M20" s="21">
         <f t="shared" si="0"/>
-        <v>9200</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>199</v>
+        <v>935</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="O20" s="21">
-        <v>53000</v>
+        <v>26600</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="1"/>
-        <v>5.7608695652173916</v>
+        <v>28.449197860962567</v>
       </c>
       <c r="Q20" s="23">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="R20" s="23">
         <f t="shared" si="3"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="S20" s="23">
         <f t="shared" si="4"/>
-        <v>3.888888888888889E-2</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="T20" s="23">
-        <f t="shared" si="22"/>
-        <v>0.11974522292993631</v>
+        <f t="shared" si="36"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="U20" s="23">
-        <f t="shared" si="23"/>
-        <v>0.11719745222929936</v>
+        <f t="shared" si="37"/>
+        <v>0.14609374999999999</v>
       </c>
       <c r="V20" s="23">
         <f t="shared" si="5"/>
-        <v>0.78500000000000003</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="6"/>
-        <v>2.1739130434782608</v>
+        <v>1.8113207547169812</v>
       </c>
       <c r="X20" s="23">
-        <f t="shared" si="19"/>
-        <v>0.2</v>
+        <f t="shared" si="33"/>
+        <v>0.17641509433962263</v>
       </c>
       <c r="Y20" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z20" s="21">
-        <v>15480</v>
+        <v>297</v>
       </c>
       <c r="AA20" s="21">
-        <v>7304</v>
+        <v>750</v>
       </c>
       <c r="AB20" s="21">
-        <v>1498</v>
+        <v>926</v>
       </c>
       <c r="AC20" s="21">
-        <v>19880</v>
+        <v>683</v>
       </c>
       <c r="AD20" s="21">
         <f t="shared" si="7"/>
-        <v>4402</v>
+        <v>1290</v>
       </c>
       <c r="AE20" s="11">
         <f t="shared" si="8"/>
-        <v>0.19719745222929935</v>
+        <v>4.6406250000000003E-2</v>
       </c>
       <c r="AF20" s="11">
         <f t="shared" si="9"/>
-        <v>9.3044585987261147E-2</v>
+        <v>0.1171875</v>
       </c>
       <c r="AG20" s="11">
         <f t="shared" si="10"/>
-        <v>1.90828025477707E-2</v>
+        <v>0.1446875</v>
       </c>
       <c r="AH20" s="11">
         <f t="shared" si="11"/>
-        <v>0.25324840764331208</v>
+        <v>0.10671875</v>
       </c>
       <c r="AI20" s="11">
         <f t="shared" si="12"/>
-        <v>5.6076433121019106E-2</v>
+        <v>0.20156250000000001</v>
       </c>
       <c r="AJ20" s="11">
-        <f t="shared" si="16"/>
-        <v>2.3171285779191275</v>
+        <f t="shared" si="30"/>
+        <v>0.30155038759689923</v>
       </c>
       <c r="AK20" s="11">
         <f t="shared" si="13"/>
-        <v>2.089959109495684</v>
+        <v>0.72480620155038755</v>
       </c>
       <c r="AL20" s="27"/>
       <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
-      <c r="AO20" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO20" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP20" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ20" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR20" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ20" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
       <c r="A21" s="6" t="s">
         <v>258</v>
       </c>
@@ -4507,11 +4655,11 @@
         <v>0</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>0.66887678856691346</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0.36295240221928304</v>
       </c>
       <c r="V21" s="23">
@@ -4523,7 +4671,7 @@
         <v>1.4019100386381862</v>
       </c>
       <c r="X21" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0.22006061300367635</v>
       </c>
       <c r="Y21" s="24"/>
@@ -4564,7 +4712,7 @@
         <v>0.62368380369995013</v>
       </c>
       <c r="AJ21" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.79886529510589666</v>
       </c>
       <c r="AK21" s="11">
@@ -4574,791 +4722,839 @@
       <c r="AL21" s="27"/>
       <c r="AM21" s="21"/>
       <c r="AN21" s="21"/>
-      <c r="AO21" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO21" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP21" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="6"/>
-    </row>
-    <row r="22" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ21" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="6"/>
+    </row>
+    <row r="22" spans="1:47" ht="45">
       <c r="A22" s="6" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>186</v>
+        <v>135</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="D22" s="21">
-        <v>13699</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="21">
-        <v>7481</v>
+        <v>46000</v>
       </c>
       <c r="F22" s="21">
-        <f>114+99+48</f>
-        <v>261</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="21">
-        <v>-49.6</v>
+        <v>-300</v>
       </c>
       <c r="H22" s="21">
-        <v>12017</v>
+        <v>78500</v>
       </c>
       <c r="I22" s="21">
-        <v>655.9</v>
+        <v>9400</v>
       </c>
       <c r="J22" s="21">
-        <v>464</v>
+        <v>10200</v>
       </c>
       <c r="K22" s="21">
-        <v>843.7</v>
+        <v>9900</v>
       </c>
       <c r="L22" s="21">
-        <v>614</v>
+        <v>7500</v>
       </c>
       <c r="M22" s="21">
-        <f t="shared" si="0"/>
-        <v>640.56666666666672</v>
-      </c>
-      <c r="N22" s="2"/>
+        <f>(J22+K22+L22)/3</f>
+        <v>9200</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="O22" s="21">
-        <v>13336</v>
+        <v>53000</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="1"/>
-        <v>20.819066451579328</v>
+        <f>O22/M22</f>
+        <v>5.7608695652173916</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="2"/>
-        <v>0.45390174465289435</v>
+        <f>(D22-E22)/D22</f>
+        <v>0.54</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="3"/>
-        <v>1.9052485582889262E-2</v>
+        <f>F22/D22</f>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="4"/>
-        <v>4.1974911547121262E-2</v>
+        <f>F22/(D22-E22)</f>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" si="22"/>
-        <v>5.4581010235499709E-2</v>
+        <f>I22/H22</f>
+        <v>0.11974522292993631</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="23"/>
-        <v>5.330504008210591E-2</v>
+        <f>M22/H22</f>
+        <v>0.11719745222929936</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" si="5"/>
-        <v>0.87721731513249146</v>
+        <f>H22/D22</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="6"/>
-        <v>1.8311723031680256</v>
+        <f>D22/E22</f>
+        <v>2.1739130434782608</v>
       </c>
       <c r="X22" s="23">
-        <f t="shared" si="19"/>
-        <v>8.5625807601479309E-2</v>
-      </c>
-      <c r="Y22" s="24"/>
+        <f>M22/E22</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y22" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="Z22" s="21">
-        <v>3655.5</v>
+        <v>15480</v>
       </c>
       <c r="AA22" s="21">
-        <v>1730.8</v>
+        <v>7304</v>
       </c>
       <c r="AB22" s="21">
-        <v>2901.8</v>
+        <v>1498</v>
       </c>
       <c r="AC22" s="21">
-        <v>2195</v>
+        <v>19880</v>
       </c>
       <c r="AD22" s="21">
-        <f t="shared" si="7"/>
-        <v>6093.1</v>
+        <f>Z22+AA22+AB22-AC22</f>
+        <v>4402</v>
       </c>
       <c r="AE22" s="11">
-        <f t="shared" si="8"/>
-        <v>0.30419405841724223</v>
+        <f>Z22/H22</f>
+        <v>0.19719745222929935</v>
       </c>
       <c r="AF22" s="11">
-        <f t="shared" si="9"/>
-        <v>0.14402929183656485</v>
+        <f>AA22/H22</f>
+        <v>9.3044585987261147E-2</v>
       </c>
       <c r="AG22" s="11">
-        <f t="shared" si="10"/>
-        <v>0.24147457768161773</v>
+        <f>AB22/H22</f>
+        <v>1.90828025477707E-2</v>
       </c>
       <c r="AH22" s="11">
-        <f t="shared" si="11"/>
-        <v>0.18265790130648249</v>
+        <f>AC22/H22</f>
+        <v>0.25324840764331208</v>
       </c>
       <c r="AI22" s="11">
-        <f t="shared" si="12"/>
-        <v>0.50704002662894232</v>
+        <f>AD22/H22</f>
+        <v>5.6076433121019106E-2</v>
       </c>
       <c r="AJ22" s="11">
-        <f t="shared" si="16"/>
-        <v>7.6151712592932991E-2</v>
+        <f>J22/AD22</f>
+        <v>2.3171285779191275</v>
       </c>
       <c r="AK22" s="11">
-        <f t="shared" si="13"/>
-        <v>0.10512984632890757</v>
+        <f>M22/AD22</f>
+        <v>2.089959109495684</v>
       </c>
       <c r="AL22" s="27"/>
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
-      <c r="AO22" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO22" s="21">
+        <f>AM22-AN22</f>
+        <v>0</v>
       </c>
       <c r="AP22" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="6"/>
-    </row>
-    <row r="23" spans="1:45">
+        <f>AM22/AN22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ22" s="11" t="e">
+        <f>(AM22-AA22)/AN22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT22" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
       <c r="A23" s="6" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>181</v>
+        <v>271</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D23" s="21">
-        <v>26800</v>
+        <v>31704</v>
       </c>
       <c r="E23" s="21">
-        <v>20900</v>
+        <v>19005</v>
       </c>
       <c r="F23" s="21">
-        <v>4790</v>
+        <f>5379+8+1711+798</f>
+        <v>7896</v>
       </c>
       <c r="G23" s="21">
-        <v>275</v>
+        <v>418</v>
       </c>
       <c r="H23" s="21">
-        <v>1000</v>
+        <v>18715</v>
       </c>
       <c r="I23" s="21">
-        <v>3569</v>
+        <v>3669</v>
       </c>
       <c r="J23" s="21">
-        <v>3550</v>
+        <v>3148</v>
       </c>
       <c r="K23" s="21">
-        <v>3900</v>
+        <v>3142</v>
       </c>
       <c r="L23" s="21">
-        <v>3500</v>
+        <v>2607</v>
       </c>
       <c r="M23" s="21">
-        <f t="shared" si="0"/>
-        <v>3650</v>
-      </c>
-      <c r="N23" s="2"/>
+        <f>(J23+K23+L23)/3</f>
+        <v>2965.6666666666665</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="O23" s="21">
-        <v>39000</v>
+        <v>60984</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="1"/>
-        <v>10.684931506849315</v>
+        <f>O23/M23</f>
+        <v>20.563335955940207</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="2"/>
-        <v>0.22014925373134328</v>
+        <f>(D23-E23)/D23</f>
+        <v>0.40054882664647995</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="3"/>
-        <v>0.17873134328358209</v>
+        <f>F23/D23</f>
+        <v>0.24905374716124148</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="4"/>
-        <v>0.81186440677966099</v>
+        <f>F23/(D23-E23)</f>
+        <v>0.62178124261752898</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="22"/>
-        <v>3.569</v>
+        <f>I23/H23</f>
+        <v>0.19604595244456319</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="23"/>
-        <v>3.65</v>
+        <f>M23/H23</f>
+        <v>0.15846468964288893</v>
       </c>
       <c r="V23" s="23">
-        <f t="shared" si="5"/>
-        <v>3.7313432835820892E-2</v>
+        <f>H23/D23</f>
+        <v>0.59030406257885437</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="6"/>
-        <v>1.2822966507177034</v>
+        <f>D23/E23</f>
+        <v>1.6681925808997633</v>
       </c>
       <c r="X23" s="23">
-        <f t="shared" si="19"/>
-        <v>0.17464114832535885</v>
-      </c>
-      <c r="Y23" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f>M23/E23</f>
+        <v>0.15604665438919582</v>
+      </c>
+      <c r="Y23" s="24"/>
       <c r="Z23" s="21">
-        <v>3482</v>
+        <v>11151</v>
       </c>
       <c r="AA23" s="21">
-        <v>59</v>
+        <v>2974</v>
       </c>
       <c r="AB23" s="21">
-        <v>364</v>
+        <v>3716</v>
       </c>
       <c r="AC23" s="21">
-        <v>173</v>
+        <v>1423</v>
       </c>
       <c r="AD23" s="21">
-        <f t="shared" si="7"/>
-        <v>3732</v>
+        <f>Z23+AA23+AB23-AC23</f>
+        <v>16418</v>
       </c>
       <c r="AE23" s="11">
-        <f t="shared" si="8"/>
-        <v>3.4820000000000002</v>
+        <f>Z23/H23</f>
+        <v>0.59583222014426929</v>
       </c>
       <c r="AF23" s="11">
-        <f t="shared" si="9"/>
-        <v>5.8999999999999997E-2</v>
+        <f>AA23/H23</f>
+        <v>0.15890996526850121</v>
       </c>
       <c r="AG23" s="11">
-        <f t="shared" si="10"/>
-        <v>0.36399999999999999</v>
+        <f>AB23/H23</f>
+        <v>0.1985573069730163</v>
       </c>
       <c r="AH23" s="11">
-        <f t="shared" si="11"/>
-        <v>0.17299999999999999</v>
+        <f>AC23/H23</f>
+        <v>7.603526582954849E-2</v>
       </c>
       <c r="AI23" s="11">
-        <f t="shared" si="12"/>
-        <v>3.7320000000000002</v>
+        <f>AD23/H23</f>
+        <v>0.87726422655623826</v>
       </c>
       <c r="AJ23" s="11">
-        <f t="shared" si="16"/>
-        <v>0.9512325830653805</v>
+        <f>J23/AD23</f>
+        <v>0.19174077232306005</v>
       </c>
       <c r="AK23" s="11">
-        <f t="shared" si="13"/>
-        <v>0.97802786709539125</v>
+        <f>M23/AD23</f>
+        <v>0.18063507532383155</v>
       </c>
       <c r="AL23" s="27"/>
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
-      <c r="AO23" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP23" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ23" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR23" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="30">
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11" t="e">
+        <f>(AM23-AA23)/AN23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="6"/>
+    </row>
+    <row r="24" spans="1:47" hidden="1">
       <c r="A24" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>256</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="D24" s="21">
-        <v>208200</v>
+        <v>13699</v>
       </c>
       <c r="E24" s="21">
-        <v>60700</v>
+        <v>7481</v>
       </c>
       <c r="F24" s="21">
-        <v>114400</v>
+        <f>114+99+48</f>
+        <v>261</v>
       </c>
       <c r="G24" s="21">
-        <v>4800</v>
+        <v>-49.6</v>
       </c>
       <c r="H24" s="21">
-        <v>31600</v>
+        <v>12017</v>
       </c>
       <c r="I24" s="21">
-        <v>7500</v>
+        <v>655.9</v>
       </c>
       <c r="J24" s="21">
-        <v>6500</v>
+        <v>464</v>
       </c>
       <c r="K24" s="21">
-        <v>7800</v>
+        <v>843.7</v>
       </c>
       <c r="L24" s="21">
-        <v>10100</v>
+        <v>614</v>
       </c>
       <c r="M24" s="21">
-        <f>(J24+K24+L24)/3</f>
-        <v>8133.333333333333</v>
+        <f t="shared" si="0"/>
+        <v>640.56666666666672</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="21">
-        <v>47000</v>
+        <v>13336</v>
       </c>
       <c r="P24" s="8">
-        <f>O24/M24</f>
-        <v>5.778688524590164</v>
+        <f t="shared" si="1"/>
+        <v>20.819066451579328</v>
       </c>
       <c r="Q24" s="23">
         <f t="shared" si="2"/>
-        <v>0.70845341018251684</v>
+        <v>0.45390174465289435</v>
       </c>
       <c r="R24" s="23">
         <f t="shared" si="3"/>
-        <v>0.54947166186359275</v>
+        <v>1.9052485582889262E-2</v>
       </c>
       <c r="S24" s="23">
         <f t="shared" si="4"/>
-        <v>0.77559322033898304</v>
+        <v>4.1974911547121262E-2</v>
       </c>
       <c r="T24" s="23">
-        <f>I24/H24</f>
-        <v>0.23734177215189872</v>
+        <f t="shared" si="36"/>
+        <v>5.4581010235499709E-2</v>
       </c>
       <c r="U24" s="23">
-        <f>M24/H24</f>
-        <v>0.2573839662447257</v>
+        <f t="shared" si="37"/>
+        <v>5.330504008210591E-2</v>
       </c>
       <c r="V24" s="23">
         <f t="shared" si="5"/>
-        <v>0.15177713736791545</v>
+        <v>0.87721731513249146</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="6"/>
-        <v>3.4299835255354201</v>
+        <v>1.8311723031680256</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="19"/>
-        <v>0.13399231191652938</v>
-      </c>
-      <c r="Y24" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>8.5625807601479309E-2</v>
+      </c>
+      <c r="Y24" s="24"/>
       <c r="Z24" s="21">
-        <v>134490</v>
+        <v>3655.5</v>
       </c>
       <c r="AA24" s="21">
-        <v>1183</v>
+        <v>1730.8</v>
       </c>
       <c r="AB24" s="21">
-        <v>3551</v>
+        <v>2901.8</v>
       </c>
       <c r="AC24" s="21">
-        <v>4834</v>
+        <v>2195</v>
       </c>
       <c r="AD24" s="21">
         <f t="shared" si="7"/>
-        <v>134390</v>
+        <v>6093.1</v>
       </c>
       <c r="AE24" s="11">
         <f t="shared" si="8"/>
-        <v>4.2560126582278484</v>
+        <v>0.30419405841724223</v>
       </c>
       <c r="AF24" s="11">
         <f t="shared" si="9"/>
-        <v>3.7436708860759491E-2</v>
+        <v>0.14402929183656485</v>
       </c>
       <c r="AG24" s="11">
         <f t="shared" si="10"/>
-        <v>0.11237341772151899</v>
+        <v>0.24147457768161773</v>
       </c>
       <c r="AH24" s="11">
         <f t="shared" si="11"/>
-        <v>0.1529746835443038</v>
+        <v>0.18265790130648249</v>
       </c>
       <c r="AI24" s="11">
         <f t="shared" si="12"/>
-        <v>4.2528481012658226</v>
+        <v>0.50704002662894232</v>
       </c>
       <c r="AJ24" s="11">
-        <f t="shared" si="16"/>
-        <v>4.8366693950442741E-2</v>
+        <f t="shared" si="30"/>
+        <v>7.6151712592932991E-2</v>
       </c>
       <c r="AK24" s="11">
         <f t="shared" si="13"/>
-        <v>6.0520376020041171E-2</v>
+        <v>0.10512984632890757</v>
       </c>
       <c r="AL24" s="27"/>
       <c r="AM24" s="21"/>
       <c r="AN24" s="21"/>
-      <c r="AO24" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO24" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP24" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ24" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR24" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="6"/>
+    </row>
+    <row r="25" spans="1:47">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D25" s="21">
-        <v>6493000</v>
+        <v>26800</v>
       </c>
       <c r="E25" s="21">
-        <v>587900</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+        <v>20900</v>
+      </c>
+      <c r="F25" s="21">
+        <v>4790</v>
+      </c>
+      <c r="G25" s="21">
+        <v>275</v>
+      </c>
       <c r="H25" s="21">
-        <v>890800</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="21">
-        <v>134700</v>
+        <v>3569</v>
       </c>
       <c r="J25" s="21">
-        <v>99900</v>
+        <v>3550</v>
       </c>
       <c r="K25" s="21">
-        <v>72300</v>
+        <v>3900</v>
       </c>
       <c r="L25" s="21">
-        <v>65100</v>
+        <v>3500</v>
       </c>
       <c r="M25" s="21">
-        <f>(J25+K25+L25)/3</f>
-        <v>79100</v>
+        <f t="shared" si="0"/>
+        <v>3650</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="21">
-        <v>1180000</v>
+        <v>39000</v>
       </c>
       <c r="P25" s="8">
-        <f>O25/M25</f>
-        <v>14.917825537294563</v>
+        <f t="shared" si="1"/>
+        <v>10.684931506849315</v>
       </c>
       <c r="Q25" s="23">
         <f t="shared" si="2"/>
-        <v>0.90945633759433231</v>
+        <v>0.22014925373134328</v>
       </c>
       <c r="R25" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17873134328358209</v>
       </c>
       <c r="S25" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.81186440677966099</v>
       </c>
       <c r="T25" s="23">
-        <f>I25/H25</f>
-        <v>0.15121239335428829</v>
+        <f t="shared" si="36"/>
+        <v>3.569</v>
       </c>
       <c r="U25" s="23">
-        <f>M25/H25</f>
-        <v>8.8796587337224966E-2</v>
+        <f t="shared" si="37"/>
+        <v>3.65</v>
       </c>
       <c r="V25" s="23">
         <f t="shared" si="5"/>
-        <v>0.1371939011242877</v>
+        <v>3.7313432835820892E-2</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="6"/>
-        <v>11.044395305324034</v>
+        <v>1.2822966507177034</v>
       </c>
       <c r="X25" s="23">
-        <f t="shared" si="19"/>
-        <v>0.13454669161422012</v>
+        <f t="shared" si="33"/>
+        <v>0.17464114832535885</v>
       </c>
       <c r="Y25" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
+      <c r="Z25" s="21">
+        <v>3482</v>
+      </c>
+      <c r="AA25" s="21">
+        <v>59</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>364</v>
+      </c>
+      <c r="AC25" s="21">
+        <v>173</v>
+      </c>
       <c r="AD25" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3732</v>
       </c>
       <c r="AE25" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="AF25" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AG25" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="AH25" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="AI25" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="11" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK25" s="11" t="e">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="AJ25" s="11">
+        <f t="shared" si="30"/>
+        <v>0.9512325830653805</v>
+      </c>
+      <c r="AK25" s="11">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.97802786709539125</v>
       </c>
       <c r="AL25" s="27"/>
       <c r="AM25" s="21"/>
       <c r="AN25" s="21"/>
-      <c r="AO25" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO25" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP25" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" ht="30" hidden="1">
       <c r="A26" s="6" t="s">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="21">
-        <v>844083</v>
+        <v>208200</v>
       </c>
       <c r="E26" s="21">
-        <v>169719</v>
+        <v>60700</v>
       </c>
       <c r="F26" s="21">
-        <v>138024</v>
+        <v>114400</v>
       </c>
       <c r="G26" s="21">
-        <v>3537</v>
+        <v>4800</v>
       </c>
       <c r="H26" s="21">
-        <v>689944</v>
+        <v>31600</v>
       </c>
       <c r="I26" s="21">
-        <v>19247</v>
+        <v>7500</v>
       </c>
       <c r="J26" s="21">
-        <v>14203</v>
+        <v>6500</v>
       </c>
       <c r="K26" s="21">
-        <v>12702</v>
+        <v>7800</v>
       </c>
       <c r="L26" s="21">
-        <v>11786</v>
+        <v>10100</v>
       </c>
       <c r="M26" s="21">
         <f>(J26+K26+L26)/3</f>
-        <v>12897</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>248</v>
-      </c>
+        <v>8133.333333333333</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="21">
-        <v>169200</v>
+        <v>47000</v>
       </c>
       <c r="P26" s="8">
         <f>O26/M26</f>
-        <v>13.119330076762038</v>
+        <v>5.778688524590164</v>
       </c>
       <c r="Q26" s="23">
         <f t="shared" si="2"/>
-        <v>0.79893091082275081</v>
+        <v>0.70845341018251684</v>
       </c>
       <c r="R26" s="23">
         <f t="shared" si="3"/>
-        <v>0.16351946431808245</v>
+        <v>0.54947166186359275</v>
       </c>
       <c r="S26" s="23">
         <f t="shared" si="4"/>
-        <v>0.20467284730501628</v>
+        <v>0.77559322033898304</v>
       </c>
       <c r="T26" s="23">
         <f>I26/H26</f>
-        <v>2.7896466959637305E-2</v>
+        <v>0.23734177215189872</v>
       </c>
       <c r="U26" s="23">
         <f>M26/H26</f>
-        <v>1.8692821446378256E-2</v>
+        <v>0.2573839662447257</v>
       </c>
       <c r="V26" s="23">
         <f t="shared" si="5"/>
-        <v>0.81738881128988505</v>
+        <v>0.15177713736791545</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="6"/>
-        <v>4.9734148798896998</v>
+        <v>3.4299835255354201</v>
       </c>
       <c r="X26" s="23">
-        <f t="shared" si="19"/>
-        <v>7.599031340038534E-2</v>
-      </c>
-      <c r="Y26" s="24"/>
+        <f t="shared" si="33"/>
+        <v>0.13399231191652938</v>
+      </c>
+      <c r="Y26" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="Z26" s="21">
-        <v>52368</v>
+        <v>134490</v>
       </c>
       <c r="AA26" s="21">
-        <v>242463</v>
+        <v>1183</v>
       </c>
       <c r="AB26" s="21">
-        <v>157804</v>
+        <v>3551</v>
       </c>
       <c r="AC26" s="21">
-        <v>288407</v>
+        <v>4834</v>
       </c>
       <c r="AD26" s="21">
         <f t="shared" si="7"/>
-        <v>164228</v>
+        <v>134390</v>
       </c>
       <c r="AE26" s="11">
         <f t="shared" si="8"/>
-        <v>7.5901812320999962E-2</v>
+        <v>4.2560126582278484</v>
       </c>
       <c r="AF26" s="11">
         <f t="shared" si="9"/>
-        <v>0.35142417355611472</v>
+        <v>3.7436708860759491E-2</v>
       </c>
       <c r="AG26" s="11">
         <f t="shared" si="10"/>
-        <v>0.22872001205894971</v>
+        <v>0.11237341772151899</v>
       </c>
       <c r="AH26" s="11">
         <f t="shared" si="11"/>
-        <v>0.41801508528228376</v>
+        <v>0.1529746835443038</v>
       </c>
       <c r="AI26" s="11">
         <f t="shared" si="12"/>
-        <v>0.2380309126537806</v>
+        <v>4.2528481012658226</v>
       </c>
       <c r="AJ26" s="11">
-        <f t="shared" si="16"/>
-        <v>8.6483425481647461E-2</v>
+        <f t="shared" si="30"/>
+        <v>4.8366693950442741E-2</v>
       </c>
       <c r="AK26" s="11">
         <f t="shared" si="13"/>
-        <v>7.8531066565993624E-2</v>
+        <v>6.0520376020041171E-2</v>
       </c>
       <c r="AL26" s="27"/>
       <c r="AM26" s="21"/>
       <c r="AN26" s="21"/>
-      <c r="AO26" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO26" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP26" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ26" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT26" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" hidden="1">
       <c r="A27" s="6" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>133</v>
+        <v>194</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="D27" s="21">
-        <v>6406900</v>
+        <v>6493000</v>
       </c>
       <c r="E27" s="21">
-        <v>413900</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
+        <v>587900</v>
+      </c>
+      <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21">
-        <v>157000</v>
+        <v>890800</v>
       </c>
       <c r="I27" s="21">
-        <v>63300</v>
+        <v>134700</v>
       </c>
       <c r="J27" s="21">
-        <v>54300</v>
+        <v>99900</v>
       </c>
       <c r="K27" s="21">
-        <v>50600</v>
+        <v>72300</v>
       </c>
       <c r="L27" s="21">
-        <v>47500</v>
+        <v>65100</v>
       </c>
       <c r="M27" s="21">
         <f>(J27+K27+L27)/3</f>
-        <v>50800</v>
+        <v>79100</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="21">
-        <v>350000</v>
+        <v>1180000</v>
       </c>
       <c r="P27" s="8">
         <f>O27/M27</f>
-        <v>6.8897637795275593</v>
+        <v>14.917825537294563</v>
       </c>
       <c r="Q27" s="23">
-        <f>(D27-E27)/D27</f>
-        <v>0.93539777427461024</v>
+        <f t="shared" si="2"/>
+        <v>0.90945633759433231</v>
       </c>
       <c r="R27" s="23">
-        <f>F27/D27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S27" s="23">
-        <f>F27/(D27-E27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T27" s="23">
         <f>I27/H27</f>
-        <v>0.4031847133757962</v>
+        <v>0.15121239335428829</v>
       </c>
       <c r="U27" s="23">
         <f>M27/H27</f>
-        <v>0.3235668789808917</v>
+        <v>8.8796587337224966E-2</v>
       </c>
       <c r="V27" s="23">
-        <f>H27/D27</f>
-        <v>2.45048307293699E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.1371939011242877</v>
       </c>
       <c r="W27" s="8">
-        <f>D27/E27</f>
-        <v>15.479342836433922</v>
+        <f t="shared" si="6"/>
+        <v>11.044395305324034</v>
       </c>
       <c r="X27" s="23">
-        <f>M27/E27</f>
-        <v>0.12273496013529839</v>
+        <f t="shared" si="33"/>
+        <v>0.13454669161422012</v>
       </c>
       <c r="Y27" s="24" t="s">
         <v>237</v>
@@ -5368,1517 +5564,1667 @@
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
       <c r="AD27" s="21">
-        <f>Z27+AA27+AB27-AC27</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE27" s="11">
-        <f>Z27/H27</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF27" s="11">
-        <f>AA27/H27</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG27" s="11">
-        <f>AB27/H27</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH27" s="11">
-        <f>AC27/H27</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI27" s="11">
-        <f>AD27/H27</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="11" t="e">
-        <f>J27/AD27</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK27" s="11" t="e">
-        <f>M27/AD27</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="27"/>
       <c r="AM27" s="21"/>
       <c r="AN27" s="21"/>
-      <c r="AO27" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO27" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP27" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ27" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ27" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR27" s="11"/>
+    </row>
+    <row r="28" spans="1:47" hidden="1">
       <c r="A28" s="6" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>152</v>
       </c>
       <c r="D28" s="21">
-        <v>110500</v>
+        <v>844083</v>
       </c>
       <c r="E28" s="21">
-        <v>49200</v>
+        <v>169719</v>
       </c>
       <c r="F28" s="21">
-        <v>1500</v>
+        <v>138024</v>
       </c>
       <c r="G28" s="21">
-        <v>139</v>
+        <v>3537</v>
       </c>
       <c r="H28" s="21">
-        <v>100400</v>
+        <v>689944</v>
       </c>
       <c r="I28" s="21">
-        <v>5800</v>
+        <v>19247</v>
       </c>
       <c r="J28" s="21">
-        <v>5000</v>
+        <v>14203</v>
       </c>
       <c r="K28" s="21">
-        <v>10500</v>
+        <v>12702</v>
       </c>
       <c r="L28" s="21">
-        <v>8000</v>
+        <v>11786</v>
       </c>
       <c r="M28" s="21">
-        <f t="shared" si="0"/>
-        <v>7833.333333333333</v>
-      </c>
-      <c r="N28" s="2"/>
+        <f>(J28+K28+L28)/3</f>
+        <v>12897</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="O28" s="21">
-        <v>105000</v>
+        <v>169200</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" ref="P28:P41" si="28">O28/M28</f>
-        <v>13.404255319148938</v>
+        <f>O28/M28</f>
+        <v>13.119330076762038</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="2"/>
-        <v>0.55475113122171948</v>
+        <v>0.79893091082275081</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" ref="R28:R40" si="29">F28/D28</f>
-        <v>1.3574660633484163E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.16351946431808245</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" ref="S28:S40" si="30">F28/(D28-E28)</f>
-        <v>2.4469820554649267E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.20467284730501628</v>
       </c>
       <c r="T28" s="23">
-        <f t="shared" si="22"/>
-        <v>5.7768924302788842E-2</v>
+        <f>I28/H28</f>
+        <v>2.7896466959637305E-2</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="23"/>
-        <v>7.802124833997344E-2</v>
+        <f>M28/H28</f>
+        <v>1.8692821446378256E-2</v>
       </c>
       <c r="V28" s="23">
         <f t="shared" si="5"/>
-        <v>0.90859728506787329</v>
+        <v>0.81738881128988505</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="6"/>
-        <v>2.2459349593495936</v>
+        <v>4.9734148798896998</v>
       </c>
       <c r="X28" s="23">
-        <f t="shared" si="19"/>
-        <v>0.15921409214092141</v>
-      </c>
-      <c r="Y28" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>7.599031340038534E-2</v>
+      </c>
+      <c r="Y28" s="24"/>
       <c r="Z28" s="21">
-        <v>27718</v>
+        <v>52368</v>
       </c>
       <c r="AA28" s="21">
-        <v>5574</v>
+        <v>242463</v>
       </c>
       <c r="AB28" s="21">
-        <v>873</v>
+        <v>157804</v>
       </c>
       <c r="AC28" s="21">
-        <v>27961</v>
+        <v>288407</v>
       </c>
       <c r="AD28" s="21">
         <f t="shared" si="7"/>
-        <v>6204</v>
+        <v>164228</v>
       </c>
       <c r="AE28" s="11">
         <f t="shared" si="8"/>
-        <v>0.27607569721115538</v>
+        <v>7.5901812320999962E-2</v>
       </c>
       <c r="AF28" s="11">
         <f t="shared" si="9"/>
-        <v>5.5517928286852591E-2</v>
+        <v>0.35142417355611472</v>
       </c>
       <c r="AG28" s="11">
         <f t="shared" si="10"/>
-        <v>8.6952191235059768E-3</v>
+        <v>0.22872001205894971</v>
       </c>
       <c r="AH28" s="11">
         <f t="shared" si="11"/>
-        <v>0.278496015936255</v>
+        <v>0.41801508528228376</v>
       </c>
       <c r="AI28" s="11">
         <f t="shared" si="12"/>
-        <v>6.1792828685258962E-2</v>
+        <v>0.2380309126537806</v>
       </c>
       <c r="AJ28" s="11">
-        <f t="shared" si="16"/>
-        <v>0.80593165699548674</v>
+        <f t="shared" si="30"/>
+        <v>8.6483425481647461E-2</v>
       </c>
       <c r="AK28" s="11">
         <f t="shared" si="13"/>
-        <v>1.2626262626262625</v>
+        <v>7.8531066565993624E-2</v>
       </c>
       <c r="AL28" s="27"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="21"/>
-      <c r="AO28" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO28" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP28" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ28" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ28" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR28" s="11"/>
+    </row>
+    <row r="29" spans="1:47" hidden="1">
       <c r="A29" s="6" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D29" s="21">
-        <v>2404910</v>
+        <v>6406900</v>
       </c>
       <c r="E29" s="21">
-        <v>1381610</v>
+        <v>413900</v>
       </c>
       <c r="F29" s="21">
-        <f>93881+81536+195192+94666</f>
-        <v>465275</v>
-      </c>
-      <c r="G29" s="21">
-        <v>21648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G29" s="21"/>
       <c r="H29" s="21">
-        <v>2015890</v>
+        <v>157000</v>
       </c>
       <c r="I29" s="21">
-        <v>57769</v>
+        <v>63300</v>
       </c>
       <c r="J29" s="21">
-        <v>36788</v>
+        <v>54300</v>
       </c>
       <c r="K29" s="21">
-        <v>29414</v>
+        <v>50600</v>
       </c>
       <c r="L29" s="21">
-        <v>42364</v>
+        <v>47500</v>
       </c>
       <c r="M29" s="21">
-        <f t="shared" si="0"/>
-        <v>36188.666666666664</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>248</v>
-      </c>
+        <f>(J29+K29+L29)/3</f>
+        <v>50800</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="21">
-        <v>1370000</v>
+        <v>350000</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="28"/>
-        <v>37.857156015695523</v>
+        <f>O29/M29</f>
+        <v>6.8897637795275593</v>
       </c>
       <c r="Q29" s="23">
-        <f t="shared" si="2"/>
-        <v>0.42550448873346614</v>
+        <f>(D29-E29)/D29</f>
+        <v>0.93539777427461024</v>
       </c>
       <c r="R29" s="23">
-        <f t="shared" si="29"/>
-        <v>0.1934687784574059</v>
+        <f>F29/D29</f>
+        <v>0</v>
       </c>
       <c r="S29" s="23">
-        <f t="shared" si="30"/>
-        <v>0.45468093423238543</v>
+        <f>F29/(D29-E29)</f>
+        <v>0</v>
       </c>
       <c r="T29" s="23">
-        <f t="shared" si="22"/>
-        <v>2.8656821552763296E-2</v>
+        <f>I29/H29</f>
+        <v>0.4031847133757962</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="23"/>
-        <v>1.7951707021051082E-2</v>
+        <f>M29/H29</f>
+        <v>0.3235668789808917</v>
       </c>
       <c r="V29" s="23">
-        <f t="shared" si="5"/>
-        <v>0.83823926882918698</v>
+        <f>H29/D29</f>
+        <v>2.45048307293699E-2</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" si="6"/>
-        <v>1.740657638552124</v>
+        <f>D29/E29</f>
+        <v>15.479342836433922</v>
       </c>
       <c r="X29" s="23">
-        <f t="shared" si="19"/>
-        <v>2.6193112865907649E-2</v>
-      </c>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="21">
-        <v>694359</v>
-      </c>
-      <c r="AA29" s="21">
-        <v>144669</v>
-      </c>
-      <c r="AB29" s="21">
-        <v>53143</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>224514</v>
-      </c>
+        <f>M29/E29</f>
+        <v>0.12273496013529839</v>
+      </c>
+      <c r="Y29" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
       <c r="AD29" s="21">
-        <f t="shared" si="7"/>
-        <v>667657</v>
+        <f>Z29+AA29+AB29-AC29</f>
+        <v>0</v>
       </c>
       <c r="AE29" s="11">
-        <f t="shared" si="8"/>
-        <v>0.34444290115036041</v>
+        <f>Z29/H29</f>
+        <v>0</v>
       </c>
       <c r="AF29" s="11">
-        <f t="shared" si="9"/>
-        <v>7.1764332379246884E-2</v>
+        <f>AA29/H29</f>
+        <v>0</v>
       </c>
       <c r="AG29" s="11">
-        <f t="shared" si="10"/>
-        <v>2.6362053485061189E-2</v>
+        <f>AB29/H29</f>
+        <v>0</v>
       </c>
       <c r="AH29" s="11">
-        <f t="shared" si="11"/>
-        <v>0.1113721482819003</v>
+        <f>AC29/H29</f>
+        <v>0</v>
       </c>
       <c r="AI29" s="11">
-        <f t="shared" si="12"/>
-        <v>0.33119713873276818</v>
-      </c>
-      <c r="AJ29" s="11">
-        <f t="shared" si="16"/>
-        <v>5.5100148729062978E-2</v>
-      </c>
-      <c r="AK29" s="11">
-        <f t="shared" si="13"/>
-        <v>5.420248221267307E-2</v>
+        <f>AD29/H29</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="11" t="e">
+        <f>J29/AD29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK29" s="11" t="e">
+        <f>M29/AD29</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AL29" s="27"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
-      <c r="AO29" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO29" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP29" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ29" s="12"/>
-    </row>
-    <row r="30" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ29" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
       <c r="A30" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="D30" s="21">
-        <v>35300</v>
+        <v>110500</v>
       </c>
       <c r="E30" s="21">
-        <v>14000</v>
+        <v>49200</v>
       </c>
       <c r="F30" s="21">
-        <v>10800</v>
+        <v>1500</v>
       </c>
       <c r="G30" s="21">
-        <v>400</v>
+        <v>139</v>
       </c>
       <c r="H30" s="21">
-        <v>20100</v>
+        <v>100400</v>
       </c>
       <c r="I30" s="21">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="J30" s="21">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="K30" s="21">
-        <v>1800</v>
+        <v>10500</v>
       </c>
       <c r="L30" s="21">
-        <v>1900</v>
+        <v>8000</v>
       </c>
       <c r="M30" s="21">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>7833.333333333333</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="21">
-        <v>55000</v>
+        <v>105000</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="28"/>
-        <v>26.19047619047619</v>
+        <f t="shared" ref="P30:P43" si="42">O30/M30</f>
+        <v>13.404255319148938</v>
       </c>
       <c r="Q30" s="23">
         <f t="shared" si="2"/>
-        <v>0.60339943342776203</v>
+        <v>0.55475113122171948</v>
       </c>
       <c r="R30" s="23">
-        <f t="shared" si="29"/>
-        <v>0.30594900849858359</v>
+        <f t="shared" ref="R30:R42" si="43">F30/D30</f>
+        <v>1.3574660633484163E-2</v>
       </c>
       <c r="S30" s="23">
-        <f t="shared" si="30"/>
-        <v>0.50704225352112675</v>
+        <f t="shared" ref="S30:S42" si="44">F30/(D30-E30)</f>
+        <v>2.4469820554649267E-2</v>
       </c>
       <c r="T30" s="23">
-        <f t="shared" si="22"/>
-        <v>0.13930348258706468</v>
+        <f t="shared" si="36"/>
+        <v>5.7768924302788842E-2</v>
       </c>
       <c r="U30" s="23">
-        <f t="shared" si="23"/>
-        <v>0.1044776119402985</v>
+        <f t="shared" si="37"/>
+        <v>7.802124833997344E-2</v>
       </c>
       <c r="V30" s="23">
         <f t="shared" si="5"/>
-        <v>0.56940509915014159</v>
+        <v>0.90859728506787329</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="6"/>
-        <v>2.5214285714285714</v>
+        <v>2.2459349593495936</v>
       </c>
       <c r="X30" s="23">
-        <f t="shared" si="19"/>
-        <v>0.15</v>
+        <f t="shared" si="33"/>
+        <v>0.15921409214092141</v>
       </c>
       <c r="Y30" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z30" s="21">
-        <v>13458</v>
+        <v>27718</v>
       </c>
       <c r="AA30" s="21">
-        <v>2044</v>
+        <v>5574</v>
       </c>
       <c r="AB30" s="21">
-        <v>5555</v>
+        <v>873</v>
       </c>
       <c r="AC30" s="21">
-        <v>4168</v>
+        <v>27961</v>
       </c>
       <c r="AD30" s="21">
         <f t="shared" si="7"/>
-        <v>16889</v>
+        <v>6204</v>
       </c>
       <c r="AE30" s="11">
         <f t="shared" si="8"/>
-        <v>0.66955223880597015</v>
+        <v>0.27607569721115538</v>
       </c>
       <c r="AF30" s="11">
         <f t="shared" si="9"/>
-        <v>0.10169154228855722</v>
+        <v>5.5517928286852591E-2</v>
       </c>
       <c r="AG30" s="11">
         <f t="shared" si="10"/>
-        <v>0.27636815920398011</v>
+        <v>8.6952191235059768E-3</v>
       </c>
       <c r="AH30" s="11">
         <f t="shared" si="11"/>
-        <v>0.207363184079602</v>
+        <v>0.278496015936255</v>
       </c>
       <c r="AI30" s="11">
         <f t="shared" si="12"/>
-        <v>0.84024875621890549</v>
+        <v>6.1792828685258962E-2</v>
       </c>
       <c r="AJ30" s="11">
-        <f t="shared" si="16"/>
-        <v>0.15394635561608147</v>
+        <f t="shared" si="30"/>
+        <v>0.80593165699548674</v>
       </c>
       <c r="AK30" s="11">
         <f t="shared" si="13"/>
-        <v>0.1243412872283735</v>
+        <v>1.2626262626262625</v>
       </c>
       <c r="AL30" s="27"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="21"/>
-      <c r="AO30" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO30" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP30" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ30" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ30" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" hidden="1">
       <c r="A31" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>153</v>
+        <v>250</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="D31" s="21">
-        <v>282046</v>
+        <v>2404910</v>
       </c>
       <c r="E31" s="21">
-        <v>71725</v>
+        <v>1381610</v>
       </c>
       <c r="F31" s="21">
-        <f>12038+14549+152801</f>
-        <v>179388</v>
+        <f>93881+81536+195192+94666</f>
+        <v>465275</v>
       </c>
       <c r="G31" s="21">
-        <v>4325</v>
+        <v>21648</v>
       </c>
       <c r="H31" s="21">
-        <v>30008</v>
+        <v>2015890</v>
       </c>
       <c r="I31" s="21">
-        <v>6180</v>
+        <v>57769</v>
       </c>
       <c r="J31" s="21">
-        <v>8108</v>
+        <v>36788</v>
       </c>
       <c r="K31" s="21">
-        <v>7108</v>
+        <v>29414</v>
       </c>
       <c r="L31" s="21">
-        <v>5156</v>
+        <v>42364</v>
       </c>
       <c r="M31" s="21">
         <f t="shared" si="0"/>
-        <v>6790.666666666667</v>
+        <v>36188.666666666664</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>248</v>
       </c>
       <c r="O31" s="21">
-        <v>103354</v>
+        <v>1370000</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="28"/>
-        <v>15.22000785391714</v>
+        <f t="shared" si="42"/>
+        <v>37.857156015695523</v>
       </c>
       <c r="Q31" s="23">
         <f t="shared" si="2"/>
-        <v>0.7456975103351936</v>
+        <v>0.42550448873346614</v>
       </c>
       <c r="R31" s="23">
-        <f t="shared" si="29"/>
-        <v>0.63602391099324229</v>
+        <f t="shared" si="43"/>
+        <v>0.1934687784574059</v>
       </c>
       <c r="S31" s="23">
-        <f t="shared" si="30"/>
-        <v>0.85292481492575634</v>
+        <f t="shared" si="44"/>
+        <v>0.45468093423238543</v>
       </c>
       <c r="T31" s="23">
-        <f t="shared" si="22"/>
-        <v>0.20594508131165024</v>
+        <f t="shared" si="36"/>
+        <v>2.8656821552763296E-2</v>
       </c>
       <c r="U31" s="23">
-        <f t="shared" si="23"/>
-        <v>0.22629521016617793</v>
+        <f t="shared" si="37"/>
+        <v>1.7951707021051082E-2</v>
       </c>
       <c r="V31" s="23">
         <f t="shared" si="5"/>
-        <v>0.10639399246931351</v>
+        <v>0.83823926882918698</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="6"/>
-        <v>3.9323248518647613</v>
+        <v>1.740657638552124</v>
       </c>
       <c r="X31" s="23">
-        <f t="shared" si="19"/>
-        <v>9.4676426164749625E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.6193112865907649E-2</v>
       </c>
       <c r="Y31" s="24"/>
       <c r="Z31" s="21">
-        <v>128176</v>
+        <v>694359</v>
       </c>
       <c r="AA31" s="21">
-        <v>13599</v>
+        <v>144669</v>
       </c>
       <c r="AB31" s="21">
-        <v>3552</v>
+        <v>53143</v>
       </c>
       <c r="AC31" s="21">
-        <v>11926</v>
+        <v>224514</v>
       </c>
       <c r="AD31" s="21">
         <f t="shared" si="7"/>
-        <v>133401</v>
+        <v>667657</v>
       </c>
       <c r="AE31" s="11">
         <f t="shared" si="8"/>
-        <v>4.271394294854705</v>
+        <v>0.34444290115036041</v>
       </c>
       <c r="AF31" s="11">
         <f t="shared" si="9"/>
-        <v>0.45317915222607302</v>
+        <v>7.1764332379246884E-2</v>
       </c>
       <c r="AG31" s="11">
         <f t="shared" si="10"/>
-        <v>0.11836843508397761</v>
+        <v>2.6362053485061189E-2</v>
       </c>
       <c r="AH31" s="11">
         <f t="shared" si="11"/>
-        <v>0.39742735270594509</v>
+        <v>0.1113721482819003</v>
       </c>
       <c r="AI31" s="11">
         <f t="shared" si="12"/>
-        <v>4.4455145294588112</v>
+        <v>0.33119713873276818</v>
       </c>
       <c r="AJ31" s="11">
-        <f t="shared" si="16"/>
-        <v>6.0779154579051128E-2</v>
+        <f t="shared" si="30"/>
+        <v>5.5100148729062978E-2</v>
       </c>
       <c r="AK31" s="11">
         <f t="shared" si="13"/>
-        <v>5.0904166135686144E-2</v>
+        <v>5.420248221267307E-2</v>
       </c>
       <c r="AL31" s="27"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="21"/>
-      <c r="AO31" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO31" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP31" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ31" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="12"/>
+    </row>
+    <row r="32" spans="1:47">
       <c r="A32" s="6" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D32" s="21">
-        <v>6100</v>
+        <v>35300</v>
       </c>
       <c r="E32" s="21">
-        <v>4600</v>
+        <v>14000</v>
       </c>
       <c r="F32" s="21">
-        <v>150</v>
+        <v>10800</v>
       </c>
       <c r="G32" s="21">
-        <v>-18</v>
+        <v>400</v>
       </c>
       <c r="H32" s="21">
-        <v>2500</v>
+        <v>20100</v>
       </c>
       <c r="I32" s="21">
-        <v>995</v>
+        <v>2800</v>
       </c>
       <c r="J32" s="21">
-        <v>750</v>
+        <v>2600</v>
       </c>
       <c r="K32" s="21">
-        <v>680</v>
+        <v>1800</v>
       </c>
       <c r="L32" s="21">
-        <v>640</v>
+        <v>1900</v>
       </c>
       <c r="M32" s="21">
         <f t="shared" si="0"/>
-        <v>690</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>2100</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="21">
-        <v>18700</v>
+        <v>55000</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" si="28"/>
-        <v>27.10144927536232</v>
+        <f t="shared" si="42"/>
+        <v>26.19047619047619</v>
       </c>
       <c r="Q32" s="23">
         <f t="shared" si="2"/>
-        <v>0.24590163934426229</v>
+        <v>0.60339943342776203</v>
       </c>
       <c r="R32" s="23">
-        <f t="shared" si="29"/>
-        <v>2.4590163934426229E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.30594900849858359</v>
       </c>
       <c r="S32" s="23">
-        <f t="shared" si="30"/>
-        <v>0.1</v>
+        <f t="shared" si="44"/>
+        <v>0.50704225352112675</v>
       </c>
       <c r="T32" s="23">
-        <f t="shared" si="22"/>
-        <v>0.39800000000000002</v>
+        <f t="shared" si="36"/>
+        <v>0.13930348258706468</v>
       </c>
       <c r="U32" s="23">
-        <f t="shared" si="23"/>
-        <v>0.27600000000000002</v>
+        <f t="shared" si="37"/>
+        <v>0.1044776119402985</v>
       </c>
       <c r="V32" s="23">
         <f t="shared" si="5"/>
-        <v>0.4098360655737705</v>
+        <v>0.56940509915014159</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="6"/>
-        <v>1.326086956521739</v>
+        <v>2.5214285714285714</v>
       </c>
       <c r="X32" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0.15</v>
       </c>
       <c r="Y32" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z32" s="21">
-        <v>741</v>
+        <v>13458</v>
       </c>
       <c r="AA32" s="21">
-        <v>1514</v>
+        <v>2044</v>
       </c>
       <c r="AB32" s="21">
-        <v>22</v>
+        <v>5555</v>
       </c>
       <c r="AC32" s="21">
-        <v>84</v>
+        <v>4168</v>
       </c>
       <c r="AD32" s="21">
         <f t="shared" si="7"/>
-        <v>2193</v>
+        <v>16889</v>
       </c>
       <c r="AE32" s="11">
         <f t="shared" si="8"/>
-        <v>0.2964</v>
+        <v>0.66955223880597015</v>
       </c>
       <c r="AF32" s="11">
         <f t="shared" si="9"/>
-        <v>0.60560000000000003</v>
+        <v>0.10169154228855722</v>
       </c>
       <c r="AG32" s="11">
         <f t="shared" si="10"/>
-        <v>8.8000000000000005E-3</v>
+        <v>0.27636815920398011</v>
       </c>
       <c r="AH32" s="11">
         <f t="shared" si="11"/>
-        <v>3.3599999999999998E-2</v>
+        <v>0.207363184079602</v>
       </c>
       <c r="AI32" s="11">
         <f t="shared" si="12"/>
-        <v>0.87719999999999998</v>
+        <v>0.84024875621890549</v>
       </c>
       <c r="AJ32" s="11">
-        <f t="shared" si="16"/>
-        <v>0.34199726402188785</v>
+        <f t="shared" si="30"/>
+        <v>0.15394635561608147</v>
       </c>
       <c r="AK32" s="11">
         <f t="shared" si="13"/>
-        <v>0.31463748290013682</v>
+        <v>0.1243412872283735</v>
       </c>
       <c r="AL32" s="27"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="21"/>
-      <c r="AO32" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO32" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP32" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ32" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" hidden="1">
       <c r="A33" s="6" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D33" s="21">
-        <v>2500</v>
+        <v>282046</v>
       </c>
       <c r="E33" s="21">
-        <v>2000</v>
+        <v>71725</v>
       </c>
       <c r="F33" s="21">
-        <v>0</v>
+        <f>12038+14549+152801</f>
+        <v>179388</v>
       </c>
       <c r="G33" s="21">
-        <v>-3</v>
+        <v>4325</v>
       </c>
       <c r="H33" s="21">
-        <v>1800</v>
+        <v>30008</v>
       </c>
       <c r="I33" s="21">
-        <v>410</v>
+        <v>6180</v>
       </c>
       <c r="J33" s="21">
-        <v>348</v>
+        <v>8108</v>
       </c>
       <c r="K33" s="21">
-        <v>252</v>
+        <v>7108</v>
       </c>
       <c r="L33" s="21">
-        <v>162</v>
+        <v>5156</v>
       </c>
       <c r="M33" s="21">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>6790.666666666667</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="O33" s="21">
-        <v>8800</v>
+        <v>103354</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="28"/>
-        <v>34.645669291338585</v>
+        <f t="shared" si="42"/>
+        <v>15.22000785391714</v>
       </c>
       <c r="Q33" s="23">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.7456975103351936</v>
       </c>
       <c r="R33" s="23">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.63602391099324229</v>
       </c>
       <c r="S33" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>0.85292481492575634</v>
       </c>
       <c r="T33" s="23">
-        <f t="shared" si="22"/>
-        <v>0.22777777777777777</v>
+        <f t="shared" si="36"/>
+        <v>0.20594508131165024</v>
       </c>
       <c r="U33" s="23">
-        <f t="shared" si="23"/>
-        <v>0.1411111111111111</v>
+        <f t="shared" si="37"/>
+        <v>0.22629521016617793</v>
       </c>
       <c r="V33" s="23">
         <f t="shared" si="5"/>
-        <v>0.72</v>
+        <v>0.10639399246931351</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>3.9323248518647613</v>
       </c>
       <c r="X33" s="23">
-        <f t="shared" si="19"/>
-        <v>0.127</v>
-      </c>
-      <c r="Y33" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>9.4676426164749625E-2</v>
+      </c>
+      <c r="Y33" s="24"/>
       <c r="Z33" s="21">
-        <v>480</v>
+        <v>128176</v>
       </c>
       <c r="AA33" s="21">
-        <v>51</v>
+        <v>13599</v>
       </c>
       <c r="AB33" s="21">
-        <v>7</v>
+        <v>3552</v>
       </c>
       <c r="AC33" s="21">
-        <v>169</v>
+        <v>11926</v>
       </c>
       <c r="AD33" s="21">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>133401</v>
       </c>
       <c r="AE33" s="11">
         <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
+        <v>4.271394294854705</v>
       </c>
       <c r="AF33" s="11">
         <f t="shared" si="9"/>
-        <v>2.8333333333333332E-2</v>
+        <v>0.45317915222607302</v>
       </c>
       <c r="AG33" s="11">
         <f t="shared" si="10"/>
-        <v>3.8888888888888888E-3</v>
+        <v>0.11836843508397761</v>
       </c>
       <c r="AH33" s="11">
         <f t="shared" si="11"/>
-        <v>9.3888888888888883E-2</v>
+        <v>0.39742735270594509</v>
       </c>
       <c r="AI33" s="11">
         <f t="shared" si="12"/>
-        <v>0.20499999999999999</v>
+        <v>4.4455145294588112</v>
       </c>
       <c r="AJ33" s="11">
-        <f t="shared" si="16"/>
-        <v>0.94308943089430897</v>
+        <f t="shared" si="30"/>
+        <v>6.0779154579051128E-2</v>
       </c>
       <c r="AK33" s="11">
         <f t="shared" si="13"/>
-        <v>0.68834688346883466</v>
+        <v>5.0904166135686144E-2</v>
       </c>
       <c r="AL33" s="27"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="21"/>
-      <c r="AO33" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO33" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP33" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ33" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ33" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR33" s="11"/>
+    </row>
+    <row r="34" spans="1:45">
       <c r="A34" s="6" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>186</v>
+        <v>148</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D34" s="21">
-        <v>84980</v>
+        <v>6100</v>
       </c>
       <c r="E34" s="21">
-        <v>34810</v>
+        <v>4600</v>
       </c>
       <c r="F34" s="21">
-        <v>1296</v>
+        <v>150</v>
       </c>
       <c r="G34" s="21">
-        <v>35</v>
+        <v>-18</v>
       </c>
       <c r="H34" s="21">
-        <v>92760</v>
+        <v>2500</v>
       </c>
       <c r="I34" s="21">
-        <v>17981</v>
+        <v>995</v>
       </c>
       <c r="J34" s="21">
-        <v>10735</v>
+        <v>750</v>
       </c>
       <c r="K34" s="21">
-        <v>5170</v>
+        <v>680</v>
       </c>
       <c r="L34" s="21">
-        <v>2288</v>
+        <v>640</v>
       </c>
       <c r="M34" s="21">
         <f t="shared" si="0"/>
-        <v>6064.333333333333</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>187</v>
+        <v>690</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="O34" s="21">
-        <v>210437</v>
+        <v>18700</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" ref="P34" si="31">O34/M34</f>
-        <v>34.700764030121476</v>
+        <f t="shared" si="42"/>
+        <v>27.10144927536232</v>
       </c>
       <c r="Q34" s="23">
-        <f t="shared" ref="Q34" si="32">(D34-E34)/D34</f>
-        <v>0.59037420569545773</v>
+        <f t="shared" si="2"/>
+        <v>0.24590163934426229</v>
       </c>
       <c r="R34" s="23">
-        <f t="shared" ref="R34" si="33">F34/D34</f>
-        <v>1.5250647211108496E-2</v>
+        <f t="shared" si="43"/>
+        <v>2.4590163934426229E-2</v>
       </c>
       <c r="S34" s="23">
-        <f t="shared" ref="S34" si="34">F34/(D34-E34)</f>
-        <v>2.5832170619892365E-2</v>
+        <f t="shared" si="44"/>
+        <v>0.1</v>
       </c>
       <c r="T34" s="23">
-        <f t="shared" ref="T34" si="35">I34/H34</f>
-        <v>0.19384432945235014</v>
+        <f t="shared" si="36"/>
+        <v>0.39800000000000002</v>
       </c>
       <c r="U34" s="23">
-        <f t="shared" ref="U34" si="36">M34/H34</f>
-        <v>6.5376599108811259E-2</v>
+        <f t="shared" si="37"/>
+        <v>0.27600000000000002</v>
       </c>
       <c r="V34" s="23">
-        <f t="shared" ref="V34" si="37">H34/D34</f>
-        <v>1.0915509531654506</v>
+        <f t="shared" si="5"/>
+        <v>0.4098360655737705</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" ref="W34" si="38">D34/E34</f>
-        <v>2.4412525136455043</v>
+        <f t="shared" si="6"/>
+        <v>1.326086956521739</v>
       </c>
       <c r="X34" s="23">
-        <f t="shared" ref="X34" si="39">M34/E34</f>
-        <v>0.17421239107536149</v>
-      </c>
-      <c r="Y34" s="24"/>
+        <f t="shared" si="33"/>
+        <v>0.15</v>
+      </c>
+      <c r="Y34" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="Z34" s="21">
-        <v>14052</v>
+        <v>741</v>
       </c>
       <c r="AA34" s="21">
-        <v>6027</v>
+        <v>1514</v>
       </c>
       <c r="AB34" s="21">
-        <v>33478</v>
+        <v>22</v>
       </c>
       <c r="AC34" s="21">
-        <v>47532</v>
+        <v>84</v>
       </c>
       <c r="AD34" s="21">
         <f t="shared" si="7"/>
-        <v>6025</v>
+        <v>2193</v>
       </c>
       <c r="AE34" s="11">
-        <f t="shared" ref="AE34" si="40">Z34/H34</f>
-        <v>0.15148771021992238</v>
+        <f t="shared" si="8"/>
+        <v>0.2964</v>
       </c>
       <c r="AF34" s="11">
-        <f t="shared" ref="AF34" si="41">AA34/H34</f>
-        <v>6.4974126778783961E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.60560000000000003</v>
       </c>
       <c r="AG34" s="11">
-        <f t="shared" ref="AG34" si="42">AB34/H34</f>
-        <v>0.36090987494609744</v>
+        <f t="shared" si="10"/>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="AH34" s="11">
-        <f t="shared" ref="AH34" si="43">AC34/H34</f>
-        <v>0.51241914618369988</v>
+        <f t="shared" si="11"/>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="AI34" s="11">
-        <f t="shared" ref="AI34" si="44">AD34/H34</f>
-        <v>6.495256576110392E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.87719999999999998</v>
       </c>
       <c r="AJ34" s="11">
-        <f t="shared" si="16"/>
-        <v>1.7817427385892117</v>
+        <f t="shared" si="30"/>
+        <v>0.34199726402188785</v>
       </c>
       <c r="AK34" s="11">
         <f t="shared" si="13"/>
-        <v>1.0065283540802212</v>
+        <v>0.31463748290013682</v>
       </c>
       <c r="AL34" s="27"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="21"/>
-      <c r="AO34" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO34" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP34" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ34" s="20"/>
-    </row>
-    <row r="35" spans="1:43">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ34" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR34" s="11"/>
+    </row>
+    <row r="35" spans="1:45" hidden="1">
       <c r="A35" s="6" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D35" s="21">
-        <v>120492</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="21">
-        <v>17725</v>
+        <v>2000</v>
       </c>
       <c r="F35" s="21">
-        <f>6986+39837</f>
-        <v>46823</v>
+        <v>0</v>
       </c>
       <c r="G35" s="21">
-        <v>164</v>
+        <v>-3</v>
       </c>
       <c r="H35" s="21">
-        <v>79139</v>
+        <v>1800</v>
       </c>
       <c r="I35" s="21">
-        <v>36227</v>
+        <v>410</v>
       </c>
       <c r="J35" s="21">
-        <v>5753</v>
+        <v>348</v>
       </c>
       <c r="K35" s="21">
-        <v>11872</v>
+        <v>252</v>
       </c>
       <c r="L35" s="21">
-        <v>13190</v>
+        <v>162</v>
       </c>
       <c r="M35" s="21">
         <f t="shared" si="0"/>
-        <v>10271.666666666666</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>187</v>
+        <v>254</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="O35" s="21">
-        <v>145410</v>
+        <v>8800</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="28"/>
-        <v>14.156417329222782</v>
+        <f t="shared" si="42"/>
+        <v>34.645669291338585</v>
       </c>
       <c r="Q35" s="23">
         <f t="shared" si="2"/>
-        <v>0.85289479799488765</v>
+        <v>0.2</v>
       </c>
       <c r="R35" s="23">
-        <f t="shared" si="29"/>
-        <v>0.38859841317265875</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="S35" s="23">
-        <f t="shared" si="30"/>
-        <v>0.45562291397043797</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="T35" s="23">
-        <f t="shared" si="22"/>
-        <v>0.45776418706326844</v>
+        <f t="shared" si="36"/>
+        <v>0.22777777777777777</v>
       </c>
       <c r="U35" s="23">
-        <f t="shared" si="23"/>
-        <v>0.12979272756373805</v>
+        <f t="shared" si="37"/>
+        <v>0.1411111111111111</v>
       </c>
       <c r="V35" s="23">
         <f t="shared" si="5"/>
-        <v>0.65679879162102051</v>
+        <v>0.72</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" si="6"/>
-        <v>6.7978561354019744</v>
+        <v>1.25</v>
       </c>
       <c r="X35" s="23">
-        <f t="shared" si="19"/>
-        <v>0.57950164551010808</v>
+        <f t="shared" si="33"/>
+        <v>0.127</v>
       </c>
       <c r="Y35" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z35" s="21">
-        <v>11116</v>
+        <v>480</v>
       </c>
       <c r="AA35" s="21">
-        <v>1583</v>
+        <v>51</v>
       </c>
       <c r="AB35" s="21">
-        <v>9909</v>
+        <v>7</v>
       </c>
       <c r="AC35" s="21">
-        <v>6451</v>
+        <v>169</v>
       </c>
       <c r="AD35" s="21">
         <f t="shared" si="7"/>
-        <v>16157</v>
+        <v>369</v>
       </c>
       <c r="AE35" s="11">
         <f t="shared" si="8"/>
-        <v>0.14046171925346543</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AF35" s="11">
         <f t="shared" si="9"/>
-        <v>2.0002779918876914E-2</v>
+        <v>2.8333333333333332E-2</v>
       </c>
       <c r="AG35" s="11">
         <f t="shared" si="10"/>
-        <v>0.12521007341513035</v>
+        <v>3.8888888888888888E-3</v>
       </c>
       <c r="AH35" s="11">
         <f t="shared" si="11"/>
-        <v>8.1514803068019559E-2</v>
+        <v>9.3888888888888883E-2</v>
       </c>
       <c r="AI35" s="11">
         <f t="shared" si="12"/>
-        <v>0.20415976951945311</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AJ35" s="11">
-        <f t="shared" si="16"/>
-        <v>0.35606857708733058</v>
+        <f t="shared" si="30"/>
+        <v>0.94308943089430897</v>
       </c>
       <c r="AK35" s="11">
         <f t="shared" si="13"/>
-        <v>0.63574095851127477</v>
+        <v>0.68834688346883466</v>
       </c>
       <c r="AL35" s="27"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
-      <c r="AO35" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="AO35" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AP35" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ35" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
       <c r="A36" s="6" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D36" s="21">
+        <v>84980</v>
+      </c>
+      <c r="E36" s="21">
+        <v>34810</v>
+      </c>
+      <c r="F36" s="21">
+        <v>1296</v>
+      </c>
+      <c r="G36" s="21">
+        <v>35</v>
+      </c>
+      <c r="H36" s="21">
+        <v>92760</v>
+      </c>
+      <c r="I36" s="21">
+        <v>17981</v>
+      </c>
+      <c r="J36" s="21">
+        <v>10735</v>
+      </c>
+      <c r="K36" s="21">
+        <v>5170</v>
+      </c>
+      <c r="L36" s="21">
+        <v>2288</v>
+      </c>
+      <c r="M36" s="21">
+        <f t="shared" si="0"/>
+        <v>6064.333333333333</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O36" s="21">
+        <v>210437</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" ref="P36" si="45">O36/M36</f>
+        <v>34.700764030121476</v>
+      </c>
+      <c r="Q36" s="23">
+        <f t="shared" ref="Q36" si="46">(D36-E36)/D36</f>
+        <v>0.59037420569545773</v>
+      </c>
+      <c r="R36" s="23">
+        <f t="shared" ref="R36" si="47">F36/D36</f>
+        <v>1.5250647211108496E-2</v>
+      </c>
+      <c r="S36" s="23">
+        <f t="shared" ref="S36" si="48">F36/(D36-E36)</f>
+        <v>2.5832170619892365E-2</v>
+      </c>
+      <c r="T36" s="23">
+        <f t="shared" ref="T36" si="49">I36/H36</f>
+        <v>0.19384432945235014</v>
+      </c>
+      <c r="U36" s="23">
+        <f t="shared" ref="U36" si="50">M36/H36</f>
+        <v>6.5376599108811259E-2</v>
+      </c>
+      <c r="V36" s="23">
+        <f t="shared" ref="V36" si="51">H36/D36</f>
+        <v>1.0915509531654506</v>
+      </c>
+      <c r="W36" s="8">
+        <f t="shared" ref="W36" si="52">D36/E36</f>
+        <v>2.4412525136455043</v>
+      </c>
+      <c r="X36" s="23">
+        <f t="shared" ref="X36" si="53">M36/E36</f>
+        <v>0.17421239107536149</v>
+      </c>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="21">
+        <v>14052</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>6027</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>33478</v>
+      </c>
+      <c r="AC36" s="21">
+        <v>47532</v>
+      </c>
+      <c r="AD36" s="21">
+        <f t="shared" si="7"/>
+        <v>6025</v>
+      </c>
+      <c r="AE36" s="11">
+        <f t="shared" ref="AE36" si="54">Z36/H36</f>
+        <v>0.15148771021992238</v>
+      </c>
+      <c r="AF36" s="11">
+        <f t="shared" ref="AF36" si="55">AA36/H36</f>
+        <v>6.4974126778783961E-2</v>
+      </c>
+      <c r="AG36" s="11">
+        <f t="shared" ref="AG36" si="56">AB36/H36</f>
+        <v>0.36090987494609744</v>
+      </c>
+      <c r="AH36" s="11">
+        <f t="shared" ref="AH36" si="57">AC36/H36</f>
+        <v>0.51241914618369988</v>
+      </c>
+      <c r="AI36" s="11">
+        <f t="shared" ref="AI36" si="58">AD36/H36</f>
+        <v>6.495256576110392E-2</v>
+      </c>
+      <c r="AJ36" s="11">
+        <f t="shared" si="30"/>
+        <v>1.7817427385892117</v>
+      </c>
+      <c r="AK36" s="11">
+        <f t="shared" si="13"/>
+        <v>1.0065283540802212</v>
+      </c>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="11" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ36" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="20"/>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="A37" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="21">
+        <v>120492</v>
+      </c>
+      <c r="E37" s="21">
+        <v>17725</v>
+      </c>
+      <c r="F37" s="21">
+        <f>6986+39837</f>
+        <v>46823</v>
+      </c>
+      <c r="G37" s="21">
+        <v>164</v>
+      </c>
+      <c r="H37" s="21">
+        <v>79139</v>
+      </c>
+      <c r="I37" s="21">
+        <v>36227</v>
+      </c>
+      <c r="J37" s="21">
+        <v>5753</v>
+      </c>
+      <c r="K37" s="21">
+        <v>11872</v>
+      </c>
+      <c r="L37" s="21">
+        <v>13190</v>
+      </c>
+      <c r="M37" s="21">
+        <f t="shared" si="0"/>
+        <v>10271.666666666666</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O37" s="21">
+        <v>145410</v>
+      </c>
+      <c r="P37" s="8">
+        <f t="shared" si="42"/>
+        <v>14.156417329222782</v>
+      </c>
+      <c r="Q37" s="23">
+        <f t="shared" si="2"/>
+        <v>0.85289479799488765</v>
+      </c>
+      <c r="R37" s="23">
+        <f t="shared" si="43"/>
+        <v>0.38859841317265875</v>
+      </c>
+      <c r="S37" s="23">
+        <f t="shared" si="44"/>
+        <v>0.45562291397043797</v>
+      </c>
+      <c r="T37" s="23">
+        <f t="shared" si="36"/>
+        <v>0.45776418706326844</v>
+      </c>
+      <c r="U37" s="23">
+        <f t="shared" si="37"/>
+        <v>0.12979272756373805</v>
+      </c>
+      <c r="V37" s="23">
+        <f t="shared" si="5"/>
+        <v>0.65679879162102051</v>
+      </c>
+      <c r="W37" s="8">
+        <f t="shared" si="6"/>
+        <v>6.7978561354019744</v>
+      </c>
+      <c r="X37" s="23">
+        <f t="shared" si="33"/>
+        <v>0.57950164551010808</v>
+      </c>
+      <c r="Y37" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z37" s="21">
+        <v>11116</v>
+      </c>
+      <c r="AA37" s="21">
+        <v>1583</v>
+      </c>
+      <c r="AB37" s="21">
+        <v>9909</v>
+      </c>
+      <c r="AC37" s="21">
+        <v>6451</v>
+      </c>
+      <c r="AD37" s="21">
+        <f t="shared" si="7"/>
+        <v>16157</v>
+      </c>
+      <c r="AE37" s="11">
+        <f t="shared" si="8"/>
+        <v>0.14046171925346543</v>
+      </c>
+      <c r="AF37" s="11">
+        <f t="shared" si="9"/>
+        <v>2.0002779918876914E-2</v>
+      </c>
+      <c r="AG37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.12521007341513035</v>
+      </c>
+      <c r="AH37" s="11">
+        <f t="shared" si="11"/>
+        <v>8.1514803068019559E-2</v>
+      </c>
+      <c r="AI37" s="11">
+        <f t="shared" si="12"/>
+        <v>0.20415976951945311</v>
+      </c>
+      <c r="AJ37" s="11">
+        <f t="shared" si="30"/>
+        <v>0.35606857708733058</v>
+      </c>
+      <c r="AK37" s="11">
+        <f t="shared" si="13"/>
+        <v>0.63574095851127477</v>
+      </c>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="11" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ37" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR37" s="11"/>
+    </row>
+    <row r="38" spans="1:45" hidden="1">
+      <c r="A38" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="21">
         <v>61604</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E38" s="21">
         <v>23505</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F38" s="21">
         <f>3850+10182</f>
         <v>14032</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G38" s="21">
         <v>265</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H38" s="21">
         <v>28871</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I38" s="21">
         <v>625</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J38" s="21">
         <v>344</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K38" s="21">
         <v>3161</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L38" s="21">
         <v>2461</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M38" s="21">
         <f t="shared" si="0"/>
         <v>1988.6666666666667</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O38" s="21">
         <v>25939</v>
       </c>
-      <c r="P36" s="8">
-        <f t="shared" si="28"/>
+      <c r="P38" s="8">
+        <f t="shared" si="42"/>
         <v>13.043412671806905</v>
       </c>
-      <c r="Q36" s="23">
+      <c r="Q38" s="23">
         <f t="shared" si="2"/>
         <v>0.61845010064281536</v>
       </c>
-      <c r="R36" s="23">
-        <f t="shared" si="29"/>
+      <c r="R38" s="23">
+        <f t="shared" si="43"/>
         <v>0.22777741705084084</v>
       </c>
-      <c r="S36" s="23">
-        <f t="shared" si="30"/>
+      <c r="S38" s="23">
+        <f t="shared" si="44"/>
         <v>0.36830363001653588</v>
       </c>
-      <c r="T36" s="23">
-        <f t="shared" si="22"/>
+      <c r="T38" s="23">
+        <f t="shared" si="36"/>
         <v>2.1648020505005021E-2</v>
       </c>
-      <c r="U36" s="23">
-        <f t="shared" si="23"/>
+      <c r="U38" s="23">
+        <f t="shared" si="37"/>
         <v>6.8881114844191987E-2</v>
       </c>
-      <c r="V36" s="23">
+      <c r="V38" s="23">
         <f t="shared" si="5"/>
         <v>0.46865463281605091</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W38" s="8">
         <f t="shared" si="6"/>
         <v>2.620889172516486</v>
       </c>
-      <c r="X36" s="23">
-        <f t="shared" si="19"/>
+      <c r="X38" s="23">
+        <f t="shared" si="33"/>
         <v>8.4606112174714601E-2</v>
       </c>
-      <c r="Y36" s="24" t="s">
+      <c r="Y38" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z36" s="21">
+      <c r="Z38" s="21">
         <v>6296</v>
       </c>
-      <c r="AA36" s="21">
+      <c r="AA38" s="21">
         <v>2315</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB38" s="21">
         <v>3073</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AC38" s="2">
         <v>6072</v>
       </c>
-      <c r="AD36" s="21">
+      <c r="AD38" s="21">
         <f t="shared" si="7"/>
         <v>5612</v>
       </c>
-      <c r="AE36" s="11">
+      <c r="AE38" s="11">
         <f t="shared" si="8"/>
         <v>0.2180734993592186</v>
       </c>
-      <c r="AF36" s="11">
+      <c r="AF38" s="11">
         <f t="shared" si="9"/>
         <v>8.018426795053861E-2</v>
       </c>
-      <c r="AG36" s="11">
+      <c r="AG38" s="11">
         <f t="shared" si="10"/>
         <v>0.1064389872190087</v>
       </c>
-      <c r="AH36" s="11">
+      <c r="AH38" s="11">
         <f t="shared" si="11"/>
         <v>0.2103148488102248</v>
       </c>
-      <c r="AI36" s="11">
+      <c r="AI38" s="11">
         <f t="shared" si="12"/>
         <v>0.19438190571854111</v>
       </c>
-      <c r="AJ36" s="11">
-        <f t="shared" si="16"/>
+      <c r="AJ38" s="11">
+        <f t="shared" si="30"/>
         <v>6.1297220242337851E-2</v>
       </c>
-      <c r="AK36" s="11">
+      <c r="AK38" s="11">
         <f t="shared" si="13"/>
         <v>0.35435970539320505</v>
       </c>
-      <c r="AL36" s="27"/>
-      <c r="AM36" s="21">
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="21">
         <v>21444</v>
       </c>
-      <c r="AN36" s="21">
+      <c r="AN38" s="21">
         <v>18924</v>
       </c>
-      <c r="AO36" s="11">
-        <f>AM36/AN36</f>
+      <c r="AO38" s="21">
+        <f t="shared" si="28"/>
+        <v>2520</v>
+      </c>
+      <c r="AP38" s="11">
+        <f>AM38/AN38</f>
         <v>1.1331642358909322</v>
       </c>
-      <c r="AP36" s="11">
-        <f t="shared" si="17"/>
+      <c r="AQ38" s="11">
+        <f t="shared" si="31"/>
         <v>1.0108328049038258</v>
       </c>
-    </row>
-    <row r="37" spans="1:43">
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="8" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="23" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="23" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="23" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" s="23" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y37" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF37" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG37" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH37" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI37" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ37" s="11" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK37" s="11" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL37" s="27"/>
-    </row>
-    <row r="38" spans="1:43">
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="8" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R38" s="23" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S38" s="23" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="23" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" s="23" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y38" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF38" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG38" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH38" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI38" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ38" s="11" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK38" s="11" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL38" s="27"/>
-    </row>
-    <row r="39" spans="1:43">
+      <c r="AR38" s="11"/>
+    </row>
+    <row r="39" spans="1:45">
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -6895,7 +7241,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="8" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="23" t="e">
@@ -6903,15 +7249,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="23" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="23" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="23" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="23"/>
@@ -6924,7 +7270,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="X39" s="23" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y39" s="24" t="s">
@@ -6934,7 +7280,10 @@
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="21"/>
+      <c r="AD39" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AE39" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -6956,7 +7305,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ39" s="11" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK39" s="11" t="e">
@@ -6964,8 +7313,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL39" s="27"/>
-    </row>
-    <row r="40" spans="1:43">
+      <c r="AO39" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -6982,7 +7335,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="8" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="23" t="e">
@@ -6990,22 +7343,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="23" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="23" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="23" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
+      <c r="V40" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X40" s="23" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y40" s="24" t="s">
@@ -7013,19 +7372,44 @@
       </c>
       <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
-      <c r="AB40" s="2"/>
+      <c r="AB40" s="21"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="21"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="11"/>
+      <c r="AE40" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF40" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG40" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH40" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI40" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ40" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK40" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AL40" s="27"/>
-    </row>
-    <row r="41" spans="1:43">
+      <c r="AO40" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -7042,27 +7426,81 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="8" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="23" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="23" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="23" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="23" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y41" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
+      <c r="AC41" s="2"/>
       <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-    </row>
-    <row r="42" spans="1:43">
+      <c r="AE41" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF41" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG41" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH41" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI41" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ41" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK41" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL41" s="27"/>
+      <c r="AO41" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45">
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -7078,25 +7516,55 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
+      <c r="P42" s="8" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q42" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" s="23" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="23" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="23" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y42" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
       <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="21"/>
-    </row>
-    <row r="43" spans="1:43">
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="27"/>
+      <c r="AO42" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45">
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -7112,7 +7580,10 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="8"/>
+      <c r="P43" s="8" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
       <c r="Y43" s="24" t="s">
@@ -7130,7 +7601,7 @@
       <c r="AI43" s="21"/>
       <c r="AJ43" s="21"/>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:45">
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -7140,15 +7611,31 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="M44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
+      <c r="Y44" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
-    </row>
-    <row r="45" spans="1:43">
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+    </row>
+    <row r="45" spans="1:45">
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -7158,15 +7645,31 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
+      <c r="M45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
+      <c r="Y45" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
-    </row>
-    <row r="46" spans="1:43">
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="21"/>
+    </row>
+    <row r="46" spans="1:45">
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -7184,7 +7687,7 @@
       <c r="R46" s="23"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:45">
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -7198,10 +7701,11 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-    </row>
-    <row r="48" spans="1:43">
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="AD47" s="21"/>
+    </row>
+    <row r="48" spans="1:45">
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -7215,20 +7719,21 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="AD48" s="21"/>
     </row>
     <row r="49" spans="4:18">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="8"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="8"/>
@@ -7236,16 +7741,16 @@
       <c r="R49" s="8"/>
     </row>
     <row r="50" spans="4:18">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="8"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="8"/>
@@ -7490,8 +7995,60 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
+    <row r="65" spans="4:18">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="4:18">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <autoFilter ref="A1:AU45">
+    <filterColumn colId="23">
+      <filters blank="1">
+        <filter val="#DIV/0!"/>
+        <filter val="15%"/>
+        <filter val="16%"/>
+        <filter val="17%"/>
+        <filter val="18%"/>
+        <filter val="19%"/>
+        <filter val="20%"/>
+        <filter val="22%"/>
+        <filter val="26%"/>
+        <filter val="29%"/>
+        <filter val="30%"/>
+        <filter val="58%"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9679,7 +10236,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11449,7 +12006,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11464,7 +12021,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11479,7 +12036,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'00102现金流2'!$A$1:$J$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dict!$A$1:$AU$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dict!$A$1:$AU$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="274">
   <si>
     <t>Account</t>
   </si>
@@ -469,147 +469,147 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -625,15 +625,15 @@
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>双汇发展</t>
@@ -703,23 +703,23 @@
   </si>
   <si>
     <t>平均ROE</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>固定资产</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>存货</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>应付账款</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>已用资本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,7 +735,7 @@
       </rPr>
       <t>%;ROE9%;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -751,19 +751,19 @@
       </rPr>
       <t>40%;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>应收账款</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零；已用资本-营收比125%;毛利率:40%;</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -779,11 +779,11 @@
       </rPr>
       <t>-营收比168%;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -799,7 +799,7 @@
       </rPr>
       <t>5%;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -825,7 +825,7 @@
       </rPr>
       <t>与双汇相当;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -841,7 +841,7 @@
       </rPr>
       <t>209%;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -858,7 +858,7 @@
       </rPr>
       <t>%,是否能够覆盖资金成本?</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,7 +875,7 @@
       </rPr>
       <t>%;资金成本?</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -891,19 +891,19 @@
       </rPr>
       <t>RTOCE6%,与川投能源差距很大;</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>债券用途;为何已用资本收益率如此之高209%;已用资本营收比如此之低6%?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A000651</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>格力电器</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -920,47 +920,47 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>投入1元带来营收873元,带来收益113元,</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A000333</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>美的集团</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>固定资产/营收</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>存货/营收</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>应收/营收</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>已用资本/营收</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>已用资本收益率</t>
@@ -985,11 +985,11 @@
   </si>
   <si>
     <t>A601390</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>中国中铁</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1006,23 +1006,23 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A601857</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>中国石油</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A601986</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>中国核电</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A002507</t>
@@ -1080,18 +1080,31 @@
   </si>
   <si>
     <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>A603779</t>
+  </si>
+  <si>
+    <t>威龙股份</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,63 +1287,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1609,14 +1623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AU66"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="AK35" sqref="AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,7 +1800,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:47" hidden="1">
+    <row r="2" spans="1:47">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1821,7 +1834,7 @@
         <v>19100</v>
       </c>
       <c r="M2" s="21">
-        <f t="shared" ref="M2:M45" si="0">(J2+K2+L2)/3</f>
+        <f t="shared" ref="M2:M46" si="0">(J2+K2+L2)/3</f>
         <v>21566.666666666668</v>
       </c>
       <c r="N2" s="2"/>
@@ -1833,7 +1846,7 @@
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="23">
-        <f t="shared" ref="Q2:Q42" si="2">(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q43" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="23">
@@ -1853,11 +1866,11 @@
         <v>0.20403658152002524</v>
       </c>
       <c r="V2" s="23">
-        <f t="shared" ref="V2:V41" si="5">H2/D2</f>
+        <f t="shared" ref="V2:V42" si="5">H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
       <c r="W2" s="8">
-        <f t="shared" ref="W2:W41" si="6">D2/E2</f>
+        <f t="shared" ref="W2:W42" si="6">D2/E2</f>
         <v>14.632432432432433</v>
       </c>
       <c r="X2" s="23">
@@ -1874,27 +1887,27 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21">
-        <f t="shared" ref="AD2:AD39" si="7">Z2+AA2+AB2-AC2</f>
+        <f t="shared" ref="AD2:AD40" si="7">Z2+AA2+AB2-AC2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="11">
-        <f t="shared" ref="AE2:AE41" si="8">Z2/H2</f>
+        <f t="shared" ref="AE2:AE42" si="8">Z2/H2</f>
         <v>0</v>
       </c>
       <c r="AF2" s="11">
-        <f t="shared" ref="AF2:AF41" si="9">AA2/H2</f>
+        <f t="shared" ref="AF2:AF42" si="9">AA2/H2</f>
         <v>0</v>
       </c>
       <c r="AG2" s="11">
-        <f t="shared" ref="AG2:AG41" si="10">AB2/H2</f>
+        <f t="shared" ref="AG2:AG42" si="10">AB2/H2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="11">
-        <f t="shared" ref="AH2:AH41" si="11">AC2/H2</f>
+        <f t="shared" ref="AH2:AH42" si="11">AC2/H2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="11">
-        <f t="shared" ref="AI2:AI41" si="12">AD2/H2</f>
+        <f t="shared" ref="AI2:AI42" si="12">AD2/H2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="11" t="e">
@@ -1902,7 +1915,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" s="11" t="e">
-        <f t="shared" ref="AK2:AK41" si="13">M2/AD2</f>
+        <f t="shared" ref="AK2:AK42" si="13">M2/AD2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" s="27"/>
@@ -2059,7 +2072,7 @@
         <v>579998</v>
       </c>
       <c r="AO3" s="21">
-        <f t="shared" ref="AO3:AO42" si="28">AM3-AN3</f>
+        <f t="shared" ref="AO3:AO43" si="28">AM3-AN3</f>
         <v>141297</v>
       </c>
       <c r="AP3" s="11">
@@ -2195,7 +2208,7 @@
         <v>0.14302569045166008</v>
       </c>
       <c r="AJ4" s="11">
-        <f t="shared" ref="AJ4:AJ41" si="30">J4/AD4</f>
+        <f t="shared" ref="AJ4:AJ42" si="30">J4/AD4</f>
         <v>0.54057743696990823</v>
       </c>
       <c r="AK4" s="11">
@@ -2218,12 +2231,12 @@
         <v>1.4258844077218262</v>
       </c>
       <c r="AQ4" s="11">
-        <f t="shared" ref="AQ4:AQ38" si="31">(AM4-AA4)/AN4</f>
+        <f t="shared" ref="AQ4:AQ39" si="31">(AM4-AA4)/AN4</f>
         <v>1.1786449017977849</v>
       </c>
       <c r="AR4" s="11"/>
     </row>
-    <row r="5" spans="1:47" hidden="1">
+    <row r="5" spans="1:47">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>3.3676731793960926</v>
       </c>
       <c r="X5" s="23">
-        <f t="shared" ref="X5:X42" si="33">M5/E5</f>
+        <f t="shared" ref="X5:X43" si="33">M5/E5</f>
         <v>8.7033747779751328E-2</v>
       </c>
       <c r="Y5" s="24" t="s">
@@ -2589,11 +2602,11 @@
         <v>0</v>
       </c>
       <c r="T7" s="23">
-        <f t="shared" ref="T7:T42" si="36">I7/H7</f>
+        <f t="shared" ref="T7:T43" si="36">I7/H7</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="U7" s="23">
-        <f t="shared" ref="U7:U38" si="37">M7/H7</f>
+        <f t="shared" ref="U7:U39" si="37">M7/H7</f>
         <v>0.21317460317460318</v>
       </c>
       <c r="V7" s="23">
@@ -2678,7 +2691,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:47" hidden="1">
+    <row r="8" spans="1:47">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -3130,7 +3143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="30" hidden="1">
+    <row r="11" spans="1:47" ht="30">
       <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
@@ -3281,7 +3294,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:47" hidden="1">
+    <row r="12" spans="1:47">
       <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
@@ -3429,7 +3442,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:47" hidden="1">
+    <row r="13" spans="1:47">
       <c r="A13" s="6" t="s">
         <v>253</v>
       </c>
@@ -3572,7 +3585,7 @@
       </c>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:47" ht="45" hidden="1">
+    <row r="14" spans="1:47" ht="45">
       <c r="A14" s="6" t="s">
         <v>146</v>
       </c>
@@ -3723,7 +3736,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:47" hidden="1">
+    <row r="15" spans="1:47">
       <c r="A15" s="6" t="s">
         <v>200</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:47" hidden="1">
+    <row r="18" spans="1:47">
       <c r="A18" s="6" t="s">
         <v>120</v>
       </c>
@@ -4305,7 +4318,7 @@
       <c r="AR18" s="11"/>
       <c r="AS18" s="17"/>
     </row>
-    <row r="19" spans="1:47" hidden="1">
+    <row r="19" spans="1:47">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -4431,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="11" t="e">
-        <f t="shared" ref="AP19:AP37" si="41">AM19/AN19</f>
+        <f t="shared" ref="AP19:AP38" si="41">AM19/AN19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ19" s="11" t="e">
@@ -5033,7 +5046,7 @@
       <c r="AS23" s="20"/>
       <c r="AT23" s="6"/>
     </row>
-    <row r="24" spans="1:47" hidden="1">
+    <row r="24" spans="1:47">
       <c r="A24" s="6" t="s">
         <v>68</v>
       </c>
@@ -5330,7 +5343,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="30" hidden="1">
+    <row r="26" spans="1:47" ht="30">
       <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
@@ -5479,7 +5492,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:47" hidden="1">
+    <row r="27" spans="1:47">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -5612,7 +5625,7 @@
       </c>
       <c r="AR27" s="11"/>
     </row>
-    <row r="28" spans="1:47" hidden="1">
+    <row r="28" spans="1:47">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -5757,7 +5770,7 @@
       </c>
       <c r="AR28" s="11"/>
     </row>
-    <row r="29" spans="1:47" hidden="1">
+    <row r="29" spans="1:47">
       <c r="A29" s="6" t="s">
         <v>72</v>
       </c>
@@ -5941,7 +5954,7 @@
         <v>105000</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" ref="P30:P43" si="42">O30/M30</f>
+        <f t="shared" ref="P30:P44" si="42">O30/M30</f>
         <v>13.404255319148938</v>
       </c>
       <c r="Q30" s="23">
@@ -5949,11 +5962,11 @@
         <v>0.55475113122171948</v>
       </c>
       <c r="R30" s="23">
-        <f t="shared" ref="R30:R42" si="43">F30/D30</f>
+        <f t="shared" ref="R30:R43" si="43">F30/D30</f>
         <v>1.3574660633484163E-2</v>
       </c>
       <c r="S30" s="23">
-        <f t="shared" ref="S30:S42" si="44">F30/(D30-E30)</f>
+        <f t="shared" ref="S30:S43" si="44">F30/(D30-E30)</f>
         <v>2.4469820554649267E-2</v>
       </c>
       <c r="T30" s="23">
@@ -6043,7 +6056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:47" hidden="1">
+    <row r="31" spans="1:47">
       <c r="A31" s="6" t="s">
         <v>249</v>
       </c>
@@ -6335,7 +6348,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:45" hidden="1">
+    <row r="33" spans="1:45">
       <c r="A33" s="6" t="s">
         <v>251</v>
       </c>
@@ -6628,283 +6641,275 @@
       </c>
       <c r="AR34" s="11"/>
     </row>
-    <row r="35" spans="1:45" hidden="1">
+    <row r="35" spans="1:45">
       <c r="A35" s="6" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>152</v>
+        <v>273</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="D35" s="21">
-        <v>2500</v>
+        <v>1507</v>
       </c>
       <c r="E35" s="21">
-        <v>2000</v>
+        <v>782</v>
       </c>
       <c r="F35" s="21">
-        <v>0</v>
+        <f>477.5+0.6+25</f>
+        <v>503.1</v>
       </c>
       <c r="G35" s="21">
-        <v>-3</v>
+        <v>28.8</v>
       </c>
       <c r="H35" s="21">
-        <v>1800</v>
+        <v>781</v>
       </c>
       <c r="I35" s="21">
-        <v>410</v>
+        <v>86</v>
       </c>
       <c r="J35" s="21">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="K35" s="21">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="L35" s="21">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="M35" s="21">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="O35" s="21">
-        <v>8800</v>
+        <v>3603</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="42"/>
-        <v>34.645669291338585</v>
+        <v>98.263636363636365</v>
       </c>
       <c r="Q35" s="23">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.48108825481088252</v>
       </c>
       <c r="R35" s="23">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.33384207033842073</v>
       </c>
       <c r="S35" s="23">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.69393103448275861</v>
       </c>
       <c r="T35" s="23">
         <f t="shared" si="36"/>
-        <v>0.22777777777777777</v>
+        <v>0.11011523687580026</v>
       </c>
       <c r="U35" s="23">
         <f t="shared" si="37"/>
-        <v>0.1411111111111111</v>
+        <v>4.6948356807511735E-2</v>
       </c>
       <c r="V35" s="23">
         <f t="shared" si="5"/>
-        <v>0.72</v>
+        <v>0.51824817518248179</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.9271099744245523</v>
       </c>
       <c r="X35" s="23">
         <f t="shared" si="33"/>
-        <v>0.127</v>
-      </c>
-      <c r="Y35" s="24" t="s">
-        <v>237</v>
-      </c>
+        <v>4.6888320545609548E-2</v>
+      </c>
+      <c r="Y35" s="24"/>
       <c r="Z35" s="21">
-        <v>480</v>
+        <v>339</v>
       </c>
       <c r="AA35" s="21">
-        <v>51</v>
+        <v>694.9</v>
       </c>
       <c r="AB35" s="21">
-        <v>7</v>
+        <v>69.5</v>
       </c>
       <c r="AC35" s="21">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="AD35" s="21">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>998.40000000000009</v>
       </c>
       <c r="AE35" s="11">
         <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
+        <v>0.43405889884763127</v>
       </c>
       <c r="AF35" s="11">
         <f t="shared" si="9"/>
-        <v>2.8333333333333332E-2</v>
+        <v>0.88975672215108836</v>
       </c>
       <c r="AG35" s="11">
         <f t="shared" si="10"/>
-        <v>3.8888888888888888E-3</v>
+        <v>8.8988476312419976E-2</v>
       </c>
       <c r="AH35" s="11">
         <f t="shared" si="11"/>
-        <v>9.3888888888888883E-2</v>
+        <v>0.13444302176696543</v>
       </c>
       <c r="AI35" s="11">
         <f t="shared" si="12"/>
-        <v>0.20499999999999999</v>
+        <v>1.2783610755441743</v>
       </c>
       <c r="AJ35" s="11">
         <f t="shared" si="30"/>
-        <v>0.94308943089430897</v>
+        <v>5.8092948717948713E-2</v>
       </c>
       <c r="AK35" s="11">
         <f t="shared" si="13"/>
-        <v>0.68834688346883466</v>
+        <v>3.6725427350427345E-2</v>
       </c>
       <c r="AL35" s="27"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
-      <c r="AO35" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AP35" s="11" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="11"/>
       <c r="AQ35" s="11" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR35" s="11"/>
-      <c r="AS35" s="20" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="36" spans="1:45">
       <c r="A36" s="6" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D36" s="21">
-        <v>84980</v>
+        <v>2500</v>
       </c>
       <c r="E36" s="21">
-        <v>34810</v>
+        <v>2000</v>
       </c>
       <c r="F36" s="21">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="G36" s="21">
-        <v>35</v>
+        <v>-3</v>
       </c>
       <c r="H36" s="21">
-        <v>92760</v>
+        <v>1800</v>
       </c>
       <c r="I36" s="21">
-        <v>17981</v>
+        <v>410</v>
       </c>
       <c r="J36" s="21">
-        <v>10735</v>
+        <v>348</v>
       </c>
       <c r="K36" s="21">
-        <v>5170</v>
+        <v>252</v>
       </c>
       <c r="L36" s="21">
-        <v>2288</v>
+        <v>162</v>
       </c>
       <c r="M36" s="21">
         <f t="shared" si="0"/>
-        <v>6064.333333333333</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>187</v>
+        <v>254</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="O36" s="21">
-        <v>210437</v>
+        <v>8800</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" ref="P36" si="45">O36/M36</f>
-        <v>34.700764030121476</v>
+        <f t="shared" si="42"/>
+        <v>34.645669291338585</v>
       </c>
       <c r="Q36" s="23">
-        <f t="shared" ref="Q36" si="46">(D36-E36)/D36</f>
-        <v>0.59037420569545773</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="R36" s="23">
-        <f t="shared" ref="R36" si="47">F36/D36</f>
-        <v>1.5250647211108496E-2</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="S36" s="23">
-        <f t="shared" ref="S36" si="48">F36/(D36-E36)</f>
-        <v>2.5832170619892365E-2</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="T36" s="23">
-        <f t="shared" ref="T36" si="49">I36/H36</f>
-        <v>0.19384432945235014</v>
+        <f t="shared" si="36"/>
+        <v>0.22777777777777777</v>
       </c>
       <c r="U36" s="23">
-        <f t="shared" ref="U36" si="50">M36/H36</f>
-        <v>6.5376599108811259E-2</v>
+        <f t="shared" si="37"/>
+        <v>0.1411111111111111</v>
       </c>
       <c r="V36" s="23">
-        <f t="shared" ref="V36" si="51">H36/D36</f>
-        <v>1.0915509531654506</v>
+        <f t="shared" si="5"/>
+        <v>0.72</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" ref="W36" si="52">D36/E36</f>
-        <v>2.4412525136455043</v>
+        <f t="shared" si="6"/>
+        <v>1.25</v>
       </c>
       <c r="X36" s="23">
-        <f t="shared" ref="X36" si="53">M36/E36</f>
-        <v>0.17421239107536149</v>
-      </c>
-      <c r="Y36" s="24"/>
+        <f t="shared" si="33"/>
+        <v>0.127</v>
+      </c>
+      <c r="Y36" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="Z36" s="21">
-        <v>14052</v>
+        <v>480</v>
       </c>
       <c r="AA36" s="21">
-        <v>6027</v>
+        <v>51</v>
       </c>
       <c r="AB36" s="21">
-        <v>33478</v>
+        <v>7</v>
       </c>
       <c r="AC36" s="21">
-        <v>47532</v>
+        <v>169</v>
       </c>
       <c r="AD36" s="21">
         <f t="shared" si="7"/>
-        <v>6025</v>
+        <v>369</v>
       </c>
       <c r="AE36" s="11">
-        <f t="shared" ref="AE36" si="54">Z36/H36</f>
-        <v>0.15148771021992238</v>
+        <f t="shared" si="8"/>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AF36" s="11">
-        <f t="shared" ref="AF36" si="55">AA36/H36</f>
-        <v>6.4974126778783961E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.8333333333333332E-2</v>
       </c>
       <c r="AG36" s="11">
-        <f t="shared" ref="AG36" si="56">AB36/H36</f>
-        <v>0.36090987494609744</v>
+        <f t="shared" si="10"/>
+        <v>3.8888888888888888E-3</v>
       </c>
       <c r="AH36" s="11">
-        <f t="shared" ref="AH36" si="57">AC36/H36</f>
-        <v>0.51241914618369988</v>
+        <f t="shared" si="11"/>
+        <v>9.3888888888888883E-2</v>
       </c>
       <c r="AI36" s="11">
-        <f t="shared" ref="AI36" si="58">AD36/H36</f>
-        <v>6.495256576110392E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AJ36" s="11">
         <f t="shared" si="30"/>
-        <v>1.7817427385892117</v>
+        <v>0.94308943089430897</v>
       </c>
       <c r="AK36" s="11">
         <f t="shared" si="13"/>
-        <v>1.0065283540802212</v>
+        <v>0.68834688346883466</v>
       </c>
       <c r="AL36" s="27"/>
       <c r="AM36" s="21"/>
@@ -6922,138 +6927,137 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR36" s="11"/>
-      <c r="AS36" s="20"/>
+      <c r="AS36" s="20" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="37" spans="1:45">
       <c r="A37" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D37" s="21">
-        <v>120492</v>
+        <v>84980</v>
       </c>
       <c r="E37" s="21">
-        <v>17725</v>
+        <v>34810</v>
       </c>
       <c r="F37" s="21">
-        <f>6986+39837</f>
-        <v>46823</v>
+        <v>1296</v>
       </c>
       <c r="G37" s="21">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="H37" s="21">
-        <v>79139</v>
+        <v>92760</v>
       </c>
       <c r="I37" s="21">
-        <v>36227</v>
+        <v>17981</v>
       </c>
       <c r="J37" s="21">
-        <v>5753</v>
+        <v>10735</v>
       </c>
       <c r="K37" s="21">
-        <v>11872</v>
+        <v>5170</v>
       </c>
       <c r="L37" s="21">
-        <v>13190</v>
+        <v>2288</v>
       </c>
       <c r="M37" s="21">
         <f t="shared" si="0"/>
-        <v>10271.666666666666</v>
+        <v>6064.333333333333</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O37" s="21">
-        <v>145410</v>
+        <v>210437</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="42"/>
-        <v>14.156417329222782</v>
+        <f t="shared" ref="P37" si="45">O37/M37</f>
+        <v>34.700764030121476</v>
       </c>
       <c r="Q37" s="23">
-        <f t="shared" si="2"/>
-        <v>0.85289479799488765</v>
+        <f t="shared" ref="Q37" si="46">(D37-E37)/D37</f>
+        <v>0.59037420569545773</v>
       </c>
       <c r="R37" s="23">
-        <f t="shared" si="43"/>
-        <v>0.38859841317265875</v>
+        <f t="shared" ref="R37" si="47">F37/D37</f>
+        <v>1.5250647211108496E-2</v>
       </c>
       <c r="S37" s="23">
-        <f t="shared" si="44"/>
-        <v>0.45562291397043797</v>
+        <f t="shared" ref="S37" si="48">F37/(D37-E37)</f>
+        <v>2.5832170619892365E-2</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="36"/>
-        <v>0.45776418706326844</v>
+        <f t="shared" ref="T37" si="49">I37/H37</f>
+        <v>0.19384432945235014</v>
       </c>
       <c r="U37" s="23">
-        <f t="shared" si="37"/>
-        <v>0.12979272756373805</v>
+        <f t="shared" ref="U37" si="50">M37/H37</f>
+        <v>6.5376599108811259E-2</v>
       </c>
       <c r="V37" s="23">
-        <f t="shared" si="5"/>
-        <v>0.65679879162102051</v>
+        <f t="shared" ref="V37" si="51">H37/D37</f>
+        <v>1.0915509531654506</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="6"/>
-        <v>6.7978561354019744</v>
+        <f t="shared" ref="W37" si="52">D37/E37</f>
+        <v>2.4412525136455043</v>
       </c>
       <c r="X37" s="23">
-        <f t="shared" si="33"/>
-        <v>0.57950164551010808</v>
-      </c>
-      <c r="Y37" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" ref="X37" si="53">M37/E37</f>
+        <v>0.17421239107536149</v>
+      </c>
+      <c r="Y37" s="24"/>
       <c r="Z37" s="21">
-        <v>11116</v>
+        <v>14052</v>
       </c>
       <c r="AA37" s="21">
-        <v>1583</v>
+        <v>6027</v>
       </c>
       <c r="AB37" s="21">
-        <v>9909</v>
+        <v>33478</v>
       </c>
       <c r="AC37" s="21">
-        <v>6451</v>
+        <v>47532</v>
       </c>
       <c r="AD37" s="21">
         <f t="shared" si="7"/>
-        <v>16157</v>
+        <v>6025</v>
       </c>
       <c r="AE37" s="11">
-        <f t="shared" si="8"/>
-        <v>0.14046171925346543</v>
+        <f t="shared" ref="AE37" si="54">Z37/H37</f>
+        <v>0.15148771021992238</v>
       </c>
       <c r="AF37" s="11">
-        <f t="shared" si="9"/>
-        <v>2.0002779918876914E-2</v>
+        <f t="shared" ref="AF37" si="55">AA37/H37</f>
+        <v>6.4974126778783961E-2</v>
       </c>
       <c r="AG37" s="11">
-        <f t="shared" si="10"/>
-        <v>0.12521007341513035</v>
+        <f t="shared" ref="AG37" si="56">AB37/H37</f>
+        <v>0.36090987494609744</v>
       </c>
       <c r="AH37" s="11">
-        <f t="shared" si="11"/>
-        <v>8.1514803068019559E-2</v>
+        <f t="shared" ref="AH37" si="57">AC37/H37</f>
+        <v>0.51241914618369988</v>
       </c>
       <c r="AI37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.20415976951945311</v>
+        <f t="shared" ref="AI37" si="58">AD37/H37</f>
+        <v>6.495256576110392E-2</v>
       </c>
       <c r="AJ37" s="11">
         <f t="shared" si="30"/>
-        <v>0.35606857708733058</v>
+        <v>1.7817427385892117</v>
       </c>
       <c r="AK37" s="11">
         <f t="shared" si="13"/>
-        <v>0.63574095851127477</v>
+        <v>1.0065283540802212</v>
       </c>
       <c r="AL37" s="27"/>
       <c r="AM37" s="21"/>
@@ -7071,252 +7075,307 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR37" s="11"/>
-    </row>
-    <row r="38" spans="1:45" hidden="1">
+      <c r="AS37" s="20"/>
+    </row>
+    <row r="38" spans="1:45">
       <c r="A38" s="6" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D38" s="21">
+        <v>120492</v>
+      </c>
+      <c r="E38" s="21">
+        <v>17725</v>
+      </c>
+      <c r="F38" s="21">
+        <f>6986+39837</f>
+        <v>46823</v>
+      </c>
+      <c r="G38" s="21">
+        <v>164</v>
+      </c>
+      <c r="H38" s="21">
+        <v>79139</v>
+      </c>
+      <c r="I38" s="21">
+        <v>36227</v>
+      </c>
+      <c r="J38" s="21">
+        <v>5753</v>
+      </c>
+      <c r="K38" s="21">
+        <v>11872</v>
+      </c>
+      <c r="L38" s="21">
+        <v>13190</v>
+      </c>
+      <c r="M38" s="21">
+        <f t="shared" si="0"/>
+        <v>10271.666666666666</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O38" s="21">
+        <v>145410</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" si="42"/>
+        <v>14.156417329222782</v>
+      </c>
+      <c r="Q38" s="23">
+        <f t="shared" si="2"/>
+        <v>0.85289479799488765</v>
+      </c>
+      <c r="R38" s="23">
+        <f t="shared" si="43"/>
+        <v>0.38859841317265875</v>
+      </c>
+      <c r="S38" s="23">
+        <f t="shared" si="44"/>
+        <v>0.45562291397043797</v>
+      </c>
+      <c r="T38" s="23">
+        <f t="shared" si="36"/>
+        <v>0.45776418706326844</v>
+      </c>
+      <c r="U38" s="23">
+        <f t="shared" si="37"/>
+        <v>0.12979272756373805</v>
+      </c>
+      <c r="V38" s="23">
+        <f t="shared" si="5"/>
+        <v>0.65679879162102051</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="6"/>
+        <v>6.7978561354019744</v>
+      </c>
+      <c r="X38" s="23">
+        <f t="shared" si="33"/>
+        <v>0.57950164551010808</v>
+      </c>
+      <c r="Y38" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z38" s="21">
+        <v>11116</v>
+      </c>
+      <c r="AA38" s="21">
+        <v>1583</v>
+      </c>
+      <c r="AB38" s="21">
+        <v>9909</v>
+      </c>
+      <c r="AC38" s="21">
+        <v>6451</v>
+      </c>
+      <c r="AD38" s="21">
+        <f t="shared" si="7"/>
+        <v>16157</v>
+      </c>
+      <c r="AE38" s="11">
+        <f t="shared" si="8"/>
+        <v>0.14046171925346543</v>
+      </c>
+      <c r="AF38" s="11">
+        <f t="shared" si="9"/>
+        <v>2.0002779918876914E-2</v>
+      </c>
+      <c r="AG38" s="11">
+        <f t="shared" si="10"/>
+        <v>0.12521007341513035</v>
+      </c>
+      <c r="AH38" s="11">
+        <f t="shared" si="11"/>
+        <v>8.1514803068019559E-2</v>
+      </c>
+      <c r="AI38" s="11">
+        <f t="shared" si="12"/>
+        <v>0.20415976951945311</v>
+      </c>
+      <c r="AJ38" s="11">
+        <f t="shared" si="30"/>
+        <v>0.35606857708733058</v>
+      </c>
+      <c r="AK38" s="11">
+        <f t="shared" si="13"/>
+        <v>0.63574095851127477</v>
+      </c>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="11" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ38" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR38" s="11"/>
+    </row>
+    <row r="39" spans="1:45">
+      <c r="A39" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="21">
         <v>61604</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E39" s="21">
         <v>23505</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F39" s="21">
         <f>3850+10182</f>
         <v>14032</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G39" s="21">
         <v>265</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H39" s="21">
         <v>28871</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I39" s="21">
         <v>625</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J39" s="21">
         <v>344</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K39" s="21">
         <v>3161</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L39" s="21">
         <v>2461</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M39" s="21">
         <f t="shared" si="0"/>
         <v>1988.6666666666667</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O39" s="21">
         <v>25939</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P39" s="8">
         <f t="shared" si="42"/>
         <v>13.043412671806905</v>
       </c>
-      <c r="Q38" s="23">
+      <c r="Q39" s="23">
         <f t="shared" si="2"/>
         <v>0.61845010064281536</v>
       </c>
-      <c r="R38" s="23">
+      <c r="R39" s="23">
         <f t="shared" si="43"/>
         <v>0.22777741705084084</v>
       </c>
-      <c r="S38" s="23">
+      <c r="S39" s="23">
         <f t="shared" si="44"/>
         <v>0.36830363001653588</v>
       </c>
-      <c r="T38" s="23">
+      <c r="T39" s="23">
         <f t="shared" si="36"/>
         <v>2.1648020505005021E-2</v>
       </c>
-      <c r="U38" s="23">
+      <c r="U39" s="23">
         <f t="shared" si="37"/>
         <v>6.8881114844191987E-2</v>
       </c>
-      <c r="V38" s="23">
+      <c r="V39" s="23">
         <f t="shared" si="5"/>
         <v>0.46865463281605091</v>
       </c>
-      <c r="W38" s="8">
+      <c r="W39" s="8">
         <f t="shared" si="6"/>
         <v>2.620889172516486</v>
       </c>
-      <c r="X38" s="23">
+      <c r="X39" s="23">
         <f t="shared" si="33"/>
         <v>8.4606112174714601E-2</v>
       </c>
-      <c r="Y38" s="24" t="s">
+      <c r="Y39" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z38" s="21">
+      <c r="Z39" s="21">
         <v>6296</v>
       </c>
-      <c r="AA38" s="21">
+      <c r="AA39" s="21">
         <v>2315</v>
       </c>
-      <c r="AB38" s="21">
+      <c r="AB39" s="21">
         <v>3073</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AC39" s="2">
         <v>6072</v>
       </c>
-      <c r="AD38" s="21">
+      <c r="AD39" s="21">
         <f t="shared" si="7"/>
         <v>5612</v>
       </c>
-      <c r="AE38" s="11">
+      <c r="AE39" s="11">
         <f t="shared" si="8"/>
         <v>0.2180734993592186</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF39" s="11">
         <f t="shared" si="9"/>
         <v>8.018426795053861E-2</v>
       </c>
-      <c r="AG38" s="11">
+      <c r="AG39" s="11">
         <f t="shared" si="10"/>
         <v>0.1064389872190087</v>
       </c>
-      <c r="AH38" s="11">
+      <c r="AH39" s="11">
         <f t="shared" si="11"/>
         <v>0.2103148488102248</v>
       </c>
-      <c r="AI38" s="11">
+      <c r="AI39" s="11">
         <f t="shared" si="12"/>
         <v>0.19438190571854111</v>
       </c>
-      <c r="AJ38" s="11">
+      <c r="AJ39" s="11">
         <f t="shared" si="30"/>
         <v>6.1297220242337851E-2</v>
       </c>
-      <c r="AK38" s="11">
+      <c r="AK39" s="11">
         <f t="shared" si="13"/>
         <v>0.35435970539320505</v>
       </c>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="21">
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="21">
         <v>21444</v>
       </c>
-      <c r="AN38" s="21">
+      <c r="AN39" s="21">
         <v>18924</v>
       </c>
-      <c r="AO38" s="21">
+      <c r="AO39" s="21">
         <f t="shared" si="28"/>
         <v>2520</v>
       </c>
-      <c r="AP38" s="11">
-        <f>AM38/AN38</f>
+      <c r="AP39" s="11">
+        <f>AM39/AN39</f>
         <v>1.1331642358909322</v>
       </c>
-      <c r="AQ38" s="11">
+      <c r="AQ39" s="11">
         <f t="shared" si="31"/>
         <v>1.0108328049038258</v>
       </c>
-      <c r="AR38" s="11"/>
-    </row>
-    <row r="39" spans="1:45">
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="8" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="23" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S39" s="23" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="23" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X39" s="23" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y39" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF39" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG39" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH39" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI39" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ39" s="11" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK39" s="11" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL39" s="27"/>
-      <c r="AO39" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="AR39" s="11"/>
     </row>
     <row r="40" spans="1:45">
       <c r="D40" s="21"/>
@@ -7374,7 +7433,10 @@
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="2"/>
-      <c r="AD40" s="21"/>
+      <c r="AD40" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AE40" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -7537,8 +7599,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
+      <c r="V42" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W42" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X42" s="23" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
@@ -7548,16 +7616,37 @@
       </c>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
-      <c r="AB42" s="2"/>
+      <c r="AB42" s="21"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="21"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="11"/>
+      <c r="AE42" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF42" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG42" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH42" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI42" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ42" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK42" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AL42" s="27"/>
       <c r="AO42" s="21">
         <f t="shared" si="28"/>
@@ -7584,22 +7673,49 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
+      <c r="Q43" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="23" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="23" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="23" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y43" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
       <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="27"/>
+      <c r="AO43" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:45">
       <c r="D44" s="21"/>
@@ -7617,7 +7733,10 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="8"/>
+      <c r="P44" s="8" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
       <c r="Y44" s="24" t="s">
@@ -7679,13 +7798,29 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
+      <c r="M46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
+      <c r="Y46" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
     </row>
     <row r="47" spans="1:45">
       <c r="D47" s="21"/>
@@ -7723,7 +7858,7 @@
       <c r="R48" s="23"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="4:18">
+    <row r="49" spans="4:30">
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
@@ -7737,10 +7872,11 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-    </row>
-    <row r="50" spans="4:18">
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="AD49" s="21"/>
+    </row>
+    <row r="50" spans="4:30">
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -7757,24 +7893,24 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="4:18">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="8"/>
+    <row r="51" spans="4:30">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="4:18">
+    <row r="52" spans="4:30">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -7791,7 +7927,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="4:18">
+    <row r="53" spans="4:30">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -7808,7 +7944,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="4:18">
+    <row r="54" spans="4:30">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -7825,7 +7961,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="4:18">
+    <row r="55" spans="4:30">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -7842,7 +7978,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="4:18">
+    <row r="56" spans="4:30">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -7859,7 +7995,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="4:18">
+    <row r="57" spans="4:30">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -7876,7 +8012,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="4:18">
+    <row r="58" spans="4:30">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -7893,7 +8029,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="4:18">
+    <row r="59" spans="4:30">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -7910,7 +8046,7 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="4:18">
+    <row r="60" spans="4:30">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -7927,7 +8063,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="61" spans="4:18">
+    <row r="61" spans="4:30">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -7944,7 +8080,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
     </row>
-    <row r="62" spans="4:18">
+    <row r="62" spans="4:30">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -7961,7 +8097,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
-    <row r="63" spans="4:18">
+    <row r="63" spans="4:30">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -7978,7 +8114,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
-    <row r="64" spans="4:18">
+    <row r="64" spans="4:30">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -8029,26 +8165,26 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
+    <row r="67" spans="4:18">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AU45">
-    <filterColumn colId="23">
-      <filters blank="1">
-        <filter val="#DIV/0!"/>
-        <filter val="15%"/>
-        <filter val="16%"/>
-        <filter val="17%"/>
-        <filter val="18%"/>
-        <filter val="19%"/>
-        <filter val="20%"/>
-        <filter val="22%"/>
-        <filter val="26%"/>
-        <filter val="29%"/>
-        <filter val="30%"/>
-        <filter val="58%"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <autoFilter ref="A1:AU46"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10236,7 +10372,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12006,7 +12142,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12021,7 +12157,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12036,7 +12172,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00101现金流1'!$A$1:$J$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'00102现金流2'!$A$1:$J$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dict!$A$1:$AU$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dict!$A$1:$AU$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="278">
   <si>
     <t>Account</t>
   </si>
@@ -469,147 +469,147 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -625,15 +625,15 @@
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>双汇发展</t>
@@ -703,23 +703,23 @@
   </si>
   <si>
     <t>平均ROE</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>固定资产</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>存货</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>应付账款</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>已用资本</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,7 +735,7 @@
       </rPr>
       <t>%;ROE9%;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -751,19 +751,19 @@
       </rPr>
       <t>40%;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>应收账款</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零；已用资本-营收比125%;毛利率:40%;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -779,11 +779,11 @@
       </rPr>
       <t>-营收比168%;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -799,7 +799,7 @@
       </rPr>
       <t>5%;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -825,7 +825,7 @@
       </rPr>
       <t>与双汇相当;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -841,7 +841,7 @@
       </rPr>
       <t>209%;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -858,7 +858,7 @@
       </rPr>
       <t>%,是否能够覆盖资金成本?</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,7 +875,7 @@
       </rPr>
       <t>%;资金成本?</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -891,19 +891,19 @@
       </rPr>
       <t>RTOCE6%,与川投能源差距很大;</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>债券用途;为何已用资本收益率如此之高209%;已用资本营收比如此之低6%?</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A000651</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>格力电器</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -920,47 +920,47 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>投入1元带来营收873元,带来收益113元,</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A000333</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美的集团</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>固定资产/营收</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>存货/营收</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>应收/营收</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>已用资本/营收</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>已用资本收益率</t>
@@ -985,11 +985,11 @@
   </si>
   <si>
     <t>A601390</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>中国中铁</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1006,23 +1006,23 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A601857</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>中国石油</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A601986</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>中国核电</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A002507</t>
@@ -1086,18 +1086,44 @@
   </si>
   <si>
     <t>威龙股份</t>
+  </si>
+  <si>
+    <t>A600543</t>
+  </si>
+  <si>
+    <t>莫高股份</t>
+  </si>
+  <si>
+    <t>A601336</t>
+  </si>
+  <si>
+    <t>新华保险</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1287,63 +1313,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1623,13 +1651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU67"/>
+  <dimension ref="A1:AU69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK35" sqref="AK35"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,7 +1862,7 @@
         <v>19100</v>
       </c>
       <c r="M2" s="21">
-        <f t="shared" ref="M2:M46" si="0">(J2+K2+L2)/3</f>
+        <f t="shared" ref="M2:M48" si="0">(J2+K2+L2)/3</f>
         <v>21566.666666666668</v>
       </c>
       <c r="N2" s="2"/>
@@ -1842,19 +1870,19 @@
         <v>186800</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P25" si="1">O2/M2</f>
+        <f t="shared" ref="P2:P26" si="1">O2/M2</f>
         <v>8.6615146831530136</v>
       </c>
       <c r="Q2" s="23">
-        <f t="shared" ref="Q2:Q43" si="2">(D2-E2)/D2</f>
+        <f t="shared" ref="Q2:Q45" si="2">(D2-E2)/D2</f>
         <v>0.93165866272626519</v>
       </c>
       <c r="R2" s="23">
-        <f t="shared" ref="R2:R28" si="3">F2/D2</f>
+        <f t="shared" ref="R2:R30" si="3">F2/D2</f>
         <v>0</v>
       </c>
       <c r="S2" s="23">
-        <f t="shared" ref="S2:S28" si="4">F2/(D2-E2)</f>
+        <f t="shared" ref="S2:S30" si="4">F2/(D2-E2)</f>
         <v>0</v>
       </c>
       <c r="T2" s="23">
@@ -1866,11 +1894,11 @@
         <v>0.20403658152002524</v>
       </c>
       <c r="V2" s="23">
-        <f t="shared" ref="V2:V42" si="5">H2/D2</f>
+        <f t="shared" ref="V2:V44" si="5">H2/D2</f>
         <v>3.253909617042236E-2</v>
       </c>
       <c r="W2" s="8">
-        <f t="shared" ref="W2:W42" si="6">D2/E2</f>
+        <f t="shared" ref="W2:W44" si="6">D2/E2</f>
         <v>14.632432432432433</v>
       </c>
       <c r="X2" s="23">
@@ -1887,27 +1915,27 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21">
-        <f t="shared" ref="AD2:AD40" si="7">Z2+AA2+AB2-AC2</f>
+        <f t="shared" ref="AD2:AD42" si="7">Z2+AA2+AB2-AC2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="11">
-        <f t="shared" ref="AE2:AE42" si="8">Z2/H2</f>
+        <f t="shared" ref="AE2:AE44" si="8">Z2/H2</f>
         <v>0</v>
       </c>
       <c r="AF2" s="11">
-        <f t="shared" ref="AF2:AF42" si="9">AA2/H2</f>
+        <f t="shared" ref="AF2:AF44" si="9">AA2/H2</f>
         <v>0</v>
       </c>
       <c r="AG2" s="11">
-        <f t="shared" ref="AG2:AG42" si="10">AB2/H2</f>
+        <f t="shared" ref="AG2:AG44" si="10">AB2/H2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="11">
-        <f t="shared" ref="AH2:AH42" si="11">AC2/H2</f>
+        <f t="shared" ref="AH2:AH44" si="11">AC2/H2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="11">
-        <f t="shared" ref="AI2:AI42" si="12">AD2/H2</f>
+        <f t="shared" ref="AI2:AI44" si="12">AD2/H2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="11" t="e">
@@ -1915,7 +1943,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" s="11" t="e">
-        <f t="shared" ref="AK2:AK42" si="13">M2/AD2</f>
+        <f t="shared" ref="AK2:AK44" si="13">M2/AD2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" s="27"/>
@@ -2072,7 +2100,7 @@
         <v>579998</v>
       </c>
       <c r="AO3" s="21">
-        <f t="shared" ref="AO3:AO43" si="28">AM3-AN3</f>
+        <f t="shared" ref="AO3:AO45" si="28">AM3-AN3</f>
         <v>141297</v>
       </c>
       <c r="AP3" s="11">
@@ -2208,7 +2236,7 @@
         <v>0.14302569045166008</v>
       </c>
       <c r="AJ4" s="11">
-        <f t="shared" ref="AJ4:AJ42" si="30">J4/AD4</f>
+        <f t="shared" ref="AJ4:AJ44" si="30">J4/AD4</f>
         <v>0.54057743696990823</v>
       </c>
       <c r="AK4" s="11">
@@ -2231,7 +2259,7 @@
         <v>1.4258844077218262</v>
       </c>
       <c r="AQ4" s="11">
-        <f t="shared" ref="AQ4:AQ39" si="31">(AM4-AA4)/AN4</f>
+        <f t="shared" ref="AQ4:AQ41" si="31">(AM4-AA4)/AN4</f>
         <v>1.1786449017977849</v>
       </c>
       <c r="AR4" s="11"/>
@@ -2316,7 +2344,7 @@
         <v>3.3676731793960926</v>
       </c>
       <c r="X5" s="23">
-        <f t="shared" ref="X5:X43" si="33">M5/E5</f>
+        <f t="shared" ref="X5:X45" si="33">M5/E5</f>
         <v>8.7033747779751328E-2</v>
       </c>
       <c r="Y5" s="24" t="s">
@@ -2602,11 +2630,11 @@
         <v>0</v>
       </c>
       <c r="T7" s="23">
-        <f t="shared" ref="T7:T43" si="36">I7/H7</f>
+        <f t="shared" ref="T7:T45" si="36">I7/H7</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="U7" s="23">
-        <f t="shared" ref="U7:U39" si="37">M7/H7</f>
+        <f t="shared" ref="U7:U41" si="37">M7/H7</f>
         <v>0.21317460317460318</v>
       </c>
       <c r="V7" s="23">
@@ -2698,127 +2726,127 @@
       <c r="B8" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>198</v>
+      <c r="C8" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="D8" s="21">
-        <v>11528</v>
+        <v>12536</v>
       </c>
       <c r="E8" s="21">
-        <v>8399</v>
+        <v>9177</v>
       </c>
       <c r="F8" s="21">
-        <f>662+71+49</f>
-        <v>782</v>
+        <f>714+110+156</f>
+        <v>980</v>
       </c>
       <c r="G8" s="21">
-        <v>21.9</v>
+        <v>18</v>
       </c>
       <c r="H8" s="21">
-        <v>4717</v>
+        <v>4932</v>
       </c>
       <c r="I8" s="21">
-        <v>1283</v>
+        <v>1356</v>
       </c>
       <c r="J8" s="21">
+        <v>1033</v>
+      </c>
+      <c r="K8" s="21">
         <v>980</v>
       </c>
-      <c r="K8" s="21">
+      <c r="L8" s="21">
         <v>1030</v>
-      </c>
-      <c r="L8" s="21">
-        <v>977</v>
       </c>
       <c r="M8" s="21">
         <f t="shared" si="0"/>
-        <v>995.66666666666663</v>
+        <v>1014.3333333333334</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>187</v>
       </c>
       <c r="O8" s="21">
-        <v>26130</v>
+        <v>25527</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="1"/>
-        <v>26.243722798794778</v>
+        <v>25.166283273085771</v>
       </c>
       <c r="Q8" s="23">
         <f t="shared" si="2"/>
-        <v>0.27142609299097847</v>
+        <v>0.26794830887045312</v>
       </c>
       <c r="R8" s="23">
         <f t="shared" si="3"/>
-        <v>6.7834836918806388E-2</v>
+        <v>7.8174856413529031E-2</v>
       </c>
       <c r="S8" s="23">
         <f t="shared" si="4"/>
-        <v>0.24992010226909556</v>
+        <v>0.29175349806490025</v>
       </c>
       <c r="T8" s="23">
         <f t="shared" si="36"/>
-        <v>0.27199491202035192</v>
+        <v>0.27493917274939172</v>
       </c>
       <c r="U8" s="23">
         <f t="shared" si="37"/>
-        <v>0.21108048901137727</v>
+        <v>0.20566369288997027</v>
       </c>
       <c r="V8" s="23">
         <f t="shared" si="5"/>
-        <v>0.40917765440666204</v>
+        <v>0.39342693044033183</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="6"/>
-        <v>1.3725443505179189</v>
+        <v>1.3660237550397734</v>
       </c>
       <c r="X8" s="23">
         <f t="shared" si="33"/>
-        <v>0.11854585863396436</v>
+        <v>0.11052994805855218</v>
       </c>
       <c r="Y8" s="24"/>
       <c r="Z8" s="21">
-        <v>4683</v>
+        <v>5329</v>
       </c>
       <c r="AA8" s="21">
-        <v>2248</v>
+        <v>2473</v>
       </c>
       <c r="AB8" s="21">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="AC8" s="21">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="AD8" s="21">
         <f t="shared" si="7"/>
-        <v>6559</v>
+        <v>7401</v>
       </c>
       <c r="AE8" s="11">
         <f t="shared" si="8"/>
-        <v>0.99279202883188467</v>
+        <v>1.0804947283049473</v>
       </c>
       <c r="AF8" s="11">
         <f t="shared" si="9"/>
-        <v>0.47657409370362519</v>
+        <v>0.50141930251419298</v>
       </c>
       <c r="AG8" s="11">
         <f t="shared" si="10"/>
-        <v>3.6675853296586812E-2</v>
+        <v>5.3325223033252232E-2</v>
       </c>
       <c r="AH8" s="11">
         <f t="shared" si="11"/>
-        <v>0.11553953784184863</v>
+        <v>0.13463098134630982</v>
       </c>
       <c r="AI8" s="11">
         <f t="shared" si="12"/>
-        <v>1.390502437990248</v>
+        <v>1.5006082725060828</v>
       </c>
       <c r="AJ8" s="11">
-        <f t="shared" si="30"/>
-        <v>0.14941302027748132</v>
+        <f>K8/AD8</f>
+        <v>0.13241453857586813</v>
       </c>
       <c r="AK8" s="11">
         <f t="shared" si="13"/>
-        <v>0.15180159577171315</v>
+        <v>0.13705355132189345</v>
       </c>
       <c r="AL8" s="27"/>
       <c r="AM8" s="21"/>
@@ -4444,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="11" t="e">
-        <f t="shared" ref="AP19:AP38" si="41">AM19/AN19</f>
+        <f t="shared" ref="AP19:AP40" si="41">AM19/AN19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ19" s="11" t="e">
@@ -4751,441 +4779,436 @@
       <c r="AS21" s="20"/>
       <c r="AT21" s="6"/>
     </row>
-    <row r="22" spans="1:47" ht="45">
+    <row r="22" spans="1:47">
       <c r="A22" s="6" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>198</v>
       </c>
       <c r="D22" s="21">
-        <v>100000</v>
+        <v>1310</v>
       </c>
       <c r="E22" s="21">
-        <v>46000</v>
+        <v>1107</v>
       </c>
       <c r="F22" s="21">
-        <v>2100</v>
+        <v>36</v>
       </c>
       <c r="G22" s="21">
-        <v>-300</v>
+        <v>-1.7</v>
       </c>
       <c r="H22" s="21">
-        <v>78500</v>
+        <v>211</v>
       </c>
       <c r="I22" s="21">
-        <v>9400</v>
+        <v>24.9</v>
       </c>
       <c r="J22" s="21">
-        <v>10200</v>
+        <v>18</v>
       </c>
       <c r="K22" s="21">
-        <v>9900</v>
+        <v>18</v>
       </c>
       <c r="L22" s="21">
-        <v>7500</v>
+        <v>17</v>
       </c>
       <c r="M22" s="21">
-        <f>(J22+K22+L22)/3</f>
-        <v>9200</v>
+        <f t="shared" si="0"/>
+        <v>17.666666666666668</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O22" s="21">
-        <v>53000</v>
+        <v>2733</v>
       </c>
       <c r="P22" s="8">
-        <f>O22/M22</f>
-        <v>5.7608695652173916</v>
+        <f t="shared" si="1"/>
+        <v>154.69811320754715</v>
       </c>
       <c r="Q22" s="23">
-        <f>(D22-E22)/D22</f>
-        <v>0.54</v>
+        <f t="shared" si="2"/>
+        <v>0.1549618320610687</v>
       </c>
       <c r="R22" s="23">
-        <f>F22/D22</f>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" ref="R22" si="42">F22/D22</f>
+        <v>2.748091603053435E-2</v>
       </c>
       <c r="S22" s="23">
-        <f>F22/(D22-E22)</f>
-        <v>3.888888888888889E-2</v>
+        <f t="shared" ref="S22" si="43">F22/(D22-E22)</f>
+        <v>0.17733990147783252</v>
       </c>
       <c r="T22" s="23">
-        <f>I22/H22</f>
-        <v>0.11974522292993631</v>
+        <f t="shared" si="36"/>
+        <v>0.11800947867298578</v>
       </c>
       <c r="U22" s="23">
-        <f>M22/H22</f>
-        <v>0.11719745222929936</v>
+        <f t="shared" si="37"/>
+        <v>8.3728278041074258E-2</v>
       </c>
       <c r="V22" s="23">
-        <f>H22/D22</f>
-        <v>0.78500000000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.16106870229007633</v>
       </c>
       <c r="W22" s="8">
-        <f>D22/E22</f>
-        <v>2.1739130434782608</v>
+        <f t="shared" si="6"/>
+        <v>1.1833785004516713</v>
       </c>
       <c r="X22" s="23">
-        <f>M22/E22</f>
-        <v>0.2</v>
-      </c>
-      <c r="Y22" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>1.5959048479373683E-2</v>
+      </c>
+      <c r="Y22" s="24"/>
       <c r="Z22" s="21">
-        <v>15480</v>
+        <v>551</v>
       </c>
       <c r="AA22" s="21">
-        <v>7304</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="21">
-        <v>1498</v>
+        <v>11</v>
       </c>
       <c r="AC22" s="21">
-        <v>19880</v>
+        <v>61</v>
       </c>
       <c r="AD22" s="21">
-        <f>Z22+AA22+AB22-AC22</f>
-        <v>4402</v>
+        <f t="shared" si="7"/>
+        <v>601</v>
       </c>
       <c r="AE22" s="11">
-        <f>Z22/H22</f>
-        <v>0.19719745222929935</v>
+        <f t="shared" ref="AE22" si="44">Z22/H22</f>
+        <v>2.6113744075829386</v>
       </c>
       <c r="AF22" s="11">
-        <f>AA22/H22</f>
-        <v>9.3044585987261147E-2</v>
+        <f t="shared" ref="AF22" si="45">AA22/H22</f>
+        <v>0.47393364928909953</v>
       </c>
       <c r="AG22" s="11">
-        <f>AB22/H22</f>
-        <v>1.90828025477707E-2</v>
+        <f t="shared" ref="AG22" si="46">AB22/H22</f>
+        <v>5.2132701421800945E-2</v>
       </c>
       <c r="AH22" s="11">
-        <f>AC22/H22</f>
-        <v>0.25324840764331208</v>
+        <f t="shared" ref="AH22" si="47">AC22/H22</f>
+        <v>0.2890995260663507</v>
       </c>
       <c r="AI22" s="11">
-        <f>AD22/H22</f>
-        <v>5.6076433121019106E-2</v>
+        <f t="shared" ref="AI22" si="48">AD22/H22</f>
+        <v>2.8483412322274884</v>
       </c>
       <c r="AJ22" s="11">
-        <f>J22/AD22</f>
-        <v>2.3171285779191275</v>
+        <f t="shared" ref="AJ22" si="49">J22/AD22</f>
+        <v>2.9950083194675542E-2</v>
       </c>
       <c r="AK22" s="11">
-        <f>M22/AD22</f>
-        <v>2.089959109495684</v>
+        <f t="shared" ref="AK22" si="50">M22/AD22</f>
+        <v>2.9395452024403773E-2</v>
       </c>
       <c r="AL22" s="27"/>
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
-      <c r="AO22" s="21">
-        <f>AM22-AN22</f>
-        <v>0</v>
-      </c>
-      <c r="AP22" s="11" t="e">
-        <f>AM22/AN22</f>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ22" s="11" t="e">
-        <f>(AM22-AA22)/AN22</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR22" s="11"/>
-      <c r="AS22" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT22" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47">
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="6"/>
+    </row>
+    <row r="23" spans="1:47" ht="45">
       <c r="A23" s="6" t="s">
-        <v>270</v>
+        <v>118</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>186</v>
+        <v>135</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="D23" s="21">
-        <v>31704</v>
+        <v>100000</v>
       </c>
       <c r="E23" s="21">
-        <v>19005</v>
+        <v>46000</v>
       </c>
       <c r="F23" s="21">
-        <f>5379+8+1711+798</f>
-        <v>7896</v>
+        <v>2100</v>
       </c>
       <c r="G23" s="21">
-        <v>418</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="21">
-        <v>18715</v>
+        <v>78500</v>
       </c>
       <c r="I23" s="21">
-        <v>3669</v>
+        <v>9400</v>
       </c>
       <c r="J23" s="21">
-        <v>3148</v>
+        <v>10200</v>
       </c>
       <c r="K23" s="21">
-        <v>3142</v>
+        <v>9900</v>
       </c>
       <c r="L23" s="21">
-        <v>2607</v>
+        <v>7500</v>
       </c>
       <c r="M23" s="21">
         <f>(J23+K23+L23)/3</f>
-        <v>2965.6666666666665</v>
+        <v>9200</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="O23" s="21">
-        <v>60984</v>
+        <v>53000</v>
       </c>
       <c r="P23" s="8">
         <f>O23/M23</f>
-        <v>20.563335955940207</v>
+        <v>5.7608695652173916</v>
       </c>
       <c r="Q23" s="23">
         <f>(D23-E23)/D23</f>
-        <v>0.40054882664647995</v>
+        <v>0.54</v>
       </c>
       <c r="R23" s="23">
         <f>F23/D23</f>
-        <v>0.24905374716124148</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="S23" s="23">
         <f>F23/(D23-E23)</f>
-        <v>0.62178124261752898</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="T23" s="23">
         <f>I23/H23</f>
-        <v>0.19604595244456319</v>
+        <v>0.11974522292993631</v>
       </c>
       <c r="U23" s="23">
         <f>M23/H23</f>
-        <v>0.15846468964288893</v>
+        <v>0.11719745222929936</v>
       </c>
       <c r="V23" s="23">
         <f>H23/D23</f>
-        <v>0.59030406257885437</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="W23" s="8">
         <f>D23/E23</f>
-        <v>1.6681925808997633</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="X23" s="23">
         <f>M23/E23</f>
-        <v>0.15604665438919582</v>
-      </c>
-      <c r="Y23" s="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y23" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="Z23" s="21">
-        <v>11151</v>
+        <v>15480</v>
       </c>
       <c r="AA23" s="21">
-        <v>2974</v>
+        <v>7304</v>
       </c>
       <c r="AB23" s="21">
-        <v>3716</v>
+        <v>1498</v>
       </c>
       <c r="AC23" s="21">
-        <v>1423</v>
+        <v>19880</v>
       </c>
       <c r="AD23" s="21">
         <f>Z23+AA23+AB23-AC23</f>
-        <v>16418</v>
+        <v>4402</v>
       </c>
       <c r="AE23" s="11">
         <f>Z23/H23</f>
-        <v>0.59583222014426929</v>
+        <v>0.19719745222929935</v>
       </c>
       <c r="AF23" s="11">
         <f>AA23/H23</f>
-        <v>0.15890996526850121</v>
+        <v>9.3044585987261147E-2</v>
       </c>
       <c r="AG23" s="11">
         <f>AB23/H23</f>
-        <v>0.1985573069730163</v>
+        <v>1.90828025477707E-2</v>
       </c>
       <c r="AH23" s="11">
         <f>AC23/H23</f>
-        <v>7.603526582954849E-2</v>
+        <v>0.25324840764331208</v>
       </c>
       <c r="AI23" s="11">
         <f>AD23/H23</f>
-        <v>0.87726422655623826</v>
+        <v>5.6076433121019106E-2</v>
       </c>
       <c r="AJ23" s="11">
         <f>J23/AD23</f>
-        <v>0.19174077232306005</v>
+        <v>2.3171285779191275</v>
       </c>
       <c r="AK23" s="11">
         <f>M23/AD23</f>
-        <v>0.18063507532383155</v>
+        <v>2.089959109495684</v>
       </c>
       <c r="AL23" s="27"/>
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="11"/>
+      <c r="AO23" s="21">
+        <f>AM23-AN23</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="11" t="e">
+        <f>AM23/AN23</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AQ23" s="11" t="e">
         <f>(AM23-AA23)/AN23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR23" s="11"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="6"/>
+      <c r="AS23" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT23" s="6" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="24" spans="1:47">
       <c r="A24" s="6" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>186</v>
       </c>
       <c r="D24" s="21">
-        <v>13699</v>
+        <v>31704</v>
       </c>
       <c r="E24" s="21">
-        <v>7481</v>
+        <v>19005</v>
       </c>
       <c r="F24" s="21">
-        <f>114+99+48</f>
-        <v>261</v>
+        <f>5379+8+1711+798</f>
+        <v>7896</v>
       </c>
       <c r="G24" s="21">
-        <v>-49.6</v>
+        <v>418</v>
       </c>
       <c r="H24" s="21">
-        <v>12017</v>
+        <v>18715</v>
       </c>
       <c r="I24" s="21">
-        <v>655.9</v>
+        <v>3669</v>
       </c>
       <c r="J24" s="21">
-        <v>464</v>
+        <v>3148</v>
       </c>
       <c r="K24" s="21">
-        <v>843.7</v>
+        <v>3142</v>
       </c>
       <c r="L24" s="21">
-        <v>614</v>
+        <v>2607</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="0"/>
-        <v>640.56666666666672</v>
-      </c>
-      <c r="N24" s="2"/>
+        <f>(J24+K24+L24)/3</f>
+        <v>2965.6666666666665</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="O24" s="21">
-        <v>13336</v>
+        <v>60984</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="1"/>
-        <v>20.819066451579328</v>
+        <f>O24/M24</f>
+        <v>20.563335955940207</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" si="2"/>
-        <v>0.45390174465289435</v>
+        <f>(D24-E24)/D24</f>
+        <v>0.40054882664647995</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="3"/>
-        <v>1.9052485582889262E-2</v>
+        <f>F24/D24</f>
+        <v>0.24905374716124148</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="4"/>
-        <v>4.1974911547121262E-2</v>
+        <f>F24/(D24-E24)</f>
+        <v>0.62178124261752898</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="36"/>
-        <v>5.4581010235499709E-2</v>
+        <f>I24/H24</f>
+        <v>0.19604595244456319</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="37"/>
-        <v>5.330504008210591E-2</v>
+        <f>M24/H24</f>
+        <v>0.15846468964288893</v>
       </c>
       <c r="V24" s="23">
-        <f t="shared" si="5"/>
-        <v>0.87721731513249146</v>
+        <f>H24/D24</f>
+        <v>0.59030406257885437</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="6"/>
-        <v>1.8311723031680256</v>
+        <f>D24/E24</f>
+        <v>1.6681925808997633</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="33"/>
-        <v>8.5625807601479309E-2</v>
+        <f>M24/E24</f>
+        <v>0.15604665438919582</v>
       </c>
       <c r="Y24" s="24"/>
       <c r="Z24" s="21">
-        <v>3655.5</v>
+        <v>11151</v>
       </c>
       <c r="AA24" s="21">
-        <v>1730.8</v>
+        <v>2974</v>
       </c>
       <c r="AB24" s="21">
-        <v>2901.8</v>
+        <v>3716</v>
       </c>
       <c r="AC24" s="21">
-        <v>2195</v>
+        <v>1423</v>
       </c>
       <c r="AD24" s="21">
-        <f t="shared" si="7"/>
-        <v>6093.1</v>
+        <f>Z24+AA24+AB24-AC24</f>
+        <v>16418</v>
       </c>
       <c r="AE24" s="11">
-        <f t="shared" si="8"/>
-        <v>0.30419405841724223</v>
+        <f>Z24/H24</f>
+        <v>0.59583222014426929</v>
       </c>
       <c r="AF24" s="11">
-        <f t="shared" si="9"/>
-        <v>0.14402929183656485</v>
+        <f>AA24/H24</f>
+        <v>0.15890996526850121</v>
       </c>
       <c r="AG24" s="11">
-        <f t="shared" si="10"/>
-        <v>0.24147457768161773</v>
+        <f>AB24/H24</f>
+        <v>0.1985573069730163</v>
       </c>
       <c r="AH24" s="11">
-        <f t="shared" si="11"/>
-        <v>0.18265790130648249</v>
+        <f>AC24/H24</f>
+        <v>7.603526582954849E-2</v>
       </c>
       <c r="AI24" s="11">
-        <f t="shared" si="12"/>
-        <v>0.50704002662894232</v>
+        <f>AD24/H24</f>
+        <v>0.87726422655623826</v>
       </c>
       <c r="AJ24" s="11">
-        <f t="shared" si="30"/>
-        <v>7.6151712592932991E-2</v>
+        <f>J24/AD24</f>
+        <v>0.19174077232306005</v>
       </c>
       <c r="AK24" s="11">
-        <f t="shared" si="13"/>
-        <v>0.10512984632890757</v>
+        <f>M24/AD24</f>
+        <v>0.18063507532383155</v>
       </c>
       <c r="AL24" s="27"/>
       <c r="AM24" s="21"/>
       <c r="AN24" s="21"/>
-      <c r="AO24" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AP24" s="11" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="11"/>
       <c r="AQ24" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f>(AM24-AA24)/AN24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR24" s="11"/>
@@ -5194,131 +5217,130 @@
     </row>
     <row r="25" spans="1:47">
       <c r="A25" s="6" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>181</v>
+        <v>256</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>186</v>
       </c>
       <c r="D25" s="21">
-        <v>26800</v>
+        <v>13699</v>
       </c>
       <c r="E25" s="21">
-        <v>20900</v>
+        <v>7481</v>
       </c>
       <c r="F25" s="21">
-        <v>4790</v>
+        <f>114+99+48</f>
+        <v>261</v>
       </c>
       <c r="G25" s="21">
-        <v>275</v>
+        <v>-49.6</v>
       </c>
       <c r="H25" s="21">
-        <v>1000</v>
+        <v>12017</v>
       </c>
       <c r="I25" s="21">
-        <v>3569</v>
+        <v>655.9</v>
       </c>
       <c r="J25" s="21">
-        <v>3550</v>
+        <v>464</v>
       </c>
       <c r="K25" s="21">
-        <v>3900</v>
+        <v>843.7</v>
       </c>
       <c r="L25" s="21">
-        <v>3500</v>
+        <v>614</v>
       </c>
       <c r="M25" s="21">
         <f t="shared" si="0"/>
-        <v>3650</v>
+        <v>640.56666666666672</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="21">
-        <v>39000</v>
+        <v>13336</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="1"/>
-        <v>10.684931506849315</v>
+        <v>20.819066451579328</v>
       </c>
       <c r="Q25" s="23">
         <f t="shared" si="2"/>
-        <v>0.22014925373134328</v>
+        <v>0.45390174465289435</v>
       </c>
       <c r="R25" s="23">
         <f t="shared" si="3"/>
-        <v>0.17873134328358209</v>
+        <v>1.9052485582889262E-2</v>
       </c>
       <c r="S25" s="23">
         <f t="shared" si="4"/>
-        <v>0.81186440677966099</v>
+        <v>4.1974911547121262E-2</v>
       </c>
       <c r="T25" s="23">
         <f t="shared" si="36"/>
-        <v>3.569</v>
+        <v>5.4581010235499709E-2</v>
       </c>
       <c r="U25" s="23">
         <f t="shared" si="37"/>
-        <v>3.65</v>
+        <v>5.330504008210591E-2</v>
       </c>
       <c r="V25" s="23">
         <f t="shared" si="5"/>
-        <v>3.7313432835820892E-2</v>
+        <v>0.87721731513249146</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="6"/>
-        <v>1.2822966507177034</v>
+        <v>1.8311723031680256</v>
       </c>
       <c r="X25" s="23">
         <f t="shared" si="33"/>
-        <v>0.17464114832535885</v>
-      </c>
-      <c r="Y25" s="24" t="s">
-        <v>237</v>
-      </c>
+        <v>8.5625807601479309E-2</v>
+      </c>
+      <c r="Y25" s="24"/>
       <c r="Z25" s="21">
-        <v>3482</v>
+        <v>3655.5</v>
       </c>
       <c r="AA25" s="21">
-        <v>59</v>
+        <v>1730.8</v>
       </c>
       <c r="AB25" s="21">
-        <v>364</v>
+        <v>2901.8</v>
       </c>
       <c r="AC25" s="21">
-        <v>173</v>
+        <v>2195</v>
       </c>
       <c r="AD25" s="21">
         <f t="shared" si="7"/>
-        <v>3732</v>
+        <v>6093.1</v>
       </c>
       <c r="AE25" s="11">
         <f t="shared" si="8"/>
-        <v>3.4820000000000002</v>
+        <v>0.30419405841724223</v>
       </c>
       <c r="AF25" s="11">
         <f t="shared" si="9"/>
-        <v>5.8999999999999997E-2</v>
+        <v>0.14402929183656485</v>
       </c>
       <c r="AG25" s="11">
         <f t="shared" si="10"/>
-        <v>0.36399999999999999</v>
+        <v>0.24147457768161773</v>
       </c>
       <c r="AH25" s="11">
         <f t="shared" si="11"/>
-        <v>0.17299999999999999</v>
+        <v>0.18265790130648249</v>
       </c>
       <c r="AI25" s="11">
         <f t="shared" si="12"/>
-        <v>3.7320000000000002</v>
+        <v>0.50704002662894232</v>
       </c>
       <c r="AJ25" s="11">
         <f t="shared" si="30"/>
-        <v>0.9512325830653805</v>
+        <v>7.6151712592932991E-2</v>
       </c>
       <c r="AK25" s="11">
         <f t="shared" si="13"/>
-        <v>0.97802786709539125</v>
+        <v>0.10512984632890757</v>
       </c>
       <c r="AL25" s="27"/>
       <c r="AM25" s="21"/>
@@ -5336,138 +5358,136 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR25" s="11"/>
-      <c r="AS25" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT25" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" ht="30">
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="6"/>
+    </row>
+    <row r="26" spans="1:47">
       <c r="A26" s="6" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="D26" s="21">
-        <v>208200</v>
+        <v>26800</v>
       </c>
       <c r="E26" s="21">
-        <v>60700</v>
+        <v>20900</v>
       </c>
       <c r="F26" s="21">
-        <v>114400</v>
+        <v>4790</v>
       </c>
       <c r="G26" s="21">
-        <v>4800</v>
+        <v>275</v>
       </c>
       <c r="H26" s="21">
-        <v>31600</v>
+        <v>1000</v>
       </c>
       <c r="I26" s="21">
-        <v>7500</v>
+        <v>3569</v>
       </c>
       <c r="J26" s="21">
-        <v>6500</v>
+        <v>3550</v>
       </c>
       <c r="K26" s="21">
-        <v>7800</v>
+        <v>3900</v>
       </c>
       <c r="L26" s="21">
-        <v>10100</v>
+        <v>3500</v>
       </c>
       <c r="M26" s="21">
-        <f>(J26+K26+L26)/3</f>
-        <v>8133.333333333333</v>
+        <f t="shared" si="0"/>
+        <v>3650</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="21">
-        <v>47000</v>
+        <v>39000</v>
       </c>
       <c r="P26" s="8">
-        <f>O26/M26</f>
-        <v>5.778688524590164</v>
+        <f t="shared" si="1"/>
+        <v>10.684931506849315</v>
       </c>
       <c r="Q26" s="23">
         <f t="shared" si="2"/>
-        <v>0.70845341018251684</v>
+        <v>0.22014925373134328</v>
       </c>
       <c r="R26" s="23">
         <f t="shared" si="3"/>
-        <v>0.54947166186359275</v>
+        <v>0.17873134328358209</v>
       </c>
       <c r="S26" s="23">
         <f t="shared" si="4"/>
-        <v>0.77559322033898304</v>
+        <v>0.81186440677966099</v>
       </c>
       <c r="T26" s="23">
-        <f>I26/H26</f>
-        <v>0.23734177215189872</v>
+        <f t="shared" si="36"/>
+        <v>3.569</v>
       </c>
       <c r="U26" s="23">
-        <f>M26/H26</f>
-        <v>0.2573839662447257</v>
+        <f t="shared" si="37"/>
+        <v>3.65</v>
       </c>
       <c r="V26" s="23">
         <f t="shared" si="5"/>
-        <v>0.15177713736791545</v>
+        <v>3.7313432835820892E-2</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="6"/>
-        <v>3.4299835255354201</v>
+        <v>1.2822966507177034</v>
       </c>
       <c r="X26" s="23">
         <f t="shared" si="33"/>
-        <v>0.13399231191652938</v>
+        <v>0.17464114832535885</v>
       </c>
       <c r="Y26" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z26" s="21">
-        <v>134490</v>
+        <v>3482</v>
       </c>
       <c r="AA26" s="21">
-        <v>1183</v>
+        <v>59</v>
       </c>
       <c r="AB26" s="21">
-        <v>3551</v>
+        <v>364</v>
       </c>
       <c r="AC26" s="21">
-        <v>4834</v>
+        <v>173</v>
       </c>
       <c r="AD26" s="21">
         <f t="shared" si="7"/>
-        <v>134390</v>
+        <v>3732</v>
       </c>
       <c r="AE26" s="11">
         <f t="shared" si="8"/>
-        <v>4.2560126582278484</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="AF26" s="11">
         <f t="shared" si="9"/>
-        <v>3.7436708860759491E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AG26" s="11">
         <f t="shared" si="10"/>
-        <v>0.11237341772151899</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="AH26" s="11">
         <f t="shared" si="11"/>
-        <v>0.1529746835443038</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="AI26" s="11">
         <f t="shared" si="12"/>
-        <v>4.2528481012658226</v>
+        <v>3.7320000000000002</v>
       </c>
       <c r="AJ26" s="11">
         <f t="shared" si="30"/>
-        <v>4.8366693950442741E-2</v>
+        <v>0.9512325830653805</v>
       </c>
       <c r="AK26" s="11">
         <f t="shared" si="13"/>
-        <v>6.0520376020041171E-2</v>
+        <v>0.97802786709539125</v>
       </c>
       <c r="AL26" s="27"/>
       <c r="AM26" s="21"/>
@@ -5485,128 +5505,138 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR26" s="11"/>
-      <c r="AS26" s="20" t="s">
-        <v>224</v>
+      <c r="AS26" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="AT26" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" ht="30">
       <c r="A27" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>186</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="21">
-        <v>6493000</v>
+        <v>208200</v>
       </c>
       <c r="E27" s="21">
-        <v>587900</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+        <v>60700</v>
+      </c>
+      <c r="F27" s="21">
+        <v>114400</v>
+      </c>
+      <c r="G27" s="21">
+        <v>4800</v>
+      </c>
       <c r="H27" s="21">
-        <v>890800</v>
+        <v>31600</v>
       </c>
       <c r="I27" s="21">
-        <v>134700</v>
+        <v>7500</v>
       </c>
       <c r="J27" s="21">
-        <v>99900</v>
+        <v>6500</v>
       </c>
       <c r="K27" s="21">
-        <v>72300</v>
+        <v>7800</v>
       </c>
       <c r="L27" s="21">
-        <v>65100</v>
+        <v>10100</v>
       </c>
       <c r="M27" s="21">
         <f>(J27+K27+L27)/3</f>
-        <v>79100</v>
+        <v>8133.333333333333</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="21">
-        <v>1180000</v>
+        <v>47000</v>
       </c>
       <c r="P27" s="8">
         <f>O27/M27</f>
-        <v>14.917825537294563</v>
+        <v>5.778688524590164</v>
       </c>
       <c r="Q27" s="23">
         <f t="shared" si="2"/>
-        <v>0.90945633759433231</v>
+        <v>0.70845341018251684</v>
       </c>
       <c r="R27" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.54947166186359275</v>
       </c>
       <c r="S27" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.77559322033898304</v>
       </c>
       <c r="T27" s="23">
         <f>I27/H27</f>
-        <v>0.15121239335428829</v>
+        <v>0.23734177215189872</v>
       </c>
       <c r="U27" s="23">
         <f>M27/H27</f>
-        <v>8.8796587337224966E-2</v>
+        <v>0.2573839662447257</v>
       </c>
       <c r="V27" s="23">
         <f t="shared" si="5"/>
-        <v>0.1371939011242877</v>
+        <v>0.15177713736791545</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="6"/>
-        <v>11.044395305324034</v>
+        <v>3.4299835255354201</v>
       </c>
       <c r="X27" s="23">
         <f t="shared" si="33"/>
-        <v>0.13454669161422012</v>
+        <v>0.13399231191652938</v>
       </c>
       <c r="Y27" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
+      <c r="Z27" s="21">
+        <v>134490</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>1183</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>3551</v>
+      </c>
+      <c r="AC27" s="21">
+        <v>4834</v>
+      </c>
       <c r="AD27" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>134390</v>
       </c>
       <c r="AE27" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.2560126582278484</v>
       </c>
       <c r="AF27" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.7436708860759491E-2</v>
       </c>
       <c r="AG27" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.11237341772151899</v>
       </c>
       <c r="AH27" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.1529746835443038</v>
       </c>
       <c r="AI27" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="11" t="e">
+        <v>4.2528481012658226</v>
+      </c>
+      <c r="AJ27" s="11">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK27" s="11" t="e">
+        <v>4.8366693950442741E-2</v>
+      </c>
+      <c r="AK27" s="11">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>6.0520376020041171E-2</v>
       </c>
       <c r="AL27" s="27"/>
       <c r="AM27" s="21"/>
@@ -5624,134 +5654,128 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR27" s="11"/>
+      <c r="AS27" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT27" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="28" spans="1:47">
       <c r="A28" s="6" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>152</v>
+        <v>194</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="D28" s="21">
-        <v>844083</v>
+        <v>6493000</v>
       </c>
       <c r="E28" s="21">
-        <v>169719</v>
-      </c>
-      <c r="F28" s="21">
-        <v>138024</v>
-      </c>
-      <c r="G28" s="21">
-        <v>3537</v>
-      </c>
+        <v>587900</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="21">
-        <v>689944</v>
+        <v>890800</v>
       </c>
       <c r="I28" s="21">
-        <v>19247</v>
+        <v>134700</v>
       </c>
       <c r="J28" s="21">
-        <v>14203</v>
+        <v>99900</v>
       </c>
       <c r="K28" s="21">
-        <v>12702</v>
+        <v>72300</v>
       </c>
       <c r="L28" s="21">
-        <v>11786</v>
+        <v>65100</v>
       </c>
       <c r="M28" s="21">
         <f>(J28+K28+L28)/3</f>
-        <v>12897</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>248</v>
-      </c>
+        <v>79100</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="21">
-        <v>169200</v>
+        <v>1180000</v>
       </c>
       <c r="P28" s="8">
         <f>O28/M28</f>
-        <v>13.119330076762038</v>
+        <v>14.917825537294563</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="2"/>
-        <v>0.79893091082275081</v>
+        <v>0.90945633759433231</v>
       </c>
       <c r="R28" s="23">
         <f t="shared" si="3"/>
-        <v>0.16351946431808245</v>
+        <v>0</v>
       </c>
       <c r="S28" s="23">
         <f t="shared" si="4"/>
-        <v>0.20467284730501628</v>
+        <v>0</v>
       </c>
       <c r="T28" s="23">
         <f>I28/H28</f>
-        <v>2.7896466959637305E-2</v>
+        <v>0.15121239335428829</v>
       </c>
       <c r="U28" s="23">
         <f>M28/H28</f>
-        <v>1.8692821446378256E-2</v>
+        <v>8.8796587337224966E-2</v>
       </c>
       <c r="V28" s="23">
         <f t="shared" si="5"/>
-        <v>0.81738881128988505</v>
+        <v>0.1371939011242877</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="6"/>
-        <v>4.9734148798896998</v>
+        <v>11.044395305324034</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="33"/>
-        <v>7.599031340038534E-2</v>
-      </c>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="21">
-        <v>52368</v>
-      </c>
-      <c r="AA28" s="21">
-        <v>242463</v>
-      </c>
-      <c r="AB28" s="21">
-        <v>157804</v>
-      </c>
-      <c r="AC28" s="21">
-        <v>288407</v>
-      </c>
+        <v>0.13454669161422012</v>
+      </c>
+      <c r="Y28" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
       <c r="AD28" s="21">
         <f t="shared" si="7"/>
-        <v>164228</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="11">
         <f t="shared" si="8"/>
-        <v>7.5901812320999962E-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="11">
         <f t="shared" si="9"/>
-        <v>0.35142417355611472</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="11">
         <f t="shared" si="10"/>
-        <v>0.22872001205894971</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="11">
         <f t="shared" si="11"/>
-        <v>0.41801508528228376</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="11">
         <f t="shared" si="12"/>
-        <v>0.2380309126537806</v>
-      </c>
-      <c r="AJ28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="11" t="e">
         <f t="shared" si="30"/>
-        <v>8.6483425481647461E-2</v>
-      </c>
-      <c r="AK28" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK28" s="11" t="e">
         <f t="shared" si="13"/>
-        <v>7.8531066565993624E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="27"/>
       <c r="AM28" s="21"/>
@@ -5772,269 +5796,243 @@
     </row>
     <row r="29" spans="1:47">
       <c r="A29" s="6" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>277</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>186</v>
       </c>
       <c r="D29" s="21">
-        <v>6406900</v>
+        <v>710275</v>
       </c>
       <c r="E29" s="21">
-        <v>413900</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0</v>
-      </c>
+        <v>63723</v>
+      </c>
+      <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21">
-        <v>157000</v>
+        <v>144132</v>
       </c>
       <c r="I29" s="21">
-        <v>63300</v>
+        <v>7501</v>
       </c>
       <c r="J29" s="21">
-        <v>54300</v>
+        <v>5384</v>
       </c>
       <c r="K29" s="21">
-        <v>50600</v>
+        <v>4943</v>
       </c>
       <c r="L29" s="21">
-        <v>47500</v>
+        <v>8602</v>
       </c>
       <c r="M29" s="21">
         <f>(J29+K29+L29)/3</f>
-        <v>50800</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>6309.666666666667</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="O29" s="21">
-        <v>350000</v>
+        <v>137010</v>
       </c>
       <c r="P29" s="8">
         <f>O29/M29</f>
-        <v>6.8897637795275593</v>
+        <v>21.714300808283586</v>
       </c>
       <c r="Q29" s="23">
-        <f>(D29-E29)/D29</f>
-        <v>0.93539777427461024</v>
+        <f t="shared" si="2"/>
+        <v>0.91028404491218196</v>
       </c>
       <c r="R29" s="23">
-        <f>F29/D29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S29" s="23">
-        <f>F29/(D29-E29)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T29" s="23">
         <f>I29/H29</f>
-        <v>0.4031847133757962</v>
+        <v>5.2042572086698304E-2</v>
       </c>
       <c r="U29" s="23">
         <f>M29/H29</f>
-        <v>0.3235668789808917</v>
+        <v>4.3777000712310013E-2</v>
       </c>
       <c r="V29" s="23">
-        <f>H29/D29</f>
-        <v>2.45048307293699E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.2029242194924501</v>
       </c>
       <c r="W29" s="8">
-        <f>D29/E29</f>
-        <v>15.479342836433922</v>
+        <f t="shared" si="6"/>
+        <v>11.146289408847668</v>
       </c>
       <c r="X29" s="23">
-        <f>M29/E29</f>
-        <v>0.12273496013529839</v>
-      </c>
-      <c r="Y29" s="24" t="s">
-        <v>237</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>9.9017100052832832E-2</v>
+      </c>
+      <c r="Y29" s="24"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
-      <c r="AD29" s="21">
-        <f>Z29+AA29+AB29-AC29</f>
-        <v>0</v>
-      </c>
+      <c r="AD29" s="21"/>
       <c r="AE29" s="11">
-        <f>Z29/H29</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF29" s="11">
-        <f>AA29/H29</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG29" s="11">
-        <f>AB29/H29</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH29" s="11">
-        <f>AC29/H29</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="11">
-        <f>AD29/H29</f>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="11" t="e">
-        <f>J29/AD29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK29" s="11" t="e">
-        <f>M29/AD29</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
       <c r="AL29" s="27"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="21"/>
-      <c r="AO29" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AP29" s="11" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ29" s="11" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
       <c r="AR29" s="11"/>
-      <c r="AS29" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="30" spans="1:47">
       <c r="A30" s="6" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="21">
-        <v>110500</v>
+        <v>844083</v>
       </c>
       <c r="E30" s="21">
-        <v>49200</v>
+        <v>169719</v>
       </c>
       <c r="F30" s="21">
-        <v>1500</v>
+        <v>138024</v>
       </c>
       <c r="G30" s="21">
-        <v>139</v>
+        <v>3537</v>
       </c>
       <c r="H30" s="21">
-        <v>100400</v>
+        <v>689944</v>
       </c>
       <c r="I30" s="21">
-        <v>5800</v>
+        <v>19247</v>
       </c>
       <c r="J30" s="21">
-        <v>5000</v>
+        <v>14203</v>
       </c>
       <c r="K30" s="21">
-        <v>10500</v>
+        <v>12702</v>
       </c>
       <c r="L30" s="21">
-        <v>8000</v>
+        <v>11786</v>
       </c>
       <c r="M30" s="21">
-        <f t="shared" si="0"/>
-        <v>7833.333333333333</v>
-      </c>
-      <c r="N30" s="2"/>
+        <f>(J30+K30+L30)/3</f>
+        <v>12897</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="O30" s="21">
-        <v>105000</v>
+        <v>169200</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" ref="P30:P44" si="42">O30/M30</f>
-        <v>13.404255319148938</v>
+        <f>O30/M30</f>
+        <v>13.119330076762038</v>
       </c>
       <c r="Q30" s="23">
         <f t="shared" si="2"/>
-        <v>0.55475113122171948</v>
+        <v>0.79893091082275081</v>
       </c>
       <c r="R30" s="23">
-        <f t="shared" ref="R30:R43" si="43">F30/D30</f>
-        <v>1.3574660633484163E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.16351946431808245</v>
       </c>
       <c r="S30" s="23">
-        <f t="shared" ref="S30:S43" si="44">F30/(D30-E30)</f>
-        <v>2.4469820554649267E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.20467284730501628</v>
       </c>
       <c r="T30" s="23">
-        <f t="shared" si="36"/>
-        <v>5.7768924302788842E-2</v>
+        <f>I30/H30</f>
+        <v>2.7896466959637305E-2</v>
       </c>
       <c r="U30" s="23">
-        <f t="shared" si="37"/>
-        <v>7.802124833997344E-2</v>
+        <f>M30/H30</f>
+        <v>1.8692821446378256E-2</v>
       </c>
       <c r="V30" s="23">
         <f t="shared" si="5"/>
-        <v>0.90859728506787329</v>
+        <v>0.81738881128988505</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="6"/>
-        <v>2.2459349593495936</v>
+        <v>4.9734148798896998</v>
       </c>
       <c r="X30" s="23">
         <f t="shared" si="33"/>
-        <v>0.15921409214092141</v>
-      </c>
-      <c r="Y30" s="24" t="s">
-        <v>237</v>
-      </c>
+        <v>7.599031340038534E-2</v>
+      </c>
+      <c r="Y30" s="24"/>
       <c r="Z30" s="21">
-        <v>27718</v>
+        <v>52368</v>
       </c>
       <c r="AA30" s="21">
-        <v>5574</v>
+        <v>242463</v>
       </c>
       <c r="AB30" s="21">
-        <v>873</v>
+        <v>157804</v>
       </c>
       <c r="AC30" s="21">
-        <v>27961</v>
+        <v>288407</v>
       </c>
       <c r="AD30" s="21">
         <f t="shared" si="7"/>
-        <v>6204</v>
+        <v>164228</v>
       </c>
       <c r="AE30" s="11">
         <f t="shared" si="8"/>
-        <v>0.27607569721115538</v>
+        <v>7.5901812320999962E-2</v>
       </c>
       <c r="AF30" s="11">
         <f t="shared" si="9"/>
-        <v>5.5517928286852591E-2</v>
+        <v>0.35142417355611472</v>
       </c>
       <c r="AG30" s="11">
         <f t="shared" si="10"/>
-        <v>8.6952191235059768E-3</v>
+        <v>0.22872001205894971</v>
       </c>
       <c r="AH30" s="11">
         <f t="shared" si="11"/>
-        <v>0.278496015936255</v>
+        <v>0.41801508528228376</v>
       </c>
       <c r="AI30" s="11">
         <f t="shared" si="12"/>
-        <v>6.1792828685258962E-2</v>
+        <v>0.2380309126537806</v>
       </c>
       <c r="AJ30" s="11">
         <f t="shared" si="30"/>
-        <v>0.80593165699548674</v>
+        <v>8.6483425481647461E-2</v>
       </c>
       <c r="AK30" s="11">
         <f t="shared" si="13"/>
-        <v>1.2626262626262625</v>
+        <v>7.8531066565993624E-2</v>
       </c>
       <c r="AL30" s="27"/>
       <c r="AM30" s="21"/>
@@ -6052,138 +6050,121 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR30" s="11"/>
-      <c r="AS30" s="12" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="31" spans="1:47">
       <c r="A31" s="6" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D31" s="21">
-        <v>2404910</v>
+        <v>6406900</v>
       </c>
       <c r="E31" s="21">
-        <v>1381610</v>
+        <v>413900</v>
       </c>
       <c r="F31" s="21">
-        <f>93881+81536+195192+94666</f>
-        <v>465275</v>
-      </c>
-      <c r="G31" s="21">
-        <v>21648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G31" s="21"/>
       <c r="H31" s="21">
-        <v>2015890</v>
+        <v>157000</v>
       </c>
       <c r="I31" s="21">
-        <v>57769</v>
+        <v>63300</v>
       </c>
       <c r="J31" s="21">
-        <v>36788</v>
+        <v>54300</v>
       </c>
       <c r="K31" s="21">
-        <v>29414</v>
+        <v>50600</v>
       </c>
       <c r="L31" s="21">
-        <v>42364</v>
+        <v>47500</v>
       </c>
       <c r="M31" s="21">
-        <f t="shared" si="0"/>
-        <v>36188.666666666664</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>248</v>
-      </c>
+        <f>(J31+K31+L31)/3</f>
+        <v>50800</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="21">
-        <v>1370000</v>
+        <v>350000</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="42"/>
-        <v>37.857156015695523</v>
+        <f>O31/M31</f>
+        <v>6.8897637795275593</v>
       </c>
       <c r="Q31" s="23">
-        <f t="shared" si="2"/>
-        <v>0.42550448873346614</v>
+        <f>(D31-E31)/D31</f>
+        <v>0.93539777427461024</v>
       </c>
       <c r="R31" s="23">
-        <f t="shared" si="43"/>
-        <v>0.1934687784574059</v>
+        <f>F31/D31</f>
+        <v>0</v>
       </c>
       <c r="S31" s="23">
-        <f t="shared" si="44"/>
-        <v>0.45468093423238543</v>
+        <f>F31/(D31-E31)</f>
+        <v>0</v>
       </c>
       <c r="T31" s="23">
-        <f t="shared" si="36"/>
-        <v>2.8656821552763296E-2</v>
+        <f>I31/H31</f>
+        <v>0.4031847133757962</v>
       </c>
       <c r="U31" s="23">
-        <f t="shared" si="37"/>
-        <v>1.7951707021051082E-2</v>
+        <f>M31/H31</f>
+        <v>0.3235668789808917</v>
       </c>
       <c r="V31" s="23">
-        <f t="shared" si="5"/>
-        <v>0.83823926882918698</v>
+        <f>H31/D31</f>
+        <v>2.45048307293699E-2</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="6"/>
-        <v>1.740657638552124</v>
+        <f>D31/E31</f>
+        <v>15.479342836433922</v>
       </c>
       <c r="X31" s="23">
-        <f t="shared" si="33"/>
-        <v>2.6193112865907649E-2</v>
-      </c>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="21">
-        <v>694359</v>
-      </c>
-      <c r="AA31" s="21">
-        <v>144669</v>
-      </c>
-      <c r="AB31" s="21">
-        <v>53143</v>
-      </c>
-      <c r="AC31" s="21">
-        <v>224514</v>
-      </c>
+        <f>M31/E31</f>
+        <v>0.12273496013529839</v>
+      </c>
+      <c r="Y31" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
       <c r="AD31" s="21">
-        <f t="shared" si="7"/>
-        <v>667657</v>
+        <f>Z31+AA31+AB31-AC31</f>
+        <v>0</v>
       </c>
       <c r="AE31" s="11">
-        <f t="shared" si="8"/>
-        <v>0.34444290115036041</v>
+        <f>Z31/H31</f>
+        <v>0</v>
       </c>
       <c r="AF31" s="11">
-        <f t="shared" si="9"/>
-        <v>7.1764332379246884E-2</v>
+        <f>AA31/H31</f>
+        <v>0</v>
       </c>
       <c r="AG31" s="11">
-        <f t="shared" si="10"/>
-        <v>2.6362053485061189E-2</v>
+        <f>AB31/H31</f>
+        <v>0</v>
       </c>
       <c r="AH31" s="11">
-        <f t="shared" si="11"/>
-        <v>0.1113721482819003</v>
+        <f>AC31/H31</f>
+        <v>0</v>
       </c>
       <c r="AI31" s="11">
-        <f t="shared" si="12"/>
-        <v>0.33119713873276818</v>
-      </c>
-      <c r="AJ31" s="11">
-        <f t="shared" si="30"/>
-        <v>5.5100148729062978E-2</v>
-      </c>
-      <c r="AK31" s="11">
-        <f t="shared" si="13"/>
-        <v>5.420248221267307E-2</v>
+        <f>AD31/H31</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="11" t="e">
+        <f>J31/AD31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK31" s="11" t="e">
+        <f>M31/AD31</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="27"/>
       <c r="AM31" s="21"/>
@@ -6201,132 +6182,140 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR31" s="11"/>
-      <c r="AS31" s="12"/>
+      <c r="AS31" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="32" spans="1:47">
       <c r="A32" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="D32" s="21">
-        <v>35300</v>
+        <v>110500</v>
       </c>
       <c r="E32" s="21">
-        <v>14000</v>
+        <v>49200</v>
       </c>
       <c r="F32" s="21">
-        <v>10800</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="21">
-        <v>400</v>
+        <v>139</v>
       </c>
       <c r="H32" s="21">
-        <v>20100</v>
+        <v>100400</v>
       </c>
       <c r="I32" s="21">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="J32" s="21">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="K32" s="21">
-        <v>1800</v>
+        <v>10500</v>
       </c>
       <c r="L32" s="21">
-        <v>1900</v>
+        <v>8000</v>
       </c>
       <c r="M32" s="21">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>7833.333333333333</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="21">
-        <v>55000</v>
+        <v>105000</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" si="42"/>
-        <v>26.19047619047619</v>
+        <f t="shared" ref="P32:P46" si="51">O32/M32</f>
+        <v>13.404255319148938</v>
       </c>
       <c r="Q32" s="23">
         <f t="shared" si="2"/>
-        <v>0.60339943342776203</v>
+        <v>0.55475113122171948</v>
       </c>
       <c r="R32" s="23">
-        <f t="shared" si="43"/>
-        <v>0.30594900849858359</v>
+        <f t="shared" ref="R32:R45" si="52">F32/D32</f>
+        <v>1.3574660633484163E-2</v>
       </c>
       <c r="S32" s="23">
-        <f t="shared" si="44"/>
-        <v>0.50704225352112675</v>
+        <f t="shared" ref="S32:S45" si="53">F32/(D32-E32)</f>
+        <v>2.4469820554649267E-2</v>
       </c>
       <c r="T32" s="23">
         <f t="shared" si="36"/>
-        <v>0.13930348258706468</v>
+        <v>5.7768924302788842E-2</v>
       </c>
       <c r="U32" s="23">
         <f t="shared" si="37"/>
-        <v>0.1044776119402985</v>
+        <v>7.802124833997344E-2</v>
       </c>
       <c r="V32" s="23">
         <f t="shared" si="5"/>
-        <v>0.56940509915014159</v>
+        <v>0.90859728506787329</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="6"/>
-        <v>2.5214285714285714</v>
+        <v>2.2459349593495936</v>
       </c>
       <c r="X32" s="23">
         <f t="shared" si="33"/>
-        <v>0.15</v>
+        <v>0.15921409214092141</v>
       </c>
       <c r="Y32" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z32" s="21">
-        <v>13458</v>
+        <v>27718</v>
       </c>
       <c r="AA32" s="21">
-        <v>2044</v>
+        <v>5574</v>
       </c>
       <c r="AB32" s="21">
-        <v>5555</v>
+        <v>873</v>
       </c>
       <c r="AC32" s="21">
-        <v>4168</v>
+        <v>27961</v>
       </c>
       <c r="AD32" s="21">
         <f t="shared" si="7"/>
-        <v>16889</v>
+        <v>6204</v>
       </c>
       <c r="AE32" s="11">
         <f t="shared" si="8"/>
-        <v>0.66955223880597015</v>
+        <v>0.27607569721115538</v>
       </c>
       <c r="AF32" s="11">
         <f t="shared" si="9"/>
-        <v>0.10169154228855722</v>
+        <v>5.5517928286852591E-2</v>
       </c>
       <c r="AG32" s="11">
         <f t="shared" si="10"/>
-        <v>0.27636815920398011</v>
+        <v>8.6952191235059768E-3</v>
       </c>
       <c r="AH32" s="11">
         <f t="shared" si="11"/>
-        <v>0.207363184079602</v>
+        <v>0.278496015936255</v>
       </c>
       <c r="AI32" s="11">
         <f t="shared" si="12"/>
-        <v>0.84024875621890549</v>
+        <v>6.1792828685258962E-2</v>
       </c>
       <c r="AJ32" s="11">
         <f t="shared" si="30"/>
-        <v>0.15394635561608147</v>
+        <v>0.80593165699548674</v>
       </c>
       <c r="AK32" s="11">
         <f t="shared" si="13"/>
-        <v>0.1243412872283735</v>
+        <v>1.2626262626262625</v>
       </c>
       <c r="AL32" s="27"/>
       <c r="AM32" s="21"/>
@@ -6344,138 +6333,138 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR32" s="11"/>
-      <c r="AS32" s="3" t="s">
-        <v>139</v>
+      <c r="AS32" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:45">
       <c r="A33" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>153</v>
+        <v>250</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="D33" s="21">
-        <v>282046</v>
+        <v>2404910</v>
       </c>
       <c r="E33" s="21">
-        <v>71725</v>
+        <v>1381610</v>
       </c>
       <c r="F33" s="21">
-        <f>12038+14549+152801</f>
-        <v>179388</v>
+        <f>93881+81536+195192+94666</f>
+        <v>465275</v>
       </c>
       <c r="G33" s="21">
-        <v>4325</v>
+        <v>21648</v>
       </c>
       <c r="H33" s="21">
-        <v>30008</v>
+        <v>2015890</v>
       </c>
       <c r="I33" s="21">
-        <v>6180</v>
+        <v>57769</v>
       </c>
       <c r="J33" s="21">
-        <v>8108</v>
+        <v>36788</v>
       </c>
       <c r="K33" s="21">
-        <v>7108</v>
+        <v>29414</v>
       </c>
       <c r="L33" s="21">
-        <v>5156</v>
+        <v>42364</v>
       </c>
       <c r="M33" s="21">
         <f t="shared" si="0"/>
-        <v>6790.666666666667</v>
+        <v>36188.666666666664</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>248</v>
       </c>
       <c r="O33" s="21">
-        <v>103354</v>
+        <v>1370000</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="42"/>
-        <v>15.22000785391714</v>
+        <f t="shared" si="51"/>
+        <v>37.857156015695523</v>
       </c>
       <c r="Q33" s="23">
         <f t="shared" si="2"/>
-        <v>0.7456975103351936</v>
+        <v>0.42550448873346614</v>
       </c>
       <c r="R33" s="23">
-        <f t="shared" si="43"/>
-        <v>0.63602391099324229</v>
+        <f t="shared" si="52"/>
+        <v>0.1934687784574059</v>
       </c>
       <c r="S33" s="23">
-        <f t="shared" si="44"/>
-        <v>0.85292481492575634</v>
+        <f t="shared" si="53"/>
+        <v>0.45468093423238543</v>
       </c>
       <c r="T33" s="23">
         <f t="shared" si="36"/>
-        <v>0.20594508131165024</v>
+        <v>2.8656821552763296E-2</v>
       </c>
       <c r="U33" s="23">
         <f t="shared" si="37"/>
-        <v>0.22629521016617793</v>
+        <v>1.7951707021051082E-2</v>
       </c>
       <c r="V33" s="23">
         <f t="shared" si="5"/>
-        <v>0.10639399246931351</v>
+        <v>0.83823926882918698</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="6"/>
-        <v>3.9323248518647613</v>
+        <v>1.740657638552124</v>
       </c>
       <c r="X33" s="23">
         <f t="shared" si="33"/>
-        <v>9.4676426164749625E-2</v>
+        <v>2.6193112865907649E-2</v>
       </c>
       <c r="Y33" s="24"/>
       <c r="Z33" s="21">
-        <v>128176</v>
+        <v>694359</v>
       </c>
       <c r="AA33" s="21">
-        <v>13599</v>
+        <v>144669</v>
       </c>
       <c r="AB33" s="21">
-        <v>3552</v>
+        <v>53143</v>
       </c>
       <c r="AC33" s="21">
-        <v>11926</v>
+        <v>224514</v>
       </c>
       <c r="AD33" s="21">
         <f t="shared" si="7"/>
-        <v>133401</v>
+        <v>667657</v>
       </c>
       <c r="AE33" s="11">
         <f t="shared" si="8"/>
-        <v>4.271394294854705</v>
+        <v>0.34444290115036041</v>
       </c>
       <c r="AF33" s="11">
         <f t="shared" si="9"/>
-        <v>0.45317915222607302</v>
+        <v>7.1764332379246884E-2</v>
       </c>
       <c r="AG33" s="11">
         <f t="shared" si="10"/>
-        <v>0.11836843508397761</v>
+        <v>2.6362053485061189E-2</v>
       </c>
       <c r="AH33" s="11">
         <f t="shared" si="11"/>
-        <v>0.39742735270594509</v>
+        <v>0.1113721482819003</v>
       </c>
       <c r="AI33" s="11">
         <f t="shared" si="12"/>
-        <v>4.4455145294588112</v>
+        <v>0.33119713873276818</v>
       </c>
       <c r="AJ33" s="11">
         <f t="shared" si="30"/>
-        <v>6.0779154579051128E-2</v>
+        <v>5.5100148729062978E-2</v>
       </c>
       <c r="AK33" s="11">
         <f t="shared" si="13"/>
-        <v>5.0904166135686144E-2</v>
+        <v>5.420248221267307E-2</v>
       </c>
       <c r="AL33" s="27"/>
       <c r="AM33" s="21"/>
@@ -6493,85 +6482,81 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR33" s="11"/>
+      <c r="AS33" s="12"/>
     </row>
     <row r="34" spans="1:45">
       <c r="A34" s="6" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D34" s="21">
-        <v>6100</v>
+        <v>35300</v>
       </c>
       <c r="E34" s="21">
-        <v>4600</v>
+        <v>14000</v>
       </c>
       <c r="F34" s="21">
-        <v>150</v>
+        <v>10800</v>
       </c>
       <c r="G34" s="21">
-        <v>-18</v>
+        <v>400</v>
       </c>
       <c r="H34" s="21">
-        <v>2500</v>
+        <v>20100</v>
       </c>
       <c r="I34" s="21">
-        <v>995</v>
+        <v>2800</v>
       </c>
       <c r="J34" s="21">
-        <v>750</v>
+        <v>2600</v>
       </c>
       <c r="K34" s="21">
-        <v>680</v>
+        <v>1800</v>
       </c>
       <c r="L34" s="21">
-        <v>640</v>
+        <v>1900</v>
       </c>
       <c r="M34" s="21">
         <f t="shared" si="0"/>
-        <v>690</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>2100</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="21">
-        <v>18700</v>
+        <v>55000</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" si="42"/>
-        <v>27.10144927536232</v>
+        <f t="shared" si="51"/>
+        <v>26.19047619047619</v>
       </c>
       <c r="Q34" s="23">
         <f t="shared" si="2"/>
-        <v>0.24590163934426229</v>
+        <v>0.60339943342776203</v>
       </c>
       <c r="R34" s="23">
-        <f t="shared" si="43"/>
-        <v>2.4590163934426229E-2</v>
+        <f t="shared" si="52"/>
+        <v>0.30594900849858359</v>
       </c>
       <c r="S34" s="23">
-        <f t="shared" si="44"/>
-        <v>0.1</v>
+        <f t="shared" si="53"/>
+        <v>0.50704225352112675</v>
       </c>
       <c r="T34" s="23">
         <f t="shared" si="36"/>
-        <v>0.39800000000000002</v>
+        <v>0.13930348258706468</v>
       </c>
       <c r="U34" s="23">
         <f t="shared" si="37"/>
-        <v>0.27600000000000002</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="V34" s="23">
         <f t="shared" si="5"/>
-        <v>0.4098360655737705</v>
+        <v>0.56940509915014159</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="6"/>
-        <v>1.326086956521739</v>
+        <v>2.5214285714285714</v>
       </c>
       <c r="X34" s="23">
         <f t="shared" si="33"/>
@@ -6581,48 +6566,48 @@
         <v>237</v>
       </c>
       <c r="Z34" s="21">
-        <v>741</v>
+        <v>13458</v>
       </c>
       <c r="AA34" s="21">
-        <v>1514</v>
+        <v>2044</v>
       </c>
       <c r="AB34" s="21">
-        <v>22</v>
+        <v>5555</v>
       </c>
       <c r="AC34" s="21">
-        <v>84</v>
+        <v>4168</v>
       </c>
       <c r="AD34" s="21">
         <f t="shared" si="7"/>
-        <v>2193</v>
+        <v>16889</v>
       </c>
       <c r="AE34" s="11">
         <f t="shared" si="8"/>
-        <v>0.2964</v>
+        <v>0.66955223880597015</v>
       </c>
       <c r="AF34" s="11">
         <f t="shared" si="9"/>
-        <v>0.60560000000000003</v>
+        <v>0.10169154228855722</v>
       </c>
       <c r="AG34" s="11">
         <f t="shared" si="10"/>
-        <v>8.8000000000000005E-3</v>
+        <v>0.27636815920398011</v>
       </c>
       <c r="AH34" s="11">
         <f t="shared" si="11"/>
-        <v>3.3599999999999998E-2</v>
+        <v>0.207363184079602</v>
       </c>
       <c r="AI34" s="11">
         <f t="shared" si="12"/>
-        <v>0.87719999999999998</v>
+        <v>0.84024875621890549</v>
       </c>
       <c r="AJ34" s="11">
         <f t="shared" si="30"/>
-        <v>0.34199726402188785</v>
+        <v>0.15394635561608147</v>
       </c>
       <c r="AK34" s="11">
         <f t="shared" si="13"/>
-        <v>0.31463748290013682</v>
+        <v>0.1243412872283735</v>
       </c>
       <c r="AL34" s="27"/>
       <c r="AM34" s="21"/>
@@ -6640,141 +6625,150 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR34" s="11"/>
+      <c r="AS34" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="1:45">
       <c r="A35" s="6" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>198</v>
+        <v>252</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D35" s="21">
-        <v>1507</v>
+        <v>282046</v>
       </c>
       <c r="E35" s="21">
-        <v>782</v>
+        <v>71725</v>
       </c>
       <c r="F35" s="21">
-        <f>477.5+0.6+25</f>
-        <v>503.1</v>
+        <f>12038+14549+152801</f>
+        <v>179388</v>
       </c>
       <c r="G35" s="21">
-        <v>28.8</v>
+        <v>4325</v>
       </c>
       <c r="H35" s="21">
-        <v>781</v>
+        <v>30008</v>
       </c>
       <c r="I35" s="21">
-        <v>86</v>
+        <v>6180</v>
       </c>
       <c r="J35" s="21">
-        <v>58</v>
+        <v>8108</v>
       </c>
       <c r="K35" s="21">
-        <v>41</v>
+        <v>7108</v>
       </c>
       <c r="L35" s="21">
-        <v>11</v>
+        <v>5156</v>
       </c>
       <c r="M35" s="21">
         <f t="shared" si="0"/>
-        <v>36.666666666666664</v>
+        <v>6790.666666666667</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="O35" s="21">
-        <v>3603</v>
+        <v>103354</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="42"/>
-        <v>98.263636363636365</v>
+        <f t="shared" si="51"/>
+        <v>15.22000785391714</v>
       </c>
       <c r="Q35" s="23">
         <f t="shared" si="2"/>
-        <v>0.48108825481088252</v>
+        <v>0.7456975103351936</v>
       </c>
       <c r="R35" s="23">
-        <f t="shared" si="43"/>
-        <v>0.33384207033842073</v>
+        <f t="shared" si="52"/>
+        <v>0.63602391099324229</v>
       </c>
       <c r="S35" s="23">
-        <f t="shared" si="44"/>
-        <v>0.69393103448275861</v>
+        <f t="shared" si="53"/>
+        <v>0.85292481492575634</v>
       </c>
       <c r="T35" s="23">
         <f t="shared" si="36"/>
-        <v>0.11011523687580026</v>
+        <v>0.20594508131165024</v>
       </c>
       <c r="U35" s="23">
         <f t="shared" si="37"/>
-        <v>4.6948356807511735E-2</v>
+        <v>0.22629521016617793</v>
       </c>
       <c r="V35" s="23">
         <f t="shared" si="5"/>
-        <v>0.51824817518248179</v>
+        <v>0.10639399246931351</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" si="6"/>
-        <v>1.9271099744245523</v>
+        <v>3.9323248518647613</v>
       </c>
       <c r="X35" s="23">
         <f t="shared" si="33"/>
-        <v>4.6888320545609548E-2</v>
+        <v>9.4676426164749625E-2</v>
       </c>
       <c r="Y35" s="24"/>
       <c r="Z35" s="21">
-        <v>339</v>
+        <v>128176</v>
       </c>
       <c r="AA35" s="21">
-        <v>694.9</v>
+        <v>13599</v>
       </c>
       <c r="AB35" s="21">
-        <v>69.5</v>
+        <v>3552</v>
       </c>
       <c r="AC35" s="21">
-        <v>105</v>
+        <v>11926</v>
       </c>
       <c r="AD35" s="21">
         <f t="shared" si="7"/>
-        <v>998.40000000000009</v>
+        <v>133401</v>
       </c>
       <c r="AE35" s="11">
         <f t="shared" si="8"/>
-        <v>0.43405889884763127</v>
+        <v>4.271394294854705</v>
       </c>
       <c r="AF35" s="11">
         <f t="shared" si="9"/>
-        <v>0.88975672215108836</v>
+        <v>0.45317915222607302</v>
       </c>
       <c r="AG35" s="11">
         <f t="shared" si="10"/>
-        <v>8.8988476312419976E-2</v>
+        <v>0.11836843508397761</v>
       </c>
       <c r="AH35" s="11">
         <f t="shared" si="11"/>
-        <v>0.13444302176696543</v>
+        <v>0.39742735270594509</v>
       </c>
       <c r="AI35" s="11">
         <f t="shared" si="12"/>
-        <v>1.2783610755441743</v>
+        <v>4.4455145294588112</v>
       </c>
       <c r="AJ35" s="11">
         <f t="shared" si="30"/>
-        <v>5.8092948717948713E-2</v>
+        <v>6.0779154579051128E-2</v>
       </c>
       <c r="AK35" s="11">
         <f t="shared" si="13"/>
-        <v>3.6725427350427345E-2</v>
+        <v>5.0904166135686144E-2</v>
       </c>
       <c r="AL35" s="27"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="11"/>
+      <c r="AO35" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="11" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AQ35" s="11" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
@@ -6783,133 +6777,133 @@
     </row>
     <row r="36" spans="1:45">
       <c r="A36" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D36" s="21">
+        <v>6100</v>
+      </c>
+      <c r="E36" s="21">
+        <v>4600</v>
+      </c>
+      <c r="F36" s="21">
+        <v>150</v>
+      </c>
+      <c r="G36" s="21">
+        <v>-18</v>
+      </c>
+      <c r="H36" s="21">
         <v>2500</v>
       </c>
-      <c r="E36" s="21">
-        <v>2000</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
-        <v>-3</v>
-      </c>
-      <c r="H36" s="21">
-        <v>1800</v>
-      </c>
       <c r="I36" s="21">
-        <v>410</v>
+        <v>995</v>
       </c>
       <c r="J36" s="21">
-        <v>348</v>
+        <v>750</v>
       </c>
       <c r="K36" s="21">
-        <v>252</v>
+        <v>680</v>
       </c>
       <c r="L36" s="21">
-        <v>162</v>
+        <v>640</v>
       </c>
       <c r="M36" s="21">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>690</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O36" s="21">
-        <v>8800</v>
+        <v>18700</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="42"/>
-        <v>34.645669291338585</v>
+        <f t="shared" si="51"/>
+        <v>27.10144927536232</v>
       </c>
       <c r="Q36" s="23">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.24590163934426229</v>
       </c>
       <c r="R36" s="23">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>2.4590163934426229E-2</v>
       </c>
       <c r="S36" s="23">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>0.1</v>
       </c>
       <c r="T36" s="23">
         <f t="shared" si="36"/>
-        <v>0.22777777777777777</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="U36" s="23">
         <f t="shared" si="37"/>
-        <v>0.1411111111111111</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="V36" s="23">
         <f t="shared" si="5"/>
-        <v>0.72</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.326086956521739</v>
       </c>
       <c r="X36" s="23">
         <f t="shared" si="33"/>
-        <v>0.127</v>
+        <v>0.15</v>
       </c>
       <c r="Y36" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z36" s="21">
-        <v>480</v>
+        <v>741</v>
       </c>
       <c r="AA36" s="21">
-        <v>51</v>
+        <v>1514</v>
       </c>
       <c r="AB36" s="21">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AC36" s="21">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="AD36" s="21">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>2193</v>
       </c>
       <c r="AE36" s="11">
         <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
+        <v>0.2964</v>
       </c>
       <c r="AF36" s="11">
         <f t="shared" si="9"/>
-        <v>2.8333333333333332E-2</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="AG36" s="11">
         <f t="shared" si="10"/>
-        <v>3.8888888888888888E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="AH36" s="11">
         <f t="shared" si="11"/>
-        <v>9.3888888888888883E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="AI36" s="11">
         <f t="shared" si="12"/>
-        <v>0.20499999999999999</v>
+        <v>0.87719999999999998</v>
       </c>
       <c r="AJ36" s="11">
         <f t="shared" si="30"/>
-        <v>0.94308943089430897</v>
+        <v>0.34199726402188785</v>
       </c>
       <c r="AK36" s="11">
         <f t="shared" si="13"/>
-        <v>0.68834688346883466</v>
+        <v>0.31463748290013682</v>
       </c>
       <c r="AL36" s="27"/>
       <c r="AM36" s="21"/>
@@ -6927,286 +6921,276 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR36" s="11"/>
-      <c r="AS36" s="20" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="37" spans="1:45">
       <c r="A37" s="6" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>186</v>
+        <v>273</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="D37" s="21">
-        <v>84980</v>
+        <v>1507</v>
       </c>
       <c r="E37" s="21">
-        <v>34810</v>
+        <v>782</v>
       </c>
       <c r="F37" s="21">
-        <v>1296</v>
+        <f>477.5+0.6+25</f>
+        <v>503.1</v>
       </c>
       <c r="G37" s="21">
-        <v>35</v>
+        <v>28.8</v>
       </c>
       <c r="H37" s="21">
-        <v>92760</v>
+        <v>781</v>
       </c>
       <c r="I37" s="21">
-        <v>17981</v>
+        <v>86</v>
       </c>
       <c r="J37" s="21">
-        <v>10735</v>
+        <v>58</v>
       </c>
       <c r="K37" s="21">
-        <v>5170</v>
+        <v>41</v>
       </c>
       <c r="L37" s="21">
-        <v>2288</v>
+        <v>11</v>
       </c>
       <c r="M37" s="21">
         <f t="shared" si="0"/>
-        <v>6064.333333333333</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>187</v>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="O37" s="21">
-        <v>210437</v>
+        <v>3603</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" ref="P37" si="45">O37/M37</f>
-        <v>34.700764030121476</v>
+        <f t="shared" si="51"/>
+        <v>98.263636363636365</v>
       </c>
       <c r="Q37" s="23">
-        <f t="shared" ref="Q37" si="46">(D37-E37)/D37</f>
-        <v>0.59037420569545773</v>
+        <f t="shared" si="2"/>
+        <v>0.48108825481088252</v>
       </c>
       <c r="R37" s="23">
-        <f t="shared" ref="R37" si="47">F37/D37</f>
-        <v>1.5250647211108496E-2</v>
+        <f t="shared" si="52"/>
+        <v>0.33384207033842073</v>
       </c>
       <c r="S37" s="23">
-        <f t="shared" ref="S37" si="48">F37/(D37-E37)</f>
-        <v>2.5832170619892365E-2</v>
+        <f t="shared" si="53"/>
+        <v>0.69393103448275861</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" ref="T37" si="49">I37/H37</f>
-        <v>0.19384432945235014</v>
+        <f t="shared" si="36"/>
+        <v>0.11011523687580026</v>
       </c>
       <c r="U37" s="23">
-        <f t="shared" ref="U37" si="50">M37/H37</f>
-        <v>6.5376599108811259E-2</v>
+        <f t="shared" si="37"/>
+        <v>4.6948356807511735E-2</v>
       </c>
       <c r="V37" s="23">
-        <f t="shared" ref="V37" si="51">H37/D37</f>
-        <v>1.0915509531654506</v>
+        <f t="shared" si="5"/>
+        <v>0.51824817518248179</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" ref="W37" si="52">D37/E37</f>
-        <v>2.4412525136455043</v>
+        <f t="shared" si="6"/>
+        <v>1.9271099744245523</v>
       </c>
       <c r="X37" s="23">
-        <f t="shared" ref="X37" si="53">M37/E37</f>
-        <v>0.17421239107536149</v>
+        <f t="shared" si="33"/>
+        <v>4.6888320545609548E-2</v>
       </c>
       <c r="Y37" s="24"/>
       <c r="Z37" s="21">
-        <v>14052</v>
+        <v>339</v>
       </c>
       <c r="AA37" s="21">
-        <v>6027</v>
+        <v>694.9</v>
       </c>
       <c r="AB37" s="21">
-        <v>33478</v>
+        <v>69.5</v>
       </c>
       <c r="AC37" s="21">
-        <v>47532</v>
+        <v>105</v>
       </c>
       <c r="AD37" s="21">
         <f t="shared" si="7"/>
-        <v>6025</v>
+        <v>998.40000000000009</v>
       </c>
       <c r="AE37" s="11">
-        <f t="shared" ref="AE37" si="54">Z37/H37</f>
-        <v>0.15148771021992238</v>
+        <f t="shared" si="8"/>
+        <v>0.43405889884763127</v>
       </c>
       <c r="AF37" s="11">
-        <f t="shared" ref="AF37" si="55">AA37/H37</f>
-        <v>6.4974126778783961E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.88975672215108836</v>
       </c>
       <c r="AG37" s="11">
-        <f t="shared" ref="AG37" si="56">AB37/H37</f>
-        <v>0.36090987494609744</v>
+        <f t="shared" si="10"/>
+        <v>8.8988476312419976E-2</v>
       </c>
       <c r="AH37" s="11">
-        <f t="shared" ref="AH37" si="57">AC37/H37</f>
-        <v>0.51241914618369988</v>
+        <f t="shared" si="11"/>
+        <v>0.13444302176696543</v>
       </c>
       <c r="AI37" s="11">
-        <f t="shared" ref="AI37" si="58">AD37/H37</f>
-        <v>6.495256576110392E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.2783610755441743</v>
       </c>
       <c r="AJ37" s="11">
         <f t="shared" si="30"/>
-        <v>1.7817427385892117</v>
+        <v>5.8092948717948713E-2</v>
       </c>
       <c r="AK37" s="11">
         <f t="shared" si="13"/>
-        <v>1.0065283540802212</v>
+        <v>3.6725427350427345E-2</v>
       </c>
       <c r="AL37" s="27"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
-      <c r="AO37" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AP37" s="11" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="11"/>
       <c r="AQ37" s="11" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR37" s="11"/>
-      <c r="AS37" s="20"/>
     </row>
     <row r="38" spans="1:45">
       <c r="A38" s="6" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D38" s="21">
-        <v>120492</v>
+        <v>2500</v>
       </c>
       <c r="E38" s="21">
-        <v>17725</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="21">
-        <f>6986+39837</f>
-        <v>46823</v>
+        <v>0</v>
       </c>
       <c r="G38" s="21">
-        <v>164</v>
+        <v>-3</v>
       </c>
       <c r="H38" s="21">
-        <v>79139</v>
+        <v>1800</v>
       </c>
       <c r="I38" s="21">
-        <v>36227</v>
+        <v>410</v>
       </c>
       <c r="J38" s="21">
-        <v>5753</v>
+        <v>348</v>
       </c>
       <c r="K38" s="21">
-        <v>11872</v>
+        <v>252</v>
       </c>
       <c r="L38" s="21">
-        <v>13190</v>
+        <v>162</v>
       </c>
       <c r="M38" s="21">
         <f t="shared" si="0"/>
-        <v>10271.666666666666</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>187</v>
+        <v>254</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="O38" s="21">
-        <v>145410</v>
+        <v>8800</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="42"/>
-        <v>14.156417329222782</v>
+        <f t="shared" si="51"/>
+        <v>34.645669291338585</v>
       </c>
       <c r="Q38" s="23">
         <f t="shared" si="2"/>
-        <v>0.85289479799488765</v>
+        <v>0.2</v>
       </c>
       <c r="R38" s="23">
-        <f t="shared" si="43"/>
-        <v>0.38859841317265875</v>
+        <f t="shared" si="52"/>
+        <v>0</v>
       </c>
       <c r="S38" s="23">
-        <f t="shared" si="44"/>
-        <v>0.45562291397043797</v>
+        <f t="shared" si="53"/>
+        <v>0</v>
       </c>
       <c r="T38" s="23">
         <f t="shared" si="36"/>
-        <v>0.45776418706326844</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="U38" s="23">
         <f t="shared" si="37"/>
-        <v>0.12979272756373805</v>
+        <v>0.1411111111111111</v>
       </c>
       <c r="V38" s="23">
         <f t="shared" si="5"/>
-        <v>0.65679879162102051</v>
+        <v>0.72</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" si="6"/>
-        <v>6.7978561354019744</v>
+        <v>1.25</v>
       </c>
       <c r="X38" s="23">
         <f t="shared" si="33"/>
-        <v>0.57950164551010808</v>
+        <v>0.127</v>
       </c>
       <c r="Y38" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z38" s="21">
-        <v>11116</v>
+        <v>480</v>
       </c>
       <c r="AA38" s="21">
-        <v>1583</v>
+        <v>51</v>
       </c>
       <c r="AB38" s="21">
-        <v>9909</v>
+        <v>7</v>
       </c>
       <c r="AC38" s="21">
-        <v>6451</v>
+        <v>169</v>
       </c>
       <c r="AD38" s="21">
         <f t="shared" si="7"/>
-        <v>16157</v>
+        <v>369</v>
       </c>
       <c r="AE38" s="11">
         <f t="shared" si="8"/>
-        <v>0.14046171925346543</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AF38" s="11">
         <f t="shared" si="9"/>
-        <v>2.0002779918876914E-2</v>
+        <v>2.8333333333333332E-2</v>
       </c>
       <c r="AG38" s="11">
         <f t="shared" si="10"/>
-        <v>0.12521007341513035</v>
+        <v>3.8888888888888888E-3</v>
       </c>
       <c r="AH38" s="11">
         <f t="shared" si="11"/>
-        <v>8.1514803068019559E-2</v>
+        <v>9.3888888888888883E-2</v>
       </c>
       <c r="AI38" s="11">
         <f t="shared" si="12"/>
-        <v>0.20415976951945311</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AJ38" s="11">
         <f t="shared" si="30"/>
-        <v>0.35606857708733058</v>
+        <v>0.94308943089430897</v>
       </c>
       <c r="AK38" s="11">
         <f t="shared" si="13"/>
-        <v>0.63574095851127477</v>
+        <v>0.68834688346883466</v>
       </c>
       <c r="AL38" s="27"/>
       <c r="AM38" s="21"/>
@@ -7224,343 +7208,455 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR38" s="11"/>
+      <c r="AS38" s="20" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="39" spans="1:45">
       <c r="A39" s="6" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D39" s="21">
+        <v>84980</v>
+      </c>
+      <c r="E39" s="21">
+        <v>34810</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1296</v>
+      </c>
+      <c r="G39" s="21">
+        <v>35</v>
+      </c>
+      <c r="H39" s="21">
+        <v>92760</v>
+      </c>
+      <c r="I39" s="21">
+        <v>17981</v>
+      </c>
+      <c r="J39" s="21">
+        <v>10735</v>
+      </c>
+      <c r="K39" s="21">
+        <v>5170</v>
+      </c>
+      <c r="L39" s="21">
+        <v>2288</v>
+      </c>
+      <c r="M39" s="21">
+        <f t="shared" si="0"/>
+        <v>6064.333333333333</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O39" s="21">
+        <v>210437</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" ref="P39" si="54">O39/M39</f>
+        <v>34.700764030121476</v>
+      </c>
+      <c r="Q39" s="23">
+        <f t="shared" ref="Q39" si="55">(D39-E39)/D39</f>
+        <v>0.59037420569545773</v>
+      </c>
+      <c r="R39" s="23">
+        <f t="shared" ref="R39" si="56">F39/D39</f>
+        <v>1.5250647211108496E-2</v>
+      </c>
+      <c r="S39" s="23">
+        <f t="shared" ref="S39" si="57">F39/(D39-E39)</f>
+        <v>2.5832170619892365E-2</v>
+      </c>
+      <c r="T39" s="23">
+        <f t="shared" ref="T39" si="58">I39/H39</f>
+        <v>0.19384432945235014</v>
+      </c>
+      <c r="U39" s="23">
+        <f t="shared" ref="U39" si="59">M39/H39</f>
+        <v>6.5376599108811259E-2</v>
+      </c>
+      <c r="V39" s="23">
+        <f t="shared" ref="V39" si="60">H39/D39</f>
+        <v>1.0915509531654506</v>
+      </c>
+      <c r="W39" s="8">
+        <f t="shared" ref="W39" si="61">D39/E39</f>
+        <v>2.4412525136455043</v>
+      </c>
+      <c r="X39" s="23">
+        <f t="shared" ref="X39" si="62">M39/E39</f>
+        <v>0.17421239107536149</v>
+      </c>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="21">
+        <v>14052</v>
+      </c>
+      <c r="AA39" s="21">
+        <v>6027</v>
+      </c>
+      <c r="AB39" s="21">
+        <v>33478</v>
+      </c>
+      <c r="AC39" s="21">
+        <v>47532</v>
+      </c>
+      <c r="AD39" s="21">
+        <f t="shared" si="7"/>
+        <v>6025</v>
+      </c>
+      <c r="AE39" s="11">
+        <f t="shared" ref="AE39" si="63">Z39/H39</f>
+        <v>0.15148771021992238</v>
+      </c>
+      <c r="AF39" s="11">
+        <f t="shared" ref="AF39" si="64">AA39/H39</f>
+        <v>6.4974126778783961E-2</v>
+      </c>
+      <c r="AG39" s="11">
+        <f t="shared" ref="AG39" si="65">AB39/H39</f>
+        <v>0.36090987494609744</v>
+      </c>
+      <c r="AH39" s="11">
+        <f t="shared" ref="AH39" si="66">AC39/H39</f>
+        <v>0.51241914618369988</v>
+      </c>
+      <c r="AI39" s="11">
+        <f t="shared" ref="AI39" si="67">AD39/H39</f>
+        <v>6.495256576110392E-2</v>
+      </c>
+      <c r="AJ39" s="11">
+        <f t="shared" si="30"/>
+        <v>1.7817427385892117</v>
+      </c>
+      <c r="AK39" s="11">
+        <f t="shared" si="13"/>
+        <v>1.0065283540802212</v>
+      </c>
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="11" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ39" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="20"/>
+    </row>
+    <row r="40" spans="1:45">
+      <c r="A40" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="21">
+        <v>120492</v>
+      </c>
+      <c r="E40" s="21">
+        <v>17725</v>
+      </c>
+      <c r="F40" s="21">
+        <f>6986+39837</f>
+        <v>46823</v>
+      </c>
+      <c r="G40" s="21">
+        <v>164</v>
+      </c>
+      <c r="H40" s="21">
+        <v>79139</v>
+      </c>
+      <c r="I40" s="21">
+        <v>36227</v>
+      </c>
+      <c r="J40" s="21">
+        <v>5753</v>
+      </c>
+      <c r="K40" s="21">
+        <v>11872</v>
+      </c>
+      <c r="L40" s="21">
+        <v>13190</v>
+      </c>
+      <c r="M40" s="21">
+        <f t="shared" si="0"/>
+        <v>10271.666666666666</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O40" s="21">
+        <v>145410</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" si="51"/>
+        <v>14.156417329222782</v>
+      </c>
+      <c r="Q40" s="23">
+        <f t="shared" si="2"/>
+        <v>0.85289479799488765</v>
+      </c>
+      <c r="R40" s="23">
+        <f t="shared" si="52"/>
+        <v>0.38859841317265875</v>
+      </c>
+      <c r="S40" s="23">
+        <f t="shared" si="53"/>
+        <v>0.45562291397043797</v>
+      </c>
+      <c r="T40" s="23">
+        <f t="shared" si="36"/>
+        <v>0.45776418706326844</v>
+      </c>
+      <c r="U40" s="23">
+        <f t="shared" si="37"/>
+        <v>0.12979272756373805</v>
+      </c>
+      <c r="V40" s="23">
+        <f t="shared" si="5"/>
+        <v>0.65679879162102051</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" si="6"/>
+        <v>6.7978561354019744</v>
+      </c>
+      <c r="X40" s="23">
+        <f t="shared" si="33"/>
+        <v>0.57950164551010808</v>
+      </c>
+      <c r="Y40" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z40" s="21">
+        <v>11116</v>
+      </c>
+      <c r="AA40" s="21">
+        <v>1583</v>
+      </c>
+      <c r="AB40" s="21">
+        <v>9909</v>
+      </c>
+      <c r="AC40" s="21">
+        <v>6451</v>
+      </c>
+      <c r="AD40" s="21">
+        <f t="shared" si="7"/>
+        <v>16157</v>
+      </c>
+      <c r="AE40" s="11">
+        <f t="shared" si="8"/>
+        <v>0.14046171925346543</v>
+      </c>
+      <c r="AF40" s="11">
+        <f t="shared" si="9"/>
+        <v>2.0002779918876914E-2</v>
+      </c>
+      <c r="AG40" s="11">
+        <f t="shared" si="10"/>
+        <v>0.12521007341513035</v>
+      </c>
+      <c r="AH40" s="11">
+        <f t="shared" si="11"/>
+        <v>8.1514803068019559E-2</v>
+      </c>
+      <c r="AI40" s="11">
+        <f t="shared" si="12"/>
+        <v>0.20415976951945311</v>
+      </c>
+      <c r="AJ40" s="11">
+        <f t="shared" si="30"/>
+        <v>0.35606857708733058</v>
+      </c>
+      <c r="AK40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.63574095851127477</v>
+      </c>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="11" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ40" s="11" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR40" s="11"/>
+    </row>
+    <row r="41" spans="1:45">
+      <c r="A41" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="21">
         <v>61604</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E41" s="21">
         <v>23505</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F41" s="21">
         <f>3850+10182</f>
         <v>14032</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G41" s="21">
         <v>265</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H41" s="21">
         <v>28871</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I41" s="21">
         <v>625</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J41" s="21">
         <v>344</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K41" s="21">
         <v>3161</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L41" s="21">
         <v>2461</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M41" s="21">
         <f t="shared" si="0"/>
         <v>1988.6666666666667</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O41" s="21">
         <v>25939</v>
       </c>
-      <c r="P39" s="8">
-        <f t="shared" si="42"/>
+      <c r="P41" s="8">
+        <f t="shared" si="51"/>
         <v>13.043412671806905</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q41" s="23">
         <f t="shared" si="2"/>
         <v>0.61845010064281536</v>
       </c>
-      <c r="R39" s="23">
-        <f t="shared" si="43"/>
+      <c r="R41" s="23">
+        <f t="shared" si="52"/>
         <v>0.22777741705084084</v>
       </c>
-      <c r="S39" s="23">
-        <f t="shared" si="44"/>
+      <c r="S41" s="23">
+        <f t="shared" si="53"/>
         <v>0.36830363001653588</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T41" s="23">
         <f t="shared" si="36"/>
         <v>2.1648020505005021E-2</v>
       </c>
-      <c r="U39" s="23">
+      <c r="U41" s="23">
         <f t="shared" si="37"/>
         <v>6.8881114844191987E-2</v>
       </c>
-      <c r="V39" s="23">
+      <c r="V41" s="23">
         <f t="shared" si="5"/>
         <v>0.46865463281605091</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W41" s="8">
         <f t="shared" si="6"/>
         <v>2.620889172516486</v>
       </c>
-      <c r="X39" s="23">
+      <c r="X41" s="23">
         <f t="shared" si="33"/>
         <v>8.4606112174714601E-2</v>
       </c>
-      <c r="Y39" s="24" t="s">
+      <c r="Y41" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="Z39" s="21">
+      <c r="Z41" s="21">
         <v>6296</v>
       </c>
-      <c r="AA39" s="21">
+      <c r="AA41" s="21">
         <v>2315</v>
       </c>
-      <c r="AB39" s="21">
+      <c r="AB41" s="21">
         <v>3073</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AC41" s="2">
         <v>6072</v>
       </c>
-      <c r="AD39" s="21">
+      <c r="AD41" s="21">
         <f t="shared" si="7"/>
         <v>5612</v>
       </c>
-      <c r="AE39" s="11">
+      <c r="AE41" s="11">
         <f t="shared" si="8"/>
         <v>0.2180734993592186</v>
       </c>
-      <c r="AF39" s="11">
+      <c r="AF41" s="11">
         <f t="shared" si="9"/>
         <v>8.018426795053861E-2</v>
       </c>
-      <c r="AG39" s="11">
+      <c r="AG41" s="11">
         <f t="shared" si="10"/>
         <v>0.1064389872190087</v>
       </c>
-      <c r="AH39" s="11">
+      <c r="AH41" s="11">
         <f t="shared" si="11"/>
         <v>0.2103148488102248</v>
       </c>
-      <c r="AI39" s="11">
+      <c r="AI41" s="11">
         <f t="shared" si="12"/>
         <v>0.19438190571854111</v>
       </c>
-      <c r="AJ39" s="11">
+      <c r="AJ41" s="11">
         <f t="shared" si="30"/>
         <v>6.1297220242337851E-2</v>
       </c>
-      <c r="AK39" s="11">
+      <c r="AK41" s="11">
         <f t="shared" si="13"/>
         <v>0.35435970539320505</v>
       </c>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="21">
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="21">
         <v>21444</v>
       </c>
-      <c r="AN39" s="21">
+      <c r="AN41" s="21">
         <v>18924</v>
       </c>
-      <c r="AO39" s="21">
+      <c r="AO41" s="21">
         <f t="shared" si="28"/>
         <v>2520</v>
       </c>
-      <c r="AP39" s="11">
-        <f>AM39/AN39</f>
+      <c r="AP41" s="11">
+        <f>AM41/AN41</f>
         <v>1.1331642358909322</v>
       </c>
-      <c r="AQ39" s="11">
+      <c r="AQ41" s="11">
         <f t="shared" si="31"/>
         <v>1.0108328049038258</v>
       </c>
-      <c r="AR39" s="11"/>
-    </row>
-    <row r="40" spans="1:45">
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="8" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R40" s="23" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S40" s="23" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="23" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X40" s="23" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y40" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF40" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG40" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH40" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI40" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ40" s="11" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK40" s="11" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL40" s="27"/>
-      <c r="AO40" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45">
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="8" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q41" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R41" s="23" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S41" s="23" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" s="23" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X41" s="23" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y41" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF41" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG41" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH41" s="11" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI41" s="11" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ41" s="11" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK41" s="11" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL41" s="27"/>
-      <c r="AO41" s="21">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="AR41" s="11"/>
     </row>
     <row r="42" spans="1:45">
       <c r="D42" s="21"/>
@@ -7579,7 +7675,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="8" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="23" t="e">
@@ -7587,11 +7683,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="23" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S42" s="23" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T42" s="23" t="e">
@@ -7618,7 +7714,10 @@
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="21"/>
+      <c r="AD42" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AE42" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -7670,7 +7769,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="8" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="23" t="e">
@@ -7678,11 +7777,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="23" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="23" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T43" s="23" t="e">
@@ -7690,8 +7789,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
+      <c r="V43" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X43" s="23" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
@@ -7701,16 +7806,37 @@
       </c>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
-      <c r="AB43" s="2"/>
+      <c r="AB43" s="21"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="21"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="11"/>
+      <c r="AE43" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF43" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG43" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH43" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI43" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ43" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK43" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AL43" s="27"/>
       <c r="AO43" s="21">
         <f t="shared" si="28"/>
@@ -7734,25 +7860,79 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="8" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
+      <c r="Q44" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="23" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="23" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="23" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W44" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X44" s="23" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y44" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z44" s="21"/>
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
+      <c r="AC44" s="2"/>
       <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
+      <c r="AE44" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF44" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG44" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH44" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI44" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ44" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK44" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL44" s="27"/>
+      <c r="AO44" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:45">
       <c r="D45" s="21"/>
@@ -7770,23 +7950,53 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
+      <c r="P45" s="8" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="23" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="23" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="23" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y45" s="24" t="s">
         <v>237</v>
       </c>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
       <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="21"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="27"/>
+      <c r="AO45" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:45">
       <c r="D46" s="21"/>
@@ -7804,7 +8014,10 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="8"/>
+      <c r="P46" s="8" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
       <c r="Y46" s="24" t="s">
@@ -7832,13 +8045,29 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="M47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="23"/>
       <c r="R47" s="23"/>
+      <c r="Y47" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
     </row>
     <row r="48" spans="1:45">
       <c r="D48" s="21"/>
@@ -7850,13 +8079,29 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="M48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="23"/>
       <c r="R48" s="23"/>
+      <c r="Y48" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
     </row>
     <row r="49" spans="4:30">
       <c r="D49" s="21"/>
@@ -7890,8 +8135,9 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="AD50" s="21"/>
     </row>
     <row r="51" spans="4:30">
       <c r="D51" s="21"/>
@@ -7907,20 +8153,21 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="AD51" s="21"/>
     </row>
     <row r="52" spans="4:30">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="8"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="8"/>
@@ -7928,16 +8175,16 @@
       <c r="R52" s="8"/>
     </row>
     <row r="53" spans="4:30">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="8"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="8"/>
@@ -8182,9 +8429,43 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
+    <row r="68" spans="4:18">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+    </row>
+    <row r="69" spans="4:18">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AU46"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:AU48"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10372,7 +10653,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12142,7 +12423,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12157,7 +12438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12172,7 +12453,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -469,147 +469,147 @@
   </si>
   <si>
     <t>A002594</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>比亚迪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>今世缘</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>18y03</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A603898</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>好莱客</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>负债率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有息负债比重</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有息负债率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Date2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A603369</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>总资产</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>净资产</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有息负债</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>财务费用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>营收</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>营业利润</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>净利润1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>净利润2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>净利润3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>平均净利润</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>市值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>平均市盈率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A000848</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>承德露露</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>植物饮料业务研究?</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A600674</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>川投能源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -625,15 +625,15 @@
       </rPr>
       <t>0亿,投资收益36亿;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>投资收益来源研究?</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>与长安汽车的财务数据比较接近,市值是前者的两倍;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>双汇发展</t>
@@ -703,23 +703,23 @@
   </si>
   <si>
     <t>平均ROE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>固定资产</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>存货</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>应付账款</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已用资本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,7 +735,7 @@
       </rPr>
       <t>%;ROE9%;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -751,19 +751,19 @@
       </rPr>
       <t>40%;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>应收账款</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有息负债为零；已用资本-营收比125%;毛利率:40%;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -779,11 +779,11 @@
       </rPr>
       <t>-营收比168%;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>16q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -799,7 +799,7 @@
       </rPr>
       <t>5%;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -825,7 +825,7 @@
       </rPr>
       <t>与双汇相当;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -841,7 +841,7 @@
       </rPr>
       <t>209%;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -858,7 +858,7 @@
       </rPr>
       <t>%,是否能够覆盖资金成本?</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,7 +875,7 @@
       </rPr>
       <t>%;资金成本?</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -891,19 +891,19 @@
       </rPr>
       <t>RTOCE6%,与川投能源差距很大;</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>债券用途;为何已用资本收益率如此之高209%;已用资本营收比如此之低6%?</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A000651</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>格力电器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -920,47 +920,47 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>投入1元带来营收873元,带来收益113元,</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A000333</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>美的集团</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>17q4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>固定资产/营收</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>存货/营收</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>应收/营收</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已用资本/营收</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>|</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已用资本收益率</t>
@@ -985,11 +985,11 @@
   </si>
   <si>
     <t>A601390</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>中国中铁</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1006,23 +1006,23 @@
       </rPr>
       <t>8y04</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A601857</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>中国石油</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A601986</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>中国核电</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A002507</t>
@@ -1104,12 +1104,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1317,65 +1324,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1657,7 +1664,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5119,11 +5126,11 @@
         <v>187</v>
       </c>
       <c r="O24" s="21">
-        <v>60984</v>
+        <v>54000</v>
       </c>
       <c r="P24" s="8">
         <f>O24/M24</f>
-        <v>20.563335955940207</v>
+        <v>18.208384848825446</v>
       </c>
       <c r="Q24" s="23">
         <f>(D24-E24)/D24</f>
@@ -8465,7 +8472,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AU48"/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10653,7 +10660,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12423,7 +12430,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J63"/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12438,7 +12445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12453,7 +12460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>